--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1385">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -3322,6 +3322,855 @@
   </si>
   <si>
     <t>SHIVAA’S ROSE</t>
+  </si>
+  <si>
+    <t>Custom website  / No ecommerce provider</t>
+  </si>
+  <si>
+    <t>http://1stopcannabis.ca/</t>
+  </si>
+  <si>
+    <t>38 NORFOLK ST S</t>
+  </si>
+  <si>
+    <t>1 Stop Cannabis</t>
+  </si>
+  <si>
+    <t>60fad13c6cf69800cecbb22f</t>
+  </si>
+  <si>
+    <t>2545 COUNTY ROAD 29</t>
+  </si>
+  <si>
+    <t>Bluebird Pakenham</t>
+  </si>
+  <si>
+    <t>PAKENHAM</t>
+  </si>
+  <si>
+    <t>5e6bd36d4e5087006a687a15</t>
+  </si>
+  <si>
+    <t>244 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping',]</t>
+  </si>
+  <si>
+    <t>6126c3db6a262f00af1357ed</t>
+  </si>
+  <si>
+    <t>http://budssmoke.com/</t>
+  </si>
+  <si>
+    <t>170 DAVENFIELD CIR</t>
+  </si>
+  <si>
+    <t>BUDSSMOKE</t>
+  </si>
+  <si>
+    <t>http://cannabis151.ca/</t>
+  </si>
+  <si>
+    <t>188 THE QUEENSWAY</t>
+  </si>
+  <si>
+    <t>Cannabis 151</t>
+  </si>
+  <si>
+    <t>5ed80d3e5bec1100f0e9d957</t>
+  </si>
+  <si>
+    <t>Buddi/Dutchie</t>
+  </si>
+  <si>
+    <t>http://4kcannabis.ca/</t>
+  </si>
+  <si>
+    <t>75 BAYLY ST W UNITS 12, 13, 14</t>
+  </si>
+  <si>
+    <t>4K Cannabis</t>
+  </si>
+  <si>
+    <t>AJAX</t>
+  </si>
+  <si>
+    <t>http://cannabisbazaar.ca/</t>
+  </si>
+  <si>
+    <t>210 KING ST E UNIT B</t>
+  </si>
+  <si>
+    <t>CANNABIS BAZAAR</t>
+  </si>
+  <si>
+    <t>GANANOQUE</t>
+  </si>
+  <si>
+    <t>611bfe1aba4e60009b001af7</t>
+  </si>
+  <si>
+    <t>http://cannabishut.ca/</t>
+  </si>
+  <si>
+    <t>1715 VICTORIA PARK AVE</t>
+  </si>
+  <si>
+    <t>Cannabis Hut Ltd</t>
+  </si>
+  <si>
+    <t>640663159c07e70031de8630</t>
+  </si>
+  <si>
+    <t>http://cannabisjacks.ca/</t>
+  </si>
+  <si>
+    <t>30 BAY ST UNIT C</t>
+  </si>
+  <si>
+    <t>CALLANDER</t>
+  </si>
+  <si>
+    <t>5ff8c76767db8b00c4cd25c7</t>
+  </si>
+  <si>
+    <t>http://cannabisplusstore.com/</t>
+  </si>
+  <si>
+    <t>128 SIMPSON ST</t>
+  </si>
+  <si>
+    <t>Cannabis Plus Store</t>
+  </si>
+  <si>
+    <t>60f9a0d70d3f2a00b02c1cb9</t>
+  </si>
+  <si>
+    <t>http://cannabisstreet.ca/</t>
+  </si>
+  <si>
+    <t>1100 SIMCOE ST N UNIT 3</t>
+  </si>
+  <si>
+    <t>Cannabis Street</t>
+  </si>
+  <si>
+    <t>60d3b337465e0c00ad4cc476</t>
+  </si>
+  <si>
+    <t>http://cannabistshop.ca/</t>
+  </si>
+  <si>
+    <t>5 MANITOU DR SUITE 104</t>
+  </si>
+  <si>
+    <t>THE CANNABIST SHOP - MANITOU</t>
+  </si>
+  <si>
+    <t>60ef6512cfdcd400d5411d76</t>
+  </si>
+  <si>
+    <t>25 UNIVERSITY AVE E</t>
+  </si>
+  <si>
+    <t>BUDDIES CANNABIS</t>
+  </si>
+  <si>
+    <t>62fd3fc40b5b0900accd8a50</t>
+  </si>
+  <si>
+    <t>http://golden-harvest.ca/</t>
+  </si>
+  <si>
+    <t>71 17 HWY W</t>
+  </si>
+  <si>
+    <t>GOLDEN HARVEST</t>
+  </si>
+  <si>
+    <t>5f32fe11f29e9f00b81dd1e8</t>
+  </si>
+  <si>
+    <t>http://ovcs.online/</t>
+  </si>
+  <si>
+    <t>1035 PEMBROKE ST E</t>
+  </si>
+  <si>
+    <t>OVCS</t>
+  </si>
+  <si>
+    <t>5e8295ca9a52c300ad5a71df</t>
+  </si>
+  <si>
+    <t>2152 YONGE ST</t>
+  </si>
+  <si>
+    <t>6176dcd90fa591008682e7c9</t>
+  </si>
+  <si>
+    <t>http://kushklub.ca/</t>
+  </si>
+  <si>
+    <t>2250 EGLINTON AVE W</t>
+  </si>
+  <si>
+    <t>Kush Klub</t>
+  </si>
+  <si>
+    <t>60b7977739f90500a06a5bdd</t>
+  </si>
+  <si>
+    <t>http://highlife.ca/</t>
+  </si>
+  <si>
+    <t>625 TRUNK RD UNIT 9</t>
+  </si>
+  <si>
+    <t>HIGHLIFE SSM</t>
+  </si>
+  <si>
+    <t>['Delivery', 'In-store shopping']</t>
+  </si>
+  <si>
+    <t>63c86eb2f349a600d1419a27</t>
+  </si>
+  <si>
+    <t>http://highties.ca/</t>
+  </si>
+  <si>
+    <t>3320 MCCARTHY RD UNIT 2006</t>
+  </si>
+  <si>
+    <t>Highties Cannabis Store</t>
+  </si>
+  <si>
+    <t>5edd4135ede83a01517e9ab0</t>
+  </si>
+  <si>
+    <t>http://puffshop.ca/</t>
+  </si>
+  <si>
+    <t>2830 MARKHAM RD</t>
+  </si>
+  <si>
+    <t>Pufftastic Cannabis Company</t>
+  </si>
+  <si>
+    <t>60899d8d5904e400d9a12b21</t>
+  </si>
+  <si>
+    <t>http://gardencitycannabisco.com/</t>
+  </si>
+  <si>
+    <t>623 NIAGARA ST</t>
+  </si>
+  <si>
+    <t>Garden City Cannabis Co</t>
+  </si>
+  <si>
+    <t>WELLAND</t>
+  </si>
+  <si>
+    <t>638942efadeac700f3330edd</t>
+  </si>
+  <si>
+    <t>469 EAST MAIN ST</t>
+  </si>
+  <si>
+    <t>['Curbside pickup',  'In-store pickup', 'In-store shopping',]</t>
+  </si>
+  <si>
+    <t>604917775779f4647d0caa1e</t>
+  </si>
+  <si>
+    <t>http://cannacocannabis.ca/</t>
+  </si>
+  <si>
+    <t>28 MAIN ST S</t>
+  </si>
+  <si>
+    <t>CANNACO THE CANNABIS COMPANY</t>
+  </si>
+  <si>
+    <t>http://cannanorth.ca/</t>
+  </si>
+  <si>
+    <t>2547A BASELINE RD</t>
+  </si>
+  <si>
+    <t>CANNA NORTH CANNABIS STORE</t>
+  </si>
+  <si>
+    <t>http://chill-cannabis.com/</t>
+  </si>
+  <si>
+    <t>8A WELLINGTON ST W SS 2</t>
+  </si>
+  <si>
+    <t>Chill Cannabis</t>
+  </si>
+  <si>
+    <t>EXETER</t>
+  </si>
+  <si>
+    <t>http://clintoncannabis.net/</t>
+  </si>
+  <si>
+    <t>16 KING STREET</t>
+  </si>
+  <si>
+    <t>Clinton Cannabis</t>
+  </si>
+  <si>
+    <t>CLINTON</t>
+  </si>
+  <si>
+    <t>http://dreamcannabis.net/</t>
+  </si>
+  <si>
+    <t>202-3000 WELLINGTON ROAD</t>
+  </si>
+  <si>
+    <t>DREAM CANNABIS</t>
+  </si>
+  <si>
+    <t>250 GREENBANK RD UNIT 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DREAM CANNABIS </t>
+  </si>
+  <si>
+    <t>http://dutch.love/</t>
+  </si>
+  <si>
+    <t>1316 KING ST W</t>
+  </si>
+  <si>
+    <t>Dutch Love Cannabis</t>
+  </si>
+  <si>
+    <t>624244440abb5d3a9260bb44</t>
+  </si>
+  <si>
+    <t>http://costcan.ca/</t>
+  </si>
+  <si>
+    <t>439 GOVERNMENT ST UNIT 5</t>
+  </si>
+  <si>
+    <t>COST CANNABIS</t>
+  </si>
+  <si>
+    <t>DRYDEN</t>
+  </si>
+  <si>
+    <t>1123 ALBION RD UNIT 3</t>
+  </si>
+  <si>
+    <t>1135 LANSDOWNE ST W UNIT 9</t>
+  </si>
+  <si>
+    <t>COST CANNABIS - PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>32 BARTON ST E</t>
+  </si>
+  <si>
+    <t>64090b65dbe3f70158ac50ff</t>
+  </si>
+  <si>
+    <t>http://dutchie.com/stores/tokyo-smoke-aurora-yonge-st</t>
+  </si>
+  <si>
+    <t>14800 YONGE ST UNIT 114</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Aurora</t>
+  </si>
+  <si>
+    <t>http://famousflower.ca/</t>
+  </si>
+  <si>
+    <t>1777 DUNDAS ST UNIT A2</t>
+  </si>
+  <si>
+    <t>FAMOUS FLOWER CANNABIS CO.</t>
+  </si>
+  <si>
+    <t>http://finecannabis.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/07/28</t>
+  </si>
+  <si>
+    <t>5 PEACOCK BAY</t>
+  </si>
+  <si>
+    <t>F1NE Cannabis</t>
+  </si>
+  <si>
+    <t>6116e0d014853000d31a5b68</t>
+  </si>
+  <si>
+    <t>http://purcannabis.ca/</t>
+  </si>
+  <si>
+    <t>37A WYNDHAM ST N</t>
+  </si>
+  <si>
+    <t>PUR CANNABIS – WYNDHAM N</t>
+  </si>
+  <si>
+    <t>61fb1e23a7494f00929712db</t>
+  </si>
+  <si>
+    <t>147 KING ST W</t>
+  </si>
+  <si>
+    <t>PUR CANNABIS-KING W</t>
+  </si>
+  <si>
+    <t>5f7caf0ca1b4bf010829fa55</t>
+  </si>
+  <si>
+    <t>http://growersretailcannabis.ca/</t>
+  </si>
+  <si>
+    <t>1021 PAPE AVE</t>
+  </si>
+  <si>
+    <t>Growers Retail</t>
+  </si>
+  <si>
+    <t>608c247327490a00a015b79d</t>
+  </si>
+  <si>
+    <t>970 THE QUEENSWAY</t>
+  </si>
+  <si>
+    <t>5eb9a54b5499c8014acb10be</t>
+  </si>
+  <si>
+    <t>2002 LAWRENCE AVE E</t>
+  </si>
+  <si>
+    <t>5eb99a63a358400163286ce1</t>
+  </si>
+  <si>
+    <t>492 PARLIAMENT ST</t>
+  </si>
+  <si>
+    <t>GROWERS RETAIL</t>
+  </si>
+  <si>
+    <t>5ea1156cda39e600dd8402ce</t>
+  </si>
+  <si>
+    <t>50 WESTMOUNT RD N</t>
+  </si>
+  <si>
+    <t>6130ebaf98715f00d5b2b4d7</t>
+  </si>
+  <si>
+    <t>42 LAKESHORE DR</t>
+  </si>
+  <si>
+    <t>1170 MEMORIAL AVE</t>
+  </si>
+  <si>
+    <t>HAPPY LIFE</t>
+  </si>
+  <si>
+    <t>g5DNgq7oCdSBstTt5</t>
+  </si>
+  <si>
+    <t>http://hellocannabis.ca/london</t>
+  </si>
+  <si>
+    <t>73 YORK ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELLO CANNABIS YORK ST </t>
+  </si>
+  <si>
+    <t>634dc4d338f90100cd429ea5</t>
+  </si>
+  <si>
+    <t>5085 OLD HWY 69</t>
+  </si>
+  <si>
+    <t>HIGHLIFE CANNABIS HANMER EXPRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANMER </t>
+  </si>
+  <si>
+    <t>5fea77a839261a00d04c7306</t>
+  </si>
+  <si>
+    <t>1295 FINCH AVE W UNIT 1</t>
+  </si>
+  <si>
+    <t>Highlife on Finch Retail</t>
+  </si>
+  <si>
+    <t>634dc43bf7013f00d5d17faf</t>
+  </si>
+  <si>
+    <t>119 GEORGE ST N</t>
+  </si>
+  <si>
+    <t>Highlife Cannabis Peterborough</t>
+  </si>
+  <si>
+    <t>http://highlitecannabis.ca/</t>
+  </si>
+  <si>
+    <t>1581 BANK ST UNIT B</t>
+  </si>
+  <si>
+    <t>HIGH LITE CANNABIS STORE</t>
+  </si>
+  <si>
+    <t>6287d654db148f009630d999</t>
+  </si>
+  <si>
+    <t>http://hollanddaze.ca/</t>
+  </si>
+  <si>
+    <t>150 FIRST ST UNIT G4</t>
+  </si>
+  <si>
+    <t>HOLLAND DAZE</t>
+  </si>
+  <si>
+    <t>ORANGEVILLE</t>
+  </si>
+  <si>
+    <t>60d223c89db43a23103c3676</t>
+  </si>
+  <si>
+    <t>http://moonfirecannabis.ca/</t>
+  </si>
+  <si>
+    <t>1050 2ND AVE E SUITE 5</t>
+  </si>
+  <si>
+    <t>Moonfire Cannabis</t>
+  </si>
+  <si>
+    <t>60989515807b3600b46a0e27</t>
+  </si>
+  <si>
+    <t>http://giggleleaf.ca/</t>
+  </si>
+  <si>
+    <t>1 HORSESHOE LAKE ROAD</t>
+  </si>
+  <si>
+    <t>Giggle Leaf</t>
+  </si>
+  <si>
+    <t>62156913262c9f00861c738e</t>
+  </si>
+  <si>
+    <t>http://greengrove.ca/</t>
+  </si>
+  <si>
+    <t>2 THOMPSON CRES UNIT 6 SS 1</t>
+  </si>
+  <si>
+    <t>Green Grove</t>
+  </si>
+  <si>
+    <t>646384f2cb8c50001d1e4b42</t>
+  </si>
+  <si>
+    <t>http://groovecannabis.com/</t>
+  </si>
+  <si>
+    <t>1380 SECOND ST E UNIT 26</t>
+  </si>
+  <si>
+    <t>Groove Cannabis Co. Inc.</t>
+  </si>
+  <si>
+    <t>646384c52b3e92002bc53608</t>
+  </si>
+  <si>
+    <t>6327 COUNTY RD 2 UNIT 3</t>
+  </si>
+  <si>
+    <t>Groove Cannabis Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH LANCASTER </t>
+  </si>
+  <si>
+    <t>iucgif3KboyJzHye9</t>
+  </si>
+  <si>
+    <t>225 GEORGE ST N</t>
+  </si>
+  <si>
+    <t>618d2efcae206f00a4911f08</t>
+  </si>
+  <si>
+    <t>http://harvestcannabisco.ca/</t>
+  </si>
+  <si>
+    <t>376 VICTORIA ST N UNIT 5A</t>
+  </si>
+  <si>
+    <t>Harvest Cannabis Co</t>
+  </si>
+  <si>
+    <t>611298aaf0f47d00b80c34c8</t>
+  </si>
+  <si>
+    <t>http://odysseycannabis.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 TISDALE ST S. UNIT A </t>
+  </si>
+  <si>
+    <t>ODYSSEY CANNABIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMILTON </t>
+  </si>
+  <si>
+    <t>6054ba7582c57200ce76c9e7</t>
+  </si>
+  <si>
+    <t>http://popscannabis.ca/</t>
+  </si>
+  <si>
+    <t>12006 17 HWY E SUITE 2</t>
+  </si>
+  <si>
+    <t>POP’S CANNABIS CO. STURGEON FALLS</t>
+  </si>
+  <si>
+    <t>STURGEON FALLS</t>
+  </si>
+  <si>
+    <t>5fd9060a3b500200eb20f810</t>
+  </si>
+  <si>
+    <t>http://ronincannabis.ca/</t>
+  </si>
+  <si>
+    <t>86 GORDON ST UNIT C</t>
+  </si>
+  <si>
+    <t>Ronin Cannabis</t>
+  </si>
+  <si>
+    <t>5ef3d0f98364300132aae657</t>
+  </si>
+  <si>
+    <t>http://shop.kawarthaleafs.ca/</t>
+  </si>
+  <si>
+    <t>1535 WATER ST UNIT 2</t>
+  </si>
+  <si>
+    <t>KAWARTHA LEAFS</t>
+  </si>
+  <si>
+    <t>64833e7751d95900104c4996</t>
+  </si>
+  <si>
+    <t>http://tbcontario.com/</t>
+  </si>
+  <si>
+    <t>26 MAIN ST E UNIT B</t>
+  </si>
+  <si>
+    <t>Taste Buds Cannabis</t>
+  </si>
+  <si>
+    <t>MILTON</t>
+  </si>
+  <si>
+    <t>63937e1659dc4100c138535f</t>
+  </si>
+  <si>
+    <t>http://dutchie.com/stores/tokyo-smoke-hanover-10th</t>
+  </si>
+  <si>
+    <t>895 10th St</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Hanover</t>
+  </si>
+  <si>
+    <t>HANOVER</t>
+  </si>
+  <si>
+    <t>http://forty3eighty.com/</t>
+  </si>
+  <si>
+    <t>5 TALBOT STREET EAST, UNIT 1</t>
+  </si>
+  <si>
+    <t>Forty3Eighty Cannabis Co.</t>
+  </si>
+  <si>
+    <t>CAYUGA</t>
+  </si>
+  <si>
+    <t>http://greenkingcannabis.com/</t>
+  </si>
+  <si>
+    <t>236 GOVERNORS RD</t>
+  </si>
+  <si>
+    <t>Green King Cannabis</t>
+  </si>
+  <si>
+    <t>DUNDAS</t>
+  </si>
+  <si>
+    <t>111 CLARENCE ST UNIT A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green King Cannabis </t>
+  </si>
+  <si>
+    <t>http://ipotweed.com/</t>
+  </si>
+  <si>
+    <t>141 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>IPOT</t>
+  </si>
+  <si>
+    <t>http://happywaycannabis.ca/</t>
+  </si>
+  <si>
+    <t>8 MIDTOWN DR SUITE 2</t>
+  </si>
+  <si>
+    <t>HAPPY WAY CANNABIS</t>
+  </si>
+  <si>
+    <t>http://higherlimits.com/</t>
+  </si>
+  <si>
+    <t>400 SANDWICH ST S UNIT 1300</t>
+  </si>
+  <si>
+    <t>Higher Limits Cannabis Company</t>
+  </si>
+  <si>
+    <t>AMHERSTBURG</t>
+  </si>
+  <si>
+    <t>http://kawarthasmoke.ca/</t>
+  </si>
+  <si>
+    <t>1 KING ST E</t>
+  </si>
+  <si>
+    <t>KAWARTHA SMOKE</t>
+  </si>
+  <si>
+    <t>OMEMEE</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://kingofqueenscannabis.com/</t>
+  </si>
+  <si>
+    <t>218 MAIN ST</t>
+  </si>
+  <si>
+    <t>KING OF QUEENS CANNABIS COMPANY</t>
+  </si>
+  <si>
+    <t>http://lakeviewcannabis.ca/</t>
+  </si>
+  <si>
+    <t>4 MIMICO AVE</t>
+  </si>
+  <si>
+    <t>Lakeview Cannabis</t>
+  </si>
+  <si>
+    <t>http://littlehouseto.com/</t>
+  </si>
+  <si>
+    <t>307 WELLESLEY ST E</t>
+  </si>
+  <si>
+    <t>Little House Cannabis</t>
+  </si>
+  <si>
+    <t>http://localproductscannabis.com/</t>
+  </si>
+  <si>
+    <t>704 WILSON AVE</t>
+  </si>
+  <si>
+    <t>Local Products The Cannabis Store</t>
+  </si>
+  <si>
+    <t>603e85c2714e3600e5ec7021</t>
+  </si>
+  <si>
+    <t>5780 SHEPPARD AVE E UNIT 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Tokes </t>
+  </si>
+  <si>
+    <t>http://mountainbudz.ca/</t>
+  </si>
+  <si>
+    <t>560 CONCESSION ST.</t>
+  </si>
+  <si>
+    <t>Mountain Budz</t>
+  </si>
+  <si>
+    <t>Weedmaps</t>
+  </si>
+  <si>
+    <t>http://mycannaverse.ca/</t>
+  </si>
+  <si>
+    <t>1183 WILSON ST W UNIT 5</t>
+  </si>
+  <si>
+    <t>Cannaverse</t>
+  </si>
+  <si>
+    <t>ANCASTER</t>
+  </si>
+  <si>
+    <t>1190 FISCHER HALLMAN RD</t>
+  </si>
+  <si>
+    <t>23 GEORGE WRIGHT BLVD UNIT C-1 RR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICTON </t>
+  </si>
+  <si>
+    <t>http://neatcannabis.com/</t>
+  </si>
+  <si>
+    <t>590 OXFORD ST E UNIT B</t>
+  </si>
+  <si>
+    <t>Neat Cannabis Company</t>
   </si>
 </sst>
 </file>
@@ -3468,7 +4317,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -3494,13 +4343,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -3804,16 +4655,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N248"/>
+  <dimension ref="A1:N329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="N245" sqref="N245"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="N324" sqref="N324:N329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="14" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="21" customWidth="1"/>
+    <col min="8" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3832,10 +4685,10 @@
       <c r="E1" s="16" t="s">
         <v>1090</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>1089</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>1088</v>
       </c>
       <c r="H1" s="16" t="s">
@@ -12107,7 +12960,7 @@
       <c r="F231" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G231" s="9"/>
+      <c r="G231" s="3"/>
       <c r="H231" s="1" t="s">
         <v>40</v>
       </c>
@@ -12141,7 +12994,7 @@
       <c r="F232" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G232" s="9"/>
+      <c r="G232" s="3"/>
       <c r="H232" s="1" t="s">
         <v>7</v>
       </c>
@@ -12175,7 +13028,7 @@
       <c r="F233" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G233" s="9"/>
+      <c r="G233" s="3"/>
       <c r="H233" s="1" t="s">
         <v>7</v>
       </c>
@@ -12209,7 +13062,7 @@
       <c r="F234" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G234" s="9"/>
+      <c r="G234" s="3"/>
       <c r="H234" s="1" t="s">
         <v>26</v>
       </c>
@@ -12243,7 +13096,7 @@
       <c r="F235" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G235" s="9"/>
+      <c r="G235" s="3"/>
       <c r="H235" s="1" t="s">
         <v>26</v>
       </c>
@@ -12277,7 +13130,7 @@
       <c r="F236" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G236" s="9"/>
+      <c r="G236" s="3"/>
       <c r="H236" s="1" t="s">
         <v>26</v>
       </c>
@@ -12311,7 +13164,7 @@
       <c r="F237" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G237" s="9"/>
+      <c r="G237" s="3"/>
       <c r="H237" s="1" t="s">
         <v>40</v>
       </c>
@@ -12345,7 +13198,7 @@
       <c r="F238" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G238" s="9"/>
+      <c r="G238" s="3"/>
       <c r="H238" s="1" t="s">
         <v>26</v>
       </c>
@@ -12379,7 +13232,7 @@
       <c r="F239" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="G239" s="9"/>
+      <c r="G239" s="3"/>
       <c r="H239" s="1" t="s">
         <v>26</v>
       </c>
@@ -12411,7 +13264,7 @@
       <c r="F240" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G240" s="9"/>
+      <c r="G240" s="3"/>
       <c r="H240" s="1" t="s">
         <v>26</v>
       </c>
@@ -12445,7 +13298,7 @@
       <c r="F241" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G241" s="9"/>
+      <c r="G241" s="3"/>
       <c r="H241" s="1" t="s">
         <v>14</v>
       </c>
@@ -12587,7 +13440,7 @@
       <c r="F245" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G245" s="9"/>
+      <c r="G245" s="3"/>
       <c r="H245" s="1" t="s">
         <v>26</v>
       </c>
@@ -12638,7 +13491,7 @@
       <c r="M246" s="1"/>
       <c r="N246" s="15"/>
     </row>
-    <row r="247" spans="1:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>186</v>
       </c>
@@ -12674,7 +13527,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="15"/>
     </row>
-    <row r="248" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -12709,6 +13562,2616 @@
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="15"/>
+    </row>
+    <row r="249" spans="1:14" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" s="1">
+        <v>15194290202</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="15"/>
+    </row>
+    <row r="250" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I250" s="1">
+        <v>16136240027</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N250" s="15"/>
+    </row>
+    <row r="251" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I251" s="1">
+        <v>14167920808</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N251" s="15"/>
+    </row>
+    <row r="252" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I252" s="1">
+        <v>16479552837</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N252" s="15"/>
+    </row>
+    <row r="253" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I253" s="1">
+        <v>14162557002</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N253" s="15"/>
+    </row>
+    <row r="254" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I254" s="1">
+        <v>12894820464</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N254" s="15"/>
+    </row>
+    <row r="255" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F255" s="7"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I255" s="1">
+        <v>16138178182</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N255" s="15"/>
+    </row>
+    <row r="256" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I256" s="1">
+        <v>14162857662</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N256" s="15"/>
+    </row>
+    <row r="257" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I257" s="1">
+        <v>17057130433</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N257" s="15"/>
+    </row>
+    <row r="258" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I258" s="1">
+        <v>18072852057</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N258" s="15"/>
+    </row>
+    <row r="259" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I259" s="1">
+        <v>19052405545</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N259" s="15"/>
+    </row>
+    <row r="260" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I260" s="1">
+        <v>12266470108</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N260" s="15"/>
+    </row>
+    <row r="261" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I261" s="1">
+        <v>15198861111</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N261" s="15"/>
+    </row>
+    <row r="262" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="1">
+        <v>17059801444</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N262" s="15"/>
+    </row>
+    <row r="263" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I263" s="1">
+        <v>16136296827</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N263" s="15"/>
+    </row>
+    <row r="264" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G264" s="19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I264" s="1">
+        <v>14165337523</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N264" s="15"/>
+    </row>
+    <row r="265" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I265" s="1">
+        <v>14167890966</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N265" s="15"/>
+    </row>
+    <row r="266" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I266" s="1">
+        <v>17059493288</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N266" s="15"/>
+    </row>
+    <row r="267" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I267" s="1">
+        <v>16136803420</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N267" s="15"/>
+    </row>
+    <row r="268" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I268" s="1">
+        <v>14162930333</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N268" s="15"/>
+    </row>
+    <row r="269" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I269" s="1">
+        <v>12898208432</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N269" s="15"/>
+    </row>
+    <row r="270" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I270" s="1">
+        <v>12898206370</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N270" s="15"/>
+    </row>
+    <row r="271" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I271" s="1">
+        <v>19057028828</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N271" s="15"/>
+    </row>
+    <row r="272" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G272" s="3"/>
+      <c r="H272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I272" s="1">
+        <v>16135964738</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N272" s="15"/>
+    </row>
+    <row r="273" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G273" s="3"/>
+      <c r="H273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I273" s="1">
+        <v>12267357444</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N273" s="15"/>
+    </row>
+    <row r="274" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G274" s="3"/>
+      <c r="H274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" s="1">
+        <v>15196060756</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N274" s="15"/>
+    </row>
+    <row r="275" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G275" s="3"/>
+      <c r="H275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I275" s="1">
+        <v>16132582414</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N275" s="15"/>
+    </row>
+    <row r="276" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G276" s="3"/>
+      <c r="H276" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I276" s="1">
+        <v>16135964991</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N276" s="15"/>
+    </row>
+    <row r="277" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G277" s="3"/>
+      <c r="H277" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I277" s="1">
+        <v>14165046420</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N277" s="15"/>
+    </row>
+    <row r="278" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I278" s="1">
+        <v>18072238997</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N278" s="15"/>
+    </row>
+    <row r="279" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" s="1">
+        <v>14167408886</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N279" s="15"/>
+    </row>
+    <row r="280" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I280" s="1">
+        <v>17057428080</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N280" s="15"/>
+    </row>
+    <row r="281" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I281" s="1">
+        <v>19055230606</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N281" s="15"/>
+    </row>
+    <row r="282" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I282" s="1">
+        <v>14378804574</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N282" s="15"/>
+    </row>
+    <row r="283" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G283" s="3"/>
+      <c r="H283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283" s="1">
+        <v>15192071636</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N283" s="15"/>
+    </row>
+    <row r="284" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D284" s="14" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G284" s="3"/>
+      <c r="H284" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I284" s="1">
+        <v>19056462000</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N284" s="15"/>
+    </row>
+    <row r="285" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I285" s="1">
+        <v>15192651550</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N285" s="15"/>
+    </row>
+    <row r="286" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I286" s="1">
+        <v>15192081009</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N286" s="15"/>
+    </row>
+    <row r="287" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I287" s="1">
+        <v>14164213746</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N287" s="15"/>
+    </row>
+    <row r="288" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I288" s="1">
+        <v>14162554567</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N288" s="15"/>
+    </row>
+    <row r="289" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I289" s="1">
+        <v>14162858558</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N289" s="15"/>
+    </row>
+    <row r="290" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I290" s="1">
+        <v>14164081111</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N290" s="15"/>
+    </row>
+    <row r="291" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I291" s="1">
+        <v>12264760575</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N291" s="15"/>
+    </row>
+    <row r="292" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I292" s="1">
+        <v>17054785499</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N292" s="15"/>
+    </row>
+    <row r="293" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G293" s="3"/>
+      <c r="H293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I293" s="1">
+        <v>18073435520</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N293" s="15"/>
+    </row>
+    <row r="294" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I294" s="1">
+        <v>15194320888</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N294" s="15"/>
+    </row>
+    <row r="295" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I295" s="1">
+        <v>17059690808</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N295" s="15"/>
+    </row>
+    <row r="296" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I296" s="1">
+        <v>14166350420</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N296" s="15"/>
+    </row>
+    <row r="297" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I297" s="1">
+        <v>17057452885</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N297" s="15"/>
+    </row>
+    <row r="298" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G298" s="3"/>
+      <c r="H298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I298" s="1">
+        <v>16137310420</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N298" s="15"/>
+    </row>
+    <row r="299" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I299" s="1">
+        <v>15199403171</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N299" s="15"/>
+    </row>
+    <row r="300" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I300" s="1">
+        <v>12266640155</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N300" s="15"/>
+    </row>
+    <row r="301" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F301" s="7"/>
+      <c r="G301" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I301" s="1">
+        <v>17053785323</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N301" s="15"/>
+    </row>
+    <row r="302" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I302" s="1">
+        <v>15192157058</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N302" s="15"/>
+    </row>
+    <row r="303" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I303" s="1">
+        <v>16139353717</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N303" s="15"/>
+    </row>
+    <row r="304" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I304" s="1">
+        <v>16133130555</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N304" s="15"/>
+    </row>
+    <row r="305" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I305" s="1">
+        <v>17057421110</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N305" s="15"/>
+    </row>
+    <row r="306" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I306" s="1">
+        <v>15195698220</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N306" s="15"/>
+    </row>
+    <row r="307" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I307" s="1">
+        <v>19055251117</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N307" s="15"/>
+    </row>
+    <row r="308" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I308" s="1">
+        <v>17057071001</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N308" s="15"/>
+    </row>
+    <row r="309" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" s="1">
+        <v>15197140420</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N309" s="15"/>
+    </row>
+    <row r="310" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I310" s="1">
+        <v>17058768883</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N310" s="15"/>
+    </row>
+    <row r="311" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G311" s="19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I311" s="1">
+        <v>12263382936</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N311" s="15"/>
+    </row>
+    <row r="312" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G312" s="19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I312" s="1">
+        <v>18335186596</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N312" s="15"/>
+    </row>
+    <row r="313" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G313" s="3"/>
+      <c r="H313" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I313" s="1">
+        <v>12895160088</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N313" s="15"/>
+    </row>
+    <row r="314" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G314" s="3"/>
+      <c r="H314" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I314" s="1">
+        <v>12894560212</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N314" s="15"/>
+    </row>
+    <row r="315" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G315" s="3"/>
+      <c r="H315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I315" s="1">
+        <v>12894560212</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N315" s="15"/>
+    </row>
+    <row r="316" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G316" s="9"/>
+      <c r="H316" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I316" s="1">
+        <v>14163623003</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N316" s="15"/>
+    </row>
+    <row r="317" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F317" s="7"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I317" s="1">
+        <v>16476275609</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N317" s="15"/>
+    </row>
+    <row r="318" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F318" s="7"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I318" s="1">
+        <v>15197139116</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N318" s="15"/>
+    </row>
+    <row r="319" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G319" s="9"/>
+      <c r="H319" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I319" s="1">
+        <v>17057995000</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N319" s="15"/>
+    </row>
+    <row r="320" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G320" s="9"/>
+      <c r="H320" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I320" s="1">
+        <v>17054821716</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N320" s="15"/>
+    </row>
+    <row r="321" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G321" s="9"/>
+      <c r="H321" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I321" s="1">
+        <v>14162535253</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N321" s="15"/>
+    </row>
+    <row r="322" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G322" s="9"/>
+      <c r="H322" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I322" s="1">
+        <v>14169292525</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N322" s="15"/>
+    </row>
+    <row r="323" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G323" s="9"/>
+      <c r="H323" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I323" s="1">
+        <v>14165464112</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N323" s="15"/>
+    </row>
+    <row r="324" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I324" s="1">
+        <v>14163358653</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N324" s="15"/>
+    </row>
+    <row r="325" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G325" s="9"/>
+      <c r="H325" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I325" s="1">
+        <v>19053881334</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N325" s="15"/>
+    </row>
+    <row r="326" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G326" s="9"/>
+      <c r="H326" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I326" s="1">
+        <v>12894450166</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N326" s="15"/>
+    </row>
+    <row r="327" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G327" s="9"/>
+      <c r="H327" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I327" s="1">
+        <v>12264761062</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N327" s="15"/>
+    </row>
+    <row r="328" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G328" s="9"/>
+      <c r="H328" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I328" s="1">
+        <v>16135170242</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N328" s="15"/>
+    </row>
+    <row r="329" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G329" s="9"/>
+      <c r="H329" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I329" s="1">
+        <v>12266634777</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N329" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12717,6 +16180,7 @@
     <hyperlink ref="E199" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1519">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -4171,6 +4171,408 @@
   </si>
   <si>
     <t>Neat Cannabis Company</t>
+  </si>
+  <si>
+    <t>6213cd2bd6a5a7009a290bd0</t>
+  </si>
+  <si>
+    <t>https://matchboxcannabis.com/rogers-road-toronto/</t>
+  </si>
+  <si>
+    <t>605 ROGERS RD UNIT D6C</t>
+  </si>
+  <si>
+    <t>Matchbox Cannabis 605 Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YORK </t>
+  </si>
+  <si>
+    <t>60bfb8347fa91500c132fae7</t>
+  </si>
+  <si>
+    <t>https://www.northernhelm.com/shopbowmanville?&amp;utm_source=google&amp;utm_medium=click&amp;utm_campaign=Bowmanville+GMB</t>
+  </si>
+  <si>
+    <t>2377 HIGHWAY 2 UNIT 226</t>
+  </si>
+  <si>
+    <t>61b98e2677e42200926f8e15</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/stoney-creek-369-highway-8-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>369 HIGHWAY 8 UNIT B2</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis</t>
+  </si>
+  <si>
+    <t>['Curbside pickup',  'In-store pickup', 'In-store shopping']</t>
+  </si>
+  <si>
+    <t>6055145c1a94e800d931b2a1</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/aurora-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>15480 BAYVIEW AVE UNIT D0103</t>
+  </si>
+  <si>
+    <t>SESSIONS CANNABIS - AURORA</t>
+  </si>
+  <si>
+    <t>6055143483a8f800b79ada31</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/brantford-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>175-181 LYNDEN RD, UNIT F2</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis - Brantford</t>
+  </si>
+  <si>
+    <t>60a7cc0e134d4200b5daa81a</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/humberlea-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>39 ABRAHAM WELSH RD, UNIT C-7</t>
+  </si>
+  <si>
+    <t>SESSIONS CANNABIS - HUMBERLEA</t>
+  </si>
+  <si>
+    <t>http://luckyplusvapeshop.net/</t>
+  </si>
+  <si>
+    <t>22530 LOYALIST PKY</t>
+  </si>
+  <si>
+    <t>Lucky Plus Cannabis</t>
+  </si>
+  <si>
+    <t>http://maryjcannabis.ca/</t>
+  </si>
+  <si>
+    <t>38 KING ST W</t>
+  </si>
+  <si>
+    <t>Mary J's Cannabis Cobourg</t>
+  </si>
+  <si>
+    <t>COBOURG</t>
+  </si>
+  <si>
+    <t>3771 SPRATT RD UNIT 7</t>
+  </si>
+  <si>
+    <t>Mary J's Cannabis Riverside South</t>
+  </si>
+  <si>
+    <t>6045 BANK ST. UNITS 302 &amp; 303</t>
+  </si>
+  <si>
+    <t>Mary J's Cannabis Greely</t>
+  </si>
+  <si>
+    <t>GREELY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968 PORTOBELLO BOULEVARD UNIT 2 </t>
+  </si>
+  <si>
+    <t>Mary J's Cannabis</t>
+  </si>
+  <si>
+    <t>191 CASTOR ST UNIT 1</t>
+  </si>
+  <si>
+    <t>MARY J'S CANNABIS RUSSEL</t>
+  </si>
+  <si>
+    <t>RUSSELL</t>
+  </si>
+  <si>
+    <t>http://on.valuebuds.com/</t>
+  </si>
+  <si>
+    <t>17 WORTHINGTON AVE UNIT 7</t>
+  </si>
+  <si>
+    <t>Value Buds</t>
+  </si>
+  <si>
+    <t>10886 HURONTARIO ST SUITE A013</t>
+  </si>
+  <si>
+    <t>73 GORDON ST</t>
+  </si>
+  <si>
+    <t>859 BARTON ST E</t>
+  </si>
+  <si>
+    <t>1631 OXFORD ST E SUITE 4</t>
+  </si>
+  <si>
+    <t>3714 PORTAGE RD UNIT 210</t>
+  </si>
+  <si>
+    <t>3300 DUFFERIN ST. UNIT E</t>
+  </si>
+  <si>
+    <t>728 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>628 KING ST N UNIT A4</t>
+  </si>
+  <si>
+    <t>http://northernleaf.ca/</t>
+  </si>
+  <si>
+    <t>29 ALICE STREET</t>
+  </si>
+  <si>
+    <t>Northern Leaf Cannabis Company</t>
+  </si>
+  <si>
+    <t>WATERFORD</t>
+  </si>
+  <si>
+    <t>http://oneplant.ca/</t>
+  </si>
+  <si>
+    <t>350 HESPELER RD BLDG B UNIT 8</t>
+  </si>
+  <si>
+    <t>One Plant</t>
+  </si>
+  <si>
+    <t>http://relmriverdale.ca/</t>
+  </si>
+  <si>
+    <t>809 GERRARD ST E</t>
+  </si>
+  <si>
+    <t>Relm Cannabis</t>
+  </si>
+  <si>
+    <t>Tymber</t>
+  </si>
+  <si>
+    <t>http://purplemoosecannabis.com/</t>
+  </si>
+  <si>
+    <t>1305 LAWRENCE AVE W UNIT 1383</t>
+  </si>
+  <si>
+    <t>PURPLE MOOSE</t>
+  </si>
+  <si>
+    <t>http://purplepineapplecannabis.com/</t>
+  </si>
+  <si>
+    <t>25 WOODBINE DOWNS BLVD UNIT 8</t>
+  </si>
+  <si>
+    <t>Purple Pineapple Cannabis Co</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'In-store shopping']</t>
+  </si>
+  <si>
+    <t>http://rcbudshop.ca/</t>
+  </si>
+  <si>
+    <t>6 KING STREET</t>
+  </si>
+  <si>
+    <t>RC BUD SHOP</t>
+  </si>
+  <si>
+    <t>HARROW</t>
+  </si>
+  <si>
+    <t>http://reddensjunction.com/</t>
+  </si>
+  <si>
+    <t>4433 HIGHWAY, 17 EAST</t>
+  </si>
+  <si>
+    <t>REDDEN’S JUNCTION CANNABIS</t>
+  </si>
+  <si>
+    <t>LONGBOW LAKE</t>
+  </si>
+  <si>
+    <t>http://ohcannabisstore.com/</t>
+  </si>
+  <si>
+    <t>344 WILSON AVE</t>
+  </si>
+  <si>
+    <t>OH CANNABIS</t>
+  </si>
+  <si>
+    <t>http://scarletfirecannabis.ca/</t>
+  </si>
+  <si>
+    <t>3852 BATHURST ST</t>
+  </si>
+  <si>
+    <t>Scarlet Fire Cannabis</t>
+  </si>
+  <si>
+    <t>https://www.shinybud.com/kingston/?store_id=6276#/menu</t>
+  </si>
+  <si>
+    <t>83 ABERFOYLE RD UNIT 3</t>
+  </si>
+  <si>
+    <t>ShinyBud Cannabis Co. 83 Aberfoyle</t>
+  </si>
+  <si>
+    <t>http://shophcc.ca/</t>
+  </si>
+  <si>
+    <t>525 MOHAWK RD E</t>
+  </si>
+  <si>
+    <t>Hamilton Cannabis Co.</t>
+  </si>
+  <si>
+    <t>http://silverleafcannabis.ca/</t>
+  </si>
+  <si>
+    <t>736A QUEENSTON RD</t>
+  </si>
+  <si>
+    <t>Silverleaf Cannabis</t>
+  </si>
+  <si>
+    <t>http://sweetreleafs.ca/</t>
+  </si>
+  <si>
+    <t>1660 UPPER JAMES ST UNIT 4</t>
+  </si>
+  <si>
+    <t>Sweet Releafs Inc.</t>
+  </si>
+  <si>
+    <t>http://smokeydaze.ca/</t>
+  </si>
+  <si>
+    <t>60 QUEEN ST S</t>
+  </si>
+  <si>
+    <t>Smokey Daze Inc</t>
+  </si>
+  <si>
+    <t>Dutchie / Page doesn't exist</t>
+  </si>
+  <si>
+    <t>http://starbuds.co/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2022/08/06</t>
+  </si>
+  <si>
+    <t>250 INNISFIL ST UNIT 1</t>
+  </si>
+  <si>
+    <t>Blackstar Cannabis</t>
+  </si>
+  <si>
+    <t>5e8672340c69e900a087d1ac</t>
+  </si>
+  <si>
+    <t>500 HURONIA RD UNIT 208</t>
+  </si>
+  <si>
+    <t>Star Buds Cannabis Co.</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/01/01</t>
+  </si>
+  <si>
+    <t>876 INNISFIL BEACH RD</t>
+  </si>
+  <si>
+    <t>Innisfil Cannabis</t>
+  </si>
+  <si>
+    <t>INNISFIL</t>
+  </si>
+  <si>
+    <t>C7td2aEE4LtCPJczT</t>
+  </si>
+  <si>
+    <t>813 INNISFIL BEACH ROAD, UNIT 1</t>
+  </si>
+  <si>
+    <t>606b82d5d9505d00c835d9e5</t>
+  </si>
+  <si>
+    <t>30 45TH ST S UNIT 6</t>
+  </si>
+  <si>
+    <t>63937fe433ca2d00a5e3bfc9</t>
+  </si>
+  <si>
+    <t>http://dutchie.com/stores/tokyo-smoke-sarnia-lambton-mall</t>
+  </si>
+  <si>
+    <t>1380 LONDON RD UNIT 141</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Lambton Mall</t>
+  </si>
+  <si>
+    <t>SARNIA</t>
+  </si>
+  <si>
+    <t>6112fe7204c5d1009d0fb0d3</t>
+  </si>
+  <si>
+    <t>477 GROVE ST E UNIT 11</t>
+  </si>
+  <si>
+    <t>606b82ad97f3cf1006677f74</t>
+  </si>
+  <si>
+    <t>285 MILL ST UNIT 106</t>
+  </si>
+  <si>
+    <t>62019a5684915100a81b0b4d</t>
+  </si>
+  <si>
+    <t>4507 BATH RD SUITE 5</t>
+  </si>
+  <si>
+    <t>AMHERSTVIEW</t>
+  </si>
+  <si>
+    <t>https://www.shinybud.com/belleville-dundas-east/?store_id=3347#/menu</t>
+  </si>
+  <si>
+    <t>444 DUNDAS ST E UNIT F</t>
+  </si>
+  <si>
+    <t>SHINYBUD CANNABIS CO. 444 DUNDAS BELLEVILLE</t>
+  </si>
+  <si>
+    <t>https://www.shinybud.com/belleville-dundas-west/?store_id=3528#/menu</t>
+  </si>
+  <si>
+    <t>48 DUNDAS ST W UNIT 4</t>
+  </si>
+  <si>
+    <t>ShinyBud Cannabis Co. 48 Dundas Belleville</t>
   </si>
 </sst>
 </file>
@@ -4655,10 +5057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N329"/>
+  <dimension ref="A1:N375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="N324" sqref="N324:N329"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15760,7 +16162,7 @@
       <c r="F316" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G316" s="9"/>
+      <c r="G316" s="3"/>
       <c r="H316" s="1" t="s">
         <v>226</v>
       </c>
@@ -15789,7 +16191,7 @@
         <v>1344</v>
       </c>
       <c r="F317" s="7"/>
-      <c r="G317" s="9"/>
+      <c r="G317" s="3"/>
       <c r="H317" s="1" t="s">
         <v>26</v>
       </c>
@@ -15818,7 +16220,7 @@
         <v>1347</v>
       </c>
       <c r="F318" s="7"/>
-      <c r="G318" s="9"/>
+      <c r="G318" s="3"/>
       <c r="H318" s="1" t="s">
         <v>7</v>
       </c>
@@ -15849,7 +16251,7 @@
       <c r="F319" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G319" s="9"/>
+      <c r="G319" s="3"/>
       <c r="H319" s="1" t="s">
         <v>26</v>
       </c>
@@ -15880,7 +16282,7 @@
       <c r="F320" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="G320" s="9"/>
+      <c r="G320" s="3"/>
       <c r="H320" s="1" t="s">
         <v>40</v>
       </c>
@@ -15911,7 +16313,7 @@
       <c r="F321" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="G321" s="9"/>
+      <c r="G321" s="3"/>
       <c r="H321" s="1" t="s">
         <v>40</v>
       </c>
@@ -15942,7 +16344,7 @@
       <c r="F322" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G322" s="9"/>
+      <c r="G322" s="3"/>
       <c r="H322" s="1" t="s">
         <v>26</v>
       </c>
@@ -15973,7 +16375,7 @@
       <c r="F323" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="G323" s="9"/>
+      <c r="G323" s="3"/>
       <c r="H323" s="1" t="s">
         <v>40</v>
       </c>
@@ -16037,7 +16439,7 @@
       <c r="F325" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="G325" s="9"/>
+      <c r="G325" s="3"/>
       <c r="H325" s="1" t="s">
         <v>100</v>
       </c>
@@ -16068,7 +16470,7 @@
       <c r="F326" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="G326" s="9"/>
+      <c r="G326" s="3"/>
       <c r="H326" s="1" t="s">
         <v>100</v>
       </c>
@@ -16099,7 +16501,7 @@
       <c r="F327" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="G327" s="9"/>
+      <c r="G327" s="3"/>
       <c r="H327" s="1" t="s">
         <v>26</v>
       </c>
@@ -16130,7 +16532,7 @@
       <c r="F328" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="G328" s="9"/>
+      <c r="G328" s="3"/>
       <c r="H328" s="1" t="s">
         <v>206</v>
       </c>
@@ -16161,7 +16563,7 @@
       <c r="F329" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="G329" s="9"/>
+      <c r="G329" s="3"/>
       <c r="H329" s="1" t="s">
         <v>40</v>
       </c>
@@ -16172,6 +16574,1458 @@
         <v>8</v>
       </c>
       <c r="N329" s="15"/>
+    </row>
+    <row r="330" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I330" s="4">
+        <v>14166529999</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N330" s="15"/>
+    </row>
+    <row r="331" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I331" s="4">
+        <v>12892233100</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N331" s="15"/>
+    </row>
+    <row r="332" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I332" s="1">
+        <v>19059308166</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N332" s="15"/>
+    </row>
+    <row r="333" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I333" s="4">
+        <v>19055030699</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N333" s="15"/>
+    </row>
+    <row r="334" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I334" s="4">
+        <v>15193048653</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N334" s="15"/>
+    </row>
+    <row r="335" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I335" s="4">
+        <v>14167492464</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N335" s="15"/>
+    </row>
+    <row r="336" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G336" s="3"/>
+      <c r="H336" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I336" s="1">
+        <v>16139559472</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N336" s="15"/>
+    </row>
+    <row r="337" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G337" s="3"/>
+      <c r="H337" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I337" s="1">
+        <v>19053736279</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N337" s="15"/>
+    </row>
+    <row r="338" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G338" s="3"/>
+      <c r="H338" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I338" s="1">
+        <v>16134250455</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N338" s="15"/>
+    </row>
+    <row r="339" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G339" s="3"/>
+      <c r="H339" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I339" s="1">
+        <v>16138210095</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N339" s="15"/>
+    </row>
+    <row r="340" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G340" s="3"/>
+      <c r="H340" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I340" s="1">
+        <v>16138242829</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N340" s="15"/>
+    </row>
+    <row r="341" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G341" s="3"/>
+      <c r="H341" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I341" s="1">
+        <v>16134453940</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N341" s="15"/>
+    </row>
+    <row r="342" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G342" s="3"/>
+      <c r="H342" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I342" s="1">
+        <v>19054950025</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N342" s="15"/>
+    </row>
+    <row r="343" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G343" s="3"/>
+      <c r="H343" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I343" s="1">
+        <v>19059707744</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N343" s="15"/>
+    </row>
+    <row r="344" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G344" s="3"/>
+      <c r="H344" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I344" s="1">
+        <v>15192653055</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N344" s="15"/>
+    </row>
+    <row r="345" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G345" s="3"/>
+      <c r="H345" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I345" s="1">
+        <v>19055452041</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N345" s="15"/>
+    </row>
+    <row r="346" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F346" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G346" s="3"/>
+      <c r="H346" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I346" s="1">
+        <v>12266633026</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N346" s="15"/>
+    </row>
+    <row r="347" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F347" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G347" s="3"/>
+      <c r="H347" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I347" s="1">
+        <v>19053540168</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N347" s="15"/>
+    </row>
+    <row r="348" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F348" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G348" s="3"/>
+      <c r="H348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I348" s="1">
+        <v>14167830419</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N348" s="15"/>
+    </row>
+    <row r="349" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F349" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G349" s="3"/>
+      <c r="H349" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I349" s="1">
+        <v>14164619991</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N349" s="15"/>
+    </row>
+    <row r="350" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F350" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G350" s="3"/>
+      <c r="H350" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I350" s="1">
+        <v>15198880483</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N350" s="15"/>
+    </row>
+    <row r="351" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F351" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G351" s="3"/>
+      <c r="H351" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I351" s="1">
+        <v>15194432107</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N351" s="15"/>
+    </row>
+    <row r="352" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G352" s="3"/>
+      <c r="H352" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I352" s="1">
+        <v>15196224845</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N352" s="15"/>
+    </row>
+    <row r="353" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G353" s="3"/>
+      <c r="H353" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I353" s="1">
+        <v>14164620202</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N353" s="15"/>
+    </row>
+    <row r="354" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G354" s="3"/>
+      <c r="H354" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I354" s="1">
+        <v>16472589956</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N354" s="15"/>
+    </row>
+    <row r="355" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G355" s="3"/>
+      <c r="H355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I355" s="1">
+        <v>14166744728</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N355" s="15"/>
+    </row>
+    <row r="356" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F356" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G356" s="3"/>
+      <c r="H356" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I356" s="1">
+        <v>15197380869</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N356" s="15"/>
+    </row>
+    <row r="357" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G357" s="3"/>
+      <c r="H357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I357" s="1">
+        <v>18075485375</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N357" s="15"/>
+    </row>
+    <row r="358" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F358" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G358" s="3"/>
+      <c r="H358" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I358" s="1">
+        <v>14163981461</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N358" s="15"/>
+    </row>
+    <row r="359" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G359" s="3"/>
+      <c r="H359" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I359" s="1">
+        <v>14166635000</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N359" s="15"/>
+    </row>
+    <row r="360" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F360" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G360" s="3"/>
+      <c r="H360" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I360" s="1">
+        <v>16137671083</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N360" s="15"/>
+    </row>
+    <row r="361" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F361" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G361" s="3"/>
+      <c r="H361" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I361" s="1">
+        <v>12897559333</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N361" s="15"/>
+    </row>
+    <row r="362" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F362" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G362" s="3"/>
+      <c r="H362" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I362" s="1">
+        <v>19056618110</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N362" s="15"/>
+    </row>
+    <row r="363" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G363" s="3"/>
+      <c r="H363" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I363" s="1">
+        <v>19053180285</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N363" s="15"/>
+    </row>
+    <row r="364" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G364" s="3"/>
+      <c r="H364" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I364" s="1">
+        <v>19054069511</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N364" s="15"/>
+    </row>
+    <row r="365" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D365" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G365" s="3"/>
+      <c r="H365" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I365" s="1">
+        <v>17052940466</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N365" s="15"/>
+    </row>
+    <row r="366" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F366" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G366" s="19" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" s="1">
+        <v>12498804500</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N366" s="15"/>
+    </row>
+    <row r="367" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D367" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F367" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G367" s="3"/>
+      <c r="H367" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I367" s="1">
+        <v>17052940466</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N367" s="15"/>
+    </row>
+    <row r="368" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F368" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I368" s="1">
+        <v>17052940466</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N368" s="15"/>
+    </row>
+    <row r="369" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F369" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I369" s="1">
+        <v>17053529333</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N369" s="15"/>
+    </row>
+    <row r="370" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F370" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I370" s="1">
+        <v>15195419360</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N370" s="15"/>
+    </row>
+    <row r="371" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F371" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I371" s="1">
+        <v>17052520265</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N371" s="15"/>
+    </row>
+    <row r="372" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F372" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I372" s="1">
+        <v>17054240404</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N372" s="15"/>
+    </row>
+    <row r="373" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F373" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I373" s="1">
+        <v>16136349031</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N373" s="15"/>
+    </row>
+    <row r="374" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F374" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G374" s="9"/>
+      <c r="H374" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I374" s="1">
+        <v>16137796262</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N374" s="15"/>
+    </row>
+    <row r="375" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F375" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G375" s="9"/>
+      <c r="H375" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I375" s="1">
+        <v>16137799700</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N375" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="1535">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -4573,6 +4573,54 @@
   </si>
   <si>
     <t>ShinyBud Cannabis Co. 48 Dundas Belleville</t>
+  </si>
+  <si>
+    <t>6022cb873e2de600c11866ff</t>
+  </si>
+  <si>
+    <t>https://matchboxcannabis.com/market-mall-sault-st-marie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275 SECOND LINE WEST UNIT 120A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAULT STE MARIE </t>
+  </si>
+  <si>
+    <t>(705) 362-7699</t>
+  </si>
+  <si>
+    <t>https://tcann.ca/order/</t>
+  </si>
+  <si>
+    <t>3 15TH ST UNIT 5</t>
+  </si>
+  <si>
+    <t>T CANNABIS NW</t>
+  </si>
+  <si>
+    <t>HEARST</t>
+  </si>
+  <si>
+    <t>http://www.6ixcannabis.ca/</t>
+  </si>
+  <si>
+    <t>2120 NORTH PARK DR UNIT 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ix cannabis </t>
+  </si>
+  <si>
+    <t>5f724cf666bcbc00cfaac553</t>
+  </si>
+  <si>
+    <t>http://www.abovethecloudscannabis.com/</t>
+  </si>
+  <si>
+    <t>259 SCARLETT RD</t>
+  </si>
+  <si>
+    <t>Above The Clouds Cannabis</t>
   </si>
 </sst>
 </file>
@@ -4719,7 +4767,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -4754,6 +4802,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5057,10 +5108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N375"/>
+  <dimension ref="A1:N379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C375" sqref="C375"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="F379" sqref="F379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17984,7 +18035,7 @@
       <c r="F374" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G374" s="9"/>
+      <c r="G374" s="3"/>
       <c r="H374" s="1" t="s">
         <v>26</v>
       </c>
@@ -18015,7 +18066,7 @@
       <c r="F375" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G375" s="9"/>
+      <c r="G375" s="3"/>
       <c r="H375" s="1" t="s">
         <v>26</v>
       </c>
@@ -18026,15 +18077,145 @@
         <v>8</v>
       </c>
       <c r="N375" s="15"/>
+    </row>
+    <row r="376" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I376" s="4">
+        <v>17055759333</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N376" s="15"/>
+    </row>
+    <row r="377" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H377" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I377" s="22" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N377" s="15"/>
+    </row>
+    <row r="378" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G378" s="9"/>
+      <c r="H378" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I378" s="1">
+        <v>19057900200</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N378" s="15"/>
+    </row>
+    <row r="379" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I379" s="1">
+        <v>16473686636</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E121" r:id="rId1"/>
     <hyperlink ref="E158" r:id="rId2"/>
     <hyperlink ref="E199" r:id="rId3"/>
+    <hyperlink ref="I377" r:id="rId4" display="tel:(705) 362-7699"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="1624">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -4621,6 +4621,273 @@
   </si>
   <si>
     <t>Above The Clouds Cannabis</t>
+  </si>
+  <si>
+    <t>5e83937e06940c00b625d746</t>
+  </si>
+  <si>
+    <t>1401 PLAINS RD E UNIT 5</t>
+  </si>
+  <si>
+    <t>Utopia Cannabis</t>
+  </si>
+  <si>
+    <t>1252 LAWRENCE AVE E UNIT 4</t>
+  </si>
+  <si>
+    <t>http://www.utopiatoronto.com/</t>
+  </si>
+  <si>
+    <t>5ed12dcef71e2300d8ab71fb</t>
+  </si>
+  <si>
+    <t>6329d9c77093ff00f1cdeea1</t>
+  </si>
+  <si>
+    <t>http://unclelouiescannabis.ca/</t>
+  </si>
+  <si>
+    <t>574 PLAINS RD E UNIT B</t>
+  </si>
+  <si>
+    <t>Uncle Louie's Cannabis Shop</t>
+  </si>
+  <si>
+    <t>['In-store pickup', 'In-store shopping', 'Same-day delivery', 'No delivery']</t>
+  </si>
+  <si>
+    <t>5f737bc801fad000d2899f48</t>
+  </si>
+  <si>
+    <t>http://www.tonysjoint.com/</t>
+  </si>
+  <si>
+    <t>20 TALBOT ST S UNIT 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony’s Joint </t>
+  </si>
+  <si>
+    <t>ESSEX</t>
+  </si>
+  <si>
+    <t>5ed7e7a515035300f8a8ad2f</t>
+  </si>
+  <si>
+    <t>http://thecannabisretailstore.com/</t>
+  </si>
+  <si>
+    <t>280-304 ERIE ST S UNIT 4</t>
+  </si>
+  <si>
+    <t>The Cannabis Retail Store</t>
+  </si>
+  <si>
+    <t>LEAMINGTON</t>
+  </si>
+  <si>
+    <t>http://tcann.ca/</t>
+  </si>
+  <si>
+    <t>54 QUEEN ST S</t>
+  </si>
+  <si>
+    <t>T Cannabis - Tottenham</t>
+  </si>
+  <si>
+    <t>5fe124105e9f1e00c2799f44</t>
+  </si>
+  <si>
+    <t>2865 CHAMBERLAND ST SUITE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CANNABIS </t>
+  </si>
+  <si>
+    <t>ROCKLAND</t>
+  </si>
+  <si>
+    <t>THORNBURY</t>
+  </si>
+  <si>
+    <t>Soma Leaf Company</t>
+  </si>
+  <si>
+    <t>99 KING ST E UNIT C</t>
+  </si>
+  <si>
+    <t>https://www.somaleaf.ca/</t>
+  </si>
+  <si>
+    <t>60b8026f63bc3500cf1792ce</t>
+  </si>
+  <si>
+    <t>649c8d2a45ad820009bf75ea</t>
+  </si>
+  <si>
+    <t>http://www.somaleaf.ca/</t>
+  </si>
+  <si>
+    <t>280 LAKESHORE RD W UNIT 101</t>
+  </si>
+  <si>
+    <t>Soma Leaf Co.</t>
+  </si>
+  <si>
+    <t>616737f3250edc00b1964981</t>
+  </si>
+  <si>
+    <t>http://onthecannabisside.ca/</t>
+  </si>
+  <si>
+    <t>13300 TECUMSEH RD E UNIT 155</t>
+  </si>
+  <si>
+    <t>On the Cannabis Side</t>
+  </si>
+  <si>
+    <t>TECUMSEH</t>
+  </si>
+  <si>
+    <t>60d398cb2383aa00bc3842dd</t>
+  </si>
+  <si>
+    <t>https://maryjanes.ca/shop/oshawa?utm_source=gmb&amp;utm_campaign=dispenza</t>
+  </si>
+  <si>
+    <t>1900 SIMCOE ST N UNIT 1</t>
+  </si>
+  <si>
+    <t>MARYJANE’S CANNABIS</t>
+  </si>
+  <si>
+    <t>910 O'BRIEN RD UNIT 1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENFREW </t>
+  </si>
+  <si>
+    <t>606230f5742cc300c23a26f3</t>
+  </si>
+  <si>
+    <t>http://torontocannabisauthority.ca/</t>
+  </si>
+  <si>
+    <t>229 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>Toronto Cannabis Authority</t>
+  </si>
+  <si>
+    <t>5fbaf98ab832ec00b63fd7f1</t>
+  </si>
+  <si>
+    <t>http://tokehouse.ca/</t>
+  </si>
+  <si>
+    <t>1500 JAMES ST S SUITE 3</t>
+  </si>
+  <si>
+    <t>60429e175020c31b582f944f</t>
+  </si>
+  <si>
+    <t>320 ARUNDEL ST UNIT C</t>
+  </si>
+  <si>
+    <t>TOKE HOUSE</t>
+  </si>
+  <si>
+    <t>62ab8621fa3df8009cf4e8b9</t>
+  </si>
+  <si>
+    <t>https://cannabis-shop.ca/store-perth/</t>
+  </si>
+  <si>
+    <t>95 DUFFERIN ST UNIT A</t>
+  </si>
+  <si>
+    <t>The Cannabis Shop</t>
+  </si>
+  <si>
+    <t>PERTH</t>
+  </si>
+  <si>
+    <t>63191aaf18e75200b971efa8</t>
+  </si>
+  <si>
+    <t>820 WILSON AVE</t>
+  </si>
+  <si>
+    <t>627d73c671986600b1524b0d</t>
+  </si>
+  <si>
+    <t>http://thegreenroomcannabis.ca/</t>
+  </si>
+  <si>
+    <t>164 WYNDHAM ST N</t>
+  </si>
+  <si>
+    <t>THE GREEN ROOM CANNABIS - WYNDHAM N</t>
+  </si>
+  <si>
+    <t>5e8671cd0ecf3f0099db66b8</t>
+  </si>
+  <si>
+    <t>22 BARRIE ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAR BUDS CANNABIS CO. </t>
+  </si>
+  <si>
+    <t>BRADFORD</t>
+  </si>
+  <si>
+    <t>5e867209a76a8500989b931a</t>
+  </si>
+  <si>
+    <t>181 LIVINGSTONE ST E UNIT 3</t>
+  </si>
+  <si>
+    <t>619d15c8d43fd600921ba42d</t>
+  </si>
+  <si>
+    <t>42 VICTORIA ST E</t>
+  </si>
+  <si>
+    <t>CANNACO - THE CANNABIS COMPANY</t>
+  </si>
+  <si>
+    <t>649a013f324d190009f210bd</t>
+  </si>
+  <si>
+    <t>211 KING ST UNIT 2</t>
+  </si>
+  <si>
+    <t>THORNE</t>
+  </si>
+  <si>
+    <t>61dc7ab8fad0a10085f02ee3</t>
+  </si>
+  <si>
+    <t>https://ouid.com/</t>
+  </si>
+  <si>
+    <t>34 HIGHBURY PARK DR</t>
+  </si>
+  <si>
+    <t>Ouid</t>
+  </si>
+  <si>
+    <t>60086c94f8526427d535d1d1</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/sarnia-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>600 MURPHY RD SUITE 105A</t>
+  </si>
+  <si>
+    <t>SESSIONS CANNABIS SARNIA</t>
   </si>
 </sst>
 </file>
@@ -4767,7 +5034,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -4805,6 +5072,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5108,10 +5376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N379"/>
+  <dimension ref="A1:N406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="F379" sqref="F379"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:XFD406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18163,7 +18431,7 @@
       <c r="F378" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G378" s="9"/>
+      <c r="G378" s="3"/>
       <c r="H378" s="1" t="s">
         <v>26</v>
       </c>
@@ -18205,6 +18473,893 @@
       </c>
       <c r="J379" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N379" s="15"/>
+    </row>
+    <row r="380" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G380" s="19" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I380" s="1">
+        <v>19056395560</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N380" s="15"/>
+    </row>
+    <row r="381" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I381" s="1">
+        <v>14163909333</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N381" s="15"/>
+    </row>
+    <row r="382" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F382" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I382" s="1">
+        <v>19053330220</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N382" s="15"/>
+    </row>
+    <row r="383" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I383" s="4">
+        <v>15199619280</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N383" s="15"/>
+    </row>
+    <row r="384" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F384" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I384" s="1">
+        <v>12269186257</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N384" s="15"/>
+    </row>
+    <row r="385" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F385" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I385" s="1">
+        <v>19059362020</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N385" s="15"/>
+    </row>
+    <row r="386" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F386" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I386" s="1">
+        <v>16134465416</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N386" s="15"/>
+    </row>
+    <row r="387" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F387" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I387" s="1">
+        <v>19057939045</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N387" s="15"/>
+    </row>
+    <row r="388" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I388" s="1">
+        <v>17054670067</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N388" s="15"/>
+    </row>
+    <row r="389" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I389" s="4">
+        <v>19052785444</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N389" s="15"/>
+    </row>
+    <row r="390" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I390" s="4">
+        <v>15197393323</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N390" s="15"/>
+    </row>
+    <row r="391" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F391" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I391" s="1">
+        <v>12892228889</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N391" s="15"/>
+    </row>
+    <row r="392" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I392" s="4">
+        <v>19055799333</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N392" s="15"/>
+    </row>
+    <row r="393" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F393" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I393" s="1">
+        <v>15198531444</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N393" s="15"/>
+    </row>
+    <row r="394" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I394" s="4">
+        <v>13433610910</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N394" s="15"/>
+    </row>
+    <row r="395" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F395" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I395" s="1">
+        <v>16475577444</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N395" s="15"/>
+    </row>
+    <row r="396" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F396" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I396" s="1">
+        <v>18072860048</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N396" s="15"/>
+    </row>
+    <row r="397" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F397" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G397" s="19" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I397" s="1">
+        <v>18072851898</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N397" s="15"/>
+    </row>
+    <row r="398" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F398" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I398" s="1">
+        <v>14167857493</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N398" s="15"/>
+    </row>
+    <row r="399" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F399" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I399" s="1">
+        <v>14166388443</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N399" s="15"/>
+    </row>
+    <row r="400" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F400" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I400" s="1">
+        <v>15192650090</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N400" s="15"/>
+    </row>
+    <row r="401" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F401" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G401" s="19" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I401" s="1">
+        <v>19055517827</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N401" s="23"/>
+    </row>
+    <row r="402" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F402" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G402" s="19" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I402" s="1">
+        <v>12498806008</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I403" s="1">
+        <v>17054356888</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F404" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I404" s="1">
+        <v>17058052837</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I405" s="4">
+        <v>16138430843</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G406" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I406" s="4">
+        <v>15193321920</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="1624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="1630">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -4888,13 +4888,31 @@
   </si>
   <si>
     <t>SESSIONS CANNABIS SARNIA</t>
+  </si>
+  <si>
+    <t>60bf7d1d49bd1700c9fe8ab1</t>
+  </si>
+  <si>
+    <t>39 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>HOT BUDS</t>
+  </si>
+  <si>
+    <t>25 KENSINGTON AVE</t>
+  </si>
+  <si>
+    <t>https://hotbuds.ca/</t>
+  </si>
+  <si>
+    <t>5ed826b6960b4a28966976fd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4930,14 +4948,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5032,9 +5042,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -5048,16 +5058,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -5068,11 +5077,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5376,61 +5384,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N406"/>
+  <dimension ref="A1:N408"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:XFD406"/>
+      <selection activeCell="N400" sqref="N400:N408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="20" customWidth="1"/>
     <col min="8" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1094</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1093</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1092</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>1090</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>1089</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>1088</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>1087</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>1086</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>1085</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>1084</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>1083</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>1082</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8304,7 +8312,7 @@
       <c r="I81" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="1"/>
@@ -8478,7 +8486,7 @@
       <c r="G86" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="9" t="s">
         <v>409</v>
       </c>
       <c r="I86" s="4" t="s">
@@ -8626,7 +8634,7 @@
       <c r="I90" s="4">
         <v>19057759420</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K90" s="1"/>
@@ -8872,7 +8880,7 @@
       <c r="G97" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="9" t="s">
         <v>458</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -9488,7 +9496,7 @@
       <c r="I114" s="4">
         <v>16132585888</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="10" t="s">
         <v>493</v>
       </c>
       <c r="K114" s="1"/>
@@ -9725,7 +9733,7 @@
       <c r="D121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="11" t="s">
         <v>559</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -10160,13 +10168,13 @@
       <c r="G133" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="H133" s="10" t="s">
+      <c r="H133" s="9" t="s">
         <v>610</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="J133" s="10" t="s">
+      <c r="J133" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K133" s="1"/>
@@ -10232,7 +10240,7 @@
       <c r="G135" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="H135" s="10" t="s">
+      <c r="H135" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I135" s="4" t="s">
@@ -10916,7 +10924,7 @@
       <c r="G154" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="H154" s="10" t="s">
+      <c r="H154" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I154" s="4" t="s">
@@ -11051,7 +11059,7 @@
       <c r="D158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="12" t="s">
+      <c r="E158" s="11" t="s">
         <v>714</v>
       </c>
       <c r="F158" s="2" t="s">
@@ -11348,13 +11356,13 @@
       <c r="G166" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H166" s="10" t="s">
+      <c r="H166" s="9" t="s">
         <v>610</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="J166" s="10" t="s">
+      <c r="J166" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K166" s="1"/>
@@ -12527,7 +12535,7 @@
       <c r="D199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="E199" s="12" t="s">
         <v>885</v>
       </c>
       <c r="F199" s="2" t="s">
@@ -12860,7 +12868,7 @@
       <c r="G208" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H208" s="10" t="s">
+      <c r="H208" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I208" s="4" t="s">
@@ -13944,7 +13952,7 @@
       <c r="C239" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="13" t="s">
         <v>1051</v>
       </c>
       <c r="E239" s="1" t="s">
@@ -14104,7 +14112,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
-      <c r="N243" s="15"/>
+      <c r="N243" s="14"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
@@ -14140,7 +14148,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
-      <c r="N244" s="15"/>
+      <c r="N244" s="14"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
@@ -14174,7 +14182,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
-      <c r="N245" s="15"/>
+      <c r="N245" s="14"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
@@ -14210,9 +14218,9 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
-      <c r="N246" s="15"/>
-    </row>
-    <row r="247" spans="1:14" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N246" s="14"/>
+    </row>
+    <row r="247" spans="1:14" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>186</v>
       </c>
@@ -14246,9 +14254,9 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
-      <c r="N247" s="15"/>
-    </row>
-    <row r="248" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N247" s="14"/>
+    </row>
+    <row r="248" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -14282,9 +14290,9 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
-      <c r="N248" s="15"/>
-    </row>
-    <row r="249" spans="1:14" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N248" s="14"/>
+    </row>
+    <row r="249" spans="1:14" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>984</v>
       </c>
@@ -14316,7 +14324,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
-      <c r="N249" s="15"/>
+      <c r="N249" s="14"/>
     </row>
     <row r="250" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -14349,7 +14357,7 @@
       <c r="J250" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N250" s="15"/>
+      <c r="N250" s="14"/>
     </row>
     <row r="251" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
@@ -14382,7 +14390,7 @@
       <c r="J251" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N251" s="15"/>
+      <c r="N251" s="14"/>
     </row>
     <row r="252" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
@@ -14415,7 +14423,7 @@
       <c r="J252" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N252" s="15"/>
+      <c r="N252" s="14"/>
     </row>
     <row r="253" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
@@ -14446,7 +14454,7 @@
       <c r="J253" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N253" s="15"/>
+      <c r="N253" s="14"/>
     </row>
     <row r="254" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -14479,7 +14487,7 @@
       <c r="J254" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N254" s="15"/>
+      <c r="N254" s="14"/>
     </row>
     <row r="255" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
@@ -14508,7 +14516,7 @@
       <c r="J255" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N255" s="15"/>
+      <c r="N255" s="14"/>
     </row>
     <row r="256" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
@@ -14541,7 +14549,7 @@
       <c r="J256" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N256" s="15"/>
+      <c r="N256" s="14"/>
     </row>
     <row r="257" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -14574,7 +14582,7 @@
       <c r="J257" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N257" s="15"/>
+      <c r="N257" s="14"/>
     </row>
     <row r="258" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -14607,7 +14615,7 @@
       <c r="J258" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N258" s="15"/>
+      <c r="N258" s="14"/>
     </row>
     <row r="259" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -14640,7 +14648,7 @@
       <c r="J259" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N259" s="15"/>
+      <c r="N259" s="14"/>
     </row>
     <row r="260" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
@@ -14673,7 +14681,7 @@
       <c r="J260" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N260" s="15"/>
+      <c r="N260" s="14"/>
     </row>
     <row r="261" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
@@ -14706,7 +14714,7 @@
       <c r="J261" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N261" s="15"/>
+      <c r="N261" s="14"/>
     </row>
     <row r="262" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
@@ -14739,7 +14747,7 @@
       <c r="J262" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N262" s="15"/>
+      <c r="N262" s="14"/>
     </row>
     <row r="263" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
@@ -14772,7 +14780,7 @@
       <c r="J263" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N263" s="15"/>
+      <c r="N263" s="14"/>
     </row>
     <row r="264" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
@@ -14793,7 +14801,7 @@
       <c r="F264" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G264" s="19" t="s">
+      <c r="G264" s="18" t="s">
         <v>1161</v>
       </c>
       <c r="H264" s="1" t="s">
@@ -14805,7 +14813,7 @@
       <c r="J264" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N264" s="15"/>
+      <c r="N264" s="14"/>
     </row>
     <row r="265" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -14838,7 +14846,7 @@
       <c r="J265" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N265" s="15"/>
+      <c r="N265" s="14"/>
     </row>
     <row r="266" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
@@ -14871,7 +14879,7 @@
       <c r="J266" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N266" s="15"/>
+      <c r="N266" s="14"/>
     </row>
     <row r="267" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
@@ -14904,7 +14912,7 @@
       <c r="J267" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N267" s="15"/>
+      <c r="N267" s="14"/>
     </row>
     <row r="268" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -14937,7 +14945,7 @@
       <c r="J268" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N268" s="15"/>
+      <c r="N268" s="14"/>
     </row>
     <row r="269" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
@@ -14970,7 +14978,7 @@
       <c r="J269" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N269" s="15"/>
+      <c r="N269" s="14"/>
     </row>
     <row r="270" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
@@ -15003,7 +15011,7 @@
       <c r="J270" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N270" s="15"/>
+      <c r="N270" s="14"/>
     </row>
     <row r="271" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
@@ -15036,7 +15044,7 @@
       <c r="J271" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N271" s="15"/>
+      <c r="N271" s="14"/>
     </row>
     <row r="272" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
@@ -15067,7 +15075,7 @@
       <c r="J272" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N272" s="15"/>
+      <c r="N272" s="14"/>
     </row>
     <row r="273" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
@@ -15098,7 +15106,7 @@
       <c r="J273" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N273" s="15"/>
+      <c r="N273" s="14"/>
     </row>
     <row r="274" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
@@ -15129,7 +15137,7 @@
       <c r="J274" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N274" s="15"/>
+      <c r="N274" s="14"/>
     </row>
     <row r="275" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
@@ -15160,7 +15168,7 @@
       <c r="J275" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N275" s="15"/>
+      <c r="N275" s="14"/>
     </row>
     <row r="276" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
@@ -15191,7 +15199,7 @@
       <c r="J276" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N276" s="15"/>
+      <c r="N276" s="14"/>
     </row>
     <row r="277" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
@@ -15222,7 +15230,7 @@
       <c r="J277" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N277" s="15"/>
+      <c r="N277" s="14"/>
     </row>
     <row r="278" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
@@ -15255,7 +15263,7 @@
       <c r="J278" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N278" s="15"/>
+      <c r="N278" s="14"/>
     </row>
     <row r="279" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
@@ -15288,7 +15296,7 @@
       <c r="J279" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N279" s="15"/>
+      <c r="N279" s="14"/>
     </row>
     <row r="280" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -15321,7 +15329,7 @@
       <c r="J280" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N280" s="15"/>
+      <c r="N280" s="14"/>
     </row>
     <row r="281" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
@@ -15354,7 +15362,7 @@
       <c r="J281" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N281" s="15"/>
+      <c r="N281" s="14"/>
     </row>
     <row r="282" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
@@ -15387,7 +15395,7 @@
       <c r="J282" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N282" s="15"/>
+      <c r="N282" s="14"/>
     </row>
     <row r="283" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
@@ -15418,7 +15426,7 @@
       <c r="J283" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N283" s="15"/>
+      <c r="N283" s="14"/>
     </row>
     <row r="284" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
@@ -15430,7 +15438,7 @@
       <c r="C284" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D284" s="14" t="s">
+      <c r="D284" s="13" t="s">
         <v>1228</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -15449,7 +15457,7 @@
       <c r="J284" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N284" s="15"/>
+      <c r="N284" s="14"/>
     </row>
     <row r="285" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
@@ -15482,7 +15490,7 @@
       <c r="J285" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N285" s="15"/>
+      <c r="N285" s="14"/>
     </row>
     <row r="286" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
@@ -15515,7 +15523,7 @@
       <c r="J286" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N286" s="15"/>
+      <c r="N286" s="14"/>
     </row>
     <row r="287" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
@@ -15548,7 +15556,7 @@
       <c r="J287" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N287" s="15"/>
+      <c r="N287" s="14"/>
     </row>
     <row r="288" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
@@ -15581,7 +15589,7 @@
       <c r="J288" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N288" s="15"/>
+      <c r="N288" s="14"/>
     </row>
     <row r="289" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -15614,7 +15622,7 @@
       <c r="J289" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N289" s="15"/>
+      <c r="N289" s="14"/>
     </row>
     <row r="290" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
@@ -15647,7 +15655,7 @@
       <c r="J290" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N290" s="15"/>
+      <c r="N290" s="14"/>
     </row>
     <row r="291" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
@@ -15680,7 +15688,7 @@
       <c r="J291" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N291" s="15"/>
+      <c r="N291" s="14"/>
     </row>
     <row r="292" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
@@ -15713,7 +15721,7 @@
       <c r="J292" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N292" s="15"/>
+      <c r="N292" s="14"/>
     </row>
     <row r="293" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
@@ -15744,7 +15752,7 @@
       <c r="J293" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N293" s="15"/>
+      <c r="N293" s="14"/>
     </row>
     <row r="294" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
@@ -15777,7 +15785,7 @@
       <c r="J294" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N294" s="15"/>
+      <c r="N294" s="14"/>
     </row>
     <row r="295" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
@@ -15810,7 +15818,7 @@
       <c r="J295" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N295" s="15"/>
+      <c r="N295" s="14"/>
     </row>
     <row r="296" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -15843,7 +15851,7 @@
       <c r="J296" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N296" s="15"/>
+      <c r="N296" s="14"/>
     </row>
     <row r="297" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
@@ -15876,7 +15884,7 @@
       <c r="J297" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N297" s="15"/>
+      <c r="N297" s="14"/>
     </row>
     <row r="298" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
@@ -15907,7 +15915,7 @@
       <c r="J298" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N298" s="15"/>
+      <c r="N298" s="14"/>
     </row>
     <row r="299" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
@@ -15940,7 +15948,7 @@
       <c r="J299" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N299" s="15"/>
+      <c r="N299" s="14"/>
     </row>
     <row r="300" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
@@ -15973,7 +15981,7 @@
       <c r="J300" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N300" s="15"/>
+      <c r="N300" s="14"/>
     </row>
     <row r="301" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
@@ -16004,7 +16012,7 @@
       <c r="J301" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N301" s="15"/>
+      <c r="N301" s="14"/>
     </row>
     <row r="302" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -16037,7 +16045,7 @@
       <c r="J302" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N302" s="15"/>
+      <c r="N302" s="14"/>
     </row>
     <row r="303" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
@@ -16070,7 +16078,7 @@
       <c r="J303" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N303" s="15"/>
+      <c r="N303" s="14"/>
     </row>
     <row r="304" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
@@ -16103,7 +16111,7 @@
       <c r="J304" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N304" s="15"/>
+      <c r="N304" s="14"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
@@ -16136,7 +16144,7 @@
       <c r="J305" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N305" s="15"/>
+      <c r="N305" s="14"/>
     </row>
     <row r="306" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
@@ -16169,7 +16177,7 @@
       <c r="J306" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N306" s="15"/>
+      <c r="N306" s="14"/>
     </row>
     <row r="307" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
@@ -16202,7 +16210,7 @@
       <c r="J307" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N307" s="15"/>
+      <c r="N307" s="14"/>
     </row>
     <row r="308" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
@@ -16235,7 +16243,7 @@
       <c r="J308" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N308" s="15"/>
+      <c r="N308" s="14"/>
     </row>
     <row r="309" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
@@ -16268,7 +16276,7 @@
       <c r="J309" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N309" s="15"/>
+      <c r="N309" s="14"/>
     </row>
     <row r="310" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
@@ -16301,7 +16309,7 @@
       <c r="J310" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N310" s="15"/>
+      <c r="N310" s="14"/>
     </row>
     <row r="311" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
@@ -16322,7 +16330,7 @@
       <c r="F311" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G311" s="19" t="s">
+      <c r="G311" s="18" t="s">
         <v>1321</v>
       </c>
       <c r="H311" s="1" t="s">
@@ -16334,7 +16342,7 @@
       <c r="J311" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N311" s="15"/>
+      <c r="N311" s="14"/>
     </row>
     <row r="312" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
@@ -16355,7 +16363,7 @@
       <c r="F312" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G312" s="19" t="s">
+      <c r="G312" s="18" t="s">
         <v>1326</v>
       </c>
       <c r="H312" s="1" t="s">
@@ -16367,7 +16375,7 @@
       <c r="J312" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N312" s="15"/>
+      <c r="N312" s="14"/>
     </row>
     <row r="313" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
@@ -16398,7 +16406,7 @@
       <c r="J313" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N313" s="15"/>
+      <c r="N313" s="14"/>
     </row>
     <row r="314" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
@@ -16429,7 +16437,7 @@
       <c r="J314" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N314" s="15"/>
+      <c r="N314" s="14"/>
     </row>
     <row r="315" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
@@ -16460,7 +16468,7 @@
       <c r="J315" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N315" s="15"/>
+      <c r="N315" s="14"/>
     </row>
     <row r="316" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
@@ -16491,7 +16499,7 @@
       <c r="J316" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N316" s="15"/>
+      <c r="N316" s="14"/>
     </row>
     <row r="317" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
@@ -16520,7 +16528,7 @@
       <c r="J317" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N317" s="15"/>
+      <c r="N317" s="14"/>
     </row>
     <row r="318" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
@@ -16549,7 +16557,7 @@
       <c r="J318" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N318" s="15"/>
+      <c r="N318" s="14"/>
     </row>
     <row r="319" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
@@ -16580,7 +16588,7 @@
       <c r="J319" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N319" s="15"/>
+      <c r="N319" s="14"/>
     </row>
     <row r="320" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
@@ -16611,7 +16619,7 @@
       <c r="J320" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N320" s="15"/>
+      <c r="N320" s="14"/>
     </row>
     <row r="321" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
@@ -16642,7 +16650,7 @@
       <c r="J321" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N321" s="15"/>
+      <c r="N321" s="14"/>
     </row>
     <row r="322" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
@@ -16673,7 +16681,7 @@
       <c r="J322" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N322" s="15"/>
+      <c r="N322" s="14"/>
     </row>
     <row r="323" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
@@ -16704,7 +16712,7 @@
       <c r="J323" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N323" s="15"/>
+      <c r="N323" s="14"/>
     </row>
     <row r="324" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
@@ -16737,7 +16745,7 @@
       <c r="J324" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N324" s="15"/>
+      <c r="N324" s="14"/>
     </row>
     <row r="325" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
@@ -16768,7 +16776,7 @@
       <c r="J325" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N325" s="15"/>
+      <c r="N325" s="14"/>
     </row>
     <row r="326" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
@@ -16799,7 +16807,7 @@
       <c r="J326" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N326" s="15"/>
+      <c r="N326" s="14"/>
     </row>
     <row r="327" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
@@ -16830,7 +16838,7 @@
       <c r="J327" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N327" s="15"/>
+      <c r="N327" s="14"/>
     </row>
     <row r="328" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
@@ -16861,7 +16869,7 @@
       <c r="J328" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N328" s="15"/>
+      <c r="N328" s="14"/>
     </row>
     <row r="329" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
@@ -16892,7 +16900,7 @@
       <c r="J329" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N329" s="15"/>
+      <c r="N329" s="14"/>
     </row>
     <row r="330" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
@@ -16925,7 +16933,7 @@
       <c r="J330" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N330" s="15"/>
+      <c r="N330" s="14"/>
     </row>
     <row r="331" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
@@ -16958,7 +16966,7 @@
       <c r="J331" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N331" s="15"/>
+      <c r="N331" s="14"/>
     </row>
     <row r="332" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
@@ -16991,7 +16999,7 @@
       <c r="J332" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N332" s="15"/>
+      <c r="N332" s="14"/>
     </row>
     <row r="333" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
@@ -17024,7 +17032,7 @@
       <c r="J333" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N333" s="15"/>
+      <c r="N333" s="14"/>
     </row>
     <row r="334" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
@@ -17057,7 +17065,7 @@
       <c r="J334" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N334" s="15"/>
+      <c r="N334" s="14"/>
     </row>
     <row r="335" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
@@ -17090,7 +17098,7 @@
       <c r="J335" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N335" s="15"/>
+      <c r="N335" s="14"/>
     </row>
     <row r="336" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
@@ -17121,7 +17129,7 @@
       <c r="J336" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N336" s="15"/>
+      <c r="N336" s="14"/>
     </row>
     <row r="337" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
@@ -17152,7 +17160,7 @@
       <c r="J337" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N337" s="15"/>
+      <c r="N337" s="14"/>
     </row>
     <row r="338" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
@@ -17183,7 +17191,7 @@
       <c r="J338" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N338" s="15"/>
+      <c r="N338" s="14"/>
     </row>
     <row r="339" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
@@ -17214,7 +17222,7 @@
       <c r="J339" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N339" s="15"/>
+      <c r="N339" s="14"/>
     </row>
     <row r="340" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -17245,7 +17253,7 @@
       <c r="J340" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N340" s="15"/>
+      <c r="N340" s="14"/>
     </row>
     <row r="341" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
@@ -17276,7 +17284,7 @@
       <c r="J341" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N341" s="15"/>
+      <c r="N341" s="14"/>
     </row>
     <row r="342" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
@@ -17307,7 +17315,7 @@
       <c r="J342" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N342" s="15"/>
+      <c r="N342" s="14"/>
     </row>
     <row r="343" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
@@ -17338,7 +17346,7 @@
       <c r="J343" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N343" s="15"/>
+      <c r="N343" s="14"/>
     </row>
     <row r="344" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
@@ -17369,7 +17377,7 @@
       <c r="J344" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N344" s="15"/>
+      <c r="N344" s="14"/>
     </row>
     <row r="345" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
@@ -17400,7 +17408,7 @@
       <c r="J345" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N345" s="15"/>
+      <c r="N345" s="14"/>
     </row>
     <row r="346" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
@@ -17431,7 +17439,7 @@
       <c r="J346" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N346" s="15"/>
+      <c r="N346" s="14"/>
     </row>
     <row r="347" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
@@ -17462,7 +17470,7 @@
       <c r="J347" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N347" s="15"/>
+      <c r="N347" s="14"/>
     </row>
     <row r="348" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
@@ -17493,7 +17501,7 @@
       <c r="J348" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N348" s="15"/>
+      <c r="N348" s="14"/>
     </row>
     <row r="349" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
@@ -17524,7 +17532,7 @@
       <c r="J349" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N349" s="15"/>
+      <c r="N349" s="14"/>
     </row>
     <row r="350" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
@@ -17555,7 +17563,7 @@
       <c r="J350" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N350" s="15"/>
+      <c r="N350" s="14"/>
     </row>
     <row r="351" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
@@ -17586,7 +17594,7 @@
       <c r="J351" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N351" s="15"/>
+      <c r="N351" s="14"/>
     </row>
     <row r="352" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
@@ -17617,7 +17625,7 @@
       <c r="J352" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N352" s="15"/>
+      <c r="N352" s="14"/>
     </row>
     <row r="353" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
@@ -17648,7 +17656,7 @@
       <c r="J353" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N353" s="15"/>
+      <c r="N353" s="14"/>
     </row>
     <row r="354" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
@@ -17679,7 +17687,7 @@
       <c r="J354" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N354" s="15"/>
+      <c r="N354" s="14"/>
     </row>
     <row r="355" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
@@ -17710,7 +17718,7 @@
       <c r="J355" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N355" s="15"/>
+      <c r="N355" s="14"/>
     </row>
     <row r="356" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
@@ -17741,7 +17749,7 @@
       <c r="J356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N356" s="15"/>
+      <c r="N356" s="14"/>
     </row>
     <row r="357" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
@@ -17772,7 +17780,7 @@
       <c r="J357" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N357" s="15"/>
+      <c r="N357" s="14"/>
     </row>
     <row r="358" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
@@ -17803,7 +17811,7 @@
       <c r="J358" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N358" s="15"/>
+      <c r="N358" s="14"/>
     </row>
     <row r="359" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
@@ -17834,7 +17842,7 @@
       <c r="J359" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N359" s="15"/>
+      <c r="N359" s="14"/>
     </row>
     <row r="360" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
@@ -17865,7 +17873,7 @@
       <c r="J360" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N360" s="15"/>
+      <c r="N360" s="14"/>
     </row>
     <row r="361" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
@@ -17896,7 +17904,7 @@
       <c r="J361" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N361" s="15"/>
+      <c r="N361" s="14"/>
     </row>
     <row r="362" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
@@ -17927,7 +17935,7 @@
       <c r="J362" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N362" s="15"/>
+      <c r="N362" s="14"/>
     </row>
     <row r="363" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
@@ -17958,7 +17966,7 @@
       <c r="J363" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N363" s="15"/>
+      <c r="N363" s="14"/>
     </row>
     <row r="364" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
@@ -17989,7 +17997,7 @@
       <c r="J364" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N364" s="15"/>
+      <c r="N364" s="14"/>
     </row>
     <row r="365" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
@@ -18001,7 +18009,7 @@
       <c r="C365" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="D365" s="14" t="s">
+      <c r="D365" s="13" t="s">
         <v>1487</v>
       </c>
       <c r="E365" s="1" t="s">
@@ -18020,7 +18028,7 @@
       <c r="J365" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N365" s="15"/>
+      <c r="N365" s="14"/>
     </row>
     <row r="366" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
@@ -18041,7 +18049,7 @@
       <c r="F366" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G366" s="19" t="s">
+      <c r="G366" s="18" t="s">
         <v>1490</v>
       </c>
       <c r="H366" s="1" t="s">
@@ -18053,7 +18061,7 @@
       <c r="J366" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N366" s="15"/>
+      <c r="N366" s="14"/>
     </row>
     <row r="367" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
@@ -18065,7 +18073,7 @@
       <c r="C367" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D367" s="14" t="s">
+      <c r="D367" s="13" t="s">
         <v>1493</v>
       </c>
       <c r="E367" s="1" t="s">
@@ -18084,7 +18092,7 @@
       <c r="J367" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N367" s="15"/>
+      <c r="N367" s="14"/>
     </row>
     <row r="368" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
@@ -18117,7 +18125,7 @@
       <c r="J368" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N368" s="15"/>
+      <c r="N368" s="14"/>
     </row>
     <row r="369" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
@@ -18150,7 +18158,7 @@
       <c r="J369" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N369" s="15"/>
+      <c r="N369" s="14"/>
     </row>
     <row r="370" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
@@ -18183,7 +18191,7 @@
       <c r="J370" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N370" s="15"/>
+      <c r="N370" s="14"/>
     </row>
     <row r="371" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
@@ -18216,7 +18224,7 @@
       <c r="J371" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N371" s="15"/>
+      <c r="N371" s="14"/>
     </row>
     <row r="372" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
@@ -18249,7 +18257,7 @@
       <c r="J372" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N372" s="15"/>
+      <c r="N372" s="14"/>
     </row>
     <row r="373" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
@@ -18282,7 +18290,7 @@
       <c r="J373" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N373" s="15"/>
+      <c r="N373" s="14"/>
     </row>
     <row r="374" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
@@ -18313,7 +18321,7 @@
       <c r="J374" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N374" s="15"/>
+      <c r="N374" s="14"/>
     </row>
     <row r="375" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
@@ -18344,7 +18352,7 @@
       <c r="J375" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N375" s="15"/>
+      <c r="N375" s="14"/>
     </row>
     <row r="376" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
@@ -18377,7 +18385,7 @@
       <c r="J376" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N376" s="15"/>
+      <c r="N376" s="14"/>
     </row>
     <row r="377" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
@@ -18401,16 +18409,16 @@
       <c r="G377" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="H377" s="10" t="s">
+      <c r="H377" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I377" s="22" t="s">
+      <c r="I377" s="21" t="s">
         <v>1523</v>
       </c>
       <c r="J377" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N377" s="15"/>
+      <c r="N377" s="14"/>
     </row>
     <row r="378" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
@@ -18441,7 +18449,7 @@
       <c r="J378" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N378" s="15"/>
+      <c r="N378" s="14"/>
     </row>
     <row r="379" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
@@ -18474,7 +18482,7 @@
       <c r="J379" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N379" s="15"/>
+      <c r="N379" s="14"/>
     </row>
     <row r="380" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
@@ -18495,7 +18503,7 @@
       <c r="F380" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G380" s="19" t="s">
+      <c r="G380" s="18" t="s">
         <v>1535</v>
       </c>
       <c r="H380" s="1" t="s">
@@ -18507,7 +18515,7 @@
       <c r="J380" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N380" s="15"/>
+      <c r="N380" s="14"/>
     </row>
     <row r="381" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
@@ -18540,7 +18548,7 @@
       <c r="J381" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N381" s="15"/>
+      <c r="N381" s="14"/>
     </row>
     <row r="382" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
@@ -18573,7 +18581,7 @@
       <c r="J382" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N382" s="15"/>
+      <c r="N382" s="14"/>
     </row>
     <row r="383" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
@@ -18606,7 +18614,7 @@
       <c r="J383" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N383" s="15"/>
+      <c r="N383" s="14"/>
     </row>
     <row r="384" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
@@ -18639,7 +18647,7 @@
       <c r="J384" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N384" s="15"/>
+      <c r="N384" s="14"/>
     </row>
     <row r="385" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
@@ -18672,7 +18680,7 @@
       <c r="J385" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N385" s="15"/>
+      <c r="N385" s="14"/>
     </row>
     <row r="386" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -18705,7 +18713,7 @@
       <c r="J386" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N386" s="15"/>
+      <c r="N386" s="14"/>
     </row>
     <row r="387" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
@@ -18738,7 +18746,7 @@
       <c r="J387" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N387" s="15"/>
+      <c r="N387" s="14"/>
     </row>
     <row r="388" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
@@ -18771,7 +18779,7 @@
       <c r="J388" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N388" s="15"/>
+      <c r="N388" s="14"/>
     </row>
     <row r="389" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
@@ -18804,7 +18812,7 @@
       <c r="J389" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N389" s="15"/>
+      <c r="N389" s="14"/>
     </row>
     <row r="390" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
@@ -18837,7 +18845,7 @@
       <c r="J390" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N390" s="15"/>
+      <c r="N390" s="14"/>
     </row>
     <row r="391" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
@@ -18870,7 +18878,7 @@
       <c r="J391" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N391" s="15"/>
+      <c r="N391" s="14"/>
     </row>
     <row r="392" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
@@ -18903,7 +18911,7 @@
       <c r="J392" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N392" s="15"/>
+      <c r="N392" s="14"/>
     </row>
     <row r="393" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
@@ -18936,7 +18944,7 @@
       <c r="J393" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N393" s="15"/>
+      <c r="N393" s="14"/>
     </row>
     <row r="394" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
@@ -18969,7 +18977,7 @@
       <c r="J394" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N394" s="15"/>
+      <c r="N394" s="14"/>
     </row>
     <row r="395" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
@@ -19002,7 +19010,7 @@
       <c r="J395" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N395" s="15"/>
+      <c r="N395" s="14"/>
     </row>
     <row r="396" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
@@ -19035,7 +19043,7 @@
       <c r="J396" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N396" s="15"/>
+      <c r="N396" s="14"/>
     </row>
     <row r="397" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
@@ -19056,7 +19064,7 @@
       <c r="F397" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G397" s="19" t="s">
+      <c r="G397" s="18" t="s">
         <v>1590</v>
       </c>
       <c r="H397" s="1" t="s">
@@ -19068,7 +19076,7 @@
       <c r="J397" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N397" s="15"/>
+      <c r="N397" s="14"/>
     </row>
     <row r="398" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
@@ -19101,7 +19109,7 @@
       <c r="J398" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N398" s="15"/>
+      <c r="N398" s="14"/>
     </row>
     <row r="399" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
@@ -19134,7 +19142,7 @@
       <c r="J399" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N399" s="15"/>
+      <c r="N399" s="14"/>
     </row>
     <row r="400" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
@@ -19167,7 +19175,7 @@
       <c r="J400" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N400" s="15"/>
+      <c r="N400" s="14"/>
     </row>
     <row r="401" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
@@ -19188,7 +19196,7 @@
       <c r="F401" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G401" s="19" t="s">
+      <c r="G401" s="18" t="s">
         <v>1604</v>
       </c>
       <c r="H401" s="1" t="s">
@@ -19200,7 +19208,7 @@
       <c r="J401" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N401" s="23"/>
+      <c r="N401" s="14"/>
     </row>
     <row r="402" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
@@ -19221,7 +19229,7 @@
       <c r="F402" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G402" s="19" t="s">
+      <c r="G402" s="18" t="s">
         <v>1608</v>
       </c>
       <c r="H402" s="1" t="s">
@@ -19233,6 +19241,7 @@
       <c r="J402" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N402" s="14"/>
     </row>
     <row r="403" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -19265,6 +19274,7 @@
       <c r="J403" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N403" s="14"/>
     </row>
     <row r="404" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
@@ -19297,6 +19307,7 @@
       <c r="J404" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N404" s="14"/>
     </row>
     <row r="405" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
@@ -19329,6 +19340,7 @@
       <c r="J405" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N405" s="14"/>
     </row>
     <row r="406" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
@@ -19349,7 +19361,7 @@
       <c r="F406" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G406" s="9" t="s">
+      <c r="G406" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="H406" s="1" t="s">
@@ -19361,6 +19373,73 @@
       <c r="J406" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N406" s="14"/>
+    </row>
+    <row r="407" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I407" s="1">
+        <v>16133929888</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N407" s="14"/>
+    </row>
+    <row r="408" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F408" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I408" s="1">
+        <v>14165489333</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N408" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -5387,7 +5387,7 @@
   <dimension ref="A1:N408"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="N400" sqref="N400:N408"/>
+      <selection activeCell="I400" sqref="I400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1650">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -4906,13 +4906,73 @@
   </si>
   <si>
     <t>5ed826b6960b4a28966976fd</t>
+  </si>
+  <si>
+    <t>6010a9348eb69600e3e4fbb9</t>
+  </si>
+  <si>
+    <t>http://www.affxcannabis.ca/</t>
+  </si>
+  <si>
+    <t>919 UPPER PARADISE RD UNIT 5</t>
+  </si>
+  <si>
+    <t>AFFX CANNABIS</t>
+  </si>
+  <si>
+    <t>6494cd4b4e5be60009acabef</t>
+  </si>
+  <si>
+    <t>http://www.buzzedbuds.co/</t>
+  </si>
+  <si>
+    <t>1375 SOUTHDOWN RD UNIT 6</t>
+  </si>
+  <si>
+    <t>Buzzed Buds</t>
+  </si>
+  <si>
+    <t>60ec7592c7c21f00ba6fd559</t>
+  </si>
+  <si>
+    <t>http://www.cannabishut.ca/</t>
+  </si>
+  <si>
+    <t>2254 BIRCHMOUNT RD</t>
+  </si>
+  <si>
+    <t>Cannabis Hut Ltd.</t>
+  </si>
+  <si>
+    <t>['No delivery / delivery time unknown']</t>
+  </si>
+  <si>
+    <t>6100268cbc2cf3009bf95b3b</t>
+  </si>
+  <si>
+    <t>http://www.bananasdispensary.ca/</t>
+  </si>
+  <si>
+    <t>3454 ERRINGTON AVE</t>
+  </si>
+  <si>
+    <t>HIGHLIFE CANNABIS CHELMSFORD</t>
+  </si>
+  <si>
+    <t>CHELMSFORD</t>
+  </si>
+  <si>
+    <t>1855 LASALLE BLVD</t>
+  </si>
+  <si>
+    <t>HIGHLIFE CANNABIS LASALLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4983,6 +5043,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5044,7 +5113,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -5081,6 +5150,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5384,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N408"/>
+  <dimension ref="A1:N413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="I400" sqref="I400"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A413" sqref="A413:XFD413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19440,6 +19510,166 @@
         <v>20</v>
       </c>
       <c r="N408" s="14"/>
+    </row>
+    <row r="409" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G409" s="22" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I409" s="1">
+        <v>12897550420</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F410" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G410" s="22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I410" s="1">
+        <v>16474058606</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G411" s="22" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I411" s="1">
+        <v>14162690639</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G412" s="22" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I412" s="1">
+        <v>17058550866</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G413" s="22" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I413" s="1">
+        <v>17055210119</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1699">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -4966,13 +4966,160 @@
   </si>
   <si>
     <t>HIGHLIFE CANNABIS LASALLE</t>
+  </si>
+  <si>
+    <t>Techpos</t>
+  </si>
+  <si>
+    <t>http://www.athenacannabis.ca/</t>
+  </si>
+  <si>
+    <t>782 EAGLESON RD UNIT D4</t>
+  </si>
+  <si>
+    <t>Athena Cannabis</t>
+  </si>
+  <si>
+    <t>http://www.bancroftcannabis.ca/</t>
+  </si>
+  <si>
+    <t>7 STATION ST RR 1</t>
+  </si>
+  <si>
+    <t>BANCROFT CANNABIS</t>
+  </si>
+  <si>
+    <t>BANCROFT</t>
+  </si>
+  <si>
+    <t>http://www.benkzbudz.com/</t>
+  </si>
+  <si>
+    <t>699 WILKINS ST UNIT 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benkz Budz </t>
+  </si>
+  <si>
+    <t>http://www.bigbamboocannabis.com/</t>
+  </si>
+  <si>
+    <t>144 RENFREW AVE UNIT C1</t>
+  </si>
+  <si>
+    <t>The Big Bamboo Cannabis Company</t>
+  </si>
+  <si>
+    <t>http://www.blackstarcannabis.ca/</t>
+  </si>
+  <si>
+    <t>666 BURNHAMTHORPE RD UNIT C</t>
+  </si>
+  <si>
+    <t>http://www.blazeco.ca/</t>
+  </si>
+  <si>
+    <t>231 AMBRIDGE DRIVE</t>
+  </si>
+  <si>
+    <t>Blazeco Cannabis</t>
+  </si>
+  <si>
+    <t>IROQUOIS FALLS</t>
+  </si>
+  <si>
+    <t>http://www.bluehavencannabis.com/</t>
+  </si>
+  <si>
+    <t>990 RIVER RD UNIT 8</t>
+  </si>
+  <si>
+    <t>Blue Haven Cannabis</t>
+  </si>
+  <si>
+    <t>MANOTICK</t>
+  </si>
+  <si>
+    <t>http://www.bluesagehamilton.ca/</t>
+  </si>
+  <si>
+    <t>835 KING ST E</t>
+  </si>
+  <si>
+    <t>Blue Sage Cannabis</t>
+  </si>
+  <si>
+    <t>61d38df67bdd52009766d458</t>
+  </si>
+  <si>
+    <t>http://www.bodegaboyz.ca/</t>
+  </si>
+  <si>
+    <t>68-78 MAIN ST N UNIT 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>BODEGA BOYZ</t>
+  </si>
+  <si>
+    <t>http://www.budbank.shop/</t>
+  </si>
+  <si>
+    <t>445 RICHMOND ST</t>
+  </si>
+  <si>
+    <t>Bud Bank</t>
+  </si>
+  <si>
+    <t>60ee00a567496700c951430f</t>
+  </si>
+  <si>
+    <t>http://www.buds4less.ca/</t>
+  </si>
+  <si>
+    <t>489 YONGE ST UNIT 2</t>
+  </si>
+  <si>
+    <t>5f4416ed23690900fae74899</t>
+  </si>
+  <si>
+    <t>Dutchie/Buddi</t>
+  </si>
+  <si>
+    <t>http://www.budscannabisstore.ca/</t>
+  </si>
+  <si>
+    <t>370 STONE RD W UNIT 4B</t>
+  </si>
+  <si>
+    <t>BUD'S CANNABIS STORE</t>
+  </si>
+  <si>
+    <t>http://www.bytownbudzz.com/</t>
+  </si>
+  <si>
+    <t>373 SOMERSET ST W</t>
+  </si>
+  <si>
+    <t>BYTOWN BUDZZ</t>
+  </si>
+  <si>
+    <t>5f2c4160cb53ca00d7c50001</t>
+  </si>
+  <si>
+    <t>http://www.cabincannabis.ca/</t>
+  </si>
+  <si>
+    <t>688 BLOOR ST W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABIN CANNABIS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5052,6 +5199,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6A8759"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5113,7 +5277,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -5151,6 +5315,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5454,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N413"/>
+  <dimension ref="A1:N427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A413" sqref="A413:XFD413"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:XFD427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19542,6 +19710,7 @@
       <c r="J409" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N409" s="14"/>
     </row>
     <row r="410" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
@@ -19574,6 +19743,7 @@
       <c r="J410" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N410" s="14"/>
     </row>
     <row r="411" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
@@ -19606,6 +19776,7 @@
       <c r="J411" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N411" s="14"/>
     </row>
     <row r="412" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
@@ -19638,6 +19809,7 @@
       <c r="J412" s="1" t="s">
         <v>1642</v>
       </c>
+      <c r="N412" s="14"/>
     </row>
     <row r="413" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
@@ -19669,6 +19841,443 @@
       </c>
       <c r="J413" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N413" s="14"/>
+    </row>
+    <row r="414" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F414" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G414" s="23"/>
+      <c r="H414" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I414" s="1">
+        <v>16135951420</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N414" s="14"/>
+    </row>
+    <row r="415" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F415" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G415" s="23"/>
+      <c r="H415" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I415" s="1">
+        <v>16133320250</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N415" s="14"/>
+    </row>
+    <row r="416" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F416" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G416" s="23"/>
+      <c r="H416" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I416" s="1">
+        <v>15196686858</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N416" s="14"/>
+    </row>
+    <row r="417" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F417" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G417" s="23"/>
+      <c r="H417" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I417" s="1">
+        <v>16134225544</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N417" s="14"/>
+    </row>
+    <row r="418" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F418" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G418" s="23"/>
+      <c r="H418" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I418" s="1">
+        <v>14378870872</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N418" s="14"/>
+    </row>
+    <row r="419" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F419" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G419" s="23"/>
+      <c r="H419" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I419" s="1">
+        <v>17052691688</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N419" s="14"/>
+    </row>
+    <row r="420" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F420" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G420" s="23"/>
+      <c r="H420" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I420" s="1">
+        <v>16136922639</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N420" s="14"/>
+    </row>
+    <row r="421" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F421" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G421" s="23"/>
+      <c r="H421" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I421" s="1">
+        <v>19055442555</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N421" s="14"/>
+    </row>
+    <row r="422" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F422" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G422" s="22" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I422" s="1">
+        <v>19057028797</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F423" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G423" s="23"/>
+      <c r="H423" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I423" s="1">
+        <v>18774420420</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F424" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G424" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I424" s="1">
+        <v>17054810124</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G425" s="22" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I425" s="1">
+        <v>15198212837</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F426" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G426" s="23"/>
+      <c r="H426" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I426" s="1">
+        <v>16132382839</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F427" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G427" s="22" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I427" s="1">
+        <v>14165380688</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="1833">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -5113,13 +5113,415 @@
   </si>
   <si>
     <t xml:space="preserve">CABIN CANNABIS </t>
+  </si>
+  <si>
+    <t>http://www.canada-buds.ca/</t>
+  </si>
+  <si>
+    <t>1860 APPLEBY LINE UNIT 11B</t>
+  </si>
+  <si>
+    <t>Canada Buds</t>
+  </si>
+  <si>
+    <t>595 CARLTON ST UNIT 28</t>
+  </si>
+  <si>
+    <t>http://www.cannabisarnprior.com/</t>
+  </si>
+  <si>
+    <t>8 ELGIN ST W</t>
+  </si>
+  <si>
+    <t>ARNPRIOR CANNABIS</t>
+  </si>
+  <si>
+    <t>ARNPRIOR</t>
+  </si>
+  <si>
+    <t>60df8bdc1c562500bb62498e</t>
+  </si>
+  <si>
+    <t>http://www.cannabisgreybruce.ca/</t>
+  </si>
+  <si>
+    <t>236 8TH ST E</t>
+  </si>
+  <si>
+    <t>638fa49f627e040095ac90bc</t>
+  </si>
+  <si>
+    <t>699 COXWELL AVE UNIT G01 &amp; G02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis Hut </t>
+  </si>
+  <si>
+    <t>621567bc734be400a037b396</t>
+  </si>
+  <si>
+    <t>http://www.cannabisjacks.ca/</t>
+  </si>
+  <si>
+    <t>518 GREAT NORTHERN RD UNIT 1</t>
+  </si>
+  <si>
+    <t>Cannabis Jack's</t>
+  </si>
+  <si>
+    <t>http://www.cannabisstn.com/</t>
+  </si>
+  <si>
+    <t>2292 KEELE ST</t>
+  </si>
+  <si>
+    <t>CANNABIS STATION</t>
+  </si>
+  <si>
+    <t>61f8b018b3081b00a7e4806d</t>
+  </si>
+  <si>
+    <t>http://www.cannabis-xpress.com/</t>
+  </si>
+  <si>
+    <t>8 MAIN ST W</t>
+  </si>
+  <si>
+    <t>BEETON</t>
+  </si>
+  <si>
+    <t>619d0d70de36fb00a524ad2c</t>
+  </si>
+  <si>
+    <t>11670 HURONTARIO ST UNIT 6</t>
+  </si>
+  <si>
+    <t>639c70ba04a4f500d825f21d</t>
+  </si>
+  <si>
+    <t>158 MAIN STREET OF DELHI</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping', 'No delivery']</t>
+  </si>
+  <si>
+    <t>6205908036556e00ad753208</t>
+  </si>
+  <si>
+    <t>1648 TAUNTON RD E UNIT 2</t>
+  </si>
+  <si>
+    <t>HAMPTON</t>
+  </si>
+  <si>
+    <t>60aed1ac3abb70009f6ad118</t>
+  </si>
+  <si>
+    <t>4570 PENETANGUISHENE RD</t>
+  </si>
+  <si>
+    <t>HILLSDALE</t>
+  </si>
+  <si>
+    <t>6318a91bbb864e00bf9822e3</t>
+  </si>
+  <si>
+    <t>2333 CHURCH STREET, UNIT 3</t>
+  </si>
+  <si>
+    <t>NORTH GOWER</t>
+  </si>
+  <si>
+    <t>63079f4276de6f00a660608a</t>
+  </si>
+  <si>
+    <t>1692 CENTRAL ST UNIT 1</t>
+  </si>
+  <si>
+    <t>PICKERING</t>
+  </si>
+  <si>
+    <t>60aed1fa629770009fb19a03</t>
+  </si>
+  <si>
+    <t>5 QUINLAN DR UNIT B</t>
+  </si>
+  <si>
+    <t>PORT HOPE</t>
+  </si>
+  <si>
+    <t>60e4b29402c20200a65849f0</t>
+  </si>
+  <si>
+    <t>39 MAIN ST E</t>
+  </si>
+  <si>
+    <t>RIDGETOWN</t>
+  </si>
+  <si>
+    <t>62a8a9039e87eb0095be00f9</t>
+  </si>
+  <si>
+    <t>5005 STEELES AVE E UNIT 106</t>
+  </si>
+  <si>
+    <t>6033fb7431af03263663ac3e</t>
+  </si>
+  <si>
+    <t>170 REACH ST UNIT 2</t>
+  </si>
+  <si>
+    <t>UXBRIDGE</t>
+  </si>
+  <si>
+    <t>60aed1cdb9443d00c9d66e12</t>
+  </si>
+  <si>
+    <t>930 RIVER RD W UNIT 1</t>
+  </si>
+  <si>
+    <t>http://www.cannabuzzinc.ca/</t>
+  </si>
+  <si>
+    <t>142 SIMCOE ST S</t>
+  </si>
+  <si>
+    <t>Canna Buzz</t>
+  </si>
+  <si>
+    <t>['no phone number', 'mail - info@cannahavana.ca']</t>
+  </si>
+  <si>
+    <t>http://www.cannahavana.ca/</t>
+  </si>
+  <si>
+    <t>827 KING ST E UNIT A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canna Havana </t>
+  </si>
+  <si>
+    <t>http://www.cannanorth.ca/</t>
+  </si>
+  <si>
+    <t>800 HUNT CLUB RD UNIT 3</t>
+  </si>
+  <si>
+    <t>117 YONGE ST</t>
+  </si>
+  <si>
+    <t>Canna North Cannabis Store</t>
+  </si>
+  <si>
+    <t>http://www.cantopia.ca/</t>
+  </si>
+  <si>
+    <t>6400 MILLCREEK DR UNIT 14</t>
+  </si>
+  <si>
+    <t>Cantopia Cannabis Co.</t>
+  </si>
+  <si>
+    <t>5e5d9099b14b240080d2452a</t>
+  </si>
+  <si>
+    <t>http://www.canvascannabis.ca/</t>
+  </si>
+  <si>
+    <t>1285 WESTON RD</t>
+  </si>
+  <si>
+    <t>Canvas Cannabis</t>
+  </si>
+  <si>
+    <t>https://app.buddi.io/ecommerce/store/5459/menu</t>
+  </si>
+  <si>
+    <t>52 SIMCOE ST</t>
+  </si>
+  <si>
+    <t>Capturing Eden</t>
+  </si>
+  <si>
+    <t>http://www.cloud29.ca/</t>
+  </si>
+  <si>
+    <t>660 RICHMOND ST UNIT 6</t>
+  </si>
+  <si>
+    <t>CLOUD 29 RICHMOND</t>
+  </si>
+  <si>
+    <t>300 CABANA RD E SUITE 2</t>
+  </si>
+  <si>
+    <t>CLOUD 29</t>
+  </si>
+  <si>
+    <t>61606d714e16ae00daf2091c</t>
+  </si>
+  <si>
+    <t>http://www.coconutcannabis.ca/</t>
+  </si>
+  <si>
+    <t>50 FRONT ST N</t>
+  </si>
+  <si>
+    <t>Coconut Cannabis</t>
+  </si>
+  <si>
+    <t>THOROLD</t>
+  </si>
+  <si>
+    <t>['No delivery / time unknown']</t>
+  </si>
+  <si>
+    <t>http://www.costcann.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice: Ends on 2023/11/24</t>
+  </si>
+  <si>
+    <t>918 DUNDAS ST E UNIT B</t>
+  </si>
+  <si>
+    <t>http://www.creeksidecannabis.ca/</t>
+  </si>
+  <si>
+    <t>26220 HWY 17</t>
+  </si>
+  <si>
+    <t>Creekside Cannabis</t>
+  </si>
+  <si>
+    <t>BLIND RIVER</t>
+  </si>
+  <si>
+    <t>http://www.dabcannabisstore.com/</t>
+  </si>
+  <si>
+    <t>3481 FALCONBRIDGE HWY UNIT 1</t>
+  </si>
+  <si>
+    <t>Dab Cannabis</t>
+  </si>
+  <si>
+    <t>GARSON</t>
+  </si>
+  <si>
+    <t>http://www.deeprivercannabis.com/</t>
+  </si>
+  <si>
+    <t>33155 HIGHWAY 17 EAST</t>
+  </si>
+  <si>
+    <t>Deep River Cannabis</t>
+  </si>
+  <si>
+    <t>DEEP RIVER</t>
+  </si>
+  <si>
+    <t>http://www.discountedcannabis.ca/</t>
+  </si>
+  <si>
+    <t>473 NOTRE DAME ST UNIT 3</t>
+  </si>
+  <si>
+    <t>Discounted Cannabis</t>
+  </si>
+  <si>
+    <t>229 ST CLAIR ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 TALBOT ST N </t>
+  </si>
+  <si>
+    <t>DISCOUNTED CANNABIS</t>
+  </si>
+  <si>
+    <t>282 ERIE ST S UNIT A</t>
+  </si>
+  <si>
+    <t>5929 WYANDOTTE ST E</t>
+  </si>
+  <si>
+    <t>2007 WYANDOTTE ST W</t>
+  </si>
+  <si>
+    <t>1332 WYANDOTTE ST E</t>
+  </si>
+  <si>
+    <t>http://www.dockscannabis.ca/</t>
+  </si>
+  <si>
+    <t>7 KING ST E</t>
+  </si>
+  <si>
+    <t>DOCKS</t>
+  </si>
+  <si>
+    <t>BOBCAYGEON</t>
+  </si>
+  <si>
+    <t>6080a9ac26a10800c1ee4941</t>
+  </si>
+  <si>
+    <t>http://www.duenorthcannabis.com/</t>
+  </si>
+  <si>
+    <t>695 PINE ST UNIT T6</t>
+  </si>
+  <si>
+    <t>Due North Cannabis Co.</t>
+  </si>
+  <si>
+    <t>['permanently closed']</t>
+  </si>
+  <si>
+    <t>http://www.canyoncannabis.ca/</t>
+  </si>
+  <si>
+    <t>1864 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>Canyon Cannabis</t>
+  </si>
+  <si>
+    <t>http://www.capturingeden.com/</t>
+  </si>
+  <si>
+    <t>11B CAYUGA STREET N</t>
+  </si>
+  <si>
+    <t>602bddc81b82516323a97746</t>
+  </si>
+  <si>
+    <t>http://www.casablisscannabis.com/</t>
+  </si>
+  <si>
+    <t>82 THIRD AVE</t>
+  </si>
+  <si>
+    <t>CASA BLISS</t>
+  </si>
+  <si>
+    <t>61991f214b28a50086f54ee6</t>
+  </si>
+  <si>
+    <t>94 HARBORD ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANVAS CANNABIS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5190,32 +5592,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF6A8759"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5277,7 +5653,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -5310,13 +5686,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5622,17 +5997,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N427"/>
+  <dimension ref="A1:N473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:XFD427"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="N472" sqref="N472:N473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="21" customWidth="1"/>
     <col min="8" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18650,7 +19025,7 @@
       <c r="H377" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I377" s="21" t="s">
+      <c r="I377" s="20" t="s">
         <v>1523</v>
       </c>
       <c r="J377" s="1" t="s">
@@ -19863,7 +20238,7 @@
       <c r="F414" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="G414" s="23"/>
+      <c r="G414" s="3"/>
       <c r="H414" s="1" t="s">
         <v>105</v>
       </c>
@@ -19894,7 +20269,7 @@
       <c r="F415" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="G415" s="23"/>
+      <c r="G415" s="3"/>
       <c r="H415" s="1" t="s">
         <v>26</v>
       </c>
@@ -19925,7 +20300,7 @@
       <c r="F416" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G416" s="23"/>
+      <c r="G416" s="3"/>
       <c r="H416" s="1" t="s">
         <v>40</v>
       </c>
@@ -19956,7 +20331,7 @@
       <c r="F417" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G417" s="23"/>
+      <c r="G417" s="3"/>
       <c r="H417" s="1" t="s">
         <v>40</v>
       </c>
@@ -19987,7 +20362,7 @@
       <c r="F418" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G418" s="23"/>
+      <c r="G418" s="3"/>
       <c r="H418" s="1" t="s">
         <v>26</v>
       </c>
@@ -20018,7 +20393,7 @@
       <c r="F419" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G419" s="23"/>
+      <c r="G419" s="3"/>
       <c r="H419" s="1" t="s">
         <v>206</v>
       </c>
@@ -20049,7 +20424,7 @@
       <c r="F420" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G420" s="23"/>
+      <c r="G420" s="3"/>
       <c r="H420" s="1" t="s">
         <v>26</v>
       </c>
@@ -20080,7 +20455,7 @@
       <c r="F421" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G421" s="23"/>
+      <c r="G421" s="3"/>
       <c r="H421" s="1" t="s">
         <v>105</v>
       </c>
@@ -20123,6 +20498,7 @@
       <c r="J422" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="N422" s="14"/>
     </row>
     <row r="423" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
@@ -20143,7 +20519,7 @@
       <c r="F423" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="G423" s="23"/>
+      <c r="G423" s="3"/>
       <c r="H423" s="1" t="s">
         <v>40</v>
       </c>
@@ -20153,6 +20529,7 @@
       <c r="J423" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="N423" s="14"/>
     </row>
     <row r="424" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
@@ -20173,7 +20550,7 @@
       <c r="F424" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G424" s="24" t="s">
+      <c r="G424" s="23" t="s">
         <v>1684</v>
       </c>
       <c r="H424" s="1" t="s">
@@ -20185,6 +20562,7 @@
       <c r="J424" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="N424" s="14"/>
     </row>
     <row r="425" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
@@ -20217,6 +20595,7 @@
       <c r="J425" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="N425" s="14"/>
     </row>
     <row r="426" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
@@ -20237,7 +20616,7 @@
       <c r="F426" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G426" s="23"/>
+      <c r="G426" s="3"/>
       <c r="H426" s="1" t="s">
         <v>26</v>
       </c>
@@ -20247,6 +20626,7 @@
       <c r="J426" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="N426" s="14"/>
     </row>
     <row r="427" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
@@ -20279,6 +20659,1473 @@
       <c r="J427" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="N427" s="14"/>
+    </row>
+    <row r="428" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F428" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G428" s="3"/>
+      <c r="H428" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I428" s="1">
+        <v>19053192934</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N428" s="14"/>
+    </row>
+    <row r="429" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F429" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G429" s="3"/>
+      <c r="H429" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I429" s="1">
+        <v>19059352102</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N429" s="14"/>
+    </row>
+    <row r="430" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G430" s="3"/>
+      <c r="H430" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I430" s="1">
+        <v>16136232423</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N430" s="14"/>
+    </row>
+    <row r="431" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G431" s="22" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I431" s="1">
+        <v>12266640681</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N431" s="14"/>
+    </row>
+    <row r="432" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F432" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G432" s="22" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I432" s="1">
+        <v>16473688582</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N432" s="14"/>
+    </row>
+    <row r="433" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F433" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G433" s="22" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I433" s="1">
+        <v>17052565225</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N433" s="14"/>
+    </row>
+    <row r="434" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F434" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G434" s="3"/>
+      <c r="H434" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I434" s="1">
+        <v>16473651896</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N434" s="14"/>
+    </row>
+    <row r="435" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F435" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G435" s="22" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I435" s="1">
+        <v>16475472890</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N435" s="14"/>
+    </row>
+    <row r="436" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F436" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G436" s="22" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I436" s="1">
+        <v>16472432682</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N436" s="14"/>
+    </row>
+    <row r="437" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F437" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G437" s="22" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I437" s="1">
+        <v>16472432124</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N437" s="14"/>
+    </row>
+    <row r="438" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G438" s="22" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I438" s="1">
+        <v>16474907753</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N438" s="14"/>
+    </row>
+    <row r="439" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F439" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G439" s="22" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I439" s="1">
+        <v>12494870029</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N439" s="14"/>
+    </row>
+    <row r="440" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F440" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G440" s="22" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I440" s="1">
+        <v>16474967952</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N440" s="14"/>
+    </row>
+    <row r="441" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F441" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G441" s="22" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I441" s="1">
+        <v>16472434714</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N441" s="14"/>
+    </row>
+    <row r="442" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F442" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G442" s="22" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I442" s="1">
+        <v>12896343414</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N442" s="14"/>
+    </row>
+    <row r="443" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F443" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G443" s="22" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I443" s="1">
+        <v>16472432664</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N443" s="14"/>
+    </row>
+    <row r="444" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I444" s="1">
+        <v>16472432106</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N444" s="14"/>
+    </row>
+    <row r="445" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G445" s="22" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I445" s="1">
+        <v>12892012252</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N445" s="14"/>
+    </row>
+    <row r="446" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F446" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G446" s="22" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I446" s="1">
+        <v>12494880093</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N446" s="14"/>
+    </row>
+    <row r="447" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F447" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G447" s="3"/>
+      <c r="H447" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I447" s="1">
+        <v>19052596230</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N447" s="14"/>
+    </row>
+    <row r="448" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F448" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G448" s="3"/>
+      <c r="H448" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N448" s="14"/>
+    </row>
+    <row r="449" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F449" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G449" s="3"/>
+      <c r="H449" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I449" s="1">
+        <v>16137366506</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N449" s="14"/>
+    </row>
+    <row r="450" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F450" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G450" s="3"/>
+      <c r="H450" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I450" s="1">
+        <v>14165194650</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N450" s="14"/>
+    </row>
+    <row r="451" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F451" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G451" s="3"/>
+      <c r="H451" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I451" s="1">
+        <v>16479915455</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N451" s="14"/>
+    </row>
+    <row r="452" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F452" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G452" s="22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I452" s="1">
+        <v>14165513065</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N452" s="14"/>
+    </row>
+    <row r="453" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F453" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G453" s="3"/>
+      <c r="H453" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I453" s="1">
+        <v>15197182626</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N453" s="14"/>
+    </row>
+    <row r="454" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F454" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G454" s="3"/>
+      <c r="H454" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I454" s="1">
+        <v>15192041229</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N454" s="14"/>
+    </row>
+    <row r="455" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F455" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G455" s="3"/>
+      <c r="H455" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I455" s="1">
+        <v>15199152987</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N455" s="14"/>
+    </row>
+    <row r="456" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F456" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G456" s="22" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I456" s="1">
+        <v>19056808403</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N456" s="14"/>
+    </row>
+    <row r="457" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F457" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G457" s="3"/>
+      <c r="H457" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I457" s="1">
+        <v>14162660110</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N457" s="14"/>
+    </row>
+    <row r="458" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F458" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G458" s="3"/>
+      <c r="H458" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I458" s="1">
+        <v>17053561339</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N458" s="14"/>
+    </row>
+    <row r="459" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F459" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G459" s="3"/>
+      <c r="H459" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I459" s="1">
+        <v>17056934420</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N459" s="14"/>
+    </row>
+    <row r="460" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F460" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G460" s="3"/>
+      <c r="H460" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I460" s="1">
+        <v>16137174545</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N460" s="14"/>
+    </row>
+    <row r="461" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F461" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G461" s="3"/>
+      <c r="H461" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I461" s="1">
+        <v>15197280202</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N461" s="14"/>
+    </row>
+    <row r="462" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F462" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G462" s="3"/>
+      <c r="H462" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I462" s="1">
+        <v>15193514454</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N462" s="14"/>
+    </row>
+    <row r="463" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F463" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G463" s="3"/>
+      <c r="H463" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I463" s="1">
+        <v>15197765335</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N463" s="14"/>
+    </row>
+    <row r="464" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F464" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G464" s="3"/>
+      <c r="H464" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I464" s="1">
+        <v>15193251313</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N464" s="14"/>
+    </row>
+    <row r="465" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F465" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G465" s="3"/>
+      <c r="H465" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I465" s="1">
+        <v>15192586988</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N465" s="14"/>
+    </row>
+    <row r="466" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F466" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G466" s="3"/>
+      <c r="H466" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I466" s="1">
+        <v>15199770304</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N466" s="14"/>
+    </row>
+    <row r="467" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F467" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G467" s="3"/>
+      <c r="H467" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I467" s="1">
+        <v>15192586988</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N467" s="14"/>
+    </row>
+    <row r="468" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F468" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G468" s="3"/>
+      <c r="H468" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I468" s="1">
+        <v>17054006754</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N468" s="14"/>
+    </row>
+    <row r="469" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F469" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G469" s="22" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I469" s="1">
+        <v>17059983330</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N469" s="14"/>
+    </row>
+    <row r="470" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F470" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G470" s="3"/>
+      <c r="H470" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I470" s="1">
+        <v>14163039333</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N470" s="14"/>
+    </row>
+    <row r="471" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F471" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G471" s="3"/>
+      <c r="H471" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I471" s="1">
+        <v>12895160070</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N471" s="14"/>
+    </row>
+    <row r="472" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F472" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I472" s="1">
+        <v>17054839333</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N472" s="14"/>
+    </row>
+    <row r="473" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F473" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G473" s="22" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I473" s="1">
+        <v>14165519456</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N473" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="2014">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -5515,13 +5515,556 @@
   </si>
   <si>
     <t xml:space="preserve">CANVAS CANNABIS </t>
+  </si>
+  <si>
+    <t>3443 ST CLAIR AVE E</t>
+  </si>
+  <si>
+    <t>COST CANNABIS - ST CLAIR</t>
+  </si>
+  <si>
+    <t>6151f3fbb5b615009a616690</t>
+  </si>
+  <si>
+    <t>http://www.cosmocanna.ca/</t>
+  </si>
+  <si>
+    <t>613 DUPONT ST UNIT 1</t>
+  </si>
+  <si>
+    <t>COSMO CANNA</t>
+  </si>
+  <si>
+    <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>5fea0378f5ace000aec64753</t>
+  </si>
+  <si>
+    <t>http://www.circa1818.ca/</t>
+  </si>
+  <si>
+    <t>8 STRATHY RD UNIT 3</t>
+  </si>
+  <si>
+    <t>CIRCA 1818</t>
+  </si>
+  <si>
+    <t>60e479140aa679304130c809</t>
+  </si>
+  <si>
+    <t>http://www.budget-bud.com/orleans</t>
+  </si>
+  <si>
+    <t>250 CENTRUM BLVD UNIT 105A</t>
+  </si>
+  <si>
+    <t>BUDGET BUD ORLEANS TOWN CENTER</t>
+  </si>
+  <si>
+    <t>61006d51de65d700be55e7f2</t>
+  </si>
+  <si>
+    <t>http://www.atlascannabis.net/</t>
+  </si>
+  <si>
+    <t>78 BRIDGE ST</t>
+  </si>
+  <si>
+    <t>ATLAS CANNABIS CLUB</t>
+  </si>
+  <si>
+    <t>627c029fd525420088c06978</t>
+  </si>
+  <si>
+    <t>710 SECOND LINE E UNIT 5</t>
+  </si>
+  <si>
+    <t>5fecfa38ac04bb39875396e4</t>
+  </si>
+  <si>
+    <t>http://www.dundascannabis.ca/</t>
+  </si>
+  <si>
+    <t>620 DUNDAS ST</t>
+  </si>
+  <si>
+    <t>Dundas Cannabis</t>
+  </si>
+  <si>
+    <t>WOODSTOCK</t>
+  </si>
+  <si>
+    <t>61493ee92cb73e009bf7eecb</t>
+  </si>
+  <si>
+    <t>http://www.elevatedcannabis.ca/</t>
+  </si>
+  <si>
+    <t>3205 DUFFERIN ST</t>
+  </si>
+  <si>
+    <t>Elevated Cannabis</t>
+  </si>
+  <si>
+    <t>61699f7fd77cce00a36334c3</t>
+  </si>
+  <si>
+    <t>http://www.fallengiants.ca/</t>
+  </si>
+  <si>
+    <t>172 SIMCOE ST</t>
+  </si>
+  <si>
+    <t>Fallen Giants</t>
+  </si>
+  <si>
+    <t>61114123c35cb900cf4af107</t>
+  </si>
+  <si>
+    <t>http://www.fikasupply.com/</t>
+  </si>
+  <si>
+    <t>91 FIRST COMMERCE DR UNIT 13</t>
+  </si>
+  <si>
+    <t>612ead0b35884c00b074fa53</t>
+  </si>
+  <si>
+    <t>33 MAPLEVIEW DR W UNIT C007</t>
+  </si>
+  <si>
+    <t>61b2c9db87786c009a55018d</t>
+  </si>
+  <si>
+    <t>2960 KINGSWAY DR UNIT G007</t>
+  </si>
+  <si>
+    <t>Fika Local Fairview Park</t>
+  </si>
+  <si>
+    <t>6108328d171d7a00c4ad9dd3</t>
+  </si>
+  <si>
+    <t>1063 TALBOT ST UNIT L0002B</t>
+  </si>
+  <si>
+    <t>Fika Local Cannabis</t>
+  </si>
+  <si>
+    <t>61b2cab6e0eae700998aee45</t>
+  </si>
+  <si>
+    <t>1800 SHEPPARD AVE E UNIT 1047</t>
+  </si>
+  <si>
+    <t>Fika Local Fairview Mall</t>
+  </si>
+  <si>
+    <t>http://www.emjays.ca/</t>
+  </si>
+  <si>
+    <t>5160 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>Em Jay's</t>
+  </si>
+  <si>
+    <t>http://www.endoflagship.com/</t>
+  </si>
+  <si>
+    <t>149 DUNLOP ST E UNIT 151A</t>
+  </si>
+  <si>
+    <t>ENDO</t>
+  </si>
+  <si>
+    <t>['No delivery / temprorary closed']</t>
+  </si>
+  <si>
+    <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping']</t>
+  </si>
+  <si>
+    <t>http://www.euphoricpot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800 SHEPPARD AVE E UNIT 116 &amp; 118  </t>
+  </si>
+  <si>
+    <t>Euphoric Pot Corporation</t>
+  </si>
+  <si>
+    <t>http://www.famousflower.ca/</t>
+  </si>
+  <si>
+    <t>972 HAMILTON RD SUITE 14</t>
+  </si>
+  <si>
+    <t>60b80658e5c66900d0092b82</t>
+  </si>
+  <si>
+    <t>http://www.erbngreen.com/</t>
+  </si>
+  <si>
+    <t>3244 YONGE ST</t>
+  </si>
+  <si>
+    <t>Erbn Green</t>
+  </si>
+  <si>
+    <t>The We Store</t>
+  </si>
+  <si>
+    <t>1303 ESSEX COUNTY ROAD #22, UNIT 180</t>
+  </si>
+  <si>
+    <t>https://thewestore.com/shop/?dtche%5Bpath%5D=checkout</t>
+  </si>
+  <si>
+    <t>6065096543756f00a7467b51</t>
+  </si>
+  <si>
+    <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+  </si>
+  <si>
+    <t>60077d833dd1aa00e56b06ad</t>
+  </si>
+  <si>
+    <t>http://www.highties.ca/</t>
+  </si>
+  <si>
+    <t>1044 ST. GUILLAUME RD UNIT A102</t>
+  </si>
+  <si>
+    <t>610046880c43c500b06ba147</t>
+  </si>
+  <si>
+    <t>http://www.grassrootsco.ca/</t>
+  </si>
+  <si>
+    <t>1113 LASALLE BLVD UNIT 2</t>
+  </si>
+  <si>
+    <t>Grassroots Co</t>
+  </si>
+  <si>
+    <t>5efbc2996fe57700d2626bdf</t>
+  </si>
+  <si>
+    <t>http://www.gardencitycannabisco.com/</t>
+  </si>
+  <si>
+    <t>111 FOURTH AVE UNIT 9</t>
+  </si>
+  <si>
+    <t>5ebd7509a743170103e545c3</t>
+  </si>
+  <si>
+    <t>310 GARRISON RD UNIT E-02</t>
+  </si>
+  <si>
+    <t>FORT ERIE</t>
+  </si>
+  <si>
+    <t>http://www.forestplant.ca/</t>
+  </si>
+  <si>
+    <t>450 TURNBERRY ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOREST PLANT </t>
+  </si>
+  <si>
+    <t>BRUSSELS</t>
+  </si>
+  <si>
+    <t>['Delivery', 'Takeaway', 'Dine-in']</t>
+  </si>
+  <si>
+    <t>http://www.fratelliandco.com.au/</t>
+  </si>
+  <si>
+    <t>173004 COUNTY RD 25</t>
+  </si>
+  <si>
+    <t>Fratelli and Co.</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/25</t>
+  </si>
+  <si>
+    <t>229 ST. PAUL ST</t>
+  </si>
+  <si>
+    <t>Garden City Cannabis Co.</t>
+  </si>
+  <si>
+    <t>62fd576a007c3c00ab12b617</t>
+  </si>
+  <si>
+    <t>http://www.getsmokeys.com/</t>
+  </si>
+  <si>
+    <t>1881 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>Smokey's</t>
+  </si>
+  <si>
+    <t>http://www.gigglescannabis.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/05/06</t>
+  </si>
+  <si>
+    <t>32 DUKE ST E UNIT 104</t>
+  </si>
+  <si>
+    <t>GIGGLES CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.gohi.ca/</t>
+  </si>
+  <si>
+    <t>18 SATTERLY RD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go Hi Ltd </t>
+  </si>
+  <si>
+    <t>http://www.goldentreecannabis.com/?utm_source=gmb&amp;utm_campaign=dispenza</t>
+  </si>
+  <si>
+    <t>1 MILL STREET</t>
+  </si>
+  <si>
+    <t>Golden Tree Cannabis</t>
+  </si>
+  <si>
+    <t>STIRLING</t>
+  </si>
+  <si>
+    <t>6188a9f3438be00088b78594</t>
+  </si>
+  <si>
+    <t>http://www.goodnaturecannabis.ca/</t>
+  </si>
+  <si>
+    <t>1234 MERIVALE RD SUITE 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Nature Cannabis </t>
+  </si>
+  <si>
+    <t>http://www.graffiticannabis.ca/</t>
+  </si>
+  <si>
+    <t>393 YONGE ST UNIT 2</t>
+  </si>
+  <si>
+    <t>Graffiti Cannabis Co.</t>
+  </si>
+  <si>
+    <t>['No-delivery / not found information on webstite']</t>
+  </si>
+  <si>
+    <t>http://www.grascbd.com/?utm_source=GoogleMyBusiness&amp;utm_medium=organic&amp;utm_campaign=TX_Elmira</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/09/26</t>
+  </si>
+  <si>
+    <t>158 FERGUSON RD</t>
+  </si>
+  <si>
+    <t>T CANNABIS</t>
+  </si>
+  <si>
+    <t>MOOSONEE</t>
+  </si>
+  <si>
+    <t>http://www.greenapplecannabis.ca/</t>
+  </si>
+  <si>
+    <t>51 COMMERCIAL DR</t>
+  </si>
+  <si>
+    <t>GREEN APPLE CANNABIS</t>
+  </si>
+  <si>
+    <t>BURKS FALLS</t>
+  </si>
+  <si>
+    <t>http://www.greenlightdistrict.ca/</t>
+  </si>
+  <si>
+    <t>1905 DUNDAS ST E UNIT B2</t>
+  </si>
+  <si>
+    <t>Greenlight District</t>
+  </si>
+  <si>
+    <t>http://www.greenhousecannabis.ca/</t>
+  </si>
+  <si>
+    <t>1216 UPPER WENTWORTH ST</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>http://www.greenheartflowers.com/</t>
+  </si>
+  <si>
+    <t>1601 WALLBRIDGE-LOYALIST RD UNIT 2</t>
+  </si>
+  <si>
+    <t>GREENHEART FLOWERS</t>
+  </si>
+  <si>
+    <t>http://www.greenlinecannabis.ca/</t>
+  </si>
+  <si>
+    <t>3300 LAWRENCE AVE E SUITE 4</t>
+  </si>
+  <si>
+    <t>GREEN LINE CANNABIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Line </t>
+  </si>
+  <si>
+    <t>5eb9a5221c1db800f8bd2a7d</t>
+  </si>
+  <si>
+    <t>http://www.growersretailcannabis.ca/</t>
+  </si>
+  <si>
+    <t>1239 BLOOR ST W</t>
+  </si>
+  <si>
+    <t>Growers Retail Bloor</t>
+  </si>
+  <si>
+    <t>628d67d00c5e7600805de568</t>
+  </si>
+  <si>
+    <t>http://www.groovys.ca/</t>
+  </si>
+  <si>
+    <t>676 RIVER RD E</t>
+  </si>
+  <si>
+    <t>GROOVY'S</t>
+  </si>
+  <si>
+    <t>6130ebe5c811b900a2234823</t>
+  </si>
+  <si>
+    <t>http://www.happylifepotshop.com/</t>
+  </si>
+  <si>
+    <t>3702 HIGHWAY 144 UNIT 2</t>
+  </si>
+  <si>
+    <t>6297ca13143bb7008e3a7cba</t>
+  </si>
+  <si>
+    <t>387 CENTRE ST</t>
+  </si>
+  <si>
+    <t>ESPANOLA</t>
+  </si>
+  <si>
+    <t>['No delivery, permanently closed']</t>
+  </si>
+  <si>
+    <t>http://www.helloedition.com/</t>
+  </si>
+  <si>
+    <t>270 DUPONT ST</t>
+  </si>
+  <si>
+    <t>Edition X</t>
+  </si>
+  <si>
+    <t>5e71170024ec64139b2ad90f</t>
+  </si>
+  <si>
+    <t>http://www.havoksmoke.com/</t>
+  </si>
+  <si>
+    <t>650 SHEPPARD AVE W</t>
+  </si>
+  <si>
+    <t>Havok Smoke Cannabis &amp; Accessories</t>
+  </si>
+  <si>
+    <t>6001ef81b8cbdc5f024f5fab</t>
+  </si>
+  <si>
+    <t>http://www.harvestcannabisco.ca/</t>
+  </si>
+  <si>
+    <t>59 DALHOUSIE ST</t>
+  </si>
+  <si>
+    <t>5ec6fdedf4a3e400d9e5ac88</t>
+  </si>
+  <si>
+    <t>http://www.herbiculture.ca/</t>
+  </si>
+  <si>
+    <t>3280 MIDLAND AVE UNIT 19 &amp; 20</t>
+  </si>
+  <si>
+    <t>Herbiculture (Scarborough North)</t>
+  </si>
+  <si>
+    <t>http://www.herbcan.ca/</t>
+  </si>
+  <si>
+    <t>41 RONCESVALLES AVE</t>
+  </si>
+  <si>
+    <t>HERBCAN</t>
+  </si>
+  <si>
+    <t>http://www.hibuzz.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/18</t>
+  </si>
+  <si>
+    <t>30 EGLINTON AVE W</t>
+  </si>
+  <si>
+    <t>Hibuzz Cannabis</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'Delivery', 'In-store pickup']</t>
+  </si>
+  <si>
+    <t>385 TOMPKINS AVE UNIT 2A</t>
+  </si>
+  <si>
+    <t>6237860f9b2ee315d06d32a4</t>
+  </si>
+  <si>
+    <t>http://www.highrivercannabis.com/</t>
+  </si>
+  <si>
+    <t>24 JOHN ST</t>
+  </si>
+  <si>
+    <t>High River Cannabis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5592,6 +6135,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5653,7 +6211,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -5694,6 +6252,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5997,10 +6559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N473"/>
+  <dimension ref="A1:N525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="N472" sqref="N472:N473"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22126,6 +22688,1675 @@
         <v>1786</v>
       </c>
       <c r="N473" s="14"/>
+    </row>
+    <row r="474" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F474" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G474" s="22" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I474" s="1">
+        <v>14162660110</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N474" s="14"/>
+    </row>
+    <row r="475" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F475" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G475" s="22" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I475" s="1">
+        <v>14165320084</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N475" s="14"/>
+    </row>
+    <row r="476" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F476" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G476" s="22" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I476" s="1">
+        <v>12892521803</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N476" s="14"/>
+    </row>
+    <row r="477" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F477" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G477" s="24" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I477" s="1">
+        <v>16138303335</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N477" s="14"/>
+    </row>
+    <row r="478" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F478" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G478" s="22" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I478" s="1">
+        <v>16475172045</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N478" s="14"/>
+    </row>
+    <row r="479" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F479" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G479" s="22" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I479" s="1">
+        <v>17059980044</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N479" s="14"/>
+    </row>
+    <row r="480" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F480" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G480" s="22" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I480" s="1">
+        <v>15192900771</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N480" s="14"/>
+    </row>
+    <row r="481" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F481" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G481" s="22" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I481" s="1">
+        <v>14167874444</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N481" s="14"/>
+    </row>
+    <row r="482" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F482" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G482" s="22" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I482" s="1">
+        <v>17058742804</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N482" s="14"/>
+    </row>
+    <row r="483" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F483" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G483" s="22" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I483" s="1">
+        <v>12897968961</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N483" s="14"/>
+    </row>
+    <row r="484" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F484" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G484" s="22" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I484" s="1">
+        <v>17053004269</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N484" s="14"/>
+    </row>
+    <row r="485" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F485" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G485" s="22" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I485" s="1">
+        <v>12264441938</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N485" s="14"/>
+    </row>
+    <row r="486" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F486" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G486" s="22" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I486" s="1">
+        <v>12265460986</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N486" s="14"/>
+    </row>
+    <row r="487" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F487" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G487" s="22" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I487" s="1">
+        <v>16476953756</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N487" s="14"/>
+    </row>
+    <row r="488" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F488" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G488" s="3"/>
+      <c r="H488" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I488" s="1">
+        <v>18337365297</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N488" s="14"/>
+    </row>
+    <row r="489" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F489" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G489" s="3"/>
+      <c r="H489" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I489" s="1">
+        <v>14377756621</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N489" s="14"/>
+    </row>
+    <row r="490" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F490" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G490" s="3"/>
+      <c r="H490" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I490" s="1">
+        <v>16473444800</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N490" s="14"/>
+    </row>
+    <row r="491" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F491" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G491" s="3"/>
+      <c r="H491" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I491" s="1">
+        <v>15192046888</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N491" s="14"/>
+    </row>
+    <row r="492" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F492" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G492" s="22" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I492" s="1">
+        <v>14168601080</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N492" s="14"/>
+    </row>
+    <row r="493" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F493" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H493" s="9" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N493" s="14"/>
+    </row>
+    <row r="494" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F494" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G494" s="25" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I494" s="1">
+        <v>16134432191</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N494" s="14"/>
+    </row>
+    <row r="495" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G495" s="25" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I495" s="1">
+        <v>12498044727</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N495" s="14"/>
+    </row>
+    <row r="496" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G496" s="25" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I496" s="1">
+        <v>19053974207</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N496" s="14"/>
+    </row>
+    <row r="497" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G497" s="25" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I497" s="1">
+        <v>19058714420</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N497" s="14"/>
+    </row>
+    <row r="498" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F498" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G498" s="26"/>
+      <c r="H498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I498" s="1">
+        <v>15198878500</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N498" s="14"/>
+    </row>
+    <row r="499" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F499" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G499" s="26"/>
+      <c r="H499" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I499" s="1">
+        <v>61287650199</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N499" s="14"/>
+    </row>
+    <row r="500" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F500" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G500" s="26"/>
+      <c r="H500" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I500" s="1">
+        <v>19053974207</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N500" s="14"/>
+    </row>
+    <row r="501" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F501" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G501" s="25" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I501" s="1">
+        <v>14167924959</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N501" s="14"/>
+    </row>
+    <row r="502" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F502" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G502" s="26"/>
+      <c r="H502" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I502" s="1">
+        <v>12893893803</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N502" s="14"/>
+    </row>
+    <row r="503" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F503" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G503" s="26"/>
+      <c r="H503" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I503" s="1">
+        <v>16473454644</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N503" s="14"/>
+    </row>
+    <row r="504" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F504" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G504" s="26"/>
+      <c r="H504" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I504" s="1">
+        <v>16133954664</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N504" s="14"/>
+    </row>
+    <row r="505" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F505" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G505" s="25" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I505" s="1">
+        <v>16136804100</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N505" s="14"/>
+    </row>
+    <row r="506" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F506" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G506" s="26"/>
+      <c r="H506" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I506" s="1">
+        <v>17055039333</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N506" s="14"/>
+    </row>
+    <row r="507" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F507" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G507" s="26"/>
+      <c r="H507" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I507" s="1">
+        <v>12104515050</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="N507" s="14"/>
+    </row>
+    <row r="508" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F508" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G508" s="26"/>
+      <c r="H508" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I508" s="1">
+        <v>17053825100</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N508" s="14"/>
+    </row>
+    <row r="509" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F509" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G509" s="26"/>
+      <c r="H509" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I509" s="1">
+        <v>16139669779</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N509" s="14"/>
+    </row>
+    <row r="510" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F510" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G510" s="26"/>
+      <c r="H510" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I510" s="1">
+        <v>19055759339</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N510" s="14"/>
+    </row>
+    <row r="511" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F511" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G511" s="26"/>
+      <c r="H511" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I511" s="1">
+        <v>12266631888</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N511" s="14"/>
+    </row>
+    <row r="512" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G512" s="26"/>
+      <c r="H512" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I512" s="1">
+        <v>14164300655</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N512" s="14"/>
+    </row>
+    <row r="513" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F513" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G513" s="26"/>
+      <c r="H513" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I513" s="1">
+        <v>14164300655</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N513" s="14"/>
+    </row>
+    <row r="514" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F514" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G514" s="25" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I514" s="1">
+        <v>17057157683</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N514" s="14"/>
+    </row>
+    <row r="515" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F515" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G515" s="25" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I515" s="1">
+        <v>14165374116</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N515" s="14"/>
+    </row>
+    <row r="516" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F516" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G516" s="25" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I516" s="1">
+        <v>17055832070</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N516" s="14"/>
+    </row>
+    <row r="517" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F517" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G517" s="25" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I517" s="1">
+        <v>14049487866</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N517" s="14"/>
+    </row>
+    <row r="518" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F518" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G518" s="25" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I518" s="1">
+        <v>15197585050</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N518" s="14"/>
+    </row>
+    <row r="519" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F519" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G519" s="27" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I519" s="1">
+        <v>16473409333</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N519" s="14"/>
+    </row>
+    <row r="520" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F520" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G520" s="26"/>
+      <c r="H520" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I520" s="1">
+        <v>14165519331</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N520" s="14"/>
+    </row>
+    <row r="521" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F521" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G521" s="26"/>
+      <c r="H521" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I521" s="1">
+        <v>16478054372</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N521" s="14"/>
+    </row>
+    <row r="522" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F522" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G522" s="25" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I522" s="1">
+        <v>14162997785</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N522" s="14"/>
+    </row>
+    <row r="523" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F523" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G523" s="26"/>
+      <c r="H523" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I523" s="1">
+        <v>19054553111</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="N523" s="14"/>
+    </row>
+    <row r="524" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F524" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G524" s="25" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I524" s="1">
+        <v>12897712837</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N524" s="14"/>
+    </row>
+    <row r="525" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F525" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G525" s="26"/>
+      <c r="H525" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="I525" s="1">
+        <v>16135907360</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N525" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2212">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -6058,13 +6058,607 @@
   </si>
   <si>
     <t>High River Cannabis</t>
+  </si>
+  <si>
+    <t>WOW World of Weed</t>
+  </si>
+  <si>
+    <t>3412 WESTON ROAD</t>
+  </si>
+  <si>
+    <t>https://www.woweeds.ca/</t>
+  </si>
+  <si>
+    <t>60806bc5ece0aa00d28bff8d</t>
+  </si>
+  <si>
+    <t>636536f141c9a200b6e1ab48</t>
+  </si>
+  <si>
+    <t>http://wildflowerz.ca/</t>
+  </si>
+  <si>
+    <t>533 KATHLEEN ST UNIT B</t>
+  </si>
+  <si>
+    <t>Wild Flowerz</t>
+  </si>
+  <si>
+    <t>6148e2c8b258a800cd749439</t>
+  </si>
+  <si>
+    <t>http://www.urbnbud.com/</t>
+  </si>
+  <si>
+    <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+  </si>
+  <si>
+    <t>URBNBUD</t>
+  </si>
+  <si>
+    <t>6144e516fb232c009b6c8132</t>
+  </si>
+  <si>
+    <t>https://topfinestcannabis.ca/</t>
+  </si>
+  <si>
+    <t>436 VANSICKLE RD SUITE 9</t>
+  </si>
+  <si>
+    <t>TOP FINEST CANNABIS</t>
+  </si>
+  <si>
+    <t>614ba1c7b4849f5565ec9a4b</t>
+  </si>
+  <si>
+    <t>http://thewestore.com/</t>
+  </si>
+  <si>
+    <t>1800 HURON CHURCH RD UNIT B</t>
+  </si>
+  <si>
+    <t>THE WE STORE</t>
+  </si>
+  <si>
+    <t>The Hempire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-27 ONTARIO ST </t>
+  </si>
+  <si>
+    <t>https://thehempire.ca/</t>
+  </si>
+  <si>
+    <t>5fa9614f32967f00c691818d</t>
+  </si>
+  <si>
+    <t>610054d396959e00d9e7480d</t>
+  </si>
+  <si>
+    <t>http://terpsrec.com/</t>
+  </si>
+  <si>
+    <t>127 WESTMORE DR UNIT 106</t>
+  </si>
+  <si>
+    <t>Terps &amp; Rec Cannabis</t>
+  </si>
+  <si>
+    <t>5ede8220a9dfe7011a6a593d</t>
+  </si>
+  <si>
+    <t>http://www.takeoffcannabis.com/</t>
+  </si>
+  <si>
+    <t>9 PINE ST N UNIT 28</t>
+  </si>
+  <si>
+    <t>TAKE OFF CANNABIS</t>
+  </si>
+  <si>
+    <t>635c46308a312000a44da3f2</t>
+  </si>
+  <si>
+    <t>152 MISSION RD</t>
+  </si>
+  <si>
+    <t>WAWA</t>
+  </si>
+  <si>
+    <t>5e6f90b1c706d4006afc5033</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>101 HOLIDAY INN DR UNIT B1</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis Cambridge</t>
+  </si>
+  <si>
+    <t>Spiritleaf Beaches</t>
+  </si>
+  <si>
+    <t>2116 QUEEN ST E UNIT J</t>
+  </si>
+  <si>
+    <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+  </si>
+  <si>
+    <t>6079b8182436d800b5c874f9</t>
+  </si>
+  <si>
+    <t>5fd7ab8ac0bf8200d5781daf</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>200 FITCH ST UNIT 12A</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis Retail</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis Brockville</t>
+  </si>
+  <si>
+    <t>2441 PARKEDALE AVE UNIT C</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>5fea314982004300ae6b9475</t>
+  </si>
+  <si>
+    <t>60086d3320e3fc0fef619aba</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>425 ALGONQUIN BLVD E UNIT 4</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis - Timmins</t>
+  </si>
+  <si>
+    <t>5fea310977b22200aa316ca1</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>216 SECOND LINE W</t>
+  </si>
+  <si>
+    <t>Sessions Cannabis - Sault Ste Marie</t>
+  </si>
+  <si>
+    <t>5f04b8e052817c014c31690c</t>
+  </si>
+  <si>
+    <t>http://session7.ca/</t>
+  </si>
+  <si>
+    <t>210-220 KING ST N UNIT G2</t>
+  </si>
+  <si>
+    <t>Session7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATERLOO </t>
+  </si>
+  <si>
+    <t>QUNUBU CANNABIS</t>
+  </si>
+  <si>
+    <t>274 WILSON AVE</t>
+  </si>
+  <si>
+    <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+  </si>
+  <si>
+    <t>6009c8ecc0245c00d346d396</t>
+  </si>
+  <si>
+    <t>62 MARINE PARADE DR UNIT 4</t>
+  </si>
+  <si>
+    <t>5fd6f1b824a619010096cd34</t>
+  </si>
+  <si>
+    <t>http://northern-lights.ca/</t>
+  </si>
+  <si>
+    <t>51 LANSDOWNE ST W</t>
+  </si>
+  <si>
+    <t>NORTHERN LIGHTS CANNABIS</t>
+  </si>
+  <si>
+    <t>5fa09025819cfe0108210ded</t>
+  </si>
+  <si>
+    <t>http://www.highlife.ca/</t>
+  </si>
+  <si>
+    <t>940 MURPHY RD UNIT 1</t>
+  </si>
+  <si>
+    <t>HIGHLIFE BLUEWATER</t>
+  </si>
+  <si>
+    <t>5e94097f74d093009baa0e36</t>
+  </si>
+  <si>
+    <t>1142 WILSON ST W UNIT 9</t>
+  </si>
+  <si>
+    <t>HIGHLIFE ANCASTER</t>
+  </si>
+  <si>
+    <t>601981d2a219bd00e0cd7804</t>
+  </si>
+  <si>
+    <t>40 RIVERMONT RD UNIT D2</t>
+  </si>
+  <si>
+    <t>HIBUZZ</t>
+  </si>
+  <si>
+    <t>5ec6f81d01de1901493a356d</t>
+  </si>
+  <si>
+    <t>http://hempirehouse.ca/</t>
+  </si>
+  <si>
+    <t>59 FIRST ST</t>
+  </si>
+  <si>
+    <t>Hempire House</t>
+  </si>
+  <si>
+    <t>620156d21fe55c0ddc06f697</t>
+  </si>
+  <si>
+    <t>http://www.hempirehouse.ca/</t>
+  </si>
+  <si>
+    <t>18 MILL ST W</t>
+  </si>
+  <si>
+    <t>60108ae8f1653900ddcb2e47</t>
+  </si>
+  <si>
+    <t>http://www.happylifepotshop.ca/</t>
+  </si>
+  <si>
+    <t>1021 KINGSWAY UNIT 3</t>
+  </si>
+  <si>
+    <t>63dd3ab12a28f600d47fe64b</t>
+  </si>
+  <si>
+    <t>http://greentowndiscount.com/</t>
+  </si>
+  <si>
+    <t>3580 TECUMSEH RD E UNIT 4</t>
+  </si>
+  <si>
+    <t>Greentown Cannabis Discount Hut</t>
+  </si>
+  <si>
+    <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+  </si>
+  <si>
+    <t>63dd3a784e9a4f005bc682c2</t>
+  </si>
+  <si>
+    <t>1519 DROUILLARD RD</t>
+  </si>
+  <si>
+    <t>LASALLE</t>
+  </si>
+  <si>
+    <t>Greentown</t>
+  </si>
+  <si>
+    <t>5994 MALDEN RD UNIT 3</t>
+  </si>
+  <si>
+    <t>https://greentowncannabis.com/</t>
+  </si>
+  <si>
+    <t>609c59eaf57edb00a09da192</t>
+  </si>
+  <si>
+    <t>632a3632ae6a2b00ac1ec89a</t>
+  </si>
+  <si>
+    <t>http://greenport.store/</t>
+  </si>
+  <si>
+    <t>686 COLLEGE ST</t>
+  </si>
+  <si>
+    <t>GreenPort</t>
+  </si>
+  <si>
+    <t>5edd2dbd17c8c400aacd58b4</t>
+  </si>
+  <si>
+    <t>70 VICTORIA ST E SUITE 3</t>
+  </si>
+  <si>
+    <t>Giggles Cannabis</t>
+  </si>
+  <si>
+    <t>652 PRINCESS ST SUITE 108</t>
+  </si>
+  <si>
+    <t>https://kingstongiggles.com/</t>
+  </si>
+  <si>
+    <t>62e858e63967b40082a6aba1</t>
+  </si>
+  <si>
+    <t>5ef0f71569f918127cfe83f7</t>
+  </si>
+  <si>
+    <t>163 MAIN ST W</t>
+  </si>
+  <si>
+    <t>5fa05f1cfc2d590101017618</t>
+  </si>
+  <si>
+    <t>https://helloedition.com/</t>
+  </si>
+  <si>
+    <t>764 ST CLAIR AVE W</t>
+  </si>
+  <si>
+    <t>5ef5fb055eb50b00e392c351</t>
+  </si>
+  <si>
+    <t>http://duenorthcannabis.com/</t>
+  </si>
+  <si>
+    <t>150 CHURCHILL BLVD UNIT C001</t>
+  </si>
+  <si>
+    <t>Due North Cannabis</t>
+  </si>
+  <si>
+    <t>60e4a511dca91d00a81b7867</t>
+  </si>
+  <si>
+    <t>http://shopdabglass.ca/</t>
+  </si>
+  <si>
+    <t>685 FISCHER HALLMAN RD SUITE M</t>
+  </si>
+  <si>
+    <t>DAB GLASS</t>
+  </si>
+  <si>
+    <t>63864282925f8000e17fd63a</t>
+  </si>
+  <si>
+    <t>61 LYNDEN RD UNIT B4</t>
+  </si>
+  <si>
+    <t>612d270900432e00b065dead</t>
+  </si>
+  <si>
+    <t>https://chillinbuds.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/05/30</t>
+  </si>
+  <si>
+    <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+  </si>
+  <si>
+    <t>Chillin Buds</t>
+  </si>
+  <si>
+    <t>PARIS</t>
+  </si>
+  <si>
+    <t>5fdbff46f2207962b1b027c4</t>
+  </si>
+  <si>
+    <t>171 EAST LIBERTY ST SUITE 145</t>
+  </si>
+  <si>
+    <t>5fecae1a64e54f7d4233ddb9</t>
+  </si>
+  <si>
+    <t>http://www.cannasavvy.ca/</t>
+  </si>
+  <si>
+    <t>3395 HOWARD AVE UNIT 4</t>
+  </si>
+  <si>
+    <t>Cannasavvy Cannabis Co.</t>
+  </si>
+  <si>
+    <t>5fe12a0a5652e700bc6624ad</t>
+  </si>
+  <si>
+    <t>http://www.cannabislinkinc.com/</t>
+  </si>
+  <si>
+    <t>1225 WONDERLAND RD N UNIT 40A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNABIS LINK </t>
+  </si>
+  <si>
+    <t>5efcaf8053ee9400f1baaccc</t>
+  </si>
+  <si>
+    <t>1175 HYDE PARK RD UNIT 2B</t>
+  </si>
+  <si>
+    <t>Cannabis Link</t>
+  </si>
+  <si>
+    <t>63cef96a67b9fe00b0cecc3d</t>
+  </si>
+  <si>
+    <t>390 SPRINGBANK DR UNIT 10B</t>
+  </si>
+  <si>
+    <t>604142d7fad36600d0758e2d</t>
+  </si>
+  <si>
+    <t>509 COMMISSIONERS RD W UNIT A35</t>
+  </si>
+  <si>
+    <t>603561b5f0941300bf77dfa8</t>
+  </si>
+  <si>
+    <t>1295 HIGHBURY AVE N UNIT A6B</t>
+  </si>
+  <si>
+    <t>5fe2b0a97ae1a100f5c5aa85</t>
+  </si>
+  <si>
+    <t>https://canaculture.ca/</t>
+  </si>
+  <si>
+    <t>914 EGLINTON AVE W</t>
+  </si>
+  <si>
+    <t>CanaCulture Cannabis Store</t>
+  </si>
+  <si>
+    <t>6272b206da78bd00a6e7f67b</t>
+  </si>
+  <si>
+    <t>10425 HWY 124 UNIT B</t>
+  </si>
+  <si>
+    <t>SUNDRIDGE</t>
+  </si>
+  <si>
+    <t>6126c36e566a61009c2b3090</t>
+  </si>
+  <si>
+    <t>http://www.budssmoke.com/</t>
+  </si>
+  <si>
+    <t>186 LAKE ST</t>
+  </si>
+  <si>
+    <t>60c77a5112bba400ca82bdc9</t>
+  </si>
+  <si>
+    <t>940 BROCK RD UNIT 3</t>
+  </si>
+  <si>
+    <t>6126c3a977dcda00b6cd237a</t>
+  </si>
+  <si>
+    <t>1236 ALGONQUIN AVE UNIT B</t>
+  </si>
+  <si>
+    <t>63ac522a24ce0700cf2cd11c</t>
+  </si>
+  <si>
+    <t>298 MAIN ST UNIT A</t>
+  </si>
+  <si>
+    <t>MATTAWA</t>
+  </si>
+  <si>
+    <t>642f1ce57f22fc00c0a5be1f</t>
+  </si>
+  <si>
+    <t>https://budssmoke.com/6-main-street-south-callander/</t>
+  </si>
+  <si>
+    <t>6 MAIN ST S UNIT 4</t>
+  </si>
+  <si>
+    <t>5f7d38d029883400facd32a9</t>
+  </si>
+  <si>
+    <t>2017 LAKESHORE RD</t>
+  </si>
+  <si>
+    <t>6126c4088ae089009b8e8ce2</t>
+  </si>
+  <si>
+    <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+  </si>
+  <si>
+    <t>60a2acc7143d8600a7a11f35</t>
+  </si>
+  <si>
+    <t>https://budbrotherscannabis.ca/</t>
+  </si>
+  <si>
+    <t>1568 MAIN ST W</t>
+  </si>
+  <si>
+    <t>BUD BROTHERS CANNABIS</t>
+  </si>
+  <si>
+    <t>BRO CANNABIS INC.</t>
+  </si>
+  <si>
+    <t>2596 FRONT RD UNIT 1</t>
+  </si>
+  <si>
+    <t>https://www.brocannabis.ca/</t>
+  </si>
+  <si>
+    <t>62cafd003b150b0080d2a796</t>
+  </si>
+  <si>
+    <t>627eb92e88f7de00a435c07d</t>
+  </si>
+  <si>
+    <t>129 MUNRO ST</t>
+  </si>
+  <si>
+    <t>601abc789ec2de3539c94656</t>
+  </si>
+  <si>
+    <t>806 MARCH RD</t>
+  </si>
+  <si>
+    <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+  </si>
+  <si>
+    <t>Free same day on orders over $29.95.</t>
+  </si>
+  <si>
+    <t>5fac6a5955a05800c45083bd</t>
+  </si>
+  <si>
+    <t>499 TERRY FOX DR UNIT 60</t>
+  </si>
+  <si>
+    <t>608c1dbd89a04b00cadc09b0</t>
+  </si>
+  <si>
+    <t>14 MILL ST UNIT 8A</t>
+  </si>
+  <si>
+    <t>Bluebird Almonte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6137,14 +6731,7 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -6211,7 +6798,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -6254,8 +6841,6 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -6559,10 +7144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N525"/>
+  <dimension ref="A1:N584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="B519" sqref="B519"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="G565" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23357,7 +23942,7 @@
       <c r="F494" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G494" s="25" t="s">
+      <c r="G494" s="22" t="s">
         <v>1903</v>
       </c>
       <c r="H494" s="1" t="s">
@@ -23390,7 +23975,7 @@
       <c r="F495" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G495" s="25" t="s">
+      <c r="G495" s="22" t="s">
         <v>1906</v>
       </c>
       <c r="H495" s="1" t="s">
@@ -23423,7 +24008,7 @@
       <c r="F496" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G496" s="25" t="s">
+      <c r="G496" s="22" t="s">
         <v>1910</v>
       </c>
       <c r="H496" s="1" t="s">
@@ -23456,7 +24041,7 @@
       <c r="F497" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G497" s="25" t="s">
+      <c r="G497" s="22" t="s">
         <v>1913</v>
       </c>
       <c r="H497" s="1" t="s">
@@ -23489,7 +24074,7 @@
       <c r="F498" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G498" s="26"/>
+      <c r="G498" s="3"/>
       <c r="H498" s="1" t="s">
         <v>7</v>
       </c>
@@ -23520,7 +24105,7 @@
       <c r="F499" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="G499" s="26"/>
+      <c r="G499" s="3"/>
       <c r="H499" s="1" t="s">
         <v>1920</v>
       </c>
@@ -23551,7 +24136,7 @@
       <c r="F500" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G500" s="26"/>
+      <c r="G500" s="3"/>
       <c r="H500" s="1" t="s">
         <v>66</v>
       </c>
@@ -23582,7 +24167,7 @@
       <c r="F501" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G501" s="25" t="s">
+      <c r="G501" s="22" t="s">
         <v>1927</v>
       </c>
       <c r="H501" s="1" t="s">
@@ -23615,7 +24200,7 @@
       <c r="F502" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G502" s="26"/>
+      <c r="G502" s="3"/>
       <c r="H502" s="1" t="s">
         <v>66</v>
       </c>
@@ -23646,7 +24231,7 @@
       <c r="F503" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="G503" s="26"/>
+      <c r="G503" s="3"/>
       <c r="H503" s="1" t="s">
         <v>105</v>
       </c>
@@ -23677,7 +24262,7 @@
       <c r="F504" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G504" s="26"/>
+      <c r="G504" s="3"/>
       <c r="H504" s="1" t="s">
         <v>26</v>
       </c>
@@ -23708,7 +24293,7 @@
       <c r="F505" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G505" s="25" t="s">
+      <c r="G505" s="22" t="s">
         <v>1942</v>
       </c>
       <c r="H505" s="1" t="s">
@@ -23741,7 +24326,7 @@
       <c r="F506" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="G506" s="26"/>
+      <c r="G506" s="3"/>
       <c r="H506" s="1" t="s">
         <v>40</v>
       </c>
@@ -23772,7 +24357,7 @@
       <c r="F507" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G507" s="26"/>
+      <c r="G507" s="3"/>
       <c r="H507" s="1" t="s">
         <v>105</v>
       </c>
@@ -23803,7 +24388,7 @@
       <c r="F508" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G508" s="26"/>
+      <c r="G508" s="3"/>
       <c r="H508" s="1" t="s">
         <v>40</v>
       </c>
@@ -23834,7 +24419,7 @@
       <c r="F509" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G509" s="26"/>
+      <c r="G509" s="3"/>
       <c r="H509" s="1" t="s">
         <v>7</v>
       </c>
@@ -23865,7 +24450,7 @@
       <c r="F510" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G510" s="26"/>
+      <c r="G510" s="3"/>
       <c r="H510" s="1" t="s">
         <v>119</v>
       </c>
@@ -23896,7 +24481,7 @@
       <c r="F511" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G511" s="26"/>
+      <c r="G511" s="3"/>
       <c r="H511" s="1" t="s">
         <v>100</v>
       </c>
@@ -23927,7 +24512,7 @@
       <c r="F512" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G512" s="26"/>
+      <c r="G512" s="3"/>
       <c r="H512" s="1" t="s">
         <v>66</v>
       </c>
@@ -23958,7 +24543,7 @@
       <c r="F513" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G513" s="26"/>
+      <c r="G513" s="3"/>
       <c r="H513" s="1" t="s">
         <v>66</v>
       </c>
@@ -23989,7 +24574,7 @@
       <c r="F514" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G514" s="25" t="s">
+      <c r="G514" s="22" t="s">
         <v>1976</v>
       </c>
       <c r="H514" s="1" t="s">
@@ -24022,7 +24607,7 @@
       <c r="F515" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G515" s="25" t="s">
+      <c r="G515" s="22" t="s">
         <v>1972</v>
       </c>
       <c r="H515" s="1" t="s">
@@ -24055,7 +24640,7 @@
       <c r="F516" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G516" s="25" t="s">
+      <c r="G516" s="22" t="s">
         <v>1983</v>
       </c>
       <c r="H516" s="1" t="s">
@@ -24088,7 +24673,7 @@
       <c r="F517" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="25" t="s">
+      <c r="G517" s="22" t="s">
         <v>1980</v>
       </c>
       <c r="H517" s="1" t="s">
@@ -24121,7 +24706,7 @@
       <c r="F518" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G518" s="25" t="s">
+      <c r="G518" s="22" t="s">
         <v>1994</v>
       </c>
       <c r="H518" s="1" t="s">
@@ -24154,7 +24739,7 @@
       <c r="F519" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G519" s="27" t="s">
+      <c r="G519" s="24" t="s">
         <v>1990</v>
       </c>
       <c r="H519" s="1" t="s">
@@ -24187,7 +24772,7 @@
       <c r="F520" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G520" s="26"/>
+      <c r="G520" s="3"/>
       <c r="H520" s="1" t="s">
         <v>66</v>
       </c>
@@ -24218,7 +24803,7 @@
       <c r="F521" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G521" s="26"/>
+      <c r="G521" s="3"/>
       <c r="H521" s="1" t="s">
         <v>40</v>
       </c>
@@ -24249,7 +24834,7 @@
       <c r="F522" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G522" s="25" t="s">
+      <c r="G522" s="22" t="s">
         <v>1997</v>
       </c>
       <c r="H522" s="1" t="s">
@@ -24282,7 +24867,7 @@
       <c r="F523" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G523" s="26"/>
+      <c r="G523" s="3"/>
       <c r="H523" s="1" t="s">
         <v>26</v>
       </c>
@@ -24313,7 +24898,7 @@
       <c r="F524" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G524" s="25" t="s">
+      <c r="G524" s="22" t="s">
         <v>2010</v>
       </c>
       <c r="H524" s="1" t="s">
@@ -24346,7 +24931,7 @@
       <c r="F525" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G525" s="26"/>
+      <c r="G525" s="3"/>
       <c r="H525" s="1" t="s">
         <v>2008</v>
       </c>
@@ -24357,6 +24942,1956 @@
         <v>1986</v>
       </c>
       <c r="N525" s="14"/>
+    </row>
+    <row r="526" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F526" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I526" s="1">
+        <v>14167431234</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N526" s="14"/>
+    </row>
+    <row r="527" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F527" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I527" s="1">
+        <v>17055860402</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N527" s="14"/>
+    </row>
+    <row r="528" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F528" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I528" s="1">
+        <v>15199567667</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N528" s="14"/>
+    </row>
+    <row r="529" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I529" s="4">
+        <v>19056886886</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N529" s="14"/>
+    </row>
+    <row r="530" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F530" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I530" s="1">
+        <v>12267836259</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N530" s="14"/>
+    </row>
+    <row r="531" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F531" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I531" s="1">
+        <v>19056847776</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N531" s="14"/>
+    </row>
+    <row r="532" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I532" s="1">
+        <v>14166013734</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N532" s="14"/>
+    </row>
+    <row r="533" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I533" s="1">
+        <v>19052278288</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N533" s="14"/>
+    </row>
+    <row r="534" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F534" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I534" s="1">
+        <v>17058567777</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N534" s="14"/>
+    </row>
+    <row r="535" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I535" s="4">
+        <v>15192200201</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N535" s="14"/>
+    </row>
+    <row r="536" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F536" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I536" s="1">
+        <v>16473505323</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N536" s="14"/>
+    </row>
+    <row r="537" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I537" s="4">
+        <v>19057880641</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N537" s="14"/>
+    </row>
+    <row r="538" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F538" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I538" s="1">
+        <v>16133424503</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N538" s="14"/>
+    </row>
+    <row r="539" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I539" s="1">
+        <v>17055312882</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N539" s="14"/>
+    </row>
+    <row r="540" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I540" s="4">
+        <v>17054506216</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N540" s="14"/>
+    </row>
+    <row r="541" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F541" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I541" s="1">
+        <v>15192087775</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N541" s="14"/>
+    </row>
+    <row r="542" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F542" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I542" s="1">
+        <v>14166389151</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N542" s="14"/>
+    </row>
+    <row r="543" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F543" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I543" s="1">
+        <v>16476402899</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N543" s="14"/>
+    </row>
+    <row r="544" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I544" s="4">
+        <v>17054389333</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N544" s="14"/>
+    </row>
+    <row r="545" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F545" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G545" s="22" t="s">
+        <v>2087</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I545" s="1">
+        <v>15195421193</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N545" s="14"/>
+    </row>
+    <row r="546" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F546" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G546" s="24" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I546" s="1">
+        <v>12894438880</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N546" s="14"/>
+    </row>
+    <row r="547" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F547" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G547" s="25" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I547" s="1">
+        <v>19054553111</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N547" s="14"/>
+    </row>
+    <row r="548" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F548" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I548" s="1">
+        <v>15193074367</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N548" s="14"/>
+    </row>
+    <row r="549" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F549" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G549" s="25" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I549" s="1">
+        <v>17055309594</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N549" s="14"/>
+    </row>
+    <row r="550" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F550" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G550" s="25" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I550" s="1">
+        <v>17052223886</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N550" s="14"/>
+    </row>
+    <row r="551" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F551" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I551" s="1">
+        <v>12267042190</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N551" s="14"/>
+    </row>
+    <row r="552" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F552" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I552" s="1">
+        <v>12267042190</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N552" s="14"/>
+    </row>
+    <row r="553" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F553" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I553" s="1">
+        <v>12267731006</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N553" s="14"/>
+    </row>
+    <row r="554" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F554" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I554" s="1">
+        <v>14165362121</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N554" s="14"/>
+    </row>
+    <row r="555" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F555" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I555" s="1">
+        <v>17052500187</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N555" s="14"/>
+    </row>
+    <row r="556" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F556" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I556" s="1">
+        <v>16135420377</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N556" s="14"/>
+    </row>
+    <row r="557" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F557" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G557" s="25" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I557" s="1">
+        <v>12893893803</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N557" s="14"/>
+    </row>
+    <row r="558" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I558" s="4">
+        <v>14165194460</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N558" s="14"/>
+    </row>
+    <row r="559" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F559" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I559" s="1">
+        <v>17059981935</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N559" s="14"/>
+    </row>
+    <row r="560" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F560" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I560" s="1">
+        <v>15192084527</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N560" s="14"/>
+    </row>
+    <row r="561" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F561" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I561" s="1">
+        <v>15197580000</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N561" s="14"/>
+    </row>
+    <row r="562" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F562" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I562" s="1">
+        <v>15194429966</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N562" s="14"/>
+    </row>
+    <row r="563" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F563" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G563" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I563" s="1">
+        <v>14165513971</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N563" s="14"/>
+    </row>
+    <row r="564" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G564" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I564" s="1">
+        <v>15192566262</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N564" s="14"/>
+    </row>
+    <row r="565" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F565" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G565" s="22" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I565" s="1">
+        <v>15196574747</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N565" s="14"/>
+    </row>
+    <row r="566" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I566" s="1">
+        <v>15196577979</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N566" s="14"/>
+    </row>
+    <row r="567" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I567" s="1">
+        <v>12268844747</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N567" s="14"/>
+    </row>
+    <row r="568" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F568" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I568" s="1">
+        <v>15192045777</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N568" s="14"/>
+    </row>
+    <row r="569" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I569" s="1">
+        <v>15194577070</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N569" s="14"/>
+    </row>
+    <row r="570" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I570" s="1">
+        <v>14167858325</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N570" s="14"/>
+    </row>
+    <row r="571" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F571" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I571" s="1">
+        <v>17053840899</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N571" s="14"/>
+    </row>
+    <row r="572" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I572" s="1">
+        <v>12898162837</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N572" s="14"/>
+    </row>
+    <row r="573" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I573" s="1">
+        <v>12892102837</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N573" s="14"/>
+    </row>
+    <row r="574" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I574" s="1">
+        <v>17054970887</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N574" s="14"/>
+    </row>
+    <row r="575" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F575" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I575" s="1">
+        <v>17057442839</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N575" s="14"/>
+    </row>
+    <row r="576" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I576" s="1">
+        <v>17057523333</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N576" s="14"/>
+    </row>
+    <row r="577" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I577" s="1">
+        <v>19056372837</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N577" s="14"/>
+    </row>
+    <row r="578" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I578" s="1">
+        <v>12269172837</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N578" s="14"/>
+    </row>
+    <row r="579" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I579" s="1">
+        <v>12897685659</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N579" s="14"/>
+    </row>
+    <row r="580" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F580" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I580" s="1">
+        <v>12263405531</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N580" s="14"/>
+    </row>
+    <row r="581" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F581" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I581" s="1">
+        <v>14164630420</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N581" s="14"/>
+    </row>
+    <row r="582" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F582" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I582" s="1">
+        <v>16135923222</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N582" s="14"/>
+    </row>
+    <row r="583" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F583" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I583" s="1">
+        <v>16136722233</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="N583" s="14"/>
+    </row>
+    <row r="584" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F584" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I584" s="1">
+        <v>16134610091</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N584" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="2224">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -6652,13 +6652,49 @@
   </si>
   <si>
     <t>Bluebird Almonte</t>
+  </si>
+  <si>
+    <t>609ae8d36ce2b100c0cd424f</t>
+  </si>
+  <si>
+    <t>55 MOUNTAINASH ROAD, D2-A</t>
+  </si>
+  <si>
+    <t>CANTOPIA CANNABIS CO.</t>
+  </si>
+  <si>
+    <t>604bb1f1a6aa9a00b9b30826</t>
+  </si>
+  <si>
+    <t>7955 FINANCIAL DR UNIT B</t>
+  </si>
+  <si>
+    <t>Hibuzz</t>
+  </si>
+  <si>
+    <t>5fa090512d10e500b4810559</t>
+  </si>
+  <si>
+    <t>95 QUEENSWAY W SUITE 4</t>
+  </si>
+  <si>
+    <t>HIGHLIFE SIMCOE</t>
+  </si>
+  <si>
+    <t>61b6860aecc71e00998e8a4c</t>
+  </si>
+  <si>
+    <t>5787 COUNTY RD 17</t>
+  </si>
+  <si>
+    <t>PLANTAGENET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6737,6 +6773,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6798,7 +6843,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -6841,6 +6886,7 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -7144,10 +7190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N584"/>
+  <dimension ref="A1:N588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
-      <selection activeCell="G565" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="A587" sqref="A587:XFD587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26892,6 +26938,134 @@
         <v>20</v>
       </c>
       <c r="N584" s="14"/>
+    </row>
+    <row r="585" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F585" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G585" s="26" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I585" s="1">
+        <v>19057899433</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F586" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G586" s="26" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I586" s="1">
+        <v>19054591311</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F587" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G587" s="26" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I587" s="1">
+        <v>15194288001</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G588" s="26" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I588" s="1">
+        <v>16136731313</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="2227">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -6688,6 +6688,15 @@
   </si>
   <si>
     <t>PLANTAGENET</t>
+  </si>
+  <si>
+    <t>6488d4ffd11c3a000940351c</t>
+  </si>
+  <si>
+    <t>http://www.hollanddaze.ca/</t>
+  </si>
+  <si>
+    <t>3226 EGLINTON AVE E</t>
   </si>
 </sst>
 </file>
@@ -7190,10 +7199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N588"/>
+  <dimension ref="A1:N589"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="A587" sqref="A587:XFD587"/>
+      <selection activeCell="D568" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27065,6 +27074,38 @@
       </c>
       <c r="J588" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G589" s="26" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I589" s="1">
+        <v>13658990341</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="2398">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -6697,13 +6697,526 @@
   </si>
   <si>
     <t>3226 EGLINTON AVE E</t>
+  </si>
+  <si>
+    <t>64597cd10f7320006a785443</t>
+  </si>
+  <si>
+    <t>275 PORT UNION RD UNIT 8</t>
+  </si>
+  <si>
+    <t>5f8d929a34307700c8d5cf0a</t>
+  </si>
+  <si>
+    <t>793 MARKHAM RD</t>
+  </si>
+  <si>
+    <t>6025497ea46cec17aaf77a30</t>
+  </si>
+  <si>
+    <t>6 KING WILLIAM ST</t>
+  </si>
+  <si>
+    <t>Kasa Kana Hunstville</t>
+  </si>
+  <si>
+    <t>60d2237dbd13650ceb09635a</t>
+  </si>
+  <si>
+    <t>http://www.moonfirecannabis.ca/</t>
+  </si>
+  <si>
+    <t>329 MAIN ST UNIT 3</t>
+  </si>
+  <si>
+    <t>SAUBLE BEACH</t>
+  </si>
+  <si>
+    <t>6243110e7a183d008e0f8a72</t>
+  </si>
+  <si>
+    <t>http://www.onthecannabisside.ca/</t>
+  </si>
+  <si>
+    <t>4756 TECUMSEH RD E</t>
+  </si>
+  <si>
+    <t>61020a2f312cdd00b8c35c88</t>
+  </si>
+  <si>
+    <t>345 QUEEN ST W UNIT 10</t>
+  </si>
+  <si>
+    <t>Piffingtons Cannabis Co</t>
+  </si>
+  <si>
+    <t>6102092329b08b00b7c22945</t>
+  </si>
+  <si>
+    <t>100 BRONTE ST S UNIT 4</t>
+  </si>
+  <si>
+    <t>61324c230ff49e00ced01853</t>
+  </si>
+  <si>
+    <t>http://www.popscannabis.ca/</t>
+  </si>
+  <si>
+    <t>401 OTTAWA ST UNIT 6</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co. Almonte</t>
+  </si>
+  <si>
+    <t>61e9af45956237007dcc6c2a</t>
+  </si>
+  <si>
+    <t>829 BIG BAY POINT RD UNIT D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop's Cannabis Co. Big Bay Point </t>
+  </si>
+  <si>
+    <t>64dfc6210e4045000960071c</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/10</t>
+  </si>
+  <si>
+    <t>2316 HWY 2 UNIT K2</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co.</t>
+  </si>
+  <si>
+    <t>60bfc0a2a2c7f600d898ea36</t>
+  </si>
+  <si>
+    <t>2600 LAKESHORE RD UNIT 9</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Brights Grove</t>
+  </si>
+  <si>
+    <t>BRIGHT'S GROVE</t>
+  </si>
+  <si>
+    <t>61324c4db4b58300ceb6dcc7</t>
+  </si>
+  <si>
+    <t>1635 HWY 2 UNIT 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop's Cannabis Co. Courtice </t>
+  </si>
+  <si>
+    <t>60bfbb5fadfe5300a020f10f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5118 OLD HIGHWAY 69 N., UNIT 2 </t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co. Hanmer</t>
+  </si>
+  <si>
+    <t>HANMER</t>
+  </si>
+  <si>
+    <t>60bfbfdcf3dcf000bbfc7288</t>
+  </si>
+  <si>
+    <t>25 BRUNETVILLE RD UNIT B1</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co. Kapuskasing</t>
+  </si>
+  <si>
+    <t>KAPUSKASING</t>
+  </si>
+  <si>
+    <t>60bfbae68f82d900ad91727c</t>
+  </si>
+  <si>
+    <t>150 GOVERNMENT RD W UNIT 260</t>
+  </si>
+  <si>
+    <t>POP’S CANNABIS CO. KIRKLAND LAKE</t>
+  </si>
+  <si>
+    <t>KIRKLAND LAKE</t>
+  </si>
+  <si>
+    <t>60bfc064dc2c6000bb169504</t>
+  </si>
+  <si>
+    <t>286 MAIN ST S UNIT C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop's Cannabis Co. Mt. Forest </t>
+  </si>
+  <si>
+    <t>MOUNT FOREST</t>
+  </si>
+  <si>
+    <t>60bfbb38d8149c00bc1ade9e</t>
+  </si>
+  <si>
+    <t>883303 HIGHWAY 65 UNIT 11</t>
+  </si>
+  <si>
+    <t>POP'S CANNABIS CO. NEW LISKEARD</t>
+  </si>
+  <si>
+    <t>60bfbc1c78d5a300a5e46321</t>
+  </si>
+  <si>
+    <t>175 MAIN ST UNIT 4</t>
+  </si>
+  <si>
+    <t>POP'S CANNABIS CO. PENETANG</t>
+  </si>
+  <si>
+    <t>PENETANGUISHENE</t>
+  </si>
+  <si>
+    <t>60bfc00f8e31de00b564e4fe</t>
+  </si>
+  <si>
+    <t>1822 WHITES RD UNIT 13</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co. Pickering</t>
+  </si>
+  <si>
+    <t>60bfc0ed656f2500ae29653e</t>
+  </si>
+  <si>
+    <t>123 LOMBARD ST UNIT 9</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co. Smiths Falls</t>
+  </si>
+  <si>
+    <t>6279a14be838d20087999275</t>
+  </si>
+  <si>
+    <t>581 HURON ST UNIT 3B</t>
+  </si>
+  <si>
+    <t>Pop's Cannabis Co. Stratford</t>
+  </si>
+  <si>
+    <t>61201b42c79bf700a3ed1e58</t>
+  </si>
+  <si>
+    <t>450 NOTRE DAME AVE UNIT 105B</t>
+  </si>
+  <si>
+    <t>60bfbb1161ec7800d0d8533f</t>
+  </si>
+  <si>
+    <t>133 QUEEN ST. S. UNIT A</t>
+  </si>
+  <si>
+    <t>630fbd6bb7782700e636f939</t>
+  </si>
+  <si>
+    <t>1940 TECUMSEH RD W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop's Cannabis Co. </t>
+  </si>
+  <si>
+    <t>630fbda1e1ff1600da981b8a</t>
+  </si>
+  <si>
+    <t>4782 WYANDOTTE ST E</t>
+  </si>
+  <si>
+    <t>6449558f03b38100eced4596</t>
+  </si>
+  <si>
+    <t>http://www.sessions.ca/</t>
+  </si>
+  <si>
+    <t>2771 ON-17 UNIT 1</t>
+  </si>
+  <si>
+    <t>SESSIONS CANNABIS GOULAIS RIVER</t>
+  </si>
+  <si>
+    <t>GOULAIS RIVER</t>
+  </si>
+  <si>
+    <t>http://www.sparkonline.ca/</t>
+  </si>
+  <si>
+    <t>15191 YONGE ST</t>
+  </si>
+  <si>
+    <t>Spark Cannabis</t>
+  </si>
+  <si>
+    <t>63626c9dae28a200a36bfd7d</t>
+  </si>
+  <si>
+    <t>6666 ON-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark Cannabis </t>
+  </si>
+  <si>
+    <t>COBOCONK</t>
+  </si>
+  <si>
+    <t>24 TORONTO ST N</t>
+  </si>
+  <si>
+    <t>6421f062dec24c01013d620b</t>
+  </si>
+  <si>
+    <t>5fe12432a142c8010650e89e</t>
+  </si>
+  <si>
+    <t>http://www.tcann.ca/</t>
+  </si>
+  <si>
+    <t>38 MILL ST E</t>
+  </si>
+  <si>
+    <t>T Cannabis</t>
+  </si>
+  <si>
+    <t>5fe9fc084a132000c5dcd389</t>
+  </si>
+  <si>
+    <t>http://www.thebogarts.ca/</t>
+  </si>
+  <si>
+    <t>1202 LAKESHORE RD UNIT A</t>
+  </si>
+  <si>
+    <t>Bogarts Cannabis Shop</t>
+  </si>
+  <si>
+    <t>60eda27780d08337569eab9d</t>
+  </si>
+  <si>
+    <t>http://www.thewestore.com/</t>
+  </si>
+  <si>
+    <t>889 EXMOUTH ST UNIT 11</t>
+  </si>
+  <si>
+    <t>5fbc4a16410d5c24f91076a2</t>
+  </si>
+  <si>
+    <t>1565 WYANDOTTE ST E</t>
+  </si>
+  <si>
+    <t>62ab2e05465fc3008f246452</t>
+  </si>
+  <si>
+    <t>http://www.tokecannabis.com/beamsville/store</t>
+  </si>
+  <si>
+    <t>4999 KING STREET</t>
+  </si>
+  <si>
+    <t>Toke Cannabis</t>
+  </si>
+  <si>
+    <t>BEAMSVILLE</t>
+  </si>
+  <si>
+    <t>644c5cb6dbcb6f01de148411</t>
+  </si>
+  <si>
+    <t>http://www.tree-top-cannabis.ca/</t>
+  </si>
+  <si>
+    <t>796 BRANT ST</t>
+  </si>
+  <si>
+    <t>TreeTop</t>
+  </si>
+  <si>
+    <t>5fd9168a64ccd200ff633df5</t>
+  </si>
+  <si>
+    <t>7405 TECUMSEH ROAD EAST UNIT 200</t>
+  </si>
+  <si>
+    <t>Urbnbud</t>
+  </si>
+  <si>
+    <t>624c42b1c1b4df0d5b411270</t>
+  </si>
+  <si>
+    <t>http://www.we-d.ca/</t>
+  </si>
+  <si>
+    <t>205 QUIGLEY RD SUITE 5</t>
+  </si>
+  <si>
+    <t>WE'D</t>
+  </si>
+  <si>
+    <t>6102e14b62497500cb052f45</t>
+  </si>
+  <si>
+    <t>1070 STONE CHURCH RD E UNIT 37</t>
+  </si>
+  <si>
+    <t>WE’D</t>
+  </si>
+  <si>
+    <t>6001f023ebd1154463af0add</t>
+  </si>
+  <si>
+    <t>http://www.woodstockcannabisco.ca/</t>
+  </si>
+  <si>
+    <t>579 DUNDAS ST</t>
+  </si>
+  <si>
+    <t>Woodstock Cannabis Co</t>
+  </si>
+  <si>
+    <t>610dabe6b77f9f00c5b0acef</t>
+  </si>
+  <si>
+    <t>http://ybcannabis.com/</t>
+  </si>
+  <si>
+    <t>1111 COLLEGE ST</t>
+  </si>
+  <si>
+    <t>YERBA BUENA CANNABIS</t>
+  </si>
+  <si>
+    <t>602be64188f00800c9c45a5c</t>
+  </si>
+  <si>
+    <t>http://yieldcannabis.com/</t>
+  </si>
+  <si>
+    <t>1000 FINCH DR UNIT 9</t>
+  </si>
+  <si>
+    <t>Yield Cannabis Co.</t>
+  </si>
+  <si>
+    <t>5f722e483b805100af41339c</t>
+  </si>
+  <si>
+    <t>https://abovethecloudscannabis.com/</t>
+  </si>
+  <si>
+    <t>1126 THE QUEENSWAY UNIT 1 AND 2</t>
+  </si>
+  <si>
+    <t>ABOVE THE CLOUDS CANNABIS</t>
+  </si>
+  <si>
+    <t>6051120c07a3ce00c813d70c</t>
+  </si>
+  <si>
+    <t>https://alpha-cannabis.ca/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=aurora</t>
+  </si>
+  <si>
+    <t>118 WELLINGTON ST E</t>
+  </si>
+  <si>
+    <t>ALPHA CANNABIS</t>
+  </si>
+  <si>
+    <t>['Delivery / Time unknown']</t>
+  </si>
+  <si>
+    <t>6195e39a2e0c5e00996444e4</t>
+  </si>
+  <si>
+    <t>https://bananasdispensary.ca/</t>
+  </si>
+  <si>
+    <t>800 CENTRE ST</t>
+  </si>
+  <si>
+    <t>HIGHLIFE CANNABIS ESPANOLA</t>
+  </si>
+  <si>
+    <t>601da0e63f6d3300d3e57de0</t>
+  </si>
+  <si>
+    <t>https://barttowatree.ca/about-us</t>
+  </si>
+  <si>
+    <t>1081 BARTON ST E</t>
+  </si>
+  <si>
+    <t>Barttowa Tree</t>
+  </si>
+  <si>
+    <t>6303e63282b60400cf7d9ac1</t>
+  </si>
+  <si>
+    <t>https://bluebirdcannabis.store/</t>
+  </si>
+  <si>
+    <t>792 MAIN ST E UNIT A</t>
+  </si>
+  <si>
+    <t>BLUEBIRD CANNABIS EXPRESS - HAWKESBURY</t>
+  </si>
+  <si>
+    <t>612e3e1a82df5000be178eec</t>
+  </si>
+  <si>
+    <t>https://bluebirdcannabis.store/gladstone/</t>
+  </si>
+  <si>
+    <t>502 GLADSTONE AVE</t>
+  </si>
+  <si>
+    <t>Bluebird Cannabis Gladstone</t>
+  </si>
+  <si>
+    <t>5e41eec57008ad00710c23ca</t>
+  </si>
+  <si>
+    <t>https://bobsbudemporium.ca/</t>
+  </si>
+  <si>
+    <t>483 TALBOT ST</t>
+  </si>
+  <si>
+    <t>Bob's Bud Emporium</t>
+  </si>
+  <si>
+    <t>622f718f3027a300aecaf01f</t>
+  </si>
+  <si>
+    <t>https://bramalea.cantopia.ca/stores/cantopia-cannabis-co-bramalea</t>
+  </si>
+  <si>
+    <t>1785 QUEEN ST E UNIT H</t>
+  </si>
+  <si>
+    <t>651f3783ce38360009d59863</t>
+  </si>
+  <si>
+    <t>https://budssmoke.com/</t>
+  </si>
+  <si>
+    <t>389 BAYFIELD ST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6791,6 +7304,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6852,7 +7373,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -6896,6 +7417,8 @@
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -7199,10 +7722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N589"/>
+  <dimension ref="A1:N639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="D568" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
+      <selection activeCell="A639" sqref="A639:XFD639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26979,6 +27502,7 @@
       <c r="J585" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="N585" s="14"/>
     </row>
     <row r="586" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
@@ -27011,6 +27535,7 @@
       <c r="J586" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N586" s="14"/>
     </row>
     <row r="587" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
@@ -27043,6 +27568,7 @@
       <c r="J587" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N587" s="14"/>
     </row>
     <row r="588" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
@@ -27075,6 +27601,7 @@
       <c r="J588" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N588" s="14"/>
     </row>
     <row r="589" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
@@ -27106,6 +27633,1643 @@
       </c>
       <c r="J589" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N589" s="14"/>
+    </row>
+    <row r="590" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F590" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G590" s="26" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I590" s="1">
+        <v>14378806777</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N590" s="14"/>
+    </row>
+    <row r="591" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F591" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G591" s="26" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I591" s="1">
+        <v>14164383442</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N591" s="14"/>
+    </row>
+    <row r="592" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F592" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G592" s="26" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I592" s="1">
+        <v>17057899090</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N592" s="14"/>
+    </row>
+    <row r="593" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G593" s="26" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I593" s="1">
+        <v>15194220101</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N593" s="14"/>
+    </row>
+    <row r="594" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F594" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G594" s="26" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I594" s="1">
+        <v>12266740420</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N594" s="14"/>
+    </row>
+    <row r="595" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F595" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G595" s="26" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I595" s="1">
+        <v>19054527433</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N595" s="14"/>
+    </row>
+    <row r="596" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F596" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G596" s="26" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I596" s="1">
+        <v>12898782203</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N596" s="14"/>
+    </row>
+    <row r="597" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F597" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G597" s="26" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I597" s="1">
+        <v>13434642220</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N597" s="14"/>
+    </row>
+    <row r="598" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F598" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G598" s="26" t="s">
+        <v>2250</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I598" s="1">
+        <v>12498881600</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N598" s="14"/>
+    </row>
+    <row r="599" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F599" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G599" s="26" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I599" s="1">
+        <v>12892221020</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N599" s="14"/>
+    </row>
+    <row r="600" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G600" s="26" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I600" s="1">
+        <v>15199089211</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N600" s="14"/>
+    </row>
+    <row r="601" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F601" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G601" s="26" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I601" s="1">
+        <v>12892221020</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N601" s="14"/>
+    </row>
+    <row r="602" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F602" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G602" s="26" t="s">
+        <v>2264</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I602" s="1">
+        <v>17058313090</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N602" s="14"/>
+    </row>
+    <row r="603" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G603" s="26" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I603" s="1">
+        <v>17053190040</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N603" s="14"/>
+    </row>
+    <row r="604" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F604" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G604" s="26" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I604" s="1">
+        <v>17055720023</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N604" s="14"/>
+    </row>
+    <row r="605" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G605" s="26" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I605" s="1">
+        <v>12266662100</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N605" s="14"/>
+    </row>
+    <row r="606" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G606" s="26" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I606" s="1">
+        <v>17056800101</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N606" s="14"/>
+    </row>
+    <row r="607" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F607" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G607" s="26" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I607" s="1">
+        <v>17056144199</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N607" s="14"/>
+    </row>
+    <row r="608" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F608" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G608" s="26" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I608" s="1">
+        <v>12892241122</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N608" s="14"/>
+    </row>
+    <row r="609" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F609" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G609" s="26" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I609" s="1">
+        <v>13438811400</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N609" s="14"/>
+    </row>
+    <row r="610" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F610" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G610" s="26" t="s">
+        <v>2293</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I610" s="1">
+        <v>12267668550</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N610" s="14"/>
+    </row>
+    <row r="611" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F611" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G611" s="26" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I611" s="1">
+        <v>17058851110</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N611" s="14"/>
+    </row>
+    <row r="612" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F612" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G612" s="26" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I612" s="1">
+        <v>12898504044</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N612" s="14"/>
+    </row>
+    <row r="613" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F613" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G613" s="26" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I613" s="1">
+        <v>12266920139</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N613" s="14"/>
+    </row>
+    <row r="614" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F614" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G614" s="26" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I614" s="1">
+        <v>12267822712</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N614" s="14"/>
+    </row>
+    <row r="615" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F615" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G615" s="26" t="s">
+        <v>2305</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I615" s="1">
+        <v>17059984743</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N615" s="14"/>
+    </row>
+    <row r="616" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F616" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G616" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I616" s="1">
+        <v>19055030348</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N616" s="14"/>
+    </row>
+    <row r="617" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F617" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G617" s="26" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I617" s="1">
+        <v>17058214200</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N617" s="14"/>
+    </row>
+    <row r="618" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F618" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G618" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I618" s="1">
+        <v>12896400941</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N618" s="14"/>
+    </row>
+    <row r="619" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F619" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G619" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I619" s="1">
+        <v>15198539898</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N619" s="14"/>
+    </row>
+    <row r="620" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F620" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G620" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I620" s="1">
+        <v>15194912243</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N620" s="14"/>
+    </row>
+    <row r="621" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F621" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G621" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I621" s="1">
+        <v>12267787386</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N621" s="14"/>
+    </row>
+    <row r="622" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F622" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G622" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I622" s="1">
+        <v>12267826347</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N622" s="14"/>
+    </row>
+    <row r="623" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F623" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G623" s="27" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I623" s="1">
+        <v>12895668474</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N623" s="14"/>
+    </row>
+    <row r="624" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F624" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G624" s="26" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I624" s="1">
+        <v>19056344420</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N624" s="14"/>
+    </row>
+    <row r="625" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F625" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G625" s="26" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I625" s="1">
+        <v>12266744283</v>
+      </c>
+      <c r="J625" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N625" s="14"/>
+    </row>
+    <row r="626" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F626" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G626" s="26" t="s">
+        <v>2344</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I626" s="1">
+        <v>19052966516</v>
+      </c>
+      <c r="J626" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F627" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G627" s="26" t="s">
+        <v>2348</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I627" s="1">
+        <v>12896749333</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F628" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G628" s="26" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I628" s="1">
+        <v>15192904420</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F629" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G629" s="26" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I629" s="1">
+        <v>14165160811</v>
+      </c>
+      <c r="J629" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F630" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G630" s="26" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I630" s="1">
+        <v>15193401561</v>
+      </c>
+      <c r="J630" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F631" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G631" s="26" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I631" s="1">
+        <v>14169013434</v>
+      </c>
+      <c r="J631" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F632" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G632" s="26" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I632" s="1">
+        <v>19055032500</v>
+      </c>
+      <c r="J632" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F633" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G633" s="26" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I633" s="1">
+        <v>17058693644</v>
+      </c>
+      <c r="J633" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F634" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G634" s="26" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I634" s="1">
+        <v>19055451192</v>
+      </c>
+      <c r="J634" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F635" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G635" s="28" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I635" s="1">
+        <v>16136325111</v>
+      </c>
+      <c r="J635" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F636" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G636" s="26" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I636" s="1">
+        <v>16136806777</v>
+      </c>
+      <c r="J636" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F637" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G637" s="26" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I637" s="1">
+        <v>15192071022</v>
+      </c>
+      <c r="J637" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F638" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G638" s="26" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I638" s="1">
+        <v>19057930833</v>
+      </c>
+      <c r="J638" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F639" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G639" s="26" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I639" s="1">
+        <v>17052192837</v>
+      </c>
+      <c r="J639" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -10450,7 +10450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -10482,8 +10482,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10814,15 +10812,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A919" workbookViewId="0">
-      <selection activeCell="N931" sqref="N931:N945"/>
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
+      <selection activeCell="A946" sqref="A946:XFD946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="27" customWidth="1"/>
     <col min="8" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10845,7 +10843,7 @@
       <c r="F1" s="15" t="s">
         <v>1089</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>1088</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -10889,7 +10887,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -10925,7 +10923,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -10961,7 +10959,7 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -10997,7 +10995,7 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -11033,7 +11031,7 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -11069,7 +11067,7 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -11105,7 +11103,7 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -11141,7 +11139,7 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -11177,7 +11175,7 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -11213,7 +11211,7 @@
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -11249,7 +11247,7 @@
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -11285,7 +11283,7 @@
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -11321,7 +11319,7 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="20" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -11357,7 +11355,7 @@
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -11393,7 +11391,7 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -11429,7 +11427,7 @@
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -11465,7 +11463,7 @@
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="20" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -11501,7 +11499,7 @@
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="20" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -11537,7 +11535,7 @@
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -11573,7 +11571,7 @@
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="20" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -11609,7 +11607,7 @@
       <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="20" t="s">
         <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -11645,7 +11643,7 @@
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -11681,7 +11679,7 @@
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="20" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -11717,7 +11715,7 @@
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="20" t="s">
         <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -11753,7 +11751,7 @@
       <c r="F26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -11789,7 +11787,7 @@
       <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="20" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -11825,7 +11823,7 @@
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="20" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -11861,7 +11859,7 @@
       <c r="F29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="20" t="s">
         <v>143</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -11897,7 +11895,7 @@
       <c r="F30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="20" t="s">
         <v>143</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -11933,7 +11931,7 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="20" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -11969,7 +11967,7 @@
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="20" t="s">
         <v>151</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -12005,7 +12003,7 @@
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -12041,7 +12039,7 @@
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="20" t="s">
         <v>161</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -12077,7 +12075,7 @@
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="20" t="s">
         <v>165</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -12113,7 +12111,7 @@
       <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="20" t="s">
         <v>170</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -12149,7 +12147,7 @@
       <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="20" t="s">
         <v>175</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -12185,7 +12183,7 @@
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="20" t="s">
         <v>180</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -12221,7 +12219,7 @@
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="20" t="s">
         <v>185</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -12257,7 +12255,7 @@
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="20" t="s">
         <v>190</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -12293,7 +12291,7 @@
       <c r="F41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="20" t="s">
         <v>195</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -12329,7 +12327,7 @@
       <c r="F42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="20" t="s">
         <v>201</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -12365,7 +12363,7 @@
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="20" t="s">
         <v>205</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -12401,7 +12399,7 @@
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="20" t="s">
         <v>211</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -12437,7 +12435,7 @@
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="20" t="s">
         <v>216</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -12473,7 +12471,7 @@
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="20" t="s">
         <v>220</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -12509,7 +12507,7 @@
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="20" t="s">
         <v>225</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -12545,7 +12543,7 @@
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="20" t="s">
         <v>231</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -12581,7 +12579,7 @@
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="20" t="s">
         <v>236</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -12617,7 +12615,7 @@
       <c r="F50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="20" t="s">
         <v>240</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -12653,7 +12651,7 @@
       <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="20" t="s">
         <v>245</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -12689,7 +12687,7 @@
       <c r="F52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="20" t="s">
         <v>251</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -12725,7 +12723,7 @@
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="20" t="s">
         <v>256</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -12761,7 +12759,7 @@
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="20" t="s">
         <v>261</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -12797,7 +12795,7 @@
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -12833,7 +12831,7 @@
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="20" t="s">
         <v>271</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -12869,7 +12867,7 @@
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="20" t="s">
         <v>276</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -12905,7 +12903,7 @@
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="20" t="s">
         <v>280</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -12941,7 +12939,7 @@
       <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="20" t="s">
         <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -12977,7 +12975,7 @@
       <c r="F60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G60" s="22"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="1" t="s">
         <v>14</v>
       </c>
@@ -13011,7 +13009,7 @@
       <c r="F61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="20" t="s">
         <v>296</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -13047,7 +13045,7 @@
       <c r="F62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="20" t="s">
         <v>300</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -13083,7 +13081,7 @@
       <c r="F63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="20" t="s">
         <v>276</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -13119,7 +13117,7 @@
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="20" t="s">
         <v>308</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -13155,7 +13153,7 @@
       <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="20" t="s">
         <v>313</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -13191,7 +13189,7 @@
       <c r="F66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="20" t="s">
         <v>320</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -13227,7 +13225,7 @@
       <c r="F67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="20" t="s">
         <v>324</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -13263,7 +13261,7 @@
       <c r="F68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G68" s="20" t="s">
         <v>328</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -13299,7 +13297,7 @@
       <c r="F69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="20" t="s">
         <v>333</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -13335,7 +13333,7 @@
       <c r="F70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="20" t="s">
         <v>337</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -13371,7 +13369,7 @@
       <c r="F71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="20" t="s">
         <v>340</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -13407,7 +13405,7 @@
       <c r="F72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -13443,7 +13441,7 @@
       <c r="F73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G73" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -13479,7 +13477,7 @@
       <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="20" t="s">
         <v>355</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -13515,7 +13513,7 @@
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" s="20" t="s">
         <v>360</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -13551,7 +13549,7 @@
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="20" t="s">
         <v>365</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -13587,7 +13585,7 @@
       <c r="F77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="20" t="s">
         <v>369</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -13623,7 +13621,7 @@
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="20" t="s">
         <v>372</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -13659,7 +13657,7 @@
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="20" t="s">
         <v>376</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -13695,7 +13693,7 @@
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -13731,7 +13729,7 @@
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="20" t="s">
         <v>386</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -13767,7 +13765,7 @@
       <c r="F82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="22" t="s">
+      <c r="G82" s="20" t="s">
         <v>391</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -13803,7 +13801,7 @@
       <c r="F83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="20" t="s">
         <v>396</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -13839,7 +13837,7 @@
       <c r="F84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="20" t="s">
         <v>400</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -13875,7 +13873,7 @@
       <c r="F85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G85" s="20" t="s">
         <v>405</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -13911,7 +13909,7 @@
       <c r="F86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="22" t="s">
+      <c r="G86" s="20" t="s">
         <v>408</v>
       </c>
       <c r="H86" s="8" t="s">
@@ -13947,7 +13945,7 @@
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="20" t="s">
         <v>415</v>
       </c>
       <c r="H87" s="1"/>
@@ -13981,7 +13979,7 @@
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="20" t="s">
         <v>420</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -14017,7 +14015,7 @@
       <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" s="20" t="s">
         <v>424</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -14053,7 +14051,7 @@
       <c r="F90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="20" t="s">
         <v>429</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -14089,7 +14087,7 @@
       <c r="F91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="20" t="s">
         <v>433</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -14125,7 +14123,7 @@
       <c r="F92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" s="20" t="s">
         <v>438</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -14161,7 +14159,7 @@
       <c r="F93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G93" s="20" t="s">
         <v>442</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -14197,7 +14195,7 @@
       <c r="F94" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" s="20" t="s">
         <v>446</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -14233,7 +14231,7 @@
       <c r="F95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="20" t="s">
         <v>449</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -14269,7 +14267,7 @@
       <c r="F96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="20" t="s">
         <v>452</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -14305,7 +14303,7 @@
       <c r="F97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" s="20" t="s">
         <v>457</v>
       </c>
       <c r="H97" s="8" t="s">
@@ -14341,7 +14339,7 @@
       <c r="F98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G98" s="20" t="s">
         <v>463</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -14377,7 +14375,7 @@
       <c r="F99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="22" t="s">
+      <c r="G99" s="20" t="s">
         <v>469</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -14413,7 +14411,7 @@
       <c r="F100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G100" s="20" t="s">
         <v>472</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -14449,7 +14447,7 @@
       <c r="F101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G101" s="20" t="s">
         <v>477</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -14485,7 +14483,7 @@
       <c r="F102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="20" t="s">
         <v>477</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -14521,7 +14519,7 @@
       <c r="F103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G103" s="20" t="s">
         <v>482</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -14557,7 +14555,7 @@
       <c r="F104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="G104" s="20" t="s">
         <v>488</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -14593,7 +14591,7 @@
       <c r="F105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="20" t="s">
         <v>492</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -14629,7 +14627,7 @@
       <c r="F106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="20" t="s">
         <v>497</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -14665,7 +14663,7 @@
       <c r="F107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="22" t="s">
+      <c r="G107" s="20" t="s">
         <v>501</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -14701,7 +14699,7 @@
       <c r="F108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -14737,7 +14735,7 @@
       <c r="F109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="22" t="s">
+      <c r="G109" s="20" t="s">
         <v>510</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -14773,7 +14771,7 @@
       <c r="F110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="22" t="s">
+      <c r="G110" s="20" t="s">
         <v>515</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -14809,7 +14807,7 @@
       <c r="F111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="22" t="s">
+      <c r="G111" s="20" t="s">
         <v>519</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -14845,7 +14843,7 @@
       <c r="F112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="G112" s="20" t="s">
         <v>523</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -14879,7 +14877,7 @@
       <c r="F113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G113" s="22" t="s">
+      <c r="G113" s="20" t="s">
         <v>527</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -14915,7 +14913,7 @@
       <c r="F114" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="20" t="s">
         <v>532</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -14951,7 +14949,7 @@
       <c r="F115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="20" t="s">
         <v>537</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -14987,7 +14985,7 @@
       <c r="F116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" s="20" t="s">
         <v>542</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -15023,7 +15021,7 @@
       <c r="F117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G117" s="22" t="s">
+      <c r="G117" s="20" t="s">
         <v>543</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -15059,7 +15057,7 @@
       <c r="F118" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="22" t="s">
+      <c r="G118" s="20" t="s">
         <v>547</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -15095,7 +15093,7 @@
       <c r="F119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="22" t="s">
+      <c r="G119" s="20" t="s">
         <v>547</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -15131,7 +15129,7 @@
       <c r="F120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="20" t="s">
         <v>556</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -15167,7 +15165,7 @@
       <c r="F121" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G121" s="22" t="s">
+      <c r="G121" s="20" t="s">
         <v>561</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -15201,7 +15199,7 @@
       <c r="F122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="22" t="s">
+      <c r="G122" s="20" t="s">
         <v>561</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -15237,7 +15235,7 @@
       <c r="F123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="G123" s="20" t="s">
         <v>569</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -15273,7 +15271,7 @@
       <c r="F124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G124" s="20" t="s">
         <v>573</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -15309,7 +15307,7 @@
       <c r="F125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G125" s="20" t="s">
         <v>578</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -15345,7 +15343,7 @@
       <c r="F126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" s="20" t="s">
         <v>582</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -15381,7 +15379,7 @@
       <c r="F127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" s="20" t="s">
         <v>586</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -15417,7 +15415,7 @@
       <c r="F128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="22" t="s">
+      <c r="G128" s="20" t="s">
         <v>591</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -15451,7 +15449,7 @@
       <c r="F129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" s="20" t="s">
         <v>595</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -15487,7 +15485,7 @@
       <c r="F130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G130" s="20" t="s">
         <v>598</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -15521,7 +15519,7 @@
       <c r="F131" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G131" s="20" t="s">
         <v>601</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -15557,7 +15555,7 @@
       <c r="F132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="22" t="s">
+      <c r="G132" s="20" t="s">
         <v>605</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -15593,7 +15591,7 @@
       <c r="F133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="20" t="s">
         <v>609</v>
       </c>
       <c r="H133" s="8" t="s">
@@ -15629,7 +15627,7 @@
       <c r="F134" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="22" t="s">
+      <c r="G134" s="20" t="s">
         <v>615</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -15665,7 +15663,7 @@
       <c r="F135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="22" t="s">
+      <c r="G135" s="20" t="s">
         <v>620</v>
       </c>
       <c r="H135" s="8" t="s">
@@ -15701,7 +15699,7 @@
       <c r="F136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G136" s="22" t="s">
+      <c r="G136" s="20" t="s">
         <v>625</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -15737,7 +15735,7 @@
       <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G137" s="22" t="s">
+      <c r="G137" s="20" t="s">
         <v>629</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -15773,7 +15771,7 @@
       <c r="F138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G138" s="22" t="s">
+      <c r="G138" s="20" t="s">
         <v>632</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -15809,7 +15807,7 @@
       <c r="F139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="22" t="s">
+      <c r="G139" s="20" t="s">
         <v>636</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -15845,7 +15843,7 @@
       <c r="F140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="22" t="s">
+      <c r="G140" s="20" t="s">
         <v>639</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -15881,7 +15879,7 @@
       <c r="F141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G141" s="22" t="s">
+      <c r="G141" s="20" t="s">
         <v>642</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -15917,7 +15915,7 @@
       <c r="F142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G142" s="22" t="s">
+      <c r="G142" s="20" t="s">
         <v>645</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -15953,7 +15951,7 @@
       <c r="F143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G143" s="22" t="s">
+      <c r="G143" s="20" t="s">
         <v>648</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -15989,7 +15987,7 @@
       <c r="F144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="22" t="s">
+      <c r="G144" s="20" t="s">
         <v>653</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -16025,7 +16023,7 @@
       <c r="F145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="22" t="s">
+      <c r="G145" s="20" t="s">
         <v>658</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -16061,7 +16059,7 @@
       <c r="F146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="22" t="s">
+      <c r="G146" s="20" t="s">
         <v>661</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -16097,7 +16095,7 @@
       <c r="F147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="22" t="s">
+      <c r="G147" s="20" t="s">
         <v>665</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -16133,7 +16131,7 @@
       <c r="F148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G148" s="22" t="s">
+      <c r="G148" s="20" t="s">
         <v>669</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -16169,7 +16167,7 @@
       <c r="F149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="22" t="s">
+      <c r="G149" s="20" t="s">
         <v>672</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -16205,7 +16203,7 @@
       <c r="F150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="22" t="s">
+      <c r="G150" s="20" t="s">
         <v>675</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -16241,7 +16239,7 @@
       <c r="F151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="22" t="s">
+      <c r="G151" s="20" t="s">
         <v>680</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -16277,7 +16275,7 @@
       <c r="F152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G152" s="22" t="s">
+      <c r="G152" s="20" t="s">
         <v>685</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -16313,7 +16311,7 @@
       <c r="F153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="22" t="s">
+      <c r="G153" s="20" t="s">
         <v>690</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -16349,7 +16347,7 @@
       <c r="F154" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G154" s="22" t="s">
+      <c r="G154" s="20" t="s">
         <v>695</v>
       </c>
       <c r="H154" s="8" t="s">
@@ -16385,7 +16383,7 @@
       <c r="F155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G155" s="22" t="s">
+      <c r="G155" s="20" t="s">
         <v>701</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -16421,7 +16419,7 @@
       <c r="F156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="22" t="s">
+      <c r="G156" s="20" t="s">
         <v>706</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -16457,7 +16455,7 @@
       <c r="F157" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G157" s="22" t="s">
+      <c r="G157" s="20" t="s">
         <v>711</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -16493,7 +16491,7 @@
       <c r="F158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G158" s="22" t="s">
+      <c r="G158" s="20" t="s">
         <v>715</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -16529,7 +16527,7 @@
       <c r="F159" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G159" s="22" t="s">
+      <c r="G159" s="20" t="s">
         <v>719</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -16565,7 +16563,7 @@
       <c r="F160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G160" s="22" t="s">
+      <c r="G160" s="20" t="s">
         <v>723</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -16601,7 +16599,7 @@
       <c r="F161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G161" s="22" t="s">
+      <c r="G161" s="20" t="s">
         <v>727</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -16637,7 +16635,7 @@
       <c r="F162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G162" s="22" t="s">
+      <c r="G162" s="20" t="s">
         <v>731</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -16673,7 +16671,7 @@
       <c r="F163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G163" s="22" t="s">
+      <c r="G163" s="20" t="s">
         <v>735</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -16709,7 +16707,7 @@
       <c r="F164" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="22" t="s">
+      <c r="G164" s="20" t="s">
         <v>739</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -16745,7 +16743,7 @@
       <c r="F165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G165" s="22" t="s">
+      <c r="G165" s="20" t="s">
         <v>743</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -16781,7 +16779,7 @@
       <c r="F166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="22" t="s">
+      <c r="G166" s="20" t="s">
         <v>747</v>
       </c>
       <c r="H166" s="8" t="s">
@@ -16817,7 +16815,7 @@
       <c r="F167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="22" t="s">
+      <c r="G167" s="20" t="s">
         <v>751</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -16853,7 +16851,7 @@
       <c r="F168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="22" t="s">
+      <c r="G168" s="20" t="s">
         <v>756</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -16889,7 +16887,7 @@
       <c r="F169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="22" t="s">
+      <c r="G169" s="20" t="s">
         <v>760</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -16925,7 +16923,7 @@
       <c r="F170" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G170" s="22" t="s">
+      <c r="G170" s="20" t="s">
         <v>763</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -16961,7 +16959,7 @@
       <c r="F171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G171" s="22" t="s">
+      <c r="G171" s="20" t="s">
         <v>766</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -16997,7 +16995,7 @@
       <c r="F172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G172" s="22" t="s">
+      <c r="G172" s="20" t="s">
         <v>770</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -17033,7 +17031,7 @@
       <c r="F173" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G173" s="22" t="s">
+      <c r="G173" s="20" t="s">
         <v>774</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -17069,7 +17067,7 @@
       <c r="F174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="G174" s="20" t="s">
         <v>779</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -17105,7 +17103,7 @@
       <c r="F175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G175" s="22" t="s">
+      <c r="G175" s="20" t="s">
         <v>783</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -17141,7 +17139,7 @@
       <c r="F176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G176" s="20" t="s">
         <v>788</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -17177,7 +17175,7 @@
       <c r="F177" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G177" s="22" t="s">
+      <c r="G177" s="20" t="s">
         <v>792</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -17213,7 +17211,7 @@
       <c r="F178" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G178" s="22" t="s">
+      <c r="G178" s="20" t="s">
         <v>797</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -17249,7 +17247,7 @@
       <c r="F179" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="22" t="s">
+      <c r="G179" s="20" t="s">
         <v>801</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -17285,7 +17283,7 @@
       <c r="F180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G180" s="22" t="s">
+      <c r="G180" s="20" t="s">
         <v>805</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -17321,7 +17319,7 @@
       <c r="F181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G181" s="22" t="s">
+      <c r="G181" s="20" t="s">
         <v>809</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -17357,7 +17355,7 @@
       <c r="F182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G182" s="22" t="s">
+      <c r="G182" s="20" t="s">
         <v>814</v>
       </c>
       <c r="H182" s="1" t="s">
@@ -17393,7 +17391,7 @@
       <c r="F183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G183" s="22" t="s">
+      <c r="G183" s="20" t="s">
         <v>819</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -17429,7 +17427,7 @@
       <c r="F184" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G184" s="22" t="s">
+      <c r="G184" s="20" t="s">
         <v>823</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -17465,7 +17463,7 @@
       <c r="F185" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="22" t="s">
+      <c r="G185" s="20" t="s">
         <v>827</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -17501,7 +17499,7 @@
       <c r="F186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G186" s="22" t="s">
+      <c r="G186" s="20" t="s">
         <v>832</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -17537,7 +17535,7 @@
       <c r="F187" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="22" t="s">
+      <c r="G187" s="20" t="s">
         <v>836</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -17573,7 +17571,7 @@
       <c r="F188" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G188" s="22" t="s">
+      <c r="G188" s="20" t="s">
         <v>839</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -17609,7 +17607,7 @@
       <c r="F189" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G189" s="22" t="s">
+      <c r="G189" s="20" t="s">
         <v>843</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -17645,7 +17643,7 @@
       <c r="F190" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G190" s="22" t="s">
+      <c r="G190" s="20" t="s">
         <v>848</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -17681,7 +17679,7 @@
       <c r="F191" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G191" s="22" t="s">
+      <c r="G191" s="20" t="s">
         <v>852</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -17717,7 +17715,7 @@
       <c r="F192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G192" s="22" t="s">
+      <c r="G192" s="20" t="s">
         <v>856</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -17753,7 +17751,7 @@
       <c r="F193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G193" s="22" t="s">
+      <c r="G193" s="20" t="s">
         <v>861</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -17789,7 +17787,7 @@
       <c r="F194" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G194" s="22" t="s">
+      <c r="G194" s="20" t="s">
         <v>865</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -17825,7 +17823,7 @@
       <c r="F195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="22" t="s">
+      <c r="G195" s="20" t="s">
         <v>869</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -17861,7 +17859,7 @@
       <c r="F196" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="G196" s="20" t="s">
         <v>873</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -17897,7 +17895,7 @@
       <c r="F197" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G197" s="22" t="s">
+      <c r="G197" s="20" t="s">
         <v>877</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -17933,7 +17931,7 @@
       <c r="F198" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G198" s="22" t="s">
+      <c r="G198" s="20" t="s">
         <v>882</v>
       </c>
       <c r="H198" s="1" t="s">
@@ -17969,7 +17967,7 @@
       <c r="F199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="22" t="s">
+      <c r="G199" s="20" t="s">
         <v>886</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -18005,7 +18003,7 @@
       <c r="F200" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G200" s="22" t="s">
+      <c r="G200" s="20" t="s">
         <v>891</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -18041,7 +18039,7 @@
       <c r="F201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G201" s="22" t="s">
+      <c r="G201" s="20" t="s">
         <v>895</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -18077,7 +18075,7 @@
       <c r="F202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G202" s="22" t="s">
+      <c r="G202" s="20" t="s">
         <v>899</v>
       </c>
       <c r="H202" s="1" t="s">
@@ -18113,7 +18111,7 @@
       <c r="F203" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G203" s="22" t="s">
+      <c r="G203" s="20" t="s">
         <v>903</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -18149,7 +18147,7 @@
       <c r="F204" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G204" s="22" t="s">
+      <c r="G204" s="20" t="s">
         <v>907</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -18185,7 +18183,7 @@
       <c r="F205" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G205" s="22" t="s">
+      <c r="G205" s="20" t="s">
         <v>912</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -18221,7 +18219,7 @@
       <c r="F206" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G206" s="22" t="s">
+      <c r="G206" s="20" t="s">
         <v>917</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -18257,7 +18255,7 @@
       <c r="F207" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G207" s="22" t="s">
+      <c r="G207" s="20" t="s">
         <v>922</v>
       </c>
       <c r="H207" s="1" t="s">
@@ -18293,7 +18291,7 @@
       <c r="F208" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G208" s="22" t="s">
+      <c r="G208" s="20" t="s">
         <v>216</v>
       </c>
       <c r="H208" s="8" t="s">
@@ -18329,7 +18327,7 @@
       <c r="F209" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G209" s="22" t="s">
+      <c r="G209" s="20" t="s">
         <v>931</v>
       </c>
       <c r="H209" s="1" t="s">
@@ -18365,7 +18363,7 @@
       <c r="F210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G210" s="22" t="s">
+      <c r="G210" s="20" t="s">
         <v>934</v>
       </c>
       <c r="H210" s="1" t="s">
@@ -18401,7 +18399,7 @@
       <c r="F211" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G211" s="22" t="s">
+      <c r="G211" s="20" t="s">
         <v>939</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -18437,7 +18435,7 @@
       <c r="F212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G212" s="22" t="s">
+      <c r="G212" s="20" t="s">
         <v>944</v>
       </c>
       <c r="H212" s="1" t="s">
@@ -18473,7 +18471,7 @@
       <c r="F213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G213" s="22" t="s">
+      <c r="G213" s="20" t="s">
         <v>949</v>
       </c>
       <c r="H213" s="1"/>
@@ -18507,7 +18505,7 @@
       <c r="F214" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G214" s="22" t="s">
+      <c r="G214" s="20" t="s">
         <v>954</v>
       </c>
       <c r="H214" s="1" t="s">
@@ -18543,7 +18541,7 @@
       <c r="F215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G215" s="22" t="s">
+      <c r="G215" s="20" t="s">
         <v>958</v>
       </c>
       <c r="H215" s="1" t="s">
@@ -18579,7 +18577,7 @@
       <c r="F216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G216" s="22" t="s">
+      <c r="G216" s="20" t="s">
         <v>962</v>
       </c>
       <c r="H216" s="1" t="s">
@@ -18615,7 +18613,7 @@
       <c r="F217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G217" s="22" t="s">
+      <c r="G217" s="20" t="s">
         <v>966</v>
       </c>
       <c r="H217" s="1" t="s">
@@ -18651,7 +18649,7 @@
       <c r="F218" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G218" s="22" t="s">
+      <c r="G218" s="20" t="s">
         <v>969</v>
       </c>
       <c r="H218" s="1" t="s">
@@ -18687,7 +18685,7 @@
       <c r="F219" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G219" s="22" t="s">
+      <c r="G219" s="20" t="s">
         <v>973</v>
       </c>
       <c r="H219" s="1" t="s">
@@ -18723,7 +18721,7 @@
       <c r="F220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G220" s="22" t="s">
+      <c r="G220" s="20" t="s">
         <v>978</v>
       </c>
       <c r="H220" s="1" t="s">
@@ -18759,7 +18757,7 @@
       <c r="F221" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G221" s="22" t="s">
+      <c r="G221" s="20" t="s">
         <v>982</v>
       </c>
       <c r="H221" s="1" t="s">
@@ -18795,7 +18793,7 @@
       <c r="F222" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G222" s="22" t="s">
+      <c r="G222" s="20" t="s">
         <v>988</v>
       </c>
       <c r="H222" s="1" t="s">
@@ -18829,7 +18827,7 @@
       <c r="F223" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G223" s="22" t="s">
+      <c r="G223" s="20" t="s">
         <v>993</v>
       </c>
       <c r="H223" s="1" t="s">
@@ -18865,7 +18863,7 @@
       <c r="F224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G224" s="22" t="s">
+      <c r="G224" s="20" t="s">
         <v>993</v>
       </c>
       <c r="H224" s="1" t="s">
@@ -18901,7 +18899,7 @@
       <c r="F225" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G225" s="22" t="s">
+      <c r="G225" s="20" t="s">
         <v>1001</v>
       </c>
       <c r="H225" s="1" t="s">
@@ -18937,7 +18935,7 @@
       <c r="F226" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G226" s="22" t="s">
+      <c r="G226" s="20" t="s">
         <v>1006</v>
       </c>
       <c r="H226" s="1" t="s">
@@ -18973,7 +18971,7 @@
       <c r="F227" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G227" s="22" t="s">
+      <c r="G227" s="20" t="s">
         <v>1010</v>
       </c>
       <c r="H227" s="1" t="s">
@@ -19009,7 +19007,7 @@
       <c r="F228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G228" s="22" t="s">
+      <c r="G228" s="20" t="s">
         <v>1014</v>
       </c>
       <c r="H228" s="1" t="s">
@@ -19045,7 +19043,7 @@
       <c r="F229" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G229" s="22" t="s">
+      <c r="G229" s="20" t="s">
         <v>1018</v>
       </c>
       <c r="H229" s="1" t="s">
@@ -19081,7 +19079,7 @@
       <c r="F230" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G230" s="22" t="s">
+      <c r="G230" s="20" t="s">
         <v>1023</v>
       </c>
       <c r="H230" s="1" t="s">
@@ -19117,7 +19115,7 @@
       <c r="F231" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G231" s="22"/>
+      <c r="G231" s="20"/>
       <c r="H231" s="1" t="s">
         <v>40</v>
       </c>
@@ -19151,7 +19149,7 @@
       <c r="F232" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G232" s="22"/>
+      <c r="G232" s="20"/>
       <c r="H232" s="1" t="s">
         <v>7</v>
       </c>
@@ -19185,7 +19183,7 @@
       <c r="F233" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G233" s="22"/>
+      <c r="G233" s="20"/>
       <c r="H233" s="1" t="s">
         <v>7</v>
       </c>
@@ -19219,7 +19217,7 @@
       <c r="F234" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G234" s="22"/>
+      <c r="G234" s="20"/>
       <c r="H234" s="1" t="s">
         <v>26</v>
       </c>
@@ -19253,7 +19251,7 @@
       <c r="F235" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G235" s="22"/>
+      <c r="G235" s="20"/>
       <c r="H235" s="1" t="s">
         <v>26</v>
       </c>
@@ -19287,7 +19285,7 @@
       <c r="F236" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G236" s="22"/>
+      <c r="G236" s="20"/>
       <c r="H236" s="1" t="s">
         <v>26</v>
       </c>
@@ -19321,7 +19319,7 @@
       <c r="F237" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G237" s="22"/>
+      <c r="G237" s="20"/>
       <c r="H237" s="1" t="s">
         <v>40</v>
       </c>
@@ -19355,7 +19353,7 @@
       <c r="F238" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G238" s="22"/>
+      <c r="G238" s="20"/>
       <c r="H238" s="1" t="s">
         <v>26</v>
       </c>
@@ -19389,7 +19387,7 @@
       <c r="F239" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="G239" s="22"/>
+      <c r="G239" s="20"/>
       <c r="H239" s="1" t="s">
         <v>26</v>
       </c>
@@ -19421,7 +19419,7 @@
       <c r="F240" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G240" s="22"/>
+      <c r="G240" s="20"/>
       <c r="H240" s="1" t="s">
         <v>26</v>
       </c>
@@ -19455,7 +19453,7 @@
       <c r="F241" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G241" s="22"/>
+      <c r="G241" s="20"/>
       <c r="H241" s="1" t="s">
         <v>14</v>
       </c>
@@ -19489,7 +19487,7 @@
       <c r="F242" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G242" s="22" t="s">
+      <c r="G242" s="20" t="s">
         <v>1063</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -19525,7 +19523,7 @@
       <c r="F243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G243" s="22" t="s">
+      <c r="G243" s="20" t="s">
         <v>1068</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -19561,7 +19559,7 @@
       <c r="F244" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G244" s="22" t="s">
+      <c r="G244" s="20" t="s">
         <v>1072</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -19597,7 +19595,7 @@
       <c r="F245" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G245" s="22"/>
+      <c r="G245" s="20"/>
       <c r="H245" s="1" t="s">
         <v>26</v>
       </c>
@@ -19631,7 +19629,7 @@
       <c r="F246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G246" s="22" t="s">
+      <c r="G246" s="20" t="s">
         <v>1080</v>
       </c>
       <c r="H246" s="1" t="s">
@@ -19667,7 +19665,7 @@
       <c r="F247" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G247" s="22" t="s">
+      <c r="G247" s="20" t="s">
         <v>1097</v>
       </c>
       <c r="H247" s="1" t="s">
@@ -19703,7 +19701,7 @@
       <c r="F248" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G248" s="22" t="s">
+      <c r="G248" s="20" t="s">
         <v>1098</v>
       </c>
       <c r="H248" s="1" t="s">
@@ -19739,7 +19737,7 @@
       <c r="F249" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="G249" s="22"/>
+      <c r="G249" s="20"/>
       <c r="H249" s="1" t="s">
         <v>26</v>
       </c>
@@ -19773,7 +19771,7 @@
       <c r="F250" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G250" s="22" t="s">
+      <c r="G250" s="20" t="s">
         <v>1106</v>
       </c>
       <c r="H250" s="1" t="s">
@@ -19806,7 +19804,7 @@
       <c r="F251" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G251" s="22" t="s">
+      <c r="G251" s="20" t="s">
         <v>1110</v>
       </c>
       <c r="H251" s="1" t="s">
@@ -19839,7 +19837,7 @@
       <c r="F252" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G252" s="22" t="s">
+      <c r="G252" s="20" t="s">
         <v>1113</v>
       </c>
       <c r="H252" s="1" t="s">
@@ -19872,7 +19870,7 @@
       <c r="F253" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G253" s="22"/>
+      <c r="G253" s="20"/>
       <c r="H253" s="1" t="s">
         <v>26</v>
       </c>
@@ -19903,7 +19901,7 @@
       <c r="F254" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="G254" s="22" t="s">
+      <c r="G254" s="20" t="s">
         <v>1120</v>
       </c>
       <c r="H254" s="1" t="s">
@@ -19934,7 +19932,7 @@
         <v>1126</v>
       </c>
       <c r="F255" s="6"/>
-      <c r="G255" s="22"/>
+      <c r="G255" s="20"/>
       <c r="H255" s="1" t="s">
         <v>464</v>
       </c>
@@ -19965,7 +19963,7 @@
       <c r="F256" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G256" s="22" t="s">
+      <c r="G256" s="20" t="s">
         <v>1130</v>
       </c>
       <c r="H256" s="1" t="s">
@@ -19998,7 +19996,7 @@
       <c r="F257" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G257" s="22" t="s">
+      <c r="G257" s="20" t="s">
         <v>1134</v>
       </c>
       <c r="H257" s="1" t="s">
@@ -20031,7 +20029,7 @@
       <c r="F258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G258" s="22" t="s">
+      <c r="G258" s="20" t="s">
         <v>1138</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -20064,7 +20062,7 @@
       <c r="F259" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G259" s="22" t="s">
+      <c r="G259" s="20" t="s">
         <v>1142</v>
       </c>
       <c r="H259" s="1" t="s">
@@ -20097,7 +20095,7 @@
       <c r="F260" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G260" s="22" t="s">
+      <c r="G260" s="20" t="s">
         <v>1146</v>
       </c>
       <c r="H260" s="1" t="s">
@@ -20130,7 +20128,7 @@
       <c r="F261" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G261" s="22" t="s">
+      <c r="G261" s="20" t="s">
         <v>1150</v>
       </c>
       <c r="H261" s="1" t="s">
@@ -20163,7 +20161,7 @@
       <c r="F262" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G262" s="22" t="s">
+      <c r="G262" s="20" t="s">
         <v>1153</v>
       </c>
       <c r="H262" s="1" t="s">
@@ -20196,7 +20194,7 @@
       <c r="F263" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G263" s="22" t="s">
+      <c r="G263" s="20" t="s">
         <v>1157</v>
       </c>
       <c r="H263" s="1" t="s">
@@ -20229,7 +20227,7 @@
       <c r="F264" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G264" s="25" t="s">
+      <c r="G264" s="23" t="s">
         <v>1161</v>
       </c>
       <c r="H264" s="1" t="s">
@@ -20262,7 +20260,7 @@
       <c r="F265" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G265" s="22" t="s">
+      <c r="G265" s="20" t="s">
         <v>1163</v>
       </c>
       <c r="H265" s="1" t="s">
@@ -20295,7 +20293,7 @@
       <c r="F266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G266" s="22" t="s">
+      <c r="G266" s="20" t="s">
         <v>1167</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -20328,7 +20326,7 @@
       <c r="F267" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G267" s="22" t="s">
+      <c r="G267" s="20" t="s">
         <v>1172</v>
       </c>
       <c r="H267" s="1" t="s">
@@ -20361,7 +20359,7 @@
       <c r="F268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G268" s="22" t="s">
+      <c r="G268" s="20" t="s">
         <v>1176</v>
       </c>
       <c r="H268" s="1" t="s">
@@ -20394,7 +20392,7 @@
       <c r="F269" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G269" s="22" t="s">
+      <c r="G269" s="20" t="s">
         <v>1180</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -20427,7 +20425,7 @@
       <c r="F270" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G270" s="22" t="s">
+      <c r="G270" s="20" t="s">
         <v>1185</v>
       </c>
       <c r="H270" s="1" t="s">
@@ -20460,7 +20458,7 @@
       <c r="F271" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G271" s="22" t="s">
+      <c r="G271" s="20" t="s">
         <v>1188</v>
       </c>
       <c r="H271" s="1" t="s">
@@ -20493,7 +20491,7 @@
       <c r="F272" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G272" s="22"/>
+      <c r="G272" s="20"/>
       <c r="H272" s="1" t="s">
         <v>7</v>
       </c>
@@ -20524,7 +20522,7 @@
       <c r="F273" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G273" s="22"/>
+      <c r="G273" s="20"/>
       <c r="H273" s="1" t="s">
         <v>26</v>
       </c>
@@ -20555,7 +20553,7 @@
       <c r="F274" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G274" s="22"/>
+      <c r="G274" s="20"/>
       <c r="H274" s="1" t="s">
         <v>14</v>
       </c>
@@ -20586,7 +20584,7 @@
       <c r="F275" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G275" s="22"/>
+      <c r="G275" s="20"/>
       <c r="H275" s="1" t="s">
         <v>26</v>
       </c>
@@ -20617,7 +20615,7 @@
       <c r="F276" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G276" s="22"/>
+      <c r="G276" s="20"/>
       <c r="H276" s="1" t="s">
         <v>66</v>
       </c>
@@ -20648,7 +20646,7 @@
       <c r="F277" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G277" s="22"/>
+      <c r="G277" s="20"/>
       <c r="H277" s="1" t="s">
         <v>40</v>
       </c>
@@ -20679,7 +20677,7 @@
       <c r="F278" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G278" s="22" t="s">
+      <c r="G278" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H278" s="1" t="s">
@@ -20712,7 +20710,7 @@
       <c r="F279" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G279" s="22" t="s">
+      <c r="G279" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H279" s="1" t="s">
@@ -20745,7 +20743,7 @@
       <c r="F280" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G280" s="22" t="s">
+      <c r="G280" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H280" s="1" t="s">
@@ -20778,7 +20776,7 @@
       <c r="F281" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G281" s="22" t="s">
+      <c r="G281" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H281" s="1" t="s">
@@ -20811,7 +20809,7 @@
       <c r="F282" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G282" s="22" t="s">
+      <c r="G282" s="20" t="s">
         <v>1220</v>
       </c>
       <c r="H282" s="1" t="s">
@@ -20844,7 +20842,7 @@
       <c r="F283" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G283" s="22"/>
+      <c r="G283" s="20"/>
       <c r="H283" s="1" t="s">
         <v>14</v>
       </c>
@@ -20875,7 +20873,7 @@
       <c r="F284" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G284" s="22"/>
+      <c r="G284" s="20"/>
       <c r="H284" s="1" t="s">
         <v>464</v>
       </c>
@@ -20906,7 +20904,7 @@
       <c r="F285" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G285" s="22" t="s">
+      <c r="G285" s="20" t="s">
         <v>1231</v>
       </c>
       <c r="H285" s="1" t="s">
@@ -20939,7 +20937,7 @@
       <c r="F286" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G286" s="22" t="s">
+      <c r="G286" s="20" t="s">
         <v>1235</v>
       </c>
       <c r="H286" s="1" t="s">
@@ -20972,7 +20970,7 @@
       <c r="F287" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G287" s="22" t="s">
+      <c r="G287" s="20" t="s">
         <v>1238</v>
       </c>
       <c r="H287" s="1" t="s">
@@ -21005,7 +21003,7 @@
       <c r="F288" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G288" s="22" t="s">
+      <c r="G288" s="20" t="s">
         <v>1242</v>
       </c>
       <c r="H288" s="1" t="s">
@@ -21038,7 +21036,7 @@
       <c r="F289" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G289" s="22" t="s">
+      <c r="G289" s="20" t="s">
         <v>1244</v>
       </c>
       <c r="H289" s="1" t="s">
@@ -21071,7 +21069,7 @@
       <c r="F290" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G290" s="22" t="s">
+      <c r="G290" s="20" t="s">
         <v>1246</v>
       </c>
       <c r="H290" s="1" t="s">
@@ -21104,7 +21102,7 @@
       <c r="F291" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G291" s="22" t="s">
+      <c r="G291" s="20" t="s">
         <v>1249</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -21137,7 +21135,7 @@
       <c r="F292" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G292" s="22" t="s">
+      <c r="G292" s="20" t="s">
         <v>1251</v>
       </c>
       <c r="H292" s="1" t="s">
@@ -21170,7 +21168,7 @@
       <c r="F293" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G293" s="22"/>
+      <c r="G293" s="20"/>
       <c r="H293" s="1" t="s">
         <v>26</v>
       </c>
@@ -21201,7 +21199,7 @@
       <c r="F294" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G294" s="22" t="s">
+      <c r="G294" s="20" t="s">
         <v>1255</v>
       </c>
       <c r="H294" s="1" t="s">
@@ -21234,7 +21232,7 @@
       <c r="F295" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G295" s="22" t="s">
+      <c r="G295" s="20" t="s">
         <v>1259</v>
       </c>
       <c r="H295" s="1" t="s">
@@ -21267,7 +21265,7 @@
       <c r="F296" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G296" s="22" t="s">
+      <c r="G296" s="20" t="s">
         <v>1263</v>
       </c>
       <c r="H296" s="1" t="s">
@@ -21300,7 +21298,7 @@
       <c r="F297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G297" s="22" t="s">
+      <c r="G297" s="20" t="s">
         <v>1266</v>
       </c>
       <c r="H297" s="1" t="s">
@@ -21333,7 +21331,7 @@
       <c r="F298" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G298" s="22"/>
+      <c r="G298" s="20"/>
       <c r="H298" s="1" t="s">
         <v>26</v>
       </c>
@@ -21364,7 +21362,7 @@
       <c r="F299" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G299" s="22" t="s">
+      <c r="G299" s="20" t="s">
         <v>1272</v>
       </c>
       <c r="H299" s="1" t="s">
@@ -21397,7 +21395,7 @@
       <c r="F300" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G300" s="22" t="s">
+      <c r="G300" s="20" t="s">
         <v>1277</v>
       </c>
       <c r="H300" s="1" t="s">
@@ -21428,7 +21426,7 @@
         <v>1282</v>
       </c>
       <c r="F301" s="6"/>
-      <c r="G301" s="22" t="s">
+      <c r="G301" s="20" t="s">
         <v>1281</v>
       </c>
       <c r="H301" s="1" t="s">
@@ -21461,7 +21459,7 @@
       <c r="F302" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G302" s="22" t="s">
+      <c r="G302" s="20" t="s">
         <v>1285</v>
       </c>
       <c r="H302" s="1" t="s">
@@ -21494,7 +21492,7 @@
       <c r="F303" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G303" s="22" t="s">
+      <c r="G303" s="20" t="s">
         <v>1289</v>
       </c>
       <c r="H303" s="1" t="s">
@@ -21527,7 +21525,7 @@
       <c r="F304" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G304" s="22" t="s">
+      <c r="G304" s="20" t="s">
         <v>1293</v>
       </c>
       <c r="H304" s="1" t="s">
@@ -21560,7 +21558,7 @@
       <c r="F305" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G305" s="22" t="s">
+      <c r="G305" s="20" t="s">
         <v>1297</v>
       </c>
       <c r="H305" s="1" t="s">
@@ -21593,7 +21591,7 @@
       <c r="F306" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G306" s="22" t="s">
+      <c r="G306" s="20" t="s">
         <v>1299</v>
       </c>
       <c r="H306" s="1" t="s">
@@ -21626,7 +21624,7 @@
       <c r="F307" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G307" s="22" t="s">
+      <c r="G307" s="20" t="s">
         <v>1303</v>
       </c>
       <c r="H307" s="1" t="s">
@@ -21659,7 +21657,7 @@
       <c r="F308" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G308" s="22" t="s">
+      <c r="G308" s="20" t="s">
         <v>1308</v>
       </c>
       <c r="H308" s="1" t="s">
@@ -21692,7 +21690,7 @@
       <c r="F309" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G309" s="22" t="s">
+      <c r="G309" s="20" t="s">
         <v>1313</v>
       </c>
       <c r="H309" s="1" t="s">
@@ -21725,7 +21723,7 @@
       <c r="F310" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G310" s="22" t="s">
+      <c r="G310" s="20" t="s">
         <v>1317</v>
       </c>
       <c r="H310" s="1" t="s">
@@ -21758,7 +21756,7 @@
       <c r="F311" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G311" s="25" t="s">
+      <c r="G311" s="23" t="s">
         <v>1321</v>
       </c>
       <c r="H311" s="1" t="s">
@@ -21791,7 +21789,7 @@
       <c r="F312" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G312" s="25" t="s">
+      <c r="G312" s="23" t="s">
         <v>1326</v>
       </c>
       <c r="H312" s="1" t="s">
@@ -21824,7 +21822,7 @@
       <c r="F313" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G313" s="22"/>
+      <c r="G313" s="20"/>
       <c r="H313" s="1" t="s">
         <v>26</v>
       </c>
@@ -21855,7 +21853,7 @@
       <c r="F314" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G314" s="22"/>
+      <c r="G314" s="20"/>
       <c r="H314" s="1" t="s">
         <v>14</v>
       </c>
@@ -21886,7 +21884,7 @@
       <c r="F315" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G315" s="22"/>
+      <c r="G315" s="20"/>
       <c r="H315" s="1" t="s">
         <v>14</v>
       </c>
@@ -21917,7 +21915,7 @@
       <c r="F316" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G316" s="22"/>
+      <c r="G316" s="20"/>
       <c r="H316" s="1" t="s">
         <v>226</v>
       </c>
@@ -21946,7 +21944,7 @@
         <v>1344</v>
       </c>
       <c r="F317" s="6"/>
-      <c r="G317" s="22"/>
+      <c r="G317" s="20"/>
       <c r="H317" s="1" t="s">
         <v>26</v>
       </c>
@@ -21975,7 +21973,7 @@
         <v>1347</v>
       </c>
       <c r="F318" s="6"/>
-      <c r="G318" s="22"/>
+      <c r="G318" s="20"/>
       <c r="H318" s="1" t="s">
         <v>7</v>
       </c>
@@ -22006,7 +22004,7 @@
       <c r="F319" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G319" s="22"/>
+      <c r="G319" s="20"/>
       <c r="H319" s="1" t="s">
         <v>26</v>
       </c>
@@ -22037,7 +22035,7 @@
       <c r="F320" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G320" s="22"/>
+      <c r="G320" s="20"/>
       <c r="H320" s="1" t="s">
         <v>40</v>
       </c>
@@ -22068,7 +22066,7 @@
       <c r="F321" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G321" s="22"/>
+      <c r="G321" s="20"/>
       <c r="H321" s="1" t="s">
         <v>40</v>
       </c>
@@ -22099,7 +22097,7 @@
       <c r="F322" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G322" s="22"/>
+      <c r="G322" s="20"/>
       <c r="H322" s="1" t="s">
         <v>26</v>
       </c>
@@ -22130,7 +22128,7 @@
       <c r="F323" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G323" s="22"/>
+      <c r="G323" s="20"/>
       <c r="H323" s="1" t="s">
         <v>40</v>
       </c>
@@ -22161,7 +22159,7 @@
       <c r="F324" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G324" s="22" t="s">
+      <c r="G324" s="20" t="s">
         <v>1368</v>
       </c>
       <c r="H324" s="1" t="s">
@@ -22194,7 +22192,7 @@
       <c r="F325" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G325" s="22"/>
+      <c r="G325" s="20"/>
       <c r="H325" s="1" t="s">
         <v>100</v>
       </c>
@@ -22225,7 +22223,7 @@
       <c r="F326" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G326" s="22"/>
+      <c r="G326" s="20"/>
       <c r="H326" s="1" t="s">
         <v>100</v>
       </c>
@@ -22256,7 +22254,7 @@
       <c r="F327" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G327" s="22"/>
+      <c r="G327" s="20"/>
       <c r="H327" s="1" t="s">
         <v>26</v>
       </c>
@@ -22287,7 +22285,7 @@
       <c r="F328" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G328" s="22"/>
+      <c r="G328" s="20"/>
       <c r="H328" s="1" t="s">
         <v>206</v>
       </c>
@@ -22318,7 +22316,7 @@
       <c r="F329" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G329" s="22"/>
+      <c r="G329" s="20"/>
       <c r="H329" s="1" t="s">
         <v>40</v>
       </c>
@@ -22349,7 +22347,7 @@
       <c r="F330" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G330" s="22" t="s">
+      <c r="G330" s="20" t="s">
         <v>1385</v>
       </c>
       <c r="H330" s="1" t="s">
@@ -22382,7 +22380,7 @@
       <c r="F331" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G331" s="22" t="s">
+      <c r="G331" s="20" t="s">
         <v>1390</v>
       </c>
       <c r="H331" s="1" t="s">
@@ -22415,7 +22413,7 @@
       <c r="F332" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G332" s="22" t="s">
+      <c r="G332" s="20" t="s">
         <v>1393</v>
       </c>
       <c r="H332" s="1" t="s">
@@ -22448,7 +22446,7 @@
       <c r="F333" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G333" s="22" t="s">
+      <c r="G333" s="20" t="s">
         <v>1398</v>
       </c>
       <c r="H333" s="1" t="s">
@@ -22481,7 +22479,7 @@
       <c r="F334" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G334" s="22" t="s">
+      <c r="G334" s="20" t="s">
         <v>1402</v>
       </c>
       <c r="H334" s="1" t="s">
@@ -22514,7 +22512,7 @@
       <c r="F335" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G335" s="22" t="s">
+      <c r="G335" s="20" t="s">
         <v>1406</v>
       </c>
       <c r="H335" s="1" t="s">
@@ -22547,7 +22545,7 @@
       <c r="F336" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G336" s="22"/>
+      <c r="G336" s="20"/>
       <c r="H336" s="1" t="s">
         <v>464</v>
       </c>
@@ -22578,7 +22576,7 @@
       <c r="F337" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G337" s="22"/>
+      <c r="G337" s="20"/>
       <c r="H337" s="1" t="s">
         <v>26</v>
       </c>
@@ -22609,7 +22607,7 @@
       <c r="F338" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G338" s="22"/>
+      <c r="G338" s="20"/>
       <c r="H338" s="1" t="s">
         <v>989</v>
       </c>
@@ -22640,7 +22638,7 @@
       <c r="F339" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G339" s="22"/>
+      <c r="G339" s="20"/>
       <c r="H339" s="1" t="s">
         <v>26</v>
       </c>
@@ -22671,7 +22669,7 @@
       <c r="F340" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G340" s="22"/>
+      <c r="G340" s="20"/>
       <c r="H340" s="1" t="s">
         <v>26</v>
       </c>
@@ -22702,7 +22700,7 @@
       <c r="F341" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G341" s="22"/>
+      <c r="G341" s="20"/>
       <c r="H341" s="1" t="s">
         <v>26</v>
       </c>
@@ -22733,7 +22731,7 @@
       <c r="F342" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G342" s="22"/>
+      <c r="G342" s="20"/>
       <c r="H342" s="1" t="s">
         <v>26</v>
       </c>
@@ -22764,7 +22762,7 @@
       <c r="F343" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G343" s="22"/>
+      <c r="G343" s="20"/>
       <c r="H343" s="1" t="s">
         <v>26</v>
       </c>
@@ -22795,7 +22793,7 @@
       <c r="F344" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G344" s="22"/>
+      <c r="G344" s="20"/>
       <c r="H344" s="1" t="s">
         <v>26</v>
       </c>
@@ -22826,7 +22824,7 @@
       <c r="F345" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G345" s="22"/>
+      <c r="G345" s="20"/>
       <c r="H345" s="1" t="s">
         <v>26</v>
       </c>
@@ -22857,7 +22855,7 @@
       <c r="F346" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G346" s="22"/>
+      <c r="G346" s="20"/>
       <c r="H346" s="1" t="s">
         <v>26</v>
       </c>
@@ -22888,7 +22886,7 @@
       <c r="F347" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G347" s="22"/>
+      <c r="G347" s="20"/>
       <c r="H347" s="1" t="s">
         <v>7</v>
       </c>
@@ -22919,7 +22917,7 @@
       <c r="F348" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G348" s="22"/>
+      <c r="G348" s="20"/>
       <c r="H348" s="1" t="s">
         <v>26</v>
       </c>
@@ -22950,7 +22948,7 @@
       <c r="F349" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G349" s="22"/>
+      <c r="G349" s="20"/>
       <c r="H349" s="1" t="s">
         <v>40</v>
       </c>
@@ -22981,7 +22979,7 @@
       <c r="F350" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G350" s="22"/>
+      <c r="G350" s="20"/>
       <c r="H350" s="1" t="s">
         <v>26</v>
       </c>
@@ -23012,7 +23010,7 @@
       <c r="F351" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G351" s="22"/>
+      <c r="G351" s="20"/>
       <c r="H351" s="1" t="s">
         <v>206</v>
       </c>
@@ -23043,7 +23041,7 @@
       <c r="F352" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G352" s="22"/>
+      <c r="G352" s="20"/>
       <c r="H352" s="1" t="s">
         <v>40</v>
       </c>
@@ -23074,7 +23072,7 @@
       <c r="F353" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G353" s="22"/>
+      <c r="G353" s="20"/>
       <c r="H353" s="1" t="s">
         <v>40</v>
       </c>
@@ -23105,7 +23103,7 @@
       <c r="F354" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G354" s="22"/>
+      <c r="G354" s="20"/>
       <c r="H354" s="1" t="s">
         <v>40</v>
       </c>
@@ -23136,7 +23134,7 @@
       <c r="F355" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G355" s="22"/>
+      <c r="G355" s="20"/>
       <c r="H355" s="1" t="s">
         <v>26</v>
       </c>
@@ -23167,7 +23165,7 @@
       <c r="F356" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G356" s="22"/>
+      <c r="G356" s="20"/>
       <c r="H356" s="1" t="s">
         <v>1455</v>
       </c>
@@ -23198,7 +23196,7 @@
       <c r="F357" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G357" s="22"/>
+      <c r="G357" s="20"/>
       <c r="H357" s="1" t="s">
         <v>14</v>
       </c>
@@ -23229,7 +23227,7 @@
       <c r="F358" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G358" s="22"/>
+      <c r="G358" s="20"/>
       <c r="H358" s="1" t="s">
         <v>40</v>
       </c>
@@ -23260,7 +23258,7 @@
       <c r="F359" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G359" s="22"/>
+      <c r="G359" s="20"/>
       <c r="H359" s="1" t="s">
         <v>7</v>
       </c>
@@ -23291,7 +23289,7 @@
       <c r="F360" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G360" s="22"/>
+      <c r="G360" s="20"/>
       <c r="H360" s="1" t="s">
         <v>26</v>
       </c>
@@ -23322,7 +23320,7 @@
       <c r="F361" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G361" s="22"/>
+      <c r="G361" s="20"/>
       <c r="H361" s="1" t="s">
         <v>66</v>
       </c>
@@ -23353,7 +23351,7 @@
       <c r="F362" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G362" s="22"/>
+      <c r="G362" s="20"/>
       <c r="H362" s="1" t="s">
         <v>100</v>
       </c>
@@ -23384,7 +23382,7 @@
       <c r="F363" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G363" s="22"/>
+      <c r="G363" s="20"/>
       <c r="H363" s="1" t="s">
         <v>40</v>
       </c>
@@ -23415,7 +23413,7 @@
       <c r="F364" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G364" s="22"/>
+      <c r="G364" s="20"/>
       <c r="H364" s="1" t="s">
         <v>100</v>
       </c>
@@ -23446,7 +23444,7 @@
       <c r="F365" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G365" s="22"/>
+      <c r="G365" s="20"/>
       <c r="H365" s="1" t="s">
         <v>26</v>
       </c>
@@ -23477,7 +23475,7 @@
       <c r="F366" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G366" s="25" t="s">
+      <c r="G366" s="23" t="s">
         <v>1490</v>
       </c>
       <c r="H366" s="1" t="s">
@@ -23510,7 +23508,7 @@
       <c r="F367" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G367" s="22"/>
+      <c r="G367" s="20"/>
       <c r="H367" s="1" t="s">
         <v>26</v>
       </c>
@@ -23541,7 +23539,7 @@
       <c r="F368" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G368" s="22" t="s">
+      <c r="G368" s="20" t="s">
         <v>1497</v>
       </c>
       <c r="H368" s="1" t="s">
@@ -23574,7 +23572,7 @@
       <c r="F369" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G369" s="22" t="s">
+      <c r="G369" s="20" t="s">
         <v>1499</v>
       </c>
       <c r="H369" s="1" t="s">
@@ -23607,7 +23605,7 @@
       <c r="F370" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G370" s="22" t="s">
+      <c r="G370" s="20" t="s">
         <v>1501</v>
       </c>
       <c r="H370" s="1" t="s">
@@ -23640,7 +23638,7 @@
       <c r="F371" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G371" s="22" t="s">
+      <c r="G371" s="20" t="s">
         <v>1506</v>
       </c>
       <c r="H371" s="1" t="s">
@@ -23673,7 +23671,7 @@
       <c r="F372" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G372" s="22" t="s">
+      <c r="G372" s="20" t="s">
         <v>1508</v>
       </c>
       <c r="H372" s="1" t="s">
@@ -23706,7 +23704,7 @@
       <c r="F373" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G373" s="22" t="s">
+      <c r="G373" s="20" t="s">
         <v>1510</v>
       </c>
       <c r="H373" s="1" t="s">
@@ -23739,7 +23737,7 @@
       <c r="F374" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G374" s="22"/>
+      <c r="G374" s="20"/>
       <c r="H374" s="1" t="s">
         <v>26</v>
       </c>
@@ -23770,7 +23768,7 @@
       <c r="F375" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G375" s="22"/>
+      <c r="G375" s="20"/>
       <c r="H375" s="1" t="s">
         <v>26</v>
       </c>
@@ -23801,7 +23799,7 @@
       <c r="F376" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G376" s="22" t="s">
+      <c r="G376" s="20" t="s">
         <v>1519</v>
       </c>
       <c r="H376" s="1" t="s">
@@ -23834,7 +23832,7 @@
       <c r="F377" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G377" s="22" t="s">
+      <c r="G377" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H377" s="8" t="s">
@@ -23867,7 +23865,7 @@
       <c r="F378" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G378" s="22"/>
+      <c r="G378" s="20"/>
       <c r="H378" s="1" t="s">
         <v>26</v>
       </c>
@@ -23898,7 +23896,7 @@
       <c r="F379" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G379" s="22" t="s">
+      <c r="G379" s="20" t="s">
         <v>1531</v>
       </c>
       <c r="H379" s="1" t="s">
@@ -23931,7 +23929,7 @@
       <c r="F380" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G380" s="25" t="s">
+      <c r="G380" s="23" t="s">
         <v>1535</v>
       </c>
       <c r="H380" s="1" t="s">
@@ -23964,7 +23962,7 @@
       <c r="F381" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G381" s="22" t="s">
+      <c r="G381" s="20" t="s">
         <v>1540</v>
       </c>
       <c r="H381" s="1" t="s">
@@ -23997,7 +23995,7 @@
       <c r="F382" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G382" s="22" t="s">
+      <c r="G382" s="20" t="s">
         <v>1541</v>
       </c>
       <c r="H382" s="1" t="s">
@@ -24030,7 +24028,7 @@
       <c r="F383" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G383" s="22" t="s">
+      <c r="G383" s="20" t="s">
         <v>1546</v>
       </c>
       <c r="H383" s="1" t="s">
@@ -24063,7 +24061,7 @@
       <c r="F384" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G384" s="22" t="s">
+      <c r="G384" s="20" t="s">
         <v>1551</v>
       </c>
       <c r="H384" s="1" t="s">
@@ -24096,7 +24094,7 @@
       <c r="F385" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G385" s="22" t="s">
+      <c r="G385" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H385" s="1" t="s">
@@ -24129,7 +24127,7 @@
       <c r="F386" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G386" s="22" t="s">
+      <c r="G386" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="H386" s="1" t="s">
@@ -24162,7 +24160,7 @@
       <c r="F387" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G387" s="22" t="s">
+      <c r="G387" s="20" t="s">
         <v>1080</v>
       </c>
       <c r="H387" s="1" t="s">
@@ -24195,7 +24193,7 @@
       <c r="F388" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G388" s="22" t="s">
+      <c r="G388" s="20" t="s">
         <v>1567</v>
       </c>
       <c r="H388" s="1" t="s">
@@ -24228,7 +24226,7 @@
       <c r="F389" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G389" s="22" t="s">
+      <c r="G389" s="20" t="s">
         <v>1568</v>
       </c>
       <c r="H389" s="1" t="s">
@@ -24261,7 +24259,7 @@
       <c r="F390" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G390" s="22" t="s">
+      <c r="G390" s="20" t="s">
         <v>1572</v>
       </c>
       <c r="H390" s="1" t="s">
@@ -24294,7 +24292,7 @@
       <c r="F391" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G391" s="22" t="s">
+      <c r="G391" s="20" t="s">
         <v>1068</v>
       </c>
       <c r="H391" s="1" t="s">
@@ -24327,7 +24325,7 @@
       <c r="F392" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G392" s="22" t="s">
+      <c r="G392" s="20" t="s">
         <v>1577</v>
       </c>
       <c r="H392" s="1" t="s">
@@ -24360,7 +24358,7 @@
       <c r="F393" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G393" s="22" t="s">
+      <c r="G393" s="20" t="s">
         <v>276</v>
       </c>
       <c r="H393" s="1" t="s">
@@ -24393,7 +24391,7 @@
       <c r="F394" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G394" s="22" t="s">
+      <c r="G394" s="20" t="s">
         <v>286</v>
       </c>
       <c r="H394" s="1" t="s">
@@ -24426,7 +24424,7 @@
       <c r="F395" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G395" s="22" t="s">
+      <c r="G395" s="20" t="s">
         <v>1583</v>
       </c>
       <c r="H395" s="1" t="s">
@@ -24459,7 +24457,7 @@
       <c r="F396" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G396" s="22" t="s">
+      <c r="G396" s="20" t="s">
         <v>1587</v>
       </c>
       <c r="H396" s="1" t="s">
@@ -24492,7 +24490,7 @@
       <c r="F397" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G397" s="25" t="s">
+      <c r="G397" s="23" t="s">
         <v>1590</v>
       </c>
       <c r="H397" s="1" t="s">
@@ -24525,7 +24523,7 @@
       <c r="F398" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="22" t="s">
+      <c r="G398" s="20" t="s">
         <v>1593</v>
       </c>
       <c r="H398" s="1" t="s">
@@ -24558,7 +24556,7 @@
       <c r="F399" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G399" s="22" t="s">
+      <c r="G399" s="20" t="s">
         <v>1598</v>
       </c>
       <c r="H399" s="1" t="s">
@@ -24591,7 +24589,7 @@
       <c r="F400" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G400" s="22" t="s">
+      <c r="G400" s="20" t="s">
         <v>1600</v>
       </c>
       <c r="H400" s="1" t="s">
@@ -24624,7 +24622,7 @@
       <c r="F401" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G401" s="25" t="s">
+      <c r="G401" s="23" t="s">
         <v>1604</v>
       </c>
       <c r="H401" s="1" t="s">
@@ -24657,7 +24655,7 @@
       <c r="F402" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G402" s="25" t="s">
+      <c r="G402" s="23" t="s">
         <v>1608</v>
       </c>
       <c r="H402" s="1" t="s">
@@ -24690,7 +24688,7 @@
       <c r="F403" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G403" s="22" t="s">
+      <c r="G403" s="20" t="s">
         <v>1610</v>
       </c>
       <c r="H403" s="1" t="s">
@@ -24723,7 +24721,7 @@
       <c r="F404" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G404" s="22" t="s">
+      <c r="G404" s="20" t="s">
         <v>1613</v>
       </c>
       <c r="H404" s="1" t="s">
@@ -24756,7 +24754,7 @@
       <c r="F405" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G405" s="22" t="s">
+      <c r="G405" s="20" t="s">
         <v>1616</v>
       </c>
       <c r="H405" s="1" t="s">
@@ -24789,7 +24787,7 @@
       <c r="F406" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G406" s="22" t="s">
+      <c r="G406" s="20" t="s">
         <v>1620</v>
       </c>
       <c r="H406" s="1" t="s">
@@ -24822,7 +24820,7 @@
       <c r="F407" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G407" s="22" t="s">
+      <c r="G407" s="20" t="s">
         <v>1624</v>
       </c>
       <c r="H407" s="1" t="s">
@@ -24855,7 +24853,7 @@
       <c r="F408" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G408" s="22" t="s">
+      <c r="G408" s="20" t="s">
         <v>1629</v>
       </c>
       <c r="H408" s="1" t="s">
@@ -24888,7 +24886,7 @@
       <c r="F409" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G409" s="23" t="s">
+      <c r="G409" s="21" t="s">
         <v>1630</v>
       </c>
       <c r="H409" s="1" t="s">
@@ -24921,7 +24919,7 @@
       <c r="F410" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G410" s="23" t="s">
+      <c r="G410" s="21" t="s">
         <v>1634</v>
       </c>
       <c r="H410" s="1" t="s">
@@ -24954,7 +24952,7 @@
       <c r="F411" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G411" s="23" t="s">
+      <c r="G411" s="21" t="s">
         <v>1638</v>
       </c>
       <c r="H411" s="1" t="s">
@@ -24987,7 +24985,7 @@
       <c r="F412" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G412" s="23" t="s">
+      <c r="G412" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="H412" s="1" t="s">
@@ -25020,7 +25018,7 @@
       <c r="F413" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G413" s="23" t="s">
+      <c r="G413" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="H413" s="1" t="s">
@@ -25053,7 +25051,7 @@
       <c r="F414" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G414" s="22"/>
+      <c r="G414" s="20"/>
       <c r="H414" s="1" t="s">
         <v>105</v>
       </c>
@@ -25084,7 +25082,7 @@
       <c r="F415" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G415" s="22"/>
+      <c r="G415" s="20"/>
       <c r="H415" s="1" t="s">
         <v>26</v>
       </c>
@@ -25115,7 +25113,7 @@
       <c r="F416" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G416" s="22"/>
+      <c r="G416" s="20"/>
       <c r="H416" s="1" t="s">
         <v>40</v>
       </c>
@@ -25146,7 +25144,7 @@
       <c r="F417" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G417" s="22"/>
+      <c r="G417" s="20"/>
       <c r="H417" s="1" t="s">
         <v>40</v>
       </c>
@@ -25177,7 +25175,7 @@
       <c r="F418" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G418" s="22"/>
+      <c r="G418" s="20"/>
       <c r="H418" s="1" t="s">
         <v>26</v>
       </c>
@@ -25208,7 +25206,7 @@
       <c r="F419" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G419" s="22"/>
+      <c r="G419" s="20"/>
       <c r="H419" s="1" t="s">
         <v>206</v>
       </c>
@@ -25239,7 +25237,7 @@
       <c r="F420" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G420" s="22"/>
+      <c r="G420" s="20"/>
       <c r="H420" s="1" t="s">
         <v>26</v>
       </c>
@@ -25270,7 +25268,7 @@
       <c r="F421" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G421" s="22"/>
+      <c r="G421" s="20"/>
       <c r="H421" s="1" t="s">
         <v>105</v>
       </c>
@@ -25301,7 +25299,7 @@
       <c r="F422" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G422" s="23" t="s">
+      <c r="G422" s="21" t="s">
         <v>1677</v>
       </c>
       <c r="H422" s="1" t="s">
@@ -25334,7 +25332,7 @@
       <c r="F423" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G423" s="22"/>
+      <c r="G423" s="20"/>
       <c r="H423" s="1" t="s">
         <v>40</v>
       </c>
@@ -25365,7 +25363,7 @@
       <c r="F424" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G424" s="26" t="s">
+      <c r="G424" s="24" t="s">
         <v>1684</v>
       </c>
       <c r="H424" s="1" t="s">
@@ -25398,7 +25396,7 @@
       <c r="F425" s="6" t="s">
         <v>1688</v>
       </c>
-      <c r="G425" s="23" t="s">
+      <c r="G425" s="21" t="s">
         <v>1687</v>
       </c>
       <c r="H425" s="1" t="s">
@@ -25431,7 +25429,7 @@
       <c r="F426" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G426" s="22"/>
+      <c r="G426" s="20"/>
       <c r="H426" s="1" t="s">
         <v>26</v>
       </c>
@@ -25462,7 +25460,7 @@
       <c r="F427" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G427" s="23" t="s">
+      <c r="G427" s="21" t="s">
         <v>1695</v>
       </c>
       <c r="H427" s="1" t="s">
@@ -25495,7 +25493,7 @@
       <c r="F428" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G428" s="22"/>
+      <c r="G428" s="20"/>
       <c r="H428" s="1" t="s">
         <v>14</v>
       </c>
@@ -25526,7 +25524,7 @@
       <c r="F429" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G429" s="22"/>
+      <c r="G429" s="20"/>
       <c r="H429" s="1" t="s">
         <v>105</v>
       </c>
@@ -25557,7 +25555,7 @@
       <c r="F430" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G430" s="22"/>
+      <c r="G430" s="20"/>
       <c r="H430" s="1" t="s">
         <v>26</v>
       </c>
@@ -25588,7 +25586,7 @@
       <c r="F431" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G431" s="23" t="s">
+      <c r="G431" s="21" t="s">
         <v>1707</v>
       </c>
       <c r="H431" s="1" t="s">
@@ -25621,7 +25619,7 @@
       <c r="F432" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G432" s="23" t="s">
+      <c r="G432" s="21" t="s">
         <v>1710</v>
       </c>
       <c r="H432" s="1" t="s">
@@ -25654,7 +25652,7 @@
       <c r="F433" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G433" s="23" t="s">
+      <c r="G433" s="21" t="s">
         <v>1713</v>
       </c>
       <c r="H433" s="1" t="s">
@@ -25687,7 +25685,7 @@
       <c r="F434" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G434" s="22"/>
+      <c r="G434" s="20"/>
       <c r="H434" s="1" t="s">
         <v>105</v>
       </c>
@@ -25718,7 +25716,7 @@
       <c r="F435" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G435" s="23" t="s">
+      <c r="G435" s="21" t="s">
         <v>1720</v>
       </c>
       <c r="H435" s="1" t="s">
@@ -25751,7 +25749,7 @@
       <c r="F436" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G436" s="23" t="s">
+      <c r="G436" s="21" t="s">
         <v>1724</v>
       </c>
       <c r="H436" s="1" t="s">
@@ -25784,7 +25782,7 @@
       <c r="F437" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G437" s="23" t="s">
+      <c r="G437" s="21" t="s">
         <v>1726</v>
       </c>
       <c r="H437" s="1" t="s">
@@ -25817,7 +25815,7 @@
       <c r="F438" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G438" s="23" t="s">
+      <c r="G438" s="21" t="s">
         <v>1730</v>
       </c>
       <c r="H438" s="1" t="s">
@@ -25850,7 +25848,7 @@
       <c r="F439" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G439" s="23" t="s">
+      <c r="G439" s="21" t="s">
         <v>1733</v>
       </c>
       <c r="H439" s="1" t="s">
@@ -25883,7 +25881,7 @@
       <c r="F440" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G440" s="23" t="s">
+      <c r="G440" s="21" t="s">
         <v>1736</v>
       </c>
       <c r="H440" s="1" t="s">
@@ -25916,7 +25914,7 @@
       <c r="F441" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G441" s="23" t="s">
+      <c r="G441" s="21" t="s">
         <v>1739</v>
       </c>
       <c r="H441" s="1" t="s">
@@ -25949,7 +25947,7 @@
       <c r="F442" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G442" s="23" t="s">
+      <c r="G442" s="21" t="s">
         <v>1742</v>
       </c>
       <c r="H442" s="1" t="s">
@@ -25982,7 +25980,7 @@
       <c r="F443" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G443" s="23" t="s">
+      <c r="G443" s="21" t="s">
         <v>1745</v>
       </c>
       <c r="H443" s="1" t="s">
@@ -26015,7 +26013,7 @@
       <c r="F444" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G444" s="22" t="s">
+      <c r="G444" s="20" t="s">
         <v>1748</v>
       </c>
       <c r="H444" s="1" t="s">
@@ -26048,7 +26046,7 @@
       <c r="F445" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G445" s="23" t="s">
+      <c r="G445" s="21" t="s">
         <v>1750</v>
       </c>
       <c r="H445" s="1" t="s">
@@ -26081,7 +26079,7 @@
       <c r="F446" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G446" s="23" t="s">
+      <c r="G446" s="21" t="s">
         <v>1753</v>
       </c>
       <c r="H446" s="1" t="s">
@@ -26114,7 +26112,7 @@
       <c r="F447" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G447" s="22"/>
+      <c r="G447" s="20"/>
       <c r="H447" s="1" t="s">
         <v>40</v>
       </c>
@@ -26145,7 +26143,7 @@
       <c r="F448" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G448" s="22"/>
+      <c r="G448" s="20"/>
       <c r="H448" s="1" t="s">
         <v>206</v>
       </c>
@@ -26176,7 +26174,7 @@
       <c r="F449" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G449" s="22"/>
+      <c r="G449" s="20"/>
       <c r="H449" s="1" t="s">
         <v>105</v>
       </c>
@@ -26207,7 +26205,7 @@
       <c r="F450" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G450" s="22"/>
+      <c r="G450" s="20"/>
       <c r="H450" s="1" t="s">
         <v>119</v>
       </c>
@@ -26238,7 +26236,7 @@
       <c r="F451" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G451" s="22"/>
+      <c r="G451" s="20"/>
       <c r="H451" s="1" t="s">
         <v>26</v>
       </c>
@@ -26269,7 +26267,7 @@
       <c r="F452" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G452" s="23" t="s">
+      <c r="G452" s="21" t="s">
         <v>1769</v>
       </c>
       <c r="H452" s="1" t="s">
@@ -26302,7 +26300,7 @@
       <c r="F453" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G453" s="22"/>
+      <c r="G453" s="20"/>
       <c r="H453" s="1" t="s">
         <v>14</v>
       </c>
@@ -26333,7 +26331,7 @@
       <c r="F454" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G454" s="22"/>
+      <c r="G454" s="20"/>
       <c r="H454" s="1" t="s">
         <v>7</v>
       </c>
@@ -26364,7 +26362,7 @@
       <c r="F455" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G455" s="22"/>
+      <c r="G455" s="20"/>
       <c r="H455" s="1" t="s">
         <v>7</v>
       </c>
@@ -26395,7 +26393,7 @@
       <c r="F456" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G456" s="23" t="s">
+      <c r="G456" s="21" t="s">
         <v>1781</v>
       </c>
       <c r="H456" s="1" t="s">
@@ -26428,7 +26426,7 @@
       <c r="F457" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G457" s="22"/>
+      <c r="G457" s="20"/>
       <c r="H457" s="1" t="s">
         <v>119</v>
       </c>
@@ -26459,7 +26457,7 @@
       <c r="F458" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G458" s="22"/>
+      <c r="G458" s="20"/>
       <c r="H458" s="1" t="s">
         <v>26</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F459" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G459" s="22"/>
+      <c r="G459" s="20"/>
       <c r="H459" s="1" t="s">
         <v>100</v>
       </c>
@@ -26521,7 +26519,7 @@
       <c r="F460" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G460" s="22"/>
+      <c r="G460" s="20"/>
       <c r="H460" s="1" t="s">
         <v>7</v>
       </c>
@@ -26552,7 +26550,7 @@
       <c r="F461" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G461" s="22"/>
+      <c r="G461" s="20"/>
       <c r="H461" s="1" t="s">
         <v>100</v>
       </c>
@@ -26583,7 +26581,7 @@
       <c r="F462" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G462" s="22"/>
+      <c r="G462" s="20"/>
       <c r="H462" s="1" t="s">
         <v>26</v>
       </c>
@@ -26614,7 +26612,7 @@
       <c r="F463" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G463" s="22"/>
+      <c r="G463" s="20"/>
       <c r="H463" s="1" t="s">
         <v>100</v>
       </c>
@@ -26645,7 +26643,7 @@
       <c r="F464" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G464" s="22"/>
+      <c r="G464" s="20"/>
       <c r="H464" s="1" t="s">
         <v>100</v>
       </c>
@@ -26676,7 +26674,7 @@
       <c r="F465" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G465" s="22"/>
+      <c r="G465" s="20"/>
       <c r="H465" s="1" t="s">
         <v>40</v>
       </c>
@@ -26707,7 +26705,7 @@
       <c r="F466" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G466" s="22"/>
+      <c r="G466" s="20"/>
       <c r="H466" s="1" t="s">
         <v>100</v>
       </c>
@@ -26738,7 +26736,7 @@
       <c r="F467" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G467" s="22"/>
+      <c r="G467" s="20"/>
       <c r="H467" s="1" t="s">
         <v>40</v>
       </c>
@@ -26769,7 +26767,7 @@
       <c r="F468" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G468" s="22"/>
+      <c r="G468" s="20"/>
       <c r="H468" s="1" t="s">
         <v>40</v>
       </c>
@@ -26800,7 +26798,7 @@
       <c r="F469" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G469" s="23" t="s">
+      <c r="G469" s="21" t="s">
         <v>1816</v>
       </c>
       <c r="H469" s="1" t="s">
@@ -26833,7 +26831,7 @@
       <c r="F470" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G470" s="22"/>
+      <c r="G470" s="20"/>
       <c r="H470" s="1" t="s">
         <v>40</v>
       </c>
@@ -26864,7 +26862,7 @@
       <c r="F471" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G471" s="22"/>
+      <c r="G471" s="20"/>
       <c r="H471" s="1" t="s">
         <v>226</v>
       </c>
@@ -26895,7 +26893,7 @@
       <c r="F472" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G472" s="22" t="s">
+      <c r="G472" s="20" t="s">
         <v>1826</v>
       </c>
       <c r="H472" s="1" t="s">
@@ -26928,7 +26926,7 @@
       <c r="F473" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G473" s="23" t="s">
+      <c r="G473" s="21" t="s">
         <v>1830</v>
       </c>
       <c r="H473" s="1" t="s">
@@ -26961,7 +26959,7 @@
       <c r="F474" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G474" s="23" t="s">
+      <c r="G474" s="21" t="s">
         <v>1211</v>
       </c>
       <c r="H474" s="1" t="s">
@@ -26994,7 +26992,7 @@
       <c r="F475" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G475" s="23" t="s">
+      <c r="G475" s="21" t="s">
         <v>1835</v>
       </c>
       <c r="H475" s="1" t="s">
@@ -27027,7 +27025,7 @@
       <c r="F476" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G476" s="23" t="s">
+      <c r="G476" s="21" t="s">
         <v>1840</v>
       </c>
       <c r="H476" s="1" t="s">
@@ -27060,7 +27058,7 @@
       <c r="F477" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G477" s="27" t="s">
+      <c r="G477" s="25" t="s">
         <v>1844</v>
       </c>
       <c r="H477" s="1" t="s">
@@ -27093,7 +27091,7 @@
       <c r="F478" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G478" s="23" t="s">
+      <c r="G478" s="21" t="s">
         <v>1848</v>
       </c>
       <c r="H478" s="1" t="s">
@@ -27126,7 +27124,7 @@
       <c r="F479" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G479" s="23" t="s">
+      <c r="G479" s="21" t="s">
         <v>1852</v>
       </c>
       <c r="H479" s="1" t="s">
@@ -27159,7 +27157,7 @@
       <c r="F480" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G480" s="23" t="s">
+      <c r="G480" s="21" t="s">
         <v>1854</v>
       </c>
       <c r="H480" s="1" t="s">
@@ -27192,7 +27190,7 @@
       <c r="F481" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G481" s="23" t="s">
+      <c r="G481" s="21" t="s">
         <v>1859</v>
       </c>
       <c r="H481" s="1" t="s">
@@ -27225,7 +27223,7 @@
       <c r="F482" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G482" s="23" t="s">
+      <c r="G482" s="21" t="s">
         <v>1863</v>
       </c>
       <c r="H482" s="1" t="s">
@@ -27258,7 +27256,7 @@
       <c r="F483" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G483" s="23" t="s">
+      <c r="G483" s="21" t="s">
         <v>1867</v>
       </c>
       <c r="H483" s="1" t="s">
@@ -27291,7 +27289,7 @@
       <c r="F484" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G484" s="23" t="s">
+      <c r="G484" s="21" t="s">
         <v>1870</v>
       </c>
       <c r="H484" s="1" t="s">
@@ -27324,7 +27322,7 @@
       <c r="F485" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G485" s="23" t="s">
+      <c r="G485" s="21" t="s">
         <v>1872</v>
       </c>
       <c r="H485" s="1" t="s">
@@ -27357,7 +27355,7 @@
       <c r="F486" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G486" s="23" t="s">
+      <c r="G486" s="21" t="s">
         <v>1875</v>
       </c>
       <c r="H486" s="1" t="s">
@@ -27390,7 +27388,7 @@
       <c r="F487" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G487" s="23" t="s">
+      <c r="G487" s="21" t="s">
         <v>1878</v>
       </c>
       <c r="H487" s="1" t="s">
@@ -27423,7 +27421,7 @@
       <c r="F488" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G488" s="22"/>
+      <c r="G488" s="20"/>
       <c r="H488" s="1" t="s">
         <v>40</v>
       </c>
@@ -27454,7 +27452,7 @@
       <c r="F489" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G489" s="22"/>
+      <c r="G489" s="20"/>
       <c r="H489" s="1" t="s">
         <v>40</v>
       </c>
@@ -27485,7 +27483,7 @@
       <c r="F490" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G490" s="22"/>
+      <c r="G490" s="20"/>
       <c r="H490" s="1" t="s">
         <v>1888</v>
       </c>
@@ -27516,7 +27514,7 @@
       <c r="F491" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G491" s="22"/>
+      <c r="G491" s="20"/>
       <c r="H491" s="1" t="s">
         <v>40</v>
       </c>
@@ -27547,7 +27545,7 @@
       <c r="F492" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G492" s="23" t="s">
+      <c r="G492" s="21" t="s">
         <v>1894</v>
       </c>
       <c r="H492" s="1" t="s">
@@ -27580,7 +27578,7 @@
       <c r="F493" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G493" s="22" t="s">
+      <c r="G493" s="20" t="s">
         <v>1901</v>
       </c>
       <c r="H493" s="8" t="s">
@@ -27610,7 +27608,7 @@
       <c r="F494" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G494" s="23" t="s">
+      <c r="G494" s="21" t="s">
         <v>1903</v>
       </c>
       <c r="H494" s="1" t="s">
@@ -27643,7 +27641,7 @@
       <c r="F495" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G495" s="23" t="s">
+      <c r="G495" s="21" t="s">
         <v>1906</v>
       </c>
       <c r="H495" s="1" t="s">
@@ -27676,7 +27674,7 @@
       <c r="F496" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G496" s="23" t="s">
+      <c r="G496" s="21" t="s">
         <v>1910</v>
       </c>
       <c r="H496" s="1" t="s">
@@ -27709,7 +27707,7 @@
       <c r="F497" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G497" s="23" t="s">
+      <c r="G497" s="21" t="s">
         <v>1913</v>
       </c>
       <c r="H497" s="1" t="s">
@@ -27742,7 +27740,7 @@
       <c r="F498" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G498" s="22"/>
+      <c r="G498" s="20"/>
       <c r="H498" s="1" t="s">
         <v>7</v>
       </c>
@@ -27773,7 +27771,7 @@
       <c r="F499" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G499" s="22"/>
+      <c r="G499" s="20"/>
       <c r="H499" s="1" t="s">
         <v>1920</v>
       </c>
@@ -27804,7 +27802,7 @@
       <c r="F500" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G500" s="22"/>
+      <c r="G500" s="20"/>
       <c r="H500" s="1" t="s">
         <v>66</v>
       </c>
@@ -27835,7 +27833,7 @@
       <c r="F501" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G501" s="23" t="s">
+      <c r="G501" s="21" t="s">
         <v>1927</v>
       </c>
       <c r="H501" s="1" t="s">
@@ -27868,7 +27866,7 @@
       <c r="F502" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G502" s="22"/>
+      <c r="G502" s="20"/>
       <c r="H502" s="1" t="s">
         <v>66</v>
       </c>
@@ -27899,7 +27897,7 @@
       <c r="F503" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G503" s="22"/>
+      <c r="G503" s="20"/>
       <c r="H503" s="1" t="s">
         <v>105</v>
       </c>
@@ -27930,7 +27928,7 @@
       <c r="F504" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G504" s="22"/>
+      <c r="G504" s="20"/>
       <c r="H504" s="1" t="s">
         <v>26</v>
       </c>
@@ -27961,7 +27959,7 @@
       <c r="F505" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G505" s="23" t="s">
+      <c r="G505" s="21" t="s">
         <v>1942</v>
       </c>
       <c r="H505" s="1" t="s">
@@ -27994,7 +27992,7 @@
       <c r="F506" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G506" s="22"/>
+      <c r="G506" s="20"/>
       <c r="H506" s="1" t="s">
         <v>40</v>
       </c>
@@ -28025,7 +28023,7 @@
       <c r="F507" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G507" s="22"/>
+      <c r="G507" s="20"/>
       <c r="H507" s="1" t="s">
         <v>105</v>
       </c>
@@ -28056,7 +28054,7 @@
       <c r="F508" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G508" s="22"/>
+      <c r="G508" s="20"/>
       <c r="H508" s="1" t="s">
         <v>40</v>
       </c>
@@ -28087,7 +28085,7 @@
       <c r="F509" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G509" s="22"/>
+      <c r="G509" s="20"/>
       <c r="H509" s="1" t="s">
         <v>7</v>
       </c>
@@ -28118,7 +28116,7 @@
       <c r="F510" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G510" s="22"/>
+      <c r="G510" s="20"/>
       <c r="H510" s="1" t="s">
         <v>119</v>
       </c>
@@ -28149,7 +28147,7 @@
       <c r="F511" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G511" s="22"/>
+      <c r="G511" s="20"/>
       <c r="H511" s="1" t="s">
         <v>100</v>
       </c>
@@ -28180,7 +28178,7 @@
       <c r="F512" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G512" s="22"/>
+      <c r="G512" s="20"/>
       <c r="H512" s="1" t="s">
         <v>66</v>
       </c>
@@ -28211,7 +28209,7 @@
       <c r="F513" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G513" s="22"/>
+      <c r="G513" s="20"/>
       <c r="H513" s="1" t="s">
         <v>66</v>
       </c>
@@ -28242,7 +28240,7 @@
       <c r="F514" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G514" s="23" t="s">
+      <c r="G514" s="21" t="s">
         <v>1976</v>
       </c>
       <c r="H514" s="1" t="s">
@@ -28275,7 +28273,7 @@
       <c r="F515" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G515" s="23" t="s">
+      <c r="G515" s="21" t="s">
         <v>1972</v>
       </c>
       <c r="H515" s="1" t="s">
@@ -28308,7 +28306,7 @@
       <c r="F516" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G516" s="23" t="s">
+      <c r="G516" s="21" t="s">
         <v>1983</v>
       </c>
       <c r="H516" s="1" t="s">
@@ -28341,7 +28339,7 @@
       <c r="F517" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="23" t="s">
+      <c r="G517" s="21" t="s">
         <v>1980</v>
       </c>
       <c r="H517" s="1" t="s">
@@ -28374,7 +28372,7 @@
       <c r="F518" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G518" s="23" t="s">
+      <c r="G518" s="21" t="s">
         <v>1994</v>
       </c>
       <c r="H518" s="1" t="s">
@@ -28407,7 +28405,7 @@
       <c r="F519" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G519" s="27" t="s">
+      <c r="G519" s="25" t="s">
         <v>1990</v>
       </c>
       <c r="H519" s="1" t="s">
@@ -28440,7 +28438,7 @@
       <c r="F520" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G520" s="22"/>
+      <c r="G520" s="20"/>
       <c r="H520" s="1" t="s">
         <v>66</v>
       </c>
@@ -28471,7 +28469,7 @@
       <c r="F521" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G521" s="22"/>
+      <c r="G521" s="20"/>
       <c r="H521" s="1" t="s">
         <v>40</v>
       </c>
@@ -28502,7 +28500,7 @@
       <c r="F522" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G522" s="23" t="s">
+      <c r="G522" s="21" t="s">
         <v>1997</v>
       </c>
       <c r="H522" s="1" t="s">
@@ -28535,7 +28533,7 @@
       <c r="F523" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G523" s="22"/>
+      <c r="G523" s="20"/>
       <c r="H523" s="1" t="s">
         <v>26</v>
       </c>
@@ -28566,7 +28564,7 @@
       <c r="F524" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G524" s="23" t="s">
+      <c r="G524" s="21" t="s">
         <v>2010</v>
       </c>
       <c r="H524" s="1" t="s">
@@ -28599,7 +28597,7 @@
       <c r="F525" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G525" s="22"/>
+      <c r="G525" s="20"/>
       <c r="H525" s="1" t="s">
         <v>2008</v>
       </c>
@@ -28630,7 +28628,7 @@
       <c r="F526" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G526" s="22" t="s">
+      <c r="G526" s="20" t="s">
         <v>2017</v>
       </c>
       <c r="H526" s="1" t="s">
@@ -28663,7 +28661,7 @@
       <c r="F527" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G527" s="22" t="s">
+      <c r="G527" s="20" t="s">
         <v>2018</v>
       </c>
       <c r="H527" s="1" t="s">
@@ -28696,7 +28694,7 @@
       <c r="F528" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G528" s="22" t="s">
+      <c r="G528" s="20" t="s">
         <v>2022</v>
       </c>
       <c r="H528" s="1" t="s">
@@ -28729,7 +28727,7 @@
       <c r="F529" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G529" s="22" t="s">
+      <c r="G529" s="20" t="s">
         <v>2026</v>
       </c>
       <c r="H529" s="1" t="s">
@@ -28762,7 +28760,7 @@
       <c r="F530" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G530" s="22" t="s">
+      <c r="G530" s="20" t="s">
         <v>2030</v>
       </c>
       <c r="H530" s="1" t="s">
@@ -28795,7 +28793,7 @@
       <c r="F531" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G531" s="22" t="s">
+      <c r="G531" s="20" t="s">
         <v>2037</v>
       </c>
       <c r="H531" s="1" t="s">
@@ -28828,7 +28826,7 @@
       <c r="F532" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G532" s="22" t="s">
+      <c r="G532" s="20" t="s">
         <v>2038</v>
       </c>
       <c r="H532" s="1" t="s">
@@ -28861,7 +28859,7 @@
       <c r="F533" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G533" s="22" t="s">
+      <c r="G533" s="20" t="s">
         <v>2042</v>
       </c>
       <c r="H533" s="1" t="s">
@@ -28894,7 +28892,7 @@
       <c r="F534" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G534" s="22" t="s">
+      <c r="G534" s="20" t="s">
         <v>2046</v>
       </c>
       <c r="H534" s="1" t="s">
@@ -28927,7 +28925,7 @@
       <c r="F535" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G535" s="22" t="s">
+      <c r="G535" s="20" t="s">
         <v>2049</v>
       </c>
       <c r="H535" s="1" t="s">
@@ -28960,7 +28958,7 @@
       <c r="F536" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G536" s="22" t="s">
+      <c r="G536" s="20" t="s">
         <v>2056</v>
       </c>
       <c r="H536" s="1" t="s">
@@ -28993,7 +28991,7 @@
       <c r="F537" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G537" s="22" t="s">
+      <c r="G537" s="20" t="s">
         <v>2057</v>
       </c>
       <c r="H537" s="1" t="s">
@@ -29026,7 +29024,7 @@
       <c r="F538" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G538" s="22" t="s">
+      <c r="G538" s="20" t="s">
         <v>2064</v>
       </c>
       <c r="H538" s="1" t="s">
@@ -29059,7 +29057,7 @@
       <c r="F539" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G539" s="22" t="s">
+      <c r="G539" s="20" t="s">
         <v>2065</v>
       </c>
       <c r="H539" s="1" t="s">
@@ -29092,7 +29090,7 @@
       <c r="F540" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G540" s="22" t="s">
+      <c r="G540" s="20" t="s">
         <v>2069</v>
       </c>
       <c r="H540" s="1" t="s">
@@ -29125,7 +29123,7 @@
       <c r="F541" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G541" s="22" t="s">
+      <c r="G541" s="20" t="s">
         <v>2073</v>
       </c>
       <c r="H541" s="1" t="s">
@@ -29158,7 +29156,7 @@
       <c r="F542" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G542" s="22" t="s">
+      <c r="G542" s="20" t="s">
         <v>457</v>
       </c>
       <c r="H542" s="1" t="s">
@@ -29191,7 +29189,7 @@
       <c r="F543" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G543" s="22" t="s">
+      <c r="G543" s="20" t="s">
         <v>2081</v>
       </c>
       <c r="H543" s="1" t="s">
@@ -29224,7 +29222,7 @@
       <c r="F544" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G544" s="22" t="s">
+      <c r="G544" s="20" t="s">
         <v>2083</v>
       </c>
       <c r="H544" s="1" t="s">
@@ -29257,7 +29255,7 @@
       <c r="F545" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G545" s="23" t="s">
+      <c r="G545" s="21" t="s">
         <v>2087</v>
       </c>
       <c r="H545" s="1" t="s">
@@ -29290,7 +29288,7 @@
       <c r="F546" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G546" s="27" t="s">
+      <c r="G546" s="25" t="s">
         <v>2091</v>
       </c>
       <c r="H546" s="1" t="s">
@@ -29323,7 +29321,7 @@
       <c r="F547" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G547" s="23" t="s">
+      <c r="G547" s="21" t="s">
         <v>2094</v>
       </c>
       <c r="H547" s="1" t="s">
@@ -29356,7 +29354,7 @@
       <c r="F548" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G548" s="22" t="s">
+      <c r="G548" s="20" t="s">
         <v>2097</v>
       </c>
       <c r="H548" s="1" t="s">
@@ -29389,7 +29387,7 @@
       <c r="F549" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G549" s="23" t="s">
+      <c r="G549" s="21" t="s">
         <v>2101</v>
       </c>
       <c r="H549" s="1" t="s">
@@ -29422,7 +29420,7 @@
       <c r="F550" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G550" s="23" t="s">
+      <c r="G550" s="21" t="s">
         <v>2104</v>
       </c>
       <c r="H550" s="1" t="s">
@@ -29455,7 +29453,7 @@
       <c r="F551" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G551" s="22" t="s">
+      <c r="G551" s="20" t="s">
         <v>2107</v>
       </c>
       <c r="H551" s="1" t="s">
@@ -29488,7 +29486,7 @@
       <c r="F552" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G552" s="22" t="s">
+      <c r="G552" s="20" t="s">
         <v>2112</v>
       </c>
       <c r="H552" s="1" t="s">
@@ -29521,7 +29519,7 @@
       <c r="F553" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G553" s="22" t="s">
+      <c r="G553" s="20" t="s">
         <v>2118</v>
       </c>
       <c r="H553" s="1" t="s">
@@ -29554,7 +29552,7 @@
       <c r="F554" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G554" s="22" t="s">
+      <c r="G554" s="20" t="s">
         <v>2119</v>
       </c>
       <c r="H554" s="1" t="s">
@@ -29587,7 +29585,7 @@
       <c r="F555" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G555" s="22" t="s">
+      <c r="G555" s="20" t="s">
         <v>2123</v>
       </c>
       <c r="H555" s="1" t="s">
@@ -29620,7 +29618,7 @@
       <c r="F556" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G556" s="22" t="s">
+      <c r="G556" s="20" t="s">
         <v>2128</v>
       </c>
       <c r="H556" s="1" t="s">
@@ -29653,7 +29651,7 @@
       <c r="F557" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G557" s="23" t="s">
+      <c r="G557" s="21" t="s">
         <v>2129</v>
       </c>
       <c r="H557" s="1" t="s">
@@ -29686,7 +29684,7 @@
       <c r="F558" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G558" s="22" t="s">
+      <c r="G558" s="20" t="s">
         <v>2131</v>
       </c>
       <c r="H558" s="1" t="s">
@@ -29719,7 +29717,7 @@
       <c r="F559" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G559" s="22" t="s">
+      <c r="G559" s="20" t="s">
         <v>2134</v>
       </c>
       <c r="H559" s="1" t="s">
@@ -29752,7 +29750,7 @@
       <c r="F560" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G560" s="22" t="s">
+      <c r="G560" s="20" t="s">
         <v>2138</v>
       </c>
       <c r="H560" s="1" t="s">
@@ -29785,7 +29783,7 @@
       <c r="F561" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G561" s="22" t="s">
+      <c r="G561" s="20" t="s">
         <v>2142</v>
       </c>
       <c r="H561" s="1" t="s">
@@ -29818,7 +29816,7 @@
       <c r="F562" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G562" s="22" t="s">
+      <c r="G562" s="20" t="s">
         <v>2144</v>
       </c>
       <c r="H562" s="1" t="s">
@@ -29851,7 +29849,7 @@
       <c r="F563" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G563" s="23" t="s">
+      <c r="G563" s="21" t="s">
         <v>2150</v>
       </c>
       <c r="H563" s="1" t="s">
@@ -29884,7 +29882,7 @@
       <c r="F564" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G564" s="23" t="s">
+      <c r="G564" s="21" t="s">
         <v>2152</v>
       </c>
       <c r="H564" s="1" t="s">
@@ -29917,7 +29915,7 @@
       <c r="F565" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G565" s="23" t="s">
+      <c r="G565" s="21" t="s">
         <v>2156</v>
       </c>
       <c r="H565" s="1" t="s">
@@ -29950,7 +29948,7 @@
       <c r="F566" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G566" s="23" t="s">
+      <c r="G566" s="21" t="s">
         <v>2160</v>
       </c>
       <c r="H566" s="1" t="s">
@@ -29983,7 +29981,7 @@
       <c r="F567" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G567" s="23" t="s">
+      <c r="G567" s="21" t="s">
         <v>2163</v>
       </c>
       <c r="H567" s="1" t="s">
@@ -30016,7 +30014,7 @@
       <c r="F568" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G568" s="23" t="s">
+      <c r="G568" s="21" t="s">
         <v>2165</v>
       </c>
       <c r="H568" s="1" t="s">
@@ -30049,7 +30047,7 @@
       <c r="F569" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G569" s="23" t="s">
+      <c r="G569" s="21" t="s">
         <v>2167</v>
       </c>
       <c r="H569" s="1" t="s">
@@ -30082,7 +30080,7 @@
       <c r="F570" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G570" s="22" t="s">
+      <c r="G570" s="20" t="s">
         <v>2169</v>
       </c>
       <c r="H570" s="1" t="s">
@@ -30115,7 +30113,7 @@
       <c r="F571" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G571" s="22" t="s">
+      <c r="G571" s="20" t="s">
         <v>2173</v>
       </c>
       <c r="H571" s="1" t="s">
@@ -30148,7 +30146,7 @@
       <c r="F572" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G572" s="23" t="s">
+      <c r="G572" s="21" t="s">
         <v>2176</v>
       </c>
       <c r="H572" s="1" t="s">
@@ -30181,7 +30179,7 @@
       <c r="F573" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G573" s="23" t="s">
+      <c r="G573" s="21" t="s">
         <v>2179</v>
       </c>
       <c r="H573" s="1" t="s">
@@ -30214,7 +30212,7 @@
       <c r="F574" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G574" s="22" t="s">
+      <c r="G574" s="20" t="s">
         <v>2181</v>
       </c>
       <c r="H574" s="1" t="s">
@@ -30247,7 +30245,7 @@
       <c r="F575" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G575" s="22" t="s">
+      <c r="G575" s="20" t="s">
         <v>2183</v>
       </c>
       <c r="H575" s="1" t="s">
@@ -30280,7 +30278,7 @@
       <c r="F576" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G576" s="22" t="s">
+      <c r="G576" s="20" t="s">
         <v>2186</v>
       </c>
       <c r="H576" s="1" t="s">
@@ -30313,7 +30311,7 @@
       <c r="F577" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G577" s="22" t="s">
+      <c r="G577" s="20" t="s">
         <v>2189</v>
       </c>
       <c r="H577" s="1" t="s">
@@ -30346,7 +30344,7 @@
       <c r="F578" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G578" s="23" t="s">
+      <c r="G578" s="21" t="s">
         <v>2191</v>
       </c>
       <c r="H578" s="1" t="s">
@@ -30379,7 +30377,7 @@
       <c r="F579" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G579" s="22" t="s">
+      <c r="G579" s="20" t="s">
         <v>2193</v>
       </c>
       <c r="H579" s="1" t="s">
@@ -30412,7 +30410,7 @@
       <c r="F580" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G580" s="22" t="s">
+      <c r="G580" s="20" t="s">
         <v>2200</v>
       </c>
       <c r="H580" s="1" t="s">
@@ -30445,7 +30443,7 @@
       <c r="F581" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G581" s="22" t="s">
+      <c r="G581" s="20" t="s">
         <v>2201</v>
       </c>
       <c r="H581" s="1" t="s">
@@ -30478,7 +30476,7 @@
       <c r="F582" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G582" s="22" t="s">
+      <c r="G582" s="20" t="s">
         <v>2203</v>
       </c>
       <c r="H582" s="1" t="s">
@@ -30511,7 +30509,7 @@
       <c r="F583" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G583" s="22" t="s">
+      <c r="G583" s="20" t="s">
         <v>2207</v>
       </c>
       <c r="H583" s="1" t="s">
@@ -30547,7 +30545,7 @@
       <c r="F584" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G584" s="22" t="s">
+      <c r="G584" s="20" t="s">
         <v>2209</v>
       </c>
       <c r="H584" s="1" t="s">
@@ -30580,7 +30578,7 @@
       <c r="F585" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G585" s="23" t="s">
+      <c r="G585" s="21" t="s">
         <v>2212</v>
       </c>
       <c r="H585" s="1" t="s">
@@ -30613,7 +30611,7 @@
       <c r="F586" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G586" s="23" t="s">
+      <c r="G586" s="21" t="s">
         <v>2215</v>
       </c>
       <c r="H586" s="1" t="s">
@@ -30646,7 +30644,7 @@
       <c r="F587" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G587" s="23" t="s">
+      <c r="G587" s="21" t="s">
         <v>2218</v>
       </c>
       <c r="H587" s="1" t="s">
@@ -30679,7 +30677,7 @@
       <c r="F588" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G588" s="23" t="s">
+      <c r="G588" s="21" t="s">
         <v>2221</v>
       </c>
       <c r="H588" s="1" t="s">
@@ -30712,7 +30710,7 @@
       <c r="F589" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G589" s="23" t="s">
+      <c r="G589" s="21" t="s">
         <v>2224</v>
       </c>
       <c r="H589" s="1" t="s">
@@ -30745,7 +30743,7 @@
       <c r="F590" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G590" s="23" t="s">
+      <c r="G590" s="21" t="s">
         <v>2227</v>
       </c>
       <c r="H590" s="1" t="s">
@@ -30778,7 +30776,7 @@
       <c r="F591" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G591" s="23" t="s">
+      <c r="G591" s="21" t="s">
         <v>2229</v>
       </c>
       <c r="H591" s="1" t="s">
@@ -30811,7 +30809,7 @@
       <c r="F592" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G592" s="23" t="s">
+      <c r="G592" s="21" t="s">
         <v>2231</v>
       </c>
       <c r="H592" s="1" t="s">
@@ -30844,7 +30842,7 @@
       <c r="F593" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G593" s="23" t="s">
+      <c r="G593" s="21" t="s">
         <v>2234</v>
       </c>
       <c r="H593" s="1" t="s">
@@ -30877,7 +30875,7 @@
       <c r="F594" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G594" s="23" t="s">
+      <c r="G594" s="21" t="s">
         <v>2238</v>
       </c>
       <c r="H594" s="1" t="s">
@@ -30910,7 +30908,7 @@
       <c r="F595" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G595" s="23" t="s">
+      <c r="G595" s="21" t="s">
         <v>2241</v>
       </c>
       <c r="H595" s="1" t="s">
@@ -30943,7 +30941,7 @@
       <c r="F596" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G596" s="23" t="s">
+      <c r="G596" s="21" t="s">
         <v>2244</v>
       </c>
       <c r="H596" s="1" t="s">
@@ -30976,7 +30974,7 @@
       <c r="F597" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G597" s="23" t="s">
+      <c r="G597" s="21" t="s">
         <v>2246</v>
       </c>
       <c r="H597" s="1" t="s">
@@ -31009,7 +31007,7 @@
       <c r="F598" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G598" s="23" t="s">
+      <c r="G598" s="21" t="s">
         <v>2250</v>
       </c>
       <c r="H598" s="1" t="s">
@@ -31042,7 +31040,7 @@
       <c r="F599" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G599" s="23" t="s">
+      <c r="G599" s="21" t="s">
         <v>2253</v>
       </c>
       <c r="H599" s="1" t="s">
@@ -31075,7 +31073,7 @@
       <c r="F600" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G600" s="23" t="s">
+      <c r="G600" s="21" t="s">
         <v>2257</v>
       </c>
       <c r="H600" s="1" t="s">
@@ -31108,7 +31106,7 @@
       <c r="F601" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G601" s="23" t="s">
+      <c r="G601" s="21" t="s">
         <v>2261</v>
       </c>
       <c r="H601" s="1" t="s">
@@ -31141,7 +31139,7 @@
       <c r="F602" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G602" s="23" t="s">
+      <c r="G602" s="21" t="s">
         <v>2264</v>
       </c>
       <c r="H602" s="1" t="s">
@@ -31174,7 +31172,7 @@
       <c r="F603" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G603" s="23" t="s">
+      <c r="G603" s="21" t="s">
         <v>2268</v>
       </c>
       <c r="H603" s="1" t="s">
@@ -31207,7 +31205,7 @@
       <c r="F604" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G604" s="23" t="s">
+      <c r="G604" s="21" t="s">
         <v>2272</v>
       </c>
       <c r="H604" s="1" t="s">
@@ -31240,7 +31238,7 @@
       <c r="F605" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G605" s="23" t="s">
+      <c r="G605" s="21" t="s">
         <v>2276</v>
       </c>
       <c r="H605" s="1" t="s">
@@ -31273,7 +31271,7 @@
       <c r="F606" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G606" s="23" t="s">
+      <c r="G606" s="21" t="s">
         <v>2280</v>
       </c>
       <c r="H606" s="1" t="s">
@@ -31306,7 +31304,7 @@
       <c r="F607" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G607" s="23" t="s">
+      <c r="G607" s="21" t="s">
         <v>2283</v>
       </c>
       <c r="H607" s="1" t="s">
@@ -31339,7 +31337,7 @@
       <c r="F608" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G608" s="23" t="s">
+      <c r="G608" s="21" t="s">
         <v>2287</v>
       </c>
       <c r="H608" s="1" t="s">
@@ -31372,7 +31370,7 @@
       <c r="F609" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G609" s="23" t="s">
+      <c r="G609" s="21" t="s">
         <v>2290</v>
       </c>
       <c r="H609" s="1" t="s">
@@ -31405,7 +31403,7 @@
       <c r="F610" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G610" s="23" t="s">
+      <c r="G610" s="21" t="s">
         <v>2293</v>
       </c>
       <c r="H610" s="1" t="s">
@@ -31438,7 +31436,7 @@
       <c r="F611" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G611" s="23" t="s">
+      <c r="G611" s="21" t="s">
         <v>2296</v>
       </c>
       <c r="H611" s="1" t="s">
@@ -31471,7 +31469,7 @@
       <c r="F612" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G612" s="23" t="s">
+      <c r="G612" s="21" t="s">
         <v>2298</v>
       </c>
       <c r="H612" s="1" t="s">
@@ -31504,7 +31502,7 @@
       <c r="F613" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G613" s="23" t="s">
+      <c r="G613" s="21" t="s">
         <v>2300</v>
       </c>
       <c r="H613" s="1" t="s">
@@ -31537,7 +31535,7 @@
       <c r="F614" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G614" s="23" t="s">
+      <c r="G614" s="21" t="s">
         <v>2303</v>
       </c>
       <c r="H614" s="1" t="s">
@@ -31570,7 +31568,7 @@
       <c r="F615" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G615" s="23" t="s">
+      <c r="G615" s="21" t="s">
         <v>2305</v>
       </c>
       <c r="H615" s="1" t="s">
@@ -31603,7 +31601,7 @@
       <c r="F616" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G616" s="23" t="s">
+      <c r="G616" s="21" t="s">
         <v>1398</v>
       </c>
       <c r="H616" s="1" t="s">
@@ -31636,7 +31634,7 @@
       <c r="F617" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G617" s="23" t="s">
+      <c r="G617" s="21" t="s">
         <v>2313</v>
       </c>
       <c r="H617" s="1" t="s">
@@ -31669,7 +31667,7 @@
       <c r="F618" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G618" s="23" t="s">
+      <c r="G618" s="21" t="s">
         <v>2318</v>
       </c>
       <c r="H618" s="1" t="s">
@@ -31702,7 +31700,7 @@
       <c r="F619" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G619" s="23" t="s">
+      <c r="G619" s="21" t="s">
         <v>2319</v>
       </c>
       <c r="H619" s="1" t="s">
@@ -31735,7 +31733,7 @@
       <c r="F620" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G620" s="23" t="s">
+      <c r="G620" s="21" t="s">
         <v>2323</v>
       </c>
       <c r="H620" s="1" t="s">
@@ -31768,7 +31766,7 @@
       <c r="F621" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G621" s="23" t="s">
+      <c r="G621" s="21" t="s">
         <v>2327</v>
       </c>
       <c r="H621" s="1" t="s">
@@ -31801,7 +31799,7 @@
       <c r="F622" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G622" s="23" t="s">
+      <c r="G622" s="21" t="s">
         <v>2330</v>
       </c>
       <c r="H622" s="1" t="s">
@@ -31834,7 +31832,7 @@
       <c r="F623" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G623" s="22" t="s">
+      <c r="G623" s="20" t="s">
         <v>2332</v>
       </c>
       <c r="H623" s="1" t="s">
@@ -31867,7 +31865,7 @@
       <c r="F624" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G624" s="23" t="s">
+      <c r="G624" s="21" t="s">
         <v>2337</v>
       </c>
       <c r="H624" s="1" t="s">
@@ -31900,7 +31898,7 @@
       <c r="F625" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G625" s="23" t="s">
+      <c r="G625" s="21" t="s">
         <v>2341</v>
       </c>
       <c r="H625" s="1" t="s">
@@ -31933,7 +31931,7 @@
       <c r="F626" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G626" s="23" t="s">
+      <c r="G626" s="21" t="s">
         <v>2344</v>
       </c>
       <c r="H626" s="1" t="s">
@@ -31966,7 +31964,7 @@
       <c r="F627" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G627" s="23" t="s">
+      <c r="G627" s="21" t="s">
         <v>2348</v>
       </c>
       <c r="H627" s="1" t="s">
@@ -31999,7 +31997,7 @@
       <c r="F628" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G628" s="23" t="s">
+      <c r="G628" s="21" t="s">
         <v>2351</v>
       </c>
       <c r="H628" s="1" t="s">
@@ -32032,7 +32030,7 @@
       <c r="F629" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G629" s="23" t="s">
+      <c r="G629" s="21" t="s">
         <v>2355</v>
       </c>
       <c r="H629" s="1" t="s">
@@ -32065,7 +32063,7 @@
       <c r="F630" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G630" s="23" t="s">
+      <c r="G630" s="21" t="s">
         <v>2359</v>
       </c>
       <c r="H630" s="1" t="s">
@@ -32098,7 +32096,7 @@
       <c r="F631" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G631" s="23" t="s">
+      <c r="G631" s="21" t="s">
         <v>2363</v>
       </c>
       <c r="H631" s="1" t="s">
@@ -32131,7 +32129,7 @@
       <c r="F632" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G632" s="23" t="s">
+      <c r="G632" s="21" t="s">
         <v>2367</v>
       </c>
       <c r="H632" s="1" t="s">
@@ -32164,7 +32162,7 @@
       <c r="F633" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G633" s="23" t="s">
+      <c r="G633" s="21" t="s">
         <v>2372</v>
       </c>
       <c r="H633" s="1" t="s">
@@ -32197,7 +32195,7 @@
       <c r="F634" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G634" s="23" t="s">
+      <c r="G634" s="21" t="s">
         <v>2376</v>
       </c>
       <c r="H634" s="1" t="s">
@@ -32230,7 +32228,7 @@
       <c r="F635" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G635" s="27" t="s">
+      <c r="G635" s="25" t="s">
         <v>2380</v>
       </c>
       <c r="H635" s="1" t="s">
@@ -32263,7 +32261,7 @@
       <c r="F636" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G636" s="23" t="s">
+      <c r="G636" s="21" t="s">
         <v>2384</v>
       </c>
       <c r="H636" s="1" t="s">
@@ -32296,7 +32294,7 @@
       <c r="F637" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G637" s="23" t="s">
+      <c r="G637" s="21" t="s">
         <v>2388</v>
       </c>
       <c r="H637" s="1" t="s">
@@ -32329,7 +32327,7 @@
       <c r="F638" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G638" s="23" t="s">
+      <c r="G638" s="21" t="s">
         <v>2392</v>
       </c>
       <c r="H638" s="1" t="s">
@@ -32362,7 +32360,7 @@
       <c r="F639" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G639" s="23" t="s">
+      <c r="G639" s="21" t="s">
         <v>2395</v>
       </c>
       <c r="H639" s="1" t="s">
@@ -32395,7 +32393,7 @@
       <c r="F640" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G640" s="23" t="s">
+      <c r="G640" s="21" t="s">
         <v>2400</v>
       </c>
       <c r="H640" s="1" t="s">
@@ -32428,7 +32426,7 @@
       <c r="F641" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G641" s="23" t="s">
+      <c r="G641" s="21" t="s">
         <v>2404</v>
       </c>
       <c r="H641" s="1" t="s">
@@ -32458,7 +32456,7 @@
       <c r="F642" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G642" s="23" t="s">
+      <c r="G642" s="21" t="s">
         <v>2407</v>
       </c>
       <c r="H642" s="1" t="s">
@@ -32491,7 +32489,7 @@
       <c r="F643" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G643" s="23" t="s">
+      <c r="G643" s="21" t="s">
         <v>2410</v>
       </c>
       <c r="H643" s="1" t="s">
@@ -32524,7 +32522,7 @@
       <c r="F644" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G644" s="23" t="s">
+      <c r="G644" s="21" t="s">
         <v>2411</v>
       </c>
       <c r="H644" s="1" t="s">
@@ -32554,7 +32552,7 @@
       <c r="F645" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G645" s="23" t="s">
+      <c r="G645" s="21" t="s">
         <v>2414</v>
       </c>
       <c r="H645" s="1" t="s">
@@ -32587,7 +32585,7 @@
       <c r="F646" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G646" s="23" t="s">
+      <c r="G646" s="21" t="s">
         <v>2417</v>
       </c>
       <c r="H646" s="1" t="s">
@@ -32620,7 +32618,7 @@
       <c r="F647" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G647" s="23" t="s">
+      <c r="G647" s="21" t="s">
         <v>2420</v>
       </c>
       <c r="H647" s="1" t="s">
@@ -32653,7 +32651,7 @@
       <c r="F648" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G648" s="23" t="s">
+      <c r="G648" s="21" t="s">
         <v>2424</v>
       </c>
       <c r="H648" s="1" t="s">
@@ -32686,7 +32684,7 @@
       <c r="F649" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G649" s="23" t="s">
+      <c r="G649" s="21" t="s">
         <v>2428</v>
       </c>
       <c r="H649" s="1" t="s">
@@ -32719,7 +32717,7 @@
       <c r="F650" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G650" s="23" t="s">
+      <c r="G650" s="21" t="s">
         <v>2432</v>
       </c>
       <c r="H650" s="1" t="s">
@@ -32752,7 +32750,7 @@
       <c r="F651" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G651" s="23" t="s">
+      <c r="G651" s="21" t="s">
         <v>2435</v>
       </c>
       <c r="H651" s="1" t="s">
@@ -32785,7 +32783,7 @@
       <c r="F652" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G652" s="23" t="s">
+      <c r="G652" s="21" t="s">
         <v>2439</v>
       </c>
       <c r="H652" s="1" t="s">
@@ -32818,7 +32816,7 @@
       <c r="F653" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G653" s="23" t="s">
+      <c r="G653" s="21" t="s">
         <v>2442</v>
       </c>
       <c r="H653" s="1" t="s">
@@ -32851,7 +32849,7 @@
       <c r="F654" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G654" s="22" t="s">
+      <c r="G654" s="20" t="s">
         <v>2446</v>
       </c>
       <c r="H654" s="1" t="s">
@@ -32884,7 +32882,7 @@
       <c r="F655" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G655" s="23" t="s">
+      <c r="G655" s="21" t="s">
         <v>2450</v>
       </c>
       <c r="H655" s="1" t="s">
@@ -32917,7 +32915,7 @@
       <c r="F656" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G656" s="26" t="s">
+      <c r="G656" s="24" t="s">
         <v>2454</v>
       </c>
       <c r="H656" s="1" t="s">
@@ -32950,7 +32948,7 @@
       <c r="F657" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G657" s="26" t="s">
+      <c r="G657" s="24" t="s">
         <v>2458</v>
       </c>
       <c r="H657" s="1" t="s">
@@ -32983,7 +32981,7 @@
       <c r="F658" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G658" s="26" t="s">
+      <c r="G658" s="24" t="s">
         <v>2462</v>
       </c>
       <c r="H658" s="1" t="s">
@@ -33016,7 +33014,7 @@
       <c r="F659" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G659" s="26" t="s">
+      <c r="G659" s="24" t="s">
         <v>2465</v>
       </c>
       <c r="H659" s="1" t="s">
@@ -33049,7 +33047,7 @@
       <c r="F660" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G660" s="27" t="s">
+      <c r="G660" s="25" t="s">
         <v>2468</v>
       </c>
       <c r="H660" s="1" t="s">
@@ -33082,7 +33080,7 @@
       <c r="F661" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G661" s="26" t="s">
+      <c r="G661" s="24" t="s">
         <v>2472</v>
       </c>
       <c r="H661" s="1" t="s">
@@ -33115,7 +33113,7 @@
       <c r="F662" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G662" s="26" t="s">
+      <c r="G662" s="24" t="s">
         <v>2476</v>
       </c>
       <c r="H662" s="1" t="s">
@@ -33148,7 +33146,7 @@
       <c r="F663" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G663" s="26" t="s">
+      <c r="G663" s="24" t="s">
         <v>2480</v>
       </c>
       <c r="H663" s="1" t="s">
@@ -33181,7 +33179,7 @@
       <c r="F664" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G664" s="26" t="s">
+      <c r="G664" s="24" t="s">
         <v>2484</v>
       </c>
       <c r="H664" s="1" t="s">
@@ -33214,7 +33212,7 @@
       <c r="F665" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G665" s="28" t="s">
+      <c r="G665" s="26" t="s">
         <v>2488</v>
       </c>
       <c r="H665" s="1" t="s">
@@ -33247,7 +33245,7 @@
       <c r="F666" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G666" s="26" t="s">
+      <c r="G666" s="24" t="s">
         <v>2492</v>
       </c>
       <c r="H666" s="1" t="s">
@@ -33280,7 +33278,7 @@
       <c r="F667" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G667" s="26" t="s">
+      <c r="G667" s="24" t="s">
         <v>2496</v>
       </c>
       <c r="H667" s="1" t="s">
@@ -33313,7 +33311,7 @@
       <c r="F668" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G668" s="23" t="s">
+      <c r="G668" s="21" t="s">
         <v>2500</v>
       </c>
       <c r="H668" s="1" t="s">
@@ -33346,7 +33344,7 @@
       <c r="F669" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G669" s="26" t="s">
+      <c r="G669" s="24" t="s">
         <v>2504</v>
       </c>
       <c r="H669" s="1" t="s">
@@ -33379,7 +33377,7 @@
       <c r="F670" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G670" s="28" t="s">
+      <c r="G670" s="26" t="s">
         <v>2512</v>
       </c>
       <c r="H670" s="1" t="s">
@@ -33412,7 +33410,7 @@
       <c r="F671" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G671" s="26" t="s">
+      <c r="G671" s="24" t="s">
         <v>2513</v>
       </c>
       <c r="H671" s="1" t="s">
@@ -33445,7 +33443,7 @@
       <c r="F672" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G672" s="26" t="s">
+      <c r="G672" s="24" t="s">
         <v>2516</v>
       </c>
       <c r="H672" s="1" t="s">
@@ -33478,7 +33476,7 @@
       <c r="F673" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G673" s="26" t="s">
+      <c r="G673" s="24" t="s">
         <v>2521</v>
       </c>
       <c r="H673" s="1" t="s">
@@ -33511,7 +33509,7 @@
       <c r="F674" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G674" s="26" t="s">
+      <c r="G674" s="24" t="s">
         <v>2524</v>
       </c>
       <c r="H674" s="1" t="s">
@@ -33544,7 +33542,7 @@
       <c r="F675" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G675" s="26" t="s">
+      <c r="G675" s="24" t="s">
         <v>2528</v>
       </c>
       <c r="H675" s="1" t="s">
@@ -33577,7 +33575,7 @@
       <c r="F676" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G676" s="26" t="s">
+      <c r="G676" s="24" t="s">
         <v>2531</v>
       </c>
       <c r="H676" s="1" t="s">
@@ -33610,7 +33608,7 @@
       <c r="F677" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G677" s="26" t="s">
+      <c r="G677" s="24" t="s">
         <v>2534</v>
       </c>
       <c r="H677" s="1" t="s">
@@ -33643,7 +33641,7 @@
       <c r="F678" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G678" s="28" t="s">
+      <c r="G678" s="26" t="s">
         <v>2538</v>
       </c>
       <c r="H678" s="1" t="s">
@@ -33676,7 +33674,7 @@
       <c r="F679" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G679" s="28" t="s">
+      <c r="G679" s="26" t="s">
         <v>2542</v>
       </c>
       <c r="H679" s="1" t="s">
@@ -33709,7 +33707,7 @@
       <c r="F680" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G680" s="26" t="s">
+      <c r="G680" s="24" t="s">
         <v>2546</v>
       </c>
       <c r="H680" s="1" t="s">
@@ -33742,7 +33740,7 @@
       <c r="F681" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G681" s="26" t="s">
+      <c r="G681" s="24" t="s">
         <v>2549</v>
       </c>
       <c r="H681" s="1" t="s">
@@ -33775,7 +33773,7 @@
       <c r="F682" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G682" s="26" t="s">
+      <c r="G682" s="24" t="s">
         <v>2553</v>
       </c>
       <c r="H682" s="1" t="s">
@@ -33808,7 +33806,7 @@
       <c r="F683" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G683" s="26" t="s">
+      <c r="G683" s="24" t="s">
         <v>2557</v>
       </c>
       <c r="H683" s="1" t="s">
@@ -33841,7 +33839,7 @@
       <c r="F684" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G684" s="26" t="s">
+      <c r="G684" s="24" t="s">
         <v>2562</v>
       </c>
       <c r="H684" s="1" t="s">
@@ -33874,7 +33872,7 @@
       <c r="F685" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G685" s="27" t="s">
+      <c r="G685" s="25" t="s">
         <v>2566</v>
       </c>
       <c r="H685" s="1" t="s">
@@ -33907,7 +33905,7 @@
       <c r="F686" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G686" s="26" t="s">
+      <c r="G686" s="24" t="s">
         <v>2570</v>
       </c>
       <c r="H686" s="1" t="s">
@@ -33940,7 +33938,7 @@
       <c r="F687" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G687" s="26" t="s">
+      <c r="G687" s="24" t="s">
         <v>2575</v>
       </c>
       <c r="H687" s="1" t="s">
@@ -33973,7 +33971,7 @@
       <c r="F688" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G688" s="23" t="s">
+      <c r="G688" s="21" t="s">
         <v>2579</v>
       </c>
       <c r="H688" s="1" t="s">
@@ -34006,7 +34004,7 @@
       <c r="F689" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G689" s="26" t="s">
+      <c r="G689" s="24" t="s">
         <v>2583</v>
       </c>
       <c r="H689" s="1" t="s">
@@ -34039,7 +34037,7 @@
       <c r="F690" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G690" s="26" t="s">
+      <c r="G690" s="24" t="s">
         <v>2588</v>
       </c>
       <c r="H690" s="1" t="s">
@@ -34072,7 +34070,7 @@
       <c r="F691" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G691" s="23" t="s">
+      <c r="G691" s="21" t="s">
         <v>2591</v>
       </c>
       <c r="H691" s="1" t="s">
@@ -34105,7 +34103,7 @@
       <c r="F692" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G692" s="23" t="s">
+      <c r="G692" s="21" t="s">
         <v>2595</v>
       </c>
       <c r="H692" s="1" t="s">
@@ -34138,7 +34136,7 @@
       <c r="F693" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G693" s="23" t="s">
+      <c r="G693" s="21" t="s">
         <v>2598</v>
       </c>
       <c r="H693" s="1" t="s">
@@ -34171,7 +34169,7 @@
       <c r="F694" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G694" s="23" t="s">
+      <c r="G694" s="21" t="s">
         <v>2600</v>
       </c>
       <c r="H694" s="1" t="s">
@@ -34204,7 +34202,7 @@
       <c r="F695" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G695" s="23" t="s">
+      <c r="G695" s="21" t="s">
         <v>2602</v>
       </c>
       <c r="H695" s="1" t="s">
@@ -34237,7 +34235,7 @@
       <c r="F696" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G696" s="23" t="s">
+      <c r="G696" s="21" t="s">
         <v>2605</v>
       </c>
       <c r="H696" s="1" t="s">
@@ -34270,7 +34268,7 @@
       <c r="F697" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G697" s="23" t="s">
+      <c r="G697" s="21" t="s">
         <v>2608</v>
       </c>
       <c r="H697" s="1" t="s">
@@ -34303,7 +34301,7 @@
       <c r="F698" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G698" s="26" t="s">
+      <c r="G698" s="24" t="s">
         <v>2610</v>
       </c>
       <c r="H698" s="1" t="s">
@@ -34336,7 +34334,7 @@
       <c r="F699" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G699" s="26" t="s">
+      <c r="G699" s="24" t="s">
         <v>2612</v>
       </c>
       <c r="H699" s="1" t="s">
@@ -34369,7 +34367,7 @@
       <c r="F700" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G700" s="23" t="s">
+      <c r="G700" s="21" t="s">
         <v>2615</v>
       </c>
       <c r="H700" s="1" t="s">
@@ -34402,7 +34400,7 @@
       <c r="F701" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G701" s="23" t="s">
+      <c r="G701" s="21" t="s">
         <v>2618</v>
       </c>
       <c r="H701" s="1" t="s">
@@ -34435,7 +34433,7 @@
       <c r="F702" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G702" s="23" t="s">
+      <c r="G702" s="21" t="s">
         <v>2621</v>
       </c>
       <c r="H702" s="1" t="s">
@@ -34468,7 +34466,7 @@
       <c r="F703" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G703" s="23" t="s">
+      <c r="G703" s="21" t="s">
         <v>2625</v>
       </c>
       <c r="H703" s="1" t="s">
@@ -34501,7 +34499,7 @@
       <c r="F704" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G704" s="23" t="s">
+      <c r="G704" s="21" t="s">
         <v>2629</v>
       </c>
       <c r="H704" s="1" t="s">
@@ -34534,7 +34532,7 @@
       <c r="F705" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G705" s="23" t="s">
+      <c r="G705" s="21" t="s">
         <v>2633</v>
       </c>
       <c r="H705" s="1" t="s">
@@ -34567,7 +34565,7 @@
       <c r="F706" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G706" s="23" t="s">
+      <c r="G706" s="21" t="s">
         <v>2636</v>
       </c>
       <c r="H706" s="1" t="s">
@@ -34600,7 +34598,7 @@
       <c r="F707" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G707" s="23" t="s">
+      <c r="G707" s="21" t="s">
         <v>2640</v>
       </c>
       <c r="H707" s="1" t="s">
@@ -34633,7 +34631,7 @@
       <c r="F708" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G708" s="23" t="s">
+      <c r="G708" s="21" t="s">
         <v>2643</v>
       </c>
       <c r="H708" s="1" t="s">
@@ -34666,7 +34664,7 @@
       <c r="F709" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G709" s="26" t="s">
+      <c r="G709" s="24" t="s">
         <v>2645</v>
       </c>
       <c r="H709" s="1" t="s">
@@ -34699,7 +34697,7 @@
       <c r="F710" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G710" s="23" t="s">
+      <c r="G710" s="21" t="s">
         <v>2649</v>
       </c>
       <c r="H710" s="1" t="s">
@@ -34732,7 +34730,7 @@
       <c r="F711" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G711" s="23" t="s">
+      <c r="G711" s="21" t="s">
         <v>2653</v>
       </c>
       <c r="H711" s="1" t="s">
@@ -34765,7 +34763,7 @@
       <c r="F712" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G712" s="23" t="s">
+      <c r="G712" s="21" t="s">
         <v>2657</v>
       </c>
       <c r="H712" s="1" t="s">
@@ -34798,7 +34796,7 @@
       <c r="F713" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G713" s="23" t="s">
+      <c r="G713" s="21" t="s">
         <v>2661</v>
       </c>
       <c r="H713" s="1" t="s">
@@ -34831,7 +34829,7 @@
       <c r="F714" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G714" s="23" t="s">
+      <c r="G714" s="21" t="s">
         <v>2665</v>
       </c>
       <c r="H714" s="1" t="s">
@@ -34864,7 +34862,7 @@
       <c r="F715" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G715" s="23" t="s">
+      <c r="G715" s="21" t="s">
         <v>2668</v>
       </c>
       <c r="H715" s="1" t="s">
@@ -34897,7 +34895,7 @@
       <c r="F716" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G716" s="23" t="s">
+      <c r="G716" s="21" t="s">
         <v>2672</v>
       </c>
       <c r="H716" s="1" t="s">
@@ -34930,7 +34928,7 @@
       <c r="F717" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G717" s="23" t="s">
+      <c r="G717" s="21" t="s">
         <v>2675</v>
       </c>
       <c r="H717" s="1" t="s">
@@ -34963,7 +34961,7 @@
       <c r="F718" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G718" s="27" t="s">
+      <c r="G718" s="25" t="s">
         <v>2679</v>
       </c>
       <c r="H718" s="1" t="s">
@@ -34996,7 +34994,7 @@
       <c r="F719" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G719" s="23" t="s">
+      <c r="G719" s="21" t="s">
         <v>2683</v>
       </c>
       <c r="H719" s="1" t="s">
@@ -35029,7 +35027,7 @@
       <c r="F720" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G720" s="23" t="s">
+      <c r="G720" s="21" t="s">
         <v>2686</v>
       </c>
       <c r="H720" s="1" t="s">
@@ -35062,7 +35060,7 @@
       <c r="F721" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G721" s="27" t="s">
+      <c r="G721" s="25" t="s">
         <v>2689</v>
       </c>
       <c r="H721" s="1" t="s">
@@ -35095,7 +35093,7 @@
       <c r="F722" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G722" s="23" t="s">
+      <c r="G722" s="21" t="s">
         <v>2692</v>
       </c>
       <c r="H722" s="1" t="s">
@@ -35128,7 +35126,7 @@
       <c r="F723" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G723" s="23" t="s">
+      <c r="G723" s="21" t="s">
         <v>2694</v>
       </c>
       <c r="H723" s="1" t="s">
@@ -35161,7 +35159,7 @@
       <c r="F724" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G724" s="23" t="s">
+      <c r="G724" s="21" t="s">
         <v>2698</v>
       </c>
       <c r="H724" s="1" t="s">
@@ -35194,7 +35192,7 @@
       <c r="F725" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G725" s="23" t="s">
+      <c r="G725" s="21" t="s">
         <v>2702</v>
       </c>
       <c r="H725" s="1" t="s">
@@ -35227,7 +35225,7 @@
       <c r="F726" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G726" s="23" t="s">
+      <c r="G726" s="21" t="s">
         <v>2704</v>
       </c>
       <c r="H726" s="1" t="s">
@@ -35260,7 +35258,7 @@
       <c r="F727" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G727" s="23" t="s">
+      <c r="G727" s="21" t="s">
         <v>2706</v>
       </c>
       <c r="H727" s="1" t="s">
@@ -35293,7 +35291,7 @@
       <c r="F728" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G728" s="23" t="s">
+      <c r="G728" s="21" t="s">
         <v>2708</v>
       </c>
       <c r="H728" s="1" t="s">
@@ -35326,7 +35324,7 @@
       <c r="F729" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G729" s="23" t="s">
+      <c r="G729" s="21" t="s">
         <v>2710</v>
       </c>
       <c r="H729" s="1" t="s">
@@ -35359,7 +35357,7 @@
       <c r="F730" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G730" s="23" t="s">
+      <c r="G730" s="21" t="s">
         <v>2712</v>
       </c>
       <c r="H730" s="1" t="s">
@@ -35392,7 +35390,7 @@
       <c r="F731" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G731" s="23" t="s">
+      <c r="G731" s="21" t="s">
         <v>2716</v>
       </c>
       <c r="H731" s="1" t="s">
@@ -35425,7 +35423,7 @@
       <c r="F732" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G732" s="23" t="s">
+      <c r="G732" s="21" t="s">
         <v>2719</v>
       </c>
       <c r="H732" s="1" t="s">
@@ -35458,7 +35456,7 @@
       <c r="F733" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G733" s="23" t="s">
+      <c r="G733" s="21" t="s">
         <v>2722</v>
       </c>
       <c r="H733" s="1" t="s">
@@ -35491,7 +35489,7 @@
       <c r="F734" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G734" s="23" t="s">
+      <c r="G734" s="21" t="s">
         <v>2725</v>
       </c>
       <c r="H734" s="1" t="s">
@@ -35524,7 +35522,7 @@
       <c r="F735" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G735" s="23" t="s">
+      <c r="G735" s="21" t="s">
         <v>2729</v>
       </c>
       <c r="H735" s="1" t="s">
@@ -35557,7 +35555,7 @@
       <c r="F736" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G736" s="23" t="s">
+      <c r="G736" s="21" t="s">
         <v>2733</v>
       </c>
       <c r="H736" s="1" t="s">
@@ -35590,7 +35588,7 @@
       <c r="F737" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G737" s="23" t="s">
+      <c r="G737" s="21" t="s">
         <v>2737</v>
       </c>
       <c r="H737" s="1" t="s">
@@ -35623,7 +35621,7 @@
       <c r="F738" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G738" s="23" t="s">
+      <c r="G738" s="21" t="s">
         <v>2741</v>
       </c>
       <c r="H738" s="1" t="s">
@@ -35656,7 +35654,7 @@
       <c r="F739" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G739" s="27" t="s">
+      <c r="G739" s="25" t="s">
         <v>2745</v>
       </c>
       <c r="H739" s="1" t="s">
@@ -35689,7 +35687,7 @@
       <c r="F740" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G740" s="23" t="s">
+      <c r="G740" s="21" t="s">
         <v>2749</v>
       </c>
       <c r="H740" s="1" t="s">
@@ -35722,7 +35720,7 @@
       <c r="F741" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G741" s="23" t="s">
+      <c r="G741" s="21" t="s">
         <v>2753</v>
       </c>
       <c r="H741" s="1" t="s">
@@ -35755,7 +35753,7 @@
       <c r="F742" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G742" s="23" t="s">
+      <c r="G742" s="21" t="s">
         <v>2756</v>
       </c>
       <c r="H742" s="1" t="s">
@@ -35788,7 +35786,7 @@
       <c r="F743" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G743" s="23" t="s">
+      <c r="G743" s="21" t="s">
         <v>2760</v>
       </c>
       <c r="H743" s="1" t="s">
@@ -35821,7 +35819,7 @@
       <c r="F744" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G744" s="23" t="s">
+      <c r="G744" s="21" t="s">
         <v>2764</v>
       </c>
       <c r="H744" s="1" t="s">
@@ -35854,7 +35852,7 @@
       <c r="F745" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G745" s="23" t="s">
+      <c r="G745" s="21" t="s">
         <v>2768</v>
       </c>
       <c r="H745" s="1" t="s">
@@ -35887,7 +35885,7 @@
       <c r="F746" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G746" s="23" t="s">
+      <c r="G746" s="21" t="s">
         <v>2771</v>
       </c>
       <c r="H746" s="1" t="s">
@@ -35920,7 +35918,7 @@
       <c r="F747" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G747" s="23" t="s">
+      <c r="G747" s="21" t="s">
         <v>2775</v>
       </c>
       <c r="H747" s="1" t="s">
@@ -35953,7 +35951,7 @@
       <c r="F748" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G748" s="23" t="s">
+      <c r="G748" s="21" t="s">
         <v>2778</v>
       </c>
       <c r="H748" s="1" t="s">
@@ -35986,7 +35984,7 @@
       <c r="F749" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G749" s="23" t="s">
+      <c r="G749" s="21" t="s">
         <v>2782</v>
       </c>
       <c r="H749" s="1" t="s">
@@ -36019,7 +36017,7 @@
       <c r="F750" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G750" s="23" t="s">
+      <c r="G750" s="21" t="s">
         <v>2786</v>
       </c>
       <c r="H750" s="1" t="s">
@@ -36052,7 +36050,7 @@
       <c r="F751" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G751" s="23" t="s">
+      <c r="G751" s="21" t="s">
         <v>2789</v>
       </c>
       <c r="H751" s="1" t="s">
@@ -36085,7 +36083,7 @@
       <c r="F752" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G752" s="23" t="s">
+      <c r="G752" s="21" t="s">
         <v>2792</v>
       </c>
       <c r="H752" s="1" t="s">
@@ -36118,7 +36116,7 @@
       <c r="F753" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G753" s="23" t="s">
+      <c r="G753" s="21" t="s">
         <v>2803</v>
       </c>
       <c r="H753" s="1" t="s">
@@ -36151,7 +36149,7 @@
       <c r="F754" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G754" s="23" t="s">
+      <c r="G754" s="21" t="s">
         <v>2800</v>
       </c>
       <c r="H754" s="1" t="s">
@@ -36184,7 +36182,7 @@
       <c r="F755" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G755" s="23" t="s">
+      <c r="G755" s="21" t="s">
         <v>2796</v>
       </c>
       <c r="H755" s="1" t="s">
@@ -36217,7 +36215,7 @@
       <c r="F756" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G756" s="23" t="s">
+      <c r="G756" s="21" t="s">
         <v>2812</v>
       </c>
       <c r="H756" s="1" t="s">
@@ -36250,7 +36248,7 @@
       <c r="F757" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G757" s="23" t="s">
+      <c r="G757" s="21" t="s">
         <v>2809</v>
       </c>
       <c r="H757" s="1" t="s">
@@ -36283,7 +36281,7 @@
       <c r="F758" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G758" s="23" t="s">
+      <c r="G758" s="21" t="s">
         <v>2806</v>
       </c>
       <c r="H758" s="1" t="s">
@@ -36316,7 +36314,7 @@
       <c r="F759" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G759" s="23" t="s">
+      <c r="G759" s="21" t="s">
         <v>2822</v>
       </c>
       <c r="H759" s="1" t="s">
@@ -36349,7 +36347,7 @@
       <c r="F760" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G760" s="23" t="s">
+      <c r="G760" s="21" t="s">
         <v>2819</v>
       </c>
       <c r="H760" s="1" t="s">
@@ -36382,7 +36380,7 @@
       <c r="F761" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G761" s="23" t="s">
+      <c r="G761" s="21" t="s">
         <v>2816</v>
       </c>
       <c r="H761" s="1" t="s">
@@ -36415,7 +36413,7 @@
       <c r="F762" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G762" s="27" t="s">
+      <c r="G762" s="25" t="s">
         <v>2825</v>
       </c>
       <c r="H762" s="1" t="s">
@@ -36448,7 +36446,7 @@
       <c r="F763" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G763" s="23" t="s">
+      <c r="G763" s="21" t="s">
         <v>2829</v>
       </c>
       <c r="H763" s="1" t="s">
@@ -36481,7 +36479,7 @@
       <c r="F764" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G764" s="23" t="s">
+      <c r="G764" s="21" t="s">
         <v>2832</v>
       </c>
       <c r="H764" s="1" t="s">
@@ -36514,7 +36512,7 @@
       <c r="F765" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G765" s="23" t="s">
+      <c r="G765" s="21" t="s">
         <v>2835</v>
       </c>
       <c r="H765" s="1" t="s">
@@ -36547,7 +36545,7 @@
       <c r="F766" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G766" s="23" t="s">
+      <c r="G766" s="21" t="s">
         <v>2838</v>
       </c>
       <c r="H766" s="1" t="s">
@@ -36580,7 +36578,7 @@
       <c r="F767" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G767" s="27" t="s">
+      <c r="G767" s="25" t="s">
         <v>2842</v>
       </c>
       <c r="H767" s="1" t="s">
@@ -36613,7 +36611,7 @@
       <c r="F768" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G768" s="23" t="s">
+      <c r="G768" s="21" t="s">
         <v>2845</v>
       </c>
       <c r="H768" s="1" t="s">
@@ -36646,7 +36644,7 @@
       <c r="F769" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G769" s="23" t="s">
+      <c r="G769" s="21" t="s">
         <v>2847</v>
       </c>
       <c r="H769" s="1" t="s">
@@ -36679,7 +36677,7 @@
       <c r="F770" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G770" s="23" t="s">
+      <c r="G770" s="21" t="s">
         <v>2850</v>
       </c>
       <c r="H770" s="1" t="s">
@@ -36712,7 +36710,7 @@
       <c r="F771" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G771" s="26" t="s">
+      <c r="G771" s="24" t="s">
         <v>2853</v>
       </c>
       <c r="H771" s="1" t="s">
@@ -36745,7 +36743,7 @@
       <c r="F772" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G772" s="23" t="s">
+      <c r="G772" s="21" t="s">
         <v>2856</v>
       </c>
       <c r="H772" s="1" t="s">
@@ -36778,7 +36776,7 @@
       <c r="F773" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G773" s="23" t="s">
+      <c r="G773" s="21" t="s">
         <v>2860</v>
       </c>
       <c r="H773" s="1" t="s">
@@ -36811,7 +36809,7 @@
       <c r="F774" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G774" s="23" t="s">
+      <c r="G774" s="21" t="s">
         <v>2863</v>
       </c>
       <c r="H774" s="1" t="s">
@@ -36844,7 +36842,7 @@
       <c r="F775" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G775" s="23" t="s">
+      <c r="G775" s="21" t="s">
         <v>2867</v>
       </c>
       <c r="H775" s="1" t="s">
@@ -36877,7 +36875,7 @@
       <c r="F776" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G776" s="23" t="s">
+      <c r="G776" s="21" t="s">
         <v>2869</v>
       </c>
       <c r="H776" s="1" t="s">
@@ -36910,7 +36908,7 @@
       <c r="F777" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G777" s="23" t="s">
+      <c r="G777" s="21" t="s">
         <v>2873</v>
       </c>
       <c r="H777" s="1" t="s">
@@ -36943,7 +36941,7 @@
       <c r="F778" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G778" s="27" t="s">
+      <c r="G778" s="25" t="s">
         <v>2875</v>
       </c>
       <c r="H778" s="1" t="s">
@@ -36976,7 +36974,7 @@
       <c r="F779" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G779" s="23" t="s">
+      <c r="G779" s="21" t="s">
         <v>2877</v>
       </c>
       <c r="H779" s="1" t="s">
@@ -37009,7 +37007,7 @@
       <c r="F780" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G780" s="23" t="s">
+      <c r="G780" s="21" t="s">
         <v>2880</v>
       </c>
       <c r="H780" s="1" t="s">
@@ -37042,7 +37040,7 @@
       <c r="F781" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G781" s="23" t="s">
+      <c r="G781" s="21" t="s">
         <v>2884</v>
       </c>
       <c r="H781" s="1" t="s">
@@ -37075,7 +37073,7 @@
       <c r="F782" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G782" s="23" t="s">
+      <c r="G782" s="21" t="s">
         <v>2888</v>
       </c>
       <c r="H782" s="1" t="s">
@@ -37108,7 +37106,7 @@
       <c r="F783" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G783" s="23" t="s">
+      <c r="G783" s="21" t="s">
         <v>2891</v>
       </c>
       <c r="H783" s="1" t="s">
@@ -37141,7 +37139,7 @@
       <c r="F784" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G784" s="23" t="s">
+      <c r="G784" s="21" t="s">
         <v>2893</v>
       </c>
       <c r="H784" s="1" t="s">
@@ -37174,7 +37172,7 @@
       <c r="F785" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G785" s="23" t="s">
+      <c r="G785" s="21" t="s">
         <v>2896</v>
       </c>
       <c r="H785" s="1" t="s">
@@ -37207,7 +37205,7 @@
       <c r="F786" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G786" s="23" t="s">
+      <c r="G786" s="21" t="s">
         <v>2900</v>
       </c>
       <c r="H786" s="1" t="s">
@@ -37240,7 +37238,7 @@
       <c r="F787" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G787" s="23" t="s">
+      <c r="G787" s="21" t="s">
         <v>2903</v>
       </c>
       <c r="H787" s="1" t="s">
@@ -37273,7 +37271,7 @@
       <c r="F788" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G788" s="23" t="s">
+      <c r="G788" s="21" t="s">
         <v>2906</v>
       </c>
       <c r="H788" s="1" t="s">
@@ -37306,7 +37304,7 @@
       <c r="F789" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G789" s="23" t="s">
+      <c r="G789" s="21" t="s">
         <v>2909</v>
       </c>
       <c r="H789" s="1" t="s">
@@ -37339,7 +37337,7 @@
       <c r="F790" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G790" s="23" t="s">
+      <c r="G790" s="21" t="s">
         <v>2912</v>
       </c>
       <c r="H790" s="1" t="s">
@@ -37372,7 +37370,7 @@
       <c r="F791" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G791" s="23" t="s">
+      <c r="G791" s="21" t="s">
         <v>2915</v>
       </c>
       <c r="H791" s="1" t="s">
@@ -37405,7 +37403,7 @@
       <c r="F792" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G792" s="23" t="s">
+      <c r="G792" s="21" t="s">
         <v>2918</v>
       </c>
       <c r="H792" s="1" t="s">
@@ -37438,7 +37436,7 @@
       <c r="F793" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G793" s="23" t="s">
+      <c r="G793" s="21" t="s">
         <v>2922</v>
       </c>
       <c r="H793" s="1" t="s">
@@ -37471,7 +37469,7 @@
       <c r="F794" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G794" s="23" t="s">
+      <c r="G794" s="21" t="s">
         <v>2926</v>
       </c>
       <c r="H794" s="1" t="s">
@@ -37504,7 +37502,7 @@
       <c r="F795" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G795" s="26" t="s">
+      <c r="G795" s="24" t="s">
         <v>2928</v>
       </c>
       <c r="H795" s="1" t="s">
@@ -37537,7 +37535,7 @@
       <c r="F796" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G796" s="23" t="s">
+      <c r="G796" s="21" t="s">
         <v>2931</v>
       </c>
       <c r="H796" s="1" t="s">
@@ -37570,7 +37568,7 @@
       <c r="F797" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G797" s="23" t="s">
+      <c r="G797" s="21" t="s">
         <v>2934</v>
       </c>
       <c r="H797" s="1" t="s">
@@ -37603,7 +37601,7 @@
       <c r="F798" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G798" s="23" t="s">
+      <c r="G798" s="21" t="s">
         <v>2937</v>
       </c>
       <c r="H798" s="1" t="s">
@@ -37636,7 +37634,7 @@
       <c r="F799" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G799" s="23" t="s">
+      <c r="G799" s="21" t="s">
         <v>2941</v>
       </c>
       <c r="H799" s="1" t="s">
@@ -37669,7 +37667,7 @@
       <c r="F800" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G800" s="23" t="s">
+      <c r="G800" s="21" t="s">
         <v>2948</v>
       </c>
       <c r="H800" s="1" t="s">
@@ -37702,7 +37700,7 @@
       <c r="F801" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G801" s="23" t="s">
+      <c r="G801" s="21" t="s">
         <v>2952</v>
       </c>
       <c r="H801" s="1" t="s">
@@ -37735,7 +37733,7 @@
       <c r="F802" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G802" s="23" t="s">
+      <c r="G802" s="21" t="s">
         <v>2955</v>
       </c>
       <c r="H802" s="1" t="s">
@@ -37768,7 +37766,7 @@
       <c r="F803" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G803" s="23" t="s">
+      <c r="G803" s="21" t="s">
         <v>2957</v>
       </c>
       <c r="H803" s="1" t="s">
@@ -37801,7 +37799,7 @@
       <c r="F804" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G804" s="23" t="s">
+      <c r="G804" s="21" t="s">
         <v>2959</v>
       </c>
       <c r="H804" s="1" t="s">
@@ -37834,7 +37832,7 @@
       <c r="F805" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G805" s="23" t="s">
+      <c r="G805" s="21" t="s">
         <v>2957</v>
       </c>
       <c r="H805" s="1" t="s">
@@ -37867,7 +37865,7 @@
       <c r="F806" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G806" s="23" t="s">
+      <c r="G806" s="21" t="s">
         <v>2964</v>
       </c>
       <c r="H806" s="1" t="s">
@@ -37900,7 +37898,7 @@
       <c r="F807" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G807" s="23" t="s">
+      <c r="G807" s="21" t="s">
         <v>2967</v>
       </c>
       <c r="H807" s="1" t="s">
@@ -37933,7 +37931,7 @@
       <c r="F808" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G808" s="23" t="s">
+      <c r="G808" s="21" t="s">
         <v>2969</v>
       </c>
       <c r="H808" s="1" t="s">
@@ -37966,7 +37964,7 @@
       <c r="F809" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G809" s="23" t="s">
+      <c r="G809" s="21" t="s">
         <v>2974</v>
       </c>
       <c r="H809" s="1" t="s">
@@ -37999,7 +37997,7 @@
       <c r="F810" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G810" s="23" t="s">
+      <c r="G810" s="21" t="s">
         <v>2979</v>
       </c>
       <c r="H810" s="1" t="s">
@@ -38032,7 +38030,7 @@
       <c r="F811" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G811" s="23" t="s">
+      <c r="G811" s="21" t="s">
         <v>2983</v>
       </c>
       <c r="H811" s="1" t="s">
@@ -38065,7 +38063,7 @@
       <c r="F812" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G812" s="23" t="s">
+      <c r="G812" s="21" t="s">
         <v>2988</v>
       </c>
       <c r="H812" s="1" t="s">
@@ -38098,7 +38096,7 @@
       <c r="F813" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G813" s="23" t="s">
+      <c r="G813" s="21" t="s">
         <v>958</v>
       </c>
       <c r="H813" s="1" t="s">
@@ -38131,7 +38129,7 @@
       <c r="F814" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G814" s="23" t="s">
+      <c r="G814" s="21" t="s">
         <v>2997</v>
       </c>
       <c r="H814" s="1" t="s">
@@ -38164,7 +38162,7 @@
       <c r="F815" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G815" s="23" t="s">
+      <c r="G815" s="21" t="s">
         <v>3000</v>
       </c>
       <c r="H815" s="1" t="s">
@@ -38197,7 +38195,7 @@
       <c r="F816" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G816" s="23" t="s">
+      <c r="G816" s="21" t="s">
         <v>3004</v>
       </c>
       <c r="H816" s="1" t="s">
@@ -38230,7 +38228,7 @@
       <c r="F817" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G817" s="23" t="s">
+      <c r="G817" s="21" t="s">
         <v>3007</v>
       </c>
       <c r="H817" s="1" t="s">
@@ -38263,7 +38261,7 @@
       <c r="F818" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G818" s="23" t="s">
+      <c r="G818" s="21" t="s">
         <v>3010</v>
       </c>
       <c r="H818" s="1" t="s">
@@ -38296,7 +38294,7 @@
       <c r="F819" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G819" s="23" t="s">
+      <c r="G819" s="21" t="s">
         <v>3013</v>
       </c>
       <c r="H819" s="1" t="s">
@@ -38329,7 +38327,7 @@
       <c r="F820" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G820" s="23" t="s">
+      <c r="G820" s="21" t="s">
         <v>3016</v>
       </c>
       <c r="H820" s="1" t="s">
@@ -38362,7 +38360,7 @@
       <c r="F821" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G821" s="23" t="s">
+      <c r="G821" s="21" t="s">
         <v>3018</v>
       </c>
       <c r="H821" s="1" t="s">
@@ -38395,7 +38393,7 @@
       <c r="F822" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G822" s="27" t="s">
+      <c r="G822" s="25" t="s">
         <v>3021</v>
       </c>
       <c r="H822" s="1" t="s">
@@ -38428,7 +38426,7 @@
       <c r="F823" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G823" s="23" t="s">
+      <c r="G823" s="21" t="s">
         <v>3024</v>
       </c>
       <c r="H823" s="1" t="s">
@@ -38461,7 +38459,7 @@
       <c r="F824" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G824" s="23" t="s">
+      <c r="G824" s="21" t="s">
         <v>3027</v>
       </c>
       <c r="H824" s="1" t="s">
@@ -38494,7 +38492,7 @@
       <c r="F825" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G825" s="23" t="s">
+      <c r="G825" s="21" t="s">
         <v>3031</v>
       </c>
       <c r="H825" s="1" t="s">
@@ -38527,7 +38525,7 @@
       <c r="F826" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G826" s="23" t="s">
+      <c r="G826" s="21" t="s">
         <v>3036</v>
       </c>
       <c r="H826" s="1" t="s">
@@ -38560,7 +38558,7 @@
       <c r="F827" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G827" s="23" t="s">
+      <c r="G827" s="21" t="s">
         <v>3039</v>
       </c>
       <c r="H827" s="1" t="s">
@@ -38593,7 +38591,7 @@
       <c r="F828" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G828" s="23" t="s">
+      <c r="G828" s="21" t="s">
         <v>3041</v>
       </c>
       <c r="H828" s="1" t="s">
@@ -38626,7 +38624,7 @@
       <c r="F829" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G829" s="23" t="s">
+      <c r="G829" s="21" t="s">
         <v>3044</v>
       </c>
       <c r="H829" s="1" t="s">
@@ -38659,7 +38657,7 @@
       <c r="F830" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G830" s="23" t="s">
+      <c r="G830" s="21" t="s">
         <v>3046</v>
       </c>
       <c r="H830" s="1" t="s">
@@ -38692,7 +38690,7 @@
       <c r="F831" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G831" s="23" t="s">
+      <c r="G831" s="21" t="s">
         <v>3049</v>
       </c>
       <c r="H831" s="1" t="s">
@@ -38725,7 +38723,7 @@
       <c r="F832" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G832" s="23" t="s">
+      <c r="G832" s="21" t="s">
         <v>3053</v>
       </c>
       <c r="H832" s="1" t="s">
@@ -38758,7 +38756,7 @@
       <c r="F833" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G833" s="23" t="s">
+      <c r="G833" s="21" t="s">
         <v>3056</v>
       </c>
       <c r="H833" s="1" t="s">
@@ -38791,7 +38789,7 @@
       <c r="F834" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G834" s="23" t="s">
+      <c r="G834" s="21" t="s">
         <v>3059</v>
       </c>
       <c r="H834" s="1" t="s">
@@ -38824,7 +38822,7 @@
       <c r="F835" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G835" s="23" t="s">
+      <c r="G835" s="21" t="s">
         <v>3062</v>
       </c>
       <c r="H835" s="1" t="s">
@@ -38857,7 +38855,7 @@
       <c r="F836" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G836" s="23" t="s">
+      <c r="G836" s="21" t="s">
         <v>3066</v>
       </c>
       <c r="H836" s="1" t="s">
@@ -38890,7 +38888,7 @@
       <c r="F837" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G837" s="23" t="s">
+      <c r="G837" s="21" t="s">
         <v>3070</v>
       </c>
       <c r="H837" s="1" t="s">
@@ -38923,7 +38921,7 @@
       <c r="F838" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G838" s="23" t="s">
+      <c r="G838" s="21" t="s">
         <v>3073</v>
       </c>
       <c r="H838" s="1" t="s">
@@ -38956,7 +38954,7 @@
       <c r="F839" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G839" s="23" t="s">
+      <c r="G839" s="21" t="s">
         <v>3076</v>
       </c>
       <c r="H839" s="1" t="s">
@@ -38989,7 +38987,7 @@
       <c r="F840" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G840" s="26" t="s">
+      <c r="G840" s="24" t="s">
         <v>3079</v>
       </c>
       <c r="H840" s="1" t="s">
@@ -39022,7 +39020,7 @@
       <c r="F841" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G841" s="22" t="s">
+      <c r="G841" s="20" t="s">
         <v>3082</v>
       </c>
       <c r="H841" s="1" t="s">
@@ -39055,7 +39053,7 @@
       <c r="F842" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G842" s="23" t="s">
+      <c r="G842" s="21" t="s">
         <v>3086</v>
       </c>
       <c r="H842" s="1" t="s">
@@ -39088,7 +39086,7 @@
       <c r="F843" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G843" s="23" t="s">
+      <c r="G843" s="21" t="s">
         <v>3089</v>
       </c>
       <c r="H843" s="1" t="s">
@@ -39121,7 +39119,7 @@
       <c r="F844" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G844" s="23" t="s">
+      <c r="G844" s="21" t="s">
         <v>3092</v>
       </c>
       <c r="H844" s="1" t="s">
@@ -39154,7 +39152,7 @@
       <c r="F845" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G845" s="23" t="s">
+      <c r="G845" s="21" t="s">
         <v>3095</v>
       </c>
       <c r="H845" s="1" t="s">
@@ -39187,7 +39185,7 @@
       <c r="F846" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G846" s="23" t="s">
+      <c r="G846" s="21" t="s">
         <v>3098</v>
       </c>
       <c r="H846" s="1" t="s">
@@ -39220,7 +39218,7 @@
       <c r="F847" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G847" s="23" t="s">
+      <c r="G847" s="21" t="s">
         <v>3101</v>
       </c>
       <c r="H847" s="1" t="s">
@@ -39253,7 +39251,7 @@
       <c r="F848" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G848" s="23" t="s">
+      <c r="G848" s="21" t="s">
         <v>3104</v>
       </c>
       <c r="H848" s="1" t="s">
@@ -39286,7 +39284,7 @@
       <c r="F849" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G849" s="23" t="s">
+      <c r="G849" s="21" t="s">
         <v>3108</v>
       </c>
       <c r="H849" s="1" t="s">
@@ -39319,7 +39317,7 @@
       <c r="F850" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G850" s="23" t="s">
+      <c r="G850" s="21" t="s">
         <v>3111</v>
       </c>
       <c r="H850" s="1" t="s">
@@ -39352,7 +39350,7 @@
       <c r="F851" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G851" s="23" t="s">
+      <c r="G851" s="21" t="s">
         <v>3114</v>
       </c>
       <c r="H851" s="1" t="s">
@@ -39385,7 +39383,7 @@
       <c r="F852" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G852" s="23" t="s">
+      <c r="G852" s="21" t="s">
         <v>3117</v>
       </c>
       <c r="H852" s="1" t="s">
@@ -39418,7 +39416,7 @@
       <c r="F853" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G853" s="23" t="s">
+      <c r="G853" s="21" t="s">
         <v>3119</v>
       </c>
       <c r="H853" s="1" t="s">
@@ -39451,7 +39449,7 @@
       <c r="F854" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G854" s="23" t="s">
+      <c r="G854" s="21" t="s">
         <v>3122</v>
       </c>
       <c r="H854" s="1" t="s">
@@ -39484,7 +39482,7 @@
       <c r="F855" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G855" s="23" t="s">
+      <c r="G855" s="21" t="s">
         <v>3125</v>
       </c>
       <c r="H855" s="1" t="s">
@@ -39517,7 +39515,7 @@
       <c r="F856" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G856" s="23" t="s">
+      <c r="G856" s="21" t="s">
         <v>3128</v>
       </c>
       <c r="H856" s="1" t="s">
@@ -39550,7 +39548,7 @@
       <c r="F857" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G857" s="23" t="s">
+      <c r="G857" s="21" t="s">
         <v>3132</v>
       </c>
       <c r="H857" s="1" t="s">
@@ -39583,7 +39581,7 @@
       <c r="F858" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G858" s="23" t="s">
+      <c r="G858" s="21" t="s">
         <v>3134</v>
       </c>
       <c r="H858" s="1" t="s">
@@ -39616,7 +39614,7 @@
       <c r="F859" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G859" s="23" t="s">
+      <c r="G859" s="21" t="s">
         <v>3138</v>
       </c>
       <c r="H859" s="1" t="s">
@@ -39649,7 +39647,7 @@
       <c r="F860" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G860" s="23" t="s">
+      <c r="G860" s="21" t="s">
         <v>3141</v>
       </c>
       <c r="H860" s="1" t="s">
@@ -39682,7 +39680,7 @@
       <c r="F861" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G861" s="23" t="s">
+      <c r="G861" s="21" t="s">
         <v>3146</v>
       </c>
       <c r="H861" s="1" t="s">
@@ -39715,7 +39713,7 @@
       <c r="F862" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G862" s="23" t="s">
+      <c r="G862" s="21" t="s">
         <v>3147</v>
       </c>
       <c r="H862" s="1" t="s">
@@ -39748,7 +39746,7 @@
       <c r="F863" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G863" s="23" t="s">
+      <c r="G863" s="21" t="s">
         <v>3149</v>
       </c>
       <c r="H863" s="1" t="s">
@@ -39781,7 +39779,7 @@
       <c r="F864" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G864" s="23" t="s">
+      <c r="G864" s="21" t="s">
         <v>2144</v>
       </c>
       <c r="H864" s="1" t="s">
@@ -39814,7 +39812,7 @@
       <c r="F865" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G865" s="23" t="s">
+      <c r="G865" s="21" t="s">
         <v>3156</v>
       </c>
       <c r="H865" s="1" t="s">
@@ -39847,7 +39845,7 @@
       <c r="F866" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G866" s="23" t="s">
+      <c r="G866" s="21" t="s">
         <v>3158</v>
       </c>
       <c r="H866" s="1" t="s">
@@ -39880,7 +39878,7 @@
       <c r="F867" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G867" s="23" t="s">
+      <c r="G867" s="21" t="s">
         <v>3161</v>
       </c>
       <c r="H867" s="1" t="s">
@@ -39913,7 +39911,7 @@
       <c r="F868" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G868" s="23" t="s">
+      <c r="G868" s="21" t="s">
         <v>3165</v>
       </c>
       <c r="H868" s="1" t="s">
@@ -39946,7 +39944,7 @@
       <c r="F869" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G869" s="23" t="s">
+      <c r="G869" s="21" t="s">
         <v>3168</v>
       </c>
       <c r="H869" s="1" t="s">
@@ -39979,7 +39977,7 @@
       <c r="F870" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G870" s="23" t="s">
+      <c r="G870" s="21" t="s">
         <v>3171</v>
       </c>
       <c r="H870" s="1" t="s">
@@ -40012,7 +40010,7 @@
       <c r="F871" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G871" s="23" t="s">
+      <c r="G871" s="21" t="s">
         <v>1903</v>
       </c>
       <c r="H871" s="1" t="s">
@@ -40045,7 +40043,7 @@
       <c r="F872" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G872" s="23" t="s">
+      <c r="G872" s="21" t="s">
         <v>3176</v>
       </c>
       <c r="H872" s="1" t="s">
@@ -40078,7 +40076,7 @@
       <c r="F873" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G873" s="23" t="s">
+      <c r="G873" s="21" t="s">
         <v>3179</v>
       </c>
       <c r="H873" s="1" t="s">
@@ -40111,7 +40109,7 @@
       <c r="F874" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G874" s="23" t="s">
+      <c r="G874" s="21" t="s">
         <v>3182</v>
       </c>
       <c r="H874" s="1" t="s">
@@ -40144,7 +40142,7 @@
       <c r="F875" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G875" s="23" t="s">
+      <c r="G875" s="21" t="s">
         <v>3184</v>
       </c>
       <c r="H875" s="1" t="s">
@@ -40177,7 +40175,7 @@
       <c r="F876" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G876" s="23" t="s">
+      <c r="G876" s="21" t="s">
         <v>3187</v>
       </c>
       <c r="H876" s="1" t="s">
@@ -40210,7 +40208,7 @@
       <c r="F877" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G877" s="23" t="s">
+      <c r="G877" s="21" t="s">
         <v>3191</v>
       </c>
       <c r="H877" s="1" t="s">
@@ -40243,7 +40241,7 @@
       <c r="F878" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G878" s="27" t="s">
+      <c r="G878" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="H878" s="1" t="s">
@@ -40276,7 +40274,7 @@
       <c r="F879" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G879" s="28" t="s">
+      <c r="G879" s="26" t="s">
         <v>3198</v>
       </c>
       <c r="H879" s="1" t="s">
@@ -40309,7 +40307,7 @@
       <c r="F880" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G880" s="22" t="s">
+      <c r="G880" s="20" t="s">
         <v>3201</v>
       </c>
       <c r="H880" s="1" t="s">
@@ -40375,7 +40373,7 @@
       <c r="F882" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G882" s="30" t="s">
+      <c r="G882" s="28" t="s">
         <v>3207</v>
       </c>
       <c r="H882" s="1" t="s">
@@ -41629,7 +41627,7 @@
       <c r="F920" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G920" s="30" t="s">
+      <c r="G920" s="28" t="s">
         <v>3331</v>
       </c>
       <c r="H920" s="1" t="s">
@@ -41662,7 +41660,7 @@
       <c r="F921" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G921" s="30" t="s">
+      <c r="G921" s="28" t="s">
         <v>3334</v>
       </c>
       <c r="H921" s="1" t="s">
@@ -41695,7 +41693,7 @@
       <c r="F922" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G922" s="21" t="s">
+      <c r="G922" s="19" t="s">
         <v>3337</v>
       </c>
       <c r="H922" s="1" t="s">
@@ -41728,7 +41726,7 @@
       <c r="F923" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G923" s="30" t="s">
+      <c r="G923" s="28" t="s">
         <v>3340</v>
       </c>
       <c r="H923" s="1" t="s">
@@ -41893,7 +41891,7 @@
       <c r="F928" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G928" s="30" t="s">
+      <c r="G928" s="28" t="s">
         <v>3356</v>
       </c>
       <c r="H928" s="1" t="s">
@@ -41926,7 +41924,7 @@
       <c r="F929" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G929" s="31" t="s">
+      <c r="G929" s="29" t="s">
         <v>3360</v>
       </c>
       <c r="H929" s="1" t="s">
@@ -41959,7 +41957,7 @@
       <c r="F930" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G930" s="30" t="s">
+      <c r="G930" s="28" t="s">
         <v>3364</v>
       </c>
       <c r="H930" s="1" t="s">
@@ -41992,7 +41990,7 @@
       <c r="F931" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G931" s="30" t="s">
+      <c r="G931" s="28" t="s">
         <v>3367</v>
       </c>
       <c r="H931" s="1" t="s">
@@ -42058,7 +42056,7 @@
       <c r="F933" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G933" s="30" t="s">
+      <c r="G933" s="28" t="s">
         <v>3375</v>
       </c>
       <c r="H933" s="1" t="s">
@@ -42091,7 +42089,7 @@
       <c r="F934" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G934" s="21" t="s">
+      <c r="G934" s="19" t="s">
         <v>3380</v>
       </c>
       <c r="H934" s="1" t="s">
@@ -42124,7 +42122,7 @@
       <c r="F935" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G935" s="32" t="s">
+      <c r="G935" s="30" t="s">
         <v>3382</v>
       </c>
       <c r="H935" s="1" t="s">
@@ -42157,7 +42155,7 @@
       <c r="F936" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G936" s="30" t="s">
+      <c r="G936" s="28" t="s">
         <v>3386</v>
       </c>
       <c r="H936" s="1" t="s">
@@ -42190,7 +42188,7 @@
       <c r="F937" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G937" s="30" t="s">
+      <c r="G937" s="28" t="s">
         <v>3389</v>
       </c>
       <c r="H937" s="1" t="s">
@@ -42223,7 +42221,7 @@
       <c r="F938" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G938" s="30" t="s">
+      <c r="G938" s="28" t="s">
         <v>3392</v>
       </c>
       <c r="H938" s="1" t="s">
@@ -42256,7 +42254,7 @@
       <c r="F939" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G939" s="32" t="s">
+      <c r="G939" s="30" t="s">
         <v>3394</v>
       </c>
       <c r="H939" s="1" t="s">
@@ -42289,7 +42287,7 @@
       <c r="F940" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G940" s="21" t="s">
+      <c r="G940" s="19" t="s">
         <v>3398</v>
       </c>
       <c r="H940" s="1" t="s">
@@ -42322,7 +42320,7 @@
       <c r="F941" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G941" s="30" t="s">
+      <c r="G941" s="28" t="s">
         <v>3401</v>
       </c>
       <c r="H941" s="1" t="s">
@@ -42355,7 +42353,7 @@
       <c r="F942" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G942" s="32" t="s">
+      <c r="G942" s="30" t="s">
         <v>3404</v>
       </c>
       <c r="H942" s="1" t="s">
@@ -42388,7 +42386,7 @@
       <c r="F943" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G943" s="33" t="s">
+      <c r="G943" s="31" t="s">
         <v>3407</v>
       </c>
       <c r="H943" s="1" t="s">
@@ -42421,7 +42419,7 @@
       <c r="F944" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G944" s="30" t="s">
+      <c r="G944" s="28" t="s">
         <v>3411</v>
       </c>
       <c r="H944" s="1" t="s">
@@ -42454,7 +42452,7 @@
       <c r="F945" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G945" s="33" t="s">
+      <c r="G945" s="31" t="s">
         <v>3414</v>
       </c>
       <c r="H945" s="1" t="s">
@@ -42468,35 +42466,35 @@
       </c>
       <c r="N945" s="13"/>
     </row>
-    <row r="946" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A946" t="s">
+    <row r="946" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A946" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B946" t="s">
+      <c r="B946" s="1" t="s">
         <v>3420</v>
       </c>
-      <c r="C946" t="s">
+      <c r="C946" s="1" t="s">
         <v>3419</v>
       </c>
-      <c r="D946" t="s">
-        <v>3</v>
-      </c>
-      <c r="E946" t="s">
+      <c r="D946" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E946" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F946" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G946" s="20" t="s">
+      <c r="F946" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G946" s="19" t="s">
         <v>3418</v>
       </c>
-      <c r="H946" t="s">
+      <c r="H946" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I946">
+      <c r="I946" s="1">
         <v>17055604455</v>
       </c>
-      <c r="J946" t="s">
+      <c r="J946" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8392" uniqueCount="3421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="3432">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -10279,6 +10279,39 @@
   </si>
   <si>
     <t>HIGHLIFE CANNABIS SUDBURY</t>
+  </si>
+  <si>
+    <t>5f03a722c696510135ab9ded</t>
+  </si>
+  <si>
+    <t>https://bluebirdcannabis.store/bank/</t>
+  </si>
+  <si>
+    <t>208 BANK ST</t>
+  </si>
+  <si>
+    <t>BLUEBIRD CANNABIS CO. BANK ST</t>
+  </si>
+  <si>
+    <t>62471ee05755c90e25c2e75a</t>
+  </si>
+  <si>
+    <t>417 WELLINGTON ST UNIT 141</t>
+  </si>
+  <si>
+    <t>BOB'S BUD EMPORIUM (ELGIN CENTRE)</t>
+  </si>
+  <si>
+    <t>60d256b1b6348d00d18a4d27</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/stores/tokyo-smoke-waterloo-bridgeport-plaza</t>
+  </si>
+  <si>
+    <t>94 BRIDGEPORT RD E SUITE 135</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Cannabis</t>
   </si>
 </sst>
 </file>
@@ -10810,10 +10843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N946"/>
+  <dimension ref="A1:N950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
-      <selection activeCell="A946" sqref="A946:XFD946"/>
+    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
+      <selection activeCell="A950" sqref="A950:XFD950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42495,6 +42528,134 @@
         <v>17055604455</v>
       </c>
       <c r="J946" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="947" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A947" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F947" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G947" s="19" t="s">
+        <v>3421</v>
+      </c>
+      <c r="H947" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I947" s="1">
+        <v>16135653420</v>
+      </c>
+      <c r="J947" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="948" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F948" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G948" s="19" t="s">
+        <v>3425</v>
+      </c>
+      <c r="H948" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I948" s="1">
+        <v>15192071605</v>
+      </c>
+      <c r="J948" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="949" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A949" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F949" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G949" s="30" t="s">
+        <v>2512</v>
+      </c>
+      <c r="H949" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I949" s="1">
+        <v>14378800871</v>
+      </c>
+      <c r="J949" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="950" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A950" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F950" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G950" s="19" t="s">
+        <v>3428</v>
+      </c>
+      <c r="H950" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I950" s="1">
+        <v>15198881888</v>
+      </c>
+      <c r="J950" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="3432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8473" uniqueCount="3450">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -10312,6 +10312,60 @@
   </si>
   <si>
     <t>Tokyo Smoke Cannabis</t>
+  </si>
+  <si>
+    <t>5ea873e9555e85012748fcf9</t>
+  </si>
+  <si>
+    <t>https://highlife.ca/pages/brantford-cannabis-store?</t>
+  </si>
+  <si>
+    <t>10 STANLEY ST</t>
+  </si>
+  <si>
+    <t>HIGHLIFE CANNABIS BRANTFORD</t>
+  </si>
+  <si>
+    <t>5efcd2b49829650152b4f03b</t>
+  </si>
+  <si>
+    <t>https://highlife.ca/pages/guelph-cannabis-store</t>
+  </si>
+  <si>
+    <t>128 WYNDHAM ST N</t>
+  </si>
+  <si>
+    <t>HIGHLIFE CANNABIS GUELPH</t>
+  </si>
+  <si>
+    <t>5fc5762bd9d0e500abb94e2b</t>
+  </si>
+  <si>
+    <t>https://sativabliss.ca/shop-kitchener/</t>
+  </si>
+  <si>
+    <t>57 QUEEN ST SOUTH</t>
+  </si>
+  <si>
+    <t>615d96d3efdc8d00aa0b1537</t>
+  </si>
+  <si>
+    <t>https://shopguelph.jsupplyco.com/stores/j-supply-co-guelph</t>
+  </si>
+  <si>
+    <t>1515 GORDON ST UNIT 106</t>
+  </si>
+  <si>
+    <t>J. Supply Co. Guelph</t>
+  </si>
+  <si>
+    <t>62ab2d7ee716cd00a3caa324</t>
+  </si>
+  <si>
+    <t>https://www.tokecannabis.com/hamilton/store</t>
+  </si>
+  <si>
+    <t>247 CENTENNIAL PKY N UNIT 2</t>
   </si>
 </sst>
 </file>
@@ -10843,10 +10897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N950"/>
+  <dimension ref="A1:N955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
-      <selection activeCell="A950" sqref="A950:XFD950"/>
+      <selection activeCell="A955" sqref="A955:XFD955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42656,6 +42710,166 @@
         <v>15198881888</v>
       </c>
       <c r="J950" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="951" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F951" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G951" s="19" t="s">
+        <v>3432</v>
+      </c>
+      <c r="H951" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I951" s="1">
+        <v>15193041020</v>
+      </c>
+      <c r="J951" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="952" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A952" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F952" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G952" s="28" t="s">
+        <v>3436</v>
+      </c>
+      <c r="H952" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I952" s="1">
+        <v>15197637837</v>
+      </c>
+      <c r="J952" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="953" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F953" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G953" s="18" t="s">
+        <v>3440</v>
+      </c>
+      <c r="H953" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I953" s="1">
+        <v>15192083377</v>
+      </c>
+      <c r="J953" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="954" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F954" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G954" s="18" t="s">
+        <v>3443</v>
+      </c>
+      <c r="H954" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I954" s="1">
+        <v>15198218180</v>
+      </c>
+      <c r="J954" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="955" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F955" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G955" s="18" t="s">
+        <v>3447</v>
+      </c>
+      <c r="H955" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I955" s="1">
+        <v>12893891885</v>
+      </c>
+      <c r="J955" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8473" uniqueCount="3450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8681" uniqueCount="3514">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -10366,6 +10366,198 @@
   </si>
   <si>
     <t>247 CENTENNIAL PKY N UNIT 2</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'No-delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/13</t>
+  </si>
+  <si>
+    <t>858 UPPER JAMES ST UNIT 1</t>
+  </si>
+  <si>
+    <t>https://offsidecannabis.ca/shop/?dtche%5Blocation%5D=spdr-cannabis-pickering</t>
+  </si>
+  <si>
+    <t>776 LIVERPOOL RD UNIT 4</t>
+  </si>
+  <si>
+    <t>423 RICHMOND RD</t>
+  </si>
+  <si>
+    <t>801 DUNDAS STREET EAST UNIT D1-D2</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/09/20</t>
+  </si>
+  <si>
+    <t>13412 TECUMSEH RD E UNIT C2</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/07/15</t>
+  </si>
+  <si>
+    <t>3460 PLATINUM DR UNIT 23</t>
+  </si>
+  <si>
+    <t>['No delivery / Page doesn’t exist']</t>
+  </si>
+  <si>
+    <t>420 MAIN ST UNIT 105</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/10/07</t>
+  </si>
+  <si>
+    <t>3077 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>900 LASALLE BLVD</t>
+  </si>
+  <si>
+    <t>https://treescannabis.ca/</t>
+  </si>
+  <si>
+    <t>3812A BLOOR ST W</t>
+  </si>
+  <si>
+    <t>['Permanently closed']</t>
+  </si>
+  <si>
+    <t>['No-delivery / Permanently closed']</t>
+  </si>
+  <si>
+    <t>214 MAIN ST W UNIT 2</t>
+  </si>
+  <si>
+    <t>PALMERSTON</t>
+  </si>
+  <si>
+    <t>['No delivery / Opening Soon!']</t>
+  </si>
+  <si>
+    <t>[Opening Soon!']</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/16</t>
+  </si>
+  <si>
+    <t>279 LAKESHORE RD E</t>
+  </si>
+  <si>
+    <t>The Farmhouse Cannabis Co.</t>
+  </si>
+  <si>
+    <t>1562 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>['No delivery / Permanently closed']</t>
+  </si>
+  <si>
+    <t>['Permanently closed'']</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/10/04</t>
+  </si>
+  <si>
+    <t>325 KING ST E</t>
+  </si>
+  <si>
+    <t>THE CANNABIST SHOP – KING E</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2020/06/03</t>
+  </si>
+  <si>
+    <t>380 KING ST N UNIT 5</t>
+  </si>
+  <si>
+    <t>THE CANNABIST SHOP - WATERLOO</t>
+  </si>
+  <si>
+    <t>https://www.highties.ca/downtown/</t>
+  </si>
+  <si>
+    <t>4000 BRIDLE PATH DR</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/10/23</t>
+  </si>
+  <si>
+    <t>404 MAIN STREET UNIT C</t>
+  </si>
+  <si>
+    <t>J. Supply Co. Geraldton</t>
+  </si>
+  <si>
+    <t>GERALDTON</t>
+  </si>
+  <si>
+    <t>https://www.jsupplyco.com</t>
+  </si>
+  <si>
+    <t>4 STEVENS AVENUE</t>
+  </si>
+  <si>
+    <t>J. Supply Co. Marathon</t>
+  </si>
+  <si>
+    <t>MARATHON</t>
+  </si>
+  <si>
+    <t>https://www.jsupplyco.com/windsor#/menu</t>
+  </si>
+  <si>
+    <t>545 OUELLETTE AVE</t>
+  </si>
+  <si>
+    <t>J. SUPPLY CO. - WINDSOR OUELETTE</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/barton-hamilton-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>1096 BARTON ST E UNIT 2</t>
+  </si>
+  <si>
+    <t>https://neolitic.ca/menu/#/menu</t>
+  </si>
+  <si>
+    <t>4665 QUEEN ST</t>
+  </si>
+  <si>
+    <t>NEOLITIC</t>
+  </si>
+  <si>
+    <t>https://www.tncc.ca</t>
+  </si>
+  <si>
+    <t>1720 ALGONQUIN AVE</t>
+  </si>
+  <si>
+    <t>Public Notice: Ends on 2024/01/26</t>
+  </si>
+  <si>
+    <t>117 INSPIRE BLVD</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/11/10</t>
+  </si>
+  <si>
+    <t>1900 DUNDAS ST W UNIT B29A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOW WORLD OF WEED INC </t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2020/07/29</t>
+  </si>
+  <si>
+    <t>944 SIMCOE ST N</t>
+  </si>
+  <si>
+    <t>188 PARK ST</t>
   </si>
 </sst>
 </file>
@@ -10537,7 +10729,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -10594,6 +10786,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -10897,10 +11090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N955"/>
+  <dimension ref="A1:N981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
-      <selection activeCell="A955" sqref="A955:XFD955"/>
+    <sheetView tabSelected="1" topLeftCell="A956" workbookViewId="0">
+      <selection activeCell="A981" sqref="A981:XFD981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42584,6 +42777,7 @@
       <c r="J946" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N946" s="13"/>
     </row>
     <row r="947" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1" t="s">
@@ -42616,6 +42810,7 @@
       <c r="J947" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N947" s="13"/>
     </row>
     <row r="948" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1" t="s">
@@ -42648,6 +42843,7 @@
       <c r="J948" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N948" s="13"/>
     </row>
     <row r="949" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
@@ -42680,6 +42876,7 @@
       <c r="J949" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N949" s="13"/>
     </row>
     <row r="950" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
@@ -42712,6 +42909,7 @@
       <c r="J950" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N950" s="13"/>
     </row>
     <row r="951" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1" t="s">
@@ -42744,6 +42942,7 @@
       <c r="J951" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N951" s="13"/>
     </row>
     <row r="952" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
@@ -42776,6 +42975,7 @@
       <c r="J952" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N952" s="13"/>
     </row>
     <row r="953" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1" t="s">
@@ -42808,6 +43008,7 @@
       <c r="J953" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N953" s="13"/>
     </row>
     <row r="954" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1" t="s">
@@ -42840,6 +43041,7 @@
       <c r="J954" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N954" s="13"/>
     </row>
     <row r="955" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1" t="s">
@@ -42871,6 +43073,790 @@
       </c>
       <c r="J955" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="N955" s="13"/>
+    </row>
+    <row r="956" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F956" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G956" s="32"/>
+      <c r="H956" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I956" s="1">
+        <v>19056642340</v>
+      </c>
+      <c r="J956" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N956" s="13"/>
+    </row>
+    <row r="957" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="F957" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G957" s="32"/>
+      <c r="H957" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I957" s="1">
+        <v>19058318273</v>
+      </c>
+      <c r="J957" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N957" s="13"/>
+    </row>
+    <row r="958" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F958" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G958" s="32"/>
+      <c r="H958" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I958" s="1">
+        <v>16138430843</v>
+      </c>
+      <c r="J958" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N958" s="13"/>
+    </row>
+    <row r="959" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F959" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G959" s="32"/>
+      <c r="H959" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I959" s="1">
+        <v>14378883764</v>
+      </c>
+      <c r="J959" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N959" s="13"/>
+    </row>
+    <row r="960" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A960" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F960" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G960" s="32"/>
+      <c r="H960" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I960" s="1">
+        <v>12265264050</v>
+      </c>
+      <c r="J960" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N960" s="13"/>
+    </row>
+    <row r="961" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F961" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G961" s="32"/>
+      <c r="H961" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I961" s="1">
+        <v>14167406111</v>
+      </c>
+      <c r="J961" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N961" s="13"/>
+    </row>
+    <row r="962" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F962" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G962" s="30"/>
+      <c r="H962" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I962" s="1">
+        <v>15196248509</v>
+      </c>
+      <c r="J962" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="963" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F963" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G963" s="32"/>
+      <c r="H963" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I963" s="1">
+        <v>14165515482</v>
+      </c>
+      <c r="J963" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="964" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F964" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G964" s="32"/>
+      <c r="H964" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I964" s="1">
+        <v>19052432744</v>
+      </c>
+      <c r="J964" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="965" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="F965" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G965" s="32"/>
+      <c r="H965" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I965" s="1">
+        <v>16478477812</v>
+      </c>
+      <c r="J965" s="1" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="966" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F966" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G966" s="32"/>
+      <c r="H966" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I966" s="1">
+        <v>15199307954</v>
+      </c>
+      <c r="J966" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="967" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F967" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G967" s="32"/>
+      <c r="H967" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I967" s="1">
+        <v>19053335113</v>
+      </c>
+      <c r="J967" s="1" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="968" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F968" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G968" s="32"/>
+      <c r="H968" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I968" s="1">
+        <v>16473687830</v>
+      </c>
+      <c r="J968" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="969" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F969" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G969" s="32"/>
+      <c r="H969" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I969" s="1">
+        <v>15192080606</v>
+      </c>
+      <c r="J969" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="970" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F970" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G970" s="32"/>
+      <c r="H970" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I970" s="1">
+        <v>15192080606</v>
+      </c>
+      <c r="J970" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="971" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F971" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G971" s="32"/>
+      <c r="H971" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I971" s="1">
+        <v>16136952420</v>
+      </c>
+      <c r="J971" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="972" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F972" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G972" s="32"/>
+      <c r="H972" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I972" s="1">
+        <v>18073455510</v>
+      </c>
+      <c r="J972" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="973" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E973" s="11" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F973" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G973" s="32"/>
+      <c r="H973" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I973" s="1">
+        <v>18073455510</v>
+      </c>
+      <c r="J973" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="974" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F974" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G974" s="32"/>
+      <c r="H974" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I974" s="1">
+        <v>15199150605</v>
+      </c>
+      <c r="J974" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="975" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F975" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G975" s="32"/>
+      <c r="H975" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I975" s="1">
+        <v>19053939333</v>
+      </c>
+      <c r="J975" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="976" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F976" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G976" s="32"/>
+      <c r="H976" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I976" s="1">
+        <v>12892482599</v>
+      </c>
+      <c r="J976" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E977" s="11" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F977" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G977" s="32"/>
+      <c r="H977" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I977" s="1">
+        <v>17054727412</v>
+      </c>
+      <c r="J977" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B978" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C978" s="5" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E978" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F978" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G978" s="32"/>
+      <c r="H978" s="5" t="s">
+        <v>2991</v>
+      </c>
+      <c r="I978" s="5">
+        <v>14167431234</v>
+      </c>
+      <c r="J978" s="5" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F979" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G979" s="32"/>
+      <c r="H979" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="I979" s="1">
+        <v>14167431234</v>
+      </c>
+      <c r="J979" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="980" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F980" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G980" s="32"/>
+      <c r="H980" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J980" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="981" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F981" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G981" s="32"/>
+      <c r="H981" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I981" s="1">
+        <v>12263382936</v>
+      </c>
+      <c r="J981" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -42881,9 +43867,11 @@
     <hyperlink ref="I377" r:id="rId4" display="tel:(705) 362-7699"/>
     <hyperlink ref="E870" r:id="rId5"/>
     <hyperlink ref="E892" r:id="rId6"/>
+    <hyperlink ref="E973" r:id="rId7"/>
+    <hyperlink ref="E977" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8681" uniqueCount="3514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8734" uniqueCount="3534">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -10558,13 +10558,73 @@
   </si>
   <si>
     <t>188 PARK ST</t>
+  </si>
+  <si>
+    <t>1193 LAWRENCE AVE W</t>
+  </si>
+  <si>
+    <t>2261bae7d71e928b22c91b5ed4</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/tokyo-smoke-barrie-essa-rd</t>
+  </si>
+  <si>
+    <t>555 ESSA RD</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Barrie Essa Road</t>
+  </si>
+  <si>
+    <t>22612691afdcef3300bf66fc0d</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/tokyo-smoke-bradford-holland-st</t>
+  </si>
+  <si>
+    <t>494 HOLLAND ST W UNIT 103</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Bradford</t>
+  </si>
+  <si>
+    <t>['closed']</t>
+  </si>
+  <si>
+    <t>Cu9bbMqEXZXAWYNnD</t>
+  </si>
+  <si>
+    <t>https://superetteshop.com/pages/ottawa-wellington-location?utm_source=GMBWellington&amp;utm_medium=OrganicSEO&amp;utm_campaign=GMB_Wellington</t>
+  </si>
+  <si>
+    <t>1306 WELLINGTON ST W UNIT 100</t>
+  </si>
+  <si>
+    <t>SUPERETTE</t>
+  </si>
+  <si>
+    <t>Y6JM3uLfBxMs9FKdP</t>
+  </si>
+  <si>
+    <t>372 RIVERSIDE DR</t>
+  </si>
+  <si>
+    <t>https://www.tncc.ca/shop/sudbury/</t>
+  </si>
+  <si>
+    <t>64833eaca3386b0017a49653</t>
+  </si>
+  <si>
+    <t>155 MAIN ST S UNIT A</t>
+  </si>
+  <si>
+    <t>ROCKWOOD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10644,15 +10704,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -10660,13 +10711,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF6A8759"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="7"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -10729,7 +10778,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -10761,32 +10810,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -11090,17 +11129,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N981"/>
+  <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A956" workbookViewId="0">
-      <selection activeCell="A981" sqref="A981:XFD981"/>
+    <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
+      <selection activeCell="N984" sqref="N984:N987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="26" customWidth="1"/>
     <col min="8" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11123,7 +11162,7 @@
       <c r="F1" s="15" t="s">
         <v>1089</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>1088</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -11167,7 +11206,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -11203,7 +11242,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -11239,7 +11278,7 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -11275,7 +11314,7 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -11311,7 +11350,7 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -11347,7 +11386,7 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -11383,7 +11422,7 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -11419,7 +11458,7 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -11455,7 +11494,7 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -11491,7 +11530,7 @@
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -11527,7 +11566,7 @@
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -11563,7 +11602,7 @@
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -11599,7 +11638,7 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -11635,7 +11674,7 @@
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -11671,7 +11710,7 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -11707,7 +11746,7 @@
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -11743,7 +11782,7 @@
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -11779,7 +11818,7 @@
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -11815,7 +11854,7 @@
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -11851,7 +11890,7 @@
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -11887,7 +11926,7 @@
       <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -11923,7 +11962,7 @@
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -11959,7 +11998,7 @@
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -11995,7 +12034,7 @@
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
         <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -12031,7 +12070,7 @@
       <c r="F26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -12067,7 +12106,7 @@
       <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -12103,7 +12142,7 @@
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -12139,7 +12178,7 @@
       <c r="F29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>143</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -12175,7 +12214,7 @@
       <c r="F30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>143</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -12211,7 +12250,7 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -12247,7 +12286,7 @@
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>151</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -12283,7 +12322,7 @@
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>156</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -12319,7 +12358,7 @@
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>161</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -12355,7 +12394,7 @@
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>165</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -12391,7 +12430,7 @@
       <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>170</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -12427,7 +12466,7 @@
       <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>175</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -12463,7 +12502,7 @@
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>180</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -12499,7 +12538,7 @@
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>185</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -12535,7 +12574,7 @@
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>190</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -12571,7 +12610,7 @@
       <c r="F41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>195</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -12607,7 +12646,7 @@
       <c r="F42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="19" t="s">
         <v>201</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -12643,7 +12682,7 @@
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>205</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -12679,7 +12718,7 @@
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="19" t="s">
         <v>211</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -12715,7 +12754,7 @@
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
         <v>216</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -12751,7 +12790,7 @@
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>220</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -12787,7 +12826,7 @@
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>225</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -12823,7 +12862,7 @@
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="19" t="s">
         <v>231</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -12859,7 +12898,7 @@
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
         <v>236</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -12895,7 +12934,7 @@
       <c r="F50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>240</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -12931,7 +12970,7 @@
       <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>245</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -12967,7 +13006,7 @@
       <c r="F52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>251</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -13003,7 +13042,7 @@
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="19" t="s">
         <v>256</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -13039,7 +13078,7 @@
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="19" t="s">
         <v>261</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -13075,7 +13114,7 @@
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="19" t="s">
         <v>266</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -13111,7 +13150,7 @@
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>271</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -13147,7 +13186,7 @@
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="19" t="s">
         <v>276</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -13183,7 +13222,7 @@
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>280</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -13219,7 +13258,7 @@
       <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -13255,7 +13294,7 @@
       <c r="F60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G60" s="20"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="1" t="s">
         <v>14</v>
       </c>
@@ -13289,7 +13328,7 @@
       <c r="F61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="19" t="s">
         <v>296</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -13325,7 +13364,7 @@
       <c r="F62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="19" t="s">
         <v>300</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -13361,7 +13400,7 @@
       <c r="F63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="19" t="s">
         <v>276</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -13397,7 +13436,7 @@
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="19" t="s">
         <v>308</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -13433,7 +13472,7 @@
       <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="19" t="s">
         <v>313</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -13469,7 +13508,7 @@
       <c r="F66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="19" t="s">
         <v>320</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -13505,7 +13544,7 @@
       <c r="F67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="19" t="s">
         <v>324</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -13541,7 +13580,7 @@
       <c r="F68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="19" t="s">
         <v>328</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -13577,7 +13616,7 @@
       <c r="F69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="19" t="s">
         <v>333</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -13613,7 +13652,7 @@
       <c r="F70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="19" t="s">
         <v>337</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -13649,7 +13688,7 @@
       <c r="F71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="19" t="s">
         <v>340</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -13685,7 +13724,7 @@
       <c r="F72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="19" t="s">
         <v>345</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -13721,7 +13760,7 @@
       <c r="F73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="19" t="s">
         <v>350</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -13757,7 +13796,7 @@
       <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="19" t="s">
         <v>355</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -13793,7 +13832,7 @@
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="19" t="s">
         <v>360</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -13829,7 +13868,7 @@
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="19" t="s">
         <v>365</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -13865,7 +13904,7 @@
       <c r="F77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="19" t="s">
         <v>369</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -13901,7 +13940,7 @@
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="19" t="s">
         <v>372</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -13937,7 +13976,7 @@
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="19" t="s">
         <v>376</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -13973,7 +14012,7 @@
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -14009,7 +14048,7 @@
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="19" t="s">
         <v>386</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -14045,7 +14084,7 @@
       <c r="F82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="19" t="s">
         <v>391</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -14081,7 +14120,7 @@
       <c r="F83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="19" t="s">
         <v>396</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -14117,7 +14156,7 @@
       <c r="F84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="19" t="s">
         <v>400</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -14153,7 +14192,7 @@
       <c r="F85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="19" t="s">
         <v>405</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -14189,7 +14228,7 @@
       <c r="F86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="20" t="s">
+      <c r="G86" s="19" t="s">
         <v>408</v>
       </c>
       <c r="H86" s="8" t="s">
@@ -14225,7 +14264,7 @@
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G87" s="19" t="s">
         <v>415</v>
       </c>
       <c r="H87" s="1"/>
@@ -14259,7 +14298,7 @@
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>420</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -14295,7 +14334,7 @@
       <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="20" t="s">
+      <c r="G89" s="19" t="s">
         <v>424</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -14331,7 +14370,7 @@
       <c r="F90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G90" s="19" t="s">
         <v>429</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -14367,7 +14406,7 @@
       <c r="F91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="G91" s="19" t="s">
         <v>433</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -14403,7 +14442,7 @@
       <c r="F92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="19" t="s">
         <v>438</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -14439,7 +14478,7 @@
       <c r="F93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="19" t="s">
         <v>442</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -14475,7 +14514,7 @@
       <c r="F94" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G94" s="19" t="s">
         <v>446</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -14511,7 +14550,7 @@
       <c r="F95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="19" t="s">
         <v>449</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -14547,7 +14586,7 @@
       <c r="F96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="20" t="s">
+      <c r="G96" s="19" t="s">
         <v>452</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -14583,7 +14622,7 @@
       <c r="F97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="20" t="s">
+      <c r="G97" s="19" t="s">
         <v>457</v>
       </c>
       <c r="H97" s="8" t="s">
@@ -14619,7 +14658,7 @@
       <c r="F98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G98" s="19" t="s">
         <v>463</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -14655,7 +14694,7 @@
       <c r="F99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="20" t="s">
+      <c r="G99" s="19" t="s">
         <v>469</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -14691,7 +14730,7 @@
       <c r="F100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="20" t="s">
+      <c r="G100" s="19" t="s">
         <v>472</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -14727,7 +14766,7 @@
       <c r="F101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="G101" s="19" t="s">
         <v>477</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -14763,7 +14802,7 @@
       <c r="F102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G102" s="19" t="s">
         <v>477</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -14799,7 +14838,7 @@
       <c r="F103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G103" s="20" t="s">
+      <c r="G103" s="19" t="s">
         <v>482</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -14835,7 +14874,7 @@
       <c r="F104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G104" s="19" t="s">
         <v>488</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -14871,7 +14910,7 @@
       <c r="F105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="19" t="s">
         <v>492</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -14907,7 +14946,7 @@
       <c r="F106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="20" t="s">
+      <c r="G106" s="19" t="s">
         <v>497</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -14943,7 +14982,7 @@
       <c r="F107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="20" t="s">
+      <c r="G107" s="19" t="s">
         <v>501</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -14979,7 +15018,7 @@
       <c r="F108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G108" s="19" t="s">
         <v>505</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -15015,7 +15054,7 @@
       <c r="F109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="20" t="s">
+      <c r="G109" s="19" t="s">
         <v>510</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -15051,7 +15090,7 @@
       <c r="F110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="20" t="s">
+      <c r="G110" s="19" t="s">
         <v>515</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -15087,7 +15126,7 @@
       <c r="F111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="20" t="s">
+      <c r="G111" s="19" t="s">
         <v>519</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -15123,7 +15162,7 @@
       <c r="F112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="20" t="s">
+      <c r="G112" s="19" t="s">
         <v>523</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -15157,7 +15196,7 @@
       <c r="F113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G113" s="20" t="s">
+      <c r="G113" s="19" t="s">
         <v>527</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -15193,7 +15232,7 @@
       <c r="F114" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="20" t="s">
+      <c r="G114" s="19" t="s">
         <v>532</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -15229,7 +15268,7 @@
       <c r="F115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="20" t="s">
+      <c r="G115" s="19" t="s">
         <v>537</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -15265,7 +15304,7 @@
       <c r="F116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G116" s="19" t="s">
         <v>542</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -15301,7 +15340,7 @@
       <c r="F117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G117" s="19" t="s">
         <v>543</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -15337,7 +15376,7 @@
       <c r="F118" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="20" t="s">
+      <c r="G118" s="19" t="s">
         <v>547</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -15373,7 +15412,7 @@
       <c r="F119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="20" t="s">
+      <c r="G119" s="19" t="s">
         <v>547</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -15409,7 +15448,7 @@
       <c r="F120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G120" s="19" t="s">
         <v>556</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -15445,7 +15484,7 @@
       <c r="F121" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G121" s="20" t="s">
+      <c r="G121" s="19" t="s">
         <v>561</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -15479,7 +15518,7 @@
       <c r="F122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="19" t="s">
         <v>561</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -15515,7 +15554,7 @@
       <c r="F123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="20" t="s">
+      <c r="G123" s="19" t="s">
         <v>569</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -15551,7 +15590,7 @@
       <c r="F124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="20" t="s">
+      <c r="G124" s="19" t="s">
         <v>573</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -15587,7 +15626,7 @@
       <c r="F125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="19" t="s">
         <v>578</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -15623,7 +15662,7 @@
       <c r="F126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="19" t="s">
         <v>582</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -15659,7 +15698,7 @@
       <c r="F127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G127" s="19" t="s">
         <v>586</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -15695,7 +15734,7 @@
       <c r="F128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="19" t="s">
         <v>591</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -15729,7 +15768,7 @@
       <c r="F129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="19" t="s">
         <v>595</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -15765,7 +15804,7 @@
       <c r="F130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="20" t="s">
+      <c r="G130" s="19" t="s">
         <v>598</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -15799,7 +15838,7 @@
       <c r="F131" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="19" t="s">
         <v>601</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -15835,7 +15874,7 @@
       <c r="F132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="20" t="s">
+      <c r="G132" s="19" t="s">
         <v>605</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -15871,7 +15910,7 @@
       <c r="F133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="20" t="s">
+      <c r="G133" s="19" t="s">
         <v>609</v>
       </c>
       <c r="H133" s="8" t="s">
@@ -15907,7 +15946,7 @@
       <c r="F134" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="20" t="s">
+      <c r="G134" s="19" t="s">
         <v>615</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -15943,7 +15982,7 @@
       <c r="F135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="20" t="s">
+      <c r="G135" s="19" t="s">
         <v>620</v>
       </c>
       <c r="H135" s="8" t="s">
@@ -15979,7 +16018,7 @@
       <c r="F136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G136" s="20" t="s">
+      <c r="G136" s="19" t="s">
         <v>625</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -16015,7 +16054,7 @@
       <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G137" s="20" t="s">
+      <c r="G137" s="19" t="s">
         <v>629</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -16051,7 +16090,7 @@
       <c r="F138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G138" s="20" t="s">
+      <c r="G138" s="19" t="s">
         <v>632</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -16087,7 +16126,7 @@
       <c r="F139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="20" t="s">
+      <c r="G139" s="19" t="s">
         <v>636</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -16123,7 +16162,7 @@
       <c r="F140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="20" t="s">
+      <c r="G140" s="19" t="s">
         <v>639</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -16159,7 +16198,7 @@
       <c r="F141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G141" s="20" t="s">
+      <c r="G141" s="19" t="s">
         <v>642</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -16195,7 +16234,7 @@
       <c r="F142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G142" s="20" t="s">
+      <c r="G142" s="19" t="s">
         <v>645</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -16231,7 +16270,7 @@
       <c r="F143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="19" t="s">
         <v>648</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -16267,7 +16306,7 @@
       <c r="F144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="19" t="s">
         <v>653</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -16303,7 +16342,7 @@
       <c r="F145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="19" t="s">
         <v>658</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -16339,7 +16378,7 @@
       <c r="F146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="19" t="s">
         <v>661</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -16375,7 +16414,7 @@
       <c r="F147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="20" t="s">
+      <c r="G147" s="19" t="s">
         <v>665</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -16411,7 +16450,7 @@
       <c r="F148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G148" s="20" t="s">
+      <c r="G148" s="19" t="s">
         <v>669</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -16447,7 +16486,7 @@
       <c r="F149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="20" t="s">
+      <c r="G149" s="19" t="s">
         <v>672</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -16483,7 +16522,7 @@
       <c r="F150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="20" t="s">
+      <c r="G150" s="19" t="s">
         <v>675</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -16519,7 +16558,7 @@
       <c r="F151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="19" t="s">
         <v>680</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -16555,7 +16594,7 @@
       <c r="F152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G152" s="20" t="s">
+      <c r="G152" s="19" t="s">
         <v>685</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -16591,7 +16630,7 @@
       <c r="F153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="20" t="s">
+      <c r="G153" s="19" t="s">
         <v>690</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -16627,7 +16666,7 @@
       <c r="F154" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G154" s="20" t="s">
+      <c r="G154" s="19" t="s">
         <v>695</v>
       </c>
       <c r="H154" s="8" t="s">
@@ -16663,7 +16702,7 @@
       <c r="F155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G155" s="20" t="s">
+      <c r="G155" s="19" t="s">
         <v>701</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -16699,7 +16738,7 @@
       <c r="F156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="20" t="s">
+      <c r="G156" s="19" t="s">
         <v>706</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -16735,7 +16774,7 @@
       <c r="F157" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G157" s="20" t="s">
+      <c r="G157" s="19" t="s">
         <v>711</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -16771,7 +16810,7 @@
       <c r="F158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G158" s="19" t="s">
         <v>715</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -16807,7 +16846,7 @@
       <c r="F159" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G159" s="20" t="s">
+      <c r="G159" s="19" t="s">
         <v>719</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -16843,7 +16882,7 @@
       <c r="F160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G160" s="20" t="s">
+      <c r="G160" s="19" t="s">
         <v>723</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -16879,7 +16918,7 @@
       <c r="F161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G161" s="20" t="s">
+      <c r="G161" s="19" t="s">
         <v>727</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -16915,7 +16954,7 @@
       <c r="F162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G162" s="20" t="s">
+      <c r="G162" s="19" t="s">
         <v>731</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -16951,7 +16990,7 @@
       <c r="F163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G163" s="20" t="s">
+      <c r="G163" s="19" t="s">
         <v>735</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -16987,7 +17026,7 @@
       <c r="F164" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="20" t="s">
+      <c r="G164" s="19" t="s">
         <v>739</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -17023,7 +17062,7 @@
       <c r="F165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="G165" s="19" t="s">
         <v>743</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -17059,7 +17098,7 @@
       <c r="F166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="20" t="s">
+      <c r="G166" s="19" t="s">
         <v>747</v>
       </c>
       <c r="H166" s="8" t="s">
@@ -17095,7 +17134,7 @@
       <c r="F167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" s="19" t="s">
         <v>751</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -17131,7 +17170,7 @@
       <c r="F168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="20" t="s">
+      <c r="G168" s="19" t="s">
         <v>756</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -17167,7 +17206,7 @@
       <c r="F169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" s="19" t="s">
         <v>760</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -17203,7 +17242,7 @@
       <c r="F170" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" s="19" t="s">
         <v>763</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -17239,7 +17278,7 @@
       <c r="F171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="G171" s="19" t="s">
         <v>766</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -17275,7 +17314,7 @@
       <c r="F172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G172" s="20" t="s">
+      <c r="G172" s="19" t="s">
         <v>770</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -17311,7 +17350,7 @@
       <c r="F173" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G173" s="20" t="s">
+      <c r="G173" s="19" t="s">
         <v>774</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -17347,7 +17386,7 @@
       <c r="F174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G174" s="20" t="s">
+      <c r="G174" s="19" t="s">
         <v>779</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -17383,7 +17422,7 @@
       <c r="F175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G175" s="20" t="s">
+      <c r="G175" s="19" t="s">
         <v>783</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -17419,7 +17458,7 @@
       <c r="F176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G176" s="20" t="s">
+      <c r="G176" s="19" t="s">
         <v>788</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -17455,7 +17494,7 @@
       <c r="F177" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G177" s="20" t="s">
+      <c r="G177" s="19" t="s">
         <v>792</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -17491,7 +17530,7 @@
       <c r="F178" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G178" s="20" t="s">
+      <c r="G178" s="19" t="s">
         <v>797</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -17527,7 +17566,7 @@
       <c r="F179" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="20" t="s">
+      <c r="G179" s="19" t="s">
         <v>801</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -17563,7 +17602,7 @@
       <c r="F180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G180" s="20" t="s">
+      <c r="G180" s="19" t="s">
         <v>805</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -17599,7 +17638,7 @@
       <c r="F181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G181" s="20" t="s">
+      <c r="G181" s="19" t="s">
         <v>809</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -17635,7 +17674,7 @@
       <c r="F182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G182" s="20" t="s">
+      <c r="G182" s="19" t="s">
         <v>814</v>
       </c>
       <c r="H182" s="1" t="s">
@@ -17671,7 +17710,7 @@
       <c r="F183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G183" s="20" t="s">
+      <c r="G183" s="19" t="s">
         <v>819</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -17707,7 +17746,7 @@
       <c r="F184" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G184" s="20" t="s">
+      <c r="G184" s="19" t="s">
         <v>823</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -17743,7 +17782,7 @@
       <c r="F185" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="20" t="s">
+      <c r="G185" s="19" t="s">
         <v>827</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -17779,7 +17818,7 @@
       <c r="F186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G186" s="20" t="s">
+      <c r="G186" s="19" t="s">
         <v>832</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -17815,7 +17854,7 @@
       <c r="F187" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="20" t="s">
+      <c r="G187" s="19" t="s">
         <v>836</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -17851,7 +17890,7 @@
       <c r="F188" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G188" s="20" t="s">
+      <c r="G188" s="19" t="s">
         <v>839</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -17887,7 +17926,7 @@
       <c r="F189" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G189" s="20" t="s">
+      <c r="G189" s="19" t="s">
         <v>843</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -17923,7 +17962,7 @@
       <c r="F190" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G190" s="20" t="s">
+      <c r="G190" s="19" t="s">
         <v>848</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -17959,7 +17998,7 @@
       <c r="F191" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G191" s="20" t="s">
+      <c r="G191" s="19" t="s">
         <v>852</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -17995,7 +18034,7 @@
       <c r="F192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G192" s="20" t="s">
+      <c r="G192" s="19" t="s">
         <v>856</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -18031,7 +18070,7 @@
       <c r="F193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G193" s="20" t="s">
+      <c r="G193" s="19" t="s">
         <v>861</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -18067,7 +18106,7 @@
       <c r="F194" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G194" s="20" t="s">
+      <c r="G194" s="19" t="s">
         <v>865</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -18103,7 +18142,7 @@
       <c r="F195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="20" t="s">
+      <c r="G195" s="19" t="s">
         <v>869</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -18139,7 +18178,7 @@
       <c r="F196" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G196" s="20" t="s">
+      <c r="G196" s="19" t="s">
         <v>873</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -18175,7 +18214,7 @@
       <c r="F197" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="G197" s="19" t="s">
         <v>877</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -18211,7 +18250,7 @@
       <c r="F198" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G198" s="20" t="s">
+      <c r="G198" s="19" t="s">
         <v>882</v>
       </c>
       <c r="H198" s="1" t="s">
@@ -18247,7 +18286,7 @@
       <c r="F199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="20" t="s">
+      <c r="G199" s="19" t="s">
         <v>886</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -18283,7 +18322,7 @@
       <c r="F200" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G200" s="20" t="s">
+      <c r="G200" s="19" t="s">
         <v>891</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -18319,7 +18358,7 @@
       <c r="F201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G201" s="20" t="s">
+      <c r="G201" s="19" t="s">
         <v>895</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -18355,7 +18394,7 @@
       <c r="F202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G202" s="20" t="s">
+      <c r="G202" s="19" t="s">
         <v>899</v>
       </c>
       <c r="H202" s="1" t="s">
@@ -18391,7 +18430,7 @@
       <c r="F203" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G203" s="20" t="s">
+      <c r="G203" s="19" t="s">
         <v>903</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -18427,7 +18466,7 @@
       <c r="F204" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G204" s="20" t="s">
+      <c r="G204" s="19" t="s">
         <v>907</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -18463,7 +18502,7 @@
       <c r="F205" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G205" s="20" t="s">
+      <c r="G205" s="19" t="s">
         <v>912</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -18499,7 +18538,7 @@
       <c r="F206" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G206" s="20" t="s">
+      <c r="G206" s="19" t="s">
         <v>917</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -18535,7 +18574,7 @@
       <c r="F207" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G207" s="20" t="s">
+      <c r="G207" s="19" t="s">
         <v>922</v>
       </c>
       <c r="H207" s="1" t="s">
@@ -18571,7 +18610,7 @@
       <c r="F208" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G208" s="20" t="s">
+      <c r="G208" s="19" t="s">
         <v>216</v>
       </c>
       <c r="H208" s="8" t="s">
@@ -18607,7 +18646,7 @@
       <c r="F209" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G209" s="20" t="s">
+      <c r="G209" s="19" t="s">
         <v>931</v>
       </c>
       <c r="H209" s="1" t="s">
@@ -18643,7 +18682,7 @@
       <c r="F210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G210" s="20" t="s">
+      <c r="G210" s="19" t="s">
         <v>934</v>
       </c>
       <c r="H210" s="1" t="s">
@@ -18679,7 +18718,7 @@
       <c r="F211" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G211" s="20" t="s">
+      <c r="G211" s="19" t="s">
         <v>939</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -18715,7 +18754,7 @@
       <c r="F212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G212" s="20" t="s">
+      <c r="G212" s="19" t="s">
         <v>944</v>
       </c>
       <c r="H212" s="1" t="s">
@@ -18751,7 +18790,7 @@
       <c r="F213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G213" s="20" t="s">
+      <c r="G213" s="19" t="s">
         <v>949</v>
       </c>
       <c r="H213" s="1"/>
@@ -18785,7 +18824,7 @@
       <c r="F214" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G214" s="20" t="s">
+      <c r="G214" s="19" t="s">
         <v>954</v>
       </c>
       <c r="H214" s="1" t="s">
@@ -18821,7 +18860,7 @@
       <c r="F215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G215" s="20" t="s">
+      <c r="G215" s="19" t="s">
         <v>958</v>
       </c>
       <c r="H215" s="1" t="s">
@@ -18857,7 +18896,7 @@
       <c r="F216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G216" s="20" t="s">
+      <c r="G216" s="19" t="s">
         <v>962</v>
       </c>
       <c r="H216" s="1" t="s">
@@ -18893,7 +18932,7 @@
       <c r="F217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G217" s="20" t="s">
+      <c r="G217" s="19" t="s">
         <v>966</v>
       </c>
       <c r="H217" s="1" t="s">
@@ -18929,7 +18968,7 @@
       <c r="F218" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G218" s="20" t="s">
+      <c r="G218" s="19" t="s">
         <v>969</v>
       </c>
       <c r="H218" s="1" t="s">
@@ -18965,7 +19004,7 @@
       <c r="F219" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G219" s="20" t="s">
+      <c r="G219" s="19" t="s">
         <v>973</v>
       </c>
       <c r="H219" s="1" t="s">
@@ -19001,7 +19040,7 @@
       <c r="F220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G220" s="20" t="s">
+      <c r="G220" s="19" t="s">
         <v>978</v>
       </c>
       <c r="H220" s="1" t="s">
@@ -19037,7 +19076,7 @@
       <c r="F221" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G221" s="20" t="s">
+      <c r="G221" s="19" t="s">
         <v>982</v>
       </c>
       <c r="H221" s="1" t="s">
@@ -19073,7 +19112,7 @@
       <c r="F222" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G222" s="20" t="s">
+      <c r="G222" s="19" t="s">
         <v>988</v>
       </c>
       <c r="H222" s="1" t="s">
@@ -19107,7 +19146,7 @@
       <c r="F223" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G223" s="20" t="s">
+      <c r="G223" s="19" t="s">
         <v>993</v>
       </c>
       <c r="H223" s="1" t="s">
@@ -19143,7 +19182,7 @@
       <c r="F224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G224" s="20" t="s">
+      <c r="G224" s="19" t="s">
         <v>993</v>
       </c>
       <c r="H224" s="1" t="s">
@@ -19179,7 +19218,7 @@
       <c r="F225" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G225" s="20" t="s">
+      <c r="G225" s="19" t="s">
         <v>1001</v>
       </c>
       <c r="H225" s="1" t="s">
@@ -19215,7 +19254,7 @@
       <c r="F226" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G226" s="20" t="s">
+      <c r="G226" s="19" t="s">
         <v>1006</v>
       </c>
       <c r="H226" s="1" t="s">
@@ -19251,7 +19290,7 @@
       <c r="F227" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G227" s="20" t="s">
+      <c r="G227" s="19" t="s">
         <v>1010</v>
       </c>
       <c r="H227" s="1" t="s">
@@ -19287,7 +19326,7 @@
       <c r="F228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G228" s="20" t="s">
+      <c r="G228" s="19" t="s">
         <v>1014</v>
       </c>
       <c r="H228" s="1" t="s">
@@ -19323,7 +19362,7 @@
       <c r="F229" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G229" s="20" t="s">
+      <c r="G229" s="19" t="s">
         <v>1018</v>
       </c>
       <c r="H229" s="1" t="s">
@@ -19359,7 +19398,7 @@
       <c r="F230" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G230" s="20" t="s">
+      <c r="G230" s="19" t="s">
         <v>1023</v>
       </c>
       <c r="H230" s="1" t="s">
@@ -19395,7 +19434,7 @@
       <c r="F231" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G231" s="20"/>
+      <c r="G231" s="19"/>
       <c r="H231" s="1" t="s">
         <v>40</v>
       </c>
@@ -19429,7 +19468,7 @@
       <c r="F232" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G232" s="20"/>
+      <c r="G232" s="19"/>
       <c r="H232" s="1" t="s">
         <v>7</v>
       </c>
@@ -19463,7 +19502,7 @@
       <c r="F233" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G233" s="20"/>
+      <c r="G233" s="19"/>
       <c r="H233" s="1" t="s">
         <v>7</v>
       </c>
@@ -19497,7 +19536,7 @@
       <c r="F234" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G234" s="20"/>
+      <c r="G234" s="19"/>
       <c r="H234" s="1" t="s">
         <v>26</v>
       </c>
@@ -19531,7 +19570,7 @@
       <c r="F235" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G235" s="20"/>
+      <c r="G235" s="19"/>
       <c r="H235" s="1" t="s">
         <v>26</v>
       </c>
@@ -19565,7 +19604,7 @@
       <c r="F236" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G236" s="20"/>
+      <c r="G236" s="19"/>
       <c r="H236" s="1" t="s">
         <v>26</v>
       </c>
@@ -19599,7 +19638,7 @@
       <c r="F237" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G237" s="20"/>
+      <c r="G237" s="19"/>
       <c r="H237" s="1" t="s">
         <v>40</v>
       </c>
@@ -19633,7 +19672,7 @@
       <c r="F238" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G238" s="20"/>
+      <c r="G238" s="19"/>
       <c r="H238" s="1" t="s">
         <v>26</v>
       </c>
@@ -19667,7 +19706,7 @@
       <c r="F239" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="G239" s="20"/>
+      <c r="G239" s="19"/>
       <c r="H239" s="1" t="s">
         <v>26</v>
       </c>
@@ -19699,7 +19738,7 @@
       <c r="F240" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G240" s="20"/>
+      <c r="G240" s="19"/>
       <c r="H240" s="1" t="s">
         <v>26</v>
       </c>
@@ -19733,7 +19772,7 @@
       <c r="F241" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G241" s="20"/>
+      <c r="G241" s="19"/>
       <c r="H241" s="1" t="s">
         <v>14</v>
       </c>
@@ -19767,7 +19806,7 @@
       <c r="F242" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G242" s="20" t="s">
+      <c r="G242" s="19" t="s">
         <v>1063</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -19803,7 +19842,7 @@
       <c r="F243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G243" s="20" t="s">
+      <c r="G243" s="19" t="s">
         <v>1068</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -19839,7 +19878,7 @@
       <c r="F244" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G244" s="20" t="s">
+      <c r="G244" s="19" t="s">
         <v>1072</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -19875,7 +19914,7 @@
       <c r="F245" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G245" s="20"/>
+      <c r="G245" s="19"/>
       <c r="H245" s="1" t="s">
         <v>26</v>
       </c>
@@ -19909,7 +19948,7 @@
       <c r="F246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G246" s="20" t="s">
+      <c r="G246" s="19" t="s">
         <v>1080</v>
       </c>
       <c r="H246" s="1" t="s">
@@ -19945,7 +19984,7 @@
       <c r="F247" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G247" s="20" t="s">
+      <c r="G247" s="19" t="s">
         <v>1097</v>
       </c>
       <c r="H247" s="1" t="s">
@@ -19981,7 +20020,7 @@
       <c r="F248" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G248" s="20" t="s">
+      <c r="G248" s="19" t="s">
         <v>1098</v>
       </c>
       <c r="H248" s="1" t="s">
@@ -20017,7 +20056,7 @@
       <c r="F249" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="G249" s="20"/>
+      <c r="G249" s="19"/>
       <c r="H249" s="1" t="s">
         <v>26</v>
       </c>
@@ -20051,7 +20090,7 @@
       <c r="F250" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G250" s="20" t="s">
+      <c r="G250" s="19" t="s">
         <v>1106</v>
       </c>
       <c r="H250" s="1" t="s">
@@ -20084,7 +20123,7 @@
       <c r="F251" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G251" s="20" t="s">
+      <c r="G251" s="19" t="s">
         <v>1110</v>
       </c>
       <c r="H251" s="1" t="s">
@@ -20117,7 +20156,7 @@
       <c r="F252" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G252" s="20" t="s">
+      <c r="G252" s="19" t="s">
         <v>1113</v>
       </c>
       <c r="H252" s="1" t="s">
@@ -20150,7 +20189,7 @@
       <c r="F253" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G253" s="20"/>
+      <c r="G253" s="19"/>
       <c r="H253" s="1" t="s">
         <v>26</v>
       </c>
@@ -20181,7 +20220,7 @@
       <c r="F254" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="G254" s="20" t="s">
+      <c r="G254" s="19" t="s">
         <v>1120</v>
       </c>
       <c r="H254" s="1" t="s">
@@ -20212,7 +20251,7 @@
         <v>1126</v>
       </c>
       <c r="F255" s="6"/>
-      <c r="G255" s="20"/>
+      <c r="G255" s="19"/>
       <c r="H255" s="1" t="s">
         <v>464</v>
       </c>
@@ -20243,7 +20282,7 @@
       <c r="F256" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G256" s="20" t="s">
+      <c r="G256" s="19" t="s">
         <v>1130</v>
       </c>
       <c r="H256" s="1" t="s">
@@ -20276,7 +20315,7 @@
       <c r="F257" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G257" s="20" t="s">
+      <c r="G257" s="19" t="s">
         <v>1134</v>
       </c>
       <c r="H257" s="1" t="s">
@@ -20309,7 +20348,7 @@
       <c r="F258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G258" s="20" t="s">
+      <c r="G258" s="19" t="s">
         <v>1138</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -20342,7 +20381,7 @@
       <c r="F259" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G259" s="20" t="s">
+      <c r="G259" s="19" t="s">
         <v>1142</v>
       </c>
       <c r="H259" s="1" t="s">
@@ -20375,7 +20414,7 @@
       <c r="F260" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G260" s="20" t="s">
+      <c r="G260" s="19" t="s">
         <v>1146</v>
       </c>
       <c r="H260" s="1" t="s">
@@ -20408,7 +20447,7 @@
       <c r="F261" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G261" s="20" t="s">
+      <c r="G261" s="19" t="s">
         <v>1150</v>
       </c>
       <c r="H261" s="1" t="s">
@@ -20441,7 +20480,7 @@
       <c r="F262" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G262" s="20" t="s">
+      <c r="G262" s="19" t="s">
         <v>1153</v>
       </c>
       <c r="H262" s="1" t="s">
@@ -20474,7 +20513,7 @@
       <c r="F263" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G263" s="20" t="s">
+      <c r="G263" s="19" t="s">
         <v>1157</v>
       </c>
       <c r="H263" s="1" t="s">
@@ -20507,7 +20546,7 @@
       <c r="F264" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G264" s="23" t="s">
+      <c r="G264" s="22" t="s">
         <v>1161</v>
       </c>
       <c r="H264" s="1" t="s">
@@ -20540,7 +20579,7 @@
       <c r="F265" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G265" s="20" t="s">
+      <c r="G265" s="19" t="s">
         <v>1163</v>
       </c>
       <c r="H265" s="1" t="s">
@@ -20573,7 +20612,7 @@
       <c r="F266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G266" s="20" t="s">
+      <c r="G266" s="19" t="s">
         <v>1167</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -20606,7 +20645,7 @@
       <c r="F267" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G267" s="20" t="s">
+      <c r="G267" s="19" t="s">
         <v>1172</v>
       </c>
       <c r="H267" s="1" t="s">
@@ -20639,7 +20678,7 @@
       <c r="F268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G268" s="20" t="s">
+      <c r="G268" s="19" t="s">
         <v>1176</v>
       </c>
       <c r="H268" s="1" t="s">
@@ -20672,7 +20711,7 @@
       <c r="F269" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G269" s="20" t="s">
+      <c r="G269" s="19" t="s">
         <v>1180</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -20705,7 +20744,7 @@
       <c r="F270" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G270" s="20" t="s">
+      <c r="G270" s="19" t="s">
         <v>1185</v>
       </c>
       <c r="H270" s="1" t="s">
@@ -20738,7 +20777,7 @@
       <c r="F271" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G271" s="20" t="s">
+      <c r="G271" s="19" t="s">
         <v>1188</v>
       </c>
       <c r="H271" s="1" t="s">
@@ -20771,7 +20810,7 @@
       <c r="F272" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G272" s="20"/>
+      <c r="G272" s="19"/>
       <c r="H272" s="1" t="s">
         <v>7</v>
       </c>
@@ -20802,7 +20841,7 @@
       <c r="F273" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G273" s="20"/>
+      <c r="G273" s="19"/>
       <c r="H273" s="1" t="s">
         <v>26</v>
       </c>
@@ -20833,7 +20872,7 @@
       <c r="F274" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G274" s="20"/>
+      <c r="G274" s="19"/>
       <c r="H274" s="1" t="s">
         <v>14</v>
       </c>
@@ -20864,7 +20903,7 @@
       <c r="F275" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G275" s="20"/>
+      <c r="G275" s="19"/>
       <c r="H275" s="1" t="s">
         <v>26</v>
       </c>
@@ -20895,7 +20934,7 @@
       <c r="F276" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G276" s="20"/>
+      <c r="G276" s="19"/>
       <c r="H276" s="1" t="s">
         <v>66</v>
       </c>
@@ -20926,7 +20965,7 @@
       <c r="F277" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G277" s="20"/>
+      <c r="G277" s="19"/>
       <c r="H277" s="1" t="s">
         <v>40</v>
       </c>
@@ -20957,7 +20996,7 @@
       <c r="F278" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G278" s="20" t="s">
+      <c r="G278" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H278" s="1" t="s">
@@ -20990,7 +21029,7 @@
       <c r="F279" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G279" s="20" t="s">
+      <c r="G279" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H279" s="1" t="s">
@@ -21023,7 +21062,7 @@
       <c r="F280" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G280" s="20" t="s">
+      <c r="G280" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H280" s="1" t="s">
@@ -21056,7 +21095,7 @@
       <c r="F281" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G281" s="20" t="s">
+      <c r="G281" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H281" s="1" t="s">
@@ -21089,7 +21128,7 @@
       <c r="F282" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G282" s="20" t="s">
+      <c r="G282" s="19" t="s">
         <v>1220</v>
       </c>
       <c r="H282" s="1" t="s">
@@ -21122,7 +21161,7 @@
       <c r="F283" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G283" s="20"/>
+      <c r="G283" s="19"/>
       <c r="H283" s="1" t="s">
         <v>14</v>
       </c>
@@ -21153,7 +21192,7 @@
       <c r="F284" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G284" s="20"/>
+      <c r="G284" s="19"/>
       <c r="H284" s="1" t="s">
         <v>464</v>
       </c>
@@ -21184,7 +21223,7 @@
       <c r="F285" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G285" s="20" t="s">
+      <c r="G285" s="19" t="s">
         <v>1231</v>
       </c>
       <c r="H285" s="1" t="s">
@@ -21217,7 +21256,7 @@
       <c r="F286" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G286" s="20" t="s">
+      <c r="G286" s="19" t="s">
         <v>1235</v>
       </c>
       <c r="H286" s="1" t="s">
@@ -21250,7 +21289,7 @@
       <c r="F287" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G287" s="20" t="s">
+      <c r="G287" s="19" t="s">
         <v>1238</v>
       </c>
       <c r="H287" s="1" t="s">
@@ -21283,7 +21322,7 @@
       <c r="F288" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G288" s="20" t="s">
+      <c r="G288" s="19" t="s">
         <v>1242</v>
       </c>
       <c r="H288" s="1" t="s">
@@ -21316,7 +21355,7 @@
       <c r="F289" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G289" s="20" t="s">
+      <c r="G289" s="19" t="s">
         <v>1244</v>
       </c>
       <c r="H289" s="1" t="s">
@@ -21349,7 +21388,7 @@
       <c r="F290" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G290" s="20" t="s">
+      <c r="G290" s="19" t="s">
         <v>1246</v>
       </c>
       <c r="H290" s="1" t="s">
@@ -21382,7 +21421,7 @@
       <c r="F291" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G291" s="20" t="s">
+      <c r="G291" s="19" t="s">
         <v>1249</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -21415,7 +21454,7 @@
       <c r="F292" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G292" s="20" t="s">
+      <c r="G292" s="19" t="s">
         <v>1251</v>
       </c>
       <c r="H292" s="1" t="s">
@@ -21448,7 +21487,7 @@
       <c r="F293" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G293" s="20"/>
+      <c r="G293" s="19"/>
       <c r="H293" s="1" t="s">
         <v>26</v>
       </c>
@@ -21479,7 +21518,7 @@
       <c r="F294" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G294" s="20" t="s">
+      <c r="G294" s="19" t="s">
         <v>1255</v>
       </c>
       <c r="H294" s="1" t="s">
@@ -21512,7 +21551,7 @@
       <c r="F295" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G295" s="20" t="s">
+      <c r="G295" s="19" t="s">
         <v>1259</v>
       </c>
       <c r="H295" s="1" t="s">
@@ -21545,7 +21584,7 @@
       <c r="F296" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G296" s="20" t="s">
+      <c r="G296" s="19" t="s">
         <v>1263</v>
       </c>
       <c r="H296" s="1" t="s">
@@ -21578,7 +21617,7 @@
       <c r="F297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G297" s="20" t="s">
+      <c r="G297" s="19" t="s">
         <v>1266</v>
       </c>
       <c r="H297" s="1" t="s">
@@ -21611,7 +21650,7 @@
       <c r="F298" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G298" s="20"/>
+      <c r="G298" s="19"/>
       <c r="H298" s="1" t="s">
         <v>26</v>
       </c>
@@ -21642,7 +21681,7 @@
       <c r="F299" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G299" s="20" t="s">
+      <c r="G299" s="19" t="s">
         <v>1272</v>
       </c>
       <c r="H299" s="1" t="s">
@@ -21675,7 +21714,7 @@
       <c r="F300" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G300" s="20" t="s">
+      <c r="G300" s="19" t="s">
         <v>1277</v>
       </c>
       <c r="H300" s="1" t="s">
@@ -21706,7 +21745,7 @@
         <v>1282</v>
       </c>
       <c r="F301" s="6"/>
-      <c r="G301" s="20" t="s">
+      <c r="G301" s="19" t="s">
         <v>1281</v>
       </c>
       <c r="H301" s="1" t="s">
@@ -21739,7 +21778,7 @@
       <c r="F302" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G302" s="20" t="s">
+      <c r="G302" s="19" t="s">
         <v>1285</v>
       </c>
       <c r="H302" s="1" t="s">
@@ -21772,7 +21811,7 @@
       <c r="F303" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G303" s="20" t="s">
+      <c r="G303" s="19" t="s">
         <v>1289</v>
       </c>
       <c r="H303" s="1" t="s">
@@ -21805,7 +21844,7 @@
       <c r="F304" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G304" s="20" t="s">
+      <c r="G304" s="19" t="s">
         <v>1293</v>
       </c>
       <c r="H304" s="1" t="s">
@@ -21838,7 +21877,7 @@
       <c r="F305" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G305" s="20" t="s">
+      <c r="G305" s="19" t="s">
         <v>1297</v>
       </c>
       <c r="H305" s="1" t="s">
@@ -21871,7 +21910,7 @@
       <c r="F306" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G306" s="20" t="s">
+      <c r="G306" s="19" t="s">
         <v>1299</v>
       </c>
       <c r="H306" s="1" t="s">
@@ -21904,7 +21943,7 @@
       <c r="F307" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G307" s="20" t="s">
+      <c r="G307" s="19" t="s">
         <v>1303</v>
       </c>
       <c r="H307" s="1" t="s">
@@ -21937,7 +21976,7 @@
       <c r="F308" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G308" s="20" t="s">
+      <c r="G308" s="19" t="s">
         <v>1308</v>
       </c>
       <c r="H308" s="1" t="s">
@@ -21970,7 +22009,7 @@
       <c r="F309" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G309" s="20" t="s">
+      <c r="G309" s="19" t="s">
         <v>1313</v>
       </c>
       <c r="H309" s="1" t="s">
@@ -22003,7 +22042,7 @@
       <c r="F310" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G310" s="20" t="s">
+      <c r="G310" s="19" t="s">
         <v>1317</v>
       </c>
       <c r="H310" s="1" t="s">
@@ -22036,7 +22075,7 @@
       <c r="F311" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G311" s="23" t="s">
+      <c r="G311" s="22" t="s">
         <v>1321</v>
       </c>
       <c r="H311" s="1" t="s">
@@ -22069,7 +22108,7 @@
       <c r="F312" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G312" s="23" t="s">
+      <c r="G312" s="22" t="s">
         <v>1326</v>
       </c>
       <c r="H312" s="1" t="s">
@@ -22102,7 +22141,7 @@
       <c r="F313" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G313" s="20"/>
+      <c r="G313" s="19"/>
       <c r="H313" s="1" t="s">
         <v>26</v>
       </c>
@@ -22133,7 +22172,7 @@
       <c r="F314" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G314" s="20"/>
+      <c r="G314" s="19"/>
       <c r="H314" s="1" t="s">
         <v>14</v>
       </c>
@@ -22164,7 +22203,7 @@
       <c r="F315" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G315" s="20"/>
+      <c r="G315" s="19"/>
       <c r="H315" s="1" t="s">
         <v>14</v>
       </c>
@@ -22195,7 +22234,7 @@
       <c r="F316" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G316" s="20"/>
+      <c r="G316" s="19"/>
       <c r="H316" s="1" t="s">
         <v>226</v>
       </c>
@@ -22224,7 +22263,7 @@
         <v>1344</v>
       </c>
       <c r="F317" s="6"/>
-      <c r="G317" s="20"/>
+      <c r="G317" s="19"/>
       <c r="H317" s="1" t="s">
         <v>26</v>
       </c>
@@ -22253,7 +22292,7 @@
         <v>1347</v>
       </c>
       <c r="F318" s="6"/>
-      <c r="G318" s="20"/>
+      <c r="G318" s="19"/>
       <c r="H318" s="1" t="s">
         <v>7</v>
       </c>
@@ -22284,7 +22323,7 @@
       <c r="F319" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G319" s="20"/>
+      <c r="G319" s="19"/>
       <c r="H319" s="1" t="s">
         <v>26</v>
       </c>
@@ -22315,7 +22354,7 @@
       <c r="F320" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G320" s="20"/>
+      <c r="G320" s="19"/>
       <c r="H320" s="1" t="s">
         <v>40</v>
       </c>
@@ -22346,7 +22385,7 @@
       <c r="F321" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G321" s="20"/>
+      <c r="G321" s="19"/>
       <c r="H321" s="1" t="s">
         <v>40</v>
       </c>
@@ -22377,7 +22416,7 @@
       <c r="F322" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G322" s="20"/>
+      <c r="G322" s="19"/>
       <c r="H322" s="1" t="s">
         <v>26</v>
       </c>
@@ -22408,7 +22447,7 @@
       <c r="F323" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G323" s="20"/>
+      <c r="G323" s="19"/>
       <c r="H323" s="1" t="s">
         <v>40</v>
       </c>
@@ -22439,7 +22478,7 @@
       <c r="F324" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G324" s="20" t="s">
+      <c r="G324" s="19" t="s">
         <v>1368</v>
       </c>
       <c r="H324" s="1" t="s">
@@ -22472,7 +22511,7 @@
       <c r="F325" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G325" s="20"/>
+      <c r="G325" s="19"/>
       <c r="H325" s="1" t="s">
         <v>100</v>
       </c>
@@ -22503,7 +22542,7 @@
       <c r="F326" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G326" s="20"/>
+      <c r="G326" s="19"/>
       <c r="H326" s="1" t="s">
         <v>100</v>
       </c>
@@ -22534,7 +22573,7 @@
       <c r="F327" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G327" s="20"/>
+      <c r="G327" s="19"/>
       <c r="H327" s="1" t="s">
         <v>26</v>
       </c>
@@ -22565,7 +22604,7 @@
       <c r="F328" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G328" s="20"/>
+      <c r="G328" s="19"/>
       <c r="H328" s="1" t="s">
         <v>206</v>
       </c>
@@ -22596,7 +22635,7 @@
       <c r="F329" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G329" s="20"/>
+      <c r="G329" s="19"/>
       <c r="H329" s="1" t="s">
         <v>40</v>
       </c>
@@ -22627,7 +22666,7 @@
       <c r="F330" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G330" s="20" t="s">
+      <c r="G330" s="19" t="s">
         <v>1385</v>
       </c>
       <c r="H330" s="1" t="s">
@@ -22660,7 +22699,7 @@
       <c r="F331" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G331" s="20" t="s">
+      <c r="G331" s="19" t="s">
         <v>1390</v>
       </c>
       <c r="H331" s="1" t="s">
@@ -22693,7 +22732,7 @@
       <c r="F332" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G332" s="20" t="s">
+      <c r="G332" s="19" t="s">
         <v>1393</v>
       </c>
       <c r="H332" s="1" t="s">
@@ -22726,7 +22765,7 @@
       <c r="F333" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G333" s="20" t="s">
+      <c r="G333" s="19" t="s">
         <v>1398</v>
       </c>
       <c r="H333" s="1" t="s">
@@ -22759,7 +22798,7 @@
       <c r="F334" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G334" s="20" t="s">
+      <c r="G334" s="19" t="s">
         <v>1402</v>
       </c>
       <c r="H334" s="1" t="s">
@@ -22792,7 +22831,7 @@
       <c r="F335" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G335" s="20" t="s">
+      <c r="G335" s="19" t="s">
         <v>1406</v>
       </c>
       <c r="H335" s="1" t="s">
@@ -22825,7 +22864,7 @@
       <c r="F336" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G336" s="20"/>
+      <c r="G336" s="19"/>
       <c r="H336" s="1" t="s">
         <v>464</v>
       </c>
@@ -22856,7 +22895,7 @@
       <c r="F337" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G337" s="20"/>
+      <c r="G337" s="19"/>
       <c r="H337" s="1" t="s">
         <v>26</v>
       </c>
@@ -22887,7 +22926,7 @@
       <c r="F338" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G338" s="20"/>
+      <c r="G338" s="19"/>
       <c r="H338" s="1" t="s">
         <v>989</v>
       </c>
@@ -22918,7 +22957,7 @@
       <c r="F339" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G339" s="20"/>
+      <c r="G339" s="19"/>
       <c r="H339" s="1" t="s">
         <v>26</v>
       </c>
@@ -22949,7 +22988,7 @@
       <c r="F340" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G340" s="20"/>
+      <c r="G340" s="19"/>
       <c r="H340" s="1" t="s">
         <v>26</v>
       </c>
@@ -22980,7 +23019,7 @@
       <c r="F341" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G341" s="20"/>
+      <c r="G341" s="19"/>
       <c r="H341" s="1" t="s">
         <v>26</v>
       </c>
@@ -23011,7 +23050,7 @@
       <c r="F342" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G342" s="20"/>
+      <c r="G342" s="19"/>
       <c r="H342" s="1" t="s">
         <v>26</v>
       </c>
@@ -23042,7 +23081,7 @@
       <c r="F343" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G343" s="20"/>
+      <c r="G343" s="19"/>
       <c r="H343" s="1" t="s">
         <v>26</v>
       </c>
@@ -23073,7 +23112,7 @@
       <c r="F344" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G344" s="20"/>
+      <c r="G344" s="19"/>
       <c r="H344" s="1" t="s">
         <v>26</v>
       </c>
@@ -23104,7 +23143,7 @@
       <c r="F345" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G345" s="20"/>
+      <c r="G345" s="19"/>
       <c r="H345" s="1" t="s">
         <v>26</v>
       </c>
@@ -23135,7 +23174,7 @@
       <c r="F346" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G346" s="20"/>
+      <c r="G346" s="19"/>
       <c r="H346" s="1" t="s">
         <v>26</v>
       </c>
@@ -23166,7 +23205,7 @@
       <c r="F347" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G347" s="20"/>
+      <c r="G347" s="19"/>
       <c r="H347" s="1" t="s">
         <v>7</v>
       </c>
@@ -23197,7 +23236,7 @@
       <c r="F348" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G348" s="20"/>
+      <c r="G348" s="19"/>
       <c r="H348" s="1" t="s">
         <v>26</v>
       </c>
@@ -23228,7 +23267,7 @@
       <c r="F349" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G349" s="20"/>
+      <c r="G349" s="19"/>
       <c r="H349" s="1" t="s">
         <v>40</v>
       </c>
@@ -23259,7 +23298,7 @@
       <c r="F350" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G350" s="20"/>
+      <c r="G350" s="19"/>
       <c r="H350" s="1" t="s">
         <v>26</v>
       </c>
@@ -23290,7 +23329,7 @@
       <c r="F351" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G351" s="20"/>
+      <c r="G351" s="19"/>
       <c r="H351" s="1" t="s">
         <v>206</v>
       </c>
@@ -23321,7 +23360,7 @@
       <c r="F352" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G352" s="20"/>
+      <c r="G352" s="19"/>
       <c r="H352" s="1" t="s">
         <v>40</v>
       </c>
@@ -23352,7 +23391,7 @@
       <c r="F353" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G353" s="20"/>
+      <c r="G353" s="19"/>
       <c r="H353" s="1" t="s">
         <v>40</v>
       </c>
@@ -23383,7 +23422,7 @@
       <c r="F354" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G354" s="20"/>
+      <c r="G354" s="19"/>
       <c r="H354" s="1" t="s">
         <v>40</v>
       </c>
@@ -23414,7 +23453,7 @@
       <c r="F355" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G355" s="20"/>
+      <c r="G355" s="19"/>
       <c r="H355" s="1" t="s">
         <v>26</v>
       </c>
@@ -23445,7 +23484,7 @@
       <c r="F356" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G356" s="20"/>
+      <c r="G356" s="19"/>
       <c r="H356" s="1" t="s">
         <v>1455</v>
       </c>
@@ -23476,7 +23515,7 @@
       <c r="F357" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G357" s="20"/>
+      <c r="G357" s="19"/>
       <c r="H357" s="1" t="s">
         <v>14</v>
       </c>
@@ -23507,7 +23546,7 @@
       <c r="F358" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G358" s="20"/>
+      <c r="G358" s="19"/>
       <c r="H358" s="1" t="s">
         <v>40</v>
       </c>
@@ -23538,7 +23577,7 @@
       <c r="F359" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G359" s="20"/>
+      <c r="G359" s="19"/>
       <c r="H359" s="1" t="s">
         <v>7</v>
       </c>
@@ -23569,7 +23608,7 @@
       <c r="F360" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G360" s="20"/>
+      <c r="G360" s="19"/>
       <c r="H360" s="1" t="s">
         <v>26</v>
       </c>
@@ -23600,7 +23639,7 @@
       <c r="F361" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G361" s="20"/>
+      <c r="G361" s="19"/>
       <c r="H361" s="1" t="s">
         <v>66</v>
       </c>
@@ -23631,7 +23670,7 @@
       <c r="F362" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G362" s="20"/>
+      <c r="G362" s="19"/>
       <c r="H362" s="1" t="s">
         <v>100</v>
       </c>
@@ -23662,7 +23701,7 @@
       <c r="F363" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G363" s="20"/>
+      <c r="G363" s="19"/>
       <c r="H363" s="1" t="s">
         <v>40</v>
       </c>
@@ -23693,7 +23732,7 @@
       <c r="F364" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G364" s="20"/>
+      <c r="G364" s="19"/>
       <c r="H364" s="1" t="s">
         <v>100</v>
       </c>
@@ -23724,7 +23763,7 @@
       <c r="F365" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G365" s="20"/>
+      <c r="G365" s="19"/>
       <c r="H365" s="1" t="s">
         <v>26</v>
       </c>
@@ -23755,7 +23794,7 @@
       <c r="F366" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G366" s="23" t="s">
+      <c r="G366" s="22" t="s">
         <v>1490</v>
       </c>
       <c r="H366" s="1" t="s">
@@ -23788,7 +23827,7 @@
       <c r="F367" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G367" s="20"/>
+      <c r="G367" s="19"/>
       <c r="H367" s="1" t="s">
         <v>26</v>
       </c>
@@ -23819,7 +23858,7 @@
       <c r="F368" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G368" s="20" t="s">
+      <c r="G368" s="19" t="s">
         <v>1497</v>
       </c>
       <c r="H368" s="1" t="s">
@@ -23852,7 +23891,7 @@
       <c r="F369" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G369" s="20" t="s">
+      <c r="G369" s="19" t="s">
         <v>1499</v>
       </c>
       <c r="H369" s="1" t="s">
@@ -23885,7 +23924,7 @@
       <c r="F370" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G370" s="20" t="s">
+      <c r="G370" s="19" t="s">
         <v>1501</v>
       </c>
       <c r="H370" s="1" t="s">
@@ -23918,7 +23957,7 @@
       <c r="F371" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G371" s="20" t="s">
+      <c r="G371" s="19" t="s">
         <v>1506</v>
       </c>
       <c r="H371" s="1" t="s">
@@ -23951,7 +23990,7 @@
       <c r="F372" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G372" s="20" t="s">
+      <c r="G372" s="19" t="s">
         <v>1508</v>
       </c>
       <c r="H372" s="1" t="s">
@@ -23984,7 +24023,7 @@
       <c r="F373" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G373" s="20" t="s">
+      <c r="G373" s="19" t="s">
         <v>1510</v>
       </c>
       <c r="H373" s="1" t="s">
@@ -24017,7 +24056,7 @@
       <c r="F374" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G374" s="20"/>
+      <c r="G374" s="19"/>
       <c r="H374" s="1" t="s">
         <v>26</v>
       </c>
@@ -24048,7 +24087,7 @@
       <c r="F375" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G375" s="20"/>
+      <c r="G375" s="19"/>
       <c r="H375" s="1" t="s">
         <v>26</v>
       </c>
@@ -24079,7 +24118,7 @@
       <c r="F376" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G376" s="20" t="s">
+      <c r="G376" s="19" t="s">
         <v>1519</v>
       </c>
       <c r="H376" s="1" t="s">
@@ -24112,7 +24151,7 @@
       <c r="F377" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G377" s="20" t="s">
+      <c r="G377" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H377" s="8" t="s">
@@ -24145,7 +24184,7 @@
       <c r="F378" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G378" s="20"/>
+      <c r="G378" s="19"/>
       <c r="H378" s="1" t="s">
         <v>26</v>
       </c>
@@ -24176,7 +24215,7 @@
       <c r="F379" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G379" s="20" t="s">
+      <c r="G379" s="19" t="s">
         <v>1531</v>
       </c>
       <c r="H379" s="1" t="s">
@@ -24209,7 +24248,7 @@
       <c r="F380" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G380" s="23" t="s">
+      <c r="G380" s="22" t="s">
         <v>1535</v>
       </c>
       <c r="H380" s="1" t="s">
@@ -24242,7 +24281,7 @@
       <c r="F381" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G381" s="20" t="s">
+      <c r="G381" s="19" t="s">
         <v>1540</v>
       </c>
       <c r="H381" s="1" t="s">
@@ -24275,7 +24314,7 @@
       <c r="F382" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G382" s="20" t="s">
+      <c r="G382" s="19" t="s">
         <v>1541</v>
       </c>
       <c r="H382" s="1" t="s">
@@ -24308,7 +24347,7 @@
       <c r="F383" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G383" s="20" t="s">
+      <c r="G383" s="19" t="s">
         <v>1546</v>
       </c>
       <c r="H383" s="1" t="s">
@@ -24341,7 +24380,7 @@
       <c r="F384" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G384" s="20" t="s">
+      <c r="G384" s="19" t="s">
         <v>1551</v>
       </c>
       <c r="H384" s="1" t="s">
@@ -24374,7 +24413,7 @@
       <c r="F385" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G385" s="20" t="s">
+      <c r="G385" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H385" s="1" t="s">
@@ -24407,7 +24446,7 @@
       <c r="F386" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G386" s="20" t="s">
+      <c r="G386" s="19" t="s">
         <v>1559</v>
       </c>
       <c r="H386" s="1" t="s">
@@ -24440,7 +24479,7 @@
       <c r="F387" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G387" s="20" t="s">
+      <c r="G387" s="19" t="s">
         <v>1080</v>
       </c>
       <c r="H387" s="1" t="s">
@@ -24473,7 +24512,7 @@
       <c r="F388" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G388" s="20" t="s">
+      <c r="G388" s="19" t="s">
         <v>1567</v>
       </c>
       <c r="H388" s="1" t="s">
@@ -24506,7 +24545,7 @@
       <c r="F389" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G389" s="20" t="s">
+      <c r="G389" s="19" t="s">
         <v>1568</v>
       </c>
       <c r="H389" s="1" t="s">
@@ -24539,7 +24578,7 @@
       <c r="F390" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G390" s="20" t="s">
+      <c r="G390" s="19" t="s">
         <v>1572</v>
       </c>
       <c r="H390" s="1" t="s">
@@ -24572,7 +24611,7 @@
       <c r="F391" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G391" s="20" t="s">
+      <c r="G391" s="19" t="s">
         <v>1068</v>
       </c>
       <c r="H391" s="1" t="s">
@@ -24605,7 +24644,7 @@
       <c r="F392" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G392" s="20" t="s">
+      <c r="G392" s="19" t="s">
         <v>1577</v>
       </c>
       <c r="H392" s="1" t="s">
@@ -24638,7 +24677,7 @@
       <c r="F393" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G393" s="20" t="s">
+      <c r="G393" s="19" t="s">
         <v>276</v>
       </c>
       <c r="H393" s="1" t="s">
@@ -24671,7 +24710,7 @@
       <c r="F394" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G394" s="20" t="s">
+      <c r="G394" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H394" s="1" t="s">
@@ -24704,7 +24743,7 @@
       <c r="F395" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G395" s="20" t="s">
+      <c r="G395" s="19" t="s">
         <v>1583</v>
       </c>
       <c r="H395" s="1" t="s">
@@ -24737,7 +24776,7 @@
       <c r="F396" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G396" s="20" t="s">
+      <c r="G396" s="19" t="s">
         <v>1587</v>
       </c>
       <c r="H396" s="1" t="s">
@@ -24770,7 +24809,7 @@
       <c r="F397" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G397" s="23" t="s">
+      <c r="G397" s="22" t="s">
         <v>1590</v>
       </c>
       <c r="H397" s="1" t="s">
@@ -24803,7 +24842,7 @@
       <c r="F398" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="20" t="s">
+      <c r="G398" s="19" t="s">
         <v>1593</v>
       </c>
       <c r="H398" s="1" t="s">
@@ -24836,7 +24875,7 @@
       <c r="F399" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G399" s="20" t="s">
+      <c r="G399" s="19" t="s">
         <v>1598</v>
       </c>
       <c r="H399" s="1" t="s">
@@ -24869,7 +24908,7 @@
       <c r="F400" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G400" s="20" t="s">
+      <c r="G400" s="19" t="s">
         <v>1600</v>
       </c>
       <c r="H400" s="1" t="s">
@@ -24902,7 +24941,7 @@
       <c r="F401" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G401" s="23" t="s">
+      <c r="G401" s="22" t="s">
         <v>1604</v>
       </c>
       <c r="H401" s="1" t="s">
@@ -24935,7 +24974,7 @@
       <c r="F402" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G402" s="23" t="s">
+      <c r="G402" s="22" t="s">
         <v>1608</v>
       </c>
       <c r="H402" s="1" t="s">
@@ -24968,7 +25007,7 @@
       <c r="F403" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G403" s="20" t="s">
+      <c r="G403" s="19" t="s">
         <v>1610</v>
       </c>
       <c r="H403" s="1" t="s">
@@ -25001,7 +25040,7 @@
       <c r="F404" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G404" s="20" t="s">
+      <c r="G404" s="19" t="s">
         <v>1613</v>
       </c>
       <c r="H404" s="1" t="s">
@@ -25034,7 +25073,7 @@
       <c r="F405" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G405" s="20" t="s">
+      <c r="G405" s="19" t="s">
         <v>1616</v>
       </c>
       <c r="H405" s="1" t="s">
@@ -25067,7 +25106,7 @@
       <c r="F406" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G406" s="20" t="s">
+      <c r="G406" s="19" t="s">
         <v>1620</v>
       </c>
       <c r="H406" s="1" t="s">
@@ -25100,7 +25139,7 @@
       <c r="F407" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G407" s="20" t="s">
+      <c r="G407" s="19" t="s">
         <v>1624</v>
       </c>
       <c r="H407" s="1" t="s">
@@ -25133,7 +25172,7 @@
       <c r="F408" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G408" s="20" t="s">
+      <c r="G408" s="19" t="s">
         <v>1629</v>
       </c>
       <c r="H408" s="1" t="s">
@@ -25166,7 +25205,7 @@
       <c r="F409" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G409" s="21" t="s">
+      <c r="G409" s="20" t="s">
         <v>1630</v>
       </c>
       <c r="H409" s="1" t="s">
@@ -25199,7 +25238,7 @@
       <c r="F410" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G410" s="21" t="s">
+      <c r="G410" s="20" t="s">
         <v>1634</v>
       </c>
       <c r="H410" s="1" t="s">
@@ -25232,7 +25271,7 @@
       <c r="F411" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G411" s="21" t="s">
+      <c r="G411" s="20" t="s">
         <v>1638</v>
       </c>
       <c r="H411" s="1" t="s">
@@ -25265,7 +25304,7 @@
       <c r="F412" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G412" s="21" t="s">
+      <c r="G412" s="20" t="s">
         <v>1643</v>
       </c>
       <c r="H412" s="1" t="s">
@@ -25298,7 +25337,7 @@
       <c r="F413" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G413" s="21" t="s">
+      <c r="G413" s="20" t="s">
         <v>1643</v>
       </c>
       <c r="H413" s="1" t="s">
@@ -25331,7 +25370,7 @@
       <c r="F414" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G414" s="20"/>
+      <c r="G414" s="19"/>
       <c r="H414" s="1" t="s">
         <v>105</v>
       </c>
@@ -25362,7 +25401,7 @@
       <c r="F415" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G415" s="20"/>
+      <c r="G415" s="19"/>
       <c r="H415" s="1" t="s">
         <v>26</v>
       </c>
@@ -25393,7 +25432,7 @@
       <c r="F416" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G416" s="20"/>
+      <c r="G416" s="19"/>
       <c r="H416" s="1" t="s">
         <v>40</v>
       </c>
@@ -25424,7 +25463,7 @@
       <c r="F417" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G417" s="20"/>
+      <c r="G417" s="19"/>
       <c r="H417" s="1" t="s">
         <v>40</v>
       </c>
@@ -25455,7 +25494,7 @@
       <c r="F418" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G418" s="20"/>
+      <c r="G418" s="19"/>
       <c r="H418" s="1" t="s">
         <v>26</v>
       </c>
@@ -25486,7 +25525,7 @@
       <c r="F419" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G419" s="20"/>
+      <c r="G419" s="19"/>
       <c r="H419" s="1" t="s">
         <v>206</v>
       </c>
@@ -25517,7 +25556,7 @@
       <c r="F420" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G420" s="20"/>
+      <c r="G420" s="19"/>
       <c r="H420" s="1" t="s">
         <v>26</v>
       </c>
@@ -25548,7 +25587,7 @@
       <c r="F421" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G421" s="20"/>
+      <c r="G421" s="19"/>
       <c r="H421" s="1" t="s">
         <v>105</v>
       </c>
@@ -25579,7 +25618,7 @@
       <c r="F422" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G422" s="21" t="s">
+      <c r="G422" s="20" t="s">
         <v>1677</v>
       </c>
       <c r="H422" s="1" t="s">
@@ -25612,7 +25651,7 @@
       <c r="F423" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G423" s="20"/>
+      <c r="G423" s="19"/>
       <c r="H423" s="1" t="s">
         <v>40</v>
       </c>
@@ -25643,7 +25682,7 @@
       <c r="F424" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G424" s="24" t="s">
+      <c r="G424" s="23" t="s">
         <v>1684</v>
       </c>
       <c r="H424" s="1" t="s">
@@ -25676,7 +25715,7 @@
       <c r="F425" s="6" t="s">
         <v>1688</v>
       </c>
-      <c r="G425" s="21" t="s">
+      <c r="G425" s="20" t="s">
         <v>1687</v>
       </c>
       <c r="H425" s="1" t="s">
@@ -25709,7 +25748,7 @@
       <c r="F426" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G426" s="20"/>
+      <c r="G426" s="19"/>
       <c r="H426" s="1" t="s">
         <v>26</v>
       </c>
@@ -25740,7 +25779,7 @@
       <c r="F427" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G427" s="21" t="s">
+      <c r="G427" s="20" t="s">
         <v>1695</v>
       </c>
       <c r="H427" s="1" t="s">
@@ -25773,7 +25812,7 @@
       <c r="F428" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G428" s="20"/>
+      <c r="G428" s="19"/>
       <c r="H428" s="1" t="s">
         <v>14</v>
       </c>
@@ -25804,7 +25843,7 @@
       <c r="F429" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G429" s="20"/>
+      <c r="G429" s="19"/>
       <c r="H429" s="1" t="s">
         <v>105</v>
       </c>
@@ -25835,7 +25874,7 @@
       <c r="F430" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G430" s="20"/>
+      <c r="G430" s="19"/>
       <c r="H430" s="1" t="s">
         <v>26</v>
       </c>
@@ -25866,7 +25905,7 @@
       <c r="F431" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G431" s="21" t="s">
+      <c r="G431" s="20" t="s">
         <v>1707</v>
       </c>
       <c r="H431" s="1" t="s">
@@ -25899,7 +25938,7 @@
       <c r="F432" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G432" s="21" t="s">
+      <c r="G432" s="20" t="s">
         <v>1710</v>
       </c>
       <c r="H432" s="1" t="s">
@@ -25932,7 +25971,7 @@
       <c r="F433" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G433" s="21" t="s">
+      <c r="G433" s="20" t="s">
         <v>1713</v>
       </c>
       <c r="H433" s="1" t="s">
@@ -25965,7 +26004,7 @@
       <c r="F434" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G434" s="20"/>
+      <c r="G434" s="19"/>
       <c r="H434" s="1" t="s">
         <v>105</v>
       </c>
@@ -25996,7 +26035,7 @@
       <c r="F435" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G435" s="21" t="s">
+      <c r="G435" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="H435" s="1" t="s">
@@ -26029,7 +26068,7 @@
       <c r="F436" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G436" s="21" t="s">
+      <c r="G436" s="20" t="s">
         <v>1724</v>
       </c>
       <c r="H436" s="1" t="s">
@@ -26062,7 +26101,7 @@
       <c r="F437" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G437" s="21" t="s">
+      <c r="G437" s="20" t="s">
         <v>1726</v>
       </c>
       <c r="H437" s="1" t="s">
@@ -26095,7 +26134,7 @@
       <c r="F438" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G438" s="21" t="s">
+      <c r="G438" s="20" t="s">
         <v>1730</v>
       </c>
       <c r="H438" s="1" t="s">
@@ -26128,7 +26167,7 @@
       <c r="F439" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G439" s="21" t="s">
+      <c r="G439" s="20" t="s">
         <v>1733</v>
       </c>
       <c r="H439" s="1" t="s">
@@ -26161,7 +26200,7 @@
       <c r="F440" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G440" s="21" t="s">
+      <c r="G440" s="20" t="s">
         <v>1736</v>
       </c>
       <c r="H440" s="1" t="s">
@@ -26194,7 +26233,7 @@
       <c r="F441" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G441" s="21" t="s">
+      <c r="G441" s="20" t="s">
         <v>1739</v>
       </c>
       <c r="H441" s="1" t="s">
@@ -26227,7 +26266,7 @@
       <c r="F442" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G442" s="21" t="s">
+      <c r="G442" s="20" t="s">
         <v>1742</v>
       </c>
       <c r="H442" s="1" t="s">
@@ -26260,7 +26299,7 @@
       <c r="F443" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G443" s="21" t="s">
+      <c r="G443" s="20" t="s">
         <v>1745</v>
       </c>
       <c r="H443" s="1" t="s">
@@ -26293,7 +26332,7 @@
       <c r="F444" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G444" s="20" t="s">
+      <c r="G444" s="19" t="s">
         <v>1748</v>
       </c>
       <c r="H444" s="1" t="s">
@@ -26326,7 +26365,7 @@
       <c r="F445" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G445" s="21" t="s">
+      <c r="G445" s="20" t="s">
         <v>1750</v>
       </c>
       <c r="H445" s="1" t="s">
@@ -26359,7 +26398,7 @@
       <c r="F446" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G446" s="21" t="s">
+      <c r="G446" s="20" t="s">
         <v>1753</v>
       </c>
       <c r="H446" s="1" t="s">
@@ -26392,7 +26431,7 @@
       <c r="F447" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G447" s="20"/>
+      <c r="G447" s="19"/>
       <c r="H447" s="1" t="s">
         <v>40</v>
       </c>
@@ -26423,7 +26462,7 @@
       <c r="F448" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G448" s="20"/>
+      <c r="G448" s="19"/>
       <c r="H448" s="1" t="s">
         <v>206</v>
       </c>
@@ -26454,7 +26493,7 @@
       <c r="F449" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G449" s="20"/>
+      <c r="G449" s="19"/>
       <c r="H449" s="1" t="s">
         <v>105</v>
       </c>
@@ -26485,7 +26524,7 @@
       <c r="F450" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G450" s="20"/>
+      <c r="G450" s="19"/>
       <c r="H450" s="1" t="s">
         <v>119</v>
       </c>
@@ -26516,7 +26555,7 @@
       <c r="F451" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G451" s="20"/>
+      <c r="G451" s="19"/>
       <c r="H451" s="1" t="s">
         <v>26</v>
       </c>
@@ -26547,7 +26586,7 @@
       <c r="F452" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G452" s="21" t="s">
+      <c r="G452" s="20" t="s">
         <v>1769</v>
       </c>
       <c r="H452" s="1" t="s">
@@ -26580,7 +26619,7 @@
       <c r="F453" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G453" s="20"/>
+      <c r="G453" s="19"/>
       <c r="H453" s="1" t="s">
         <v>14</v>
       </c>
@@ -26611,7 +26650,7 @@
       <c r="F454" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G454" s="20"/>
+      <c r="G454" s="19"/>
       <c r="H454" s="1" t="s">
         <v>7</v>
       </c>
@@ -26642,7 +26681,7 @@
       <c r="F455" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G455" s="20"/>
+      <c r="G455" s="19"/>
       <c r="H455" s="1" t="s">
         <v>7</v>
       </c>
@@ -26673,7 +26712,7 @@
       <c r="F456" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G456" s="21" t="s">
+      <c r="G456" s="20" t="s">
         <v>1781</v>
       </c>
       <c r="H456" s="1" t="s">
@@ -26706,7 +26745,7 @@
       <c r="F457" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G457" s="20"/>
+      <c r="G457" s="19"/>
       <c r="H457" s="1" t="s">
         <v>119</v>
       </c>
@@ -26737,7 +26776,7 @@
       <c r="F458" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G458" s="20"/>
+      <c r="G458" s="19"/>
       <c r="H458" s="1" t="s">
         <v>26</v>
       </c>
@@ -26768,7 +26807,7 @@
       <c r="F459" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G459" s="20"/>
+      <c r="G459" s="19"/>
       <c r="H459" s="1" t="s">
         <v>100</v>
       </c>
@@ -26799,7 +26838,7 @@
       <c r="F460" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G460" s="20"/>
+      <c r="G460" s="19"/>
       <c r="H460" s="1" t="s">
         <v>7</v>
       </c>
@@ -26830,7 +26869,7 @@
       <c r="F461" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G461" s="20"/>
+      <c r="G461" s="19"/>
       <c r="H461" s="1" t="s">
         <v>100</v>
       </c>
@@ -26861,7 +26900,7 @@
       <c r="F462" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G462" s="20"/>
+      <c r="G462" s="19"/>
       <c r="H462" s="1" t="s">
         <v>26</v>
       </c>
@@ -26892,7 +26931,7 @@
       <c r="F463" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G463" s="20"/>
+      <c r="G463" s="19"/>
       <c r="H463" s="1" t="s">
         <v>100</v>
       </c>
@@ -26923,7 +26962,7 @@
       <c r="F464" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G464" s="20"/>
+      <c r="G464" s="19"/>
       <c r="H464" s="1" t="s">
         <v>100</v>
       </c>
@@ -26954,7 +26993,7 @@
       <c r="F465" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G465" s="20"/>
+      <c r="G465" s="19"/>
       <c r="H465" s="1" t="s">
         <v>40</v>
       </c>
@@ -26985,7 +27024,7 @@
       <c r="F466" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G466" s="20"/>
+      <c r="G466" s="19"/>
       <c r="H466" s="1" t="s">
         <v>100</v>
       </c>
@@ -27016,7 +27055,7 @@
       <c r="F467" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G467" s="20"/>
+      <c r="G467" s="19"/>
       <c r="H467" s="1" t="s">
         <v>40</v>
       </c>
@@ -27047,7 +27086,7 @@
       <c r="F468" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G468" s="20"/>
+      <c r="G468" s="19"/>
       <c r="H468" s="1" t="s">
         <v>40</v>
       </c>
@@ -27078,7 +27117,7 @@
       <c r="F469" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G469" s="21" t="s">
+      <c r="G469" s="20" t="s">
         <v>1816</v>
       </c>
       <c r="H469" s="1" t="s">
@@ -27111,7 +27150,7 @@
       <c r="F470" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G470" s="20"/>
+      <c r="G470" s="19"/>
       <c r="H470" s="1" t="s">
         <v>40</v>
       </c>
@@ -27142,7 +27181,7 @@
       <c r="F471" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G471" s="20"/>
+      <c r="G471" s="19"/>
       <c r="H471" s="1" t="s">
         <v>226</v>
       </c>
@@ -27173,7 +27212,7 @@
       <c r="F472" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G472" s="20" t="s">
+      <c r="G472" s="19" t="s">
         <v>1826</v>
       </c>
       <c r="H472" s="1" t="s">
@@ -27206,7 +27245,7 @@
       <c r="F473" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G473" s="21" t="s">
+      <c r="G473" s="20" t="s">
         <v>1830</v>
       </c>
       <c r="H473" s="1" t="s">
@@ -27239,7 +27278,7 @@
       <c r="F474" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G474" s="21" t="s">
+      <c r="G474" s="20" t="s">
         <v>1211</v>
       </c>
       <c r="H474" s="1" t="s">
@@ -27272,7 +27311,7 @@
       <c r="F475" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G475" s="21" t="s">
+      <c r="G475" s="20" t="s">
         <v>1835</v>
       </c>
       <c r="H475" s="1" t="s">
@@ -27305,7 +27344,7 @@
       <c r="F476" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G476" s="21" t="s">
+      <c r="G476" s="20" t="s">
         <v>1840</v>
       </c>
       <c r="H476" s="1" t="s">
@@ -27338,7 +27377,7 @@
       <c r="F477" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G477" s="25" t="s">
+      <c r="G477" s="24" t="s">
         <v>1844</v>
       </c>
       <c r="H477" s="1" t="s">
@@ -27371,7 +27410,7 @@
       <c r="F478" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G478" s="21" t="s">
+      <c r="G478" s="20" t="s">
         <v>1848</v>
       </c>
       <c r="H478" s="1" t="s">
@@ -27404,7 +27443,7 @@
       <c r="F479" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G479" s="21" t="s">
+      <c r="G479" s="20" t="s">
         <v>1852</v>
       </c>
       <c r="H479" s="1" t="s">
@@ -27437,7 +27476,7 @@
       <c r="F480" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G480" s="21" t="s">
+      <c r="G480" s="20" t="s">
         <v>1854</v>
       </c>
       <c r="H480" s="1" t="s">
@@ -27470,7 +27509,7 @@
       <c r="F481" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G481" s="21" t="s">
+      <c r="G481" s="20" t="s">
         <v>1859</v>
       </c>
       <c r="H481" s="1" t="s">
@@ -27503,7 +27542,7 @@
       <c r="F482" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G482" s="21" t="s">
+      <c r="G482" s="20" t="s">
         <v>1863</v>
       </c>
       <c r="H482" s="1" t="s">
@@ -27536,7 +27575,7 @@
       <c r="F483" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G483" s="21" t="s">
+      <c r="G483" s="20" t="s">
         <v>1867</v>
       </c>
       <c r="H483" s="1" t="s">
@@ -27569,7 +27608,7 @@
       <c r="F484" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G484" s="21" t="s">
+      <c r="G484" s="20" t="s">
         <v>1870</v>
       </c>
       <c r="H484" s="1" t="s">
@@ -27602,7 +27641,7 @@
       <c r="F485" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G485" s="21" t="s">
+      <c r="G485" s="20" t="s">
         <v>1872</v>
       </c>
       <c r="H485" s="1" t="s">
@@ -27635,7 +27674,7 @@
       <c r="F486" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G486" s="21" t="s">
+      <c r="G486" s="20" t="s">
         <v>1875</v>
       </c>
       <c r="H486" s="1" t="s">
@@ -27668,7 +27707,7 @@
       <c r="F487" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G487" s="21" t="s">
+      <c r="G487" s="20" t="s">
         <v>1878</v>
       </c>
       <c r="H487" s="1" t="s">
@@ -27701,7 +27740,7 @@
       <c r="F488" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G488" s="20"/>
+      <c r="G488" s="19"/>
       <c r="H488" s="1" t="s">
         <v>40</v>
       </c>
@@ -27732,7 +27771,7 @@
       <c r="F489" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G489" s="20"/>
+      <c r="G489" s="19"/>
       <c r="H489" s="1" t="s">
         <v>40</v>
       </c>
@@ -27763,7 +27802,7 @@
       <c r="F490" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G490" s="20"/>
+      <c r="G490" s="19"/>
       <c r="H490" s="1" t="s">
         <v>1888</v>
       </c>
@@ -27794,7 +27833,7 @@
       <c r="F491" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G491" s="20"/>
+      <c r="G491" s="19"/>
       <c r="H491" s="1" t="s">
         <v>40</v>
       </c>
@@ -27825,7 +27864,7 @@
       <c r="F492" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G492" s="21" t="s">
+      <c r="G492" s="20" t="s">
         <v>1894</v>
       </c>
       <c r="H492" s="1" t="s">
@@ -27858,7 +27897,7 @@
       <c r="F493" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G493" s="20" t="s">
+      <c r="G493" s="19" t="s">
         <v>1901</v>
       </c>
       <c r="H493" s="8" t="s">
@@ -27888,7 +27927,7 @@
       <c r="F494" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G494" s="21" t="s">
+      <c r="G494" s="20" t="s">
         <v>1903</v>
       </c>
       <c r="H494" s="1" t="s">
@@ -27921,7 +27960,7 @@
       <c r="F495" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G495" s="21" t="s">
+      <c r="G495" s="20" t="s">
         <v>1906</v>
       </c>
       <c r="H495" s="1" t="s">
@@ -27954,7 +27993,7 @@
       <c r="F496" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G496" s="21" t="s">
+      <c r="G496" s="20" t="s">
         <v>1910</v>
       </c>
       <c r="H496" s="1" t="s">
@@ -27987,7 +28026,7 @@
       <c r="F497" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G497" s="21" t="s">
+      <c r="G497" s="20" t="s">
         <v>1913</v>
       </c>
       <c r="H497" s="1" t="s">
@@ -28020,7 +28059,7 @@
       <c r="F498" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G498" s="20"/>
+      <c r="G498" s="19"/>
       <c r="H498" s="1" t="s">
         <v>7</v>
       </c>
@@ -28051,7 +28090,7 @@
       <c r="F499" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G499" s="20"/>
+      <c r="G499" s="19"/>
       <c r="H499" s="1" t="s">
         <v>1920</v>
       </c>
@@ -28082,7 +28121,7 @@
       <c r="F500" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G500" s="20"/>
+      <c r="G500" s="19"/>
       <c r="H500" s="1" t="s">
         <v>66</v>
       </c>
@@ -28113,7 +28152,7 @@
       <c r="F501" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G501" s="21" t="s">
+      <c r="G501" s="20" t="s">
         <v>1927</v>
       </c>
       <c r="H501" s="1" t="s">
@@ -28146,7 +28185,7 @@
       <c r="F502" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G502" s="20"/>
+      <c r="G502" s="19"/>
       <c r="H502" s="1" t="s">
         <v>66</v>
       </c>
@@ -28177,7 +28216,7 @@
       <c r="F503" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G503" s="20"/>
+      <c r="G503" s="19"/>
       <c r="H503" s="1" t="s">
         <v>105</v>
       </c>
@@ -28208,7 +28247,7 @@
       <c r="F504" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G504" s="20"/>
+      <c r="G504" s="19"/>
       <c r="H504" s="1" t="s">
         <v>26</v>
       </c>
@@ -28239,7 +28278,7 @@
       <c r="F505" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G505" s="21" t="s">
+      <c r="G505" s="20" t="s">
         <v>1942</v>
       </c>
       <c r="H505" s="1" t="s">
@@ -28272,7 +28311,7 @@
       <c r="F506" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G506" s="20"/>
+      <c r="G506" s="19"/>
       <c r="H506" s="1" t="s">
         <v>40</v>
       </c>
@@ -28303,7 +28342,7 @@
       <c r="F507" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G507" s="20"/>
+      <c r="G507" s="19"/>
       <c r="H507" s="1" t="s">
         <v>105</v>
       </c>
@@ -28334,7 +28373,7 @@
       <c r="F508" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G508" s="20"/>
+      <c r="G508" s="19"/>
       <c r="H508" s="1" t="s">
         <v>40</v>
       </c>
@@ -28365,7 +28404,7 @@
       <c r="F509" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G509" s="20"/>
+      <c r="G509" s="19"/>
       <c r="H509" s="1" t="s">
         <v>7</v>
       </c>
@@ -28396,7 +28435,7 @@
       <c r="F510" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G510" s="20"/>
+      <c r="G510" s="19"/>
       <c r="H510" s="1" t="s">
         <v>119</v>
       </c>
@@ -28427,7 +28466,7 @@
       <c r="F511" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G511" s="20"/>
+      <c r="G511" s="19"/>
       <c r="H511" s="1" t="s">
         <v>100</v>
       </c>
@@ -28458,7 +28497,7 @@
       <c r="F512" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G512" s="20"/>
+      <c r="G512" s="19"/>
       <c r="H512" s="1" t="s">
         <v>66</v>
       </c>
@@ -28489,7 +28528,7 @@
       <c r="F513" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G513" s="20"/>
+      <c r="G513" s="19"/>
       <c r="H513" s="1" t="s">
         <v>66</v>
       </c>
@@ -28520,7 +28559,7 @@
       <c r="F514" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G514" s="21" t="s">
+      <c r="G514" s="20" t="s">
         <v>1976</v>
       </c>
       <c r="H514" s="1" t="s">
@@ -28553,7 +28592,7 @@
       <c r="F515" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G515" s="21" t="s">
+      <c r="G515" s="20" t="s">
         <v>1972</v>
       </c>
       <c r="H515" s="1" t="s">
@@ -28586,7 +28625,7 @@
       <c r="F516" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G516" s="21" t="s">
+      <c r="G516" s="20" t="s">
         <v>1983</v>
       </c>
       <c r="H516" s="1" t="s">
@@ -28619,7 +28658,7 @@
       <c r="F517" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="21" t="s">
+      <c r="G517" s="20" t="s">
         <v>1980</v>
       </c>
       <c r="H517" s="1" t="s">
@@ -28652,7 +28691,7 @@
       <c r="F518" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G518" s="21" t="s">
+      <c r="G518" s="20" t="s">
         <v>1994</v>
       </c>
       <c r="H518" s="1" t="s">
@@ -28685,7 +28724,7 @@
       <c r="F519" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G519" s="25" t="s">
+      <c r="G519" s="24" t="s">
         <v>1990</v>
       </c>
       <c r="H519" s="1" t="s">
@@ -28718,7 +28757,7 @@
       <c r="F520" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G520" s="20"/>
+      <c r="G520" s="19"/>
       <c r="H520" s="1" t="s">
         <v>66</v>
       </c>
@@ -28749,7 +28788,7 @@
       <c r="F521" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G521" s="20"/>
+      <c r="G521" s="19"/>
       <c r="H521" s="1" t="s">
         <v>40</v>
       </c>
@@ -28780,7 +28819,7 @@
       <c r="F522" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G522" s="21" t="s">
+      <c r="G522" s="20" t="s">
         <v>1997</v>
       </c>
       <c r="H522" s="1" t="s">
@@ -28813,7 +28852,7 @@
       <c r="F523" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G523" s="20"/>
+      <c r="G523" s="19"/>
       <c r="H523" s="1" t="s">
         <v>26</v>
       </c>
@@ -28844,7 +28883,7 @@
       <c r="F524" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G524" s="21" t="s">
+      <c r="G524" s="20" t="s">
         <v>2010</v>
       </c>
       <c r="H524" s="1" t="s">
@@ -28877,7 +28916,7 @@
       <c r="F525" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G525" s="20"/>
+      <c r="G525" s="19"/>
       <c r="H525" s="1" t="s">
         <v>2008</v>
       </c>
@@ -28908,7 +28947,7 @@
       <c r="F526" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G526" s="20" t="s">
+      <c r="G526" s="19" t="s">
         <v>2017</v>
       </c>
       <c r="H526" s="1" t="s">
@@ -28941,7 +28980,7 @@
       <c r="F527" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G527" s="20" t="s">
+      <c r="G527" s="19" t="s">
         <v>2018</v>
       </c>
       <c r="H527" s="1" t="s">
@@ -28974,7 +29013,7 @@
       <c r="F528" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G528" s="20" t="s">
+      <c r="G528" s="19" t="s">
         <v>2022</v>
       </c>
       <c r="H528" s="1" t="s">
@@ -29007,7 +29046,7 @@
       <c r="F529" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G529" s="20" t="s">
+      <c r="G529" s="19" t="s">
         <v>2026</v>
       </c>
       <c r="H529" s="1" t="s">
@@ -29040,7 +29079,7 @@
       <c r="F530" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G530" s="20" t="s">
+      <c r="G530" s="19" t="s">
         <v>2030</v>
       </c>
       <c r="H530" s="1" t="s">
@@ -29073,7 +29112,7 @@
       <c r="F531" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G531" s="20" t="s">
+      <c r="G531" s="19" t="s">
         <v>2037</v>
       </c>
       <c r="H531" s="1" t="s">
@@ -29106,7 +29145,7 @@
       <c r="F532" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G532" s="20" t="s">
+      <c r="G532" s="19" t="s">
         <v>2038</v>
       </c>
       <c r="H532" s="1" t="s">
@@ -29139,7 +29178,7 @@
       <c r="F533" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G533" s="20" t="s">
+      <c r="G533" s="19" t="s">
         <v>2042</v>
       </c>
       <c r="H533" s="1" t="s">
@@ -29172,7 +29211,7 @@
       <c r="F534" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G534" s="20" t="s">
+      <c r="G534" s="19" t="s">
         <v>2046</v>
       </c>
       <c r="H534" s="1" t="s">
@@ -29205,7 +29244,7 @@
       <c r="F535" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G535" s="20" t="s">
+      <c r="G535" s="19" t="s">
         <v>2049</v>
       </c>
       <c r="H535" s="1" t="s">
@@ -29238,7 +29277,7 @@
       <c r="F536" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G536" s="20" t="s">
+      <c r="G536" s="19" t="s">
         <v>2056</v>
       </c>
       <c r="H536" s="1" t="s">
@@ -29271,7 +29310,7 @@
       <c r="F537" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G537" s="20" t="s">
+      <c r="G537" s="19" t="s">
         <v>2057</v>
       </c>
       <c r="H537" s="1" t="s">
@@ -29304,7 +29343,7 @@
       <c r="F538" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G538" s="20" t="s">
+      <c r="G538" s="19" t="s">
         <v>2064</v>
       </c>
       <c r="H538" s="1" t="s">
@@ -29337,7 +29376,7 @@
       <c r="F539" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G539" s="20" t="s">
+      <c r="G539" s="19" t="s">
         <v>2065</v>
       </c>
       <c r="H539" s="1" t="s">
@@ -29370,7 +29409,7 @@
       <c r="F540" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G540" s="20" t="s">
+      <c r="G540" s="19" t="s">
         <v>2069</v>
       </c>
       <c r="H540" s="1" t="s">
@@ -29403,7 +29442,7 @@
       <c r="F541" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G541" s="20" t="s">
+      <c r="G541" s="19" t="s">
         <v>2073</v>
       </c>
       <c r="H541" s="1" t="s">
@@ -29436,7 +29475,7 @@
       <c r="F542" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G542" s="20" t="s">
+      <c r="G542" s="19" t="s">
         <v>457</v>
       </c>
       <c r="H542" s="1" t="s">
@@ -29469,7 +29508,7 @@
       <c r="F543" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G543" s="20" t="s">
+      <c r="G543" s="19" t="s">
         <v>2081</v>
       </c>
       <c r="H543" s="1" t="s">
@@ -29502,7 +29541,7 @@
       <c r="F544" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G544" s="20" t="s">
+      <c r="G544" s="19" t="s">
         <v>2083</v>
       </c>
       <c r="H544" s="1" t="s">
@@ -29535,7 +29574,7 @@
       <c r="F545" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G545" s="21" t="s">
+      <c r="G545" s="20" t="s">
         <v>2087</v>
       </c>
       <c r="H545" s="1" t="s">
@@ -29568,7 +29607,7 @@
       <c r="F546" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G546" s="25" t="s">
+      <c r="G546" s="24" t="s">
         <v>2091</v>
       </c>
       <c r="H546" s="1" t="s">
@@ -29601,7 +29640,7 @@
       <c r="F547" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G547" s="21" t="s">
+      <c r="G547" s="20" t="s">
         <v>2094</v>
       </c>
       <c r="H547" s="1" t="s">
@@ -29634,7 +29673,7 @@
       <c r="F548" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G548" s="20" t="s">
+      <c r="G548" s="19" t="s">
         <v>2097</v>
       </c>
       <c r="H548" s="1" t="s">
@@ -29667,7 +29706,7 @@
       <c r="F549" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G549" s="21" t="s">
+      <c r="G549" s="20" t="s">
         <v>2101</v>
       </c>
       <c r="H549" s="1" t="s">
@@ -29700,7 +29739,7 @@
       <c r="F550" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G550" s="21" t="s">
+      <c r="G550" s="20" t="s">
         <v>2104</v>
       </c>
       <c r="H550" s="1" t="s">
@@ -29733,7 +29772,7 @@
       <c r="F551" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G551" s="20" t="s">
+      <c r="G551" s="19" t="s">
         <v>2107</v>
       </c>
       <c r="H551" s="1" t="s">
@@ -29766,7 +29805,7 @@
       <c r="F552" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G552" s="20" t="s">
+      <c r="G552" s="19" t="s">
         <v>2112</v>
       </c>
       <c r="H552" s="1" t="s">
@@ -29799,7 +29838,7 @@
       <c r="F553" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G553" s="20" t="s">
+      <c r="G553" s="19" t="s">
         <v>2118</v>
       </c>
       <c r="H553" s="1" t="s">
@@ -29832,7 +29871,7 @@
       <c r="F554" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G554" s="20" t="s">
+      <c r="G554" s="19" t="s">
         <v>2119</v>
       </c>
       <c r="H554" s="1" t="s">
@@ -29865,7 +29904,7 @@
       <c r="F555" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G555" s="20" t="s">
+      <c r="G555" s="19" t="s">
         <v>2123</v>
       </c>
       <c r="H555" s="1" t="s">
@@ -29898,7 +29937,7 @@
       <c r="F556" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G556" s="20" t="s">
+      <c r="G556" s="19" t="s">
         <v>2128</v>
       </c>
       <c r="H556" s="1" t="s">
@@ -29931,7 +29970,7 @@
       <c r="F557" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G557" s="21" t="s">
+      <c r="G557" s="20" t="s">
         <v>2129</v>
       </c>
       <c r="H557" s="1" t="s">
@@ -29964,7 +30003,7 @@
       <c r="F558" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G558" s="20" t="s">
+      <c r="G558" s="19" t="s">
         <v>2131</v>
       </c>
       <c r="H558" s="1" t="s">
@@ -29997,7 +30036,7 @@
       <c r="F559" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G559" s="20" t="s">
+      <c r="G559" s="19" t="s">
         <v>2134</v>
       </c>
       <c r="H559" s="1" t="s">
@@ -30030,7 +30069,7 @@
       <c r="F560" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G560" s="20" t="s">
+      <c r="G560" s="19" t="s">
         <v>2138</v>
       </c>
       <c r="H560" s="1" t="s">
@@ -30063,7 +30102,7 @@
       <c r="F561" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G561" s="20" t="s">
+      <c r="G561" s="19" t="s">
         <v>2142</v>
       </c>
       <c r="H561" s="1" t="s">
@@ -30096,7 +30135,7 @@
       <c r="F562" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G562" s="20" t="s">
+      <c r="G562" s="19" t="s">
         <v>2144</v>
       </c>
       <c r="H562" s="1" t="s">
@@ -30129,7 +30168,7 @@
       <c r="F563" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G563" s="21" t="s">
+      <c r="G563" s="20" t="s">
         <v>2150</v>
       </c>
       <c r="H563" s="1" t="s">
@@ -30162,7 +30201,7 @@
       <c r="F564" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G564" s="21" t="s">
+      <c r="G564" s="20" t="s">
         <v>2152</v>
       </c>
       <c r="H564" s="1" t="s">
@@ -30195,7 +30234,7 @@
       <c r="F565" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G565" s="21" t="s">
+      <c r="G565" s="20" t="s">
         <v>2156</v>
       </c>
       <c r="H565" s="1" t="s">
@@ -30228,7 +30267,7 @@
       <c r="F566" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G566" s="21" t="s">
+      <c r="G566" s="20" t="s">
         <v>2160</v>
       </c>
       <c r="H566" s="1" t="s">
@@ -30261,7 +30300,7 @@
       <c r="F567" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G567" s="21" t="s">
+      <c r="G567" s="20" t="s">
         <v>2163</v>
       </c>
       <c r="H567" s="1" t="s">
@@ -30294,7 +30333,7 @@
       <c r="F568" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G568" s="21" t="s">
+      <c r="G568" s="20" t="s">
         <v>2165</v>
       </c>
       <c r="H568" s="1" t="s">
@@ -30327,7 +30366,7 @@
       <c r="F569" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G569" s="21" t="s">
+      <c r="G569" s="20" t="s">
         <v>2167</v>
       </c>
       <c r="H569" s="1" t="s">
@@ -30360,7 +30399,7 @@
       <c r="F570" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G570" s="20" t="s">
+      <c r="G570" s="19" t="s">
         <v>2169</v>
       </c>
       <c r="H570" s="1" t="s">
@@ -30393,7 +30432,7 @@
       <c r="F571" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G571" s="20" t="s">
+      <c r="G571" s="19" t="s">
         <v>2173</v>
       </c>
       <c r="H571" s="1" t="s">
@@ -30426,7 +30465,7 @@
       <c r="F572" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G572" s="21" t="s">
+      <c r="G572" s="20" t="s">
         <v>2176</v>
       </c>
       <c r="H572" s="1" t="s">
@@ -30459,7 +30498,7 @@
       <c r="F573" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G573" s="21" t="s">
+      <c r="G573" s="20" t="s">
         <v>2179</v>
       </c>
       <c r="H573" s="1" t="s">
@@ -30492,7 +30531,7 @@
       <c r="F574" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G574" s="20" t="s">
+      <c r="G574" s="19" t="s">
         <v>2181</v>
       </c>
       <c r="H574" s="1" t="s">
@@ -30525,7 +30564,7 @@
       <c r="F575" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G575" s="20" t="s">
+      <c r="G575" s="19" t="s">
         <v>2183</v>
       </c>
       <c r="H575" s="1" t="s">
@@ -30558,7 +30597,7 @@
       <c r="F576" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G576" s="20" t="s">
+      <c r="G576" s="19" t="s">
         <v>2186</v>
       </c>
       <c r="H576" s="1" t="s">
@@ -30591,7 +30630,7 @@
       <c r="F577" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G577" s="20" t="s">
+      <c r="G577" s="19" t="s">
         <v>2189</v>
       </c>
       <c r="H577" s="1" t="s">
@@ -30624,7 +30663,7 @@
       <c r="F578" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G578" s="21" t="s">
+      <c r="G578" s="20" t="s">
         <v>2191</v>
       </c>
       <c r="H578" s="1" t="s">
@@ -30657,7 +30696,7 @@
       <c r="F579" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G579" s="20" t="s">
+      <c r="G579" s="19" t="s">
         <v>2193</v>
       </c>
       <c r="H579" s="1" t="s">
@@ -30690,7 +30729,7 @@
       <c r="F580" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G580" s="20" t="s">
+      <c r="G580" s="19" t="s">
         <v>2200</v>
       </c>
       <c r="H580" s="1" t="s">
@@ -30723,7 +30762,7 @@
       <c r="F581" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G581" s="20" t="s">
+      <c r="G581" s="19" t="s">
         <v>2201</v>
       </c>
       <c r="H581" s="1" t="s">
@@ -30756,7 +30795,7 @@
       <c r="F582" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G582" s="20" t="s">
+      <c r="G582" s="19" t="s">
         <v>2203</v>
       </c>
       <c r="H582" s="1" t="s">
@@ -30789,7 +30828,7 @@
       <c r="F583" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G583" s="20" t="s">
+      <c r="G583" s="19" t="s">
         <v>2207</v>
       </c>
       <c r="H583" s="1" t="s">
@@ -30825,7 +30864,7 @@
       <c r="F584" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G584" s="20" t="s">
+      <c r="G584" s="19" t="s">
         <v>2209</v>
       </c>
       <c r="H584" s="1" t="s">
@@ -30858,7 +30897,7 @@
       <c r="F585" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G585" s="21" t="s">
+      <c r="G585" s="20" t="s">
         <v>2212</v>
       </c>
       <c r="H585" s="1" t="s">
@@ -30891,7 +30930,7 @@
       <c r="F586" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G586" s="21" t="s">
+      <c r="G586" s="20" t="s">
         <v>2215</v>
       </c>
       <c r="H586" s="1" t="s">
@@ -30924,7 +30963,7 @@
       <c r="F587" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G587" s="21" t="s">
+      <c r="G587" s="20" t="s">
         <v>2218</v>
       </c>
       <c r="H587" s="1" t="s">
@@ -30957,7 +30996,7 @@
       <c r="F588" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G588" s="21" t="s">
+      <c r="G588" s="20" t="s">
         <v>2221</v>
       </c>
       <c r="H588" s="1" t="s">
@@ -30990,7 +31029,7 @@
       <c r="F589" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G589" s="21" t="s">
+      <c r="G589" s="20" t="s">
         <v>2224</v>
       </c>
       <c r="H589" s="1" t="s">
@@ -31023,7 +31062,7 @@
       <c r="F590" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G590" s="21" t="s">
+      <c r="G590" s="20" t="s">
         <v>2227</v>
       </c>
       <c r="H590" s="1" t="s">
@@ -31056,7 +31095,7 @@
       <c r="F591" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G591" s="21" t="s">
+      <c r="G591" s="20" t="s">
         <v>2229</v>
       </c>
       <c r="H591" s="1" t="s">
@@ -31089,7 +31128,7 @@
       <c r="F592" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G592" s="21" t="s">
+      <c r="G592" s="20" t="s">
         <v>2231</v>
       </c>
       <c r="H592" s="1" t="s">
@@ -31122,7 +31161,7 @@
       <c r="F593" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G593" s="21" t="s">
+      <c r="G593" s="20" t="s">
         <v>2234</v>
       </c>
       <c r="H593" s="1" t="s">
@@ -31155,7 +31194,7 @@
       <c r="F594" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G594" s="21" t="s">
+      <c r="G594" s="20" t="s">
         <v>2238</v>
       </c>
       <c r="H594" s="1" t="s">
@@ -31188,7 +31227,7 @@
       <c r="F595" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G595" s="21" t="s">
+      <c r="G595" s="20" t="s">
         <v>2241</v>
       </c>
       <c r="H595" s="1" t="s">
@@ -31221,7 +31260,7 @@
       <c r="F596" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G596" s="21" t="s">
+      <c r="G596" s="20" t="s">
         <v>2244</v>
       </c>
       <c r="H596" s="1" t="s">
@@ -31254,7 +31293,7 @@
       <c r="F597" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G597" s="21" t="s">
+      <c r="G597" s="20" t="s">
         <v>2246</v>
       </c>
       <c r="H597" s="1" t="s">
@@ -31287,7 +31326,7 @@
       <c r="F598" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G598" s="21" t="s">
+      <c r="G598" s="20" t="s">
         <v>2250</v>
       </c>
       <c r="H598" s="1" t="s">
@@ -31320,7 +31359,7 @@
       <c r="F599" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G599" s="21" t="s">
+      <c r="G599" s="20" t="s">
         <v>2253</v>
       </c>
       <c r="H599" s="1" t="s">
@@ -31353,7 +31392,7 @@
       <c r="F600" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G600" s="21" t="s">
+      <c r="G600" s="20" t="s">
         <v>2257</v>
       </c>
       <c r="H600" s="1" t="s">
@@ -31386,7 +31425,7 @@
       <c r="F601" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G601" s="21" t="s">
+      <c r="G601" s="20" t="s">
         <v>2261</v>
       </c>
       <c r="H601" s="1" t="s">
@@ -31419,7 +31458,7 @@
       <c r="F602" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G602" s="21" t="s">
+      <c r="G602" s="20" t="s">
         <v>2264</v>
       </c>
       <c r="H602" s="1" t="s">
@@ -31452,7 +31491,7 @@
       <c r="F603" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G603" s="21" t="s">
+      <c r="G603" s="20" t="s">
         <v>2268</v>
       </c>
       <c r="H603" s="1" t="s">
@@ -31485,7 +31524,7 @@
       <c r="F604" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G604" s="21" t="s">
+      <c r="G604" s="20" t="s">
         <v>2272</v>
       </c>
       <c r="H604" s="1" t="s">
@@ -31518,7 +31557,7 @@
       <c r="F605" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G605" s="21" t="s">
+      <c r="G605" s="20" t="s">
         <v>2276</v>
       </c>
       <c r="H605" s="1" t="s">
@@ -31551,7 +31590,7 @@
       <c r="F606" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G606" s="21" t="s">
+      <c r="G606" s="20" t="s">
         <v>2280</v>
       </c>
       <c r="H606" s="1" t="s">
@@ -31584,7 +31623,7 @@
       <c r="F607" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G607" s="21" t="s">
+      <c r="G607" s="20" t="s">
         <v>2283</v>
       </c>
       <c r="H607" s="1" t="s">
@@ -31617,7 +31656,7 @@
       <c r="F608" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G608" s="21" t="s">
+      <c r="G608" s="20" t="s">
         <v>2287</v>
       </c>
       <c r="H608" s="1" t="s">
@@ -31650,7 +31689,7 @@
       <c r="F609" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G609" s="21" t="s">
+      <c r="G609" s="20" t="s">
         <v>2290</v>
       </c>
       <c r="H609" s="1" t="s">
@@ -31683,7 +31722,7 @@
       <c r="F610" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G610" s="21" t="s">
+      <c r="G610" s="20" t="s">
         <v>2293</v>
       </c>
       <c r="H610" s="1" t="s">
@@ -31716,7 +31755,7 @@
       <c r="F611" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G611" s="21" t="s">
+      <c r="G611" s="20" t="s">
         <v>2296</v>
       </c>
       <c r="H611" s="1" t="s">
@@ -31749,7 +31788,7 @@
       <c r="F612" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G612" s="21" t="s">
+      <c r="G612" s="20" t="s">
         <v>2298</v>
       </c>
       <c r="H612" s="1" t="s">
@@ -31782,7 +31821,7 @@
       <c r="F613" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G613" s="21" t="s">
+      <c r="G613" s="20" t="s">
         <v>2300</v>
       </c>
       <c r="H613" s="1" t="s">
@@ -31815,7 +31854,7 @@
       <c r="F614" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G614" s="21" t="s">
+      <c r="G614" s="20" t="s">
         <v>2303</v>
       </c>
       <c r="H614" s="1" t="s">
@@ -31848,7 +31887,7 @@
       <c r="F615" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G615" s="21" t="s">
+      <c r="G615" s="20" t="s">
         <v>2305</v>
       </c>
       <c r="H615" s="1" t="s">
@@ -31881,7 +31920,7 @@
       <c r="F616" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G616" s="21" t="s">
+      <c r="G616" s="20" t="s">
         <v>1398</v>
       </c>
       <c r="H616" s="1" t="s">
@@ -31914,7 +31953,7 @@
       <c r="F617" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G617" s="21" t="s">
+      <c r="G617" s="20" t="s">
         <v>2313</v>
       </c>
       <c r="H617" s="1" t="s">
@@ -31947,7 +31986,7 @@
       <c r="F618" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G618" s="21" t="s">
+      <c r="G618" s="20" t="s">
         <v>2318</v>
       </c>
       <c r="H618" s="1" t="s">
@@ -31980,7 +32019,7 @@
       <c r="F619" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G619" s="21" t="s">
+      <c r="G619" s="20" t="s">
         <v>2319</v>
       </c>
       <c r="H619" s="1" t="s">
@@ -32013,7 +32052,7 @@
       <c r="F620" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G620" s="21" t="s">
+      <c r="G620" s="20" t="s">
         <v>2323</v>
       </c>
       <c r="H620" s="1" t="s">
@@ -32046,7 +32085,7 @@
       <c r="F621" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G621" s="21" t="s">
+      <c r="G621" s="20" t="s">
         <v>2327</v>
       </c>
       <c r="H621" s="1" t="s">
@@ -32079,7 +32118,7 @@
       <c r="F622" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G622" s="21" t="s">
+      <c r="G622" s="20" t="s">
         <v>2330</v>
       </c>
       <c r="H622" s="1" t="s">
@@ -32112,7 +32151,7 @@
       <c r="F623" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G623" s="20" t="s">
+      <c r="G623" s="19" t="s">
         <v>2332</v>
       </c>
       <c r="H623" s="1" t="s">
@@ -32145,7 +32184,7 @@
       <c r="F624" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G624" s="21" t="s">
+      <c r="G624" s="20" t="s">
         <v>2337</v>
       </c>
       <c r="H624" s="1" t="s">
@@ -32178,7 +32217,7 @@
       <c r="F625" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G625" s="21" t="s">
+      <c r="G625" s="20" t="s">
         <v>2341</v>
       </c>
       <c r="H625" s="1" t="s">
@@ -32211,7 +32250,7 @@
       <c r="F626" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G626" s="21" t="s">
+      <c r="G626" s="20" t="s">
         <v>2344</v>
       </c>
       <c r="H626" s="1" t="s">
@@ -32244,7 +32283,7 @@
       <c r="F627" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G627" s="21" t="s">
+      <c r="G627" s="20" t="s">
         <v>2348</v>
       </c>
       <c r="H627" s="1" t="s">
@@ -32277,7 +32316,7 @@
       <c r="F628" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G628" s="21" t="s">
+      <c r="G628" s="20" t="s">
         <v>2351</v>
       </c>
       <c r="H628" s="1" t="s">
@@ -32310,7 +32349,7 @@
       <c r="F629" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G629" s="21" t="s">
+      <c r="G629" s="20" t="s">
         <v>2355</v>
       </c>
       <c r="H629" s="1" t="s">
@@ -32343,7 +32382,7 @@
       <c r="F630" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G630" s="21" t="s">
+      <c r="G630" s="20" t="s">
         <v>2359</v>
       </c>
       <c r="H630" s="1" t="s">
@@ -32376,7 +32415,7 @@
       <c r="F631" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G631" s="21" t="s">
+      <c r="G631" s="20" t="s">
         <v>2363</v>
       </c>
       <c r="H631" s="1" t="s">
@@ -32409,7 +32448,7 @@
       <c r="F632" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G632" s="21" t="s">
+      <c r="G632" s="20" t="s">
         <v>2367</v>
       </c>
       <c r="H632" s="1" t="s">
@@ -32442,7 +32481,7 @@
       <c r="F633" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G633" s="21" t="s">
+      <c r="G633" s="20" t="s">
         <v>2372</v>
       </c>
       <c r="H633" s="1" t="s">
@@ -32475,7 +32514,7 @@
       <c r="F634" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G634" s="21" t="s">
+      <c r="G634" s="20" t="s">
         <v>2376</v>
       </c>
       <c r="H634" s="1" t="s">
@@ -32508,7 +32547,7 @@
       <c r="F635" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G635" s="25" t="s">
+      <c r="G635" s="24" t="s">
         <v>2380</v>
       </c>
       <c r="H635" s="1" t="s">
@@ -32541,7 +32580,7 @@
       <c r="F636" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G636" s="21" t="s">
+      <c r="G636" s="20" t="s">
         <v>2384</v>
       </c>
       <c r="H636" s="1" t="s">
@@ -32574,7 +32613,7 @@
       <c r="F637" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G637" s="21" t="s">
+      <c r="G637" s="20" t="s">
         <v>2388</v>
       </c>
       <c r="H637" s="1" t="s">
@@ -32607,7 +32646,7 @@
       <c r="F638" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G638" s="21" t="s">
+      <c r="G638" s="20" t="s">
         <v>2392</v>
       </c>
       <c r="H638" s="1" t="s">
@@ -32640,7 +32679,7 @@
       <c r="F639" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G639" s="21" t="s">
+      <c r="G639" s="20" t="s">
         <v>2395</v>
       </c>
       <c r="H639" s="1" t="s">
@@ -32673,7 +32712,7 @@
       <c r="F640" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G640" s="21" t="s">
+      <c r="G640" s="20" t="s">
         <v>2400</v>
       </c>
       <c r="H640" s="1" t="s">
@@ -32706,7 +32745,7 @@
       <c r="F641" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G641" s="21" t="s">
+      <c r="G641" s="20" t="s">
         <v>2404</v>
       </c>
       <c r="H641" s="1" t="s">
@@ -32736,7 +32775,7 @@
       <c r="F642" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G642" s="21" t="s">
+      <c r="G642" s="20" t="s">
         <v>2407</v>
       </c>
       <c r="H642" s="1" t="s">
@@ -32769,7 +32808,7 @@
       <c r="F643" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G643" s="21" t="s">
+      <c r="G643" s="20" t="s">
         <v>2410</v>
       </c>
       <c r="H643" s="1" t="s">
@@ -32802,7 +32841,7 @@
       <c r="F644" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G644" s="21" t="s">
+      <c r="G644" s="20" t="s">
         <v>2411</v>
       </c>
       <c r="H644" s="1" t="s">
@@ -32832,7 +32871,7 @@
       <c r="F645" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G645" s="21" t="s">
+      <c r="G645" s="20" t="s">
         <v>2414</v>
       </c>
       <c r="H645" s="1" t="s">
@@ -32865,7 +32904,7 @@
       <c r="F646" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G646" s="21" t="s">
+      <c r="G646" s="20" t="s">
         <v>2417</v>
       </c>
       <c r="H646" s="1" t="s">
@@ -32898,7 +32937,7 @@
       <c r="F647" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G647" s="21" t="s">
+      <c r="G647" s="20" t="s">
         <v>2420</v>
       </c>
       <c r="H647" s="1" t="s">
@@ -32931,7 +32970,7 @@
       <c r="F648" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G648" s="21" t="s">
+      <c r="G648" s="20" t="s">
         <v>2424</v>
       </c>
       <c r="H648" s="1" t="s">
@@ -32964,7 +33003,7 @@
       <c r="F649" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G649" s="21" t="s">
+      <c r="G649" s="20" t="s">
         <v>2428</v>
       </c>
       <c r="H649" s="1" t="s">
@@ -32997,7 +33036,7 @@
       <c r="F650" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G650" s="21" t="s">
+      <c r="G650" s="20" t="s">
         <v>2432</v>
       </c>
       <c r="H650" s="1" t="s">
@@ -33030,7 +33069,7 @@
       <c r="F651" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G651" s="21" t="s">
+      <c r="G651" s="20" t="s">
         <v>2435</v>
       </c>
       <c r="H651" s="1" t="s">
@@ -33063,7 +33102,7 @@
       <c r="F652" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G652" s="21" t="s">
+      <c r="G652" s="20" t="s">
         <v>2439</v>
       </c>
       <c r="H652" s="1" t="s">
@@ -33096,7 +33135,7 @@
       <c r="F653" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G653" s="21" t="s">
+      <c r="G653" s="20" t="s">
         <v>2442</v>
       </c>
       <c r="H653" s="1" t="s">
@@ -33129,7 +33168,7 @@
       <c r="F654" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G654" s="20" t="s">
+      <c r="G654" s="19" t="s">
         <v>2446</v>
       </c>
       <c r="H654" s="1" t="s">
@@ -33162,7 +33201,7 @@
       <c r="F655" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G655" s="21" t="s">
+      <c r="G655" s="20" t="s">
         <v>2450</v>
       </c>
       <c r="H655" s="1" t="s">
@@ -33195,7 +33234,7 @@
       <c r="F656" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G656" s="24" t="s">
+      <c r="G656" s="23" t="s">
         <v>2454</v>
       </c>
       <c r="H656" s="1" t="s">
@@ -33228,7 +33267,7 @@
       <c r="F657" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G657" s="24" t="s">
+      <c r="G657" s="23" t="s">
         <v>2458</v>
       </c>
       <c r="H657" s="1" t="s">
@@ -33261,7 +33300,7 @@
       <c r="F658" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G658" s="24" t="s">
+      <c r="G658" s="23" t="s">
         <v>2462</v>
       </c>
       <c r="H658" s="1" t="s">
@@ -33294,7 +33333,7 @@
       <c r="F659" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G659" s="24" t="s">
+      <c r="G659" s="23" t="s">
         <v>2465</v>
       </c>
       <c r="H659" s="1" t="s">
@@ -33327,7 +33366,7 @@
       <c r="F660" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G660" s="25" t="s">
+      <c r="G660" s="24" t="s">
         <v>2468</v>
       </c>
       <c r="H660" s="1" t="s">
@@ -33360,7 +33399,7 @@
       <c r="F661" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G661" s="24" t="s">
+      <c r="G661" s="23" t="s">
         <v>2472</v>
       </c>
       <c r="H661" s="1" t="s">
@@ -33393,7 +33432,7 @@
       <c r="F662" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G662" s="24" t="s">
+      <c r="G662" s="23" t="s">
         <v>2476</v>
       </c>
       <c r="H662" s="1" t="s">
@@ -33426,7 +33465,7 @@
       <c r="F663" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G663" s="24" t="s">
+      <c r="G663" s="23" t="s">
         <v>2480</v>
       </c>
       <c r="H663" s="1" t="s">
@@ -33459,7 +33498,7 @@
       <c r="F664" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G664" s="24" t="s">
+      <c r="G664" s="23" t="s">
         <v>2484</v>
       </c>
       <c r="H664" s="1" t="s">
@@ -33492,7 +33531,7 @@
       <c r="F665" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G665" s="26" t="s">
+      <c r="G665" s="25" t="s">
         <v>2488</v>
       </c>
       <c r="H665" s="1" t="s">
@@ -33525,7 +33564,7 @@
       <c r="F666" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G666" s="24" t="s">
+      <c r="G666" s="23" t="s">
         <v>2492</v>
       </c>
       <c r="H666" s="1" t="s">
@@ -33558,7 +33597,7 @@
       <c r="F667" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G667" s="24" t="s">
+      <c r="G667" s="23" t="s">
         <v>2496</v>
       </c>
       <c r="H667" s="1" t="s">
@@ -33591,7 +33630,7 @@
       <c r="F668" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G668" s="21" t="s">
+      <c r="G668" s="20" t="s">
         <v>2500</v>
       </c>
       <c r="H668" s="1" t="s">
@@ -33624,7 +33663,7 @@
       <c r="F669" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G669" s="24" t="s">
+      <c r="G669" s="23" t="s">
         <v>2504</v>
       </c>
       <c r="H669" s="1" t="s">
@@ -33657,7 +33696,7 @@
       <c r="F670" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G670" s="26" t="s">
+      <c r="G670" s="25" t="s">
         <v>2512</v>
       </c>
       <c r="H670" s="1" t="s">
@@ -33690,7 +33729,7 @@
       <c r="F671" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G671" s="24" t="s">
+      <c r="G671" s="23" t="s">
         <v>2513</v>
       </c>
       <c r="H671" s="1" t="s">
@@ -33723,7 +33762,7 @@
       <c r="F672" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G672" s="24" t="s">
+      <c r="G672" s="23" t="s">
         <v>2516</v>
       </c>
       <c r="H672" s="1" t="s">
@@ -33756,7 +33795,7 @@
       <c r="F673" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G673" s="24" t="s">
+      <c r="G673" s="23" t="s">
         <v>2521</v>
       </c>
       <c r="H673" s="1" t="s">
@@ -33789,7 +33828,7 @@
       <c r="F674" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G674" s="24" t="s">
+      <c r="G674" s="23" t="s">
         <v>2524</v>
       </c>
       <c r="H674" s="1" t="s">
@@ -33822,7 +33861,7 @@
       <c r="F675" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G675" s="24" t="s">
+      <c r="G675" s="23" t="s">
         <v>2528</v>
       </c>
       <c r="H675" s="1" t="s">
@@ -33855,7 +33894,7 @@
       <c r="F676" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G676" s="24" t="s">
+      <c r="G676" s="23" t="s">
         <v>2531</v>
       </c>
       <c r="H676" s="1" t="s">
@@ -33888,7 +33927,7 @@
       <c r="F677" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G677" s="24" t="s">
+      <c r="G677" s="23" t="s">
         <v>2534</v>
       </c>
       <c r="H677" s="1" t="s">
@@ -33921,7 +33960,7 @@
       <c r="F678" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G678" s="26" t="s">
+      <c r="G678" s="25" t="s">
         <v>2538</v>
       </c>
       <c r="H678" s="1" t="s">
@@ -33954,7 +33993,7 @@
       <c r="F679" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G679" s="26" t="s">
+      <c r="G679" s="25" t="s">
         <v>2542</v>
       </c>
       <c r="H679" s="1" t="s">
@@ -33987,7 +34026,7 @@
       <c r="F680" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G680" s="24" t="s">
+      <c r="G680" s="23" t="s">
         <v>2546</v>
       </c>
       <c r="H680" s="1" t="s">
@@ -34020,7 +34059,7 @@
       <c r="F681" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G681" s="24" t="s">
+      <c r="G681" s="23" t="s">
         <v>2549</v>
       </c>
       <c r="H681" s="1" t="s">
@@ -34053,7 +34092,7 @@
       <c r="F682" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G682" s="24" t="s">
+      <c r="G682" s="23" t="s">
         <v>2553</v>
       </c>
       <c r="H682" s="1" t="s">
@@ -34086,7 +34125,7 @@
       <c r="F683" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G683" s="24" t="s">
+      <c r="G683" s="23" t="s">
         <v>2557</v>
       </c>
       <c r="H683" s="1" t="s">
@@ -34119,7 +34158,7 @@
       <c r="F684" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G684" s="24" t="s">
+      <c r="G684" s="23" t="s">
         <v>2562</v>
       </c>
       <c r="H684" s="1" t="s">
@@ -34152,7 +34191,7 @@
       <c r="F685" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G685" s="25" t="s">
+      <c r="G685" s="24" t="s">
         <v>2566</v>
       </c>
       <c r="H685" s="1" t="s">
@@ -34185,7 +34224,7 @@
       <c r="F686" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G686" s="24" t="s">
+      <c r="G686" s="23" t="s">
         <v>2570</v>
       </c>
       <c r="H686" s="1" t="s">
@@ -34218,7 +34257,7 @@
       <c r="F687" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G687" s="24" t="s">
+      <c r="G687" s="23" t="s">
         <v>2575</v>
       </c>
       <c r="H687" s="1" t="s">
@@ -34251,7 +34290,7 @@
       <c r="F688" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G688" s="21" t="s">
+      <c r="G688" s="20" t="s">
         <v>2579</v>
       </c>
       <c r="H688" s="1" t="s">
@@ -34284,7 +34323,7 @@
       <c r="F689" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G689" s="24" t="s">
+      <c r="G689" s="23" t="s">
         <v>2583</v>
       </c>
       <c r="H689" s="1" t="s">
@@ -34317,7 +34356,7 @@
       <c r="F690" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G690" s="24" t="s">
+      <c r="G690" s="23" t="s">
         <v>2588</v>
       </c>
       <c r="H690" s="1" t="s">
@@ -34350,7 +34389,7 @@
       <c r="F691" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G691" s="21" t="s">
+      <c r="G691" s="20" t="s">
         <v>2591</v>
       </c>
       <c r="H691" s="1" t="s">
@@ -34383,7 +34422,7 @@
       <c r="F692" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G692" s="21" t="s">
+      <c r="G692" s="20" t="s">
         <v>2595</v>
       </c>
       <c r="H692" s="1" t="s">
@@ -34416,7 +34455,7 @@
       <c r="F693" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G693" s="21" t="s">
+      <c r="G693" s="20" t="s">
         <v>2598</v>
       </c>
       <c r="H693" s="1" t="s">
@@ -34449,7 +34488,7 @@
       <c r="F694" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G694" s="21" t="s">
+      <c r="G694" s="20" t="s">
         <v>2600</v>
       </c>
       <c r="H694" s="1" t="s">
@@ -34482,7 +34521,7 @@
       <c r="F695" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G695" s="21" t="s">
+      <c r="G695" s="20" t="s">
         <v>2602</v>
       </c>
       <c r="H695" s="1" t="s">
@@ -34515,7 +34554,7 @@
       <c r="F696" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G696" s="21" t="s">
+      <c r="G696" s="20" t="s">
         <v>2605</v>
       </c>
       <c r="H696" s="1" t="s">
@@ -34548,7 +34587,7 @@
       <c r="F697" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G697" s="21" t="s">
+      <c r="G697" s="20" t="s">
         <v>2608</v>
       </c>
       <c r="H697" s="1" t="s">
@@ -34581,7 +34620,7 @@
       <c r="F698" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G698" s="24" t="s">
+      <c r="G698" s="23" t="s">
         <v>2610</v>
       </c>
       <c r="H698" s="1" t="s">
@@ -34614,7 +34653,7 @@
       <c r="F699" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G699" s="24" t="s">
+      <c r="G699" s="23" t="s">
         <v>2612</v>
       </c>
       <c r="H699" s="1" t="s">
@@ -34647,7 +34686,7 @@
       <c r="F700" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G700" s="21" t="s">
+      <c r="G700" s="20" t="s">
         <v>2615</v>
       </c>
       <c r="H700" s="1" t="s">
@@ -34680,7 +34719,7 @@
       <c r="F701" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G701" s="21" t="s">
+      <c r="G701" s="20" t="s">
         <v>2618</v>
       </c>
       <c r="H701" s="1" t="s">
@@ -34713,7 +34752,7 @@
       <c r="F702" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G702" s="21" t="s">
+      <c r="G702" s="20" t="s">
         <v>2621</v>
       </c>
       <c r="H702" s="1" t="s">
@@ -34746,7 +34785,7 @@
       <c r="F703" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G703" s="21" t="s">
+      <c r="G703" s="20" t="s">
         <v>2625</v>
       </c>
       <c r="H703" s="1" t="s">
@@ -34779,7 +34818,7 @@
       <c r="F704" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G704" s="21" t="s">
+      <c r="G704" s="20" t="s">
         <v>2629</v>
       </c>
       <c r="H704" s="1" t="s">
@@ -34812,7 +34851,7 @@
       <c r="F705" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G705" s="21" t="s">
+      <c r="G705" s="20" t="s">
         <v>2633</v>
       </c>
       <c r="H705" s="1" t="s">
@@ -34845,7 +34884,7 @@
       <c r="F706" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G706" s="21" t="s">
+      <c r="G706" s="20" t="s">
         <v>2636</v>
       </c>
       <c r="H706" s="1" t="s">
@@ -34878,7 +34917,7 @@
       <c r="F707" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G707" s="21" t="s">
+      <c r="G707" s="20" t="s">
         <v>2640</v>
       </c>
       <c r="H707" s="1" t="s">
@@ -34911,7 +34950,7 @@
       <c r="F708" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G708" s="21" t="s">
+      <c r="G708" s="20" t="s">
         <v>2643</v>
       </c>
       <c r="H708" s="1" t="s">
@@ -34944,7 +34983,7 @@
       <c r="F709" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G709" s="24" t="s">
+      <c r="G709" s="23" t="s">
         <v>2645</v>
       </c>
       <c r="H709" s="1" t="s">
@@ -34977,7 +35016,7 @@
       <c r="F710" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G710" s="21" t="s">
+      <c r="G710" s="20" t="s">
         <v>2649</v>
       </c>
       <c r="H710" s="1" t="s">
@@ -35010,7 +35049,7 @@
       <c r="F711" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G711" s="21" t="s">
+      <c r="G711" s="20" t="s">
         <v>2653</v>
       </c>
       <c r="H711" s="1" t="s">
@@ -35043,7 +35082,7 @@
       <c r="F712" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G712" s="21" t="s">
+      <c r="G712" s="20" t="s">
         <v>2657</v>
       </c>
       <c r="H712" s="1" t="s">
@@ -35076,7 +35115,7 @@
       <c r="F713" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G713" s="21" t="s">
+      <c r="G713" s="20" t="s">
         <v>2661</v>
       </c>
       <c r="H713" s="1" t="s">
@@ -35109,7 +35148,7 @@
       <c r="F714" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G714" s="21" t="s">
+      <c r="G714" s="20" t="s">
         <v>2665</v>
       </c>
       <c r="H714" s="1" t="s">
@@ -35142,7 +35181,7 @@
       <c r="F715" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G715" s="21" t="s">
+      <c r="G715" s="20" t="s">
         <v>2668</v>
       </c>
       <c r="H715" s="1" t="s">
@@ -35175,7 +35214,7 @@
       <c r="F716" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G716" s="21" t="s">
+      <c r="G716" s="20" t="s">
         <v>2672</v>
       </c>
       <c r="H716" s="1" t="s">
@@ -35208,7 +35247,7 @@
       <c r="F717" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G717" s="21" t="s">
+      <c r="G717" s="20" t="s">
         <v>2675</v>
       </c>
       <c r="H717" s="1" t="s">
@@ -35241,7 +35280,7 @@
       <c r="F718" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G718" s="25" t="s">
+      <c r="G718" s="24" t="s">
         <v>2679</v>
       </c>
       <c r="H718" s="1" t="s">
@@ -35274,7 +35313,7 @@
       <c r="F719" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G719" s="21" t="s">
+      <c r="G719" s="20" t="s">
         <v>2683</v>
       </c>
       <c r="H719" s="1" t="s">
@@ -35307,7 +35346,7 @@
       <c r="F720" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G720" s="21" t="s">
+      <c r="G720" s="20" t="s">
         <v>2686</v>
       </c>
       <c r="H720" s="1" t="s">
@@ -35340,7 +35379,7 @@
       <c r="F721" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G721" s="25" t="s">
+      <c r="G721" s="24" t="s">
         <v>2689</v>
       </c>
       <c r="H721" s="1" t="s">
@@ -35373,7 +35412,7 @@
       <c r="F722" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G722" s="21" t="s">
+      <c r="G722" s="20" t="s">
         <v>2692</v>
       </c>
       <c r="H722" s="1" t="s">
@@ -35406,7 +35445,7 @@
       <c r="F723" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G723" s="21" t="s">
+      <c r="G723" s="20" t="s">
         <v>2694</v>
       </c>
       <c r="H723" s="1" t="s">
@@ -35439,7 +35478,7 @@
       <c r="F724" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G724" s="21" t="s">
+      <c r="G724" s="20" t="s">
         <v>2698</v>
       </c>
       <c r="H724" s="1" t="s">
@@ -35472,7 +35511,7 @@
       <c r="F725" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G725" s="21" t="s">
+      <c r="G725" s="20" t="s">
         <v>2702</v>
       </c>
       <c r="H725" s="1" t="s">
@@ -35505,7 +35544,7 @@
       <c r="F726" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G726" s="21" t="s">
+      <c r="G726" s="20" t="s">
         <v>2704</v>
       </c>
       <c r="H726" s="1" t="s">
@@ -35538,7 +35577,7 @@
       <c r="F727" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G727" s="21" t="s">
+      <c r="G727" s="20" t="s">
         <v>2706</v>
       </c>
       <c r="H727" s="1" t="s">
@@ -35571,7 +35610,7 @@
       <c r="F728" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G728" s="21" t="s">
+      <c r="G728" s="20" t="s">
         <v>2708</v>
       </c>
       <c r="H728" s="1" t="s">
@@ -35604,7 +35643,7 @@
       <c r="F729" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G729" s="21" t="s">
+      <c r="G729" s="20" t="s">
         <v>2710</v>
       </c>
       <c r="H729" s="1" t="s">
@@ -35637,7 +35676,7 @@
       <c r="F730" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G730" s="21" t="s">
+      <c r="G730" s="20" t="s">
         <v>2712</v>
       </c>
       <c r="H730" s="1" t="s">
@@ -35670,7 +35709,7 @@
       <c r="F731" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G731" s="21" t="s">
+      <c r="G731" s="20" t="s">
         <v>2716</v>
       </c>
       <c r="H731" s="1" t="s">
@@ -35703,7 +35742,7 @@
       <c r="F732" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G732" s="21" t="s">
+      <c r="G732" s="20" t="s">
         <v>2719</v>
       </c>
       <c r="H732" s="1" t="s">
@@ -35736,7 +35775,7 @@
       <c r="F733" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G733" s="21" t="s">
+      <c r="G733" s="20" t="s">
         <v>2722</v>
       </c>
       <c r="H733" s="1" t="s">
@@ -35769,7 +35808,7 @@
       <c r="F734" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G734" s="21" t="s">
+      <c r="G734" s="20" t="s">
         <v>2725</v>
       </c>
       <c r="H734" s="1" t="s">
@@ -35802,7 +35841,7 @@
       <c r="F735" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G735" s="21" t="s">
+      <c r="G735" s="20" t="s">
         <v>2729</v>
       </c>
       <c r="H735" s="1" t="s">
@@ -35835,7 +35874,7 @@
       <c r="F736" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G736" s="21" t="s">
+      <c r="G736" s="20" t="s">
         <v>2733</v>
       </c>
       <c r="H736" s="1" t="s">
@@ -35868,7 +35907,7 @@
       <c r="F737" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G737" s="21" t="s">
+      <c r="G737" s="20" t="s">
         <v>2737</v>
       </c>
       <c r="H737" s="1" t="s">
@@ -35901,7 +35940,7 @@
       <c r="F738" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G738" s="21" t="s">
+      <c r="G738" s="20" t="s">
         <v>2741</v>
       </c>
       <c r="H738" s="1" t="s">
@@ -35934,7 +35973,7 @@
       <c r="F739" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G739" s="25" t="s">
+      <c r="G739" s="24" t="s">
         <v>2745</v>
       </c>
       <c r="H739" s="1" t="s">
@@ -35967,7 +36006,7 @@
       <c r="F740" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G740" s="21" t="s">
+      <c r="G740" s="20" t="s">
         <v>2749</v>
       </c>
       <c r="H740" s="1" t="s">
@@ -36000,7 +36039,7 @@
       <c r="F741" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G741" s="21" t="s">
+      <c r="G741" s="20" t="s">
         <v>2753</v>
       </c>
       <c r="H741" s="1" t="s">
@@ -36033,7 +36072,7 @@
       <c r="F742" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G742" s="21" t="s">
+      <c r="G742" s="20" t="s">
         <v>2756</v>
       </c>
       <c r="H742" s="1" t="s">
@@ -36066,7 +36105,7 @@
       <c r="F743" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G743" s="21" t="s">
+      <c r="G743" s="20" t="s">
         <v>2760</v>
       </c>
       <c r="H743" s="1" t="s">
@@ -36099,7 +36138,7 @@
       <c r="F744" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G744" s="21" t="s">
+      <c r="G744" s="20" t="s">
         <v>2764</v>
       </c>
       <c r="H744" s="1" t="s">
@@ -36132,7 +36171,7 @@
       <c r="F745" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G745" s="21" t="s">
+      <c r="G745" s="20" t="s">
         <v>2768</v>
       </c>
       <c r="H745" s="1" t="s">
@@ -36165,7 +36204,7 @@
       <c r="F746" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G746" s="21" t="s">
+      <c r="G746" s="20" t="s">
         <v>2771</v>
       </c>
       <c r="H746" s="1" t="s">
@@ -36198,7 +36237,7 @@
       <c r="F747" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G747" s="21" t="s">
+      <c r="G747" s="20" t="s">
         <v>2775</v>
       </c>
       <c r="H747" s="1" t="s">
@@ -36231,7 +36270,7 @@
       <c r="F748" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G748" s="21" t="s">
+      <c r="G748" s="20" t="s">
         <v>2778</v>
       </c>
       <c r="H748" s="1" t="s">
@@ -36264,7 +36303,7 @@
       <c r="F749" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G749" s="21" t="s">
+      <c r="G749" s="20" t="s">
         <v>2782</v>
       </c>
       <c r="H749" s="1" t="s">
@@ -36297,7 +36336,7 @@
       <c r="F750" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G750" s="21" t="s">
+      <c r="G750" s="20" t="s">
         <v>2786</v>
       </c>
       <c r="H750" s="1" t="s">
@@ -36330,7 +36369,7 @@
       <c r="F751" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G751" s="21" t="s">
+      <c r="G751" s="20" t="s">
         <v>2789</v>
       </c>
       <c r="H751" s="1" t="s">
@@ -36363,7 +36402,7 @@
       <c r="F752" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G752" s="21" t="s">
+      <c r="G752" s="20" t="s">
         <v>2792</v>
       </c>
       <c r="H752" s="1" t="s">
@@ -36396,7 +36435,7 @@
       <c r="F753" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G753" s="21" t="s">
+      <c r="G753" s="20" t="s">
         <v>2803</v>
       </c>
       <c r="H753" s="1" t="s">
@@ -36429,7 +36468,7 @@
       <c r="F754" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G754" s="21" t="s">
+      <c r="G754" s="20" t="s">
         <v>2800</v>
       </c>
       <c r="H754" s="1" t="s">
@@ -36462,7 +36501,7 @@
       <c r="F755" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G755" s="21" t="s">
+      <c r="G755" s="20" t="s">
         <v>2796</v>
       </c>
       <c r="H755" s="1" t="s">
@@ -36495,7 +36534,7 @@
       <c r="F756" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G756" s="21" t="s">
+      <c r="G756" s="20" t="s">
         <v>2812</v>
       </c>
       <c r="H756" s="1" t="s">
@@ -36528,7 +36567,7 @@
       <c r="F757" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G757" s="21" t="s">
+      <c r="G757" s="20" t="s">
         <v>2809</v>
       </c>
       <c r="H757" s="1" t="s">
@@ -36561,7 +36600,7 @@
       <c r="F758" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G758" s="21" t="s">
+      <c r="G758" s="20" t="s">
         <v>2806</v>
       </c>
       <c r="H758" s="1" t="s">
@@ -36594,7 +36633,7 @@
       <c r="F759" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G759" s="21" t="s">
+      <c r="G759" s="20" t="s">
         <v>2822</v>
       </c>
       <c r="H759" s="1" t="s">
@@ -36627,7 +36666,7 @@
       <c r="F760" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G760" s="21" t="s">
+      <c r="G760" s="20" t="s">
         <v>2819</v>
       </c>
       <c r="H760" s="1" t="s">
@@ -36660,7 +36699,7 @@
       <c r="F761" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G761" s="21" t="s">
+      <c r="G761" s="20" t="s">
         <v>2816</v>
       </c>
       <c r="H761" s="1" t="s">
@@ -36693,7 +36732,7 @@
       <c r="F762" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G762" s="25" t="s">
+      <c r="G762" s="24" t="s">
         <v>2825</v>
       </c>
       <c r="H762" s="1" t="s">
@@ -36726,7 +36765,7 @@
       <c r="F763" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G763" s="21" t="s">
+      <c r="G763" s="20" t="s">
         <v>2829</v>
       </c>
       <c r="H763" s="1" t="s">
@@ -36759,7 +36798,7 @@
       <c r="F764" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G764" s="21" t="s">
+      <c r="G764" s="20" t="s">
         <v>2832</v>
       </c>
       <c r="H764" s="1" t="s">
@@ -36792,7 +36831,7 @@
       <c r="F765" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G765" s="21" t="s">
+      <c r="G765" s="20" t="s">
         <v>2835</v>
       </c>
       <c r="H765" s="1" t="s">
@@ -36825,7 +36864,7 @@
       <c r="F766" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G766" s="21" t="s">
+      <c r="G766" s="20" t="s">
         <v>2838</v>
       </c>
       <c r="H766" s="1" t="s">
@@ -36858,7 +36897,7 @@
       <c r="F767" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G767" s="25" t="s">
+      <c r="G767" s="24" t="s">
         <v>2842</v>
       </c>
       <c r="H767" s="1" t="s">
@@ -36891,7 +36930,7 @@
       <c r="F768" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G768" s="21" t="s">
+      <c r="G768" s="20" t="s">
         <v>2845</v>
       </c>
       <c r="H768" s="1" t="s">
@@ -36924,7 +36963,7 @@
       <c r="F769" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G769" s="21" t="s">
+      <c r="G769" s="20" t="s">
         <v>2847</v>
       </c>
       <c r="H769" s="1" t="s">
@@ -36957,7 +36996,7 @@
       <c r="F770" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G770" s="21" t="s">
+      <c r="G770" s="20" t="s">
         <v>2850</v>
       </c>
       <c r="H770" s="1" t="s">
@@ -36990,7 +37029,7 @@
       <c r="F771" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G771" s="24" t="s">
+      <c r="G771" s="23" t="s">
         <v>2853</v>
       </c>
       <c r="H771" s="1" t="s">
@@ -37023,7 +37062,7 @@
       <c r="F772" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G772" s="21" t="s">
+      <c r="G772" s="20" t="s">
         <v>2856</v>
       </c>
       <c r="H772" s="1" t="s">
@@ -37056,7 +37095,7 @@
       <c r="F773" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G773" s="21" t="s">
+      <c r="G773" s="20" t="s">
         <v>2860</v>
       </c>
       <c r="H773" s="1" t="s">
@@ -37089,7 +37128,7 @@
       <c r="F774" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G774" s="21" t="s">
+      <c r="G774" s="20" t="s">
         <v>2863</v>
       </c>
       <c r="H774" s="1" t="s">
@@ -37122,7 +37161,7 @@
       <c r="F775" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G775" s="21" t="s">
+      <c r="G775" s="20" t="s">
         <v>2867</v>
       </c>
       <c r="H775" s="1" t="s">
@@ -37155,7 +37194,7 @@
       <c r="F776" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G776" s="21" t="s">
+      <c r="G776" s="20" t="s">
         <v>2869</v>
       </c>
       <c r="H776" s="1" t="s">
@@ -37188,7 +37227,7 @@
       <c r="F777" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G777" s="21" t="s">
+      <c r="G777" s="20" t="s">
         <v>2873</v>
       </c>
       <c r="H777" s="1" t="s">
@@ -37221,7 +37260,7 @@
       <c r="F778" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G778" s="25" t="s">
+      <c r="G778" s="24" t="s">
         <v>2875</v>
       </c>
       <c r="H778" s="1" t="s">
@@ -37254,7 +37293,7 @@
       <c r="F779" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G779" s="21" t="s">
+      <c r="G779" s="20" t="s">
         <v>2877</v>
       </c>
       <c r="H779" s="1" t="s">
@@ -37287,7 +37326,7 @@
       <c r="F780" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G780" s="21" t="s">
+      <c r="G780" s="20" t="s">
         <v>2880</v>
       </c>
       <c r="H780" s="1" t="s">
@@ -37320,7 +37359,7 @@
       <c r="F781" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G781" s="21" t="s">
+      <c r="G781" s="20" t="s">
         <v>2884</v>
       </c>
       <c r="H781" s="1" t="s">
@@ -37353,7 +37392,7 @@
       <c r="F782" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G782" s="21" t="s">
+      <c r="G782" s="20" t="s">
         <v>2888</v>
       </c>
       <c r="H782" s="1" t="s">
@@ -37386,7 +37425,7 @@
       <c r="F783" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G783" s="21" t="s">
+      <c r="G783" s="20" t="s">
         <v>2891</v>
       </c>
       <c r="H783" s="1" t="s">
@@ -37419,7 +37458,7 @@
       <c r="F784" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G784" s="21" t="s">
+      <c r="G784" s="20" t="s">
         <v>2893</v>
       </c>
       <c r="H784" s="1" t="s">
@@ -37452,7 +37491,7 @@
       <c r="F785" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G785" s="21" t="s">
+      <c r="G785" s="20" t="s">
         <v>2896</v>
       </c>
       <c r="H785" s="1" t="s">
@@ -37485,7 +37524,7 @@
       <c r="F786" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G786" s="21" t="s">
+      <c r="G786" s="20" t="s">
         <v>2900</v>
       </c>
       <c r="H786" s="1" t="s">
@@ -37518,7 +37557,7 @@
       <c r="F787" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G787" s="21" t="s">
+      <c r="G787" s="20" t="s">
         <v>2903</v>
       </c>
       <c r="H787" s="1" t="s">
@@ -37551,7 +37590,7 @@
       <c r="F788" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G788" s="21" t="s">
+      <c r="G788" s="20" t="s">
         <v>2906</v>
       </c>
       <c r="H788" s="1" t="s">
@@ -37584,7 +37623,7 @@
       <c r="F789" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G789" s="21" t="s">
+      <c r="G789" s="20" t="s">
         <v>2909</v>
       </c>
       <c r="H789" s="1" t="s">
@@ -37617,7 +37656,7 @@
       <c r="F790" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G790" s="21" t="s">
+      <c r="G790" s="20" t="s">
         <v>2912</v>
       </c>
       <c r="H790" s="1" t="s">
@@ -37650,7 +37689,7 @@
       <c r="F791" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G791" s="21" t="s">
+      <c r="G791" s="20" t="s">
         <v>2915</v>
       </c>
       <c r="H791" s="1" t="s">
@@ -37683,7 +37722,7 @@
       <c r="F792" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G792" s="21" t="s">
+      <c r="G792" s="20" t="s">
         <v>2918</v>
       </c>
       <c r="H792" s="1" t="s">
@@ -37716,7 +37755,7 @@
       <c r="F793" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G793" s="21" t="s">
+      <c r="G793" s="20" t="s">
         <v>2922</v>
       </c>
       <c r="H793" s="1" t="s">
@@ -37749,7 +37788,7 @@
       <c r="F794" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G794" s="21" t="s">
+      <c r="G794" s="20" t="s">
         <v>2926</v>
       </c>
       <c r="H794" s="1" t="s">
@@ -37782,7 +37821,7 @@
       <c r="F795" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G795" s="24" t="s">
+      <c r="G795" s="23" t="s">
         <v>2928</v>
       </c>
       <c r="H795" s="1" t="s">
@@ -37815,7 +37854,7 @@
       <c r="F796" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G796" s="21" t="s">
+      <c r="G796" s="20" t="s">
         <v>2931</v>
       </c>
       <c r="H796" s="1" t="s">
@@ -37848,7 +37887,7 @@
       <c r="F797" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G797" s="21" t="s">
+      <c r="G797" s="20" t="s">
         <v>2934</v>
       </c>
       <c r="H797" s="1" t="s">
@@ -37881,7 +37920,7 @@
       <c r="F798" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G798" s="21" t="s">
+      <c r="G798" s="20" t="s">
         <v>2937</v>
       </c>
       <c r="H798" s="1" t="s">
@@ -37914,7 +37953,7 @@
       <c r="F799" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G799" s="21" t="s">
+      <c r="G799" s="20" t="s">
         <v>2941</v>
       </c>
       <c r="H799" s="1" t="s">
@@ -37947,7 +37986,7 @@
       <c r="F800" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G800" s="21" t="s">
+      <c r="G800" s="20" t="s">
         <v>2948</v>
       </c>
       <c r="H800" s="1" t="s">
@@ -37980,7 +38019,7 @@
       <c r="F801" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G801" s="21" t="s">
+      <c r="G801" s="20" t="s">
         <v>2952</v>
       </c>
       <c r="H801" s="1" t="s">
@@ -38013,7 +38052,7 @@
       <c r="F802" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G802" s="21" t="s">
+      <c r="G802" s="20" t="s">
         <v>2955</v>
       </c>
       <c r="H802" s="1" t="s">
@@ -38046,7 +38085,7 @@
       <c r="F803" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G803" s="21" t="s">
+      <c r="G803" s="20" t="s">
         <v>2957</v>
       </c>
       <c r="H803" s="1" t="s">
@@ -38079,7 +38118,7 @@
       <c r="F804" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G804" s="21" t="s">
+      <c r="G804" s="20" t="s">
         <v>2959</v>
       </c>
       <c r="H804" s="1" t="s">
@@ -38112,7 +38151,7 @@
       <c r="F805" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G805" s="21" t="s">
+      <c r="G805" s="20" t="s">
         <v>2957</v>
       </c>
       <c r="H805" s="1" t="s">
@@ -38145,7 +38184,7 @@
       <c r="F806" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G806" s="21" t="s">
+      <c r="G806" s="20" t="s">
         <v>2964</v>
       </c>
       <c r="H806" s="1" t="s">
@@ -38178,7 +38217,7 @@
       <c r="F807" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G807" s="21" t="s">
+      <c r="G807" s="20" t="s">
         <v>2967</v>
       </c>
       <c r="H807" s="1" t="s">
@@ -38211,7 +38250,7 @@
       <c r="F808" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G808" s="21" t="s">
+      <c r="G808" s="20" t="s">
         <v>2969</v>
       </c>
       <c r="H808" s="1" t="s">
@@ -38244,7 +38283,7 @@
       <c r="F809" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G809" s="21" t="s">
+      <c r="G809" s="20" t="s">
         <v>2974</v>
       </c>
       <c r="H809" s="1" t="s">
@@ -38277,7 +38316,7 @@
       <c r="F810" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G810" s="21" t="s">
+      <c r="G810" s="20" t="s">
         <v>2979</v>
       </c>
       <c r="H810" s="1" t="s">
@@ -38310,7 +38349,7 @@
       <c r="F811" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G811" s="21" t="s">
+      <c r="G811" s="20" t="s">
         <v>2983</v>
       </c>
       <c r="H811" s="1" t="s">
@@ -38343,7 +38382,7 @@
       <c r="F812" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G812" s="21" t="s">
+      <c r="G812" s="20" t="s">
         <v>2988</v>
       </c>
       <c r="H812" s="1" t="s">
@@ -38376,7 +38415,7 @@
       <c r="F813" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G813" s="21" t="s">
+      <c r="G813" s="20" t="s">
         <v>958</v>
       </c>
       <c r="H813" s="1" t="s">
@@ -38409,7 +38448,7 @@
       <c r="F814" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G814" s="21" t="s">
+      <c r="G814" s="20" t="s">
         <v>2997</v>
       </c>
       <c r="H814" s="1" t="s">
@@ -38442,7 +38481,7 @@
       <c r="F815" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G815" s="21" t="s">
+      <c r="G815" s="20" t="s">
         <v>3000</v>
       </c>
       <c r="H815" s="1" t="s">
@@ -38475,7 +38514,7 @@
       <c r="F816" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G816" s="21" t="s">
+      <c r="G816" s="20" t="s">
         <v>3004</v>
       </c>
       <c r="H816" s="1" t="s">
@@ -38508,7 +38547,7 @@
       <c r="F817" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G817" s="21" t="s">
+      <c r="G817" s="20" t="s">
         <v>3007</v>
       </c>
       <c r="H817" s="1" t="s">
@@ -38541,7 +38580,7 @@
       <c r="F818" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G818" s="21" t="s">
+      <c r="G818" s="20" t="s">
         <v>3010</v>
       </c>
       <c r="H818" s="1" t="s">
@@ -38574,7 +38613,7 @@
       <c r="F819" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G819" s="21" t="s">
+      <c r="G819" s="20" t="s">
         <v>3013</v>
       </c>
       <c r="H819" s="1" t="s">
@@ -38607,7 +38646,7 @@
       <c r="F820" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G820" s="21" t="s">
+      <c r="G820" s="20" t="s">
         <v>3016</v>
       </c>
       <c r="H820" s="1" t="s">
@@ -38640,7 +38679,7 @@
       <c r="F821" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G821" s="21" t="s">
+      <c r="G821" s="20" t="s">
         <v>3018</v>
       </c>
       <c r="H821" s="1" t="s">
@@ -38673,7 +38712,7 @@
       <c r="F822" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G822" s="25" t="s">
+      <c r="G822" s="24" t="s">
         <v>3021</v>
       </c>
       <c r="H822" s="1" t="s">
@@ -38706,7 +38745,7 @@
       <c r="F823" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G823" s="21" t="s">
+      <c r="G823" s="20" t="s">
         <v>3024</v>
       </c>
       <c r="H823" s="1" t="s">
@@ -38739,7 +38778,7 @@
       <c r="F824" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G824" s="21" t="s">
+      <c r="G824" s="20" t="s">
         <v>3027</v>
       </c>
       <c r="H824" s="1" t="s">
@@ -38772,7 +38811,7 @@
       <c r="F825" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G825" s="21" t="s">
+      <c r="G825" s="20" t="s">
         <v>3031</v>
       </c>
       <c r="H825" s="1" t="s">
@@ -38805,7 +38844,7 @@
       <c r="F826" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G826" s="21" t="s">
+      <c r="G826" s="20" t="s">
         <v>3036</v>
       </c>
       <c r="H826" s="1" t="s">
@@ -38838,7 +38877,7 @@
       <c r="F827" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G827" s="21" t="s">
+      <c r="G827" s="20" t="s">
         <v>3039</v>
       </c>
       <c r="H827" s="1" t="s">
@@ -38871,7 +38910,7 @@
       <c r="F828" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G828" s="21" t="s">
+      <c r="G828" s="20" t="s">
         <v>3041</v>
       </c>
       <c r="H828" s="1" t="s">
@@ -38904,7 +38943,7 @@
       <c r="F829" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G829" s="21" t="s">
+      <c r="G829" s="20" t="s">
         <v>3044</v>
       </c>
       <c r="H829" s="1" t="s">
@@ -38937,7 +38976,7 @@
       <c r="F830" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G830" s="21" t="s">
+      <c r="G830" s="20" t="s">
         <v>3046</v>
       </c>
       <c r="H830" s="1" t="s">
@@ -38970,7 +39009,7 @@
       <c r="F831" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G831" s="21" t="s">
+      <c r="G831" s="20" t="s">
         <v>3049</v>
       </c>
       <c r="H831" s="1" t="s">
@@ -39003,7 +39042,7 @@
       <c r="F832" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G832" s="21" t="s">
+      <c r="G832" s="20" t="s">
         <v>3053</v>
       </c>
       <c r="H832" s="1" t="s">
@@ -39036,7 +39075,7 @@
       <c r="F833" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G833" s="21" t="s">
+      <c r="G833" s="20" t="s">
         <v>3056</v>
       </c>
       <c r="H833" s="1" t="s">
@@ -39069,7 +39108,7 @@
       <c r="F834" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G834" s="21" t="s">
+      <c r="G834" s="20" t="s">
         <v>3059</v>
       </c>
       <c r="H834" s="1" t="s">
@@ -39102,7 +39141,7 @@
       <c r="F835" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G835" s="21" t="s">
+      <c r="G835" s="20" t="s">
         <v>3062</v>
       </c>
       <c r="H835" s="1" t="s">
@@ -39135,7 +39174,7 @@
       <c r="F836" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G836" s="21" t="s">
+      <c r="G836" s="20" t="s">
         <v>3066</v>
       </c>
       <c r="H836" s="1" t="s">
@@ -39168,7 +39207,7 @@
       <c r="F837" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G837" s="21" t="s">
+      <c r="G837" s="20" t="s">
         <v>3070</v>
       </c>
       <c r="H837" s="1" t="s">
@@ -39201,7 +39240,7 @@
       <c r="F838" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G838" s="21" t="s">
+      <c r="G838" s="20" t="s">
         <v>3073</v>
       </c>
       <c r="H838" s="1" t="s">
@@ -39234,7 +39273,7 @@
       <c r="F839" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G839" s="21" t="s">
+      <c r="G839" s="20" t="s">
         <v>3076</v>
       </c>
       <c r="H839" s="1" t="s">
@@ -39267,7 +39306,7 @@
       <c r="F840" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G840" s="24" t="s">
+      <c r="G840" s="23" t="s">
         <v>3079</v>
       </c>
       <c r="H840" s="1" t="s">
@@ -39300,7 +39339,7 @@
       <c r="F841" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G841" s="20" t="s">
+      <c r="G841" s="19" t="s">
         <v>3082</v>
       </c>
       <c r="H841" s="1" t="s">
@@ -39333,7 +39372,7 @@
       <c r="F842" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G842" s="21" t="s">
+      <c r="G842" s="20" t="s">
         <v>3086</v>
       </c>
       <c r="H842" s="1" t="s">
@@ -39366,7 +39405,7 @@
       <c r="F843" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G843" s="21" t="s">
+      <c r="G843" s="20" t="s">
         <v>3089</v>
       </c>
       <c r="H843" s="1" t="s">
@@ -39399,7 +39438,7 @@
       <c r="F844" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G844" s="21" t="s">
+      <c r="G844" s="20" t="s">
         <v>3092</v>
       </c>
       <c r="H844" s="1" t="s">
@@ -39432,7 +39471,7 @@
       <c r="F845" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G845" s="21" t="s">
+      <c r="G845" s="20" t="s">
         <v>3095</v>
       </c>
       <c r="H845" s="1" t="s">
@@ -39465,7 +39504,7 @@
       <c r="F846" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G846" s="21" t="s">
+      <c r="G846" s="20" t="s">
         <v>3098</v>
       </c>
       <c r="H846" s="1" t="s">
@@ -39498,7 +39537,7 @@
       <c r="F847" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G847" s="21" t="s">
+      <c r="G847" s="20" t="s">
         <v>3101</v>
       </c>
       <c r="H847" s="1" t="s">
@@ -39531,7 +39570,7 @@
       <c r="F848" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G848" s="21" t="s">
+      <c r="G848" s="20" t="s">
         <v>3104</v>
       </c>
       <c r="H848" s="1" t="s">
@@ -39564,7 +39603,7 @@
       <c r="F849" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G849" s="21" t="s">
+      <c r="G849" s="20" t="s">
         <v>3108</v>
       </c>
       <c r="H849" s="1" t="s">
@@ -39597,7 +39636,7 @@
       <c r="F850" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G850" s="21" t="s">
+      <c r="G850" s="20" t="s">
         <v>3111</v>
       </c>
       <c r="H850" s="1" t="s">
@@ -39630,7 +39669,7 @@
       <c r="F851" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G851" s="21" t="s">
+      <c r="G851" s="20" t="s">
         <v>3114</v>
       </c>
       <c r="H851" s="1" t="s">
@@ -39663,7 +39702,7 @@
       <c r="F852" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G852" s="21" t="s">
+      <c r="G852" s="20" t="s">
         <v>3117</v>
       </c>
       <c r="H852" s="1" t="s">
@@ -39696,7 +39735,7 @@
       <c r="F853" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G853" s="21" t="s">
+      <c r="G853" s="20" t="s">
         <v>3119</v>
       </c>
       <c r="H853" s="1" t="s">
@@ -39729,7 +39768,7 @@
       <c r="F854" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G854" s="21" t="s">
+      <c r="G854" s="20" t="s">
         <v>3122</v>
       </c>
       <c r="H854" s="1" t="s">
@@ -39762,7 +39801,7 @@
       <c r="F855" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G855" s="21" t="s">
+      <c r="G855" s="20" t="s">
         <v>3125</v>
       </c>
       <c r="H855" s="1" t="s">
@@ -39795,7 +39834,7 @@
       <c r="F856" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G856" s="21" t="s">
+      <c r="G856" s="20" t="s">
         <v>3128</v>
       </c>
       <c r="H856" s="1" t="s">
@@ -39828,7 +39867,7 @@
       <c r="F857" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G857" s="21" t="s">
+      <c r="G857" s="20" t="s">
         <v>3132</v>
       </c>
       <c r="H857" s="1" t="s">
@@ -39861,7 +39900,7 @@
       <c r="F858" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G858" s="21" t="s">
+      <c r="G858" s="20" t="s">
         <v>3134</v>
       </c>
       <c r="H858" s="1" t="s">
@@ -39894,7 +39933,7 @@
       <c r="F859" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G859" s="21" t="s">
+      <c r="G859" s="20" t="s">
         <v>3138</v>
       </c>
       <c r="H859" s="1" t="s">
@@ -39927,7 +39966,7 @@
       <c r="F860" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G860" s="21" t="s">
+      <c r="G860" s="20" t="s">
         <v>3141</v>
       </c>
       <c r="H860" s="1" t="s">
@@ -39960,7 +39999,7 @@
       <c r="F861" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G861" s="21" t="s">
+      <c r="G861" s="20" t="s">
         <v>3146</v>
       </c>
       <c r="H861" s="1" t="s">
@@ -39993,7 +40032,7 @@
       <c r="F862" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G862" s="21" t="s">
+      <c r="G862" s="20" t="s">
         <v>3147</v>
       </c>
       <c r="H862" s="1" t="s">
@@ -40026,7 +40065,7 @@
       <c r="F863" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G863" s="21" t="s">
+      <c r="G863" s="20" t="s">
         <v>3149</v>
       </c>
       <c r="H863" s="1" t="s">
@@ -40059,7 +40098,7 @@
       <c r="F864" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G864" s="21" t="s">
+      <c r="G864" s="20" t="s">
         <v>2144</v>
       </c>
       <c r="H864" s="1" t="s">
@@ -40092,7 +40131,7 @@
       <c r="F865" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G865" s="21" t="s">
+      <c r="G865" s="20" t="s">
         <v>3156</v>
       </c>
       <c r="H865" s="1" t="s">
@@ -40125,7 +40164,7 @@
       <c r="F866" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G866" s="21" t="s">
+      <c r="G866" s="20" t="s">
         <v>3158</v>
       </c>
       <c r="H866" s="1" t="s">
@@ -40158,7 +40197,7 @@
       <c r="F867" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G867" s="21" t="s">
+      <c r="G867" s="20" t="s">
         <v>3161</v>
       </c>
       <c r="H867" s="1" t="s">
@@ -40191,7 +40230,7 @@
       <c r="F868" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G868" s="21" t="s">
+      <c r="G868" s="20" t="s">
         <v>3165</v>
       </c>
       <c r="H868" s="1" t="s">
@@ -40224,7 +40263,7 @@
       <c r="F869" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G869" s="21" t="s">
+      <c r="G869" s="20" t="s">
         <v>3168</v>
       </c>
       <c r="H869" s="1" t="s">
@@ -40257,7 +40296,7 @@
       <c r="F870" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G870" s="21" t="s">
+      <c r="G870" s="20" t="s">
         <v>3171</v>
       </c>
       <c r="H870" s="1" t="s">
@@ -40290,7 +40329,7 @@
       <c r="F871" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G871" s="21" t="s">
+      <c r="G871" s="20" t="s">
         <v>1903</v>
       </c>
       <c r="H871" s="1" t="s">
@@ -40323,7 +40362,7 @@
       <c r="F872" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G872" s="21" t="s">
+      <c r="G872" s="20" t="s">
         <v>3176</v>
       </c>
       <c r="H872" s="1" t="s">
@@ -40356,7 +40395,7 @@
       <c r="F873" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G873" s="21" t="s">
+      <c r="G873" s="20" t="s">
         <v>3179</v>
       </c>
       <c r="H873" s="1" t="s">
@@ -40389,7 +40428,7 @@
       <c r="F874" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G874" s="21" t="s">
+      <c r="G874" s="20" t="s">
         <v>3182</v>
       </c>
       <c r="H874" s="1" t="s">
@@ -40422,7 +40461,7 @@
       <c r="F875" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G875" s="21" t="s">
+      <c r="G875" s="20" t="s">
         <v>3184</v>
       </c>
       <c r="H875" s="1" t="s">
@@ -40455,7 +40494,7 @@
       <c r="F876" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G876" s="21" t="s">
+      <c r="G876" s="20" t="s">
         <v>3187</v>
       </c>
       <c r="H876" s="1" t="s">
@@ -40488,7 +40527,7 @@
       <c r="F877" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G877" s="21" t="s">
+      <c r="G877" s="20" t="s">
         <v>3191</v>
       </c>
       <c r="H877" s="1" t="s">
@@ -40521,7 +40560,7 @@
       <c r="F878" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G878" s="25" t="s">
+      <c r="G878" s="24" t="s">
         <v>3194</v>
       </c>
       <c r="H878" s="1" t="s">
@@ -40554,7 +40593,7 @@
       <c r="F879" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G879" s="26" t="s">
+      <c r="G879" s="25" t="s">
         <v>3198</v>
       </c>
       <c r="H879" s="1" t="s">
@@ -40587,7 +40626,7 @@
       <c r="F880" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G880" s="20" t="s">
+      <c r="G880" s="19" t="s">
         <v>3201</v>
       </c>
       <c r="H880" s="1" t="s">
@@ -40620,7 +40659,7 @@
       <c r="F881" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G881" s="18" t="s">
+      <c r="G881" s="28" t="s">
         <v>3205</v>
       </c>
       <c r="H881" s="1" t="s">
@@ -40653,7 +40692,7 @@
       <c r="F882" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G882" s="28" t="s">
+      <c r="G882" s="23" t="s">
         <v>3207</v>
       </c>
       <c r="H882" s="1" t="s">
@@ -40686,7 +40725,7 @@
       <c r="F883" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G883" s="18" t="s">
+      <c r="G883" s="28" t="s">
         <v>3211</v>
       </c>
       <c r="H883" s="1" t="s">
@@ -40719,7 +40758,7 @@
       <c r="F884" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G884" s="18" t="s">
+      <c r="G884" s="28" t="s">
         <v>3215</v>
       </c>
       <c r="H884" s="1" t="s">
@@ -40752,7 +40791,7 @@
       <c r="F885" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G885" s="18" t="s">
+      <c r="G885" s="28" t="s">
         <v>3217</v>
       </c>
       <c r="H885" s="1" t="s">
@@ -40785,7 +40824,7 @@
       <c r="F886" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G886" s="18" t="s">
+      <c r="G886" s="28" t="s">
         <v>3219</v>
       </c>
       <c r="H886" s="1" t="s">
@@ -40818,7 +40857,7 @@
       <c r="F887" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G887" s="18" t="s">
+      <c r="G887" s="28" t="s">
         <v>3222</v>
       </c>
       <c r="H887" s="1" t="s">
@@ -40851,7 +40890,7 @@
       <c r="F888" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G888" s="18" t="s">
+      <c r="G888" s="28" t="s">
         <v>3226</v>
       </c>
       <c r="H888" s="1" t="s">
@@ -40884,7 +40923,7 @@
       <c r="F889" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G889" s="18" t="s">
+      <c r="G889" s="28" t="s">
         <v>3230</v>
       </c>
       <c r="H889" s="1" t="s">
@@ -40917,7 +40956,7 @@
       <c r="F890" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G890" s="18" t="s">
+      <c r="G890" s="28" t="s">
         <v>3233</v>
       </c>
       <c r="H890" s="1" t="s">
@@ -40950,7 +40989,7 @@
       <c r="F891" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G891" s="18" t="s">
+      <c r="G891" s="28" t="s">
         <v>3236</v>
       </c>
       <c r="H891" s="1" t="s">
@@ -40983,7 +41022,7 @@
       <c r="F892" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G892" s="18" t="s">
+      <c r="G892" s="28" t="s">
         <v>3239</v>
       </c>
       <c r="H892" s="1" t="s">
@@ -41016,7 +41055,7 @@
       <c r="F893" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G893" s="18" t="s">
+      <c r="G893" s="28" t="s">
         <v>3242</v>
       </c>
       <c r="H893" s="1" t="s">
@@ -41049,7 +41088,7 @@
       <c r="F894" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G894" s="18" t="s">
+      <c r="G894" s="28" t="s">
         <v>3246</v>
       </c>
       <c r="H894" s="1" t="s">
@@ -41082,7 +41121,7 @@
       <c r="F895" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G895" s="18" t="s">
+      <c r="G895" s="28" t="s">
         <v>3250</v>
       </c>
       <c r="H895" s="1" t="s">
@@ -41115,7 +41154,7 @@
       <c r="F896" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G896" s="18" t="s">
+      <c r="G896" s="28" t="s">
         <v>3254</v>
       </c>
       <c r="H896" s="1" t="s">
@@ -41148,7 +41187,7 @@
       <c r="F897" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G897" s="18" t="s">
+      <c r="G897" s="28" t="s">
         <v>3258</v>
       </c>
       <c r="H897" s="1" t="s">
@@ -41181,7 +41220,7 @@
       <c r="F898" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G898" s="18" t="s">
+      <c r="G898" s="28" t="s">
         <v>3262</v>
       </c>
       <c r="H898" s="1" t="s">
@@ -41214,7 +41253,7 @@
       <c r="F899" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G899" s="18" t="s">
+      <c r="G899" s="28" t="s">
         <v>3269</v>
       </c>
       <c r="H899" s="1" t="s">
@@ -41247,7 +41286,7 @@
       <c r="F900" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G900" s="18" t="s">
+      <c r="G900" s="28" t="s">
         <v>3270</v>
       </c>
       <c r="H900" s="1" t="s">
@@ -41280,7 +41319,7 @@
       <c r="F901" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G901" s="18" t="s">
+      <c r="G901" s="28" t="s">
         <v>3273</v>
       </c>
       <c r="H901" s="1" t="s">
@@ -41313,7 +41352,7 @@
       <c r="F902" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G902" s="18" t="s">
+      <c r="G902" s="28" t="s">
         <v>3277</v>
       </c>
       <c r="H902" s="1" t="s">
@@ -41346,7 +41385,7 @@
       <c r="F903" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G903" s="18" t="s">
+      <c r="G903" s="28" t="s">
         <v>3280</v>
       </c>
       <c r="H903" s="1" t="s">
@@ -41379,7 +41418,7 @@
       <c r="F904" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G904" s="18" t="s">
+      <c r="G904" s="28" t="s">
         <v>3284</v>
       </c>
       <c r="H904" s="1" t="s">
@@ -41412,7 +41451,7 @@
       <c r="F905" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G905" s="18" t="s">
+      <c r="G905" s="28" t="s">
         <v>3287</v>
       </c>
       <c r="H905" s="1" t="s">
@@ -41445,7 +41484,7 @@
       <c r="F906" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G906" s="18" t="s">
+      <c r="G906" s="28" t="s">
         <v>3290</v>
       </c>
       <c r="H906" s="1" t="s">
@@ -41478,7 +41517,7 @@
       <c r="F907" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G907" s="18" t="s">
+      <c r="G907" s="28" t="s">
         <v>3293</v>
       </c>
       <c r="H907" s="1" t="s">
@@ -41511,7 +41550,7 @@
       <c r="F908" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G908" s="18" t="s">
+      <c r="G908" s="28" t="s">
         <v>3296</v>
       </c>
       <c r="H908" s="1" t="s">
@@ -41544,7 +41583,7 @@
       <c r="F909" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G909" s="18" t="s">
+      <c r="G909" s="28" t="s">
         <v>3299</v>
       </c>
       <c r="H909" s="1" t="s">
@@ -41577,7 +41616,7 @@
       <c r="F910" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G910" s="18" t="s">
+      <c r="G910" s="28" t="s">
         <v>3303</v>
       </c>
       <c r="H910" s="1" t="s">
@@ -41610,7 +41649,7 @@
       <c r="F911" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G911" s="18" t="s">
+      <c r="G911" s="28" t="s">
         <v>3305</v>
       </c>
       <c r="H911" s="1" t="s">
@@ -41643,7 +41682,7 @@
       <c r="F912" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G912" s="18" t="s">
+      <c r="G912" s="28" t="s">
         <v>3311</v>
       </c>
       <c r="H912" s="1" t="s">
@@ -41676,7 +41715,7 @@
       <c r="F913" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G913" s="18" t="s">
+      <c r="G913" s="28" t="s">
         <v>3308</v>
       </c>
       <c r="H913" s="1" t="s">
@@ -41709,7 +41748,7 @@
       <c r="F914" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G914" s="18" t="s">
+      <c r="G914" s="28" t="s">
         <v>3314</v>
       </c>
       <c r="H914" s="1" t="s">
@@ -41742,7 +41781,7 @@
       <c r="F915" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G915" s="18" t="s">
+      <c r="G915" s="28" t="s">
         <v>3318</v>
       </c>
       <c r="H915" s="1" t="s">
@@ -41775,7 +41814,7 @@
       <c r="F916" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G916" s="18" t="s">
+      <c r="G916" s="28" t="s">
         <v>3323</v>
       </c>
       <c r="H916" s="1" t="s">
@@ -41808,7 +41847,7 @@
       <c r="F917" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G917" s="18" t="s">
+      <c r="G917" s="28" t="s">
         <v>3321</v>
       </c>
       <c r="H917" s="1" t="s">
@@ -41841,7 +41880,7 @@
       <c r="F918" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G918" s="18" t="s">
+      <c r="G918" s="28" t="s">
         <v>3325</v>
       </c>
       <c r="H918" s="1" t="s">
@@ -41874,7 +41913,7 @@
       <c r="F919" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G919" s="18" t="s">
+      <c r="G919" s="28" t="s">
         <v>3329</v>
       </c>
       <c r="H919" s="1" t="s">
@@ -41907,7 +41946,7 @@
       <c r="F920" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G920" s="28" t="s">
+      <c r="G920" s="23" t="s">
         <v>3331</v>
       </c>
       <c r="H920" s="1" t="s">
@@ -41940,7 +41979,7 @@
       <c r="F921" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G921" s="28" t="s">
+      <c r="G921" s="23" t="s">
         <v>3334</v>
       </c>
       <c r="H921" s="1" t="s">
@@ -41973,7 +42012,7 @@
       <c r="F922" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G922" s="19" t="s">
+      <c r="G922" s="20" t="s">
         <v>3337</v>
       </c>
       <c r="H922" s="1" t="s">
@@ -42006,7 +42045,7 @@
       <c r="F923" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G923" s="28" t="s">
+      <c r="G923" s="23" t="s">
         <v>3340</v>
       </c>
       <c r="H923" s="1" t="s">
@@ -42039,7 +42078,7 @@
       <c r="F924" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G924" s="18" t="s">
+      <c r="G924" s="28" t="s">
         <v>3344</v>
       </c>
       <c r="H924" s="1" t="s">
@@ -42072,7 +42111,7 @@
       <c r="F925" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G925" s="18" t="s">
+      <c r="G925" s="28" t="s">
         <v>3347</v>
       </c>
       <c r="H925" s="1" t="s">
@@ -42105,7 +42144,7 @@
       <c r="F926" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G926" s="18" t="s">
+      <c r="G926" s="28" t="s">
         <v>3350</v>
       </c>
       <c r="H926" s="1" t="s">
@@ -42138,7 +42177,7 @@
       <c r="F927" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G927" s="18" t="s">
+      <c r="G927" s="28" t="s">
         <v>3353</v>
       </c>
       <c r="H927" s="1" t="s">
@@ -42171,7 +42210,7 @@
       <c r="F928" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G928" s="28" t="s">
+      <c r="G928" s="23" t="s">
         <v>3356</v>
       </c>
       <c r="H928" s="1" t="s">
@@ -42204,7 +42243,7 @@
       <c r="F929" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G929" s="29" t="s">
+      <c r="G929" s="23" t="s">
         <v>3360</v>
       </c>
       <c r="H929" s="1" t="s">
@@ -42237,7 +42276,7 @@
       <c r="F930" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G930" s="28" t="s">
+      <c r="G930" s="23" t="s">
         <v>3364</v>
       </c>
       <c r="H930" s="1" t="s">
@@ -42270,7 +42309,7 @@
       <c r="F931" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G931" s="28" t="s">
+      <c r="G931" s="23" t="s">
         <v>3367</v>
       </c>
       <c r="H931" s="1" t="s">
@@ -42303,7 +42342,7 @@
       <c r="F932" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G932" s="18" t="s">
+      <c r="G932" s="28" t="s">
         <v>3371</v>
       </c>
       <c r="H932" s="1" t="s">
@@ -42336,7 +42375,7 @@
       <c r="F933" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G933" s="28" t="s">
+      <c r="G933" s="23" t="s">
         <v>3375</v>
       </c>
       <c r="H933" s="1" t="s">
@@ -42369,7 +42408,7 @@
       <c r="F934" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G934" s="19" t="s">
+      <c r="G934" s="20" t="s">
         <v>3380</v>
       </c>
       <c r="H934" s="1" t="s">
@@ -42402,7 +42441,7 @@
       <c r="F935" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G935" s="30" t="s">
+      <c r="G935" s="25" t="s">
         <v>3382</v>
       </c>
       <c r="H935" s="1" t="s">
@@ -42435,7 +42474,7 @@
       <c r="F936" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G936" s="28" t="s">
+      <c r="G936" s="23" t="s">
         <v>3386</v>
       </c>
       <c r="H936" s="1" t="s">
@@ -42468,7 +42507,7 @@
       <c r="F937" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G937" s="28" t="s">
+      <c r="G937" s="23" t="s">
         <v>3389</v>
       </c>
       <c r="H937" s="1" t="s">
@@ -42501,7 +42540,7 @@
       <c r="F938" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G938" s="28" t="s">
+      <c r="G938" s="23" t="s">
         <v>3392</v>
       </c>
       <c r="H938" s="1" t="s">
@@ -42534,7 +42573,7 @@
       <c r="F939" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G939" s="30" t="s">
+      <c r="G939" s="25" t="s">
         <v>3394</v>
       </c>
       <c r="H939" s="1" t="s">
@@ -42567,7 +42606,7 @@
       <c r="F940" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G940" s="19" t="s">
+      <c r="G940" s="20" t="s">
         <v>3398</v>
       </c>
       <c r="H940" s="1" t="s">
@@ -42600,7 +42639,7 @@
       <c r="F941" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G941" s="28" t="s">
+      <c r="G941" s="23" t="s">
         <v>3401</v>
       </c>
       <c r="H941" s="1" t="s">
@@ -42633,7 +42672,7 @@
       <c r="F942" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G942" s="30" t="s">
+      <c r="G942" s="25" t="s">
         <v>3404</v>
       </c>
       <c r="H942" s="1" t="s">
@@ -42666,7 +42705,7 @@
       <c r="F943" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G943" s="31" t="s">
+      <c r="G943" s="24" t="s">
         <v>3407</v>
       </c>
       <c r="H943" s="1" t="s">
@@ -42699,7 +42738,7 @@
       <c r="F944" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G944" s="28" t="s">
+      <c r="G944" s="23" t="s">
         <v>3411</v>
       </c>
       <c r="H944" s="1" t="s">
@@ -42732,7 +42771,7 @@
       <c r="F945" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G945" s="31" t="s">
+      <c r="G945" s="24" t="s">
         <v>3414</v>
       </c>
       <c r="H945" s="1" t="s">
@@ -42765,7 +42804,7 @@
       <c r="F946" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G946" s="19" t="s">
+      <c r="G946" s="20" t="s">
         <v>3418</v>
       </c>
       <c r="H946" s="1" t="s">
@@ -42798,7 +42837,7 @@
       <c r="F947" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G947" s="19" t="s">
+      <c r="G947" s="20" t="s">
         <v>3421</v>
       </c>
       <c r="H947" s="1" t="s">
@@ -42831,7 +42870,7 @@
       <c r="F948" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G948" s="19" t="s">
+      <c r="G948" s="20" t="s">
         <v>3425</v>
       </c>
       <c r="H948" s="1" t="s">
@@ -42864,7 +42903,7 @@
       <c r="F949" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G949" s="30" t="s">
+      <c r="G949" s="25" t="s">
         <v>2512</v>
       </c>
       <c r="H949" s="1" t="s">
@@ -42897,7 +42936,7 @@
       <c r="F950" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G950" s="19" t="s">
+      <c r="G950" s="20" t="s">
         <v>3428</v>
       </c>
       <c r="H950" s="1" t="s">
@@ -42930,7 +42969,7 @@
       <c r="F951" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G951" s="19" t="s">
+      <c r="G951" s="20" t="s">
         <v>3432</v>
       </c>
       <c r="H951" s="1" t="s">
@@ -42963,7 +43002,7 @@
       <c r="F952" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G952" s="28" t="s">
+      <c r="G952" s="23" t="s">
         <v>3436</v>
       </c>
       <c r="H952" s="1" t="s">
@@ -42996,7 +43035,7 @@
       <c r="F953" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G953" s="18" t="s">
+      <c r="G953" s="28" t="s">
         <v>3440</v>
       </c>
       <c r="H953" s="1" t="s">
@@ -43029,7 +43068,7 @@
       <c r="F954" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G954" s="18" t="s">
+      <c r="G954" s="28" t="s">
         <v>3443</v>
       </c>
       <c r="H954" s="1" t="s">
@@ -43062,7 +43101,7 @@
       <c r="F955" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G955" s="18" t="s">
+      <c r="G955" s="28" t="s">
         <v>3447</v>
       </c>
       <c r="H955" s="1" t="s">
@@ -43095,7 +43134,7 @@
       <c r="F956" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G956" s="32"/>
+      <c r="G956" s="19"/>
       <c r="H956" s="1" t="s">
         <v>3450</v>
       </c>
@@ -43126,7 +43165,7 @@
       <c r="F957" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G957" s="32"/>
+      <c r="G957" s="19"/>
       <c r="H957" s="1" t="s">
         <v>14</v>
       </c>
@@ -43157,7 +43196,7 @@
       <c r="F958" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G958" s="32"/>
+      <c r="G958" s="19"/>
       <c r="H958" s="1" t="s">
         <v>26</v>
       </c>
@@ -43188,7 +43227,7 @@
       <c r="F959" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G959" s="32"/>
+      <c r="G959" s="19"/>
       <c r="H959" s="1" t="s">
         <v>26</v>
       </c>
@@ -43219,7 +43258,7 @@
       <c r="F960" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G960" s="32"/>
+      <c r="G960" s="19"/>
       <c r="H960" s="1" t="s">
         <v>26</v>
       </c>
@@ -43250,7 +43289,7 @@
       <c r="F961" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G961" s="32"/>
+      <c r="G961" s="19"/>
       <c r="H961" s="1" t="s">
         <v>14</v>
       </c>
@@ -43281,7 +43320,7 @@
       <c r="F962" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G962" s="30"/>
+      <c r="G962" s="25"/>
       <c r="H962" s="1" t="s">
         <v>14</v>
       </c>
@@ -43291,6 +43330,7 @@
       <c r="J962" s="1" t="s">
         <v>3461</v>
       </c>
+      <c r="N962" s="13"/>
     </row>
     <row r="963" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1" t="s">
@@ -43311,7 +43351,7 @@
       <c r="F963" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G963" s="32"/>
+      <c r="G963" s="19"/>
       <c r="H963" s="1" t="s">
         <v>40</v>
       </c>
@@ -43321,6 +43361,7 @@
       <c r="J963" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N963" s="13"/>
     </row>
     <row r="964" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1" t="s">
@@ -43341,7 +43382,7 @@
       <c r="F964" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G964" s="32"/>
+      <c r="G964" s="19"/>
       <c r="H964" s="1" t="s">
         <v>26</v>
       </c>
@@ -43351,6 +43392,7 @@
       <c r="J964" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N964" s="13"/>
     </row>
     <row r="965" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1" t="s">
@@ -43371,7 +43413,7 @@
       <c r="F965" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G965" s="32"/>
+      <c r="G965" s="19"/>
       <c r="H965" s="1" t="s">
         <v>3468</v>
       </c>
@@ -43381,6 +43423,7 @@
       <c r="J965" s="1" t="s">
         <v>3469</v>
       </c>
+      <c r="N965" s="13"/>
     </row>
     <row r="966" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1" t="s">
@@ -43401,7 +43444,7 @@
       <c r="F966" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G966" s="32"/>
+      <c r="G966" s="19"/>
       <c r="H966" s="1" t="s">
         <v>26</v>
       </c>
@@ -43411,6 +43454,7 @@
       <c r="J966" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N966" s="13"/>
     </row>
     <row r="967" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1" t="s">
@@ -43431,7 +43475,7 @@
       <c r="F967" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G967" s="32"/>
+      <c r="G967" s="19"/>
       <c r="H967" s="1" t="s">
         <v>3473</v>
       </c>
@@ -43441,6 +43485,7 @@
       <c r="J967" s="1" t="s">
         <v>3472</v>
       </c>
+      <c r="N967" s="13"/>
     </row>
     <row r="968" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1" t="s">
@@ -43461,7 +43506,7 @@
       <c r="F968" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G968" s="32"/>
+      <c r="G968" s="19"/>
       <c r="H968" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43471,6 +43516,7 @@
       <c r="J968" s="1" t="s">
         <v>3478</v>
       </c>
+      <c r="N968" s="13"/>
     </row>
     <row r="969" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1" t="s">
@@ -43491,7 +43537,7 @@
       <c r="F969" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G969" s="32"/>
+      <c r="G969" s="19"/>
       <c r="H969" s="1" t="s">
         <v>26</v>
       </c>
@@ -43501,6 +43547,7 @@
       <c r="J969" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N969" s="13"/>
     </row>
     <row r="970" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1" t="s">
@@ -43521,7 +43568,7 @@
       <c r="F970" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G970" s="32"/>
+      <c r="G970" s="19"/>
       <c r="H970" s="1" t="s">
         <v>66</v>
       </c>
@@ -43531,6 +43578,7 @@
       <c r="J970" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N970" s="13"/>
     </row>
     <row r="971" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1" t="s">
@@ -43551,7 +43599,7 @@
       <c r="F971" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G971" s="32"/>
+      <c r="G971" s="19"/>
       <c r="H971" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43561,6 +43609,7 @@
       <c r="J971" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N971" s="13"/>
     </row>
     <row r="972" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1" t="s">
@@ -43581,7 +43630,7 @@
       <c r="F972" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G972" s="32"/>
+      <c r="G972" s="19"/>
       <c r="H972" s="1" t="s">
         <v>66</v>
       </c>
@@ -43591,6 +43640,7 @@
       <c r="J972" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N972" s="13"/>
     </row>
     <row r="973" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1" t="s">
@@ -43611,7 +43661,7 @@
       <c r="F973" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G973" s="32"/>
+      <c r="G973" s="19"/>
       <c r="H973" s="1" t="s">
         <v>66</v>
       </c>
@@ -43621,6 +43671,7 @@
       <c r="J973" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N973" s="13"/>
     </row>
     <row r="974" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1" t="s">
@@ -43641,7 +43692,7 @@
       <c r="F974" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G974" s="32"/>
+      <c r="G974" s="19"/>
       <c r="H974" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43651,6 +43702,7 @@
       <c r="J974" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N974" s="13"/>
     </row>
     <row r="975" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1" t="s">
@@ -43671,7 +43723,7 @@
       <c r="F975" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G975" s="32"/>
+      <c r="G975" s="19"/>
       <c r="H975" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43681,6 +43733,7 @@
       <c r="J975" s="1" t="s">
         <v>2992</v>
       </c>
+      <c r="N975" s="13"/>
     </row>
     <row r="976" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1" t="s">
@@ -43701,7 +43754,7 @@
       <c r="F976" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G976" s="32"/>
+      <c r="G976" s="19"/>
       <c r="H976" s="1" t="s">
         <v>26</v>
       </c>
@@ -43711,8 +43764,9 @@
       <c r="J976" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="977" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N976" s="13"/>
+    </row>
+    <row r="977" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1" t="s">
         <v>51</v>
       </c>
@@ -43731,7 +43785,7 @@
       <c r="F977" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G977" s="32"/>
+      <c r="G977" s="19"/>
       <c r="H977" s="1" t="s">
         <v>3468</v>
       </c>
@@ -43741,8 +43795,9 @@
       <c r="J977" s="1" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="978" spans="1:10" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N977" s="13"/>
+    </row>
+    <row r="978" spans="1:14" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="5" t="s">
         <v>473</v>
       </c>
@@ -43761,7 +43816,7 @@
       <c r="F978" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G978" s="32"/>
+      <c r="G978" s="19"/>
       <c r="H978" s="5" t="s">
         <v>2991</v>
       </c>
@@ -43771,8 +43826,9 @@
       <c r="J978" s="5" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="979" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N978" s="13"/>
+    </row>
+    <row r="979" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1" t="s">
         <v>465</v>
       </c>
@@ -43791,7 +43847,7 @@
       <c r="F979" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G979" s="32"/>
+      <c r="G979" s="19"/>
       <c r="H979" s="1" t="s">
         <v>2991</v>
       </c>
@@ -43801,8 +43857,9 @@
       <c r="J979" s="1" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="980" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N979" s="13"/>
+    </row>
+    <row r="980" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1" t="s">
         <v>81</v>
       </c>
@@ -43821,15 +43878,16 @@
       <c r="F980" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G980" s="32"/>
+      <c r="G980" s="19"/>
       <c r="H980" s="1" t="s">
         <v>2991</v>
       </c>
       <c r="J980" s="1" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="981" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N980" s="13"/>
+    </row>
+    <row r="981" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="1" t="s">
         <v>1059</v>
       </c>
@@ -43848,7 +43906,7 @@
       <c r="F981" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G981" s="32"/>
+      <c r="G981" s="19"/>
       <c r="H981" s="1" t="s">
         <v>40</v>
       </c>
@@ -43858,6 +43916,203 @@
       <c r="J981" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N981" s="13"/>
+    </row>
+    <row r="982" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F982" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G982" s="19"/>
+      <c r="H982" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I982" s="1">
+        <v>14167811851</v>
+      </c>
+      <c r="J982" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N982" s="13"/>
+    </row>
+    <row r="983" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F983" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G983" s="20" t="s">
+        <v>3515</v>
+      </c>
+      <c r="H983" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I983" s="1">
+        <v>17058812555</v>
+      </c>
+      <c r="J983" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N983" s="13"/>
+    </row>
+    <row r="984" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F984" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G984" s="20" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H984" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I984" s="1">
+        <v>19057755983</v>
+      </c>
+      <c r="J984" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N984" s="13"/>
+    </row>
+    <row r="985" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F985" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G985" s="18" t="s">
+        <v>3524</v>
+      </c>
+      <c r="H985" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="I985" s="1">
+        <v>16135185020</v>
+      </c>
+      <c r="J985" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N985" s="13"/>
+    </row>
+    <row r="986" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E986" s="11" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F986" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G986" s="18" t="s">
+        <v>3528</v>
+      </c>
+      <c r="H986" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I986" s="1">
+        <v>17055861260</v>
+      </c>
+      <c r="J986" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N986" s="13"/>
+    </row>
+    <row r="987" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F987" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G987" s="27" t="s">
+        <v>3531</v>
+      </c>
+      <c r="H987" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I987" s="1">
+        <v>15196050558</v>
+      </c>
+      <c r="J987" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N987" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -43869,9 +44124,10 @@
     <hyperlink ref="E892" r:id="rId6"/>
     <hyperlink ref="E973" r:id="rId7"/>
     <hyperlink ref="E977" r:id="rId8"/>
+    <hyperlink ref="E986" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -10624,7 +10624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10687,21 +10687,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
@@ -10709,13 +10694,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF00B050"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -10778,7 +10756,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -10809,23 +10787,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -11132,14 +11107,14 @@
   <dimension ref="A1:N987"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="N984" sqref="N984:N987"/>
+      <selection activeCell="G962" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="25" customWidth="1"/>
     <col min="8" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11162,7 +11137,7 @@
       <c r="F1" s="15" t="s">
         <v>1089</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>1088</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -11206,7 +11181,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -11242,7 +11217,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -11278,7 +11253,7 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -11314,7 +11289,7 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -11350,7 +11325,7 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -11386,7 +11361,7 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -11422,7 +11397,7 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -11458,7 +11433,7 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -11494,7 +11469,7 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -11530,7 +11505,7 @@
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -11566,7 +11541,7 @@
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -11602,7 +11577,7 @@
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -11638,7 +11613,7 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -11674,7 +11649,7 @@
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -11710,7 +11685,7 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -11746,7 +11721,7 @@
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -11782,7 +11757,7 @@
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -11818,7 +11793,7 @@
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -11854,7 +11829,7 @@
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -11890,7 +11865,7 @@
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -11926,7 +11901,7 @@
       <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -11962,7 +11937,7 @@
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -11998,7 +11973,7 @@
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -12034,7 +12009,7 @@
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -12070,7 +12045,7 @@
       <c r="F26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -12106,7 +12081,7 @@
       <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -12142,7 +12117,7 @@
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -12178,7 +12153,7 @@
       <c r="F29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>143</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -12214,7 +12189,7 @@
       <c r="F30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>143</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -12250,7 +12225,7 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -12286,7 +12261,7 @@
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>151</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -12322,7 +12297,7 @@
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -12358,7 +12333,7 @@
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>161</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -12394,7 +12369,7 @@
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -12430,7 +12405,7 @@
       <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -12466,7 +12441,7 @@
       <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="18" t="s">
         <v>175</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -12502,7 +12477,7 @@
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="18" t="s">
         <v>180</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -12538,7 +12513,7 @@
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>185</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -12574,7 +12549,7 @@
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="18" t="s">
         <v>190</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -12610,7 +12585,7 @@
       <c r="F41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="18" t="s">
         <v>195</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -12646,7 +12621,7 @@
       <c r="F42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -12682,7 +12657,7 @@
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="18" t="s">
         <v>205</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -12718,7 +12693,7 @@
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="18" t="s">
         <v>211</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -12754,7 +12729,7 @@
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="18" t="s">
         <v>216</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -12790,7 +12765,7 @@
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>220</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -12826,7 +12801,7 @@
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="18" t="s">
         <v>225</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -12862,7 +12837,7 @@
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="18" t="s">
         <v>231</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -12898,7 +12873,7 @@
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="18" t="s">
         <v>236</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -12934,7 +12909,7 @@
       <c r="F50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="18" t="s">
         <v>240</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -12970,7 +12945,7 @@
       <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>245</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -13006,7 +12981,7 @@
       <c r="F52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>251</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -13042,7 +13017,7 @@
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>256</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -13078,7 +13053,7 @@
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>261</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -13114,7 +13089,7 @@
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>266</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -13150,7 +13125,7 @@
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -13186,7 +13161,7 @@
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="18" t="s">
         <v>276</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -13222,7 +13197,7 @@
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>280</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -13258,7 +13233,7 @@
       <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -13294,7 +13269,7 @@
       <c r="F60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="1" t="s">
         <v>14</v>
       </c>
@@ -13328,7 +13303,7 @@
       <c r="F61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>296</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -13364,7 +13339,7 @@
       <c r="F62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="18" t="s">
         <v>300</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -13400,7 +13375,7 @@
       <c r="F63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="18" t="s">
         <v>276</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -13436,7 +13411,7 @@
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>308</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -13472,7 +13447,7 @@
       <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>313</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -13508,7 +13483,7 @@
       <c r="F66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>320</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -13544,7 +13519,7 @@
       <c r="F67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>324</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -13580,7 +13555,7 @@
       <c r="F68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="18" t="s">
         <v>328</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -13616,7 +13591,7 @@
       <c r="F69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="18" t="s">
         <v>333</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -13652,7 +13627,7 @@
       <c r="F70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="18" t="s">
         <v>337</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -13688,7 +13663,7 @@
       <c r="F71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="18" t="s">
         <v>340</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -13724,7 +13699,7 @@
       <c r="F72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="18" t="s">
         <v>345</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -13760,7 +13735,7 @@
       <c r="F73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="18" t="s">
         <v>350</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -13796,7 +13771,7 @@
       <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="18" t="s">
         <v>355</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -13832,7 +13807,7 @@
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="18" t="s">
         <v>360</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -13868,7 +13843,7 @@
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="18" t="s">
         <v>365</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -13904,7 +13879,7 @@
       <c r="F77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="18" t="s">
         <v>369</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -13940,7 +13915,7 @@
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="18" t="s">
         <v>372</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -13976,7 +13951,7 @@
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="18" t="s">
         <v>376</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -14012,7 +13987,7 @@
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="18" t="s">
         <v>380</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -14048,7 +14023,7 @@
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="18" t="s">
         <v>386</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -14084,7 +14059,7 @@
       <c r="F82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="18" t="s">
         <v>391</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -14120,7 +14095,7 @@
       <c r="F83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="18" t="s">
         <v>396</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -14156,7 +14131,7 @@
       <c r="F84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="18" t="s">
         <v>400</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -14192,7 +14167,7 @@
       <c r="F85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="18" t="s">
         <v>405</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -14228,7 +14203,7 @@
       <c r="F86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="19" t="s">
+      <c r="G86" s="18" t="s">
         <v>408</v>
       </c>
       <c r="H86" s="8" t="s">
@@ -14264,7 +14239,7 @@
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="18" t="s">
         <v>415</v>
       </c>
       <c r="H87" s="1"/>
@@ -14298,7 +14273,7 @@
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="18" t="s">
         <v>420</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -14334,7 +14309,7 @@
       <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="18" t="s">
         <v>424</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -14370,7 +14345,7 @@
       <c r="F90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="18" t="s">
         <v>429</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -14406,7 +14381,7 @@
       <c r="F91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="18" t="s">
         <v>433</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -14442,7 +14417,7 @@
       <c r="F92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="18" t="s">
         <v>438</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -14478,7 +14453,7 @@
       <c r="F93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="18" t="s">
         <v>442</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -14514,7 +14489,7 @@
       <c r="F94" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="18" t="s">
         <v>446</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -14550,7 +14525,7 @@
       <c r="F95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="18" t="s">
         <v>449</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -14586,7 +14561,7 @@
       <c r="F96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="18" t="s">
         <v>452</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -14622,7 +14597,7 @@
       <c r="F97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="18" t="s">
         <v>457</v>
       </c>
       <c r="H97" s="8" t="s">
@@ -14658,7 +14633,7 @@
       <c r="F98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="18" t="s">
         <v>463</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -14694,7 +14669,7 @@
       <c r="F99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="18" t="s">
         <v>469</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -14730,7 +14705,7 @@
       <c r="F100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="18" t="s">
         <v>472</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -14766,7 +14741,7 @@
       <c r="F101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="18" t="s">
         <v>477</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -14802,7 +14777,7 @@
       <c r="F102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="18" t="s">
         <v>477</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -14838,7 +14813,7 @@
       <c r="F103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="18" t="s">
         <v>482</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -14874,7 +14849,7 @@
       <c r="F104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="19" t="s">
+      <c r="G104" s="18" t="s">
         <v>488</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -14910,7 +14885,7 @@
       <c r="F105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="18" t="s">
         <v>492</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -14946,7 +14921,7 @@
       <c r="F106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="18" t="s">
         <v>497</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -14982,7 +14957,7 @@
       <c r="F107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="18" t="s">
         <v>501</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -15018,7 +14993,7 @@
       <c r="F108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="19" t="s">
+      <c r="G108" s="18" t="s">
         <v>505</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -15054,7 +15029,7 @@
       <c r="F109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="18" t="s">
         <v>510</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -15090,7 +15065,7 @@
       <c r="F110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="19" t="s">
+      <c r="G110" s="18" t="s">
         <v>515</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -15126,7 +15101,7 @@
       <c r="F111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="19" t="s">
+      <c r="G111" s="18" t="s">
         <v>519</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -15162,7 +15137,7 @@
       <c r="F112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="19" t="s">
+      <c r="G112" s="18" t="s">
         <v>523</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -15196,7 +15171,7 @@
       <c r="F113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="18" t="s">
         <v>527</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -15232,7 +15207,7 @@
       <c r="F114" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="19" t="s">
+      <c r="G114" s="18" t="s">
         <v>532</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -15268,7 +15243,7 @@
       <c r="F115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="18" t="s">
         <v>537</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -15304,7 +15279,7 @@
       <c r="F116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="19" t="s">
+      <c r="G116" s="18" t="s">
         <v>542</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -15340,7 +15315,7 @@
       <c r="F117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="G117" s="18" t="s">
         <v>543</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -15376,7 +15351,7 @@
       <c r="F118" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="19" t="s">
+      <c r="G118" s="18" t="s">
         <v>547</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -15412,7 +15387,7 @@
       <c r="F119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="18" t="s">
         <v>547</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -15448,7 +15423,7 @@
       <c r="F120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="19" t="s">
+      <c r="G120" s="18" t="s">
         <v>556</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -15484,7 +15459,7 @@
       <c r="F121" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G121" s="19" t="s">
+      <c r="G121" s="18" t="s">
         <v>561</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -15518,7 +15493,7 @@
       <c r="F122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="18" t="s">
         <v>561</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -15554,7 +15529,7 @@
       <c r="F123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="18" t="s">
         <v>569</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -15590,7 +15565,7 @@
       <c r="F124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="18" t="s">
         <v>573</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -15626,7 +15601,7 @@
       <c r="F125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="18" t="s">
         <v>578</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -15662,7 +15637,7 @@
       <c r="F126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G126" s="19" t="s">
+      <c r="G126" s="18" t="s">
         <v>582</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -15698,7 +15673,7 @@
       <c r="F127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="18" t="s">
         <v>586</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -15734,7 +15709,7 @@
       <c r="F128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="19" t="s">
+      <c r="G128" s="18" t="s">
         <v>591</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -15768,7 +15743,7 @@
       <c r="F129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G129" s="19" t="s">
+      <c r="G129" s="18" t="s">
         <v>595</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -15804,7 +15779,7 @@
       <c r="F130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="19" t="s">
+      <c r="G130" s="18" t="s">
         <v>598</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -15838,7 +15813,7 @@
       <c r="F131" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="19" t="s">
+      <c r="G131" s="18" t="s">
         <v>601</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -15874,7 +15849,7 @@
       <c r="F132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="19" t="s">
+      <c r="G132" s="18" t="s">
         <v>605</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -15910,7 +15885,7 @@
       <c r="F133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="19" t="s">
+      <c r="G133" s="18" t="s">
         <v>609</v>
       </c>
       <c r="H133" s="8" t="s">
@@ -15946,7 +15921,7 @@
       <c r="F134" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="19" t="s">
+      <c r="G134" s="18" t="s">
         <v>615</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -15982,7 +15957,7 @@
       <c r="F135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="19" t="s">
+      <c r="G135" s="18" t="s">
         <v>620</v>
       </c>
       <c r="H135" s="8" t="s">
@@ -16018,7 +15993,7 @@
       <c r="F136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G136" s="19" t="s">
+      <c r="G136" s="18" t="s">
         <v>625</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -16054,7 +16029,7 @@
       <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G137" s="19" t="s">
+      <c r="G137" s="18" t="s">
         <v>629</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -16090,7 +16065,7 @@
       <c r="F138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G138" s="19" t="s">
+      <c r="G138" s="18" t="s">
         <v>632</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -16126,7 +16101,7 @@
       <c r="F139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G139" s="18" t="s">
         <v>636</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -16162,7 +16137,7 @@
       <c r="F140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="19" t="s">
+      <c r="G140" s="18" t="s">
         <v>639</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -16198,7 +16173,7 @@
       <c r="F141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G141" s="19" t="s">
+      <c r="G141" s="18" t="s">
         <v>642</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -16234,7 +16209,7 @@
       <c r="F142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G142" s="19" t="s">
+      <c r="G142" s="18" t="s">
         <v>645</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -16270,7 +16245,7 @@
       <c r="F143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G143" s="19" t="s">
+      <c r="G143" s="18" t="s">
         <v>648</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -16306,7 +16281,7 @@
       <c r="F144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="19" t="s">
+      <c r="G144" s="18" t="s">
         <v>653</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -16342,7 +16317,7 @@
       <c r="F145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="19" t="s">
+      <c r="G145" s="18" t="s">
         <v>658</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -16378,7 +16353,7 @@
       <c r="F146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="19" t="s">
+      <c r="G146" s="18" t="s">
         <v>661</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -16414,7 +16389,7 @@
       <c r="F147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="18" t="s">
         <v>665</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -16450,7 +16425,7 @@
       <c r="F148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G148" s="19" t="s">
+      <c r="G148" s="18" t="s">
         <v>669</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -16486,7 +16461,7 @@
       <c r="F149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="19" t="s">
+      <c r="G149" s="18" t="s">
         <v>672</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -16522,7 +16497,7 @@
       <c r="F150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="19" t="s">
+      <c r="G150" s="18" t="s">
         <v>675</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -16558,7 +16533,7 @@
       <c r="F151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="19" t="s">
+      <c r="G151" s="18" t="s">
         <v>680</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -16594,7 +16569,7 @@
       <c r="F152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G152" s="18" t="s">
         <v>685</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -16630,7 +16605,7 @@
       <c r="F153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="19" t="s">
+      <c r="G153" s="18" t="s">
         <v>690</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -16666,7 +16641,7 @@
       <c r="F154" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G154" s="19" t="s">
+      <c r="G154" s="18" t="s">
         <v>695</v>
       </c>
       <c r="H154" s="8" t="s">
@@ -16702,7 +16677,7 @@
       <c r="F155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G155" s="19" t="s">
+      <c r="G155" s="18" t="s">
         <v>701</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -16738,7 +16713,7 @@
       <c r="F156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="19" t="s">
+      <c r="G156" s="18" t="s">
         <v>706</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -16774,7 +16749,7 @@
       <c r="F157" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G157" s="19" t="s">
+      <c r="G157" s="18" t="s">
         <v>711</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -16810,7 +16785,7 @@
       <c r="F158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G158" s="19" t="s">
+      <c r="G158" s="18" t="s">
         <v>715</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -16846,7 +16821,7 @@
       <c r="F159" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G159" s="19" t="s">
+      <c r="G159" s="18" t="s">
         <v>719</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -16882,7 +16857,7 @@
       <c r="F160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G160" s="19" t="s">
+      <c r="G160" s="18" t="s">
         <v>723</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -16918,7 +16893,7 @@
       <c r="F161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G161" s="19" t="s">
+      <c r="G161" s="18" t="s">
         <v>727</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -16954,7 +16929,7 @@
       <c r="F162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G162" s="19" t="s">
+      <c r="G162" s="18" t="s">
         <v>731</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -16990,7 +16965,7 @@
       <c r="F163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G163" s="19" t="s">
+      <c r="G163" s="18" t="s">
         <v>735</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -17026,7 +17001,7 @@
       <c r="F164" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="19" t="s">
+      <c r="G164" s="18" t="s">
         <v>739</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -17062,7 +17037,7 @@
       <c r="F165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G165" s="19" t="s">
+      <c r="G165" s="18" t="s">
         <v>743</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -17098,7 +17073,7 @@
       <c r="F166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="19" t="s">
+      <c r="G166" s="18" t="s">
         <v>747</v>
       </c>
       <c r="H166" s="8" t="s">
@@ -17134,7 +17109,7 @@
       <c r="F167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="19" t="s">
+      <c r="G167" s="18" t="s">
         <v>751</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -17170,7 +17145,7 @@
       <c r="F168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="19" t="s">
+      <c r="G168" s="18" t="s">
         <v>756</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -17206,7 +17181,7 @@
       <c r="F169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="19" t="s">
+      <c r="G169" s="18" t="s">
         <v>760</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -17242,7 +17217,7 @@
       <c r="F170" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G170" s="19" t="s">
+      <c r="G170" s="18" t="s">
         <v>763</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -17278,7 +17253,7 @@
       <c r="F171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G171" s="19" t="s">
+      <c r="G171" s="18" t="s">
         <v>766</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -17314,7 +17289,7 @@
       <c r="F172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G172" s="19" t="s">
+      <c r="G172" s="18" t="s">
         <v>770</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -17350,7 +17325,7 @@
       <c r="F173" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G173" s="19" t="s">
+      <c r="G173" s="18" t="s">
         <v>774</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -17386,7 +17361,7 @@
       <c r="F174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G174" s="19" t="s">
+      <c r="G174" s="18" t="s">
         <v>779</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -17422,7 +17397,7 @@
       <c r="F175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G175" s="19" t="s">
+      <c r="G175" s="18" t="s">
         <v>783</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -17458,7 +17433,7 @@
       <c r="F176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G176" s="19" t="s">
+      <c r="G176" s="18" t="s">
         <v>788</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -17494,7 +17469,7 @@
       <c r="F177" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G177" s="19" t="s">
+      <c r="G177" s="18" t="s">
         <v>792</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -17530,7 +17505,7 @@
       <c r="F178" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G178" s="19" t="s">
+      <c r="G178" s="18" t="s">
         <v>797</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -17566,7 +17541,7 @@
       <c r="F179" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="19" t="s">
+      <c r="G179" s="18" t="s">
         <v>801</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -17602,7 +17577,7 @@
       <c r="F180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G180" s="19" t="s">
+      <c r="G180" s="18" t="s">
         <v>805</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -17638,7 +17613,7 @@
       <c r="F181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G181" s="19" t="s">
+      <c r="G181" s="18" t="s">
         <v>809</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -17674,7 +17649,7 @@
       <c r="F182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G182" s="19" t="s">
+      <c r="G182" s="18" t="s">
         <v>814</v>
       </c>
       <c r="H182" s="1" t="s">
@@ -17710,7 +17685,7 @@
       <c r="F183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G183" s="19" t="s">
+      <c r="G183" s="18" t="s">
         <v>819</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -17746,7 +17721,7 @@
       <c r="F184" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G184" s="19" t="s">
+      <c r="G184" s="18" t="s">
         <v>823</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -17782,7 +17757,7 @@
       <c r="F185" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="19" t="s">
+      <c r="G185" s="18" t="s">
         <v>827</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -17818,7 +17793,7 @@
       <c r="F186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G186" s="19" t="s">
+      <c r="G186" s="18" t="s">
         <v>832</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -17854,7 +17829,7 @@
       <c r="F187" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="19" t="s">
+      <c r="G187" s="18" t="s">
         <v>836</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -17890,7 +17865,7 @@
       <c r="F188" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G188" s="19" t="s">
+      <c r="G188" s="18" t="s">
         <v>839</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -17926,7 +17901,7 @@
       <c r="F189" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G189" s="19" t="s">
+      <c r="G189" s="18" t="s">
         <v>843</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -17962,7 +17937,7 @@
       <c r="F190" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G190" s="19" t="s">
+      <c r="G190" s="18" t="s">
         <v>848</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -17998,7 +17973,7 @@
       <c r="F191" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G191" s="19" t="s">
+      <c r="G191" s="18" t="s">
         <v>852</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -18034,7 +18009,7 @@
       <c r="F192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G192" s="19" t="s">
+      <c r="G192" s="18" t="s">
         <v>856</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -18070,7 +18045,7 @@
       <c r="F193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G193" s="19" t="s">
+      <c r="G193" s="18" t="s">
         <v>861</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -18106,7 +18081,7 @@
       <c r="F194" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G194" s="19" t="s">
+      <c r="G194" s="18" t="s">
         <v>865</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -18142,7 +18117,7 @@
       <c r="F195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="19" t="s">
+      <c r="G195" s="18" t="s">
         <v>869</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -18178,7 +18153,7 @@
       <c r="F196" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G196" s="19" t="s">
+      <c r="G196" s="18" t="s">
         <v>873</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -18214,7 +18189,7 @@
       <c r="F197" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G197" s="19" t="s">
+      <c r="G197" s="18" t="s">
         <v>877</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -18250,7 +18225,7 @@
       <c r="F198" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G198" s="19" t="s">
+      <c r="G198" s="18" t="s">
         <v>882</v>
       </c>
       <c r="H198" s="1" t="s">
@@ -18286,7 +18261,7 @@
       <c r="F199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="19" t="s">
+      <c r="G199" s="18" t="s">
         <v>886</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -18322,7 +18297,7 @@
       <c r="F200" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G200" s="19" t="s">
+      <c r="G200" s="18" t="s">
         <v>891</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -18358,7 +18333,7 @@
       <c r="F201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G201" s="19" t="s">
+      <c r="G201" s="18" t="s">
         <v>895</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -18394,7 +18369,7 @@
       <c r="F202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G202" s="19" t="s">
+      <c r="G202" s="18" t="s">
         <v>899</v>
       </c>
       <c r="H202" s="1" t="s">
@@ -18430,7 +18405,7 @@
       <c r="F203" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G203" s="19" t="s">
+      <c r="G203" s="18" t="s">
         <v>903</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -18466,7 +18441,7 @@
       <c r="F204" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G204" s="19" t="s">
+      <c r="G204" s="18" t="s">
         <v>907</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -18502,7 +18477,7 @@
       <c r="F205" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G205" s="19" t="s">
+      <c r="G205" s="18" t="s">
         <v>912</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -18538,7 +18513,7 @@
       <c r="F206" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G206" s="19" t="s">
+      <c r="G206" s="18" t="s">
         <v>917</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -18574,7 +18549,7 @@
       <c r="F207" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G207" s="19" t="s">
+      <c r="G207" s="18" t="s">
         <v>922</v>
       </c>
       <c r="H207" s="1" t="s">
@@ -18610,7 +18585,7 @@
       <c r="F208" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G208" s="19" t="s">
+      <c r="G208" s="18" t="s">
         <v>216</v>
       </c>
       <c r="H208" s="8" t="s">
@@ -18646,7 +18621,7 @@
       <c r="F209" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G209" s="19" t="s">
+      <c r="G209" s="18" t="s">
         <v>931</v>
       </c>
       <c r="H209" s="1" t="s">
@@ -18682,7 +18657,7 @@
       <c r="F210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G210" s="19" t="s">
+      <c r="G210" s="18" t="s">
         <v>934</v>
       </c>
       <c r="H210" s="1" t="s">
@@ -18718,7 +18693,7 @@
       <c r="F211" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G211" s="19" t="s">
+      <c r="G211" s="18" t="s">
         <v>939</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -18754,7 +18729,7 @@
       <c r="F212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G212" s="19" t="s">
+      <c r="G212" s="18" t="s">
         <v>944</v>
       </c>
       <c r="H212" s="1" t="s">
@@ -18790,7 +18765,7 @@
       <c r="F213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G213" s="19" t="s">
+      <c r="G213" s="18" t="s">
         <v>949</v>
       </c>
       <c r="H213" s="1"/>
@@ -18824,7 +18799,7 @@
       <c r="F214" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G214" s="19" t="s">
+      <c r="G214" s="18" t="s">
         <v>954</v>
       </c>
       <c r="H214" s="1" t="s">
@@ -18860,7 +18835,7 @@
       <c r="F215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G215" s="19" t="s">
+      <c r="G215" s="18" t="s">
         <v>958</v>
       </c>
       <c r="H215" s="1" t="s">
@@ -18896,7 +18871,7 @@
       <c r="F216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G216" s="19" t="s">
+      <c r="G216" s="18" t="s">
         <v>962</v>
       </c>
       <c r="H216" s="1" t="s">
@@ -18932,7 +18907,7 @@
       <c r="F217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G217" s="19" t="s">
+      <c r="G217" s="18" t="s">
         <v>966</v>
       </c>
       <c r="H217" s="1" t="s">
@@ -18968,7 +18943,7 @@
       <c r="F218" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G218" s="19" t="s">
+      <c r="G218" s="18" t="s">
         <v>969</v>
       </c>
       <c r="H218" s="1" t="s">
@@ -19004,7 +18979,7 @@
       <c r="F219" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G219" s="19" t="s">
+      <c r="G219" s="18" t="s">
         <v>973</v>
       </c>
       <c r="H219" s="1" t="s">
@@ -19040,7 +19015,7 @@
       <c r="F220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G220" s="19" t="s">
+      <c r="G220" s="18" t="s">
         <v>978</v>
       </c>
       <c r="H220" s="1" t="s">
@@ -19076,7 +19051,7 @@
       <c r="F221" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G221" s="19" t="s">
+      <c r="G221" s="18" t="s">
         <v>982</v>
       </c>
       <c r="H221" s="1" t="s">
@@ -19112,7 +19087,7 @@
       <c r="F222" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G222" s="19" t="s">
+      <c r="G222" s="18" t="s">
         <v>988</v>
       </c>
       <c r="H222" s="1" t="s">
@@ -19146,7 +19121,7 @@
       <c r="F223" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G223" s="19" t="s">
+      <c r="G223" s="18" t="s">
         <v>993</v>
       </c>
       <c r="H223" s="1" t="s">
@@ -19182,7 +19157,7 @@
       <c r="F224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G224" s="19" t="s">
+      <c r="G224" s="18" t="s">
         <v>993</v>
       </c>
       <c r="H224" s="1" t="s">
@@ -19218,7 +19193,7 @@
       <c r="F225" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G225" s="19" t="s">
+      <c r="G225" s="18" t="s">
         <v>1001</v>
       </c>
       <c r="H225" s="1" t="s">
@@ -19254,7 +19229,7 @@
       <c r="F226" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G226" s="19" t="s">
+      <c r="G226" s="18" t="s">
         <v>1006</v>
       </c>
       <c r="H226" s="1" t="s">
@@ -19290,7 +19265,7 @@
       <c r="F227" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G227" s="19" t="s">
+      <c r="G227" s="18" t="s">
         <v>1010</v>
       </c>
       <c r="H227" s="1" t="s">
@@ -19326,7 +19301,7 @@
       <c r="F228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G228" s="19" t="s">
+      <c r="G228" s="18" t="s">
         <v>1014</v>
       </c>
       <c r="H228" s="1" t="s">
@@ -19362,7 +19337,7 @@
       <c r="F229" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G229" s="19" t="s">
+      <c r="G229" s="18" t="s">
         <v>1018</v>
       </c>
       <c r="H229" s="1" t="s">
@@ -19398,7 +19373,7 @@
       <c r="F230" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G230" s="19" t="s">
+      <c r="G230" s="18" t="s">
         <v>1023</v>
       </c>
       <c r="H230" s="1" t="s">
@@ -19434,7 +19409,7 @@
       <c r="F231" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G231" s="19"/>
+      <c r="G231" s="18"/>
       <c r="H231" s="1" t="s">
         <v>40</v>
       </c>
@@ -19468,7 +19443,7 @@
       <c r="F232" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G232" s="19"/>
+      <c r="G232" s="18"/>
       <c r="H232" s="1" t="s">
         <v>7</v>
       </c>
@@ -19502,7 +19477,7 @@
       <c r="F233" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G233" s="19"/>
+      <c r="G233" s="18"/>
       <c r="H233" s="1" t="s">
         <v>7</v>
       </c>
@@ -19536,7 +19511,7 @@
       <c r="F234" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G234" s="19"/>
+      <c r="G234" s="18"/>
       <c r="H234" s="1" t="s">
         <v>26</v>
       </c>
@@ -19570,7 +19545,7 @@
       <c r="F235" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G235" s="19"/>
+      <c r="G235" s="18"/>
       <c r="H235" s="1" t="s">
         <v>26</v>
       </c>
@@ -19604,7 +19579,7 @@
       <c r="F236" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G236" s="19"/>
+      <c r="G236" s="18"/>
       <c r="H236" s="1" t="s">
         <v>26</v>
       </c>
@@ -19638,7 +19613,7 @@
       <c r="F237" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G237" s="19"/>
+      <c r="G237" s="18"/>
       <c r="H237" s="1" t="s">
         <v>40</v>
       </c>
@@ -19672,7 +19647,7 @@
       <c r="F238" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G238" s="19"/>
+      <c r="G238" s="18"/>
       <c r="H238" s="1" t="s">
         <v>26</v>
       </c>
@@ -19706,7 +19681,7 @@
       <c r="F239" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="G239" s="19"/>
+      <c r="G239" s="18"/>
       <c r="H239" s="1" t="s">
         <v>26</v>
       </c>
@@ -19738,7 +19713,7 @@
       <c r="F240" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G240" s="19"/>
+      <c r="G240" s="18"/>
       <c r="H240" s="1" t="s">
         <v>26</v>
       </c>
@@ -19772,7 +19747,7 @@
       <c r="F241" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G241" s="19"/>
+      <c r="G241" s="18"/>
       <c r="H241" s="1" t="s">
         <v>14</v>
       </c>
@@ -19806,7 +19781,7 @@
       <c r="F242" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G242" s="19" t="s">
+      <c r="G242" s="18" t="s">
         <v>1063</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -19842,7 +19817,7 @@
       <c r="F243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G243" s="19" t="s">
+      <c r="G243" s="18" t="s">
         <v>1068</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -19878,7 +19853,7 @@
       <c r="F244" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G244" s="19" t="s">
+      <c r="G244" s="18" t="s">
         <v>1072</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -19914,7 +19889,7 @@
       <c r="F245" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G245" s="19"/>
+      <c r="G245" s="18"/>
       <c r="H245" s="1" t="s">
         <v>26</v>
       </c>
@@ -19948,7 +19923,7 @@
       <c r="F246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G246" s="19" t="s">
+      <c r="G246" s="18" t="s">
         <v>1080</v>
       </c>
       <c r="H246" s="1" t="s">
@@ -19984,7 +19959,7 @@
       <c r="F247" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G247" s="19" t="s">
+      <c r="G247" s="18" t="s">
         <v>1097</v>
       </c>
       <c r="H247" s="1" t="s">
@@ -20020,7 +19995,7 @@
       <c r="F248" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G248" s="19" t="s">
+      <c r="G248" s="18" t="s">
         <v>1098</v>
       </c>
       <c r="H248" s="1" t="s">
@@ -20056,7 +20031,7 @@
       <c r="F249" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="G249" s="19"/>
+      <c r="G249" s="18"/>
       <c r="H249" s="1" t="s">
         <v>26</v>
       </c>
@@ -20090,7 +20065,7 @@
       <c r="F250" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G250" s="19" t="s">
+      <c r="G250" s="18" t="s">
         <v>1106</v>
       </c>
       <c r="H250" s="1" t="s">
@@ -20123,7 +20098,7 @@
       <c r="F251" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G251" s="19" t="s">
+      <c r="G251" s="18" t="s">
         <v>1110</v>
       </c>
       <c r="H251" s="1" t="s">
@@ -20156,7 +20131,7 @@
       <c r="F252" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G252" s="19" t="s">
+      <c r="G252" s="18" t="s">
         <v>1113</v>
       </c>
       <c r="H252" s="1" t="s">
@@ -20189,7 +20164,7 @@
       <c r="F253" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G253" s="19"/>
+      <c r="G253" s="18"/>
       <c r="H253" s="1" t="s">
         <v>26</v>
       </c>
@@ -20220,7 +20195,7 @@
       <c r="F254" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="G254" s="19" t="s">
+      <c r="G254" s="18" t="s">
         <v>1120</v>
       </c>
       <c r="H254" s="1" t="s">
@@ -20251,7 +20226,7 @@
         <v>1126</v>
       </c>
       <c r="F255" s="6"/>
-      <c r="G255" s="19"/>
+      <c r="G255" s="18"/>
       <c r="H255" s="1" t="s">
         <v>464</v>
       </c>
@@ -20282,7 +20257,7 @@
       <c r="F256" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G256" s="19" t="s">
+      <c r="G256" s="18" t="s">
         <v>1130</v>
       </c>
       <c r="H256" s="1" t="s">
@@ -20315,7 +20290,7 @@
       <c r="F257" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G257" s="19" t="s">
+      <c r="G257" s="18" t="s">
         <v>1134</v>
       </c>
       <c r="H257" s="1" t="s">
@@ -20348,7 +20323,7 @@
       <c r="F258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G258" s="19" t="s">
+      <c r="G258" s="18" t="s">
         <v>1138</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -20381,7 +20356,7 @@
       <c r="F259" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G259" s="19" t="s">
+      <c r="G259" s="18" t="s">
         <v>1142</v>
       </c>
       <c r="H259" s="1" t="s">
@@ -20414,7 +20389,7 @@
       <c r="F260" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G260" s="19" t="s">
+      <c r="G260" s="18" t="s">
         <v>1146</v>
       </c>
       <c r="H260" s="1" t="s">
@@ -20447,7 +20422,7 @@
       <c r="F261" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G261" s="19" t="s">
+      <c r="G261" s="18" t="s">
         <v>1150</v>
       </c>
       <c r="H261" s="1" t="s">
@@ -20480,7 +20455,7 @@
       <c r="F262" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G262" s="19" t="s">
+      <c r="G262" s="18" t="s">
         <v>1153</v>
       </c>
       <c r="H262" s="1" t="s">
@@ -20513,7 +20488,7 @@
       <c r="F263" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G263" s="19" t="s">
+      <c r="G263" s="18" t="s">
         <v>1157</v>
       </c>
       <c r="H263" s="1" t="s">
@@ -20546,7 +20521,7 @@
       <c r="F264" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G264" s="22" t="s">
+      <c r="G264" s="21" t="s">
         <v>1161</v>
       </c>
       <c r="H264" s="1" t="s">
@@ -20579,7 +20554,7 @@
       <c r="F265" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G265" s="19" t="s">
+      <c r="G265" s="18" t="s">
         <v>1163</v>
       </c>
       <c r="H265" s="1" t="s">
@@ -20612,7 +20587,7 @@
       <c r="F266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G266" s="19" t="s">
+      <c r="G266" s="18" t="s">
         <v>1167</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -20645,7 +20620,7 @@
       <c r="F267" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G267" s="19" t="s">
+      <c r="G267" s="18" t="s">
         <v>1172</v>
       </c>
       <c r="H267" s="1" t="s">
@@ -20678,7 +20653,7 @@
       <c r="F268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G268" s="19" t="s">
+      <c r="G268" s="18" t="s">
         <v>1176</v>
       </c>
       <c r="H268" s="1" t="s">
@@ -20711,7 +20686,7 @@
       <c r="F269" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G269" s="19" t="s">
+      <c r="G269" s="18" t="s">
         <v>1180</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -20744,7 +20719,7 @@
       <c r="F270" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G270" s="19" t="s">
+      <c r="G270" s="18" t="s">
         <v>1185</v>
       </c>
       <c r="H270" s="1" t="s">
@@ -20777,7 +20752,7 @@
       <c r="F271" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G271" s="19" t="s">
+      <c r="G271" s="18" t="s">
         <v>1188</v>
       </c>
       <c r="H271" s="1" t="s">
@@ -20810,7 +20785,7 @@
       <c r="F272" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G272" s="19"/>
+      <c r="G272" s="18"/>
       <c r="H272" s="1" t="s">
         <v>7</v>
       </c>
@@ -20841,7 +20816,7 @@
       <c r="F273" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G273" s="19"/>
+      <c r="G273" s="18"/>
       <c r="H273" s="1" t="s">
         <v>26</v>
       </c>
@@ -20872,7 +20847,7 @@
       <c r="F274" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G274" s="19"/>
+      <c r="G274" s="18"/>
       <c r="H274" s="1" t="s">
         <v>14</v>
       </c>
@@ -20903,7 +20878,7 @@
       <c r="F275" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G275" s="19"/>
+      <c r="G275" s="18"/>
       <c r="H275" s="1" t="s">
         <v>26</v>
       </c>
@@ -20934,7 +20909,7 @@
       <c r="F276" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G276" s="19"/>
+      <c r="G276" s="18"/>
       <c r="H276" s="1" t="s">
         <v>66</v>
       </c>
@@ -20965,7 +20940,7 @@
       <c r="F277" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G277" s="19"/>
+      <c r="G277" s="18"/>
       <c r="H277" s="1" t="s">
         <v>40</v>
       </c>
@@ -20996,7 +20971,7 @@
       <c r="F278" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G278" s="19" t="s">
+      <c r="G278" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="H278" s="1" t="s">
@@ -21029,7 +21004,7 @@
       <c r="F279" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G279" s="19" t="s">
+      <c r="G279" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="H279" s="1" t="s">
@@ -21062,7 +21037,7 @@
       <c r="F280" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G280" s="19" t="s">
+      <c r="G280" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="H280" s="1" t="s">
@@ -21095,7 +21070,7 @@
       <c r="F281" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G281" s="19" t="s">
+      <c r="G281" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="H281" s="1" t="s">
@@ -21128,7 +21103,7 @@
       <c r="F282" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G282" s="19" t="s">
+      <c r="G282" s="18" t="s">
         <v>1220</v>
       </c>
       <c r="H282" s="1" t="s">
@@ -21161,7 +21136,7 @@
       <c r="F283" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G283" s="19"/>
+      <c r="G283" s="18"/>
       <c r="H283" s="1" t="s">
         <v>14</v>
       </c>
@@ -21192,7 +21167,7 @@
       <c r="F284" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G284" s="19"/>
+      <c r="G284" s="18"/>
       <c r="H284" s="1" t="s">
         <v>464</v>
       </c>
@@ -21223,7 +21198,7 @@
       <c r="F285" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G285" s="19" t="s">
+      <c r="G285" s="18" t="s">
         <v>1231</v>
       </c>
       <c r="H285" s="1" t="s">
@@ -21256,7 +21231,7 @@
       <c r="F286" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G286" s="19" t="s">
+      <c r="G286" s="18" t="s">
         <v>1235</v>
       </c>
       <c r="H286" s="1" t="s">
@@ -21289,7 +21264,7 @@
       <c r="F287" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G287" s="19" t="s">
+      <c r="G287" s="18" t="s">
         <v>1238</v>
       </c>
       <c r="H287" s="1" t="s">
@@ -21322,7 +21297,7 @@
       <c r="F288" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G288" s="19" t="s">
+      <c r="G288" s="18" t="s">
         <v>1242</v>
       </c>
       <c r="H288" s="1" t="s">
@@ -21355,7 +21330,7 @@
       <c r="F289" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G289" s="19" t="s">
+      <c r="G289" s="18" t="s">
         <v>1244</v>
       </c>
       <c r="H289" s="1" t="s">
@@ -21388,7 +21363,7 @@
       <c r="F290" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G290" s="19" t="s">
+      <c r="G290" s="18" t="s">
         <v>1246</v>
       </c>
       <c r="H290" s="1" t="s">
@@ -21421,7 +21396,7 @@
       <c r="F291" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G291" s="19" t="s">
+      <c r="G291" s="18" t="s">
         <v>1249</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -21454,7 +21429,7 @@
       <c r="F292" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G292" s="19" t="s">
+      <c r="G292" s="18" t="s">
         <v>1251</v>
       </c>
       <c r="H292" s="1" t="s">
@@ -21487,7 +21462,7 @@
       <c r="F293" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G293" s="19"/>
+      <c r="G293" s="18"/>
       <c r="H293" s="1" t="s">
         <v>26</v>
       </c>
@@ -21518,7 +21493,7 @@
       <c r="F294" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G294" s="19" t="s">
+      <c r="G294" s="18" t="s">
         <v>1255</v>
       </c>
       <c r="H294" s="1" t="s">
@@ -21551,7 +21526,7 @@
       <c r="F295" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G295" s="19" t="s">
+      <c r="G295" s="18" t="s">
         <v>1259</v>
       </c>
       <c r="H295" s="1" t="s">
@@ -21584,7 +21559,7 @@
       <c r="F296" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G296" s="19" t="s">
+      <c r="G296" s="18" t="s">
         <v>1263</v>
       </c>
       <c r="H296" s="1" t="s">
@@ -21617,7 +21592,7 @@
       <c r="F297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G297" s="19" t="s">
+      <c r="G297" s="18" t="s">
         <v>1266</v>
       </c>
       <c r="H297" s="1" t="s">
@@ -21650,7 +21625,7 @@
       <c r="F298" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G298" s="19"/>
+      <c r="G298" s="18"/>
       <c r="H298" s="1" t="s">
         <v>26</v>
       </c>
@@ -21681,7 +21656,7 @@
       <c r="F299" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G299" s="19" t="s">
+      <c r="G299" s="18" t="s">
         <v>1272</v>
       </c>
       <c r="H299" s="1" t="s">
@@ -21714,7 +21689,7 @@
       <c r="F300" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G300" s="19" t="s">
+      <c r="G300" s="18" t="s">
         <v>1277</v>
       </c>
       <c r="H300" s="1" t="s">
@@ -21745,7 +21720,7 @@
         <v>1282</v>
       </c>
       <c r="F301" s="6"/>
-      <c r="G301" s="19" t="s">
+      <c r="G301" s="18" t="s">
         <v>1281</v>
       </c>
       <c r="H301" s="1" t="s">
@@ -21778,7 +21753,7 @@
       <c r="F302" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G302" s="19" t="s">
+      <c r="G302" s="18" t="s">
         <v>1285</v>
       </c>
       <c r="H302" s="1" t="s">
@@ -21811,7 +21786,7 @@
       <c r="F303" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G303" s="19" t="s">
+      <c r="G303" s="18" t="s">
         <v>1289</v>
       </c>
       <c r="H303" s="1" t="s">
@@ -21844,7 +21819,7 @@
       <c r="F304" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G304" s="19" t="s">
+      <c r="G304" s="18" t="s">
         <v>1293</v>
       </c>
       <c r="H304" s="1" t="s">
@@ -21877,7 +21852,7 @@
       <c r="F305" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G305" s="19" t="s">
+      <c r="G305" s="18" t="s">
         <v>1297</v>
       </c>
       <c r="H305" s="1" t="s">
@@ -21910,7 +21885,7 @@
       <c r="F306" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G306" s="19" t="s">
+      <c r="G306" s="18" t="s">
         <v>1299</v>
       </c>
       <c r="H306" s="1" t="s">
@@ -21943,7 +21918,7 @@
       <c r="F307" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G307" s="19" t="s">
+      <c r="G307" s="18" t="s">
         <v>1303</v>
       </c>
       <c r="H307" s="1" t="s">
@@ -21976,7 +21951,7 @@
       <c r="F308" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G308" s="19" t="s">
+      <c r="G308" s="18" t="s">
         <v>1308</v>
       </c>
       <c r="H308" s="1" t="s">
@@ -22009,7 +21984,7 @@
       <c r="F309" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G309" s="19" t="s">
+      <c r="G309" s="18" t="s">
         <v>1313</v>
       </c>
       <c r="H309" s="1" t="s">
@@ -22042,7 +22017,7 @@
       <c r="F310" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G310" s="19" t="s">
+      <c r="G310" s="18" t="s">
         <v>1317</v>
       </c>
       <c r="H310" s="1" t="s">
@@ -22075,7 +22050,7 @@
       <c r="F311" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G311" s="22" t="s">
+      <c r="G311" s="21" t="s">
         <v>1321</v>
       </c>
       <c r="H311" s="1" t="s">
@@ -22108,7 +22083,7 @@
       <c r="F312" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G312" s="22" t="s">
+      <c r="G312" s="21" t="s">
         <v>1326</v>
       </c>
       <c r="H312" s="1" t="s">
@@ -22141,7 +22116,7 @@
       <c r="F313" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G313" s="19"/>
+      <c r="G313" s="18"/>
       <c r="H313" s="1" t="s">
         <v>26</v>
       </c>
@@ -22172,7 +22147,7 @@
       <c r="F314" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G314" s="19"/>
+      <c r="G314" s="18"/>
       <c r="H314" s="1" t="s">
         <v>14</v>
       </c>
@@ -22203,7 +22178,7 @@
       <c r="F315" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G315" s="19"/>
+      <c r="G315" s="18"/>
       <c r="H315" s="1" t="s">
         <v>14</v>
       </c>
@@ -22234,7 +22209,7 @@
       <c r="F316" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G316" s="19"/>
+      <c r="G316" s="18"/>
       <c r="H316" s="1" t="s">
         <v>226</v>
       </c>
@@ -22263,7 +22238,7 @@
         <v>1344</v>
       </c>
       <c r="F317" s="6"/>
-      <c r="G317" s="19"/>
+      <c r="G317" s="18"/>
       <c r="H317" s="1" t="s">
         <v>26</v>
       </c>
@@ -22292,7 +22267,7 @@
         <v>1347</v>
       </c>
       <c r="F318" s="6"/>
-      <c r="G318" s="19"/>
+      <c r="G318" s="18"/>
       <c r="H318" s="1" t="s">
         <v>7</v>
       </c>
@@ -22323,7 +22298,7 @@
       <c r="F319" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G319" s="19"/>
+      <c r="G319" s="18"/>
       <c r="H319" s="1" t="s">
         <v>26</v>
       </c>
@@ -22354,7 +22329,7 @@
       <c r="F320" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G320" s="19"/>
+      <c r="G320" s="18"/>
       <c r="H320" s="1" t="s">
         <v>40</v>
       </c>
@@ -22385,7 +22360,7 @@
       <c r="F321" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G321" s="19"/>
+      <c r="G321" s="18"/>
       <c r="H321" s="1" t="s">
         <v>40</v>
       </c>
@@ -22416,7 +22391,7 @@
       <c r="F322" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G322" s="19"/>
+      <c r="G322" s="18"/>
       <c r="H322" s="1" t="s">
         <v>26</v>
       </c>
@@ -22447,7 +22422,7 @@
       <c r="F323" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G323" s="19"/>
+      <c r="G323" s="18"/>
       <c r="H323" s="1" t="s">
         <v>40</v>
       </c>
@@ -22478,7 +22453,7 @@
       <c r="F324" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G324" s="19" t="s">
+      <c r="G324" s="18" t="s">
         <v>1368</v>
       </c>
       <c r="H324" s="1" t="s">
@@ -22511,7 +22486,7 @@
       <c r="F325" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G325" s="19"/>
+      <c r="G325" s="18"/>
       <c r="H325" s="1" t="s">
         <v>100</v>
       </c>
@@ -22542,7 +22517,7 @@
       <c r="F326" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G326" s="19"/>
+      <c r="G326" s="18"/>
       <c r="H326" s="1" t="s">
         <v>100</v>
       </c>
@@ -22573,7 +22548,7 @@
       <c r="F327" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G327" s="19"/>
+      <c r="G327" s="18"/>
       <c r="H327" s="1" t="s">
         <v>26</v>
       </c>
@@ -22604,7 +22579,7 @@
       <c r="F328" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G328" s="19"/>
+      <c r="G328" s="18"/>
       <c r="H328" s="1" t="s">
         <v>206</v>
       </c>
@@ -22635,7 +22610,7 @@
       <c r="F329" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G329" s="19"/>
+      <c r="G329" s="18"/>
       <c r="H329" s="1" t="s">
         <v>40</v>
       </c>
@@ -22666,7 +22641,7 @@
       <c r="F330" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G330" s="19" t="s">
+      <c r="G330" s="18" t="s">
         <v>1385</v>
       </c>
       <c r="H330" s="1" t="s">
@@ -22699,7 +22674,7 @@
       <c r="F331" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G331" s="19" t="s">
+      <c r="G331" s="18" t="s">
         <v>1390</v>
       </c>
       <c r="H331" s="1" t="s">
@@ -22732,7 +22707,7 @@
       <c r="F332" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G332" s="19" t="s">
+      <c r="G332" s="18" t="s">
         <v>1393</v>
       </c>
       <c r="H332" s="1" t="s">
@@ -22765,7 +22740,7 @@
       <c r="F333" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G333" s="19" t="s">
+      <c r="G333" s="18" t="s">
         <v>1398</v>
       </c>
       <c r="H333" s="1" t="s">
@@ -22798,7 +22773,7 @@
       <c r="F334" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G334" s="19" t="s">
+      <c r="G334" s="18" t="s">
         <v>1402</v>
       </c>
       <c r="H334" s="1" t="s">
@@ -22831,7 +22806,7 @@
       <c r="F335" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G335" s="19" t="s">
+      <c r="G335" s="18" t="s">
         <v>1406</v>
       </c>
       <c r="H335" s="1" t="s">
@@ -22864,7 +22839,7 @@
       <c r="F336" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G336" s="19"/>
+      <c r="G336" s="18"/>
       <c r="H336" s="1" t="s">
         <v>464</v>
       </c>
@@ -22895,7 +22870,7 @@
       <c r="F337" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G337" s="19"/>
+      <c r="G337" s="18"/>
       <c r="H337" s="1" t="s">
         <v>26</v>
       </c>
@@ -22926,7 +22901,7 @@
       <c r="F338" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G338" s="19"/>
+      <c r="G338" s="18"/>
       <c r="H338" s="1" t="s">
         <v>989</v>
       </c>
@@ -22957,7 +22932,7 @@
       <c r="F339" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G339" s="19"/>
+      <c r="G339" s="18"/>
       <c r="H339" s="1" t="s">
         <v>26</v>
       </c>
@@ -22988,7 +22963,7 @@
       <c r="F340" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G340" s="19"/>
+      <c r="G340" s="18"/>
       <c r="H340" s="1" t="s">
         <v>26</v>
       </c>
@@ -23019,7 +22994,7 @@
       <c r="F341" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G341" s="19"/>
+      <c r="G341" s="18"/>
       <c r="H341" s="1" t="s">
         <v>26</v>
       </c>
@@ -23050,7 +23025,7 @@
       <c r="F342" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G342" s="19"/>
+      <c r="G342" s="18"/>
       <c r="H342" s="1" t="s">
         <v>26</v>
       </c>
@@ -23081,7 +23056,7 @@
       <c r="F343" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G343" s="19"/>
+      <c r="G343" s="18"/>
       <c r="H343" s="1" t="s">
         <v>26</v>
       </c>
@@ -23112,7 +23087,7 @@
       <c r="F344" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G344" s="19"/>
+      <c r="G344" s="18"/>
       <c r="H344" s="1" t="s">
         <v>26</v>
       </c>
@@ -23143,7 +23118,7 @@
       <c r="F345" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G345" s="19"/>
+      <c r="G345" s="18"/>
       <c r="H345" s="1" t="s">
         <v>26</v>
       </c>
@@ -23174,7 +23149,7 @@
       <c r="F346" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G346" s="19"/>
+      <c r="G346" s="18"/>
       <c r="H346" s="1" t="s">
         <v>26</v>
       </c>
@@ -23205,7 +23180,7 @@
       <c r="F347" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G347" s="19"/>
+      <c r="G347" s="18"/>
       <c r="H347" s="1" t="s">
         <v>7</v>
       </c>
@@ -23236,7 +23211,7 @@
       <c r="F348" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G348" s="19"/>
+      <c r="G348" s="18"/>
       <c r="H348" s="1" t="s">
         <v>26</v>
       </c>
@@ -23267,7 +23242,7 @@
       <c r="F349" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G349" s="19"/>
+      <c r="G349" s="18"/>
       <c r="H349" s="1" t="s">
         <v>40</v>
       </c>
@@ -23298,7 +23273,7 @@
       <c r="F350" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G350" s="19"/>
+      <c r="G350" s="18"/>
       <c r="H350" s="1" t="s">
         <v>26</v>
       </c>
@@ -23329,7 +23304,7 @@
       <c r="F351" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G351" s="19"/>
+      <c r="G351" s="18"/>
       <c r="H351" s="1" t="s">
         <v>206</v>
       </c>
@@ -23360,7 +23335,7 @@
       <c r="F352" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G352" s="19"/>
+      <c r="G352" s="18"/>
       <c r="H352" s="1" t="s">
         <v>40</v>
       </c>
@@ -23391,7 +23366,7 @@
       <c r="F353" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G353" s="19"/>
+      <c r="G353" s="18"/>
       <c r="H353" s="1" t="s">
         <v>40</v>
       </c>
@@ -23422,7 +23397,7 @@
       <c r="F354" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G354" s="19"/>
+      <c r="G354" s="18"/>
       <c r="H354" s="1" t="s">
         <v>40</v>
       </c>
@@ -23453,7 +23428,7 @@
       <c r="F355" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G355" s="19"/>
+      <c r="G355" s="18"/>
       <c r="H355" s="1" t="s">
         <v>26</v>
       </c>
@@ -23484,7 +23459,7 @@
       <c r="F356" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G356" s="19"/>
+      <c r="G356" s="18"/>
       <c r="H356" s="1" t="s">
         <v>1455</v>
       </c>
@@ -23515,7 +23490,7 @@
       <c r="F357" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G357" s="19"/>
+      <c r="G357" s="18"/>
       <c r="H357" s="1" t="s">
         <v>14</v>
       </c>
@@ -23546,7 +23521,7 @@
       <c r="F358" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G358" s="19"/>
+      <c r="G358" s="18"/>
       <c r="H358" s="1" t="s">
         <v>40</v>
       </c>
@@ -23577,7 +23552,7 @@
       <c r="F359" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G359" s="19"/>
+      <c r="G359" s="18"/>
       <c r="H359" s="1" t="s">
         <v>7</v>
       </c>
@@ -23608,7 +23583,7 @@
       <c r="F360" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G360" s="19"/>
+      <c r="G360" s="18"/>
       <c r="H360" s="1" t="s">
         <v>26</v>
       </c>
@@ -23639,7 +23614,7 @@
       <c r="F361" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G361" s="19"/>
+      <c r="G361" s="18"/>
       <c r="H361" s="1" t="s">
         <v>66</v>
       </c>
@@ -23670,7 +23645,7 @@
       <c r="F362" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G362" s="19"/>
+      <c r="G362" s="18"/>
       <c r="H362" s="1" t="s">
         <v>100</v>
       </c>
@@ -23701,7 +23676,7 @@
       <c r="F363" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G363" s="19"/>
+      <c r="G363" s="18"/>
       <c r="H363" s="1" t="s">
         <v>40</v>
       </c>
@@ -23732,7 +23707,7 @@
       <c r="F364" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G364" s="19"/>
+      <c r="G364" s="18"/>
       <c r="H364" s="1" t="s">
         <v>100</v>
       </c>
@@ -23763,7 +23738,7 @@
       <c r="F365" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G365" s="19"/>
+      <c r="G365" s="18"/>
       <c r="H365" s="1" t="s">
         <v>26</v>
       </c>
@@ -23794,7 +23769,7 @@
       <c r="F366" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G366" s="22" t="s">
+      <c r="G366" s="21" t="s">
         <v>1490</v>
       </c>
       <c r="H366" s="1" t="s">
@@ -23827,7 +23802,7 @@
       <c r="F367" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G367" s="19"/>
+      <c r="G367" s="18"/>
       <c r="H367" s="1" t="s">
         <v>26</v>
       </c>
@@ -23858,7 +23833,7 @@
       <c r="F368" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G368" s="19" t="s">
+      <c r="G368" s="18" t="s">
         <v>1497</v>
       </c>
       <c r="H368" s="1" t="s">
@@ -23891,7 +23866,7 @@
       <c r="F369" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G369" s="19" t="s">
+      <c r="G369" s="18" t="s">
         <v>1499</v>
       </c>
       <c r="H369" s="1" t="s">
@@ -23924,7 +23899,7 @@
       <c r="F370" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G370" s="19" t="s">
+      <c r="G370" s="18" t="s">
         <v>1501</v>
       </c>
       <c r="H370" s="1" t="s">
@@ -23957,7 +23932,7 @@
       <c r="F371" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G371" s="19" t="s">
+      <c r="G371" s="18" t="s">
         <v>1506</v>
       </c>
       <c r="H371" s="1" t="s">
@@ -23990,7 +23965,7 @@
       <c r="F372" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G372" s="19" t="s">
+      <c r="G372" s="18" t="s">
         <v>1508</v>
       </c>
       <c r="H372" s="1" t="s">
@@ -24023,7 +23998,7 @@
       <c r="F373" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G373" s="19" t="s">
+      <c r="G373" s="18" t="s">
         <v>1510</v>
       </c>
       <c r="H373" s="1" t="s">
@@ -24056,7 +24031,7 @@
       <c r="F374" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G374" s="19"/>
+      <c r="G374" s="18"/>
       <c r="H374" s="1" t="s">
         <v>26</v>
       </c>
@@ -24087,7 +24062,7 @@
       <c r="F375" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G375" s="19"/>
+      <c r="G375" s="18"/>
       <c r="H375" s="1" t="s">
         <v>26</v>
       </c>
@@ -24118,7 +24093,7 @@
       <c r="F376" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G376" s="19" t="s">
+      <c r="G376" s="18" t="s">
         <v>1519</v>
       </c>
       <c r="H376" s="1" t="s">
@@ -24151,7 +24126,7 @@
       <c r="F377" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G377" s="19" t="s">
+      <c r="G377" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="H377" s="8" t="s">
@@ -24184,7 +24159,7 @@
       <c r="F378" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G378" s="19"/>
+      <c r="G378" s="18"/>
       <c r="H378" s="1" t="s">
         <v>26</v>
       </c>
@@ -24215,7 +24190,7 @@
       <c r="F379" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G379" s="19" t="s">
+      <c r="G379" s="18" t="s">
         <v>1531</v>
       </c>
       <c r="H379" s="1" t="s">
@@ -24248,7 +24223,7 @@
       <c r="F380" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G380" s="22" t="s">
+      <c r="G380" s="21" t="s">
         <v>1535</v>
       </c>
       <c r="H380" s="1" t="s">
@@ -24281,7 +24256,7 @@
       <c r="F381" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G381" s="19" t="s">
+      <c r="G381" s="18" t="s">
         <v>1540</v>
       </c>
       <c r="H381" s="1" t="s">
@@ -24314,7 +24289,7 @@
       <c r="F382" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G382" s="19" t="s">
+      <c r="G382" s="18" t="s">
         <v>1541</v>
       </c>
       <c r="H382" s="1" t="s">
@@ -24347,7 +24322,7 @@
       <c r="F383" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G383" s="19" t="s">
+      <c r="G383" s="18" t="s">
         <v>1546</v>
       </c>
       <c r="H383" s="1" t="s">
@@ -24380,7 +24355,7 @@
       <c r="F384" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G384" s="19" t="s">
+      <c r="G384" s="18" t="s">
         <v>1551</v>
       </c>
       <c r="H384" s="1" t="s">
@@ -24413,7 +24388,7 @@
       <c r="F385" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G385" s="19" t="s">
+      <c r="G385" s="18" t="s">
         <v>1211</v>
       </c>
       <c r="H385" s="1" t="s">
@@ -24446,7 +24421,7 @@
       <c r="F386" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G386" s="19" t="s">
+      <c r="G386" s="18" t="s">
         <v>1559</v>
       </c>
       <c r="H386" s="1" t="s">
@@ -24479,7 +24454,7 @@
       <c r="F387" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G387" s="19" t="s">
+      <c r="G387" s="18" t="s">
         <v>1080</v>
       </c>
       <c r="H387" s="1" t="s">
@@ -24512,7 +24487,7 @@
       <c r="F388" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G388" s="19" t="s">
+      <c r="G388" s="18" t="s">
         <v>1567</v>
       </c>
       <c r="H388" s="1" t="s">
@@ -24545,7 +24520,7 @@
       <c r="F389" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G389" s="19" t="s">
+      <c r="G389" s="18" t="s">
         <v>1568</v>
       </c>
       <c r="H389" s="1" t="s">
@@ -24578,7 +24553,7 @@
       <c r="F390" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G390" s="19" t="s">
+      <c r="G390" s="18" t="s">
         <v>1572</v>
       </c>
       <c r="H390" s="1" t="s">
@@ -24611,7 +24586,7 @@
       <c r="F391" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G391" s="19" t="s">
+      <c r="G391" s="18" t="s">
         <v>1068</v>
       </c>
       <c r="H391" s="1" t="s">
@@ -24644,7 +24619,7 @@
       <c r="F392" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G392" s="19" t="s">
+      <c r="G392" s="18" t="s">
         <v>1577</v>
       </c>
       <c r="H392" s="1" t="s">
@@ -24677,7 +24652,7 @@
       <c r="F393" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G393" s="19" t="s">
+      <c r="G393" s="18" t="s">
         <v>276</v>
       </c>
       <c r="H393" s="1" t="s">
@@ -24710,7 +24685,7 @@
       <c r="F394" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G394" s="19" t="s">
+      <c r="G394" s="18" t="s">
         <v>286</v>
       </c>
       <c r="H394" s="1" t="s">
@@ -24743,7 +24718,7 @@
       <c r="F395" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G395" s="19" t="s">
+      <c r="G395" s="18" t="s">
         <v>1583</v>
       </c>
       <c r="H395" s="1" t="s">
@@ -24776,7 +24751,7 @@
       <c r="F396" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G396" s="19" t="s">
+      <c r="G396" s="18" t="s">
         <v>1587</v>
       </c>
       <c r="H396" s="1" t="s">
@@ -24809,7 +24784,7 @@
       <c r="F397" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G397" s="22" t="s">
+      <c r="G397" s="21" t="s">
         <v>1590</v>
       </c>
       <c r="H397" s="1" t="s">
@@ -24842,7 +24817,7 @@
       <c r="F398" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="19" t="s">
+      <c r="G398" s="18" t="s">
         <v>1593</v>
       </c>
       <c r="H398" s="1" t="s">
@@ -24875,7 +24850,7 @@
       <c r="F399" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G399" s="19" t="s">
+      <c r="G399" s="18" t="s">
         <v>1598</v>
       </c>
       <c r="H399" s="1" t="s">
@@ -24908,7 +24883,7 @@
       <c r="F400" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G400" s="19" t="s">
+      <c r="G400" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="H400" s="1" t="s">
@@ -24941,7 +24916,7 @@
       <c r="F401" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G401" s="22" t="s">
+      <c r="G401" s="21" t="s">
         <v>1604</v>
       </c>
       <c r="H401" s="1" t="s">
@@ -24974,7 +24949,7 @@
       <c r="F402" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G402" s="22" t="s">
+      <c r="G402" s="21" t="s">
         <v>1608</v>
       </c>
       <c r="H402" s="1" t="s">
@@ -25007,7 +24982,7 @@
       <c r="F403" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G403" s="19" t="s">
+      <c r="G403" s="18" t="s">
         <v>1610</v>
       </c>
       <c r="H403" s="1" t="s">
@@ -25040,7 +25015,7 @@
       <c r="F404" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G404" s="19" t="s">
+      <c r="G404" s="18" t="s">
         <v>1613</v>
       </c>
       <c r="H404" s="1" t="s">
@@ -25073,7 +25048,7 @@
       <c r="F405" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G405" s="19" t="s">
+      <c r="G405" s="18" t="s">
         <v>1616</v>
       </c>
       <c r="H405" s="1" t="s">
@@ -25106,7 +25081,7 @@
       <c r="F406" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G406" s="19" t="s">
+      <c r="G406" s="18" t="s">
         <v>1620</v>
       </c>
       <c r="H406" s="1" t="s">
@@ -25139,7 +25114,7 @@
       <c r="F407" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G407" s="19" t="s">
+      <c r="G407" s="18" t="s">
         <v>1624</v>
       </c>
       <c r="H407" s="1" t="s">
@@ -25172,7 +25147,7 @@
       <c r="F408" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G408" s="19" t="s">
+      <c r="G408" s="18" t="s">
         <v>1629</v>
       </c>
       <c r="H408" s="1" t="s">
@@ -25205,7 +25180,7 @@
       <c r="F409" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G409" s="20" t="s">
+      <c r="G409" s="19" t="s">
         <v>1630</v>
       </c>
       <c r="H409" s="1" t="s">
@@ -25238,7 +25213,7 @@
       <c r="F410" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G410" s="20" t="s">
+      <c r="G410" s="19" t="s">
         <v>1634</v>
       </c>
       <c r="H410" s="1" t="s">
@@ -25271,7 +25246,7 @@
       <c r="F411" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G411" s="20" t="s">
+      <c r="G411" s="19" t="s">
         <v>1638</v>
       </c>
       <c r="H411" s="1" t="s">
@@ -25304,7 +25279,7 @@
       <c r="F412" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G412" s="20" t="s">
+      <c r="G412" s="19" t="s">
         <v>1643</v>
       </c>
       <c r="H412" s="1" t="s">
@@ -25337,7 +25312,7 @@
       <c r="F413" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G413" s="20" t="s">
+      <c r="G413" s="19" t="s">
         <v>1643</v>
       </c>
       <c r="H413" s="1" t="s">
@@ -25370,7 +25345,7 @@
       <c r="F414" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G414" s="19"/>
+      <c r="G414" s="18"/>
       <c r="H414" s="1" t="s">
         <v>105</v>
       </c>
@@ -25401,7 +25376,7 @@
       <c r="F415" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G415" s="19"/>
+      <c r="G415" s="18"/>
       <c r="H415" s="1" t="s">
         <v>26</v>
       </c>
@@ -25432,7 +25407,7 @@
       <c r="F416" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G416" s="19"/>
+      <c r="G416" s="18"/>
       <c r="H416" s="1" t="s">
         <v>40</v>
       </c>
@@ -25463,7 +25438,7 @@
       <c r="F417" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G417" s="19"/>
+      <c r="G417" s="18"/>
       <c r="H417" s="1" t="s">
         <v>40</v>
       </c>
@@ -25494,7 +25469,7 @@
       <c r="F418" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G418" s="19"/>
+      <c r="G418" s="18"/>
       <c r="H418" s="1" t="s">
         <v>26</v>
       </c>
@@ -25525,7 +25500,7 @@
       <c r="F419" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G419" s="19"/>
+      <c r="G419" s="18"/>
       <c r="H419" s="1" t="s">
         <v>206</v>
       </c>
@@ -25556,7 +25531,7 @@
       <c r="F420" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G420" s="19"/>
+      <c r="G420" s="18"/>
       <c r="H420" s="1" t="s">
         <v>26</v>
       </c>
@@ -25587,7 +25562,7 @@
       <c r="F421" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G421" s="19"/>
+      <c r="G421" s="18"/>
       <c r="H421" s="1" t="s">
         <v>105</v>
       </c>
@@ -25618,7 +25593,7 @@
       <c r="F422" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G422" s="20" t="s">
+      <c r="G422" s="19" t="s">
         <v>1677</v>
       </c>
       <c r="H422" s="1" t="s">
@@ -25651,7 +25626,7 @@
       <c r="F423" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G423" s="19"/>
+      <c r="G423" s="18"/>
       <c r="H423" s="1" t="s">
         <v>40</v>
       </c>
@@ -25682,7 +25657,7 @@
       <c r="F424" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G424" s="23" t="s">
+      <c r="G424" s="22" t="s">
         <v>1684</v>
       </c>
       <c r="H424" s="1" t="s">
@@ -25715,7 +25690,7 @@
       <c r="F425" s="6" t="s">
         <v>1688</v>
       </c>
-      <c r="G425" s="20" t="s">
+      <c r="G425" s="19" t="s">
         <v>1687</v>
       </c>
       <c r="H425" s="1" t="s">
@@ -25748,7 +25723,7 @@
       <c r="F426" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G426" s="19"/>
+      <c r="G426" s="18"/>
       <c r="H426" s="1" t="s">
         <v>26</v>
       </c>
@@ -25779,7 +25754,7 @@
       <c r="F427" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G427" s="20" t="s">
+      <c r="G427" s="19" t="s">
         <v>1695</v>
       </c>
       <c r="H427" s="1" t="s">
@@ -25812,7 +25787,7 @@
       <c r="F428" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G428" s="19"/>
+      <c r="G428" s="18"/>
       <c r="H428" s="1" t="s">
         <v>14</v>
       </c>
@@ -25843,7 +25818,7 @@
       <c r="F429" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G429" s="19"/>
+      <c r="G429" s="18"/>
       <c r="H429" s="1" t="s">
         <v>105</v>
       </c>
@@ -25874,7 +25849,7 @@
       <c r="F430" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G430" s="19"/>
+      <c r="G430" s="18"/>
       <c r="H430" s="1" t="s">
         <v>26</v>
       </c>
@@ -25905,7 +25880,7 @@
       <c r="F431" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G431" s="20" t="s">
+      <c r="G431" s="19" t="s">
         <v>1707</v>
       </c>
       <c r="H431" s="1" t="s">
@@ -25938,7 +25913,7 @@
       <c r="F432" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G432" s="20" t="s">
+      <c r="G432" s="19" t="s">
         <v>1710</v>
       </c>
       <c r="H432" s="1" t="s">
@@ -25971,7 +25946,7 @@
       <c r="F433" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G433" s="20" t="s">
+      <c r="G433" s="19" t="s">
         <v>1713</v>
       </c>
       <c r="H433" s="1" t="s">
@@ -26004,7 +25979,7 @@
       <c r="F434" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G434" s="19"/>
+      <c r="G434" s="18"/>
       <c r="H434" s="1" t="s">
         <v>105</v>
       </c>
@@ -26035,7 +26010,7 @@
       <c r="F435" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G435" s="20" t="s">
+      <c r="G435" s="19" t="s">
         <v>1720</v>
       </c>
       <c r="H435" s="1" t="s">
@@ -26068,7 +26043,7 @@
       <c r="F436" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G436" s="20" t="s">
+      <c r="G436" s="19" t="s">
         <v>1724</v>
       </c>
       <c r="H436" s="1" t="s">
@@ -26101,7 +26076,7 @@
       <c r="F437" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G437" s="20" t="s">
+      <c r="G437" s="19" t="s">
         <v>1726</v>
       </c>
       <c r="H437" s="1" t="s">
@@ -26134,7 +26109,7 @@
       <c r="F438" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G438" s="20" t="s">
+      <c r="G438" s="19" t="s">
         <v>1730</v>
       </c>
       <c r="H438" s="1" t="s">
@@ -26167,7 +26142,7 @@
       <c r="F439" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G439" s="20" t="s">
+      <c r="G439" s="19" t="s">
         <v>1733</v>
       </c>
       <c r="H439" s="1" t="s">
@@ -26200,7 +26175,7 @@
       <c r="F440" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G440" s="20" t="s">
+      <c r="G440" s="19" t="s">
         <v>1736</v>
       </c>
       <c r="H440" s="1" t="s">
@@ -26233,7 +26208,7 @@
       <c r="F441" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G441" s="20" t="s">
+      <c r="G441" s="19" t="s">
         <v>1739</v>
       </c>
       <c r="H441" s="1" t="s">
@@ -26266,7 +26241,7 @@
       <c r="F442" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G442" s="20" t="s">
+      <c r="G442" s="19" t="s">
         <v>1742</v>
       </c>
       <c r="H442" s="1" t="s">
@@ -26299,7 +26274,7 @@
       <c r="F443" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G443" s="20" t="s">
+      <c r="G443" s="19" t="s">
         <v>1745</v>
       </c>
       <c r="H443" s="1" t="s">
@@ -26332,7 +26307,7 @@
       <c r="F444" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G444" s="19" t="s">
+      <c r="G444" s="18" t="s">
         <v>1748</v>
       </c>
       <c r="H444" s="1" t="s">
@@ -26365,7 +26340,7 @@
       <c r="F445" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G445" s="20" t="s">
+      <c r="G445" s="19" t="s">
         <v>1750</v>
       </c>
       <c r="H445" s="1" t="s">
@@ -26398,7 +26373,7 @@
       <c r="F446" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G446" s="20" t="s">
+      <c r="G446" s="19" t="s">
         <v>1753</v>
       </c>
       <c r="H446" s="1" t="s">
@@ -26431,7 +26406,7 @@
       <c r="F447" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G447" s="19"/>
+      <c r="G447" s="18"/>
       <c r="H447" s="1" t="s">
         <v>40</v>
       </c>
@@ -26462,7 +26437,7 @@
       <c r="F448" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G448" s="19"/>
+      <c r="G448" s="18"/>
       <c r="H448" s="1" t="s">
         <v>206</v>
       </c>
@@ -26493,7 +26468,7 @@
       <c r="F449" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G449" s="19"/>
+      <c r="G449" s="18"/>
       <c r="H449" s="1" t="s">
         <v>105</v>
       </c>
@@ -26524,7 +26499,7 @@
       <c r="F450" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G450" s="19"/>
+      <c r="G450" s="18"/>
       <c r="H450" s="1" t="s">
         <v>119</v>
       </c>
@@ -26555,7 +26530,7 @@
       <c r="F451" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G451" s="19"/>
+      <c r="G451" s="18"/>
       <c r="H451" s="1" t="s">
         <v>26</v>
       </c>
@@ -26586,7 +26561,7 @@
       <c r="F452" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G452" s="20" t="s">
+      <c r="G452" s="19" t="s">
         <v>1769</v>
       </c>
       <c r="H452" s="1" t="s">
@@ -26619,7 +26594,7 @@
       <c r="F453" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G453" s="19"/>
+      <c r="G453" s="18"/>
       <c r="H453" s="1" t="s">
         <v>14</v>
       </c>
@@ -26650,7 +26625,7 @@
       <c r="F454" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G454" s="19"/>
+      <c r="G454" s="18"/>
       <c r="H454" s="1" t="s">
         <v>7</v>
       </c>
@@ -26681,7 +26656,7 @@
       <c r="F455" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G455" s="19"/>
+      <c r="G455" s="18"/>
       <c r="H455" s="1" t="s">
         <v>7</v>
       </c>
@@ -26712,7 +26687,7 @@
       <c r="F456" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G456" s="20" t="s">
+      <c r="G456" s="19" t="s">
         <v>1781</v>
       </c>
       <c r="H456" s="1" t="s">
@@ -26745,7 +26720,7 @@
       <c r="F457" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G457" s="19"/>
+      <c r="G457" s="18"/>
       <c r="H457" s="1" t="s">
         <v>119</v>
       </c>
@@ -26776,7 +26751,7 @@
       <c r="F458" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G458" s="19"/>
+      <c r="G458" s="18"/>
       <c r="H458" s="1" t="s">
         <v>26</v>
       </c>
@@ -26807,7 +26782,7 @@
       <c r="F459" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G459" s="19"/>
+      <c r="G459" s="18"/>
       <c r="H459" s="1" t="s">
         <v>100</v>
       </c>
@@ -26838,7 +26813,7 @@
       <c r="F460" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G460" s="19"/>
+      <c r="G460" s="18"/>
       <c r="H460" s="1" t="s">
         <v>7</v>
       </c>
@@ -26869,7 +26844,7 @@
       <c r="F461" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G461" s="19"/>
+      <c r="G461" s="18"/>
       <c r="H461" s="1" t="s">
         <v>100</v>
       </c>
@@ -26900,7 +26875,7 @@
       <c r="F462" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G462" s="19"/>
+      <c r="G462" s="18"/>
       <c r="H462" s="1" t="s">
         <v>26</v>
       </c>
@@ -26931,7 +26906,7 @@
       <c r="F463" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G463" s="19"/>
+      <c r="G463" s="18"/>
       <c r="H463" s="1" t="s">
         <v>100</v>
       </c>
@@ -26962,7 +26937,7 @@
       <c r="F464" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G464" s="19"/>
+      <c r="G464" s="18"/>
       <c r="H464" s="1" t="s">
         <v>100</v>
       </c>
@@ -26993,7 +26968,7 @@
       <c r="F465" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G465" s="19"/>
+      <c r="G465" s="18"/>
       <c r="H465" s="1" t="s">
         <v>40</v>
       </c>
@@ -27024,7 +26999,7 @@
       <c r="F466" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G466" s="19"/>
+      <c r="G466" s="18"/>
       <c r="H466" s="1" t="s">
         <v>100</v>
       </c>
@@ -27055,7 +27030,7 @@
       <c r="F467" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G467" s="19"/>
+      <c r="G467" s="18"/>
       <c r="H467" s="1" t="s">
         <v>40</v>
       </c>
@@ -27086,7 +27061,7 @@
       <c r="F468" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G468" s="19"/>
+      <c r="G468" s="18"/>
       <c r="H468" s="1" t="s">
         <v>40</v>
       </c>
@@ -27117,7 +27092,7 @@
       <c r="F469" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G469" s="20" t="s">
+      <c r="G469" s="19" t="s">
         <v>1816</v>
       </c>
       <c r="H469" s="1" t="s">
@@ -27150,7 +27125,7 @@
       <c r="F470" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G470" s="19"/>
+      <c r="G470" s="18"/>
       <c r="H470" s="1" t="s">
         <v>40</v>
       </c>
@@ -27181,7 +27156,7 @@
       <c r="F471" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G471" s="19"/>
+      <c r="G471" s="18"/>
       <c r="H471" s="1" t="s">
         <v>226</v>
       </c>
@@ -27212,7 +27187,7 @@
       <c r="F472" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G472" s="19" t="s">
+      <c r="G472" s="18" t="s">
         <v>1826</v>
       </c>
       <c r="H472" s="1" t="s">
@@ -27245,7 +27220,7 @@
       <c r="F473" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G473" s="20" t="s">
+      <c r="G473" s="19" t="s">
         <v>1830</v>
       </c>
       <c r="H473" s="1" t="s">
@@ -27278,7 +27253,7 @@
       <c r="F474" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G474" s="20" t="s">
+      <c r="G474" s="19" t="s">
         <v>1211</v>
       </c>
       <c r="H474" s="1" t="s">
@@ -27311,7 +27286,7 @@
       <c r="F475" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G475" s="20" t="s">
+      <c r="G475" s="19" t="s">
         <v>1835</v>
       </c>
       <c r="H475" s="1" t="s">
@@ -27344,7 +27319,7 @@
       <c r="F476" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G476" s="20" t="s">
+      <c r="G476" s="19" t="s">
         <v>1840</v>
       </c>
       <c r="H476" s="1" t="s">
@@ -27377,7 +27352,7 @@
       <c r="F477" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G477" s="24" t="s">
+      <c r="G477" s="23" t="s">
         <v>1844</v>
       </c>
       <c r="H477" s="1" t="s">
@@ -27410,7 +27385,7 @@
       <c r="F478" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G478" s="20" t="s">
+      <c r="G478" s="19" t="s">
         <v>1848</v>
       </c>
       <c r="H478" s="1" t="s">
@@ -27443,7 +27418,7 @@
       <c r="F479" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G479" s="20" t="s">
+      <c r="G479" s="19" t="s">
         <v>1852</v>
       </c>
       <c r="H479" s="1" t="s">
@@ -27476,7 +27451,7 @@
       <c r="F480" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G480" s="20" t="s">
+      <c r="G480" s="19" t="s">
         <v>1854</v>
       </c>
       <c r="H480" s="1" t="s">
@@ -27509,7 +27484,7 @@
       <c r="F481" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G481" s="20" t="s">
+      <c r="G481" s="19" t="s">
         <v>1859</v>
       </c>
       <c r="H481" s="1" t="s">
@@ -27542,7 +27517,7 @@
       <c r="F482" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G482" s="20" t="s">
+      <c r="G482" s="19" t="s">
         <v>1863</v>
       </c>
       <c r="H482" s="1" t="s">
@@ -27575,7 +27550,7 @@
       <c r="F483" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G483" s="20" t="s">
+      <c r="G483" s="19" t="s">
         <v>1867</v>
       </c>
       <c r="H483" s="1" t="s">
@@ -27608,7 +27583,7 @@
       <c r="F484" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G484" s="20" t="s">
+      <c r="G484" s="19" t="s">
         <v>1870</v>
       </c>
       <c r="H484" s="1" t="s">
@@ -27641,7 +27616,7 @@
       <c r="F485" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G485" s="20" t="s">
+      <c r="G485" s="19" t="s">
         <v>1872</v>
       </c>
       <c r="H485" s="1" t="s">
@@ -27674,7 +27649,7 @@
       <c r="F486" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G486" s="20" t="s">
+      <c r="G486" s="19" t="s">
         <v>1875</v>
       </c>
       <c r="H486" s="1" t="s">
@@ -27707,7 +27682,7 @@
       <c r="F487" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G487" s="20" t="s">
+      <c r="G487" s="19" t="s">
         <v>1878</v>
       </c>
       <c r="H487" s="1" t="s">
@@ -27740,7 +27715,7 @@
       <c r="F488" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="G488" s="19"/>
+      <c r="G488" s="18"/>
       <c r="H488" s="1" t="s">
         <v>40</v>
       </c>
@@ -27771,7 +27746,7 @@
       <c r="F489" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G489" s="19"/>
+      <c r="G489" s="18"/>
       <c r="H489" s="1" t="s">
         <v>40</v>
       </c>
@@ -27802,7 +27777,7 @@
       <c r="F490" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G490" s="19"/>
+      <c r="G490" s="18"/>
       <c r="H490" s="1" t="s">
         <v>1888</v>
       </c>
@@ -27833,7 +27808,7 @@
       <c r="F491" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G491" s="19"/>
+      <c r="G491" s="18"/>
       <c r="H491" s="1" t="s">
         <v>40</v>
       </c>
@@ -27864,7 +27839,7 @@
       <c r="F492" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G492" s="20" t="s">
+      <c r="G492" s="19" t="s">
         <v>1894</v>
       </c>
       <c r="H492" s="1" t="s">
@@ -27897,7 +27872,7 @@
       <c r="F493" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G493" s="19" t="s">
+      <c r="G493" s="18" t="s">
         <v>1901</v>
       </c>
       <c r="H493" s="8" t="s">
@@ -27927,7 +27902,7 @@
       <c r="F494" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G494" s="20" t="s">
+      <c r="G494" s="19" t="s">
         <v>1903</v>
       </c>
       <c r="H494" s="1" t="s">
@@ -27960,7 +27935,7 @@
       <c r="F495" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G495" s="20" t="s">
+      <c r="G495" s="19" t="s">
         <v>1906</v>
       </c>
       <c r="H495" s="1" t="s">
@@ -27993,7 +27968,7 @@
       <c r="F496" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G496" s="20" t="s">
+      <c r="G496" s="19" t="s">
         <v>1910</v>
       </c>
       <c r="H496" s="1" t="s">
@@ -28026,7 +28001,7 @@
       <c r="F497" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G497" s="20" t="s">
+      <c r="G497" s="19" t="s">
         <v>1913</v>
       </c>
       <c r="H497" s="1" t="s">
@@ -28059,7 +28034,7 @@
       <c r="F498" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G498" s="19"/>
+      <c r="G498" s="18"/>
       <c r="H498" s="1" t="s">
         <v>7</v>
       </c>
@@ -28090,7 +28065,7 @@
       <c r="F499" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G499" s="19"/>
+      <c r="G499" s="18"/>
       <c r="H499" s="1" t="s">
         <v>1920</v>
       </c>
@@ -28121,7 +28096,7 @@
       <c r="F500" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G500" s="19"/>
+      <c r="G500" s="18"/>
       <c r="H500" s="1" t="s">
         <v>66</v>
       </c>
@@ -28152,7 +28127,7 @@
       <c r="F501" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G501" s="20" t="s">
+      <c r="G501" s="19" t="s">
         <v>1927</v>
       </c>
       <c r="H501" s="1" t="s">
@@ -28185,7 +28160,7 @@
       <c r="F502" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G502" s="19"/>
+      <c r="G502" s="18"/>
       <c r="H502" s="1" t="s">
         <v>66</v>
       </c>
@@ -28216,7 +28191,7 @@
       <c r="F503" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G503" s="19"/>
+      <c r="G503" s="18"/>
       <c r="H503" s="1" t="s">
         <v>105</v>
       </c>
@@ -28247,7 +28222,7 @@
       <c r="F504" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G504" s="19"/>
+      <c r="G504" s="18"/>
       <c r="H504" s="1" t="s">
         <v>26</v>
       </c>
@@ -28278,7 +28253,7 @@
       <c r="F505" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G505" s="20" t="s">
+      <c r="G505" s="19" t="s">
         <v>1942</v>
       </c>
       <c r="H505" s="1" t="s">
@@ -28311,7 +28286,7 @@
       <c r="F506" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G506" s="19"/>
+      <c r="G506" s="18"/>
       <c r="H506" s="1" t="s">
         <v>40</v>
       </c>
@@ -28342,7 +28317,7 @@
       <c r="F507" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G507" s="19"/>
+      <c r="G507" s="18"/>
       <c r="H507" s="1" t="s">
         <v>105</v>
       </c>
@@ -28373,7 +28348,7 @@
       <c r="F508" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G508" s="19"/>
+      <c r="G508" s="18"/>
       <c r="H508" s="1" t="s">
         <v>40</v>
       </c>
@@ -28404,7 +28379,7 @@
       <c r="F509" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G509" s="19"/>
+      <c r="G509" s="18"/>
       <c r="H509" s="1" t="s">
         <v>7</v>
       </c>
@@ -28435,7 +28410,7 @@
       <c r="F510" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G510" s="19"/>
+      <c r="G510" s="18"/>
       <c r="H510" s="1" t="s">
         <v>119</v>
       </c>
@@ -28466,7 +28441,7 @@
       <c r="F511" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G511" s="19"/>
+      <c r="G511" s="18"/>
       <c r="H511" s="1" t="s">
         <v>100</v>
       </c>
@@ -28497,7 +28472,7 @@
       <c r="F512" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G512" s="19"/>
+      <c r="G512" s="18"/>
       <c r="H512" s="1" t="s">
         <v>66</v>
       </c>
@@ -28528,7 +28503,7 @@
       <c r="F513" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G513" s="19"/>
+      <c r="G513" s="18"/>
       <c r="H513" s="1" t="s">
         <v>66</v>
       </c>
@@ -28559,7 +28534,7 @@
       <c r="F514" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G514" s="20" t="s">
+      <c r="G514" s="19" t="s">
         <v>1976</v>
       </c>
       <c r="H514" s="1" t="s">
@@ -28592,7 +28567,7 @@
       <c r="F515" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G515" s="20" t="s">
+      <c r="G515" s="19" t="s">
         <v>1972</v>
       </c>
       <c r="H515" s="1" t="s">
@@ -28625,7 +28600,7 @@
       <c r="F516" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G516" s="20" t="s">
+      <c r="G516" s="19" t="s">
         <v>1983</v>
       </c>
       <c r="H516" s="1" t="s">
@@ -28658,7 +28633,7 @@
       <c r="F517" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="20" t="s">
+      <c r="G517" s="19" t="s">
         <v>1980</v>
       </c>
       <c r="H517" s="1" t="s">
@@ -28691,7 +28666,7 @@
       <c r="F518" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G518" s="20" t="s">
+      <c r="G518" s="19" t="s">
         <v>1994</v>
       </c>
       <c r="H518" s="1" t="s">
@@ -28724,7 +28699,7 @@
       <c r="F519" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G519" s="24" t="s">
+      <c r="G519" s="23" t="s">
         <v>1990</v>
       </c>
       <c r="H519" s="1" t="s">
@@ -28757,7 +28732,7 @@
       <c r="F520" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G520" s="19"/>
+      <c r="G520" s="18"/>
       <c r="H520" s="1" t="s">
         <v>66</v>
       </c>
@@ -28788,7 +28763,7 @@
       <c r="F521" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G521" s="19"/>
+      <c r="G521" s="18"/>
       <c r="H521" s="1" t="s">
         <v>40</v>
       </c>
@@ -28819,7 +28794,7 @@
       <c r="F522" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G522" s="20" t="s">
+      <c r="G522" s="19" t="s">
         <v>1997</v>
       </c>
       <c r="H522" s="1" t="s">
@@ -28852,7 +28827,7 @@
       <c r="F523" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G523" s="19"/>
+      <c r="G523" s="18"/>
       <c r="H523" s="1" t="s">
         <v>26</v>
       </c>
@@ -28883,7 +28858,7 @@
       <c r="F524" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G524" s="20" t="s">
+      <c r="G524" s="19" t="s">
         <v>2010</v>
       </c>
       <c r="H524" s="1" t="s">
@@ -28916,7 +28891,7 @@
       <c r="F525" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G525" s="19"/>
+      <c r="G525" s="18"/>
       <c r="H525" s="1" t="s">
         <v>2008</v>
       </c>
@@ -28947,7 +28922,7 @@
       <c r="F526" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G526" s="19" t="s">
+      <c r="G526" s="18" t="s">
         <v>2017</v>
       </c>
       <c r="H526" s="1" t="s">
@@ -28980,7 +28955,7 @@
       <c r="F527" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G527" s="19" t="s">
+      <c r="G527" s="18" t="s">
         <v>2018</v>
       </c>
       <c r="H527" s="1" t="s">
@@ -29013,7 +28988,7 @@
       <c r="F528" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G528" s="19" t="s">
+      <c r="G528" s="18" t="s">
         <v>2022</v>
       </c>
       <c r="H528" s="1" t="s">
@@ -29046,7 +29021,7 @@
       <c r="F529" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G529" s="19" t="s">
+      <c r="G529" s="18" t="s">
         <v>2026</v>
       </c>
       <c r="H529" s="1" t="s">
@@ -29079,7 +29054,7 @@
       <c r="F530" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G530" s="19" t="s">
+      <c r="G530" s="18" t="s">
         <v>2030</v>
       </c>
       <c r="H530" s="1" t="s">
@@ -29112,7 +29087,7 @@
       <c r="F531" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G531" s="19" t="s">
+      <c r="G531" s="18" t="s">
         <v>2037</v>
       </c>
       <c r="H531" s="1" t="s">
@@ -29145,7 +29120,7 @@
       <c r="F532" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G532" s="19" t="s">
+      <c r="G532" s="18" t="s">
         <v>2038</v>
       </c>
       <c r="H532" s="1" t="s">
@@ -29178,7 +29153,7 @@
       <c r="F533" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G533" s="19" t="s">
+      <c r="G533" s="18" t="s">
         <v>2042</v>
       </c>
       <c r="H533" s="1" t="s">
@@ -29211,7 +29186,7 @@
       <c r="F534" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G534" s="19" t="s">
+      <c r="G534" s="18" t="s">
         <v>2046</v>
       </c>
       <c r="H534" s="1" t="s">
@@ -29244,7 +29219,7 @@
       <c r="F535" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G535" s="19" t="s">
+      <c r="G535" s="18" t="s">
         <v>2049</v>
       </c>
       <c r="H535" s="1" t="s">
@@ -29277,7 +29252,7 @@
       <c r="F536" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G536" s="19" t="s">
+      <c r="G536" s="18" t="s">
         <v>2056</v>
       </c>
       <c r="H536" s="1" t="s">
@@ -29310,7 +29285,7 @@
       <c r="F537" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G537" s="19" t="s">
+      <c r="G537" s="18" t="s">
         <v>2057</v>
       </c>
       <c r="H537" s="1" t="s">
@@ -29343,7 +29318,7 @@
       <c r="F538" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G538" s="19" t="s">
+      <c r="G538" s="18" t="s">
         <v>2064</v>
       </c>
       <c r="H538" s="1" t="s">
@@ -29376,7 +29351,7 @@
       <c r="F539" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G539" s="19" t="s">
+      <c r="G539" s="18" t="s">
         <v>2065</v>
       </c>
       <c r="H539" s="1" t="s">
@@ -29409,7 +29384,7 @@
       <c r="F540" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G540" s="19" t="s">
+      <c r="G540" s="18" t="s">
         <v>2069</v>
       </c>
       <c r="H540" s="1" t="s">
@@ -29442,7 +29417,7 @@
       <c r="F541" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G541" s="19" t="s">
+      <c r="G541" s="18" t="s">
         <v>2073</v>
       </c>
       <c r="H541" s="1" t="s">
@@ -29475,7 +29450,7 @@
       <c r="F542" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G542" s="19" t="s">
+      <c r="G542" s="18" t="s">
         <v>457</v>
       </c>
       <c r="H542" s="1" t="s">
@@ -29508,7 +29483,7 @@
       <c r="F543" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G543" s="19" t="s">
+      <c r="G543" s="18" t="s">
         <v>2081</v>
       </c>
       <c r="H543" s="1" t="s">
@@ -29541,7 +29516,7 @@
       <c r="F544" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G544" s="19" t="s">
+      <c r="G544" s="18" t="s">
         <v>2083</v>
       </c>
       <c r="H544" s="1" t="s">
@@ -29574,7 +29549,7 @@
       <c r="F545" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G545" s="20" t="s">
+      <c r="G545" s="19" t="s">
         <v>2087</v>
       </c>
       <c r="H545" s="1" t="s">
@@ -29607,7 +29582,7 @@
       <c r="F546" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G546" s="24" t="s">
+      <c r="G546" s="23" t="s">
         <v>2091</v>
       </c>
       <c r="H546" s="1" t="s">
@@ -29640,7 +29615,7 @@
       <c r="F547" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G547" s="20" t="s">
+      <c r="G547" s="19" t="s">
         <v>2094</v>
       </c>
       <c r="H547" s="1" t="s">
@@ -29673,7 +29648,7 @@
       <c r="F548" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G548" s="19" t="s">
+      <c r="G548" s="18" t="s">
         <v>2097</v>
       </c>
       <c r="H548" s="1" t="s">
@@ -29706,7 +29681,7 @@
       <c r="F549" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G549" s="20" t="s">
+      <c r="G549" s="19" t="s">
         <v>2101</v>
       </c>
       <c r="H549" s="1" t="s">
@@ -29739,7 +29714,7 @@
       <c r="F550" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G550" s="20" t="s">
+      <c r="G550" s="19" t="s">
         <v>2104</v>
       </c>
       <c r="H550" s="1" t="s">
@@ -29772,7 +29747,7 @@
       <c r="F551" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G551" s="19" t="s">
+      <c r="G551" s="18" t="s">
         <v>2107</v>
       </c>
       <c r="H551" s="1" t="s">
@@ -29805,7 +29780,7 @@
       <c r="F552" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G552" s="19" t="s">
+      <c r="G552" s="18" t="s">
         <v>2112</v>
       </c>
       <c r="H552" s="1" t="s">
@@ -29838,7 +29813,7 @@
       <c r="F553" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G553" s="19" t="s">
+      <c r="G553" s="18" t="s">
         <v>2118</v>
       </c>
       <c r="H553" s="1" t="s">
@@ -29871,7 +29846,7 @@
       <c r="F554" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G554" s="19" t="s">
+      <c r="G554" s="18" t="s">
         <v>2119</v>
       </c>
       <c r="H554" s="1" t="s">
@@ -29904,7 +29879,7 @@
       <c r="F555" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G555" s="19" t="s">
+      <c r="G555" s="18" t="s">
         <v>2123</v>
       </c>
       <c r="H555" s="1" t="s">
@@ -29937,7 +29912,7 @@
       <c r="F556" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G556" s="19" t="s">
+      <c r="G556" s="18" t="s">
         <v>2128</v>
       </c>
       <c r="H556" s="1" t="s">
@@ -29970,7 +29945,7 @@
       <c r="F557" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G557" s="20" t="s">
+      <c r="G557" s="19" t="s">
         <v>2129</v>
       </c>
       <c r="H557" s="1" t="s">
@@ -30003,7 +29978,7 @@
       <c r="F558" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G558" s="19" t="s">
+      <c r="G558" s="18" t="s">
         <v>2131</v>
       </c>
       <c r="H558" s="1" t="s">
@@ -30036,7 +30011,7 @@
       <c r="F559" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G559" s="19" t="s">
+      <c r="G559" s="18" t="s">
         <v>2134</v>
       </c>
       <c r="H559" s="1" t="s">
@@ -30069,7 +30044,7 @@
       <c r="F560" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G560" s="19" t="s">
+      <c r="G560" s="18" t="s">
         <v>2138</v>
       </c>
       <c r="H560" s="1" t="s">
@@ -30102,7 +30077,7 @@
       <c r="F561" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G561" s="19" t="s">
+      <c r="G561" s="18" t="s">
         <v>2142</v>
       </c>
       <c r="H561" s="1" t="s">
@@ -30135,7 +30110,7 @@
       <c r="F562" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G562" s="19" t="s">
+      <c r="G562" s="18" t="s">
         <v>2144</v>
       </c>
       <c r="H562" s="1" t="s">
@@ -30168,7 +30143,7 @@
       <c r="F563" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G563" s="20" t="s">
+      <c r="G563" s="19" t="s">
         <v>2150</v>
       </c>
       <c r="H563" s="1" t="s">
@@ -30201,7 +30176,7 @@
       <c r="F564" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G564" s="20" t="s">
+      <c r="G564" s="19" t="s">
         <v>2152</v>
       </c>
       <c r="H564" s="1" t="s">
@@ -30234,7 +30209,7 @@
       <c r="F565" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G565" s="20" t="s">
+      <c r="G565" s="19" t="s">
         <v>2156</v>
       </c>
       <c r="H565" s="1" t="s">
@@ -30267,7 +30242,7 @@
       <c r="F566" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G566" s="20" t="s">
+      <c r="G566" s="19" t="s">
         <v>2160</v>
       </c>
       <c r="H566" s="1" t="s">
@@ -30300,7 +30275,7 @@
       <c r="F567" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G567" s="20" t="s">
+      <c r="G567" s="19" t="s">
         <v>2163</v>
       </c>
       <c r="H567" s="1" t="s">
@@ -30333,7 +30308,7 @@
       <c r="F568" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G568" s="20" t="s">
+      <c r="G568" s="19" t="s">
         <v>2165</v>
       </c>
       <c r="H568" s="1" t="s">
@@ -30366,7 +30341,7 @@
       <c r="F569" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G569" s="20" t="s">
+      <c r="G569" s="19" t="s">
         <v>2167</v>
       </c>
       <c r="H569" s="1" t="s">
@@ -30399,7 +30374,7 @@
       <c r="F570" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G570" s="19" t="s">
+      <c r="G570" s="18" t="s">
         <v>2169</v>
       </c>
       <c r="H570" s="1" t="s">
@@ -30432,7 +30407,7 @@
       <c r="F571" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G571" s="19" t="s">
+      <c r="G571" s="18" t="s">
         <v>2173</v>
       </c>
       <c r="H571" s="1" t="s">
@@ -30465,7 +30440,7 @@
       <c r="F572" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G572" s="20" t="s">
+      <c r="G572" s="19" t="s">
         <v>2176</v>
       </c>
       <c r="H572" s="1" t="s">
@@ -30498,7 +30473,7 @@
       <c r="F573" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G573" s="20" t="s">
+      <c r="G573" s="19" t="s">
         <v>2179</v>
       </c>
       <c r="H573" s="1" t="s">
@@ -30531,7 +30506,7 @@
       <c r="F574" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G574" s="19" t="s">
+      <c r="G574" s="18" t="s">
         <v>2181</v>
       </c>
       <c r="H574" s="1" t="s">
@@ -30564,7 +30539,7 @@
       <c r="F575" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G575" s="19" t="s">
+      <c r="G575" s="18" t="s">
         <v>2183</v>
       </c>
       <c r="H575" s="1" t="s">
@@ -30597,7 +30572,7 @@
       <c r="F576" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G576" s="19" t="s">
+      <c r="G576" s="18" t="s">
         <v>2186</v>
       </c>
       <c r="H576" s="1" t="s">
@@ -30630,7 +30605,7 @@
       <c r="F577" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G577" s="19" t="s">
+      <c r="G577" s="18" t="s">
         <v>2189</v>
       </c>
       <c r="H577" s="1" t="s">
@@ -30663,7 +30638,7 @@
       <c r="F578" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G578" s="20" t="s">
+      <c r="G578" s="19" t="s">
         <v>2191</v>
       </c>
       <c r="H578" s="1" t="s">
@@ -30696,7 +30671,7 @@
       <c r="F579" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G579" s="19" t="s">
+      <c r="G579" s="18" t="s">
         <v>2193</v>
       </c>
       <c r="H579" s="1" t="s">
@@ -30729,7 +30704,7 @@
       <c r="F580" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G580" s="19" t="s">
+      <c r="G580" s="18" t="s">
         <v>2200</v>
       </c>
       <c r="H580" s="1" t="s">
@@ -30762,7 +30737,7 @@
       <c r="F581" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G581" s="19" t="s">
+      <c r="G581" s="18" t="s">
         <v>2201</v>
       </c>
       <c r="H581" s="1" t="s">
@@ -30795,7 +30770,7 @@
       <c r="F582" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G582" s="19" t="s">
+      <c r="G582" s="18" t="s">
         <v>2203</v>
       </c>
       <c r="H582" s="1" t="s">
@@ -30828,7 +30803,7 @@
       <c r="F583" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G583" s="19" t="s">
+      <c r="G583" s="18" t="s">
         <v>2207</v>
       </c>
       <c r="H583" s="1" t="s">
@@ -30864,7 +30839,7 @@
       <c r="F584" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G584" s="19" t="s">
+      <c r="G584" s="18" t="s">
         <v>2209</v>
       </c>
       <c r="H584" s="1" t="s">
@@ -30897,7 +30872,7 @@
       <c r="F585" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G585" s="20" t="s">
+      <c r="G585" s="19" t="s">
         <v>2212</v>
       </c>
       <c r="H585" s="1" t="s">
@@ -30930,7 +30905,7 @@
       <c r="F586" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G586" s="20" t="s">
+      <c r="G586" s="19" t="s">
         <v>2215</v>
       </c>
       <c r="H586" s="1" t="s">
@@ -30963,7 +30938,7 @@
       <c r="F587" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G587" s="20" t="s">
+      <c r="G587" s="19" t="s">
         <v>2218</v>
       </c>
       <c r="H587" s="1" t="s">
@@ -30996,7 +30971,7 @@
       <c r="F588" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G588" s="20" t="s">
+      <c r="G588" s="19" t="s">
         <v>2221</v>
       </c>
       <c r="H588" s="1" t="s">
@@ -31029,7 +31004,7 @@
       <c r="F589" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G589" s="20" t="s">
+      <c r="G589" s="19" t="s">
         <v>2224</v>
       </c>
       <c r="H589" s="1" t="s">
@@ -31062,7 +31037,7 @@
       <c r="F590" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G590" s="20" t="s">
+      <c r="G590" s="19" t="s">
         <v>2227</v>
       </c>
       <c r="H590" s="1" t="s">
@@ -31095,7 +31070,7 @@
       <c r="F591" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G591" s="20" t="s">
+      <c r="G591" s="19" t="s">
         <v>2229</v>
       </c>
       <c r="H591" s="1" t="s">
@@ -31128,7 +31103,7 @@
       <c r="F592" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G592" s="20" t="s">
+      <c r="G592" s="19" t="s">
         <v>2231</v>
       </c>
       <c r="H592" s="1" t="s">
@@ -31161,7 +31136,7 @@
       <c r="F593" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G593" s="20" t="s">
+      <c r="G593" s="19" t="s">
         <v>2234</v>
       </c>
       <c r="H593" s="1" t="s">
@@ -31194,7 +31169,7 @@
       <c r="F594" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G594" s="20" t="s">
+      <c r="G594" s="19" t="s">
         <v>2238</v>
       </c>
       <c r="H594" s="1" t="s">
@@ -31227,7 +31202,7 @@
       <c r="F595" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G595" s="20" t="s">
+      <c r="G595" s="19" t="s">
         <v>2241</v>
       </c>
       <c r="H595" s="1" t="s">
@@ -31260,7 +31235,7 @@
       <c r="F596" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G596" s="20" t="s">
+      <c r="G596" s="19" t="s">
         <v>2244</v>
       </c>
       <c r="H596" s="1" t="s">
@@ -31293,7 +31268,7 @@
       <c r="F597" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G597" s="20" t="s">
+      <c r="G597" s="19" t="s">
         <v>2246</v>
       </c>
       <c r="H597" s="1" t="s">
@@ -31326,7 +31301,7 @@
       <c r="F598" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G598" s="20" t="s">
+      <c r="G598" s="19" t="s">
         <v>2250</v>
       </c>
       <c r="H598" s="1" t="s">
@@ -31359,7 +31334,7 @@
       <c r="F599" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G599" s="20" t="s">
+      <c r="G599" s="19" t="s">
         <v>2253</v>
       </c>
       <c r="H599" s="1" t="s">
@@ -31392,7 +31367,7 @@
       <c r="F600" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G600" s="20" t="s">
+      <c r="G600" s="19" t="s">
         <v>2257</v>
       </c>
       <c r="H600" s="1" t="s">
@@ -31425,7 +31400,7 @@
       <c r="F601" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G601" s="20" t="s">
+      <c r="G601" s="19" t="s">
         <v>2261</v>
       </c>
       <c r="H601" s="1" t="s">
@@ -31458,7 +31433,7 @@
       <c r="F602" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G602" s="20" t="s">
+      <c r="G602" s="19" t="s">
         <v>2264</v>
       </c>
       <c r="H602" s="1" t="s">
@@ -31491,7 +31466,7 @@
       <c r="F603" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G603" s="20" t="s">
+      <c r="G603" s="19" t="s">
         <v>2268</v>
       </c>
       <c r="H603" s="1" t="s">
@@ -31524,7 +31499,7 @@
       <c r="F604" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G604" s="20" t="s">
+      <c r="G604" s="19" t="s">
         <v>2272</v>
       </c>
       <c r="H604" s="1" t="s">
@@ -31557,7 +31532,7 @@
       <c r="F605" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G605" s="20" t="s">
+      <c r="G605" s="19" t="s">
         <v>2276</v>
       </c>
       <c r="H605" s="1" t="s">
@@ -31590,7 +31565,7 @@
       <c r="F606" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G606" s="20" t="s">
+      <c r="G606" s="19" t="s">
         <v>2280</v>
       </c>
       <c r="H606" s="1" t="s">
@@ -31623,7 +31598,7 @@
       <c r="F607" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G607" s="20" t="s">
+      <c r="G607" s="19" t="s">
         <v>2283</v>
       </c>
       <c r="H607" s="1" t="s">
@@ -31656,7 +31631,7 @@
       <c r="F608" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G608" s="20" t="s">
+      <c r="G608" s="19" t="s">
         <v>2287</v>
       </c>
       <c r="H608" s="1" t="s">
@@ -31689,7 +31664,7 @@
       <c r="F609" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G609" s="20" t="s">
+      <c r="G609" s="19" t="s">
         <v>2290</v>
       </c>
       <c r="H609" s="1" t="s">
@@ -31722,7 +31697,7 @@
       <c r="F610" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G610" s="20" t="s">
+      <c r="G610" s="19" t="s">
         <v>2293</v>
       </c>
       <c r="H610" s="1" t="s">
@@ -31755,7 +31730,7 @@
       <c r="F611" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G611" s="20" t="s">
+      <c r="G611" s="19" t="s">
         <v>2296</v>
       </c>
       <c r="H611" s="1" t="s">
@@ -31788,7 +31763,7 @@
       <c r="F612" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G612" s="20" t="s">
+      <c r="G612" s="19" t="s">
         <v>2298</v>
       </c>
       <c r="H612" s="1" t="s">
@@ -31821,7 +31796,7 @@
       <c r="F613" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G613" s="20" t="s">
+      <c r="G613" s="19" t="s">
         <v>2300</v>
       </c>
       <c r="H613" s="1" t="s">
@@ -31854,7 +31829,7 @@
       <c r="F614" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G614" s="20" t="s">
+      <c r="G614" s="19" t="s">
         <v>2303</v>
       </c>
       <c r="H614" s="1" t="s">
@@ -31887,7 +31862,7 @@
       <c r="F615" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G615" s="20" t="s">
+      <c r="G615" s="19" t="s">
         <v>2305</v>
       </c>
       <c r="H615" s="1" t="s">
@@ -31920,7 +31895,7 @@
       <c r="F616" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G616" s="20" t="s">
+      <c r="G616" s="19" t="s">
         <v>1398</v>
       </c>
       <c r="H616" s="1" t="s">
@@ -31953,7 +31928,7 @@
       <c r="F617" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G617" s="20" t="s">
+      <c r="G617" s="19" t="s">
         <v>2313</v>
       </c>
       <c r="H617" s="1" t="s">
@@ -31986,7 +31961,7 @@
       <c r="F618" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G618" s="20" t="s">
+      <c r="G618" s="19" t="s">
         <v>2318</v>
       </c>
       <c r="H618" s="1" t="s">
@@ -32019,7 +31994,7 @@
       <c r="F619" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G619" s="20" t="s">
+      <c r="G619" s="19" t="s">
         <v>2319</v>
       </c>
       <c r="H619" s="1" t="s">
@@ -32052,7 +32027,7 @@
       <c r="F620" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G620" s="20" t="s">
+      <c r="G620" s="19" t="s">
         <v>2323</v>
       </c>
       <c r="H620" s="1" t="s">
@@ -32085,7 +32060,7 @@
       <c r="F621" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G621" s="20" t="s">
+      <c r="G621" s="19" t="s">
         <v>2327</v>
       </c>
       <c r="H621" s="1" t="s">
@@ -32118,7 +32093,7 @@
       <c r="F622" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G622" s="20" t="s">
+      <c r="G622" s="19" t="s">
         <v>2330</v>
       </c>
       <c r="H622" s="1" t="s">
@@ -32151,7 +32126,7 @@
       <c r="F623" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G623" s="19" t="s">
+      <c r="G623" s="18" t="s">
         <v>2332</v>
       </c>
       <c r="H623" s="1" t="s">
@@ -32184,7 +32159,7 @@
       <c r="F624" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G624" s="20" t="s">
+      <c r="G624" s="19" t="s">
         <v>2337</v>
       </c>
       <c r="H624" s="1" t="s">
@@ -32217,7 +32192,7 @@
       <c r="F625" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G625" s="20" t="s">
+      <c r="G625" s="19" t="s">
         <v>2341</v>
       </c>
       <c r="H625" s="1" t="s">
@@ -32250,7 +32225,7 @@
       <c r="F626" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G626" s="20" t="s">
+      <c r="G626" s="19" t="s">
         <v>2344</v>
       </c>
       <c r="H626" s="1" t="s">
@@ -32283,7 +32258,7 @@
       <c r="F627" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G627" s="20" t="s">
+      <c r="G627" s="19" t="s">
         <v>2348</v>
       </c>
       <c r="H627" s="1" t="s">
@@ -32316,7 +32291,7 @@
       <c r="F628" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G628" s="20" t="s">
+      <c r="G628" s="19" t="s">
         <v>2351</v>
       </c>
       <c r="H628" s="1" t="s">
@@ -32349,7 +32324,7 @@
       <c r="F629" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G629" s="20" t="s">
+      <c r="G629" s="19" t="s">
         <v>2355</v>
       </c>
       <c r="H629" s="1" t="s">
@@ -32382,7 +32357,7 @@
       <c r="F630" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G630" s="20" t="s">
+      <c r="G630" s="19" t="s">
         <v>2359</v>
       </c>
       <c r="H630" s="1" t="s">
@@ -32415,7 +32390,7 @@
       <c r="F631" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G631" s="20" t="s">
+      <c r="G631" s="19" t="s">
         <v>2363</v>
       </c>
       <c r="H631" s="1" t="s">
@@ -32448,7 +32423,7 @@
       <c r="F632" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G632" s="20" t="s">
+      <c r="G632" s="19" t="s">
         <v>2367</v>
       </c>
       <c r="H632" s="1" t="s">
@@ -32481,7 +32456,7 @@
       <c r="F633" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G633" s="20" t="s">
+      <c r="G633" s="19" t="s">
         <v>2372</v>
       </c>
       <c r="H633" s="1" t="s">
@@ -32514,7 +32489,7 @@
       <c r="F634" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G634" s="20" t="s">
+      <c r="G634" s="19" t="s">
         <v>2376</v>
       </c>
       <c r="H634" s="1" t="s">
@@ -32547,7 +32522,7 @@
       <c r="F635" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G635" s="24" t="s">
+      <c r="G635" s="23" t="s">
         <v>2380</v>
       </c>
       <c r="H635" s="1" t="s">
@@ -32580,7 +32555,7 @@
       <c r="F636" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G636" s="20" t="s">
+      <c r="G636" s="19" t="s">
         <v>2384</v>
       </c>
       <c r="H636" s="1" t="s">
@@ -32613,7 +32588,7 @@
       <c r="F637" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G637" s="20" t="s">
+      <c r="G637" s="19" t="s">
         <v>2388</v>
       </c>
       <c r="H637" s="1" t="s">
@@ -32646,7 +32621,7 @@
       <c r="F638" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G638" s="20" t="s">
+      <c r="G638" s="19" t="s">
         <v>2392</v>
       </c>
       <c r="H638" s="1" t="s">
@@ -32679,7 +32654,7 @@
       <c r="F639" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G639" s="20" t="s">
+      <c r="G639" s="19" t="s">
         <v>2395</v>
       </c>
       <c r="H639" s="1" t="s">
@@ -32712,7 +32687,7 @@
       <c r="F640" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G640" s="20" t="s">
+      <c r="G640" s="19" t="s">
         <v>2400</v>
       </c>
       <c r="H640" s="1" t="s">
@@ -32745,7 +32720,7 @@
       <c r="F641" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G641" s="20" t="s">
+      <c r="G641" s="19" t="s">
         <v>2404</v>
       </c>
       <c r="H641" s="1" t="s">
@@ -32775,7 +32750,7 @@
       <c r="F642" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G642" s="20" t="s">
+      <c r="G642" s="19" t="s">
         <v>2407</v>
       </c>
       <c r="H642" s="1" t="s">
@@ -32808,7 +32783,7 @@
       <c r="F643" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G643" s="20" t="s">
+      <c r="G643" s="19" t="s">
         <v>2410</v>
       </c>
       <c r="H643" s="1" t="s">
@@ -32841,7 +32816,7 @@
       <c r="F644" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G644" s="20" t="s">
+      <c r="G644" s="19" t="s">
         <v>2411</v>
       </c>
       <c r="H644" s="1" t="s">
@@ -32871,7 +32846,7 @@
       <c r="F645" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G645" s="20" t="s">
+      <c r="G645" s="19" t="s">
         <v>2414</v>
       </c>
       <c r="H645" s="1" t="s">
@@ -32904,7 +32879,7 @@
       <c r="F646" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G646" s="20" t="s">
+      <c r="G646" s="19" t="s">
         <v>2417</v>
       </c>
       <c r="H646" s="1" t="s">
@@ -32937,7 +32912,7 @@
       <c r="F647" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G647" s="20" t="s">
+      <c r="G647" s="19" t="s">
         <v>2420</v>
       </c>
       <c r="H647" s="1" t="s">
@@ -32970,7 +32945,7 @@
       <c r="F648" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G648" s="20" t="s">
+      <c r="G648" s="19" t="s">
         <v>2424</v>
       </c>
       <c r="H648" s="1" t="s">
@@ -33003,7 +32978,7 @@
       <c r="F649" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G649" s="20" t="s">
+      <c r="G649" s="19" t="s">
         <v>2428</v>
       </c>
       <c r="H649" s="1" t="s">
@@ -33036,7 +33011,7 @@
       <c r="F650" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G650" s="20" t="s">
+      <c r="G650" s="19" t="s">
         <v>2432</v>
       </c>
       <c r="H650" s="1" t="s">
@@ -33069,7 +33044,7 @@
       <c r="F651" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G651" s="20" t="s">
+      <c r="G651" s="19" t="s">
         <v>2435</v>
       </c>
       <c r="H651" s="1" t="s">
@@ -33102,7 +33077,7 @@
       <c r="F652" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G652" s="20" t="s">
+      <c r="G652" s="19" t="s">
         <v>2439</v>
       </c>
       <c r="H652" s="1" t="s">
@@ -33135,7 +33110,7 @@
       <c r="F653" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G653" s="20" t="s">
+      <c r="G653" s="19" t="s">
         <v>2442</v>
       </c>
       <c r="H653" s="1" t="s">
@@ -33168,7 +33143,7 @@
       <c r="F654" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G654" s="19" t="s">
+      <c r="G654" s="18" t="s">
         <v>2446</v>
       </c>
       <c r="H654" s="1" t="s">
@@ -33201,7 +33176,7 @@
       <c r="F655" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G655" s="20" t="s">
+      <c r="G655" s="19" t="s">
         <v>2450</v>
       </c>
       <c r="H655" s="1" t="s">
@@ -33234,7 +33209,7 @@
       <c r="F656" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G656" s="23" t="s">
+      <c r="G656" s="22" t="s">
         <v>2454</v>
       </c>
       <c r="H656" s="1" t="s">
@@ -33267,7 +33242,7 @@
       <c r="F657" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G657" s="23" t="s">
+      <c r="G657" s="22" t="s">
         <v>2458</v>
       </c>
       <c r="H657" s="1" t="s">
@@ -33300,7 +33275,7 @@
       <c r="F658" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G658" s="23" t="s">
+      <c r="G658" s="22" t="s">
         <v>2462</v>
       </c>
       <c r="H658" s="1" t="s">
@@ -33333,7 +33308,7 @@
       <c r="F659" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G659" s="23" t="s">
+      <c r="G659" s="22" t="s">
         <v>2465</v>
       </c>
       <c r="H659" s="1" t="s">
@@ -33366,7 +33341,7 @@
       <c r="F660" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G660" s="24" t="s">
+      <c r="G660" s="23" t="s">
         <v>2468</v>
       </c>
       <c r="H660" s="1" t="s">
@@ -33399,7 +33374,7 @@
       <c r="F661" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G661" s="23" t="s">
+      <c r="G661" s="22" t="s">
         <v>2472</v>
       </c>
       <c r="H661" s="1" t="s">
@@ -33432,7 +33407,7 @@
       <c r="F662" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G662" s="23" t="s">
+      <c r="G662" s="22" t="s">
         <v>2476</v>
       </c>
       <c r="H662" s="1" t="s">
@@ -33465,7 +33440,7 @@
       <c r="F663" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G663" s="23" t="s">
+      <c r="G663" s="22" t="s">
         <v>2480</v>
       </c>
       <c r="H663" s="1" t="s">
@@ -33498,7 +33473,7 @@
       <c r="F664" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G664" s="23" t="s">
+      <c r="G664" s="22" t="s">
         <v>2484</v>
       </c>
       <c r="H664" s="1" t="s">
@@ -33531,7 +33506,7 @@
       <c r="F665" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G665" s="25" t="s">
+      <c r="G665" s="24" t="s">
         <v>2488</v>
       </c>
       <c r="H665" s="1" t="s">
@@ -33564,7 +33539,7 @@
       <c r="F666" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G666" s="23" t="s">
+      <c r="G666" s="22" t="s">
         <v>2492</v>
       </c>
       <c r="H666" s="1" t="s">
@@ -33597,7 +33572,7 @@
       <c r="F667" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G667" s="23" t="s">
+      <c r="G667" s="22" t="s">
         <v>2496</v>
       </c>
       <c r="H667" s="1" t="s">
@@ -33630,7 +33605,7 @@
       <c r="F668" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G668" s="20" t="s">
+      <c r="G668" s="19" t="s">
         <v>2500</v>
       </c>
       <c r="H668" s="1" t="s">
@@ -33663,7 +33638,7 @@
       <c r="F669" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G669" s="23" t="s">
+      <c r="G669" s="22" t="s">
         <v>2504</v>
       </c>
       <c r="H669" s="1" t="s">
@@ -33696,7 +33671,7 @@
       <c r="F670" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G670" s="25" t="s">
+      <c r="G670" s="24" t="s">
         <v>2512</v>
       </c>
       <c r="H670" s="1" t="s">
@@ -33729,7 +33704,7 @@
       <c r="F671" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G671" s="23" t="s">
+      <c r="G671" s="22" t="s">
         <v>2513</v>
       </c>
       <c r="H671" s="1" t="s">
@@ -33762,7 +33737,7 @@
       <c r="F672" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G672" s="23" t="s">
+      <c r="G672" s="22" t="s">
         <v>2516</v>
       </c>
       <c r="H672" s="1" t="s">
@@ -33795,7 +33770,7 @@
       <c r="F673" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G673" s="23" t="s">
+      <c r="G673" s="22" t="s">
         <v>2521</v>
       </c>
       <c r="H673" s="1" t="s">
@@ -33828,7 +33803,7 @@
       <c r="F674" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G674" s="23" t="s">
+      <c r="G674" s="22" t="s">
         <v>2524</v>
       </c>
       <c r="H674" s="1" t="s">
@@ -33861,7 +33836,7 @@
       <c r="F675" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G675" s="23" t="s">
+      <c r="G675" s="22" t="s">
         <v>2528</v>
       </c>
       <c r="H675" s="1" t="s">
@@ -33894,7 +33869,7 @@
       <c r="F676" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G676" s="23" t="s">
+      <c r="G676" s="22" t="s">
         <v>2531</v>
       </c>
       <c r="H676" s="1" t="s">
@@ -33927,7 +33902,7 @@
       <c r="F677" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G677" s="23" t="s">
+      <c r="G677" s="22" t="s">
         <v>2534</v>
       </c>
       <c r="H677" s="1" t="s">
@@ -33960,7 +33935,7 @@
       <c r="F678" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G678" s="25" t="s">
+      <c r="G678" s="24" t="s">
         <v>2538</v>
       </c>
       <c r="H678" s="1" t="s">
@@ -33993,7 +33968,7 @@
       <c r="F679" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G679" s="25" t="s">
+      <c r="G679" s="24" t="s">
         <v>2542</v>
       </c>
       <c r="H679" s="1" t="s">
@@ -34026,7 +34001,7 @@
       <c r="F680" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G680" s="23" t="s">
+      <c r="G680" s="22" t="s">
         <v>2546</v>
       </c>
       <c r="H680" s="1" t="s">
@@ -34059,7 +34034,7 @@
       <c r="F681" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G681" s="23" t="s">
+      <c r="G681" s="22" t="s">
         <v>2549</v>
       </c>
       <c r="H681" s="1" t="s">
@@ -34092,7 +34067,7 @@
       <c r="F682" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G682" s="23" t="s">
+      <c r="G682" s="22" t="s">
         <v>2553</v>
       </c>
       <c r="H682" s="1" t="s">
@@ -34125,7 +34100,7 @@
       <c r="F683" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G683" s="23" t="s">
+      <c r="G683" s="22" t="s">
         <v>2557</v>
       </c>
       <c r="H683" s="1" t="s">
@@ -34158,7 +34133,7 @@
       <c r="F684" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G684" s="23" t="s">
+      <c r="G684" s="22" t="s">
         <v>2562</v>
       </c>
       <c r="H684" s="1" t="s">
@@ -34191,7 +34166,7 @@
       <c r="F685" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G685" s="24" t="s">
+      <c r="G685" s="23" t="s">
         <v>2566</v>
       </c>
       <c r="H685" s="1" t="s">
@@ -34224,7 +34199,7 @@
       <c r="F686" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G686" s="23" t="s">
+      <c r="G686" s="22" t="s">
         <v>2570</v>
       </c>
       <c r="H686" s="1" t="s">
@@ -34257,7 +34232,7 @@
       <c r="F687" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G687" s="23" t="s">
+      <c r="G687" s="22" t="s">
         <v>2575</v>
       </c>
       <c r="H687" s="1" t="s">
@@ -34290,7 +34265,7 @@
       <c r="F688" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G688" s="20" t="s">
+      <c r="G688" s="19" t="s">
         <v>2579</v>
       </c>
       <c r="H688" s="1" t="s">
@@ -34323,7 +34298,7 @@
       <c r="F689" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G689" s="23" t="s">
+      <c r="G689" s="22" t="s">
         <v>2583</v>
       </c>
       <c r="H689" s="1" t="s">
@@ -34356,7 +34331,7 @@
       <c r="F690" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G690" s="23" t="s">
+      <c r="G690" s="22" t="s">
         <v>2588</v>
       </c>
       <c r="H690" s="1" t="s">
@@ -34389,7 +34364,7 @@
       <c r="F691" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G691" s="20" t="s">
+      <c r="G691" s="19" t="s">
         <v>2591</v>
       </c>
       <c r="H691" s="1" t="s">
@@ -34422,7 +34397,7 @@
       <c r="F692" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G692" s="20" t="s">
+      <c r="G692" s="19" t="s">
         <v>2595</v>
       </c>
       <c r="H692" s="1" t="s">
@@ -34455,7 +34430,7 @@
       <c r="F693" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G693" s="20" t="s">
+      <c r="G693" s="19" t="s">
         <v>2598</v>
       </c>
       <c r="H693" s="1" t="s">
@@ -34488,7 +34463,7 @@
       <c r="F694" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G694" s="20" t="s">
+      <c r="G694" s="19" t="s">
         <v>2600</v>
       </c>
       <c r="H694" s="1" t="s">
@@ -34521,7 +34496,7 @@
       <c r="F695" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G695" s="20" t="s">
+      <c r="G695" s="19" t="s">
         <v>2602</v>
       </c>
       <c r="H695" s="1" t="s">
@@ -34554,7 +34529,7 @@
       <c r="F696" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G696" s="20" t="s">
+      <c r="G696" s="19" t="s">
         <v>2605</v>
       </c>
       <c r="H696" s="1" t="s">
@@ -34587,7 +34562,7 @@
       <c r="F697" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G697" s="20" t="s">
+      <c r="G697" s="19" t="s">
         <v>2608</v>
       </c>
       <c r="H697" s="1" t="s">
@@ -34620,7 +34595,7 @@
       <c r="F698" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G698" s="23" t="s">
+      <c r="G698" s="22" t="s">
         <v>2610</v>
       </c>
       <c r="H698" s="1" t="s">
@@ -34653,7 +34628,7 @@
       <c r="F699" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G699" s="23" t="s">
+      <c r="G699" s="22" t="s">
         <v>2612</v>
       </c>
       <c r="H699" s="1" t="s">
@@ -34686,7 +34661,7 @@
       <c r="F700" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G700" s="20" t="s">
+      <c r="G700" s="19" t="s">
         <v>2615</v>
       </c>
       <c r="H700" s="1" t="s">
@@ -34719,7 +34694,7 @@
       <c r="F701" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G701" s="20" t="s">
+      <c r="G701" s="19" t="s">
         <v>2618</v>
       </c>
       <c r="H701" s="1" t="s">
@@ -34752,7 +34727,7 @@
       <c r="F702" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G702" s="20" t="s">
+      <c r="G702" s="19" t="s">
         <v>2621</v>
       </c>
       <c r="H702" s="1" t="s">
@@ -34785,7 +34760,7 @@
       <c r="F703" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G703" s="20" t="s">
+      <c r="G703" s="19" t="s">
         <v>2625</v>
       </c>
       <c r="H703" s="1" t="s">
@@ -34818,7 +34793,7 @@
       <c r="F704" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G704" s="20" t="s">
+      <c r="G704" s="19" t="s">
         <v>2629</v>
       </c>
       <c r="H704" s="1" t="s">
@@ -34851,7 +34826,7 @@
       <c r="F705" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G705" s="20" t="s">
+      <c r="G705" s="19" t="s">
         <v>2633</v>
       </c>
       <c r="H705" s="1" t="s">
@@ -34884,7 +34859,7 @@
       <c r="F706" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G706" s="20" t="s">
+      <c r="G706" s="19" t="s">
         <v>2636</v>
       </c>
       <c r="H706" s="1" t="s">
@@ -34917,7 +34892,7 @@
       <c r="F707" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G707" s="20" t="s">
+      <c r="G707" s="19" t="s">
         <v>2640</v>
       </c>
       <c r="H707" s="1" t="s">
@@ -34950,7 +34925,7 @@
       <c r="F708" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G708" s="20" t="s">
+      <c r="G708" s="19" t="s">
         <v>2643</v>
       </c>
       <c r="H708" s="1" t="s">
@@ -34983,7 +34958,7 @@
       <c r="F709" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G709" s="23" t="s">
+      <c r="G709" s="22" t="s">
         <v>2645</v>
       </c>
       <c r="H709" s="1" t="s">
@@ -35016,7 +34991,7 @@
       <c r="F710" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G710" s="20" t="s">
+      <c r="G710" s="19" t="s">
         <v>2649</v>
       </c>
       <c r="H710" s="1" t="s">
@@ -35049,7 +35024,7 @@
       <c r="F711" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G711" s="20" t="s">
+      <c r="G711" s="19" t="s">
         <v>2653</v>
       </c>
       <c r="H711" s="1" t="s">
@@ -35082,7 +35057,7 @@
       <c r="F712" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G712" s="20" t="s">
+      <c r="G712" s="19" t="s">
         <v>2657</v>
       </c>
       <c r="H712" s="1" t="s">
@@ -35115,7 +35090,7 @@
       <c r="F713" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G713" s="20" t="s">
+      <c r="G713" s="19" t="s">
         <v>2661</v>
       </c>
       <c r="H713" s="1" t="s">
@@ -35148,7 +35123,7 @@
       <c r="F714" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G714" s="20" t="s">
+      <c r="G714" s="19" t="s">
         <v>2665</v>
       </c>
       <c r="H714" s="1" t="s">
@@ -35181,7 +35156,7 @@
       <c r="F715" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G715" s="20" t="s">
+      <c r="G715" s="19" t="s">
         <v>2668</v>
       </c>
       <c r="H715" s="1" t="s">
@@ -35214,7 +35189,7 @@
       <c r="F716" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G716" s="20" t="s">
+      <c r="G716" s="19" t="s">
         <v>2672</v>
       </c>
       <c r="H716" s="1" t="s">
@@ -35247,7 +35222,7 @@
       <c r="F717" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G717" s="20" t="s">
+      <c r="G717" s="19" t="s">
         <v>2675</v>
       </c>
       <c r="H717" s="1" t="s">
@@ -35280,7 +35255,7 @@
       <c r="F718" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G718" s="24" t="s">
+      <c r="G718" s="23" t="s">
         <v>2679</v>
       </c>
       <c r="H718" s="1" t="s">
@@ -35313,7 +35288,7 @@
       <c r="F719" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G719" s="20" t="s">
+      <c r="G719" s="19" t="s">
         <v>2683</v>
       </c>
       <c r="H719" s="1" t="s">
@@ -35346,7 +35321,7 @@
       <c r="F720" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G720" s="20" t="s">
+      <c r="G720" s="19" t="s">
         <v>2686</v>
       </c>
       <c r="H720" s="1" t="s">
@@ -35379,7 +35354,7 @@
       <c r="F721" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G721" s="24" t="s">
+      <c r="G721" s="23" t="s">
         <v>2689</v>
       </c>
       <c r="H721" s="1" t="s">
@@ -35412,7 +35387,7 @@
       <c r="F722" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G722" s="20" t="s">
+      <c r="G722" s="19" t="s">
         <v>2692</v>
       </c>
       <c r="H722" s="1" t="s">
@@ -35445,7 +35420,7 @@
       <c r="F723" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G723" s="20" t="s">
+      <c r="G723" s="19" t="s">
         <v>2694</v>
       </c>
       <c r="H723" s="1" t="s">
@@ -35478,7 +35453,7 @@
       <c r="F724" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G724" s="20" t="s">
+      <c r="G724" s="19" t="s">
         <v>2698</v>
       </c>
       <c r="H724" s="1" t="s">
@@ -35511,7 +35486,7 @@
       <c r="F725" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G725" s="20" t="s">
+      <c r="G725" s="19" t="s">
         <v>2702</v>
       </c>
       <c r="H725" s="1" t="s">
@@ -35544,7 +35519,7 @@
       <c r="F726" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G726" s="20" t="s">
+      <c r="G726" s="19" t="s">
         <v>2704</v>
       </c>
       <c r="H726" s="1" t="s">
@@ -35577,7 +35552,7 @@
       <c r="F727" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G727" s="20" t="s">
+      <c r="G727" s="19" t="s">
         <v>2706</v>
       </c>
       <c r="H727" s="1" t="s">
@@ -35610,7 +35585,7 @@
       <c r="F728" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G728" s="20" t="s">
+      <c r="G728" s="19" t="s">
         <v>2708</v>
       </c>
       <c r="H728" s="1" t="s">
@@ -35643,7 +35618,7 @@
       <c r="F729" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G729" s="20" t="s">
+      <c r="G729" s="19" t="s">
         <v>2710</v>
       </c>
       <c r="H729" s="1" t="s">
@@ -35676,7 +35651,7 @@
       <c r="F730" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G730" s="20" t="s">
+      <c r="G730" s="19" t="s">
         <v>2712</v>
       </c>
       <c r="H730" s="1" t="s">
@@ -35709,7 +35684,7 @@
       <c r="F731" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G731" s="20" t="s">
+      <c r="G731" s="19" t="s">
         <v>2716</v>
       </c>
       <c r="H731" s="1" t="s">
@@ -35742,7 +35717,7 @@
       <c r="F732" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G732" s="20" t="s">
+      <c r="G732" s="19" t="s">
         <v>2719</v>
       </c>
       <c r="H732" s="1" t="s">
@@ -35775,7 +35750,7 @@
       <c r="F733" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G733" s="20" t="s">
+      <c r="G733" s="19" t="s">
         <v>2722</v>
       </c>
       <c r="H733" s="1" t="s">
@@ -35808,7 +35783,7 @@
       <c r="F734" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G734" s="20" t="s">
+      <c r="G734" s="19" t="s">
         <v>2725</v>
       </c>
       <c r="H734" s="1" t="s">
@@ -35841,7 +35816,7 @@
       <c r="F735" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G735" s="20" t="s">
+      <c r="G735" s="19" t="s">
         <v>2729</v>
       </c>
       <c r="H735" s="1" t="s">
@@ -35874,7 +35849,7 @@
       <c r="F736" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G736" s="20" t="s">
+      <c r="G736" s="19" t="s">
         <v>2733</v>
       </c>
       <c r="H736" s="1" t="s">
@@ -35907,7 +35882,7 @@
       <c r="F737" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G737" s="20" t="s">
+      <c r="G737" s="19" t="s">
         <v>2737</v>
       </c>
       <c r="H737" s="1" t="s">
@@ -35940,7 +35915,7 @@
       <c r="F738" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G738" s="20" t="s">
+      <c r="G738" s="19" t="s">
         <v>2741</v>
       </c>
       <c r="H738" s="1" t="s">
@@ -35973,7 +35948,7 @@
       <c r="F739" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G739" s="24" t="s">
+      <c r="G739" s="23" t="s">
         <v>2745</v>
       </c>
       <c r="H739" s="1" t="s">
@@ -36006,7 +35981,7 @@
       <c r="F740" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G740" s="20" t="s">
+      <c r="G740" s="19" t="s">
         <v>2749</v>
       </c>
       <c r="H740" s="1" t="s">
@@ -36039,7 +36014,7 @@
       <c r="F741" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G741" s="20" t="s">
+      <c r="G741" s="19" t="s">
         <v>2753</v>
       </c>
       <c r="H741" s="1" t="s">
@@ -36072,7 +36047,7 @@
       <c r="F742" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G742" s="20" t="s">
+      <c r="G742" s="19" t="s">
         <v>2756</v>
       </c>
       <c r="H742" s="1" t="s">
@@ -36105,7 +36080,7 @@
       <c r="F743" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G743" s="20" t="s">
+      <c r="G743" s="19" t="s">
         <v>2760</v>
       </c>
       <c r="H743" s="1" t="s">
@@ -36138,7 +36113,7 @@
       <c r="F744" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G744" s="20" t="s">
+      <c r="G744" s="19" t="s">
         <v>2764</v>
       </c>
       <c r="H744" s="1" t="s">
@@ -36171,7 +36146,7 @@
       <c r="F745" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G745" s="20" t="s">
+      <c r="G745" s="19" t="s">
         <v>2768</v>
       </c>
       <c r="H745" s="1" t="s">
@@ -36204,7 +36179,7 @@
       <c r="F746" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G746" s="20" t="s">
+      <c r="G746" s="19" t="s">
         <v>2771</v>
       </c>
       <c r="H746" s="1" t="s">
@@ -36237,7 +36212,7 @@
       <c r="F747" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G747" s="20" t="s">
+      <c r="G747" s="19" t="s">
         <v>2775</v>
       </c>
       <c r="H747" s="1" t="s">
@@ -36270,7 +36245,7 @@
       <c r="F748" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G748" s="20" t="s">
+      <c r="G748" s="19" t="s">
         <v>2778</v>
       </c>
       <c r="H748" s="1" t="s">
@@ -36303,7 +36278,7 @@
       <c r="F749" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G749" s="20" t="s">
+      <c r="G749" s="19" t="s">
         <v>2782</v>
       </c>
       <c r="H749" s="1" t="s">
@@ -36336,7 +36311,7 @@
       <c r="F750" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G750" s="20" t="s">
+      <c r="G750" s="19" t="s">
         <v>2786</v>
       </c>
       <c r="H750" s="1" t="s">
@@ -36369,7 +36344,7 @@
       <c r="F751" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G751" s="20" t="s">
+      <c r="G751" s="19" t="s">
         <v>2789</v>
       </c>
       <c r="H751" s="1" t="s">
@@ -36402,7 +36377,7 @@
       <c r="F752" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G752" s="20" t="s">
+      <c r="G752" s="19" t="s">
         <v>2792</v>
       </c>
       <c r="H752" s="1" t="s">
@@ -36435,7 +36410,7 @@
       <c r="F753" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G753" s="20" t="s">
+      <c r="G753" s="19" t="s">
         <v>2803</v>
       </c>
       <c r="H753" s="1" t="s">
@@ -36468,7 +36443,7 @@
       <c r="F754" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G754" s="20" t="s">
+      <c r="G754" s="19" t="s">
         <v>2800</v>
       </c>
       <c r="H754" s="1" t="s">
@@ -36501,7 +36476,7 @@
       <c r="F755" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G755" s="20" t="s">
+      <c r="G755" s="19" t="s">
         <v>2796</v>
       </c>
       <c r="H755" s="1" t="s">
@@ -36534,7 +36509,7 @@
       <c r="F756" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G756" s="20" t="s">
+      <c r="G756" s="19" t="s">
         <v>2812</v>
       </c>
       <c r="H756" s="1" t="s">
@@ -36567,7 +36542,7 @@
       <c r="F757" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G757" s="20" t="s">
+      <c r="G757" s="19" t="s">
         <v>2809</v>
       </c>
       <c r="H757" s="1" t="s">
@@ -36600,7 +36575,7 @@
       <c r="F758" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G758" s="20" t="s">
+      <c r="G758" s="19" t="s">
         <v>2806</v>
       </c>
       <c r="H758" s="1" t="s">
@@ -36633,7 +36608,7 @@
       <c r="F759" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G759" s="20" t="s">
+      <c r="G759" s="19" t="s">
         <v>2822</v>
       </c>
       <c r="H759" s="1" t="s">
@@ -36666,7 +36641,7 @@
       <c r="F760" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G760" s="20" t="s">
+      <c r="G760" s="19" t="s">
         <v>2819</v>
       </c>
       <c r="H760" s="1" t="s">
@@ -36699,7 +36674,7 @@
       <c r="F761" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G761" s="20" t="s">
+      <c r="G761" s="19" t="s">
         <v>2816</v>
       </c>
       <c r="H761" s="1" t="s">
@@ -36732,7 +36707,7 @@
       <c r="F762" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G762" s="24" t="s">
+      <c r="G762" s="23" t="s">
         <v>2825</v>
       </c>
       <c r="H762" s="1" t="s">
@@ -36765,7 +36740,7 @@
       <c r="F763" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G763" s="20" t="s">
+      <c r="G763" s="19" t="s">
         <v>2829</v>
       </c>
       <c r="H763" s="1" t="s">
@@ -36798,7 +36773,7 @@
       <c r="F764" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G764" s="20" t="s">
+      <c r="G764" s="19" t="s">
         <v>2832</v>
       </c>
       <c r="H764" s="1" t="s">
@@ -36831,7 +36806,7 @@
       <c r="F765" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G765" s="20" t="s">
+      <c r="G765" s="19" t="s">
         <v>2835</v>
       </c>
       <c r="H765" s="1" t="s">
@@ -36864,7 +36839,7 @@
       <c r="F766" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G766" s="20" t="s">
+      <c r="G766" s="19" t="s">
         <v>2838</v>
       </c>
       <c r="H766" s="1" t="s">
@@ -36897,7 +36872,7 @@
       <c r="F767" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G767" s="24" t="s">
+      <c r="G767" s="23" t="s">
         <v>2842</v>
       </c>
       <c r="H767" s="1" t="s">
@@ -36930,7 +36905,7 @@
       <c r="F768" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G768" s="20" t="s">
+      <c r="G768" s="19" t="s">
         <v>2845</v>
       </c>
       <c r="H768" s="1" t="s">
@@ -36963,7 +36938,7 @@
       <c r="F769" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G769" s="20" t="s">
+      <c r="G769" s="19" t="s">
         <v>2847</v>
       </c>
       <c r="H769" s="1" t="s">
@@ -36996,7 +36971,7 @@
       <c r="F770" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G770" s="20" t="s">
+      <c r="G770" s="19" t="s">
         <v>2850</v>
       </c>
       <c r="H770" s="1" t="s">
@@ -37029,7 +37004,7 @@
       <c r="F771" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G771" s="23" t="s">
+      <c r="G771" s="22" t="s">
         <v>2853</v>
       </c>
       <c r="H771" s="1" t="s">
@@ -37062,7 +37037,7 @@
       <c r="F772" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G772" s="20" t="s">
+      <c r="G772" s="19" t="s">
         <v>2856</v>
       </c>
       <c r="H772" s="1" t="s">
@@ -37095,7 +37070,7 @@
       <c r="F773" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G773" s="20" t="s">
+      <c r="G773" s="19" t="s">
         <v>2860</v>
       </c>
       <c r="H773" s="1" t="s">
@@ -37128,7 +37103,7 @@
       <c r="F774" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G774" s="20" t="s">
+      <c r="G774" s="19" t="s">
         <v>2863</v>
       </c>
       <c r="H774" s="1" t="s">
@@ -37161,7 +37136,7 @@
       <c r="F775" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G775" s="20" t="s">
+      <c r="G775" s="19" t="s">
         <v>2867</v>
       </c>
       <c r="H775" s="1" t="s">
@@ -37194,7 +37169,7 @@
       <c r="F776" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G776" s="20" t="s">
+      <c r="G776" s="19" t="s">
         <v>2869</v>
       </c>
       <c r="H776" s="1" t="s">
@@ -37227,7 +37202,7 @@
       <c r="F777" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G777" s="20" t="s">
+      <c r="G777" s="19" t="s">
         <v>2873</v>
       </c>
       <c r="H777" s="1" t="s">
@@ -37260,7 +37235,7 @@
       <c r="F778" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G778" s="24" t="s">
+      <c r="G778" s="23" t="s">
         <v>2875</v>
       </c>
       <c r="H778" s="1" t="s">
@@ -37293,7 +37268,7 @@
       <c r="F779" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G779" s="20" t="s">
+      <c r="G779" s="19" t="s">
         <v>2877</v>
       </c>
       <c r="H779" s="1" t="s">
@@ -37326,7 +37301,7 @@
       <c r="F780" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G780" s="20" t="s">
+      <c r="G780" s="19" t="s">
         <v>2880</v>
       </c>
       <c r="H780" s="1" t="s">
@@ -37359,7 +37334,7 @@
       <c r="F781" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G781" s="20" t="s">
+      <c r="G781" s="19" t="s">
         <v>2884</v>
       </c>
       <c r="H781" s="1" t="s">
@@ -37392,7 +37367,7 @@
       <c r="F782" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G782" s="20" t="s">
+      <c r="G782" s="19" t="s">
         <v>2888</v>
       </c>
       <c r="H782" s="1" t="s">
@@ -37425,7 +37400,7 @@
       <c r="F783" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G783" s="20" t="s">
+      <c r="G783" s="19" t="s">
         <v>2891</v>
       </c>
       <c r="H783" s="1" t="s">
@@ -37458,7 +37433,7 @@
       <c r="F784" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G784" s="20" t="s">
+      <c r="G784" s="19" t="s">
         <v>2893</v>
       </c>
       <c r="H784" s="1" t="s">
@@ -37491,7 +37466,7 @@
       <c r="F785" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G785" s="20" t="s">
+      <c r="G785" s="19" t="s">
         <v>2896</v>
       </c>
       <c r="H785" s="1" t="s">
@@ -37524,7 +37499,7 @@
       <c r="F786" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G786" s="20" t="s">
+      <c r="G786" s="19" t="s">
         <v>2900</v>
       </c>
       <c r="H786" s="1" t="s">
@@ -37557,7 +37532,7 @@
       <c r="F787" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G787" s="20" t="s">
+      <c r="G787" s="19" t="s">
         <v>2903</v>
       </c>
       <c r="H787" s="1" t="s">
@@ -37590,7 +37565,7 @@
       <c r="F788" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G788" s="20" t="s">
+      <c r="G788" s="19" t="s">
         <v>2906</v>
       </c>
       <c r="H788" s="1" t="s">
@@ -37623,7 +37598,7 @@
       <c r="F789" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G789" s="20" t="s">
+      <c r="G789" s="19" t="s">
         <v>2909</v>
       </c>
       <c r="H789" s="1" t="s">
@@ -37656,7 +37631,7 @@
       <c r="F790" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G790" s="20" t="s">
+      <c r="G790" s="19" t="s">
         <v>2912</v>
       </c>
       <c r="H790" s="1" t="s">
@@ -37689,7 +37664,7 @@
       <c r="F791" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G791" s="20" t="s">
+      <c r="G791" s="19" t="s">
         <v>2915</v>
       </c>
       <c r="H791" s="1" t="s">
@@ -37722,7 +37697,7 @@
       <c r="F792" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G792" s="20" t="s">
+      <c r="G792" s="19" t="s">
         <v>2918</v>
       </c>
       <c r="H792" s="1" t="s">
@@ -37755,7 +37730,7 @@
       <c r="F793" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G793" s="20" t="s">
+      <c r="G793" s="19" t="s">
         <v>2922</v>
       </c>
       <c r="H793" s="1" t="s">
@@ -37788,7 +37763,7 @@
       <c r="F794" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G794" s="20" t="s">
+      <c r="G794" s="19" t="s">
         <v>2926</v>
       </c>
       <c r="H794" s="1" t="s">
@@ -37821,7 +37796,7 @@
       <c r="F795" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G795" s="23" t="s">
+      <c r="G795" s="22" t="s">
         <v>2928</v>
       </c>
       <c r="H795" s="1" t="s">
@@ -37854,7 +37829,7 @@
       <c r="F796" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G796" s="20" t="s">
+      <c r="G796" s="19" t="s">
         <v>2931</v>
       </c>
       <c r="H796" s="1" t="s">
@@ -37887,7 +37862,7 @@
       <c r="F797" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G797" s="20" t="s">
+      <c r="G797" s="19" t="s">
         <v>2934</v>
       </c>
       <c r="H797" s="1" t="s">
@@ -37920,7 +37895,7 @@
       <c r="F798" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G798" s="20" t="s">
+      <c r="G798" s="19" t="s">
         <v>2937</v>
       </c>
       <c r="H798" s="1" t="s">
@@ -37953,7 +37928,7 @@
       <c r="F799" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G799" s="20" t="s">
+      <c r="G799" s="19" t="s">
         <v>2941</v>
       </c>
       <c r="H799" s="1" t="s">
@@ -37986,7 +37961,7 @@
       <c r="F800" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G800" s="20" t="s">
+      <c r="G800" s="19" t="s">
         <v>2948</v>
       </c>
       <c r="H800" s="1" t="s">
@@ -38019,7 +37994,7 @@
       <c r="F801" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G801" s="20" t="s">
+      <c r="G801" s="19" t="s">
         <v>2952</v>
       </c>
       <c r="H801" s="1" t="s">
@@ -38052,7 +38027,7 @@
       <c r="F802" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G802" s="20" t="s">
+      <c r="G802" s="19" t="s">
         <v>2955</v>
       </c>
       <c r="H802" s="1" t="s">
@@ -38085,7 +38060,7 @@
       <c r="F803" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G803" s="20" t="s">
+      <c r="G803" s="19" t="s">
         <v>2957</v>
       </c>
       <c r="H803" s="1" t="s">
@@ -38118,7 +38093,7 @@
       <c r="F804" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G804" s="20" t="s">
+      <c r="G804" s="19" t="s">
         <v>2959</v>
       </c>
       <c r="H804" s="1" t="s">
@@ -38151,7 +38126,7 @@
       <c r="F805" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G805" s="20" t="s">
+      <c r="G805" s="19" t="s">
         <v>2957</v>
       </c>
       <c r="H805" s="1" t="s">
@@ -38184,7 +38159,7 @@
       <c r="F806" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G806" s="20" t="s">
+      <c r="G806" s="19" t="s">
         <v>2964</v>
       </c>
       <c r="H806" s="1" t="s">
@@ -38217,7 +38192,7 @@
       <c r="F807" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G807" s="20" t="s">
+      <c r="G807" s="19" t="s">
         <v>2967</v>
       </c>
       <c r="H807" s="1" t="s">
@@ -38250,7 +38225,7 @@
       <c r="F808" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G808" s="20" t="s">
+      <c r="G808" s="19" t="s">
         <v>2969</v>
       </c>
       <c r="H808" s="1" t="s">
@@ -38283,7 +38258,7 @@
       <c r="F809" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G809" s="20" t="s">
+      <c r="G809" s="19" t="s">
         <v>2974</v>
       </c>
       <c r="H809" s="1" t="s">
@@ -38316,7 +38291,7 @@
       <c r="F810" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G810" s="20" t="s">
+      <c r="G810" s="19" t="s">
         <v>2979</v>
       </c>
       <c r="H810" s="1" t="s">
@@ -38349,7 +38324,7 @@
       <c r="F811" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G811" s="20" t="s">
+      <c r="G811" s="19" t="s">
         <v>2983</v>
       </c>
       <c r="H811" s="1" t="s">
@@ -38382,7 +38357,7 @@
       <c r="F812" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G812" s="20" t="s">
+      <c r="G812" s="19" t="s">
         <v>2988</v>
       </c>
       <c r="H812" s="1" t="s">
@@ -38415,7 +38390,7 @@
       <c r="F813" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G813" s="20" t="s">
+      <c r="G813" s="19" t="s">
         <v>958</v>
       </c>
       <c r="H813" s="1" t="s">
@@ -38448,7 +38423,7 @@
       <c r="F814" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G814" s="20" t="s">
+      <c r="G814" s="19" t="s">
         <v>2997</v>
       </c>
       <c r="H814" s="1" t="s">
@@ -38481,7 +38456,7 @@
       <c r="F815" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G815" s="20" t="s">
+      <c r="G815" s="19" t="s">
         <v>3000</v>
       </c>
       <c r="H815" s="1" t="s">
@@ -38514,7 +38489,7 @@
       <c r="F816" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G816" s="20" t="s">
+      <c r="G816" s="19" t="s">
         <v>3004</v>
       </c>
       <c r="H816" s="1" t="s">
@@ -38547,7 +38522,7 @@
       <c r="F817" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G817" s="20" t="s">
+      <c r="G817" s="19" t="s">
         <v>3007</v>
       </c>
       <c r="H817" s="1" t="s">
@@ -38580,7 +38555,7 @@
       <c r="F818" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G818" s="20" t="s">
+      <c r="G818" s="19" t="s">
         <v>3010</v>
       </c>
       <c r="H818" s="1" t="s">
@@ -38613,7 +38588,7 @@
       <c r="F819" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G819" s="20" t="s">
+      <c r="G819" s="19" t="s">
         <v>3013</v>
       </c>
       <c r="H819" s="1" t="s">
@@ -38646,7 +38621,7 @@
       <c r="F820" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G820" s="20" t="s">
+      <c r="G820" s="19" t="s">
         <v>3016</v>
       </c>
       <c r="H820" s="1" t="s">
@@ -38679,7 +38654,7 @@
       <c r="F821" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G821" s="20" t="s">
+      <c r="G821" s="19" t="s">
         <v>3018</v>
       </c>
       <c r="H821" s="1" t="s">
@@ -38712,7 +38687,7 @@
       <c r="F822" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G822" s="24" t="s">
+      <c r="G822" s="23" t="s">
         <v>3021</v>
       </c>
       <c r="H822" s="1" t="s">
@@ -38745,7 +38720,7 @@
       <c r="F823" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G823" s="20" t="s">
+      <c r="G823" s="19" t="s">
         <v>3024</v>
       </c>
       <c r="H823" s="1" t="s">
@@ -38778,7 +38753,7 @@
       <c r="F824" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G824" s="20" t="s">
+      <c r="G824" s="19" t="s">
         <v>3027</v>
       </c>
       <c r="H824" s="1" t="s">
@@ -38811,7 +38786,7 @@
       <c r="F825" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G825" s="20" t="s">
+      <c r="G825" s="19" t="s">
         <v>3031</v>
       </c>
       <c r="H825" s="1" t="s">
@@ -38844,7 +38819,7 @@
       <c r="F826" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G826" s="20" t="s">
+      <c r="G826" s="19" t="s">
         <v>3036</v>
       </c>
       <c r="H826" s="1" t="s">
@@ -38877,7 +38852,7 @@
       <c r="F827" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G827" s="20" t="s">
+      <c r="G827" s="19" t="s">
         <v>3039</v>
       </c>
       <c r="H827" s="1" t="s">
@@ -38910,7 +38885,7 @@
       <c r="F828" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G828" s="20" t="s">
+      <c r="G828" s="19" t="s">
         <v>3041</v>
       </c>
       <c r="H828" s="1" t="s">
@@ -38943,7 +38918,7 @@
       <c r="F829" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G829" s="20" t="s">
+      <c r="G829" s="19" t="s">
         <v>3044</v>
       </c>
       <c r="H829" s="1" t="s">
@@ -38976,7 +38951,7 @@
       <c r="F830" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G830" s="20" t="s">
+      <c r="G830" s="19" t="s">
         <v>3046</v>
       </c>
       <c r="H830" s="1" t="s">
@@ -39009,7 +38984,7 @@
       <c r="F831" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G831" s="20" t="s">
+      <c r="G831" s="19" t="s">
         <v>3049</v>
       </c>
       <c r="H831" s="1" t="s">
@@ -39042,7 +39017,7 @@
       <c r="F832" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G832" s="20" t="s">
+      <c r="G832" s="19" t="s">
         <v>3053</v>
       </c>
       <c r="H832" s="1" t="s">
@@ -39075,7 +39050,7 @@
       <c r="F833" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G833" s="20" t="s">
+      <c r="G833" s="19" t="s">
         <v>3056</v>
       </c>
       <c r="H833" s="1" t="s">
@@ -39108,7 +39083,7 @@
       <c r="F834" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G834" s="20" t="s">
+      <c r="G834" s="19" t="s">
         <v>3059</v>
       </c>
       <c r="H834" s="1" t="s">
@@ -39141,7 +39116,7 @@
       <c r="F835" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G835" s="20" t="s">
+      <c r="G835" s="19" t="s">
         <v>3062</v>
       </c>
       <c r="H835" s="1" t="s">
@@ -39174,7 +39149,7 @@
       <c r="F836" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G836" s="20" t="s">
+      <c r="G836" s="19" t="s">
         <v>3066</v>
       </c>
       <c r="H836" s="1" t="s">
@@ -39207,7 +39182,7 @@
       <c r="F837" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G837" s="20" t="s">
+      <c r="G837" s="19" t="s">
         <v>3070</v>
       </c>
       <c r="H837" s="1" t="s">
@@ -39240,7 +39215,7 @@
       <c r="F838" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G838" s="20" t="s">
+      <c r="G838" s="19" t="s">
         <v>3073</v>
       </c>
       <c r="H838" s="1" t="s">
@@ -39273,7 +39248,7 @@
       <c r="F839" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G839" s="20" t="s">
+      <c r="G839" s="19" t="s">
         <v>3076</v>
       </c>
       <c r="H839" s="1" t="s">
@@ -39306,7 +39281,7 @@
       <c r="F840" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G840" s="23" t="s">
+      <c r="G840" s="22" t="s">
         <v>3079</v>
       </c>
       <c r="H840" s="1" t="s">
@@ -39339,7 +39314,7 @@
       <c r="F841" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G841" s="19" t="s">
+      <c r="G841" s="18" t="s">
         <v>3082</v>
       </c>
       <c r="H841" s="1" t="s">
@@ -39372,7 +39347,7 @@
       <c r="F842" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G842" s="20" t="s">
+      <c r="G842" s="19" t="s">
         <v>3086</v>
       </c>
       <c r="H842" s="1" t="s">
@@ -39405,7 +39380,7 @@
       <c r="F843" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G843" s="20" t="s">
+      <c r="G843" s="19" t="s">
         <v>3089</v>
       </c>
       <c r="H843" s="1" t="s">
@@ -39438,7 +39413,7 @@
       <c r="F844" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G844" s="20" t="s">
+      <c r="G844" s="19" t="s">
         <v>3092</v>
       </c>
       <c r="H844" s="1" t="s">
@@ -39471,7 +39446,7 @@
       <c r="F845" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G845" s="20" t="s">
+      <c r="G845" s="19" t="s">
         <v>3095</v>
       </c>
       <c r="H845" s="1" t="s">
@@ -39504,7 +39479,7 @@
       <c r="F846" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G846" s="20" t="s">
+      <c r="G846" s="19" t="s">
         <v>3098</v>
       </c>
       <c r="H846" s="1" t="s">
@@ -39537,7 +39512,7 @@
       <c r="F847" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G847" s="20" t="s">
+      <c r="G847" s="19" t="s">
         <v>3101</v>
       </c>
       <c r="H847" s="1" t="s">
@@ -39570,7 +39545,7 @@
       <c r="F848" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G848" s="20" t="s">
+      <c r="G848" s="19" t="s">
         <v>3104</v>
       </c>
       <c r="H848" s="1" t="s">
@@ -39603,7 +39578,7 @@
       <c r="F849" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G849" s="20" t="s">
+      <c r="G849" s="19" t="s">
         <v>3108</v>
       </c>
       <c r="H849" s="1" t="s">
@@ -39636,7 +39611,7 @@
       <c r="F850" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G850" s="20" t="s">
+      <c r="G850" s="19" t="s">
         <v>3111</v>
       </c>
       <c r="H850" s="1" t="s">
@@ -39669,7 +39644,7 @@
       <c r="F851" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G851" s="20" t="s">
+      <c r="G851" s="19" t="s">
         <v>3114</v>
       </c>
       <c r="H851" s="1" t="s">
@@ -39702,7 +39677,7 @@
       <c r="F852" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G852" s="20" t="s">
+      <c r="G852" s="19" t="s">
         <v>3117</v>
       </c>
       <c r="H852" s="1" t="s">
@@ -39735,7 +39710,7 @@
       <c r="F853" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G853" s="20" t="s">
+      <c r="G853" s="19" t="s">
         <v>3119</v>
       </c>
       <c r="H853" s="1" t="s">
@@ -39768,7 +39743,7 @@
       <c r="F854" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G854" s="20" t="s">
+      <c r="G854" s="19" t="s">
         <v>3122</v>
       </c>
       <c r="H854" s="1" t="s">
@@ -39801,7 +39776,7 @@
       <c r="F855" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G855" s="20" t="s">
+      <c r="G855" s="19" t="s">
         <v>3125</v>
       </c>
       <c r="H855" s="1" t="s">
@@ -39834,7 +39809,7 @@
       <c r="F856" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G856" s="20" t="s">
+      <c r="G856" s="19" t="s">
         <v>3128</v>
       </c>
       <c r="H856" s="1" t="s">
@@ -39867,7 +39842,7 @@
       <c r="F857" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G857" s="20" t="s">
+      <c r="G857" s="19" t="s">
         <v>3132</v>
       </c>
       <c r="H857" s="1" t="s">
@@ -39900,7 +39875,7 @@
       <c r="F858" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G858" s="20" t="s">
+      <c r="G858" s="19" t="s">
         <v>3134</v>
       </c>
       <c r="H858" s="1" t="s">
@@ -39933,7 +39908,7 @@
       <c r="F859" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G859" s="20" t="s">
+      <c r="G859" s="19" t="s">
         <v>3138</v>
       </c>
       <c r="H859" s="1" t="s">
@@ -39966,7 +39941,7 @@
       <c r="F860" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G860" s="20" t="s">
+      <c r="G860" s="19" t="s">
         <v>3141</v>
       </c>
       <c r="H860" s="1" t="s">
@@ -39999,7 +39974,7 @@
       <c r="F861" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G861" s="20" t="s">
+      <c r="G861" s="19" t="s">
         <v>3146</v>
       </c>
       <c r="H861" s="1" t="s">
@@ -40032,7 +40007,7 @@
       <c r="F862" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G862" s="20" t="s">
+      <c r="G862" s="19" t="s">
         <v>3147</v>
       </c>
       <c r="H862" s="1" t="s">
@@ -40065,7 +40040,7 @@
       <c r="F863" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G863" s="20" t="s">
+      <c r="G863" s="19" t="s">
         <v>3149</v>
       </c>
       <c r="H863" s="1" t="s">
@@ -40098,7 +40073,7 @@
       <c r="F864" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G864" s="20" t="s">
+      <c r="G864" s="19" t="s">
         <v>2144</v>
       </c>
       <c r="H864" s="1" t="s">
@@ -40131,7 +40106,7 @@
       <c r="F865" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G865" s="20" t="s">
+      <c r="G865" s="19" t="s">
         <v>3156</v>
       </c>
       <c r="H865" s="1" t="s">
@@ -40164,7 +40139,7 @@
       <c r="F866" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G866" s="20" t="s">
+      <c r="G866" s="19" t="s">
         <v>3158</v>
       </c>
       <c r="H866" s="1" t="s">
@@ -40197,7 +40172,7 @@
       <c r="F867" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G867" s="20" t="s">
+      <c r="G867" s="19" t="s">
         <v>3161</v>
       </c>
       <c r="H867" s="1" t="s">
@@ -40230,7 +40205,7 @@
       <c r="F868" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G868" s="20" t="s">
+      <c r="G868" s="19" t="s">
         <v>3165</v>
       </c>
       <c r="H868" s="1" t="s">
@@ -40263,7 +40238,7 @@
       <c r="F869" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G869" s="20" t="s">
+      <c r="G869" s="19" t="s">
         <v>3168</v>
       </c>
       <c r="H869" s="1" t="s">
@@ -40296,7 +40271,7 @@
       <c r="F870" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G870" s="20" t="s">
+      <c r="G870" s="19" t="s">
         <v>3171</v>
       </c>
       <c r="H870" s="1" t="s">
@@ -40329,7 +40304,7 @@
       <c r="F871" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G871" s="20" t="s">
+      <c r="G871" s="19" t="s">
         <v>1903</v>
       </c>
       <c r="H871" s="1" t="s">
@@ -40362,7 +40337,7 @@
       <c r="F872" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G872" s="20" t="s">
+      <c r="G872" s="19" t="s">
         <v>3176</v>
       </c>
       <c r="H872" s="1" t="s">
@@ -40395,7 +40370,7 @@
       <c r="F873" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G873" s="20" t="s">
+      <c r="G873" s="19" t="s">
         <v>3179</v>
       </c>
       <c r="H873" s="1" t="s">
@@ -40428,7 +40403,7 @@
       <c r="F874" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G874" s="20" t="s">
+      <c r="G874" s="19" t="s">
         <v>3182</v>
       </c>
       <c r="H874" s="1" t="s">
@@ -40461,7 +40436,7 @@
       <c r="F875" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G875" s="20" t="s">
+      <c r="G875" s="19" t="s">
         <v>3184</v>
       </c>
       <c r="H875" s="1" t="s">
@@ -40494,7 +40469,7 @@
       <c r="F876" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G876" s="20" t="s">
+      <c r="G876" s="19" t="s">
         <v>3187</v>
       </c>
       <c r="H876" s="1" t="s">
@@ -40527,7 +40502,7 @@
       <c r="F877" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G877" s="20" t="s">
+      <c r="G877" s="19" t="s">
         <v>3191</v>
       </c>
       <c r="H877" s="1" t="s">
@@ -40560,7 +40535,7 @@
       <c r="F878" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G878" s="24" t="s">
+      <c r="G878" s="23" t="s">
         <v>3194</v>
       </c>
       <c r="H878" s="1" t="s">
@@ -40593,7 +40568,7 @@
       <c r="F879" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G879" s="25" t="s">
+      <c r="G879" s="24" t="s">
         <v>3198</v>
       </c>
       <c r="H879" s="1" t="s">
@@ -40626,7 +40601,7 @@
       <c r="F880" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G880" s="19" t="s">
+      <c r="G880" s="18" t="s">
         <v>3201</v>
       </c>
       <c r="H880" s="1" t="s">
@@ -40659,7 +40634,7 @@
       <c r="F881" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G881" s="28" t="s">
+      <c r="G881" s="19" t="s">
         <v>3205</v>
       </c>
       <c r="H881" s="1" t="s">
@@ -40692,7 +40667,7 @@
       <c r="F882" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G882" s="23" t="s">
+      <c r="G882" s="22" t="s">
         <v>3207</v>
       </c>
       <c r="H882" s="1" t="s">
@@ -40725,7 +40700,7 @@
       <c r="F883" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G883" s="28" t="s">
+      <c r="G883" s="19" t="s">
         <v>3211</v>
       </c>
       <c r="H883" s="1" t="s">
@@ -40758,7 +40733,7 @@
       <c r="F884" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G884" s="28" t="s">
+      <c r="G884" s="19" t="s">
         <v>3215</v>
       </c>
       <c r="H884" s="1" t="s">
@@ -40791,7 +40766,7 @@
       <c r="F885" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G885" s="28" t="s">
+      <c r="G885" s="19" t="s">
         <v>3217</v>
       </c>
       <c r="H885" s="1" t="s">
@@ -40824,7 +40799,7 @@
       <c r="F886" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G886" s="28" t="s">
+      <c r="G886" s="19" t="s">
         <v>3219</v>
       </c>
       <c r="H886" s="1" t="s">
@@ -40857,7 +40832,7 @@
       <c r="F887" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G887" s="28" t="s">
+      <c r="G887" s="19" t="s">
         <v>3222</v>
       </c>
       <c r="H887" s="1" t="s">
@@ -40890,7 +40865,7 @@
       <c r="F888" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G888" s="28" t="s">
+      <c r="G888" s="19" t="s">
         <v>3226</v>
       </c>
       <c r="H888" s="1" t="s">
@@ -40923,7 +40898,7 @@
       <c r="F889" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G889" s="28" t="s">
+      <c r="G889" s="19" t="s">
         <v>3230</v>
       </c>
       <c r="H889" s="1" t="s">
@@ -40956,7 +40931,7 @@
       <c r="F890" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G890" s="28" t="s">
+      <c r="G890" s="19" t="s">
         <v>3233</v>
       </c>
       <c r="H890" s="1" t="s">
@@ -40989,7 +40964,7 @@
       <c r="F891" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G891" s="28" t="s">
+      <c r="G891" s="19" t="s">
         <v>3236</v>
       </c>
       <c r="H891" s="1" t="s">
@@ -41022,7 +40997,7 @@
       <c r="F892" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G892" s="28" t="s">
+      <c r="G892" s="19" t="s">
         <v>3239</v>
       </c>
       <c r="H892" s="1" t="s">
@@ -41055,7 +41030,7 @@
       <c r="F893" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G893" s="28" t="s">
+      <c r="G893" s="19" t="s">
         <v>3242</v>
       </c>
       <c r="H893" s="1" t="s">
@@ -41088,7 +41063,7 @@
       <c r="F894" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G894" s="28" t="s">
+      <c r="G894" s="19" t="s">
         <v>3246</v>
       </c>
       <c r="H894" s="1" t="s">
@@ -41121,7 +41096,7 @@
       <c r="F895" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G895" s="28" t="s">
+      <c r="G895" s="19" t="s">
         <v>3250</v>
       </c>
       <c r="H895" s="1" t="s">
@@ -41154,7 +41129,7 @@
       <c r="F896" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G896" s="28" t="s">
+      <c r="G896" s="19" t="s">
         <v>3254</v>
       </c>
       <c r="H896" s="1" t="s">
@@ -41187,7 +41162,7 @@
       <c r="F897" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G897" s="28" t="s">
+      <c r="G897" s="19" t="s">
         <v>3258</v>
       </c>
       <c r="H897" s="1" t="s">
@@ -41220,7 +41195,7 @@
       <c r="F898" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G898" s="28" t="s">
+      <c r="G898" s="19" t="s">
         <v>3262</v>
       </c>
       <c r="H898" s="1" t="s">
@@ -41253,7 +41228,7 @@
       <c r="F899" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G899" s="28" t="s">
+      <c r="G899" s="19" t="s">
         <v>3269</v>
       </c>
       <c r="H899" s="1" t="s">
@@ -41286,7 +41261,7 @@
       <c r="F900" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G900" s="28" t="s">
+      <c r="G900" s="19" t="s">
         <v>3270</v>
       </c>
       <c r="H900" s="1" t="s">
@@ -41319,7 +41294,7 @@
       <c r="F901" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G901" s="28" t="s">
+      <c r="G901" s="19" t="s">
         <v>3273</v>
       </c>
       <c r="H901" s="1" t="s">
@@ -41352,7 +41327,7 @@
       <c r="F902" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G902" s="28" t="s">
+      <c r="G902" s="19" t="s">
         <v>3277</v>
       </c>
       <c r="H902" s="1" t="s">
@@ -41385,7 +41360,7 @@
       <c r="F903" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G903" s="28" t="s">
+      <c r="G903" s="19" t="s">
         <v>3280</v>
       </c>
       <c r="H903" s="1" t="s">
@@ -41418,7 +41393,7 @@
       <c r="F904" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G904" s="28" t="s">
+      <c r="G904" s="19" t="s">
         <v>3284</v>
       </c>
       <c r="H904" s="1" t="s">
@@ -41451,7 +41426,7 @@
       <c r="F905" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G905" s="28" t="s">
+      <c r="G905" s="19" t="s">
         <v>3287</v>
       </c>
       <c r="H905" s="1" t="s">
@@ -41484,7 +41459,7 @@
       <c r="F906" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G906" s="28" t="s">
+      <c r="G906" s="19" t="s">
         <v>3290</v>
       </c>
       <c r="H906" s="1" t="s">
@@ -41517,7 +41492,7 @@
       <c r="F907" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G907" s="28" t="s">
+      <c r="G907" s="19" t="s">
         <v>3293</v>
       </c>
       <c r="H907" s="1" t="s">
@@ -41550,7 +41525,7 @@
       <c r="F908" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G908" s="28" t="s">
+      <c r="G908" s="19" t="s">
         <v>3296</v>
       </c>
       <c r="H908" s="1" t="s">
@@ -41583,7 +41558,7 @@
       <c r="F909" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G909" s="28" t="s">
+      <c r="G909" s="19" t="s">
         <v>3299</v>
       </c>
       <c r="H909" s="1" t="s">
@@ -41616,7 +41591,7 @@
       <c r="F910" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G910" s="28" t="s">
+      <c r="G910" s="19" t="s">
         <v>3303</v>
       </c>
       <c r="H910" s="1" t="s">
@@ -41649,7 +41624,7 @@
       <c r="F911" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G911" s="28" t="s">
+      <c r="G911" s="19" t="s">
         <v>3305</v>
       </c>
       <c r="H911" s="1" t="s">
@@ -41682,7 +41657,7 @@
       <c r="F912" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G912" s="28" t="s">
+      <c r="G912" s="19" t="s">
         <v>3311</v>
       </c>
       <c r="H912" s="1" t="s">
@@ -41715,7 +41690,7 @@
       <c r="F913" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G913" s="28" t="s">
+      <c r="G913" s="19" t="s">
         <v>3308</v>
       </c>
       <c r="H913" s="1" t="s">
@@ -41748,7 +41723,7 @@
       <c r="F914" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G914" s="28" t="s">
+      <c r="G914" s="19" t="s">
         <v>3314</v>
       </c>
       <c r="H914" s="1" t="s">
@@ -41781,7 +41756,7 @@
       <c r="F915" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G915" s="28" t="s">
+      <c r="G915" s="19" t="s">
         <v>3318</v>
       </c>
       <c r="H915" s="1" t="s">
@@ -41814,7 +41789,7 @@
       <c r="F916" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G916" s="28" t="s">
+      <c r="G916" s="19" t="s">
         <v>3323</v>
       </c>
       <c r="H916" s="1" t="s">
@@ -41847,7 +41822,7 @@
       <c r="F917" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G917" s="28" t="s">
+      <c r="G917" s="19" t="s">
         <v>3321</v>
       </c>
       <c r="H917" s="1" t="s">
@@ -41880,7 +41855,7 @@
       <c r="F918" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G918" s="28" t="s">
+      <c r="G918" s="19" t="s">
         <v>3325</v>
       </c>
       <c r="H918" s="1" t="s">
@@ -41913,7 +41888,7 @@
       <c r="F919" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G919" s="28" t="s">
+      <c r="G919" s="19" t="s">
         <v>3329</v>
       </c>
       <c r="H919" s="1" t="s">
@@ -41946,7 +41921,7 @@
       <c r="F920" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G920" s="23" t="s">
+      <c r="G920" s="22" t="s">
         <v>3331</v>
       </c>
       <c r="H920" s="1" t="s">
@@ -41979,7 +41954,7 @@
       <c r="F921" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G921" s="23" t="s">
+      <c r="G921" s="22" t="s">
         <v>3334</v>
       </c>
       <c r="H921" s="1" t="s">
@@ -42012,7 +41987,7 @@
       <c r="F922" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G922" s="20" t="s">
+      <c r="G922" s="19" t="s">
         <v>3337</v>
       </c>
       <c r="H922" s="1" t="s">
@@ -42045,7 +42020,7 @@
       <c r="F923" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G923" s="23" t="s">
+      <c r="G923" s="22" t="s">
         <v>3340</v>
       </c>
       <c r="H923" s="1" t="s">
@@ -42078,7 +42053,7 @@
       <c r="F924" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G924" s="28" t="s">
+      <c r="G924" s="19" t="s">
         <v>3344</v>
       </c>
       <c r="H924" s="1" t="s">
@@ -42111,7 +42086,7 @@
       <c r="F925" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G925" s="28" t="s">
+      <c r="G925" s="19" t="s">
         <v>3347</v>
       </c>
       <c r="H925" s="1" t="s">
@@ -42144,7 +42119,7 @@
       <c r="F926" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G926" s="28" t="s">
+      <c r="G926" s="19" t="s">
         <v>3350</v>
       </c>
       <c r="H926" s="1" t="s">
@@ -42177,7 +42152,7 @@
       <c r="F927" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G927" s="28" t="s">
+      <c r="G927" s="19" t="s">
         <v>3353</v>
       </c>
       <c r="H927" s="1" t="s">
@@ -42210,7 +42185,7 @@
       <c r="F928" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G928" s="23" t="s">
+      <c r="G928" s="22" t="s">
         <v>3356</v>
       </c>
       <c r="H928" s="1" t="s">
@@ -42243,7 +42218,7 @@
       <c r="F929" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G929" s="23" t="s">
+      <c r="G929" s="22" t="s">
         <v>3360</v>
       </c>
       <c r="H929" s="1" t="s">
@@ -42276,7 +42251,7 @@
       <c r="F930" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G930" s="23" t="s">
+      <c r="G930" s="22" t="s">
         <v>3364</v>
       </c>
       <c r="H930" s="1" t="s">
@@ -42309,7 +42284,7 @@
       <c r="F931" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G931" s="23" t="s">
+      <c r="G931" s="22" t="s">
         <v>3367</v>
       </c>
       <c r="H931" s="1" t="s">
@@ -42342,7 +42317,7 @@
       <c r="F932" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G932" s="28" t="s">
+      <c r="G932" s="19" t="s">
         <v>3371</v>
       </c>
       <c r="H932" s="1" t="s">
@@ -42375,7 +42350,7 @@
       <c r="F933" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G933" s="23" t="s">
+      <c r="G933" s="22" t="s">
         <v>3375</v>
       </c>
       <c r="H933" s="1" t="s">
@@ -42408,7 +42383,7 @@
       <c r="F934" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G934" s="20" t="s">
+      <c r="G934" s="19" t="s">
         <v>3380</v>
       </c>
       <c r="H934" s="1" t="s">
@@ -42441,7 +42416,7 @@
       <c r="F935" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G935" s="25" t="s">
+      <c r="G935" s="24" t="s">
         <v>3382</v>
       </c>
       <c r="H935" s="1" t="s">
@@ -42474,7 +42449,7 @@
       <c r="F936" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G936" s="23" t="s">
+      <c r="G936" s="22" t="s">
         <v>3386</v>
       </c>
       <c r="H936" s="1" t="s">
@@ -42507,7 +42482,7 @@
       <c r="F937" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G937" s="23" t="s">
+      <c r="G937" s="22" t="s">
         <v>3389</v>
       </c>
       <c r="H937" s="1" t="s">
@@ -42540,7 +42515,7 @@
       <c r="F938" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G938" s="23" t="s">
+      <c r="G938" s="22" t="s">
         <v>3392</v>
       </c>
       <c r="H938" s="1" t="s">
@@ -42573,7 +42548,7 @@
       <c r="F939" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G939" s="25" t="s">
+      <c r="G939" s="24" t="s">
         <v>3394</v>
       </c>
       <c r="H939" s="1" t="s">
@@ -42606,7 +42581,7 @@
       <c r="F940" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G940" s="20" t="s">
+      <c r="G940" s="19" t="s">
         <v>3398</v>
       </c>
       <c r="H940" s="1" t="s">
@@ -42639,7 +42614,7 @@
       <c r="F941" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G941" s="23" t="s">
+      <c r="G941" s="22" t="s">
         <v>3401</v>
       </c>
       <c r="H941" s="1" t="s">
@@ -42672,7 +42647,7 @@
       <c r="F942" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G942" s="25" t="s">
+      <c r="G942" s="24" t="s">
         <v>3404</v>
       </c>
       <c r="H942" s="1" t="s">
@@ -42705,7 +42680,7 @@
       <c r="F943" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G943" s="24" t="s">
+      <c r="G943" s="23" t="s">
         <v>3407</v>
       </c>
       <c r="H943" s="1" t="s">
@@ -42738,7 +42713,7 @@
       <c r="F944" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G944" s="23" t="s">
+      <c r="G944" s="22" t="s">
         <v>3411</v>
       </c>
       <c r="H944" s="1" t="s">
@@ -42771,7 +42746,7 @@
       <c r="F945" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G945" s="24" t="s">
+      <c r="G945" s="23" t="s">
         <v>3414</v>
       </c>
       <c r="H945" s="1" t="s">
@@ -42804,7 +42779,7 @@
       <c r="F946" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G946" s="20" t="s">
+      <c r="G946" s="19" t="s">
         <v>3418</v>
       </c>
       <c r="H946" s="1" t="s">
@@ -42837,7 +42812,7 @@
       <c r="F947" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G947" s="20" t="s">
+      <c r="G947" s="19" t="s">
         <v>3421</v>
       </c>
       <c r="H947" s="1" t="s">
@@ -42870,7 +42845,7 @@
       <c r="F948" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G948" s="20" t="s">
+      <c r="G948" s="19" t="s">
         <v>3425</v>
       </c>
       <c r="H948" s="1" t="s">
@@ -42903,7 +42878,7 @@
       <c r="F949" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G949" s="25" t="s">
+      <c r="G949" s="24" t="s">
         <v>2512</v>
       </c>
       <c r="H949" s="1" t="s">
@@ -42936,7 +42911,7 @@
       <c r="F950" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G950" s="20" t="s">
+      <c r="G950" s="19" t="s">
         <v>3428</v>
       </c>
       <c r="H950" s="1" t="s">
@@ -42969,7 +42944,7 @@
       <c r="F951" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G951" s="20" t="s">
+      <c r="G951" s="19" t="s">
         <v>3432</v>
       </c>
       <c r="H951" s="1" t="s">
@@ -43002,7 +42977,7 @@
       <c r="F952" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G952" s="23" t="s">
+      <c r="G952" s="22" t="s">
         <v>3436</v>
       </c>
       <c r="H952" s="1" t="s">
@@ -43035,7 +43010,7 @@
       <c r="F953" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G953" s="28" t="s">
+      <c r="G953" s="19" t="s">
         <v>3440</v>
       </c>
       <c r="H953" s="1" t="s">
@@ -43068,7 +43043,7 @@
       <c r="F954" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G954" s="28" t="s">
+      <c r="G954" s="19" t="s">
         <v>3443</v>
       </c>
       <c r="H954" s="1" t="s">
@@ -43101,7 +43076,7 @@
       <c r="F955" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G955" s="28" t="s">
+      <c r="G955" s="19" t="s">
         <v>3447</v>
       </c>
       <c r="H955" s="1" t="s">
@@ -43134,7 +43109,7 @@
       <c r="F956" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G956" s="19"/>
+      <c r="G956" s="18"/>
       <c r="H956" s="1" t="s">
         <v>3450</v>
       </c>
@@ -43165,7 +43140,7 @@
       <c r="F957" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G957" s="19"/>
+      <c r="G957" s="18"/>
       <c r="H957" s="1" t="s">
         <v>14</v>
       </c>
@@ -43196,7 +43171,7 @@
       <c r="F958" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G958" s="19"/>
+      <c r="G958" s="18"/>
       <c r="H958" s="1" t="s">
         <v>26</v>
       </c>
@@ -43227,7 +43202,7 @@
       <c r="F959" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G959" s="19"/>
+      <c r="G959" s="18"/>
       <c r="H959" s="1" t="s">
         <v>26</v>
       </c>
@@ -43258,7 +43233,7 @@
       <c r="F960" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G960" s="19"/>
+      <c r="G960" s="18"/>
       <c r="H960" s="1" t="s">
         <v>26</v>
       </c>
@@ -43289,7 +43264,7 @@
       <c r="F961" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G961" s="19"/>
+      <c r="G961" s="18"/>
       <c r="H961" s="1" t="s">
         <v>14</v>
       </c>
@@ -43320,7 +43295,7 @@
       <c r="F962" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G962" s="25"/>
+      <c r="G962" s="24"/>
       <c r="H962" s="1" t="s">
         <v>14</v>
       </c>
@@ -43351,7 +43326,7 @@
       <c r="F963" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G963" s="19"/>
+      <c r="G963" s="18"/>
       <c r="H963" s="1" t="s">
         <v>40</v>
       </c>
@@ -43382,7 +43357,7 @@
       <c r="F964" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G964" s="19"/>
+      <c r="G964" s="18"/>
       <c r="H964" s="1" t="s">
         <v>26</v>
       </c>
@@ -43413,7 +43388,7 @@
       <c r="F965" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G965" s="19"/>
+      <c r="G965" s="18"/>
       <c r="H965" s="1" t="s">
         <v>3468</v>
       </c>
@@ -43444,7 +43419,7 @@
       <c r="F966" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G966" s="19"/>
+      <c r="G966" s="18"/>
       <c r="H966" s="1" t="s">
         <v>26</v>
       </c>
@@ -43475,7 +43450,7 @@
       <c r="F967" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G967" s="19"/>
+      <c r="G967" s="18"/>
       <c r="H967" s="1" t="s">
         <v>3473</v>
       </c>
@@ -43506,7 +43481,7 @@
       <c r="F968" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G968" s="19"/>
+      <c r="G968" s="18"/>
       <c r="H968" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43537,7 +43512,7 @@
       <c r="F969" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G969" s="19"/>
+      <c r="G969" s="18"/>
       <c r="H969" s="1" t="s">
         <v>26</v>
       </c>
@@ -43568,7 +43543,7 @@
       <c r="F970" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G970" s="19"/>
+      <c r="G970" s="18"/>
       <c r="H970" s="1" t="s">
         <v>66</v>
       </c>
@@ -43599,7 +43574,7 @@
       <c r="F971" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G971" s="19"/>
+      <c r="G971" s="18"/>
       <c r="H971" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43630,7 +43605,7 @@
       <c r="F972" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G972" s="19"/>
+      <c r="G972" s="18"/>
       <c r="H972" s="1" t="s">
         <v>66</v>
       </c>
@@ -43661,7 +43636,7 @@
       <c r="F973" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G973" s="19"/>
+      <c r="G973" s="18"/>
       <c r="H973" s="1" t="s">
         <v>66</v>
       </c>
@@ -43692,7 +43667,7 @@
       <c r="F974" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G974" s="19"/>
+      <c r="G974" s="18"/>
       <c r="H974" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43723,7 +43698,7 @@
       <c r="F975" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G975" s="19"/>
+      <c r="G975" s="18"/>
       <c r="H975" s="1" t="s">
         <v>3479</v>
       </c>
@@ -43754,7 +43729,7 @@
       <c r="F976" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G976" s="19"/>
+      <c r="G976" s="18"/>
       <c r="H976" s="1" t="s">
         <v>26</v>
       </c>
@@ -43785,7 +43760,7 @@
       <c r="F977" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G977" s="19"/>
+      <c r="G977" s="18"/>
       <c r="H977" s="1" t="s">
         <v>3468</v>
       </c>
@@ -43816,7 +43791,7 @@
       <c r="F978" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G978" s="19"/>
+      <c r="G978" s="18"/>
       <c r="H978" s="5" t="s">
         <v>2991</v>
       </c>
@@ -43847,7 +43822,7 @@
       <c r="F979" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G979" s="19"/>
+      <c r="G979" s="18"/>
       <c r="H979" s="1" t="s">
         <v>2991</v>
       </c>
@@ -43878,7 +43853,7 @@
       <c r="F980" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G980" s="19"/>
+      <c r="G980" s="18"/>
       <c r="H980" s="1" t="s">
         <v>2991</v>
       </c>
@@ -43906,7 +43881,7 @@
       <c r="F981" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G981" s="19"/>
+      <c r="G981" s="18"/>
       <c r="H981" s="1" t="s">
         <v>40</v>
       </c>
@@ -43937,7 +43912,7 @@
       <c r="F982" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="G982" s="19"/>
+      <c r="G982" s="18"/>
       <c r="H982" s="1" t="s">
         <v>3468</v>
       </c>
@@ -43968,7 +43943,7 @@
       <c r="F983" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G983" s="20" t="s">
+      <c r="G983" s="19" t="s">
         <v>3515</v>
       </c>
       <c r="H983" s="1" t="s">
@@ -44001,7 +43976,7 @@
       <c r="F984" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G984" s="20" t="s">
+      <c r="G984" s="19" t="s">
         <v>3519</v>
       </c>
       <c r="H984" s="1" t="s">
@@ -44034,7 +44009,7 @@
       <c r="F985" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G985" s="18" t="s">
+      <c r="G985" s="19" t="s">
         <v>3524</v>
       </c>
       <c r="H985" s="1" t="s">
@@ -44067,7 +44042,7 @@
       <c r="F986" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G986" s="18" t="s">
+      <c r="G986" s="19" t="s">
         <v>3528</v>
       </c>
       <c r="H986" s="1" t="s">
@@ -44100,7 +44075,7 @@
       <c r="F987" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G987" s="27" t="s">
+      <c r="G987" s="18" t="s">
         <v>3531</v>
       </c>
       <c r="H987" s="1" t="s">

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9366" uniqueCount="3789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9700" uniqueCount="3923">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -11383,6 +11383,408 @@
   </si>
   <si>
     <t>628-630 BLOOR ST</t>
+  </si>
+  <si>
+    <t>https://www.smokelab.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/05/27</t>
+  </si>
+  <si>
+    <t>1234 KING ST W</t>
+  </si>
+  <si>
+    <t>Smoke Lab Cannabis - King West</t>
+  </si>
+  <si>
+    <t>http://www.spot420.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/11/17</t>
+  </si>
+  <si>
+    <t>2180 CREDIT VALLEY RD UNIT 102</t>
+  </si>
+  <si>
+    <t>Spot420 The Cannabis Store</t>
+  </si>
+  <si>
+    <t>http://www.stickynuggzinc.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/03/04</t>
+  </si>
+  <si>
+    <t>85 COTTRELLE BLVD UNIT 3</t>
+  </si>
+  <si>
+    <t>Sticky Nuggz Cottrelle Inc.</t>
+  </si>
+  <si>
+    <t>https://stickynuggzinc.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2022/04/11</t>
+  </si>
+  <si>
+    <t>354 WELLINGTON ST UNIT B</t>
+  </si>
+  <si>
+    <t>Sticky Nuggz London Wellington Inc.</t>
+  </si>
+  <si>
+    <t>https://superetteshop.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/07/02</t>
+  </si>
+  <si>
+    <t>2 OSSINGTON AVE UNIT 1</t>
+  </si>
+  <si>
+    <t>http://southernleafhemp.co/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2020/10/16</t>
+  </si>
+  <si>
+    <t>5236 HIGHWAY 12 SOUTH, UNIT B</t>
+  </si>
+  <si>
+    <t>SUPREME LEAF CANNABIS COMPANY</t>
+  </si>
+  <si>
+    <t>RAMARA</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/06/19</t>
+  </si>
+  <si>
+    <t>4651 SHEPPARD AVE E UNIT S102</t>
+  </si>
+  <si>
+    <t>Tampi Incorporation</t>
+  </si>
+  <si>
+    <t>https://www.tbcontario.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/11/19</t>
+  </si>
+  <si>
+    <t>45 STANLEY ST UNIT 200</t>
+  </si>
+  <si>
+    <t>https://thccanada.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/02/02</t>
+  </si>
+  <si>
+    <t>38 BLUE JAYS WAY UNIT 5</t>
+  </si>
+  <si>
+    <t>THC CANADA</t>
+  </si>
+  <si>
+    <t>10 BRIDGEPORT RD W</t>
+  </si>
+  <si>
+    <t>The Cannabist Shop - Bridgeport W</t>
+  </si>
+  <si>
+    <t>https://www.cannabistshop.ca/london-dispensary</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/08/28</t>
+  </si>
+  <si>
+    <t>62 WHARNCLIFFE RD N</t>
+  </si>
+  <si>
+    <t>THE CANNABIST SHOP - WHARNCLIFFE</t>
+  </si>
+  <si>
+    <t>250 ALBERT ST SUITE 107</t>
+  </si>
+  <si>
+    <t>The Green Closet Waterloo</t>
+  </si>
+  <si>
+    <t>https://www.thegreenroomcannabis.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/09/11</t>
+  </si>
+  <si>
+    <t>109 KING ST W</t>
+  </si>
+  <si>
+    <t>The Green Room - King W</t>
+  </si>
+  <si>
+    <t>https://cbd.puffingbird.com/ontario/guelph/the-green-room</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/08/13</t>
+  </si>
+  <si>
+    <t>89 MACDONELL ST</t>
+  </si>
+  <si>
+    <t>The Green Room - Macdonell</t>
+  </si>
+  <si>
+    <t>https://thehunnypot.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/10/14</t>
+  </si>
+  <si>
+    <t>3010 COLONEL TALBOT RD SUITE 1</t>
+  </si>
+  <si>
+    <t>['No delivery / Temporarily closed']</t>
+  </si>
+  <si>
+    <t>http://thenugco.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2022/02/24</t>
+  </si>
+  <si>
+    <t>514 RITSON RD S</t>
+  </si>
+  <si>
+    <t>The Nug Co.</t>
+  </si>
+  <si>
+    <t>https://peacepipe420.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/09/30</t>
+  </si>
+  <si>
+    <t>465 BAYLY ST W UNIT 1</t>
+  </si>
+  <si>
+    <t>https://triphouseco.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2022/10/14</t>
+  </si>
+  <si>
+    <t>850 WILSON AVE</t>
+  </si>
+  <si>
+    <t>The Trip House</t>
+  </si>
+  <si>
+    <t>https://www.thewoodscannabis.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/08/18</t>
+  </si>
+  <si>
+    <t>660 EGLINTON AVE W UNIT 7</t>
+  </si>
+  <si>
+    <t>The Woods Cannabis</t>
+  </si>
+  <si>
+    <t>905-820-5559</t>
+  </si>
+  <si>
+    <t>https://www.thewoodscannabis.ca/dispensary-mississauga</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/06/29</t>
+  </si>
+  <si>
+    <t>3145 DUNDAS ST W UNIT 11A</t>
+  </si>
+  <si>
+    <t>https://www.tokecannabis.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/08/31</t>
+  </si>
+  <si>
+    <t>1133 NOTRE DAME AVE</t>
+  </si>
+  <si>
+    <t>https://ca.tokyosmoke.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/02/03</t>
+  </si>
+  <si>
+    <t>999 UPPER WENTWORTH ST UNIT 167</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Lime Ridge Mall</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/09/13</t>
+  </si>
+  <si>
+    <t>1355 KINGSTON RD SUITE 71</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Pickering Town Centre</t>
+  </si>
+  <si>
+    <t>https://ca.tokyosmoke.com/pages/store-locator-1</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/20</t>
+  </si>
+  <si>
+    <t>925 ONTARIO ST UNIT 5B</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Stratford Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.tweed.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 MAPLEVIEW DR E UNIT A </t>
+  </si>
+  <si>
+    <t>Tweed</t>
+  </si>
+  <si>
+    <t>https://www.tweed.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/04/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 GARDINERS ROAD UNIT 2B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KINGSTON </t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/12/22</t>
+  </si>
+  <si>
+    <t>950 LANSDOWNE ST W UNIT A-07</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2022/02/07</t>
+  </si>
+  <si>
+    <t>1970 WALKLEY RD</t>
+  </si>
+  <si>
+    <t>2162 PRINCE OF WALES DR</t>
+  </si>
+  <si>
+    <t>https://locations.timhortons.ca/en/on/burlington/2971-walkers-line/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2022/02/04</t>
+  </si>
+  <si>
+    <t>2971 WALKER'S LINE UNIT A</t>
+  </si>
+  <si>
+    <t>https://twistedterpsdispensary.com/</t>
+  </si>
+  <si>
+    <t>10488 HIGHWAY 7</t>
+  </si>
+  <si>
+    <t>Twisted Terps Cannabis</t>
+  </si>
+  <si>
+    <t>https://uncleherbs.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/02/19</t>
+  </si>
+  <si>
+    <t>1527 MERIVALE RD</t>
+  </si>
+  <si>
+    <t>UNCLE HERBS CANNABIS</t>
+  </si>
+  <si>
+    <t>https://on.valuebuds.com/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/09/06</t>
+  </si>
+  <si>
+    <t>70 FIRST ST</t>
+  </si>
+  <si>
+    <t>https://on.valuebuds.com/pages/search-results-page?collection=value-buds-huron-church-rd</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/09/08</t>
+  </si>
+  <si>
+    <t>1726 HURON CHURCH RD SUITE 4</t>
+  </si>
+  <si>
+    <t>['No delivery / Closed']</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/07/26</t>
+  </si>
+  <si>
+    <t>2400 DUNDAS ST W UNIT 14</t>
+  </si>
+  <si>
+    <t>WE'D Cannabis</t>
+  </si>
+  <si>
+    <t>1192 THE QUEENSWAY</t>
+  </si>
+  <si>
+    <t>Weed Academy</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/10/27</t>
+  </si>
+  <si>
+    <t>234 GRAHAM ROAD</t>
+  </si>
+  <si>
+    <t>West Lorne Leaf</t>
+  </si>
+  <si>
+    <t>WEST LORNE</t>
+  </si>
+  <si>
+    <t>https://yolocan.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/11/08</t>
+  </si>
+  <si>
+    <t>168 CURRIE RD</t>
+  </si>
+  <si>
+    <t>Yolo Cannabis</t>
+  </si>
+  <si>
+    <t>DUTTON</t>
+  </si>
+  <si>
+    <t>https://www.zencann.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/06/17</t>
+  </si>
+  <si>
+    <t>2250 HIGHWAY 7</t>
+  </si>
+  <si>
+    <t>Zen Cannabis</t>
   </si>
 </sst>
 </file>
@@ -11915,10 +12317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1060"/>
+  <dimension ref="A1:N1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1037" workbookViewId="0">
-      <selection activeCell="G1048" sqref="G1048"/>
+    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
+      <selection activeCell="F1095" sqref="F1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47090,6 +47492,1176 @@
       </c>
       <c r="J1060" s="33" t="s">
         <v>3650</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D1061" s="11" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E1061" s="32" t="s">
+        <v>3789</v>
+      </c>
+      <c r="F1061" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1061" s="30"/>
+      <c r="H1061" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1061" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1061" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D1062" s="11" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E1062" s="29" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F1062" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1062" s="30"/>
+      <c r="H1062" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1062" s="31">
+        <v>4162467769</v>
+      </c>
+      <c r="J1062" s="33" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D1063" s="11" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E1063" s="29" t="s">
+        <v>3797</v>
+      </c>
+      <c r="F1063" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1063" s="30"/>
+      <c r="H1063" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1063" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1063" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D1064" s="11" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E1064" s="29" t="s">
+        <v>3801</v>
+      </c>
+      <c r="F1064" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1064" s="30"/>
+      <c r="H1064" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1064" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1064" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D1065" s="11" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E1065" s="32" t="s">
+        <v>3805</v>
+      </c>
+      <c r="F1065" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1065" s="30"/>
+      <c r="H1065" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1065" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1065" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D1066" s="11" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1066" s="29" t="s">
+        <v>3808</v>
+      </c>
+      <c r="F1066" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1066" s="30"/>
+      <c r="H1066" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1066" s="31">
+        <v>19016728467</v>
+      </c>
+      <c r="J1066" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D1067" s="11" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E1067" s="29" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1067" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1067" s="30"/>
+      <c r="H1067" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1067" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1067" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D1068" s="11" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E1068" s="29" t="s">
+        <v>3816</v>
+      </c>
+      <c r="F1068" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1068" s="30"/>
+      <c r="H1068" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1068" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1068" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D1069" s="11" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E1069" s="32" t="s">
+        <v>3819</v>
+      </c>
+      <c r="F1069" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1069" s="30"/>
+      <c r="H1069" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1069" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1069" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1070" s="11" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E1070" s="32" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1070" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1070" s="30"/>
+      <c r="H1070" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1070" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1070" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D1071" s="11" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E1071" s="32" t="s">
+        <v>3825</v>
+      </c>
+      <c r="F1071" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1071" s="30"/>
+      <c r="H1071" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1071" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1071" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D1072" s="11" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1072" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1072" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1072" s="30"/>
+      <c r="H1072" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1072" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1072" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D1073" s="11" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E1073" s="29" t="s">
+        <v>3831</v>
+      </c>
+      <c r="F1073" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1073" s="30"/>
+      <c r="H1073" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1073" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1073" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1074" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1074" s="11" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E1074" s="32" t="s">
+        <v>3835</v>
+      </c>
+      <c r="F1074" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1074" s="30"/>
+      <c r="H1074" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1074" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1074" s="33" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D1075" s="11" t="s">
+        <v>3840</v>
+      </c>
+      <c r="E1075" s="32" t="s">
+        <v>3839</v>
+      </c>
+      <c r="F1075" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1075" s="30"/>
+      <c r="H1075" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1075" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1075" s="33" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="D1076" s="11" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E1076" s="29" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1076" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1076" s="30"/>
+      <c r="H1076" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1076" s="31">
+        <v>19052420647</v>
+      </c>
+      <c r="J1076" s="33" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1077" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D1077" s="11" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E1077" s="29" t="s">
+        <v>3847</v>
+      </c>
+      <c r="F1077" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1077" s="30"/>
+      <c r="H1077" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1077" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1077" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1078" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D1078" s="11" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E1078" s="32" t="s">
+        <v>3850</v>
+      </c>
+      <c r="F1078" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1078" s="30"/>
+      <c r="H1078" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1078" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1078" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1079" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D1079" s="11" t="s">
+        <v>3855</v>
+      </c>
+      <c r="E1079" s="32" t="s">
+        <v>3854</v>
+      </c>
+      <c r="F1079" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1079" s="30"/>
+      <c r="H1079" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1079" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1079" s="33" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D1080" s="11" t="s">
+        <v>3860</v>
+      </c>
+      <c r="E1080" s="29" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F1080" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1080" s="30"/>
+      <c r="H1080" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1080" s="31" t="s">
+        <v>3858</v>
+      </c>
+      <c r="J1080" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1081" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D1081" s="11" t="s">
+        <v>3863</v>
+      </c>
+      <c r="E1081" s="32" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F1081" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1081" s="30"/>
+      <c r="H1081" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1081" s="31">
+        <v>17052073887</v>
+      </c>
+      <c r="J1081" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1082" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1082" s="11" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E1082" s="29" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F1082" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1082" s="30"/>
+      <c r="H1082" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1082" s="31">
+        <v>19053874455</v>
+      </c>
+      <c r="J1082" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1083" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D1083" s="11" t="s">
+        <v>3869</v>
+      </c>
+      <c r="E1083" s="29" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F1083" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1083" s="30"/>
+      <c r="H1083" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1083" s="31">
+        <v>19056837171</v>
+      </c>
+      <c r="J1083" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1084" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D1084" s="11" t="s">
+        <v>3873</v>
+      </c>
+      <c r="E1084" s="29" t="s">
+        <v>3872</v>
+      </c>
+      <c r="F1084" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1084" s="30"/>
+      <c r="H1084" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1084" s="10">
+        <v>15195081925</v>
+      </c>
+      <c r="J1084" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1085" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D1085" s="11" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1085" s="29" t="s">
+        <v>3876</v>
+      </c>
+      <c r="F1085" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1085" s="30"/>
+      <c r="H1085" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1085" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1085" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1086" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D1086" s="11" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E1086" s="29" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F1086" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1086" s="30"/>
+      <c r="H1086" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1086" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1086" s="33" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1087" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D1087" s="11" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E1087" s="32" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F1087" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1087" s="30"/>
+      <c r="H1087" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1087" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1087" s="33" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1088" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D1088" s="11" t="s">
+        <v>3885</v>
+      </c>
+      <c r="E1088" s="29" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F1088" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1088" s="30"/>
+      <c r="H1088" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1088" s="31">
+        <v>16135219090</v>
+      </c>
+      <c r="J1088" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1089" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D1089" s="11" t="s">
+        <v>3885</v>
+      </c>
+      <c r="E1089" s="29" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F1089" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1089" s="30"/>
+      <c r="H1089" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1089" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1089" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1090" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D1090" s="11" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E1090" s="29" t="s">
+        <v>3888</v>
+      </c>
+      <c r="F1090" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1090" s="30"/>
+      <c r="H1090" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1090" s="31">
+        <v>19053325355</v>
+      </c>
+      <c r="J1090" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1091" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D1091" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1091" s="29" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F1091" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1091" s="30"/>
+      <c r="H1091" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1091" s="31">
+        <v>19363559752</v>
+      </c>
+      <c r="J1091" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1092" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D1092" s="11" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E1092" s="32" t="s">
+        <v>3894</v>
+      </c>
+      <c r="F1092" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1092" s="30"/>
+      <c r="H1092" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1092" s="31">
+        <v>6137274567</v>
+      </c>
+      <c r="J1092" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1093" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D1093" s="11" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E1093" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1093" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1093" s="30"/>
+      <c r="H1093" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1093" s="31">
+        <v>14163642321</v>
+      </c>
+      <c r="J1093" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1094" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D1094" s="11" t="s">
+        <v>3902</v>
+      </c>
+      <c r="E1094" s="32" t="s">
+        <v>3901</v>
+      </c>
+      <c r="F1094" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G1094" s="30"/>
+      <c r="H1094" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1094" s="31">
+        <v>15192549933</v>
+      </c>
+      <c r="J1094" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1095" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D1095" s="11" t="s">
+        <v>3905</v>
+      </c>
+      <c r="E1095" s="29" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F1095" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1095" s="30"/>
+      <c r="H1095" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1095" s="31">
+        <v>12896749333</v>
+      </c>
+      <c r="J1095" s="33" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1096" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D1096" s="11" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E1096" s="29" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1096" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1096" s="30"/>
+      <c r="H1096" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1096" s="31" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1096" s="33" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D1097" s="11" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E1097" s="29" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1097" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1097" s="30"/>
+      <c r="H1097" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1097" s="31">
+        <v>5197682620</v>
+      </c>
+      <c r="J1097" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D1098" s="11" t="s">
+        <v>3915</v>
+      </c>
+      <c r="E1098" s="29" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F1098" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1098" s="30"/>
+      <c r="H1098" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1098" s="31">
+        <v>15197626262</v>
+      </c>
+      <c r="J1098" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1099" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D1099" s="11" t="s">
+        <v>3920</v>
+      </c>
+      <c r="E1099" s="29" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F1099" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1099" s="30"/>
+      <c r="H1099" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1099" s="31">
+        <v>15197429366</v>
+      </c>
+      <c r="J1099" s="1" t="s">
+        <v>3461</v>
       </c>
     </row>
   </sheetData>
@@ -47129,9 +48701,22 @@
     <hyperlink ref="E1053" r:id="rId33"/>
     <hyperlink ref="E1059" r:id="rId34"/>
     <hyperlink ref="I1060" r:id="rId35" display="tel: 905-896-7756"/>
+    <hyperlink ref="E1061" r:id="rId36"/>
+    <hyperlink ref="E1065" r:id="rId37"/>
+    <hyperlink ref="E1069" r:id="rId38"/>
+    <hyperlink ref="E1070" r:id="rId39"/>
+    <hyperlink ref="E1071" r:id="rId40"/>
+    <hyperlink ref="E1072" r:id="rId41"/>
+    <hyperlink ref="E1075" r:id="rId42"/>
+    <hyperlink ref="E1078" r:id="rId43"/>
+    <hyperlink ref="E1079" r:id="rId44"/>
+    <hyperlink ref="E1081" r:id="rId45"/>
+    <hyperlink ref="I1084" r:id="rId46" display="tel:+15195081925"/>
+    <hyperlink ref="E1087" r:id="rId47"/>
+    <hyperlink ref="E1092" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId49"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -12319,8 +12319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="F1095" sqref="F1095"/>
+    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
+      <selection activeCell="N987" sqref="N987:N1099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45333,6 +45333,7 @@
       <c r="J988" s="1" t="s">
         <v>3534</v>
       </c>
+      <c r="N988" s="12"/>
     </row>
     <row r="989" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1" t="s">
@@ -45363,6 +45364,7 @@
       <c r="J989" s="1" t="s">
         <v>3461</v>
       </c>
+      <c r="N989" s="12"/>
     </row>
     <row r="990" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="1" t="s">
@@ -45393,6 +45395,7 @@
       <c r="J990" s="1" t="s">
         <v>3461</v>
       </c>
+      <c r="N990" s="12"/>
     </row>
     <row r="991" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1" t="s">
@@ -45423,6 +45426,7 @@
       <c r="J991" s="1" t="s">
         <v>3461</v>
       </c>
+      <c r="N991" s="12"/>
     </row>
     <row r="992" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="1" t="s">
@@ -45453,8 +45457,9 @@
       <c r="J992" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="993" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N992" s="12"/>
+    </row>
+    <row r="993" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="1" t="s">
         <v>27</v>
       </c>
@@ -45483,8 +45488,9 @@
       <c r="J993" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="994" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N993" s="12"/>
+    </row>
+    <row r="994" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1" t="s">
         <v>41</v>
       </c>
@@ -45513,8 +45519,9 @@
       <c r="J994" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="995" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N994" s="12"/>
+    </row>
+    <row r="995" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="1" t="s">
         <v>1378</v>
       </c>
@@ -45543,8 +45550,9 @@
       <c r="J995" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="996" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N995" s="12"/>
+    </row>
+    <row r="996" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1" t="s">
         <v>465</v>
       </c>
@@ -45573,8 +45581,9 @@
       <c r="J996" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="997" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N996" s="12"/>
+    </row>
+    <row r="997" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="1" t="s">
         <v>3570</v>
       </c>
@@ -45603,8 +45612,9 @@
       <c r="J997" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="998" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N997" s="12"/>
+    </row>
+    <row r="998" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="1" t="s">
         <v>3575</v>
       </c>
@@ -45633,8 +45643,9 @@
       <c r="J998" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="999" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N998" s="12"/>
+    </row>
+    <row r="999" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="1" t="s">
         <v>974</v>
       </c>
@@ -45663,8 +45674,9 @@
       <c r="J999" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1000" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N999" s="12"/>
+    </row>
+    <row r="1000" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="1" t="s">
         <v>2561</v>
       </c>
@@ -45693,8 +45705,9 @@
       <c r="J1000" s="33" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1001" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1000" s="12"/>
+    </row>
+    <row r="1001" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="1" t="s">
         <v>186</v>
       </c>
@@ -45723,8 +45736,9 @@
       <c r="J1001" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1002" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1001" s="12"/>
+    </row>
+    <row r="1002" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="1" t="s">
         <v>27</v>
       </c>
@@ -45753,8 +45767,9 @@
       <c r="J1002" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1003" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1002" s="12"/>
+    </row>
+    <row r="1003" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="1" t="s">
         <v>533</v>
       </c>
@@ -45783,8 +45798,9 @@
       <c r="J1003" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1004" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1003" s="12"/>
+    </row>
+    <row r="1004" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="1" t="s">
         <v>2587</v>
       </c>
@@ -45813,8 +45829,9 @@
       <c r="J1004" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1005" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1004" s="12"/>
+    </row>
+    <row r="1005" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="1" t="s">
         <v>3601</v>
       </c>
@@ -45843,8 +45860,9 @@
       <c r="J1005" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1006" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1005" s="12"/>
+    </row>
+    <row r="1006" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="1" t="s">
         <v>130</v>
       </c>
@@ -45873,8 +45891,9 @@
       <c r="J1006" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1007" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1006" s="12"/>
+    </row>
+    <row r="1007" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="1" t="s">
         <v>61</v>
       </c>
@@ -45903,8 +45922,9 @@
       <c r="J1007" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1008" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1007" s="12"/>
+    </row>
+    <row r="1008" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="1" t="s">
         <v>465</v>
       </c>
@@ -45933,8 +45953,9 @@
       <c r="J1008" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1009" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1008" s="12"/>
+    </row>
+    <row r="1009" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="1" t="s">
         <v>465</v>
       </c>
@@ -45963,8 +45984,9 @@
       <c r="J1009" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1010" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1009" s="12"/>
+    </row>
+    <row r="1010" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="1" t="s">
         <v>465</v>
       </c>
@@ -45993,8 +46015,9 @@
       <c r="J1010" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1011" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1010" s="12"/>
+    </row>
+    <row r="1011" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="1" t="s">
         <v>465</v>
       </c>
@@ -46023,8 +46046,9 @@
       <c r="J1011" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1012" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1011" s="12"/>
+    </row>
+    <row r="1012" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="1" t="s">
         <v>465</v>
       </c>
@@ -46053,8 +46077,9 @@
       <c r="J1012" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1013" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1012" s="12"/>
+    </row>
+    <row r="1013" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="1" t="s">
         <v>465</v>
       </c>
@@ -46083,8 +46108,9 @@
       <c r="J1013" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1014" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1013" s="12"/>
+    </row>
+    <row r="1014" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="1" t="s">
         <v>3625</v>
       </c>
@@ -46113,8 +46139,9 @@
       <c r="J1014" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1015" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1014" s="12"/>
+    </row>
+    <row r="1015" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="1" t="s">
         <v>27</v>
       </c>
@@ -46143,8 +46170,9 @@
       <c r="J1015" s="33" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1016" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1015" s="12"/>
+    </row>
+    <row r="1016" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="1" t="s">
         <v>691</v>
       </c>
@@ -46173,8 +46201,9 @@
       <c r="J1016" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1017" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1016" s="12"/>
+    </row>
+    <row r="1017" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="1" t="s">
         <v>676</v>
       </c>
@@ -46203,8 +46232,9 @@
       <c r="J1017" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1018" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1017" s="12"/>
+    </row>
+    <row r="1018" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="1" t="s">
         <v>171</v>
       </c>
@@ -46233,8 +46263,9 @@
       <c r="J1018" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1019" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1018" s="12"/>
+    </row>
+    <row r="1019" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="1" t="s">
         <v>366</v>
       </c>
@@ -46263,8 +46294,9 @@
       <c r="J1019" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1020" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1019" s="12"/>
+    </row>
+    <row r="1020" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="1" t="s">
         <v>473</v>
       </c>
@@ -46293,8 +46325,9 @@
       <c r="J1020" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1021" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1020" s="12"/>
+    </row>
+    <row r="1021" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="1" t="s">
         <v>935</v>
       </c>
@@ -46323,8 +46356,9 @@
       <c r="J1021" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1022" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1021" s="12"/>
+    </row>
+    <row r="1022" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="1" t="s">
         <v>46</v>
       </c>
@@ -46353,8 +46387,9 @@
       <c r="J1022" s="33" t="s">
         <v>3650</v>
       </c>
-    </row>
-    <row r="1023" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1022" s="12"/>
+    </row>
+    <row r="1023" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="1" t="s">
         <v>67</v>
       </c>
@@ -46383,8 +46418,9 @@
       <c r="J1023" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1024" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1023" s="12"/>
+    </row>
+    <row r="1024" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="1" t="s">
         <v>1505</v>
       </c>
@@ -46413,8 +46449,9 @@
       <c r="J1024" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1025" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1024" s="12"/>
+    </row>
+    <row r="1025" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="1" t="s">
         <v>46</v>
       </c>
@@ -46443,8 +46480,9 @@
       <c r="J1025" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1026" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1025" s="12"/>
+    </row>
+    <row r="1026" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="1" t="s">
         <v>3668</v>
       </c>
@@ -46473,8 +46511,9 @@
       <c r="J1026" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1027" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1026" s="12"/>
+    </row>
+    <row r="1027" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="1" t="s">
         <v>533</v>
       </c>
@@ -46503,8 +46542,9 @@
       <c r="J1027" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1028" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1027" s="12"/>
+    </row>
+    <row r="1028" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="1" t="s">
         <v>67</v>
       </c>
@@ -46533,8 +46573,9 @@
       <c r="J1028" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1029" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1028" s="12"/>
+    </row>
+    <row r="1029" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="1" t="s">
         <v>994</v>
       </c>
@@ -46563,8 +46604,9 @@
       <c r="J1029" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1030" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1029" s="12"/>
+    </row>
+    <row r="1030" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="1" t="s">
         <v>3684</v>
       </c>
@@ -46593,8 +46635,9 @@
       <c r="J1030" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1031" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1030" s="12"/>
+    </row>
+    <row r="1031" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1031" s="1" t="s">
         <v>3689</v>
       </c>
@@ -46623,8 +46666,9 @@
       <c r="J1031" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1032" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1031" s="12"/>
+    </row>
+    <row r="1032" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="1" t="s">
         <v>478</v>
       </c>
@@ -46653,8 +46697,9 @@
       <c r="J1032" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1033" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1032" s="12"/>
+    </row>
+    <row r="1033" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="1" t="s">
         <v>0</v>
       </c>
@@ -46683,8 +46728,9 @@
       <c r="J1033" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1034" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1033" s="12"/>
+    </row>
+    <row r="1034" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1034" s="1" t="s">
         <v>3699</v>
       </c>
@@ -46713,8 +46759,9 @@
       <c r="J1034" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1035" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1034" s="12"/>
+    </row>
+    <row r="1035" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1035" s="1" t="s">
         <v>3704</v>
       </c>
@@ -46743,8 +46790,9 @@
       <c r="J1035" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1036" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1035" s="12"/>
+    </row>
+    <row r="1036" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1036" s="1" t="s">
         <v>3491</v>
       </c>
@@ -46773,8 +46821,9 @@
       <c r="J1036" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1037" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1036" s="12"/>
+    </row>
+    <row r="1037" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="1" t="s">
         <v>1728</v>
       </c>
@@ -46803,8 +46852,9 @@
       <c r="J1037" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1038" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1037" s="12"/>
+    </row>
+    <row r="1038" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1038" s="1" t="s">
         <v>171</v>
       </c>
@@ -46833,8 +46883,9 @@
       <c r="J1038" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1039" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1038" s="12"/>
+    </row>
+    <row r="1039" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1039" s="1" t="s">
         <v>691</v>
       </c>
@@ -46863,8 +46914,9 @@
       <c r="J1039" s="33" t="s">
         <v>3650</v>
       </c>
-    </row>
-    <row r="1040" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1039" s="12"/>
+    </row>
+    <row r="1040" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="1" t="s">
         <v>46</v>
       </c>
@@ -46893,8 +46945,9 @@
       <c r="J1040" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1041" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1040" s="12"/>
+    </row>
+    <row r="1041" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1041" s="1" t="s">
         <v>125</v>
       </c>
@@ -46923,8 +46976,9 @@
       <c r="J1041" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1042" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1041" s="12"/>
+    </row>
+    <row r="1042" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1042" s="1" t="s">
         <v>27</v>
       </c>
@@ -46953,8 +47007,9 @@
       <c r="J1042" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1043" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1042" s="12"/>
+    </row>
+    <row r="1043" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1043" s="1" t="s">
         <v>41</v>
       </c>
@@ -46983,8 +47038,9 @@
       <c r="J1043" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1044" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1043" s="12"/>
+    </row>
+    <row r="1044" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1044" s="1" t="s">
         <v>1378</v>
       </c>
@@ -47013,8 +47069,9 @@
       <c r="J1044" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1045" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1044" s="12"/>
+    </row>
+    <row r="1045" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1045" s="1" t="s">
         <v>2561</v>
       </c>
@@ -47043,8 +47100,9 @@
       <c r="J1045" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1046" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1045" s="12"/>
+    </row>
+    <row r="1046" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1046" s="1" t="s">
         <v>120</v>
       </c>
@@ -47073,8 +47131,9 @@
       <c r="J1046" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1047" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1046" s="12"/>
+    </row>
+    <row r="1047" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1047" s="1" t="s">
         <v>304</v>
       </c>
@@ -47103,8 +47162,9 @@
       <c r="J1047" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1048" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1047" s="12"/>
+    </row>
+    <row r="1048" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1048" s="1" t="s">
         <v>41</v>
       </c>
@@ -47133,8 +47193,9 @@
       <c r="J1048" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1049" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1048" s="12"/>
+    </row>
+    <row r="1049" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1049" s="1" t="s">
         <v>67</v>
       </c>
@@ -47163,8 +47224,9 @@
       <c r="J1049" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1050" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1049" s="12"/>
+    </row>
+    <row r="1050" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1050" s="1" t="s">
         <v>186</v>
       </c>
@@ -47193,8 +47255,9 @@
       <c r="J1050" s="33" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1051" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1050" s="12"/>
+    </row>
+    <row r="1051" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1051" s="1" t="s">
         <v>945</v>
       </c>
@@ -47223,8 +47286,9 @@
       <c r="J1051" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1052" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1051" s="12"/>
+    </row>
+    <row r="1052" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1052" s="1" t="s">
         <v>0</v>
       </c>
@@ -47253,8 +47317,9 @@
       <c r="J1052" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1053" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1052" s="12"/>
+    </row>
+    <row r="1053" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1053" s="1" t="s">
         <v>292</v>
       </c>
@@ -47283,8 +47348,9 @@
       <c r="J1053" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1054" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1053" s="12"/>
+    </row>
+    <row r="1054" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1054" s="1" t="s">
         <v>3768</v>
       </c>
@@ -47313,8 +47379,9 @@
       <c r="J1054" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1055" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1054" s="12"/>
+    </row>
+    <row r="1055" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1055" s="1" t="s">
         <v>125</v>
       </c>
@@ -47343,8 +47410,9 @@
       <c r="J1055" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1056" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1055" s="12"/>
+    </row>
+    <row r="1056" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1056" s="1" t="s">
         <v>46</v>
       </c>
@@ -47373,8 +47441,9 @@
       <c r="J1056" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1057" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1056" s="12"/>
+    </row>
+    <row r="1057" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1057" s="1" t="s">
         <v>46</v>
       </c>
@@ -47403,8 +47472,9 @@
       <c r="J1057" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1058" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1057" s="12"/>
+    </row>
+    <row r="1058" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1058" s="1" t="s">
         <v>181</v>
       </c>
@@ -47433,8 +47503,9 @@
       <c r="J1058" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1059" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1058" s="12"/>
+    </row>
+    <row r="1059" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1059" s="1" t="s">
         <v>3785</v>
       </c>
@@ -47463,8 +47534,9 @@
       <c r="J1059" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1060" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1059" s="12"/>
+    </row>
+    <row r="1060" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1060" s="1" t="s">
         <v>465</v>
       </c>
@@ -47493,8 +47565,9 @@
       <c r="J1060" s="33" t="s">
         <v>3650</v>
       </c>
-    </row>
-    <row r="1061" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1060" s="12"/>
+    </row>
+    <row r="1061" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1061" s="1" t="s">
         <v>27</v>
       </c>
@@ -47523,8 +47596,9 @@
       <c r="J1061" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1062" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1061" s="12"/>
+    </row>
+    <row r="1062" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1062" s="1" t="s">
         <v>465</v>
       </c>
@@ -47553,8 +47627,9 @@
       <c r="J1062" s="33" t="s">
         <v>3650</v>
       </c>
-    </row>
-    <row r="1063" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1062" s="12"/>
+    </row>
+    <row r="1063" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1063" s="1" t="s">
         <v>473</v>
       </c>
@@ -47583,8 +47658,9 @@
       <c r="J1063" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1064" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1063" s="12"/>
+    </row>
+    <row r="1064" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1064" s="1" t="s">
         <v>3286</v>
       </c>
@@ -47613,8 +47689,9 @@
       <c r="J1064" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1065" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1064" s="12"/>
+    </row>
+    <row r="1065" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1065" s="1" t="s">
         <v>27</v>
       </c>
@@ -47643,8 +47720,9 @@
       <c r="J1065" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1066" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1065" s="12"/>
+    </row>
+    <row r="1066" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1066" s="1" t="s">
         <v>3812</v>
       </c>
@@ -47673,8 +47751,9 @@
       <c r="J1066" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1067" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1066" s="12"/>
+    </row>
+    <row r="1067" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1067" s="1" t="s">
         <v>252</v>
       </c>
@@ -47703,8 +47782,9 @@
       <c r="J1067" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1068" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1067" s="12"/>
+    </row>
+    <row r="1068" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1068" s="1" t="s">
         <v>3142</v>
       </c>
@@ -47733,8 +47813,9 @@
       <c r="J1068" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1069" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1068" s="12"/>
+    </row>
+    <row r="1069" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1069" s="1" t="s">
         <v>27</v>
       </c>
@@ -47763,8 +47844,9 @@
       <c r="J1069" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1070" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1069" s="12"/>
+    </row>
+    <row r="1070" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1070" s="1" t="s">
         <v>775</v>
       </c>
@@ -47793,8 +47875,9 @@
       <c r="J1070" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1071" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1070" s="12"/>
+    </row>
+    <row r="1071" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1071" s="1" t="s">
         <v>171</v>
       </c>
@@ -47823,8 +47906,9 @@
       <c r="J1071" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1072" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1071" s="12"/>
+    </row>
+    <row r="1072" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1072" s="1" t="s">
         <v>775</v>
       </c>
@@ -47853,8 +47937,9 @@
       <c r="J1072" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1073" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1072" s="12"/>
+    </row>
+    <row r="1073" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1073" s="1" t="s">
         <v>21</v>
       </c>
@@ -47883,8 +47968,9 @@
       <c r="J1073" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1074" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1073" s="12"/>
+    </row>
+    <row r="1074" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1074" s="1" t="s">
         <v>125</v>
       </c>
@@ -47913,8 +47999,9 @@
       <c r="J1074" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1075" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1074" s="12"/>
+    </row>
+    <row r="1075" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1075" s="1" t="s">
         <v>171</v>
       </c>
@@ -47943,8 +48030,9 @@
       <c r="J1075" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1076" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1075" s="12"/>
+    </row>
+    <row r="1076" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1076" s="1" t="s">
         <v>81</v>
       </c>
@@ -47973,8 +48061,9 @@
       <c r="J1076" s="33" t="s">
         <v>3842</v>
       </c>
-    </row>
-    <row r="1077" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1076" s="12"/>
+    </row>
+    <row r="1077" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1077" s="1" t="s">
         <v>1125</v>
       </c>
@@ -48003,8 +48092,9 @@
       <c r="J1077" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1078" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1077" s="12"/>
+    </row>
+    <row r="1078" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1078" s="1" t="s">
         <v>41</v>
       </c>
@@ -48033,8 +48123,9 @@
       <c r="J1078" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1079" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1078" s="12"/>
+    </row>
+    <row r="1079" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1079" s="1" t="s">
         <v>465</v>
       </c>
@@ -48063,8 +48154,9 @@
       <c r="J1079" s="33" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1080" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1079" s="12"/>
+    </row>
+    <row r="1080" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1080" s="1" t="s">
         <v>465</v>
       </c>
@@ -48093,8 +48185,9 @@
       <c r="J1080" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1081" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1080" s="12"/>
+    </row>
+    <row r="1081" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1081" s="1" t="s">
         <v>878</v>
       </c>
@@ -48123,8 +48216,9 @@
       <c r="J1081" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1082" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1081" s="12"/>
+    </row>
+    <row r="1082" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1082" s="1" t="s">
         <v>46</v>
       </c>
@@ -48153,8 +48247,9 @@
       <c r="J1082" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1083" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1082" s="12"/>
+    </row>
+    <row r="1083" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1083" s="1" t="s">
         <v>1741</v>
       </c>
@@ -48183,8 +48278,9 @@
       <c r="J1083" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1084" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1083" s="12"/>
+    </row>
+    <row r="1084" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1084" s="1" t="s">
         <v>130</v>
       </c>
@@ -48213,8 +48309,9 @@
       <c r="J1084" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1085" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1084" s="12"/>
+    </row>
+    <row r="1085" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1085" s="1" t="s">
         <v>676</v>
       </c>
@@ -48243,8 +48340,9 @@
       <c r="J1085" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1086" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1085" s="12"/>
+    </row>
+    <row r="1086" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1086" s="1" t="s">
         <v>3882</v>
       </c>
@@ -48273,8 +48371,9 @@
       <c r="J1086" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1087" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1086" s="12"/>
+    </row>
+    <row r="1087" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1087" s="1" t="s">
         <v>152</v>
       </c>
@@ -48303,8 +48402,9 @@
       <c r="J1087" s="33" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1088" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1087" s="12"/>
+    </row>
+    <row r="1088" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1088" s="1" t="s">
         <v>186</v>
       </c>
@@ -48333,8 +48433,9 @@
       <c r="J1088" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1089" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1088" s="12"/>
+    </row>
+    <row r="1089" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1089" s="1" t="s">
         <v>538</v>
       </c>
@@ -48363,8 +48464,9 @@
       <c r="J1089" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1090" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1089" s="12"/>
+    </row>
+    <row r="1090" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1090" s="1" t="s">
         <v>0</v>
       </c>
@@ -48393,8 +48495,9 @@
       <c r="J1090" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1091" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1090" s="12"/>
+    </row>
+    <row r="1091" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1091" s="1" t="s">
         <v>2423</v>
       </c>
@@ -48423,8 +48526,9 @@
       <c r="J1091" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1092" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1091" s="12"/>
+    </row>
+    <row r="1092" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1092" s="1" t="s">
         <v>538</v>
       </c>
@@ -48453,8 +48557,9 @@
       <c r="J1092" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1093" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1092" s="12"/>
+    </row>
+    <row r="1093" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1093" s="1" t="s">
         <v>292</v>
       </c>
@@ -48483,8 +48588,9 @@
       <c r="J1093" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1094" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1093" s="12"/>
+    </row>
+    <row r="1094" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1094" s="1" t="s">
         <v>166</v>
       </c>
@@ -48513,8 +48619,9 @@
       <c r="J1094" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1095" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1094" s="12"/>
+    </row>
+    <row r="1095" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1095" s="1" t="s">
         <v>465</v>
       </c>
@@ -48543,8 +48650,9 @@
       <c r="J1095" s="33" t="s">
         <v>3904</v>
       </c>
-    </row>
-    <row r="1096" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1095" s="12"/>
+    </row>
+    <row r="1096" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1096" s="1" t="s">
         <v>67</v>
       </c>
@@ -48573,8 +48681,9 @@
       <c r="J1096" s="33" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1097" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1096" s="12"/>
+    </row>
+    <row r="1097" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1097" s="1" t="s">
         <v>3913</v>
       </c>
@@ -48603,8 +48712,9 @@
       <c r="J1097" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1098" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1097" s="12"/>
+    </row>
+    <row r="1098" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1098" s="1" t="s">
         <v>3918</v>
       </c>
@@ -48633,8 +48743,9 @@
       <c r="J1098" s="1" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="1099" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1098" s="12"/>
+    </row>
+    <row r="1099" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1099" s="1" t="s">
         <v>1741</v>
       </c>
@@ -48663,6 +48774,7 @@
       <c r="J1099" s="1" t="s">
         <v>3461</v>
       </c>
+      <c r="N1099" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10400" uniqueCount="4144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10427" uniqueCount="4154">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -12448,13 +12448,43 @@
   </si>
   <si>
     <t>MILLBROOK</t>
+  </si>
+  <si>
+    <t>5f73aa489c99f300d11da18f</t>
+  </si>
+  <si>
+    <t>http://www.kioskcannabis.com/</t>
+  </si>
+  <si>
+    <t>985 O'CONNOR DR</t>
+  </si>
+  <si>
+    <t>60da56fe0fb77300bacdc263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 SECOND ST S </t>
+  </si>
+  <si>
+    <t>T CANNABIS NW - Kenora</t>
+  </si>
+  <si>
+    <t>KENORA</t>
+  </si>
+  <si>
+    <t>http://www.kryptonitecannabis.ca/</t>
+  </si>
+  <si>
+    <t>555 ROSSLAND RD E UNIT D</t>
+  </si>
+  <si>
+    <t>609ed3bb9101ec00ad838ee6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12541,6 +12571,14 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -12602,7 +12640,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -12655,6 +12693,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -12958,10 +12997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1182"/>
+  <dimension ref="A1:N1185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
-      <selection activeCell="G1174" sqref="G1174"/>
+      <selection activeCell="C1162" sqref="C1162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52009,6 +52048,102 @@
       </c>
       <c r="J1182" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1183" s="29" t="s">
+        <v>4145</v>
+      </c>
+      <c r="F1183" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1183" s="31" t="s">
+        <v>4144</v>
+      </c>
+      <c r="H1183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1183" s="1">
+        <v>14166152946</v>
+      </c>
+      <c r="J1183" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1184" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1184" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1184" s="32" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H1184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1184" s="1">
+        <v>18074673132</v>
+      </c>
+      <c r="J1184" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1185" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C1185" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="D1185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1185" s="29" t="s">
+        <v>4151</v>
+      </c>
+      <c r="F1185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1185" s="31" t="s">
+        <v>4153</v>
+      </c>
+      <c r="H1185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1185" s="1">
+        <v>19055712545</v>
+      </c>
+      <c r="J1185" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10427" uniqueCount="4154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10445" uniqueCount="4162">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -12478,6 +12478,30 @@
   </si>
   <si>
     <t>609ed3bb9101ec00ad838ee6</t>
+  </si>
+  <si>
+    <t>62a4769a5115d500a2817dfa</t>
+  </si>
+  <si>
+    <t>2367 COUNTY ROAD 45</t>
+  </si>
+  <si>
+    <t>NORWOOD</t>
+  </si>
+  <si>
+    <t>5ef279e2e1b8ca00e45c166c</t>
+  </si>
+  <si>
+    <t>http://www.centralplainscannabis.com/</t>
+  </si>
+  <si>
+    <t>34 BEAVER ST N</t>
+  </si>
+  <si>
+    <t>Central Plains Cannabis</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
   </si>
 </sst>
 </file>
@@ -12997,10 +13021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1185"/>
+  <dimension ref="A1:N1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
-      <selection activeCell="C1162" sqref="C1162"/>
+    <sheetView tabSelected="1" topLeftCell="A1163" workbookViewId="0">
+      <selection activeCell="N1181" sqref="N1181:N1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52049,6 +52073,7 @@
       <c r="J1182" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1182" s="12"/>
     </row>
     <row r="1183" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1183" s="1" t="s">
@@ -52081,6 +52106,7 @@
       <c r="J1183" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1183" s="12"/>
     </row>
     <row r="1184" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1184" s="1" t="s">
@@ -52113,8 +52139,9 @@
       <c r="J1184" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1185" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1184" s="12"/>
+    </row>
+    <row r="1185" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1185" s="1" t="s">
         <v>81</v>
       </c>
@@ -52145,6 +52172,73 @@
       <c r="J1185" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1185" s="12"/>
+    </row>
+    <row r="1186" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1186" s="1" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C1186" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1186" s="29" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F1186" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1186" s="31" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H1186" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1186" s="1">
+        <v>17056392727</v>
+      </c>
+      <c r="J1186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1186" s="12"/>
+    </row>
+    <row r="1187" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1187" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>4160</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1187" s="29" t="s">
+        <v>4158</v>
+      </c>
+      <c r="F1187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1187" s="31" t="s">
+        <v>4157</v>
+      </c>
+      <c r="H1187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1187" s="1">
+        <v>18559871767</v>
+      </c>
+      <c r="J1187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1187" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10445" uniqueCount="4162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10711" uniqueCount="4254">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -12502,6 +12502,282 @@
   </si>
   <si>
     <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>http://bathbudz.ca/</t>
+  </si>
+  <si>
+    <t>220 MAIN ST UNIT 6</t>
+  </si>
+  <si>
+    <t>Baths Bud N Boutique</t>
+  </si>
+  <si>
+    <t>BATH</t>
+  </si>
+  <si>
+    <t>http://www.cannabisbazaar.ca/</t>
+  </si>
+  <si>
+    <t>1126 SYDENHAM RD</t>
+  </si>
+  <si>
+    <t>Cannabis Bazaar</t>
+  </si>
+  <si>
+    <t>1655 MANNING RD UNIT 2B</t>
+  </si>
+  <si>
+    <t>Cloud 29 Manning</t>
+  </si>
+  <si>
+    <t>http://clubcanapa.com/</t>
+  </si>
+  <si>
+    <t>2 SATTERLY RD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Canapa Cannabis </t>
+  </si>
+  <si>
+    <t>http://collegestreetcannabis.ca/</t>
+  </si>
+  <si>
+    <t>966 COLLEGE ST</t>
+  </si>
+  <si>
+    <t>COLLEGE STREET CANNABIS</t>
+  </si>
+  <si>
+    <t>237 KING ST E</t>
+  </si>
+  <si>
+    <t>['No delivery time unknown / craftednugswebmenu.azurewebsites.net’s server IP address could not be found.']</t>
+  </si>
+  <si>
+    <t>http://www.craftednugs.ca/</t>
+  </si>
+  <si>
+    <t>Crafted Nugs Cannabis Co.</t>
+  </si>
+  <si>
+    <t>http://creeksidegreens.ca/</t>
+  </si>
+  <si>
+    <t>1192 BANK ST</t>
+  </si>
+  <si>
+    <t>Creekside Greens</t>
+  </si>
+  <si>
+    <t>http://www.doseofdope.ca/</t>
+  </si>
+  <si>
+    <t>620 YONGE ST</t>
+  </si>
+  <si>
+    <t>D-SE OF DOPE</t>
+  </si>
+  <si>
+    <t>86 KENT ST W</t>
+  </si>
+  <si>
+    <t>Docks</t>
+  </si>
+  <si>
+    <t>900 DUFFERIN ST UNIT 38</t>
+  </si>
+  <si>
+    <t>Fika Local Dufferin Mall</t>
+  </si>
+  <si>
+    <t>http://www.forestcitymarijuana.com/</t>
+  </si>
+  <si>
+    <t>1470 DUNDAS ST</t>
+  </si>
+  <si>
+    <t>http://growcerycannabis.ca/</t>
+  </si>
+  <si>
+    <t>178 QUEEN STREET WEST (MAIN FLOOR)</t>
+  </si>
+  <si>
+    <t>Growcery Cannabis</t>
+  </si>
+  <si>
+    <t>http://nexuscannabis.ca/</t>
+  </si>
+  <si>
+    <t>15 CEDAR POINTE DR UNIT 11 &amp; 12</t>
+  </si>
+  <si>
+    <t>Hemisphere Cannabis Co.</t>
+  </si>
+  <si>
+    <t>1669 BAYVIEW AVE</t>
+  </si>
+  <si>
+    <t>http://valuebuds.com/</t>
+  </si>
+  <si>
+    <t>90 RESOLUTION DR UNIT 103</t>
+  </si>
+  <si>
+    <t>VALUE BUDS</t>
+  </si>
+  <si>
+    <t>1887 AVENUE RD</t>
+  </si>
+  <si>
+    <t>http://www.herbnbud.ca/</t>
+  </si>
+  <si>
+    <t>3759 LAKE SHORE BLVD W</t>
+  </si>
+  <si>
+    <t>HERB N BUD</t>
+  </si>
+  <si>
+    <t>http://www.hespelervillagecannabis.com/</t>
+  </si>
+  <si>
+    <t>209 PINEBUSH RD SUITE 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HESPELER VILLAGE CANNABIS </t>
+  </si>
+  <si>
+    <t>http://www.idealbuds.ca/</t>
+  </si>
+  <si>
+    <t>90 FRONT STREET</t>
+  </si>
+  <si>
+    <t>Ideal Buds (Sioux Lookout)</t>
+  </si>
+  <si>
+    <t>SIOUX LOOKOUT</t>
+  </si>
+  <si>
+    <t>http://www.lostlake.shop/</t>
+  </si>
+  <si>
+    <t>42 LORNE ST. UNIT 4</t>
+  </si>
+  <si>
+    <t>Lost Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDBURY </t>
+  </si>
+  <si>
+    <t>6303e4efa844973f541034ed</t>
+  </si>
+  <si>
+    <t>60a7f7daff5eb600ba82270b</t>
+  </si>
+  <si>
+    <t>52 CATHERINE ST UNIT 4</t>
+  </si>
+  <si>
+    <t>http://www.honeypotsmokeshop.ca/</t>
+  </si>
+  <si>
+    <t>6832 DRUMMOND RD</t>
+  </si>
+  <si>
+    <t>Honeypot Smoke Shop</t>
+  </si>
+  <si>
+    <t>27 KING ST</t>
+  </si>
+  <si>
+    <t>Ideal Buds</t>
+  </si>
+  <si>
+    <t>100 MERCURY AVENUE WEST</t>
+  </si>
+  <si>
+    <t>Ideal Buds (Atikokan)</t>
+  </si>
+  <si>
+    <t>ATIKOKAN</t>
+  </si>
+  <si>
+    <t>http://thedencannabis.com/</t>
+  </si>
+  <si>
+    <t>660 ATHERLEY RD SUITE 5</t>
+  </si>
+  <si>
+    <t>THE DEN CANNABIS STORE</t>
+  </si>
+  <si>
+    <t>190 MINETS POINT UNIT 4</t>
+  </si>
+  <si>
+    <t>The Den Cannabis Store</t>
+  </si>
+  <si>
+    <t>173 MILL ST SUITE 1</t>
+  </si>
+  <si>
+    <t>http://sweetreleafsbrantford.store/</t>
+  </si>
+  <si>
+    <t>248 LYNDEN RD UNIT 3</t>
+  </si>
+  <si>
+    <t>SWEET RELEAFS INC</t>
+  </si>
+  <si>
+    <t>http://rosegoldcannabis.ca/</t>
+  </si>
+  <si>
+    <t>4247 OIL HERITAGE RD UNIT 4</t>
+  </si>
+  <si>
+    <t>Rose Gold Cannabis</t>
+  </si>
+  <si>
+    <t>PETROLIA</t>
+  </si>
+  <si>
+    <t>https://weedmaps.com/dispensaries/ignite-cannabis-inc#details</t>
+  </si>
+  <si>
+    <t>1044 BATHURST ST</t>
+  </si>
+  <si>
+    <t>Ignite Cannabis Inc.</t>
+  </si>
+  <si>
+    <t>http://www.insalatamarket.com/</t>
+  </si>
+  <si>
+    <t>520 UNIVERSITY AVE W UNIT 103</t>
+  </si>
+  <si>
+    <t>http://www.kingofqueenscannabis.com/</t>
+  </si>
+  <si>
+    <t>462 FERGUSON AVE</t>
+  </si>
+  <si>
+    <t>King of Queens Cannabis Company</t>
+  </si>
+  <si>
+    <t>HAILEYBURY</t>
+  </si>
+  <si>
+    <t>http://www.lindsaycannabisstore.ca/</t>
+  </si>
+  <si>
+    <t>17 KENT ST W</t>
+  </si>
+  <si>
+    <t>Lindsay Cannabis Store</t>
   </si>
 </sst>
 </file>
@@ -13021,10 +13297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1187"/>
+  <dimension ref="A1:N1220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1163" workbookViewId="0">
-      <selection activeCell="N1181" sqref="N1181:N1187"/>
+    <sheetView tabSelected="1" topLeftCell="A1205" workbookViewId="0">
+      <selection activeCell="C1207" sqref="C1207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51087,7 +51363,7 @@
       </c>
       <c r="G1151" s="17"/>
       <c r="H1151" s="1" t="s">
-        <v>105</v>
+        <v>1397</v>
       </c>
       <c r="I1151" s="1">
         <v>19057909960</v>
@@ -51337,7 +51613,7 @@
         <v>4079</v>
       </c>
       <c r="H1159" s="1" t="s">
-        <v>66</v>
+        <v>1397</v>
       </c>
       <c r="I1159" s="1">
         <v>17057436914</v>
@@ -51399,15 +51675,17 @@
       <c r="F1161" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1161" s="17"/>
+      <c r="G1161" s="17" t="s">
+        <v>4219</v>
+      </c>
       <c r="H1161" s="1" t="s">
-        <v>105</v>
+        <v>1397</v>
       </c>
       <c r="I1161" s="1">
         <v>19052390099</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>3478</v>
+        <v>3930</v>
       </c>
       <c r="N1161" s="12"/>
     </row>
@@ -51746,7 +52024,9 @@
       <c r="F1172" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1172" s="17"/>
+      <c r="G1172" s="17" t="s">
+        <v>4218</v>
+      </c>
       <c r="H1172" s="1" t="s">
         <v>7</v>
       </c>
@@ -52239,6 +52519,1019 @@
         <v>8</v>
       </c>
       <c r="N1187" s="12"/>
+    </row>
+    <row r="1188" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1188" s="1" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C1188" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1188" s="29" t="s">
+        <v>4162</v>
+      </c>
+      <c r="F1188" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1188" s="32"/>
+      <c r="H1188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1188" s="1">
+        <v>16133520334</v>
+      </c>
+      <c r="J1188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1188" s="12"/>
+    </row>
+    <row r="1189" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C1189" s="1" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D1189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1189" s="1" t="s">
+        <v>4166</v>
+      </c>
+      <c r="F1189" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1189" s="32"/>
+      <c r="H1189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1189" s="1">
+        <v>16137776187</v>
+      </c>
+      <c r="J1189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1189" s="12"/>
+    </row>
+    <row r="1190" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1190" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C1190" s="1" t="s">
+        <v>4169</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1190" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F1190" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1190" s="32"/>
+      <c r="H1190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1190" s="1">
+        <v>15199791441</v>
+      </c>
+      <c r="J1190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1190" s="12"/>
+    </row>
+    <row r="1191" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1191" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C1191" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D1191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1191" s="29" t="s">
+        <v>4171</v>
+      </c>
+      <c r="F1191" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1191" s="32"/>
+      <c r="H1191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1191" s="1">
+        <v>14165461904</v>
+      </c>
+      <c r="J1191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1191" s="12"/>
+    </row>
+    <row r="1192" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C1192" s="1" t="s">
+        <v>4175</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1192" s="29" t="s">
+        <v>4174</v>
+      </c>
+      <c r="F1192" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1192" s="32"/>
+      <c r="H1192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1192" s="1">
+        <v>14165469904</v>
+      </c>
+      <c r="J1192" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1192" s="12"/>
+    </row>
+    <row r="1193" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1193" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D1193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1193" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="F1193" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1193" s="32"/>
+      <c r="H1193" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I1193" s="1">
+        <v>19055288000</v>
+      </c>
+      <c r="J1193" s="1" t="s">
+        <v>4178</v>
+      </c>
+      <c r="N1193" s="12"/>
+    </row>
+    <row r="1194" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1194" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="D1194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1194" s="29" t="s">
+        <v>4181</v>
+      </c>
+      <c r="F1194" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1194" s="32"/>
+      <c r="H1194" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1194" s="1">
+        <v>16137336664</v>
+      </c>
+      <c r="J1194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1194" s="12"/>
+    </row>
+    <row r="1195" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1195" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D1195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1195" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="F1195" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1195" s="32"/>
+      <c r="H1195" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1195" s="1">
+        <v>14168298909</v>
+      </c>
+      <c r="J1195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1195" s="12"/>
+    </row>
+    <row r="1196" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1196" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D1196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1196" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F1196" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1196" s="32"/>
+      <c r="H1196" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1196" s="1">
+        <v>17054006754</v>
+      </c>
+      <c r="J1196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1196" s="12"/>
+    </row>
+    <row r="1197" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1197" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1197" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1197" s="32"/>
+      <c r="H1197" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1197" s="1">
+        <v>14165321152</v>
+      </c>
+      <c r="J1197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1197" s="12"/>
+    </row>
+    <row r="1198" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1198" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>4192</v>
+      </c>
+      <c r="D1198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1198" s="29" t="s">
+        <v>4191</v>
+      </c>
+      <c r="F1198" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1198" s="32"/>
+      <c r="H1198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1198" s="1">
+        <v>15192041420</v>
+      </c>
+      <c r="J1198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1198" s="12"/>
+    </row>
+    <row r="1199" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1199" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1199" s="1" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D1199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1199" s="29" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F1199" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1199" s="32"/>
+      <c r="H1199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1199" s="1">
+        <v>16479195500</v>
+      </c>
+      <c r="J1199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1199" s="12"/>
+    </row>
+    <row r="1200" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1200" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>4197</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1200" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F1200" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1200" s="32"/>
+      <c r="H1200" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1200" s="1">
+        <v>12498804202</v>
+      </c>
+      <c r="J1200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1200" s="12"/>
+    </row>
+    <row r="1201" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1201" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D1201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1201" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F1201" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1201" s="32"/>
+      <c r="H1201" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1201" s="1">
+        <v>14167819333</v>
+      </c>
+      <c r="J1201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1201" s="12"/>
+    </row>
+    <row r="1202" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1202" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1202" s="1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1202" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1202" s="32"/>
+      <c r="H1202" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1202" s="1">
+        <v>19054500372</v>
+      </c>
+      <c r="J1202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1202" s="12"/>
+    </row>
+    <row r="1203" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1203" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>4203</v>
+      </c>
+      <c r="D1203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1203" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F1203" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1203" s="32"/>
+      <c r="H1203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1203" s="1">
+        <v>14167819333</v>
+      </c>
+      <c r="J1203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1203" s="12"/>
+    </row>
+    <row r="1204" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1204" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>4205</v>
+      </c>
+      <c r="D1204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1204" s="1" t="s">
+        <v>4204</v>
+      </c>
+      <c r="F1204" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1204" s="32"/>
+      <c r="H1204" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1204" s="1">
+        <v>14165518087</v>
+      </c>
+      <c r="J1204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1204" s="12"/>
+    </row>
+    <row r="1205" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1205" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D1205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1205" s="29" t="s">
+        <v>4207</v>
+      </c>
+      <c r="F1205" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1205" s="32"/>
+      <c r="H1205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1205" s="1">
+        <v>15192672420</v>
+      </c>
+      <c r="J1205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1205" s="12"/>
+    </row>
+    <row r="1206" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1206" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C1206" s="1" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D1206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1206" s="29" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F1206" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1206" s="32"/>
+      <c r="H1206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1206" s="1">
+        <v>18072202810</v>
+      </c>
+      <c r="J1206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1206" s="12"/>
+    </row>
+    <row r="1207" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1207" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C1207" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D1207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1207" s="29" t="s">
+        <v>4214</v>
+      </c>
+      <c r="F1207" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1207" s="32"/>
+      <c r="H1207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1207" s="1">
+        <v>17052227467</v>
+      </c>
+      <c r="J1207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1207" s="12"/>
+    </row>
+    <row r="1208" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1208" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1208" s="1" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D1208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1208" s="29" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1208" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1208" s="32"/>
+      <c r="H1208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1208" s="1">
+        <v>12263670433</v>
+      </c>
+      <c r="J1208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1208" s="12"/>
+    </row>
+    <row r="1209" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1209" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C1209" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D1209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1209" s="29" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F1209" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1209" s="32"/>
+      <c r="H1209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1209" s="1">
+        <v>19053541661</v>
+      </c>
+      <c r="J1209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1209" s="12"/>
+    </row>
+    <row r="1210" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1210" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>4225</v>
+      </c>
+      <c r="C1210" s="1" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D1210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1210" s="29" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F1210" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1210" s="32"/>
+      <c r="H1210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1210" s="1">
+        <v>8072202810</v>
+      </c>
+      <c r="J1210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1210" s="12"/>
+    </row>
+    <row r="1211" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1211" s="1" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C1211" s="1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D1211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1211" s="29" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F1211" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1211" s="32"/>
+      <c r="H1211" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1211" s="1">
+        <v>8072202810</v>
+      </c>
+      <c r="J1211" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1212" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D1212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1212" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F1212" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1212" s="32"/>
+      <c r="H1212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1212" s="1">
+        <v>17052590887</v>
+      </c>
+      <c r="J1212" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1213" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D1213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1213" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F1213" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1213" s="32"/>
+      <c r="H1213" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1213" s="1">
+        <v>12498804070</v>
+      </c>
+      <c r="J1213" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1214" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C1214" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D1214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1214" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F1214" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1214" s="32"/>
+      <c r="H1214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1214" s="1">
+        <v>17055160055</v>
+      </c>
+      <c r="J1214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1215" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>4237</v>
+      </c>
+      <c r="C1215" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D1215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1215" s="29" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F1215" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1215" s="32"/>
+      <c r="H1215" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1215" s="1">
+        <v>15197531181</v>
+      </c>
+      <c r="J1215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1216" s="1" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D1216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1216" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="F1216" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1216" s="32"/>
+      <c r="H1216" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1216" s="1">
+        <v>18888862795</v>
+      </c>
+      <c r="J1216" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1217" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C1217" s="1" t="s">
+        <v>4243</v>
+      </c>
+      <c r="D1217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1217" s="29" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F1217" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G1217" s="32"/>
+      <c r="H1217" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I1217" s="1">
+        <v>14165337617</v>
+      </c>
+      <c r="J1217" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1218" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D1218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1218" s="29" t="s">
+        <v>4245</v>
+      </c>
+      <c r="F1218" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1218" s="32"/>
+      <c r="H1218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1218" s="1">
+        <v>16474794240</v>
+      </c>
+      <c r="J1218" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1219" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C1219" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D1219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1219" s="29" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F1219" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1219" s="32"/>
+      <c r="H1219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1219" s="1">
+        <v>17054821714</v>
+      </c>
+      <c r="J1219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1220" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C1220" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="D1220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1220" s="29" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F1220" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1220" s="32"/>
+      <c r="H1220" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1220" s="1">
+        <v>17053282420</v>
+      </c>
+      <c r="J1220" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10711" uniqueCount="4254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10774" uniqueCount="4275">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -12778,6 +12778,69 @@
   </si>
   <si>
     <t>Lindsay Cannabis Store</t>
+  </si>
+  <si>
+    <t>61a71aedd26831009b8f7558</t>
+  </si>
+  <si>
+    <t>46 ONTARIO RD</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>6244dae4f8d1a4009d5fc921</t>
+  </si>
+  <si>
+    <t>336 EAGLE ST N SUITE 102</t>
+  </si>
+  <si>
+    <t>610041d2e739f2009bc1a2f1</t>
+  </si>
+  <si>
+    <t>1656 SNYDERS RD E, UNIT B</t>
+  </si>
+  <si>
+    <t>PETERSBURG</t>
+  </si>
+  <si>
+    <t>6062643f79c36d00bb5f28ed</t>
+  </si>
+  <si>
+    <t>179 UNION ST UNIT 5</t>
+  </si>
+  <si>
+    <t>NEW HAMBURG</t>
+  </si>
+  <si>
+    <t>6021795f5d88f600b7d13fc9</t>
+  </si>
+  <si>
+    <t>930 DUNDAS ST UNIT 107</t>
+  </si>
+  <si>
+    <t>VIP Cannabis Co.</t>
+  </si>
+  <si>
+    <t>5f23864b98756000eebb9fff</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/tokyo-smoke-1303-queen-st-e</t>
+  </si>
+  <si>
+    <t>1303 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>TOKYO SMOKE 1303 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>611ec322360a9700c7086685</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/stores/cannabis-mcneely</t>
+  </si>
+  <si>
+    <t>450 MCNEELY AVE</t>
   </si>
 </sst>
 </file>
@@ -13297,10 +13360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1220"/>
+  <dimension ref="A1:N1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1205" workbookViewId="0">
-      <selection activeCell="C1207" sqref="C1207"/>
+    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
+      <selection activeCell="E1224" sqref="E1224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53530,6 +53593,230 @@
         <v>17053282420</v>
       </c>
       <c r="J1220" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1221" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1221" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D1221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1221" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1221" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1221" s="31" t="s">
+        <v>4254</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1221" s="1">
+        <v>15199043926</v>
+      </c>
+      <c r="J1221" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1222" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1222" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D1222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1222" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1222" s="31" t="s">
+        <v>4257</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1222" s="1">
+        <v>15199042676</v>
+      </c>
+      <c r="J1222" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1223" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D1223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1223" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1223" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1223" s="31" t="s">
+        <v>4259</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1223" s="1">
+        <v>15199042741</v>
+      </c>
+      <c r="J1223" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1224" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1224" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1224" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1224" s="31" t="s">
+        <v>4262</v>
+      </c>
+      <c r="H1224" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1224" s="1">
+        <v>15199043605</v>
+      </c>
+      <c r="J1224" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1225" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C1225" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1225" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1225" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1225" s="31" t="s">
+        <v>4265</v>
+      </c>
+      <c r="H1225" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1225" s="1">
+        <v>15193981032</v>
+      </c>
+      <c r="J1225" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1226" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1226" s="29" t="s">
+        <v>4269</v>
+      </c>
+      <c r="F1226" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1226" s="31" t="s">
+        <v>4268</v>
+      </c>
+      <c r="H1226" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1226" s="1">
+        <v>14164610035</v>
+      </c>
+      <c r="J1226" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1227" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1227" s="29" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F1227" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1227" s="31" t="s">
+        <v>4272</v>
+      </c>
+      <c r="H1227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1227" s="1">
+        <v>13436550255</v>
+      </c>
+      <c r="J1227" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10774" uniqueCount="4275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10999" uniqueCount="4359">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -12841,13 +12841,265 @@
   </si>
   <si>
     <t>450 MCNEELY AVE</t>
+  </si>
+  <si>
+    <t>65046f0bbece03000927b021</t>
+  </si>
+  <si>
+    <t>http://affxcannabis.ca/</t>
+  </si>
+  <si>
+    <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
+  </si>
+  <si>
+    <t>https://golden-harvest.ca/menu/</t>
+  </si>
+  <si>
+    <t>1 JOCKO POINT RD</t>
+  </si>
+  <si>
+    <t>Golden Harvest</t>
+  </si>
+  <si>
+    <t>60db5f6cfaea563a41c9c1f2</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/speakeasy-penetang</t>
+  </si>
+  <si>
+    <t>68 MAIN STREET, UNIT 1</t>
+  </si>
+  <si>
+    <t>Speakeasy Cannabis</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'Same-day delivery', 'No delivery']</t>
+  </si>
+  <si>
+    <t>http://www.mexicannabis.ca/</t>
+  </si>
+  <si>
+    <t>73 COXWELL AVE</t>
+  </si>
+  <si>
+    <t>MEXICANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.lucknow.nic.in/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2024/01/11</t>
+  </si>
+  <si>
+    <t>638 CAMPBELL ST</t>
+  </si>
+  <si>
+    <t>Budzrus Lucknow</t>
+  </si>
+  <si>
+    <t>LUCKNOW</t>
+  </si>
+  <si>
+    <t>https://www.theunderground.store/cannabis-shop-hagersville-ontario?store_id=7383#/menu</t>
+  </si>
+  <si>
+    <t>11 MAIN STREET NORTH UNIT 9</t>
+  </si>
+  <si>
+    <t>The Underground</t>
+  </si>
+  <si>
+    <t>HAGERSVILLE</t>
+  </si>
+  <si>
+    <t>https://northernbudzz.com/online-store/#/menu</t>
+  </si>
+  <si>
+    <t>29 MAIN ST W UNIT 700 &amp; 800</t>
+  </si>
+  <si>
+    <t>NORTHERN BUDZZ</t>
+  </si>
+  <si>
+    <t>http://www.moonrockcannabis.ca/</t>
+  </si>
+  <si>
+    <t>2324 LAKE SHORE BLVD W UNIT 3</t>
+  </si>
+  <si>
+    <t>MOONROCK CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.kiaorakannabis.com/</t>
+  </si>
+  <si>
+    <t>236 RED RIVER RD</t>
+  </si>
+  <si>
+    <t>Kia Ora Kannabis</t>
+  </si>
+  <si>
+    <t>1111 VICTORIA AVE E</t>
+  </si>
+  <si>
+    <t>https://kushyscannabis.com/pembroke/#/menu</t>
+  </si>
+  <si>
+    <t>100 PEMBROKE ST E SUITE A</t>
+  </si>
+  <si>
+    <t>Kushys</t>
+  </si>
+  <si>
+    <t>http://www.longbottomleaf.ca/</t>
+  </si>
+  <si>
+    <t>2267 HIGHWAY 12</t>
+  </si>
+  <si>
+    <t>Longbottom Leaf</t>
+  </si>
+  <si>
+    <t>5f15ee080f514c00f7e7fe73</t>
+  </si>
+  <si>
+    <t>http://www.natureshaze.com/</t>
+  </si>
+  <si>
+    <t>15570 YONGE ST UNIT 8</t>
+  </si>
+  <si>
+    <t>Nature's Haze</t>
+  </si>
+  <si>
+    <t>60da1ee77c4966741f671139</t>
+  </si>
+  <si>
+    <t>http://www.levicann.com/shop</t>
+  </si>
+  <si>
+    <t>393 EGLINTON AVE E</t>
+  </si>
+  <si>
+    <t>Tendy</t>
+  </si>
+  <si>
+    <t>http://www.maliburoad.shop/</t>
+  </si>
+  <si>
+    <t>150 HOLLIDGE BLVD UNIT 5</t>
+  </si>
+  <si>
+    <t>MALIBU ROAD</t>
+  </si>
+  <si>
+    <t>http://www.naturallybongins.ca/</t>
+  </si>
+  <si>
+    <t>11 VETERANS ROAD, UNIT B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturally Bongins </t>
+  </si>
+  <si>
+    <t>http://www.motatoke.com/</t>
+  </si>
+  <si>
+    <t>249 GREENWOOD AVE</t>
+  </si>
+  <si>
+    <t>Mota Toke</t>
+  </si>
+  <si>
+    <t>http://www.montkailash.ca/</t>
+  </si>
+  <si>
+    <t>1220 BRANT ST UNIT 3B</t>
+  </si>
+  <si>
+    <t>Mont Kailash Cannabis</t>
+  </si>
+  <si>
+    <t>6075a537ed169800dac59099</t>
+  </si>
+  <si>
+    <t>http://www.mokshacannabis.ca/</t>
+  </si>
+  <si>
+    <t>4720 JANE ST UNIT 6</t>
+  </si>
+  <si>
+    <t>Moksha Cannabis</t>
+  </si>
+  <si>
+    <t>NORTHYORK</t>
+  </si>
+  <si>
+    <t>Budler</t>
+  </si>
+  <si>
+    <t>http://www.missjonescannabis.com/</t>
+  </si>
+  <si>
+    <t>765 EXETER RD UNIT C64</t>
+  </si>
+  <si>
+    <t>397 BAYFIELD ROAD</t>
+  </si>
+  <si>
+    <t>http://www.mellowleaf.ca/</t>
+  </si>
+  <si>
+    <t>724 LANSDOWNE ST W</t>
+  </si>
+  <si>
+    <t>Mellow Leaf</t>
+  </si>
+  <si>
+    <t>http://lockstockcannabis.com/</t>
+  </si>
+  <si>
+    <t>8 GLADSTONE AVE UNIT 1B</t>
+  </si>
+  <si>
+    <t>Lockstock. Cannabis</t>
+  </si>
+  <si>
+    <t>300 LINCOLN ST UNIT 13</t>
+  </si>
+  <si>
+    <t>315 KING ST W</t>
+  </si>
+  <si>
+    <t>657366ba62ee120009a8da69</t>
+  </si>
+  <si>
+    <t>https://www.urbnbud.com/shop-south-windsor/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/02/15</t>
+  </si>
+  <si>
+    <t>3838 MCGREGOR BLVD</t>
+  </si>
+  <si>
+    <t>5fc6b18731d99d00f606cb03</t>
+  </si>
+  <si>
+    <t>http://www.caribbeanoxygen.com/</t>
+  </si>
+  <si>
+    <t>124 MAIN ST</t>
+  </si>
+  <si>
+    <t>Caribbean Oxygen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12942,6 +13194,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -13003,7 +13264,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -13057,6 +13318,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -13360,10 +13622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1227"/>
+  <dimension ref="A1:N1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
-      <selection activeCell="E1224" sqref="E1224"/>
+    <sheetView tabSelected="1" topLeftCell="A1232" workbookViewId="0">
+      <selection activeCell="N1242" sqref="N1242:N1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53325,6 +53587,7 @@
       <c r="J1211" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1211" s="12"/>
     </row>
     <row r="1212" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1212" s="1" t="s">
@@ -53355,6 +53618,7 @@
       <c r="J1212" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1212" s="12"/>
     </row>
     <row r="1213" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1213" s="1" t="s">
@@ -53385,6 +53649,7 @@
       <c r="J1213" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1213" s="12"/>
     </row>
     <row r="1214" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1214" s="1" t="s">
@@ -53415,6 +53680,7 @@
       <c r="J1214" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1214" s="12"/>
     </row>
     <row r="1215" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1215" s="1" t="s">
@@ -53445,6 +53711,7 @@
       <c r="J1215" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1215" s="12"/>
     </row>
     <row r="1216" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1216" s="1" t="s">
@@ -53475,8 +53742,9 @@
       <c r="J1216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1217" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1216" s="12"/>
+    </row>
+    <row r="1217" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="1" t="s">
         <v>27</v>
       </c>
@@ -53505,8 +53773,9 @@
       <c r="J1217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1218" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1217" s="12"/>
+    </row>
+    <row r="1218" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1218" s="1" t="s">
         <v>775</v>
       </c>
@@ -53535,8 +53804,9 @@
       <c r="J1218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1219" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1218" s="12"/>
+    </row>
+    <row r="1219" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="1" t="s">
         <v>4250</v>
       </c>
@@ -53565,8 +53835,9 @@
       <c r="J1219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1220" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1219" s="12"/>
+    </row>
+    <row r="1220" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1220" s="1" t="s">
         <v>565</v>
       </c>
@@ -53595,8 +53866,9 @@
       <c r="J1220" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1221" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1220" s="12"/>
+    </row>
+    <row r="1221" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1221" s="1" t="s">
         <v>4256</v>
       </c>
@@ -53627,8 +53899,9 @@
       <c r="J1221" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1222" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1221" s="12"/>
+    </row>
+    <row r="1222" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1222" s="1" t="s">
         <v>681</v>
       </c>
@@ -53659,8 +53932,9 @@
       <c r="J1222" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1223" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1222" s="12"/>
+    </row>
+    <row r="1223" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1223" s="1" t="s">
         <v>4261</v>
       </c>
@@ -53691,8 +53965,9 @@
       <c r="J1223" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="1224" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1223" s="12"/>
+    </row>
+    <row r="1224" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1224" s="1" t="s">
         <v>4264</v>
       </c>
@@ -53723,8 +53998,9 @@
       <c r="J1224" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1225" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1224" s="12"/>
+    </row>
+    <row r="1225" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1225" s="1" t="s">
         <v>1858</v>
       </c>
@@ -53755,8 +54031,9 @@
       <c r="J1225" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1226" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1225" s="12"/>
+    </row>
+    <row r="1226" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="1" t="s">
         <v>27</v>
       </c>
@@ -53787,8 +54064,9 @@
       <c r="J1226" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1227" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1226" s="12"/>
+    </row>
+    <row r="1227" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1227" s="1" t="s">
         <v>2423</v>
       </c>
@@ -53819,6 +54097,860 @@
       <c r="J1227" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1227" s="12"/>
+    </row>
+    <row r="1228" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1228" s="29" t="s">
+        <v>4276</v>
+      </c>
+      <c r="F1228" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1228" s="32" t="s">
+        <v>4275</v>
+      </c>
+      <c r="H1228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1228" s="1">
+        <v>19056626777</v>
+      </c>
+      <c r="J1228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1228" s="12"/>
+    </row>
+    <row r="1229" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1229" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="F1229" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1229" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1229" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1229" s="1">
+        <v>7059801444</v>
+      </c>
+      <c r="J1229" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1229" s="12"/>
+    </row>
+    <row r="1230" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1230" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F1230" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1230" s="32" t="s">
+        <v>4281</v>
+      </c>
+      <c r="H1230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1230" s="1">
+        <v>17055492323</v>
+      </c>
+      <c r="J1230" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1230" s="12"/>
+    </row>
+    <row r="1231" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1231" s="29" t="s">
+        <v>4286</v>
+      </c>
+      <c r="F1231" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1231" s="32"/>
+      <c r="H1231" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="I1231" s="1">
+        <v>14166578983</v>
+      </c>
+      <c r="J1231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1231" s="12"/>
+    </row>
+    <row r="1232" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1232" s="1" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>4291</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E1232" s="29" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F1232" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1232" s="32"/>
+      <c r="H1232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1232" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1232" s="12"/>
+    </row>
+    <row r="1233" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1233" s="1" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1233" s="29" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F1233" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1233" s="32"/>
+      <c r="H1233" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1233" s="1">
+        <v>15052469455</v>
+      </c>
+      <c r="J1233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1233" s="12"/>
+    </row>
+    <row r="1234" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1234" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1234" s="29" t="s">
+        <v>4298</v>
+      </c>
+      <c r="F1234" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1234" s="32"/>
+      <c r="H1234" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1234" s="1">
+        <v>19057482010</v>
+      </c>
+      <c r="J1234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1234" s="12"/>
+    </row>
+    <row r="1235" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1235" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1235" s="29" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1235" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1235" s="32"/>
+      <c r="H1235" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1235" s="1">
+        <v>14165039333</v>
+      </c>
+      <c r="J1235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1235" s="12"/>
+    </row>
+    <row r="1236" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1236" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1236" s="29" t="s">
+        <v>4304</v>
+      </c>
+      <c r="F1236" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1236" s="32"/>
+      <c r="H1236" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1236" s="1">
+        <v>18076296735</v>
+      </c>
+      <c r="J1236" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1236" s="12"/>
+    </row>
+    <row r="1237" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1237" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1237" s="30" t="s">
+        <v>4304</v>
+      </c>
+      <c r="F1237" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1237" s="32"/>
+      <c r="H1237" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1237" s="1">
+        <v>18076296987</v>
+      </c>
+      <c r="J1237" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1237" s="12"/>
+    </row>
+    <row r="1238" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1238" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1238" s="29" t="s">
+        <v>4308</v>
+      </c>
+      <c r="F1238" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1238" s="32"/>
+      <c r="H1238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1238" s="1">
+        <v>16137359278</v>
+      </c>
+      <c r="J1238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1238" s="12"/>
+    </row>
+    <row r="1239" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1239" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1239" s="29" t="s">
+        <v>4311</v>
+      </c>
+      <c r="F1239" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1239" s="32"/>
+      <c r="H1239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1239" s="1">
+        <v>17055059509</v>
+      </c>
+      <c r="J1239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1239" s="12"/>
+    </row>
+    <row r="1240" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1240" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D1240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1240" s="29" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F1240" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1240" s="32" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H1240" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1240" s="1">
+        <v>19057130606</v>
+      </c>
+      <c r="J1240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1240" s="12"/>
+    </row>
+    <row r="1241" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D1241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1241" s="29" t="s">
+        <v>4319</v>
+      </c>
+      <c r="F1241" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1241" s="32" t="s">
+        <v>4318</v>
+      </c>
+      <c r="H1241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1241" s="1">
+        <v>14163622420</v>
+      </c>
+      <c r="J1241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1241" s="12"/>
+    </row>
+    <row r="1242" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1242" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D1242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1242" s="29" t="s">
+        <v>4322</v>
+      </c>
+      <c r="F1242" s="6" t="s">
+        <v>4321</v>
+      </c>
+      <c r="G1242" s="32"/>
+      <c r="H1242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1242" s="1">
+        <v>19055037467</v>
+      </c>
+      <c r="J1242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1242" s="12"/>
+    </row>
+    <row r="1243" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1243" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1243" s="29" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F1243" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1243" s="32"/>
+      <c r="H1243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1243" s="1">
+        <v>19052260420</v>
+      </c>
+      <c r="J1243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1243" s="12"/>
+    </row>
+    <row r="1244" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D1244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1244" s="29" t="s">
+        <v>4328</v>
+      </c>
+      <c r="F1244" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1244" s="32"/>
+      <c r="H1244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1244" s="1">
+        <v>14164663113</v>
+      </c>
+      <c r="J1244" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="N1244" s="12"/>
+    </row>
+    <row r="1245" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1245" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D1245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1245" s="29" t="s">
+        <v>4331</v>
+      </c>
+      <c r="F1245" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1245" s="32"/>
+      <c r="H1245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1245" s="1">
+        <v>12893134713</v>
+      </c>
+      <c r="J1245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1245" s="12"/>
+    </row>
+    <row r="1246" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1246" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D1246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1246" s="29" t="s">
+        <v>4335</v>
+      </c>
+      <c r="F1246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1246" s="32" t="s">
+        <v>4334</v>
+      </c>
+      <c r="H1246" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1246" s="1">
+        <v>14166610550</v>
+      </c>
+      <c r="J1246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1246" s="12"/>
+    </row>
+    <row r="1247" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1247" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D1247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1247" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1247" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1247" s="32"/>
+      <c r="H1247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1247" s="1">
+        <v>12266676033</v>
+      </c>
+      <c r="J1247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1247" s="12"/>
+    </row>
+    <row r="1248" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1248" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D1248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1248" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1248" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1248" s="32"/>
+      <c r="H1248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1248" s="1">
+        <v>12264556595</v>
+      </c>
+      <c r="J1248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1248" s="12"/>
+    </row>
+    <row r="1249" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1249" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D1249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1249" s="29" t="s">
+        <v>4343</v>
+      </c>
+      <c r="F1249" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1249" s="32"/>
+      <c r="H1249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1249" s="1">
+        <v>17057433999</v>
+      </c>
+      <c r="J1249" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1249" s="12"/>
+    </row>
+    <row r="1250" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C1250" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="D1250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1250" s="29" t="s">
+        <v>4346</v>
+      </c>
+      <c r="F1250" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1250" s="32"/>
+      <c r="H1250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1250" s="1">
+        <v>16473950883</v>
+      </c>
+      <c r="J1250" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1250" s="12"/>
+    </row>
+    <row r="1251" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1251" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1251" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D1251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1251" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1251" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1251" s="32"/>
+      <c r="H1251" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1251" s="1">
+        <v>12899740162</v>
+      </c>
+      <c r="J1251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1251" s="12"/>
+    </row>
+    <row r="1252" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1252" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1252" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D1252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1252" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1252" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1252" s="32"/>
+      <c r="H1252" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1252" s="1">
+        <v>16475470383</v>
+      </c>
+      <c r="J1252" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1252" s="12"/>
+    </row>
+    <row r="1253" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1253" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1253" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="D1253" s="11" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E1253" s="33" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F1253" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1253" s="32" t="s">
+        <v>4351</v>
+      </c>
+      <c r="H1253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1253" s="25">
+        <v>2266641157</v>
+      </c>
+      <c r="J1253" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1253" s="12"/>
+    </row>
+    <row r="1254" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1254" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C1254" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="F1254" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1254" s="31" t="s">
+        <v>4355</v>
+      </c>
+      <c r="H1254" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1254" s="1">
+        <v>15192672225</v>
+      </c>
+      <c r="J1254" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1254" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -53875,9 +55007,10 @@
     <hyperlink ref="E1169" r:id="rId51"/>
     <hyperlink ref="E1170" r:id="rId52"/>
     <hyperlink ref="E1181" r:id="rId53"/>
+    <hyperlink ref="E1237" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10711" uniqueCount="4254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10999" uniqueCount="4359">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -12778,13 +12778,328 @@
   </si>
   <si>
     <t>Lindsay Cannabis Store</t>
+  </si>
+  <si>
+    <t>61a71aedd26831009b8f7558</t>
+  </si>
+  <si>
+    <t>46 ONTARIO RD</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>6244dae4f8d1a4009d5fc921</t>
+  </si>
+  <si>
+    <t>336 EAGLE ST N SUITE 102</t>
+  </si>
+  <si>
+    <t>610041d2e739f2009bc1a2f1</t>
+  </si>
+  <si>
+    <t>1656 SNYDERS RD E, UNIT B</t>
+  </si>
+  <si>
+    <t>PETERSBURG</t>
+  </si>
+  <si>
+    <t>6062643f79c36d00bb5f28ed</t>
+  </si>
+  <si>
+    <t>179 UNION ST UNIT 5</t>
+  </si>
+  <si>
+    <t>NEW HAMBURG</t>
+  </si>
+  <si>
+    <t>6021795f5d88f600b7d13fc9</t>
+  </si>
+  <si>
+    <t>930 DUNDAS ST UNIT 107</t>
+  </si>
+  <si>
+    <t>VIP Cannabis Co.</t>
+  </si>
+  <si>
+    <t>5f23864b98756000eebb9fff</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/tokyo-smoke-1303-queen-st-e</t>
+  </si>
+  <si>
+    <t>1303 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>TOKYO SMOKE 1303 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>611ec322360a9700c7086685</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/stores/cannabis-mcneely</t>
+  </si>
+  <si>
+    <t>450 MCNEELY AVE</t>
+  </si>
+  <si>
+    <t>65046f0bbece03000927b021</t>
+  </si>
+  <si>
+    <t>http://affxcannabis.ca/</t>
+  </si>
+  <si>
+    <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
+  </si>
+  <si>
+    <t>https://golden-harvest.ca/menu/</t>
+  </si>
+  <si>
+    <t>1 JOCKO POINT RD</t>
+  </si>
+  <si>
+    <t>Golden Harvest</t>
+  </si>
+  <si>
+    <t>60db5f6cfaea563a41c9c1f2</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/speakeasy-penetang</t>
+  </si>
+  <si>
+    <t>68 MAIN STREET, UNIT 1</t>
+  </si>
+  <si>
+    <t>Speakeasy Cannabis</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'Same-day delivery', 'No delivery']</t>
+  </si>
+  <si>
+    <t>http://www.mexicannabis.ca/</t>
+  </si>
+  <si>
+    <t>73 COXWELL AVE</t>
+  </si>
+  <si>
+    <t>MEXICANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.lucknow.nic.in/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2024/01/11</t>
+  </si>
+  <si>
+    <t>638 CAMPBELL ST</t>
+  </si>
+  <si>
+    <t>Budzrus Lucknow</t>
+  </si>
+  <si>
+    <t>LUCKNOW</t>
+  </si>
+  <si>
+    <t>https://www.theunderground.store/cannabis-shop-hagersville-ontario?store_id=7383#/menu</t>
+  </si>
+  <si>
+    <t>11 MAIN STREET NORTH UNIT 9</t>
+  </si>
+  <si>
+    <t>The Underground</t>
+  </si>
+  <si>
+    <t>HAGERSVILLE</t>
+  </si>
+  <si>
+    <t>https://northernbudzz.com/online-store/#/menu</t>
+  </si>
+  <si>
+    <t>29 MAIN ST W UNIT 700 &amp; 800</t>
+  </si>
+  <si>
+    <t>NORTHERN BUDZZ</t>
+  </si>
+  <si>
+    <t>http://www.moonrockcannabis.ca/</t>
+  </si>
+  <si>
+    <t>2324 LAKE SHORE BLVD W UNIT 3</t>
+  </si>
+  <si>
+    <t>MOONROCK CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.kiaorakannabis.com/</t>
+  </si>
+  <si>
+    <t>236 RED RIVER RD</t>
+  </si>
+  <si>
+    <t>Kia Ora Kannabis</t>
+  </si>
+  <si>
+    <t>1111 VICTORIA AVE E</t>
+  </si>
+  <si>
+    <t>https://kushyscannabis.com/pembroke/#/menu</t>
+  </si>
+  <si>
+    <t>100 PEMBROKE ST E SUITE A</t>
+  </si>
+  <si>
+    <t>Kushys</t>
+  </si>
+  <si>
+    <t>http://www.longbottomleaf.ca/</t>
+  </si>
+  <si>
+    <t>2267 HIGHWAY 12</t>
+  </si>
+  <si>
+    <t>Longbottom Leaf</t>
+  </si>
+  <si>
+    <t>5f15ee080f514c00f7e7fe73</t>
+  </si>
+  <si>
+    <t>http://www.natureshaze.com/</t>
+  </si>
+  <si>
+    <t>15570 YONGE ST UNIT 8</t>
+  </si>
+  <si>
+    <t>Nature's Haze</t>
+  </si>
+  <si>
+    <t>60da1ee77c4966741f671139</t>
+  </si>
+  <si>
+    <t>http://www.levicann.com/shop</t>
+  </si>
+  <si>
+    <t>393 EGLINTON AVE E</t>
+  </si>
+  <si>
+    <t>Tendy</t>
+  </si>
+  <si>
+    <t>http://www.maliburoad.shop/</t>
+  </si>
+  <si>
+    <t>150 HOLLIDGE BLVD UNIT 5</t>
+  </si>
+  <si>
+    <t>MALIBU ROAD</t>
+  </si>
+  <si>
+    <t>http://www.naturallybongins.ca/</t>
+  </si>
+  <si>
+    <t>11 VETERANS ROAD, UNIT B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturally Bongins </t>
+  </si>
+  <si>
+    <t>http://www.motatoke.com/</t>
+  </si>
+  <si>
+    <t>249 GREENWOOD AVE</t>
+  </si>
+  <si>
+    <t>Mota Toke</t>
+  </si>
+  <si>
+    <t>http://www.montkailash.ca/</t>
+  </si>
+  <si>
+    <t>1220 BRANT ST UNIT 3B</t>
+  </si>
+  <si>
+    <t>Mont Kailash Cannabis</t>
+  </si>
+  <si>
+    <t>6075a537ed169800dac59099</t>
+  </si>
+  <si>
+    <t>http://www.mokshacannabis.ca/</t>
+  </si>
+  <si>
+    <t>4720 JANE ST UNIT 6</t>
+  </si>
+  <si>
+    <t>Moksha Cannabis</t>
+  </si>
+  <si>
+    <t>NORTHYORK</t>
+  </si>
+  <si>
+    <t>Budler</t>
+  </si>
+  <si>
+    <t>http://www.missjonescannabis.com/</t>
+  </si>
+  <si>
+    <t>765 EXETER RD UNIT C64</t>
+  </si>
+  <si>
+    <t>397 BAYFIELD ROAD</t>
+  </si>
+  <si>
+    <t>http://www.mellowleaf.ca/</t>
+  </si>
+  <si>
+    <t>724 LANSDOWNE ST W</t>
+  </si>
+  <si>
+    <t>Mellow Leaf</t>
+  </si>
+  <si>
+    <t>http://lockstockcannabis.com/</t>
+  </si>
+  <si>
+    <t>8 GLADSTONE AVE UNIT 1B</t>
+  </si>
+  <si>
+    <t>Lockstock. Cannabis</t>
+  </si>
+  <si>
+    <t>300 LINCOLN ST UNIT 13</t>
+  </si>
+  <si>
+    <t>315 KING ST W</t>
+  </si>
+  <si>
+    <t>657366ba62ee120009a8da69</t>
+  </si>
+  <si>
+    <t>https://www.urbnbud.com/shop-south-windsor/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/02/15</t>
+  </si>
+  <si>
+    <t>3838 MCGREGOR BLVD</t>
+  </si>
+  <si>
+    <t>5fc6b18731d99d00f606cb03</t>
+  </si>
+  <si>
+    <t>http://www.caribbeanoxygen.com/</t>
+  </si>
+  <si>
+    <t>124 MAIN ST</t>
+  </si>
+  <si>
+    <t>Caribbean Oxygen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12879,6 +13194,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -12940,7 +13264,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -12994,6 +13318,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -13297,10 +13622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1220"/>
+  <dimension ref="A1:N1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1205" workbookViewId="0">
-      <selection activeCell="C1207" sqref="C1207"/>
+    <sheetView tabSelected="1" topLeftCell="A1232" workbookViewId="0">
+      <selection activeCell="N1242" sqref="N1242:N1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53262,6 +53587,7 @@
       <c r="J1211" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1211" s="12"/>
     </row>
     <row r="1212" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1212" s="1" t="s">
@@ -53292,6 +53618,7 @@
       <c r="J1212" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1212" s="12"/>
     </row>
     <row r="1213" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1213" s="1" t="s">
@@ -53322,6 +53649,7 @@
       <c r="J1213" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1213" s="12"/>
     </row>
     <row r="1214" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1214" s="1" t="s">
@@ -53352,6 +53680,7 @@
       <c r="J1214" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1214" s="12"/>
     </row>
     <row r="1215" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1215" s="1" t="s">
@@ -53382,6 +53711,7 @@
       <c r="J1215" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1215" s="12"/>
     </row>
     <row r="1216" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1216" s="1" t="s">
@@ -53412,8 +53742,9 @@
       <c r="J1216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1217" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1216" s="12"/>
+    </row>
+    <row r="1217" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="1" t="s">
         <v>27</v>
       </c>
@@ -53442,8 +53773,9 @@
       <c r="J1217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1218" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1217" s="12"/>
+    </row>
+    <row r="1218" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1218" s="1" t="s">
         <v>775</v>
       </c>
@@ -53472,8 +53804,9 @@
       <c r="J1218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1219" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1218" s="12"/>
+    </row>
+    <row r="1219" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="1" t="s">
         <v>4250</v>
       </c>
@@ -53502,8 +53835,9 @@
       <c r="J1219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1220" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1219" s="12"/>
+    </row>
+    <row r="1220" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1220" s="1" t="s">
         <v>565</v>
       </c>
@@ -53532,6 +53866,1091 @@
       <c r="J1220" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1220" s="12"/>
+    </row>
+    <row r="1221" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1221" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1221" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D1221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1221" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1221" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1221" s="31" t="s">
+        <v>4254</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1221" s="1">
+        <v>15199043926</v>
+      </c>
+      <c r="J1221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1221" s="12"/>
+    </row>
+    <row r="1222" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1222" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1222" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D1222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1222" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1222" s="31" t="s">
+        <v>4257</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1222" s="1">
+        <v>15199042676</v>
+      </c>
+      <c r="J1222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1222" s="12"/>
+    </row>
+    <row r="1223" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1223" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D1223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1223" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1223" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1223" s="31" t="s">
+        <v>4259</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1223" s="1">
+        <v>15199042741</v>
+      </c>
+      <c r="J1223" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1223" s="12"/>
+    </row>
+    <row r="1224" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1224" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1224" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1224" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1224" s="31" t="s">
+        <v>4262</v>
+      </c>
+      <c r="H1224" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1224" s="1">
+        <v>15199043605</v>
+      </c>
+      <c r="J1224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1224" s="12"/>
+    </row>
+    <row r="1225" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1225" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C1225" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1225" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F1225" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1225" s="31" t="s">
+        <v>4265</v>
+      </c>
+      <c r="H1225" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1225" s="1">
+        <v>15193981032</v>
+      </c>
+      <c r="J1225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1225" s="12"/>
+    </row>
+    <row r="1226" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1226" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1226" s="29" t="s">
+        <v>4269</v>
+      </c>
+      <c r="F1226" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1226" s="31" t="s">
+        <v>4268</v>
+      </c>
+      <c r="H1226" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1226" s="1">
+        <v>14164610035</v>
+      </c>
+      <c r="J1226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1226" s="12"/>
+    </row>
+    <row r="1227" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1227" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1227" s="29" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F1227" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1227" s="31" t="s">
+        <v>4272</v>
+      </c>
+      <c r="H1227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1227" s="1">
+        <v>13436550255</v>
+      </c>
+      <c r="J1227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1227" s="12"/>
+    </row>
+    <row r="1228" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1228" s="29" t="s">
+        <v>4276</v>
+      </c>
+      <c r="F1228" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1228" s="32" t="s">
+        <v>4275</v>
+      </c>
+      <c r="H1228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1228" s="1">
+        <v>19056626777</v>
+      </c>
+      <c r="J1228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1228" s="12"/>
+    </row>
+    <row r="1229" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1229" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="F1229" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1229" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1229" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1229" s="1">
+        <v>7059801444</v>
+      </c>
+      <c r="J1229" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1229" s="12"/>
+    </row>
+    <row r="1230" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1230" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F1230" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1230" s="32" t="s">
+        <v>4281</v>
+      </c>
+      <c r="H1230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1230" s="1">
+        <v>17055492323</v>
+      </c>
+      <c r="J1230" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1230" s="12"/>
+    </row>
+    <row r="1231" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1231" s="29" t="s">
+        <v>4286</v>
+      </c>
+      <c r="F1231" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1231" s="32"/>
+      <c r="H1231" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="I1231" s="1">
+        <v>14166578983</v>
+      </c>
+      <c r="J1231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1231" s="12"/>
+    </row>
+    <row r="1232" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1232" s="1" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>4291</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E1232" s="29" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F1232" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1232" s="32"/>
+      <c r="H1232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1232" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1232" s="12"/>
+    </row>
+    <row r="1233" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1233" s="1" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1233" s="29" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F1233" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1233" s="32"/>
+      <c r="H1233" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1233" s="1">
+        <v>15052469455</v>
+      </c>
+      <c r="J1233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1233" s="12"/>
+    </row>
+    <row r="1234" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1234" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1234" s="29" t="s">
+        <v>4298</v>
+      </c>
+      <c r="F1234" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1234" s="32"/>
+      <c r="H1234" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1234" s="1">
+        <v>19057482010</v>
+      </c>
+      <c r="J1234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1234" s="12"/>
+    </row>
+    <row r="1235" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1235" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1235" s="29" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1235" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1235" s="32"/>
+      <c r="H1235" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1235" s="1">
+        <v>14165039333</v>
+      </c>
+      <c r="J1235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1235" s="12"/>
+    </row>
+    <row r="1236" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1236" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1236" s="29" t="s">
+        <v>4304</v>
+      </c>
+      <c r="F1236" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1236" s="32"/>
+      <c r="H1236" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1236" s="1">
+        <v>18076296735</v>
+      </c>
+      <c r="J1236" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1236" s="12"/>
+    </row>
+    <row r="1237" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1237" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1237" s="30" t="s">
+        <v>4304</v>
+      </c>
+      <c r="F1237" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1237" s="32"/>
+      <c r="H1237" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1237" s="1">
+        <v>18076296987</v>
+      </c>
+      <c r="J1237" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1237" s="12"/>
+    </row>
+    <row r="1238" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1238" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1238" s="29" t="s">
+        <v>4308</v>
+      </c>
+      <c r="F1238" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1238" s="32"/>
+      <c r="H1238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1238" s="1">
+        <v>16137359278</v>
+      </c>
+      <c r="J1238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1238" s="12"/>
+    </row>
+    <row r="1239" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1239" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1239" s="29" t="s">
+        <v>4311</v>
+      </c>
+      <c r="F1239" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1239" s="32"/>
+      <c r="H1239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1239" s="1">
+        <v>17055059509</v>
+      </c>
+      <c r="J1239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1239" s="12"/>
+    </row>
+    <row r="1240" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1240" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D1240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1240" s="29" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F1240" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1240" s="32" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H1240" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1240" s="1">
+        <v>19057130606</v>
+      </c>
+      <c r="J1240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1240" s="12"/>
+    </row>
+    <row r="1241" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D1241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1241" s="29" t="s">
+        <v>4319</v>
+      </c>
+      <c r="F1241" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1241" s="32" t="s">
+        <v>4318</v>
+      </c>
+      <c r="H1241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1241" s="1">
+        <v>14163622420</v>
+      </c>
+      <c r="J1241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1241" s="12"/>
+    </row>
+    <row r="1242" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1242" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D1242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1242" s="29" t="s">
+        <v>4322</v>
+      </c>
+      <c r="F1242" s="6" t="s">
+        <v>4321</v>
+      </c>
+      <c r="G1242" s="32"/>
+      <c r="H1242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1242" s="1">
+        <v>19055037467</v>
+      </c>
+      <c r="J1242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1242" s="12"/>
+    </row>
+    <row r="1243" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1243" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1243" s="29" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F1243" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1243" s="32"/>
+      <c r="H1243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1243" s="1">
+        <v>19052260420</v>
+      </c>
+      <c r="J1243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1243" s="12"/>
+    </row>
+    <row r="1244" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D1244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1244" s="29" t="s">
+        <v>4328</v>
+      </c>
+      <c r="F1244" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1244" s="32"/>
+      <c r="H1244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1244" s="1">
+        <v>14164663113</v>
+      </c>
+      <c r="J1244" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="N1244" s="12"/>
+    </row>
+    <row r="1245" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1245" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D1245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1245" s="29" t="s">
+        <v>4331</v>
+      </c>
+      <c r="F1245" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1245" s="32"/>
+      <c r="H1245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1245" s="1">
+        <v>12893134713</v>
+      </c>
+      <c r="J1245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1245" s="12"/>
+    </row>
+    <row r="1246" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1246" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D1246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1246" s="29" t="s">
+        <v>4335</v>
+      </c>
+      <c r="F1246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1246" s="32" t="s">
+        <v>4334</v>
+      </c>
+      <c r="H1246" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1246" s="1">
+        <v>14166610550</v>
+      </c>
+      <c r="J1246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1246" s="12"/>
+    </row>
+    <row r="1247" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1247" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D1247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1247" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1247" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1247" s="32"/>
+      <c r="H1247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1247" s="1">
+        <v>12266676033</v>
+      </c>
+      <c r="J1247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1247" s="12"/>
+    </row>
+    <row r="1248" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1248" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D1248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1248" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1248" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1248" s="32"/>
+      <c r="H1248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1248" s="1">
+        <v>12264556595</v>
+      </c>
+      <c r="J1248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1248" s="12"/>
+    </row>
+    <row r="1249" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1249" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D1249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1249" s="29" t="s">
+        <v>4343</v>
+      </c>
+      <c r="F1249" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1249" s="32"/>
+      <c r="H1249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1249" s="1">
+        <v>17057433999</v>
+      </c>
+      <c r="J1249" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1249" s="12"/>
+    </row>
+    <row r="1250" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C1250" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="D1250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1250" s="29" t="s">
+        <v>4346</v>
+      </c>
+      <c r="F1250" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1250" s="32"/>
+      <c r="H1250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1250" s="1">
+        <v>16473950883</v>
+      </c>
+      <c r="J1250" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1250" s="12"/>
+    </row>
+    <row r="1251" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1251" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1251" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D1251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1251" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1251" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1251" s="32"/>
+      <c r="H1251" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1251" s="1">
+        <v>12899740162</v>
+      </c>
+      <c r="J1251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1251" s="12"/>
+    </row>
+    <row r="1252" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1252" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1252" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D1252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1252" s="29" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F1252" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1252" s="32"/>
+      <c r="H1252" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1252" s="1">
+        <v>16475470383</v>
+      </c>
+      <c r="J1252" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1252" s="12"/>
+    </row>
+    <row r="1253" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1253" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1253" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="D1253" s="11" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E1253" s="33" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F1253" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1253" s="32" t="s">
+        <v>4351</v>
+      </c>
+      <c r="H1253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1253" s="25">
+        <v>2266641157</v>
+      </c>
+      <c r="J1253" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1253" s="12"/>
+    </row>
+    <row r="1254" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1254" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C1254" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="F1254" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1254" s="31" t="s">
+        <v>4355</v>
+      </c>
+      <c r="H1254" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1254" s="1">
+        <v>15192672225</v>
+      </c>
+      <c r="J1254" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1254" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -53588,9 +55007,10 @@
     <hyperlink ref="E1169" r:id="rId51"/>
     <hyperlink ref="E1170" r:id="rId52"/>
     <hyperlink ref="E1181" r:id="rId53"/>
+    <hyperlink ref="E1237" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10999" uniqueCount="4359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11080" uniqueCount="4384">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -13093,13 +13093,88 @@
   </si>
   <si>
     <t>Caribbean Oxygen</t>
+  </si>
+  <si>
+    <t>60da569417dfe2009d363270</t>
+  </si>
+  <si>
+    <t>59 GOVERNMENT RD W</t>
+  </si>
+  <si>
+    <t>T CANNABIS NW - Kirkland Lake</t>
+  </si>
+  <si>
+    <t>60da566de735ef00bcb2c8f1</t>
+  </si>
+  <si>
+    <t>143 FOURTH ST W</t>
+  </si>
+  <si>
+    <t>T CANNABIS NW - Cochrane</t>
+  </si>
+  <si>
+    <t>COCHRANE</t>
+  </si>
+  <si>
+    <t>6022bdd8b61c4d00c787981c</t>
+  </si>
+  <si>
+    <t>130 SECOND ST E UNIT 2</t>
+  </si>
+  <si>
+    <t>FORT FRANCES</t>
+  </si>
+  <si>
+    <t>635fcd3a60823d00b26a25d7</t>
+  </si>
+  <si>
+    <t>37 FRONT ST</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2021/06/15</t>
+  </si>
+  <si>
+    <t>Cannabis Connect</t>
+  </si>
+  <si>
+    <t>5e7400ed8dc5960077ea1a59</t>
+  </si>
+  <si>
+    <t>1331 ST CLAIR AVE W</t>
+  </si>
+  <si>
+    <t>Dutchie / need check</t>
+  </si>
+  <si>
+    <t>602fde0105211900d5c0fd0e</t>
+  </si>
+  <si>
+    <t>http://www.ambrosiacannabis.ca/</t>
+  </si>
+  <si>
+    <t>1605 QUEEN ST W UNIT 1</t>
+  </si>
+  <si>
+    <t>AMBROSIA</t>
+  </si>
+  <si>
+    <t>5eb9e4463836aa00b88a6251</t>
+  </si>
+  <si>
+    <t>4322 ONTARIO STREET UNIT 3</t>
+  </si>
+  <si>
+    <t>604fe19833c51e00b841d38d</t>
+  </si>
+  <si>
+    <t>9 ARMSTRONG ST N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13203,8 +13278,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13231,6 +13314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13264,7 +13353,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -13319,6 +13408,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -13622,10 +13718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1254"/>
+  <dimension ref="A1:N1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1232" workbookViewId="0">
-      <selection activeCell="N1242" sqref="N1242:N1254"/>
+    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
+      <selection activeCell="D1253" sqref="D1253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52666,7 +52762,7 @@
       <c r="F1182" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1182" s="31" t="s">
+      <c r="G1182" s="18" t="s">
         <v>4141</v>
       </c>
       <c r="H1182" s="1" t="s">
@@ -52699,7 +52795,7 @@
       <c r="F1183" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1183" s="31" t="s">
+      <c r="G1183" s="18" t="s">
         <v>4144</v>
       </c>
       <c r="H1183" s="1" t="s">
@@ -52732,7 +52828,7 @@
       <c r="F1184" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1184" s="32" t="s">
+      <c r="G1184" s="17" t="s">
         <v>4147</v>
       </c>
       <c r="H1184" s="1" t="s">
@@ -52765,7 +52861,7 @@
       <c r="F1185" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1185" s="31" t="s">
+      <c r="G1185" s="18" t="s">
         <v>4153</v>
       </c>
       <c r="H1185" s="1" t="s">
@@ -52798,7 +52894,7 @@
       <c r="F1186" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1186" s="31" t="s">
+      <c r="G1186" s="18" t="s">
         <v>4154</v>
       </c>
       <c r="H1186" s="1" t="s">
@@ -52831,7 +52927,7 @@
       <c r="F1187" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1187" s="31" t="s">
+      <c r="G1187" s="18" t="s">
         <v>4157</v>
       </c>
       <c r="H1187" s="1" t="s">
@@ -52864,7 +52960,7 @@
       <c r="F1188" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1188" s="32"/>
+      <c r="G1188" s="17"/>
       <c r="H1188" s="1" t="s">
         <v>26</v>
       </c>
@@ -52895,7 +52991,7 @@
       <c r="F1189" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1189" s="32"/>
+      <c r="G1189" s="17"/>
       <c r="H1189" s="1" t="s">
         <v>26</v>
       </c>
@@ -52926,7 +53022,7 @@
       <c r="F1190" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1190" s="32"/>
+      <c r="G1190" s="17"/>
       <c r="H1190" s="1" t="s">
         <v>7</v>
       </c>
@@ -52957,7 +53053,7 @@
       <c r="F1191" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1191" s="32"/>
+      <c r="G1191" s="17"/>
       <c r="H1191" s="1" t="s">
         <v>40</v>
       </c>
@@ -52988,7 +53084,7 @@
       <c r="F1192" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1192" s="32"/>
+      <c r="G1192" s="17"/>
       <c r="H1192" s="1" t="s">
         <v>40</v>
       </c>
@@ -53019,7 +53115,7 @@
       <c r="F1193" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1193" s="32"/>
+      <c r="G1193" s="17"/>
       <c r="H1193" s="1" t="s">
         <v>1397</v>
       </c>
@@ -53050,7 +53146,7 @@
       <c r="F1194" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1194" s="32"/>
+      <c r="G1194" s="17"/>
       <c r="H1194" s="1" t="s">
         <v>100</v>
       </c>
@@ -53081,7 +53177,7 @@
       <c r="F1195" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1195" s="32"/>
+      <c r="G1195" s="17"/>
       <c r="H1195" s="1" t="s">
         <v>66</v>
       </c>
@@ -53112,7 +53208,7 @@
       <c r="F1196" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1196" s="32"/>
+      <c r="G1196" s="17"/>
       <c r="H1196" s="1" t="s">
         <v>100</v>
       </c>
@@ -53143,7 +53239,7 @@
       <c r="F1197" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1197" s="32"/>
+      <c r="G1197" s="17"/>
       <c r="H1197" s="1" t="s">
         <v>100</v>
       </c>
@@ -53174,7 +53270,7 @@
       <c r="F1198" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1198" s="32"/>
+      <c r="G1198" s="17"/>
       <c r="H1198" s="1" t="s">
         <v>7</v>
       </c>
@@ -53205,7 +53301,7 @@
       <c r="F1199" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1199" s="32"/>
+      <c r="G1199" s="17"/>
       <c r="H1199" s="1" t="s">
         <v>7</v>
       </c>
@@ -53236,7 +53332,7 @@
       <c r="F1200" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1200" s="32"/>
+      <c r="G1200" s="17"/>
       <c r="H1200" s="1" t="s">
         <v>26</v>
       </c>
@@ -53267,7 +53363,7 @@
       <c r="F1201" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1201" s="32"/>
+      <c r="G1201" s="17"/>
       <c r="H1201" s="1" t="s">
         <v>26</v>
       </c>
@@ -53298,7 +53394,7 @@
       <c r="F1202" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1202" s="32"/>
+      <c r="G1202" s="17"/>
       <c r="H1202" s="1" t="s">
         <v>26</v>
       </c>
@@ -53329,7 +53425,7 @@
       <c r="F1203" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1203" s="32"/>
+      <c r="G1203" s="17"/>
       <c r="H1203" s="1" t="s">
         <v>206</v>
       </c>
@@ -53360,7 +53456,7 @@
       <c r="F1204" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1204" s="32"/>
+      <c r="G1204" s="17"/>
       <c r="H1204" s="1" t="s">
         <v>26</v>
       </c>
@@ -53391,7 +53487,7 @@
       <c r="F1205" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1205" s="32"/>
+      <c r="G1205" s="17"/>
       <c r="H1205" s="1" t="s">
         <v>206</v>
       </c>
@@ -53422,7 +53518,7 @@
       <c r="F1206" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1206" s="32"/>
+      <c r="G1206" s="17"/>
       <c r="H1206" s="1" t="s">
         <v>14</v>
       </c>
@@ -53453,7 +53549,7 @@
       <c r="F1207" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1207" s="32"/>
+      <c r="G1207" s="17"/>
       <c r="H1207" s="1" t="s">
         <v>14</v>
       </c>
@@ -53484,7 +53580,7 @@
       <c r="F1208" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1208" s="32"/>
+      <c r="G1208" s="17"/>
       <c r="H1208" s="1" t="s">
         <v>19</v>
       </c>
@@ -53515,7 +53611,7 @@
       <c r="F1209" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1209" s="32"/>
+      <c r="G1209" s="17"/>
       <c r="H1209" s="1" t="s">
         <v>26</v>
       </c>
@@ -53546,7 +53642,7 @@
       <c r="F1210" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1210" s="32"/>
+      <c r="G1210" s="17"/>
       <c r="H1210" s="1" t="s">
         <v>7</v>
       </c>
@@ -53577,7 +53673,7 @@
       <c r="F1211" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1211" s="32"/>
+      <c r="G1211" s="17"/>
       <c r="H1211" s="1" t="s">
         <v>100</v>
       </c>
@@ -53608,7 +53704,7 @@
       <c r="F1212" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1212" s="32"/>
+      <c r="G1212" s="17"/>
       <c r="H1212" s="1" t="s">
         <v>14</v>
       </c>
@@ -53639,7 +53735,7 @@
       <c r="F1213" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1213" s="32"/>
+      <c r="G1213" s="17"/>
       <c r="H1213" s="1" t="s">
         <v>40</v>
       </c>
@@ -53670,7 +53766,7 @@
       <c r="F1214" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1214" s="32"/>
+      <c r="G1214" s="17"/>
       <c r="H1214" s="1" t="s">
         <v>14</v>
       </c>
@@ -53701,7 +53797,7 @@
       <c r="F1215" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1215" s="32"/>
+      <c r="G1215" s="17"/>
       <c r="H1215" s="1" t="s">
         <v>26</v>
       </c>
@@ -53732,7 +53828,7 @@
       <c r="F1216" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1216" s="32"/>
+      <c r="G1216" s="17"/>
       <c r="H1216" s="1" t="s">
         <v>119</v>
       </c>
@@ -53763,7 +53859,7 @@
       <c r="F1217" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G1217" s="32"/>
+      <c r="G1217" s="17"/>
       <c r="H1217" s="1" t="s">
         <v>1888</v>
       </c>
@@ -53794,7 +53890,7 @@
       <c r="F1218" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1218" s="32"/>
+      <c r="G1218" s="17"/>
       <c r="H1218" s="1" t="s">
         <v>19</v>
       </c>
@@ -53825,7 +53921,7 @@
       <c r="F1219" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1219" s="32"/>
+      <c r="G1219" s="17"/>
       <c r="H1219" s="1" t="s">
         <v>26</v>
       </c>
@@ -53856,7 +53952,7 @@
       <c r="F1220" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1220" s="32"/>
+      <c r="G1220" s="17"/>
       <c r="H1220" s="1" t="s">
         <v>40</v>
       </c>
@@ -53887,7 +53983,7 @@
       <c r="F1221" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1221" s="31" t="s">
+      <c r="G1221" s="18" t="s">
         <v>4254</v>
       </c>
       <c r="H1221" s="1" t="s">
@@ -53920,7 +54016,7 @@
       <c r="F1222" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1222" s="31" t="s">
+      <c r="G1222" s="18" t="s">
         <v>4257</v>
       </c>
       <c r="H1222" s="1" t="s">
@@ -53953,7 +54049,7 @@
       <c r="F1223" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1223" s="31" t="s">
+      <c r="G1223" s="18" t="s">
         <v>4259</v>
       </c>
       <c r="H1223" s="1" t="s">
@@ -53986,7 +54082,7 @@
       <c r="F1224" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1224" s="31" t="s">
+      <c r="G1224" s="18" t="s">
         <v>4262</v>
       </c>
       <c r="H1224" s="1" t="s">
@@ -54019,7 +54115,7 @@
       <c r="F1225" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1225" s="31" t="s">
+      <c r="G1225" s="18" t="s">
         <v>4265</v>
       </c>
       <c r="H1225" s="1" t="s">
@@ -54052,7 +54148,7 @@
       <c r="F1226" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1226" s="31" t="s">
+      <c r="G1226" s="18" t="s">
         <v>4268</v>
       </c>
       <c r="H1226" s="1" t="s">
@@ -54085,7 +54181,7 @@
       <c r="F1227" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1227" s="31" t="s">
+      <c r="G1227" s="18" t="s">
         <v>4272</v>
       </c>
       <c r="H1227" s="1" t="s">
@@ -54118,7 +54214,7 @@
       <c r="F1228" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1228" s="32" t="s">
+      <c r="G1228" s="17" t="s">
         <v>4275</v>
       </c>
       <c r="H1228" s="1" t="s">
@@ -54151,7 +54247,7 @@
       <c r="F1229" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1229" s="32" t="s">
+      <c r="G1229" s="17" t="s">
         <v>1153</v>
       </c>
       <c r="H1229" s="1" t="s">
@@ -54184,7 +54280,7 @@
       <c r="F1230" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1230" s="32" t="s">
+      <c r="G1230" s="17" t="s">
         <v>4281</v>
       </c>
       <c r="H1230" s="1" t="s">
@@ -54217,7 +54313,7 @@
       <c r="F1231" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1231" s="32"/>
+      <c r="G1231" s="17"/>
       <c r="H1231" s="1" t="s">
         <v>4285</v>
       </c>
@@ -54248,7 +54344,7 @@
       <c r="F1232" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1232" s="32"/>
+      <c r="G1232" s="17"/>
       <c r="H1232" s="1" t="s">
         <v>7</v>
       </c>
@@ -54279,7 +54375,7 @@
       <c r="F1233" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1233" s="32"/>
+      <c r="G1233" s="17"/>
       <c r="H1233" s="1" t="s">
         <v>100</v>
       </c>
@@ -54310,7 +54406,7 @@
       <c r="F1234" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1234" s="32"/>
+      <c r="G1234" s="17"/>
       <c r="H1234" s="1" t="s">
         <v>40</v>
       </c>
@@ -54341,7 +54437,7 @@
       <c r="F1235" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1235" s="32"/>
+      <c r="G1235" s="17"/>
       <c r="H1235" s="1" t="s">
         <v>26</v>
       </c>
@@ -54372,7 +54468,7 @@
       <c r="F1236" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1236" s="32"/>
+      <c r="G1236" s="17"/>
       <c r="H1236" s="1" t="s">
         <v>66</v>
       </c>
@@ -54403,7 +54499,7 @@
       <c r="F1237" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1237" s="32"/>
+      <c r="G1237" s="17"/>
       <c r="H1237" s="1" t="s">
         <v>66</v>
       </c>
@@ -54434,7 +54530,7 @@
       <c r="F1238" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1238" s="32"/>
+      <c r="G1238" s="17"/>
       <c r="H1238" s="1" t="s">
         <v>40</v>
       </c>
@@ -54465,7 +54561,7 @@
       <c r="F1239" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1239" s="32"/>
+      <c r="G1239" s="17"/>
       <c r="H1239" s="1" t="s">
         <v>7</v>
       </c>
@@ -54496,7 +54592,7 @@
       <c r="F1240" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1240" s="32" t="s">
+      <c r="G1240" s="17" t="s">
         <v>4314</v>
       </c>
       <c r="H1240" s="1" t="s">
@@ -54529,7 +54625,7 @@
       <c r="F1241" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1241" s="32" t="s">
+      <c r="G1241" s="17" t="s">
         <v>4318</v>
       </c>
       <c r="H1241" s="1" t="s">
@@ -54562,7 +54658,7 @@
       <c r="F1242" s="6" t="s">
         <v>4321</v>
       </c>
-      <c r="G1242" s="32"/>
+      <c r="G1242" s="17"/>
       <c r="H1242" s="1" t="s">
         <v>40</v>
       </c>
@@ -54593,7 +54689,7 @@
       <c r="F1243" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1243" s="32"/>
+      <c r="G1243" s="17"/>
       <c r="H1243" s="1" t="s">
         <v>14</v>
       </c>
@@ -54624,7 +54720,7 @@
       <c r="F1244" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1244" s="32"/>
+      <c r="G1244" s="17"/>
       <c r="H1244" s="1" t="s">
         <v>14</v>
       </c>
@@ -54655,7 +54751,7 @@
       <c r="F1245" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1245" s="32"/>
+      <c r="G1245" s="17"/>
       <c r="H1245" s="1" t="s">
         <v>14</v>
       </c>
@@ -54686,7 +54782,7 @@
       <c r="F1246" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1246" s="32" t="s">
+      <c r="G1246" s="17" t="s">
         <v>4334</v>
       </c>
       <c r="H1246" s="1" t="s">
@@ -54719,7 +54815,7 @@
       <c r="F1247" s="6" t="s">
         <v>4339</v>
       </c>
-      <c r="G1247" s="32"/>
+      <c r="G1247" s="17"/>
       <c r="H1247" s="1" t="s">
         <v>40</v>
       </c>
@@ -54750,7 +54846,7 @@
       <c r="F1248" s="6" t="s">
         <v>4339</v>
       </c>
-      <c r="G1248" s="32"/>
+      <c r="G1248" s="17"/>
       <c r="H1248" s="1" t="s">
         <v>26</v>
       </c>
@@ -54781,7 +54877,7 @@
       <c r="F1249" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1249" s="32"/>
+      <c r="G1249" s="17"/>
       <c r="H1249" s="1" t="s">
         <v>40</v>
       </c>
@@ -54812,7 +54908,7 @@
       <c r="F1250" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1250" s="32"/>
+      <c r="G1250" s="17"/>
       <c r="H1250" s="1" t="s">
         <v>40</v>
       </c>
@@ -54843,7 +54939,7 @@
       <c r="F1251" s="6" t="s">
         <v>4339</v>
       </c>
-      <c r="G1251" s="32"/>
+      <c r="G1251" s="17"/>
       <c r="H1251" s="1" t="s">
         <v>26</v>
       </c>
@@ -54874,7 +54970,7 @@
       <c r="F1252" s="6" t="s">
         <v>4339</v>
       </c>
-      <c r="G1252" s="32"/>
+      <c r="G1252" s="17"/>
       <c r="H1252" s="1" t="s">
         <v>105</v>
       </c>
@@ -54905,7 +55001,7 @@
       <c r="F1253" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1253" s="32" t="s">
+      <c r="G1253" s="17" t="s">
         <v>4351</v>
       </c>
       <c r="H1253" s="1" t="s">
@@ -54938,7 +55034,7 @@
       <c r="F1254" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1254" s="31" t="s">
+      <c r="G1254" s="18" t="s">
         <v>4355</v>
       </c>
       <c r="H1254" s="1" t="s">
@@ -54951,6 +55047,295 @@
         <v>20</v>
       </c>
       <c r="N1254" s="12"/>
+    </row>
+    <row r="1255" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1255" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C1255" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="D1255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1255" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1255" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1255" s="18" t="s">
+        <v>4359</v>
+      </c>
+      <c r="H1255" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1255" s="1">
+        <v>17054626626</v>
+      </c>
+      <c r="J1255" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1255" s="12"/>
+    </row>
+    <row r="1256" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1256" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C1256" s="1" t="s">
+        <v>4363</v>
+      </c>
+      <c r="D1256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1256" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1256" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1256" s="32" t="s">
+        <v>4362</v>
+      </c>
+      <c r="H1256" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1256" s="1">
+        <v>17059132339</v>
+      </c>
+      <c r="J1256" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1257" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C1257" s="1" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1257" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1257" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1257" s="32" t="s">
+        <v>4366</v>
+      </c>
+      <c r="H1257" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1257" s="1">
+        <v>18072742222</v>
+      </c>
+      <c r="J1257" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1258" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1258" s="1" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1258" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1258" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1258" s="31" t="s">
+        <v>4369</v>
+      </c>
+      <c r="H1258" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1258" s="1">
+        <v>18072742222</v>
+      </c>
+      <c r="J1258" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1259" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C1259" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D1259" s="11" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E1259" s="38" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F1259" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1259" s="32" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H1259" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1259" s="25">
+        <v>16136731313</v>
+      </c>
+      <c r="J1259" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1260" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1260" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D1260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1260" s="29" t="s">
+        <v>4245</v>
+      </c>
+      <c r="F1260" s="40" t="s">
+        <v>4375</v>
+      </c>
+      <c r="G1260" s="39" t="s">
+        <v>4373</v>
+      </c>
+      <c r="H1260" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1260" s="1">
+        <v>16474794240</v>
+      </c>
+      <c r="J1260" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1261" s="36" t="s">
+        <v>4377</v>
+      </c>
+      <c r="F1261" s="40" t="s">
+        <v>4375</v>
+      </c>
+      <c r="G1261" s="34" t="s">
+        <v>4376</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1261">
+        <v>14165193487</v>
+      </c>
+      <c r="J1261" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1262" s="36" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1262" s="40" t="s">
+        <v>4375</v>
+      </c>
+      <c r="G1262" s="37" t="s">
+        <v>4380</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1262">
+        <v>19055635255</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1263" s="36" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1263" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1263" s="34" t="s">
+        <v>4382</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1263">
+        <v>17056288828</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11080" uniqueCount="4384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11343" uniqueCount="4481">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -13168,6 +13168,297 @@
   </si>
   <si>
     <t>9 ARMSTRONG ST N</t>
+  </si>
+  <si>
+    <t>https://area420.ca/shop/</t>
+  </si>
+  <si>
+    <t>226 DUNDAS ST</t>
+  </si>
+  <si>
+    <t>Area 420</t>
+  </si>
+  <si>
+    <t>5ec2f8efe850e1015890a7f3</t>
+  </si>
+  <si>
+    <t>http://www.northernzencannabis.ca/</t>
+  </si>
+  <si>
+    <t>76 OSPREY MIIKAN RD</t>
+  </si>
+  <si>
+    <t>Northern Zen Cannabis</t>
+  </si>
+  <si>
+    <t>6185967b96f26a007b88108b</t>
+  </si>
+  <si>
+    <t>http://www.nuleef.ca/</t>
+  </si>
+  <si>
+    <t>86 LAIRD DR</t>
+  </si>
+  <si>
+    <t>NULEEF CANNABIS</t>
+  </si>
+  <si>
+    <t>61eafd868525b6008cb3ca6f</t>
+  </si>
+  <si>
+    <t>17 CHURCH STREET UNIT 1</t>
+  </si>
+  <si>
+    <t>Olympia Cannabis Westport (OC Westport)</t>
+  </si>
+  <si>
+    <t>WESTPORT</t>
+  </si>
+  <si>
+    <t>http://www.phoenixcannabis.ca/</t>
+  </si>
+  <si>
+    <t>12 SIMCOE ST S</t>
+  </si>
+  <si>
+    <t>Phoenix Cannabis</t>
+  </si>
+  <si>
+    <t>http://www.ontheridgeco.com/</t>
+  </si>
+  <si>
+    <t>5440 STANLEY AVE UNIT 2</t>
+  </si>
+  <si>
+    <t>ON THE RIDGE CO. CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.oneplant.ca/locations/cornwall</t>
+  </si>
+  <si>
+    <t>1232 BROOKDALE AVE UNIT B</t>
+  </si>
+  <si>
+    <t>ONE PLANT</t>
+  </si>
+  <si>
+    <t>605b9e66b18cfc00dedb3f3b</t>
+  </si>
+  <si>
+    <t>http://www.paradiseair.ca/</t>
+  </si>
+  <si>
+    <t>650 SHEPPARD AVE E UNIT 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradise AIR </t>
+  </si>
+  <si>
+    <t>http://www.princessbuds.ca/</t>
+  </si>
+  <si>
+    <t>6380 MAIN ST UNIT 9</t>
+  </si>
+  <si>
+    <t>Princess Buds</t>
+  </si>
+  <si>
+    <t>http://www.potspot.online/</t>
+  </si>
+  <si>
+    <t>5365 FERRY ST UNIT 2</t>
+  </si>
+  <si>
+    <t>POT SPOT</t>
+  </si>
+  <si>
+    <t>5fe10d8ce3ff3a19ed754d45</t>
+  </si>
+  <si>
+    <t>http://www.outabout.ca/</t>
+  </si>
+  <si>
+    <t>665 EARL ARMSTRONG RD UNIT 8</t>
+  </si>
+  <si>
+    <t>OUT &amp; ABOUT CANNABIS</t>
+  </si>
+  <si>
+    <t>6058c29312647d00b3c7b5d0</t>
+  </si>
+  <si>
+    <t>http://www.rainbowcannabisplace.com/</t>
+  </si>
+  <si>
+    <t>653 VICTORIA PARK AVE</t>
+  </si>
+  <si>
+    <t>Cannabis Place</t>
+  </si>
+  <si>
+    <t>6331e416b2ed1600f2b07b25</t>
+  </si>
+  <si>
+    <t>288 ALBERT ST UNIT 101</t>
+  </si>
+  <si>
+    <t>5fd79b0645d85a00eb9b5987</t>
+  </si>
+  <si>
+    <t>http://www.peacepipe420.com/</t>
+  </si>
+  <si>
+    <t>1 KING ST E UNIT 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Peace Pipe </t>
+  </si>
+  <si>
+    <t>http://www.on.valuebuds.com/</t>
+  </si>
+  <si>
+    <t>150 HOLIDAY INN DR UNIT 111</t>
+  </si>
+  <si>
+    <t>http://www.rollingcannabis.co/</t>
+  </si>
+  <si>
+    <t>6 VICTORIA ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling Cannabis </t>
+  </si>
+  <si>
+    <t>1213 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>The Nug Co</t>
+  </si>
+  <si>
+    <t>1916 WYANDOTTE ST W</t>
+  </si>
+  <si>
+    <t>60c239068448c400bbfe24c4</t>
+  </si>
+  <si>
+    <t>http://www.ontario.ca/</t>
+  </si>
+  <si>
+    <t>31 ONTARIO ST N UNIT 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>True North Cannabis</t>
+  </si>
+  <si>
+    <t>GRAND BEND</t>
+  </si>
+  <si>
+    <t>5fd7991b627fbd00ede655ca</t>
+  </si>
+  <si>
+    <t>408 GEORGE ST N</t>
+  </si>
+  <si>
+    <t>http://www.portlandonline.com/</t>
+  </si>
+  <si>
+    <t>83 PORTLAND ST</t>
+  </si>
+  <si>
+    <t>http://www.rozbudz.com/</t>
+  </si>
+  <si>
+    <t>54 GOVERNMENT RD W UNIT A</t>
+  </si>
+  <si>
+    <t>Rozbudz</t>
+  </si>
+  <si>
+    <t>https://www.shinybud.com/morrisburg/#/</t>
+  </si>
+  <si>
+    <t>12467 COUNTY RD 2, UNIT B</t>
+  </si>
+  <si>
+    <t>ShinyBud Cannabis Co. 12467 Morrisburg</t>
+  </si>
+  <si>
+    <t>MORRISBURG</t>
+  </si>
+  <si>
+    <t>http://www.shinybud.com/</t>
+  </si>
+  <si>
+    <t>80 DUFFERIN ST UNIT 100</t>
+  </si>
+  <si>
+    <t>SHINYBUD CANNABIS CO. 80 DUFFERIN</t>
+  </si>
+  <si>
+    <t>https://www.shinybud.com/gananoque/</t>
+  </si>
+  <si>
+    <t>191 KING ST E</t>
+  </si>
+  <si>
+    <t>Shinybud Cannabis Co. Gananoque</t>
+  </si>
+  <si>
+    <t>http://www.shinybud.com/arnprior</t>
+  </si>
+  <si>
+    <t>39 WINNER'S CIRCLE DR UNIT 9</t>
+  </si>
+  <si>
+    <t>SHINYBUD CANNABIS CO. 39 ARNPRIOR</t>
+  </si>
+  <si>
+    <t>http://www.sensationscannabis.com/</t>
+  </si>
+  <si>
+    <t>1391 O'CONNOR DR</t>
+  </si>
+  <si>
+    <t>Sensations Cannabis</t>
+  </si>
+  <si>
+    <t>5ff28fd701411a00d4059773</t>
+  </si>
+  <si>
+    <t>http://www.rosebudcannabis.ca/</t>
+  </si>
+  <si>
+    <t>365 KING ST W BASEMENT</t>
+  </si>
+  <si>
+    <t>Rosebud Cannabis</t>
+  </si>
+  <si>
+    <t>5e7a2aa20c9a0100a0bda523</t>
+  </si>
+  <si>
+    <t>http://www.ramacannabis.ca/</t>
+  </si>
+  <si>
+    <t>5988 RAMA RD</t>
+  </si>
+  <si>
+    <t>Rama Cannabis</t>
+  </si>
+  <si>
+    <t>RAMA</t>
+  </si>
+  <si>
+    <t>5fea4f7191e48b00f1167ab7</t>
+  </si>
+  <si>
+    <t>http://www.ridgeburn.com/</t>
+  </si>
+  <si>
+    <t>1638 CYRVILLE RD SUITE 6A</t>
+  </si>
+  <si>
+    <t>RIDGEBURN</t>
   </si>
 </sst>
 </file>
@@ -13255,13 +13546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -13281,6 +13565,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -13353,7 +13646,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -13405,16 +13698,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -13718,10 +14015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1263"/>
+  <dimension ref="A1:N1294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
-      <selection activeCell="D1253" sqref="D1253"/>
+    <sheetView tabSelected="1" topLeftCell="A1272" workbookViewId="0">
+      <selection activeCell="C1294" sqref="C1294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54995,7 +55292,7 @@
       <c r="D1253" s="11" t="s">
         <v>4353</v>
       </c>
-      <c r="E1253" s="33" t="s">
+      <c r="E1253" s="32" t="s">
         <v>4352</v>
       </c>
       <c r="F1253" s="6" t="s">
@@ -55100,7 +55397,7 @@
       <c r="F1256" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1256" s="32" t="s">
+      <c r="G1256" s="31" t="s">
         <v>4362</v>
       </c>
       <c r="H1256" s="1" t="s">
@@ -55112,6 +55409,7 @@
       <c r="J1256" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1256" s="12"/>
     </row>
     <row r="1257" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1257" s="1" t="s">
@@ -55132,7 +55430,7 @@
       <c r="F1257" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1257" s="32" t="s">
+      <c r="G1257" s="31" t="s">
         <v>4366</v>
       </c>
       <c r="H1257" s="1" t="s">
@@ -55144,6 +55442,7 @@
       <c r="J1257" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1257" s="12"/>
     </row>
     <row r="1258" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1258" s="1" t="s">
@@ -55164,7 +55463,7 @@
       <c r="F1258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1258" s="31" t="s">
+      <c r="G1258" s="41" t="s">
         <v>4369</v>
       </c>
       <c r="H1258" s="1" t="s">
@@ -55176,6 +55475,7 @@
       <c r="J1258" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1258" s="12"/>
     </row>
     <row r="1259" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1259" s="1" t="s">
@@ -55190,13 +55490,13 @@
       <c r="D1259" s="11" t="s">
         <v>4371</v>
       </c>
-      <c r="E1259" s="38" t="s">
+      <c r="E1259" s="36" t="s">
         <v>1904</v>
       </c>
       <c r="F1259" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1259" s="32" t="s">
+      <c r="G1259" s="31" t="s">
         <v>2221</v>
       </c>
       <c r="H1259" s="1" t="s">
@@ -55208,6 +55508,7 @@
       <c r="J1259" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1259" s="12"/>
     </row>
     <row r="1260" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1260" s="1" t="s">
@@ -55225,10 +55526,10 @@
       <c r="E1260" s="29" t="s">
         <v>4245</v>
       </c>
-      <c r="F1260" s="40" t="s">
+      <c r="F1260" s="38" t="s">
         <v>4375</v>
       </c>
-      <c r="G1260" s="39" t="s">
+      <c r="G1260" s="37" t="s">
         <v>4373</v>
       </c>
       <c r="H1260" s="1" t="s">
@@ -55240,6 +55541,7 @@
       <c r="J1260" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1260" s="12"/>
     </row>
     <row r="1261" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
@@ -55254,13 +55556,13 @@
       <c r="D1261" t="s">
         <v>3</v>
       </c>
-      <c r="E1261" s="36" t="s">
+      <c r="E1261" s="34" t="s">
         <v>4377</v>
       </c>
-      <c r="F1261" s="40" t="s">
+      <c r="F1261" s="38" t="s">
         <v>4375</v>
       </c>
-      <c r="G1261" s="34" t="s">
+      <c r="G1261" s="42" t="s">
         <v>4376</v>
       </c>
       <c r="H1261" t="s">
@@ -55286,13 +55588,13 @@
       <c r="D1262" t="s">
         <v>3</v>
       </c>
-      <c r="E1262" s="36" t="s">
+      <c r="E1262" s="34" t="s">
         <v>2320</v>
       </c>
-      <c r="F1262" s="40" t="s">
+      <c r="F1262" s="38" t="s">
         <v>4375</v>
       </c>
-      <c r="G1262" s="37" t="s">
+      <c r="G1262" s="35" t="s">
         <v>4380</v>
       </c>
       <c r="H1262" t="s">
@@ -55318,13 +55620,13 @@
       <c r="D1263" t="s">
         <v>3</v>
       </c>
-      <c r="E1263" s="36" t="s">
+      <c r="E1263" s="34" t="s">
         <v>2320</v>
       </c>
-      <c r="F1263" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1263" s="34" t="s">
+      <c r="F1263" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1263" s="42" t="s">
         <v>4382</v>
       </c>
       <c r="H1263" t="s">
@@ -55335,6 +55637,993 @@
       </c>
       <c r="J1263" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D1264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1264" s="29" t="s">
+        <v>4377</v>
+      </c>
+      <c r="F1264" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1264" s="41" t="s">
+        <v>4376</v>
+      </c>
+      <c r="H1264" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1264" s="1">
+        <v>14165193487</v>
+      </c>
+      <c r="J1264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1264" s="12"/>
+    </row>
+    <row r="1265" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1265" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C1265" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D1265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1265" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="F1265" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1265" s="31"/>
+      <c r="H1265" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I1265" s="1">
+        <v>14165709722</v>
+      </c>
+      <c r="J1265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1265" s="12"/>
+    </row>
+    <row r="1266" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1266" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C1266" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D1266" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1266" s="29" t="s">
+        <v>4388</v>
+      </c>
+      <c r="F1266" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1266" s="41" t="s">
+        <v>4387</v>
+      </c>
+      <c r="H1266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1266" s="1">
+        <v>17058400101</v>
+      </c>
+      <c r="J1266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1266" s="12"/>
+    </row>
+    <row r="1267" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1267" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C1267" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D1267" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1267" s="29" t="s">
+        <v>4392</v>
+      </c>
+      <c r="F1267" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1267" s="41" t="s">
+        <v>4391</v>
+      </c>
+      <c r="H1267" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1267" s="1">
+        <v>14164299333</v>
+      </c>
+      <c r="J1267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1267" s="12"/>
+    </row>
+    <row r="1268" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1268" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="C1268" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D1268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1268" s="29" t="s">
+        <v>4048</v>
+      </c>
+      <c r="F1268" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1268" s="41" t="s">
+        <v>4395</v>
+      </c>
+      <c r="H1268" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1268" s="1">
+        <v>16132734848</v>
+      </c>
+      <c r="J1268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1268" s="12"/>
+    </row>
+    <row r="1269" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1269" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C1269" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D1269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1269" s="29" t="s">
+        <v>4399</v>
+      </c>
+      <c r="F1269" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1269" s="31"/>
+      <c r="H1269" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1269" s="1">
+        <v>12892400997</v>
+      </c>
+      <c r="J1269" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1269" s="12"/>
+    </row>
+    <row r="1270" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1270" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C1270" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="D1270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1270" s="29" t="s">
+        <v>4402</v>
+      </c>
+      <c r="F1270" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1270" s="31"/>
+      <c r="H1270" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1270" s="1">
+        <v>12892967177</v>
+      </c>
+      <c r="J1270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1270" s="12"/>
+    </row>
+    <row r="1271" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1271" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1271" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D1271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1271" s="29" t="s">
+        <v>4405</v>
+      </c>
+      <c r="F1271" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1271" s="31"/>
+      <c r="H1271" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1271" s="1">
+        <v>16139354305</v>
+      </c>
+      <c r="J1271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1271" s="12"/>
+    </row>
+    <row r="1272" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1272" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="D1272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1272" s="29" t="s">
+        <v>4409</v>
+      </c>
+      <c r="F1272" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1272" s="39" t="s">
+        <v>4408</v>
+      </c>
+      <c r="H1272" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1272" s="1">
+        <v>14162288889</v>
+      </c>
+      <c r="J1272" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1272" s="12"/>
+    </row>
+    <row r="1273" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1273" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C1273" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D1273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1273" s="29" t="s">
+        <v>4412</v>
+      </c>
+      <c r="F1273" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1273" s="31"/>
+      <c r="H1273" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1273" s="1">
+        <v>13655520341</v>
+      </c>
+      <c r="J1273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1273" s="12"/>
+    </row>
+    <row r="1274" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1274" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C1274" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D1274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1274" s="29" t="s">
+        <v>4415</v>
+      </c>
+      <c r="F1274" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1274" s="31"/>
+      <c r="H1274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1274" s="1">
+        <v>12892967768</v>
+      </c>
+      <c r="J1274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1274" s="12"/>
+    </row>
+    <row r="1275" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1275" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C1275" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D1275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1275" s="29" t="s">
+        <v>4419</v>
+      </c>
+      <c r="F1275" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1275" s="40" t="s">
+        <v>4418</v>
+      </c>
+      <c r="H1275" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1275" s="1">
+        <v>16134256000</v>
+      </c>
+      <c r="J1275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1275" s="12"/>
+    </row>
+    <row r="1276" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1276" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C1276" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1276" s="29" t="s">
+        <v>4423</v>
+      </c>
+      <c r="F1276" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1276" s="31" t="s">
+        <v>4422</v>
+      </c>
+      <c r="H1276" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1276" s="1">
+        <v>14169011420</v>
+      </c>
+      <c r="J1276" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1276" s="12"/>
+    </row>
+    <row r="1277" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1277" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C1277" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D1277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1277" s="29" t="s">
+        <v>4399</v>
+      </c>
+      <c r="F1277" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1277" s="37" t="s">
+        <v>4426</v>
+      </c>
+      <c r="H1277" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1277" s="1">
+        <v>12266470966</v>
+      </c>
+      <c r="J1277" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1277" s="12"/>
+    </row>
+    <row r="1278" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1278" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C1278" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1278" s="29" t="s">
+        <v>4429</v>
+      </c>
+      <c r="F1278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1278" s="31" t="s">
+        <v>4428</v>
+      </c>
+      <c r="H1278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1278" s="1">
+        <v>19053723511</v>
+      </c>
+      <c r="J1278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1278" s="12"/>
+    </row>
+    <row r="1279" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1279" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1279" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D1279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1279" s="29" t="s">
+        <v>4432</v>
+      </c>
+      <c r="F1279" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1279" s="31"/>
+      <c r="H1279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1279" s="1">
+        <v>15196019873</v>
+      </c>
+      <c r="J1279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1279" s="12"/>
+    </row>
+    <row r="1280" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1280" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C1280" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D1280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1280" s="29" t="s">
+        <v>4434</v>
+      </c>
+      <c r="F1280" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1280" s="31"/>
+      <c r="H1280" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1280" s="1">
+        <v>12262064420</v>
+      </c>
+      <c r="J1280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1280" s="12"/>
+    </row>
+    <row r="1281" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1281" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C1281" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D1281" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1281" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1281" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1281" s="31"/>
+      <c r="H1281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1281" s="1">
+        <v>16473687127</v>
+      </c>
+      <c r="J1281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1281" s="12"/>
+    </row>
+    <row r="1282" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1282" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1282" s="1" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D1282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1282" s="29" t="s">
+        <v>4432</v>
+      </c>
+      <c r="F1282" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1282" s="31"/>
+      <c r="H1282" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1282" s="1">
+        <v>15199718447</v>
+      </c>
+      <c r="J1282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1282" s="12"/>
+    </row>
+    <row r="1283" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1283" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D1283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1283" s="29" t="s">
+        <v>4441</v>
+      </c>
+      <c r="F1283" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1283" s="40" t="s">
+        <v>4440</v>
+      </c>
+      <c r="H1283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1283" s="1">
+        <v>15199534309</v>
+      </c>
+      <c r="J1283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1283" s="12"/>
+    </row>
+    <row r="1284" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1284" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D1284" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1284" s="29" t="s">
+        <v>4429</v>
+      </c>
+      <c r="F1284" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1284" s="31" t="s">
+        <v>4445</v>
+      </c>
+      <c r="H1284" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1284" s="1">
+        <v>17057412111</v>
+      </c>
+      <c r="J1284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1284" s="12"/>
+    </row>
+    <row r="1285" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D1285" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1285" s="29" t="s">
+        <v>4447</v>
+      </c>
+      <c r="F1285" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1285" s="31"/>
+      <c r="H1285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1285" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1285" s="12"/>
+    </row>
+    <row r="1286" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1286" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C1286" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D1286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1286" s="29" t="s">
+        <v>4449</v>
+      </c>
+      <c r="F1286" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1286" s="31"/>
+      <c r="H1286" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1286" s="1">
+        <v>17054622220</v>
+      </c>
+      <c r="J1286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1286" s="12"/>
+    </row>
+    <row r="1287" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1287" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C1287" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D1287" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1287" s="29" t="s">
+        <v>4452</v>
+      </c>
+      <c r="F1287" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1287" s="31"/>
+      <c r="H1287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1287" s="1">
+        <v>16136432467</v>
+      </c>
+      <c r="J1287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1287" s="12"/>
+    </row>
+    <row r="1288" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1288" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C1288" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D1288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1288" s="29" t="s">
+        <v>4456</v>
+      </c>
+      <c r="F1288" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1288" s="31"/>
+      <c r="H1288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1288" s="1">
+        <v>16134660752</v>
+      </c>
+      <c r="J1288" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1288" s="12"/>
+    </row>
+    <row r="1289" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1289" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C1289" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D1289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1289" s="29" t="s">
+        <v>4459</v>
+      </c>
+      <c r="F1289" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1289" s="31"/>
+      <c r="H1289" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1289" s="1">
+        <v>16138658700</v>
+      </c>
+      <c r="J1289" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="N1289" s="12"/>
+    </row>
+    <row r="1290" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1290" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D1290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1290" s="29" t="s">
+        <v>4462</v>
+      </c>
+      <c r="F1290" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1290" s="31"/>
+      <c r="H1290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1290" s="1">
+        <v>16136223039</v>
+      </c>
+      <c r="J1290" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1290" s="12"/>
+    </row>
+    <row r="1291" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1291" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1291" s="29" t="s">
+        <v>4465</v>
+      </c>
+      <c r="F1291" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1291" s="31"/>
+      <c r="H1291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1291" s="1">
+        <v>14169007624</v>
+      </c>
+      <c r="J1291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1291" s="12"/>
+    </row>
+    <row r="1292" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D1292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1292" s="29" t="s">
+        <v>4469</v>
+      </c>
+      <c r="F1292" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1292" s="31" t="s">
+        <v>4468</v>
+      </c>
+      <c r="H1292" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1292" s="1">
+        <v>14167673283</v>
+      </c>
+      <c r="J1292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1292" s="12"/>
+    </row>
+    <row r="1293" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1293" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D1293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1293" s="29" t="s">
+        <v>4473</v>
+      </c>
+      <c r="F1293" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1293" s="31" t="s">
+        <v>4472</v>
+      </c>
+      <c r="H1293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1293" s="1">
+        <v>17053260960</v>
+      </c>
+      <c r="J1293" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1294" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D1294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1294" s="29" t="s">
+        <v>4478</v>
+      </c>
+      <c r="F1294" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1294" s="41" t="s">
+        <v>4477</v>
+      </c>
+      <c r="H1294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1294" s="1">
+        <v>16134259502</v>
+      </c>
+      <c r="J1294" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11343" uniqueCount="4481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11589" uniqueCount="4569">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -13459,13 +13459,277 @@
   </si>
   <si>
     <t>RIDGEBURN</t>
+  </si>
+  <si>
+    <t>606df11e89f0224278fb8e7a</t>
+  </si>
+  <si>
+    <t>http://www.purplemeadow.ca/</t>
+  </si>
+  <si>
+    <t>2059 MEADOWBROOK RD</t>
+  </si>
+  <si>
+    <t>Purple Meadow Cannabis</t>
+  </si>
+  <si>
+    <t>http://www.tribalnationflowerco.com/</t>
+  </si>
+  <si>
+    <t>10166 GLENDON DR UNIT 204</t>
+  </si>
+  <si>
+    <t>Inspired Cannabis Co</t>
+  </si>
+  <si>
+    <t>KOMOKA</t>
+  </si>
+  <si>
+    <t>['No delivery / closed']</t>
+  </si>
+  <si>
+    <t>http://www.purplecircle.ca/</t>
+  </si>
+  <si>
+    <t>21A CARLTON ST</t>
+  </si>
+  <si>
+    <t>Purple Circle Cannabis</t>
+  </si>
+  <si>
+    <t>http://www.southriverbuds.ca/</t>
+  </si>
+  <si>
+    <t>19 ISABELLA STREET</t>
+  </si>
+  <si>
+    <t>South River Buds</t>
+  </si>
+  <si>
+    <t>SOUTH RIVER</t>
+  </si>
+  <si>
+    <t>61294e2fb96abc00aa15da74</t>
+  </si>
+  <si>
+    <t>http://www.spiritleaf.ca/</t>
+  </si>
+  <si>
+    <t>1750 THE QUEENSWAY UNIT 5</t>
+  </si>
+  <si>
+    <t>5e8c9c757b2d2700bdc6939e</t>
+  </si>
+  <si>
+    <t>2389 BLOOR ST W</t>
+  </si>
+  <si>
+    <t>354 ROYAL YORK RD</t>
+  </si>
+  <si>
+    <t>http://www.springscannabis.ca/</t>
+  </si>
+  <si>
+    <t>692 UPPER JAMES ST UNIT B</t>
+  </si>
+  <si>
+    <t>Spring cannabis express</t>
+  </si>
+  <si>
+    <t>5f9983b35d129e00b8daaa7c</t>
+  </si>
+  <si>
+    <t>171 FORT YORK BLVD</t>
+  </si>
+  <si>
+    <t>STICKY NUGGZ FORT YORK</t>
+  </si>
+  <si>
+    <t>http://www.stirlingcannabis.ca/</t>
+  </si>
+  <si>
+    <t>28 MILL STREET</t>
+  </si>
+  <si>
+    <t>STIRLING CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.shopstrictly.ca/</t>
+  </si>
+  <si>
+    <t>3351 MARKHAM RD SUITE 136</t>
+  </si>
+  <si>
+    <t>Strictly Cannabis</t>
+  </si>
+  <si>
+    <t>http://www.sunfishcannabis.com/</t>
+  </si>
+  <si>
+    <t>112 QUEEN ST, UNIT #2</t>
+  </si>
+  <si>
+    <t>SunFish Cannabis</t>
+  </si>
+  <si>
+    <t>LAKEFIELD</t>
+  </si>
+  <si>
+    <t>30 OTTAWA STREET, EAST UNIT</t>
+  </si>
+  <si>
+    <t>Sunfish Cannabis Trainstation</t>
+  </si>
+  <si>
+    <t>HAVELOCK</t>
+  </si>
+  <si>
+    <t>638f938672811000d58b0b83</t>
+  </si>
+  <si>
+    <t>http://www.tosmoke.ca/</t>
+  </si>
+  <si>
+    <t>2432 EGLINTON AVE E</t>
+  </si>
+  <si>
+    <t>T.O. Smokes</t>
+  </si>
+  <si>
+    <t>5fb58bff804afc00d8cc12c0</t>
+  </si>
+  <si>
+    <t>http://www.thecannabisconnoisseur.ca/</t>
+  </si>
+  <si>
+    <t>1874 SCUGOG ST UNIT 2</t>
+  </si>
+  <si>
+    <t>The Cannabis Connoisseur</t>
+  </si>
+  <si>
+    <t>60ef45404665d400b093949e</t>
+  </si>
+  <si>
+    <t>http://www.theherbary.com/</t>
+  </si>
+  <si>
+    <t>1650 BATH RD</t>
+  </si>
+  <si>
+    <t>61eafd3db150740085dd5336</t>
+  </si>
+  <si>
+    <t>233 VICTORIA ST N UNIT 1</t>
+  </si>
+  <si>
+    <t>OLYMPIA CANNABIS TWEED (O/C TWEED)</t>
+  </si>
+  <si>
+    <t>http://www.unplugcannabis.com/</t>
+  </si>
+  <si>
+    <t>4055 CARLING AVE UNIT 4</t>
+  </si>
+  <si>
+    <t>Unplug Cannabis Co.</t>
+  </si>
+  <si>
+    <t>1375 TRIM RD UNIT 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261 RICHMOND ROAD  </t>
+  </si>
+  <si>
+    <t>5fd91fe986dbe500b1c3b576</t>
+  </si>
+  <si>
+    <t>http://www.tonikcannabis.com/</t>
+  </si>
+  <si>
+    <t>560 WEST ST SUITE B</t>
+  </si>
+  <si>
+    <t>TONIK CANNABIS</t>
+  </si>
+  <si>
+    <t>6112948df8b18200c5194f6f</t>
+  </si>
+  <si>
+    <t>http://www.tokehouse.ca/dryden</t>
+  </si>
+  <si>
+    <t>539 GOVERNMENT ST UNIT 16</t>
+  </si>
+  <si>
+    <t>['No delivery / CLosed']</t>
+  </si>
+  <si>
+    <t>http://www.tokeandtell.ca/</t>
+  </si>
+  <si>
+    <t>184 WILSON AVE</t>
+  </si>
+  <si>
+    <t>TOKE AND TELL CANNABIS</t>
+  </si>
+  <si>
+    <t>618a8a4374a28f007712ff0a</t>
+  </si>
+  <si>
+    <t>http://www.tokacannabis.com/</t>
+  </si>
+  <si>
+    <t>490 CHRYSLER DR SUITE 49</t>
+  </si>
+  <si>
+    <t>TOKA+</t>
+  </si>
+  <si>
+    <t>60257bc9b754e700e41f5acc</t>
+  </si>
+  <si>
+    <t>http://www.thisel.ca/</t>
+  </si>
+  <si>
+    <t>192 QUEEN'S QUAY EAST UNIT A5</t>
+  </si>
+  <si>
+    <t>THISEL</t>
+  </si>
+  <si>
+    <t>60f6fa3f34269200b8673d58</t>
+  </si>
+  <si>
+    <t>1301 RICHMOND RD</t>
+  </si>
+  <si>
+    <t>http://www.thehappycannasseur.com/</t>
+  </si>
+  <si>
+    <t>1413 KING ST E UNIT 5</t>
+  </si>
+  <si>
+    <t>The Happy Cannasseur</t>
+  </si>
+  <si>
+    <t>http://www.thegreenbouquet.ca/</t>
+  </si>
+  <si>
+    <t>15 SOUTH MARY LAKE RD UNIT 2</t>
+  </si>
+  <si>
+    <t>The Green Bouquet Cannabis</t>
+  </si>
+  <si>
+    <t>PORT SYDNEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13579,8 +13843,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13607,12 +13878,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13646,7 +13911,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -13700,18 +13965,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -14015,10 +14277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1294"/>
+  <dimension ref="A1:N1323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1272" workbookViewId="0">
-      <selection activeCell="C1294" sqref="C1294"/>
+    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
+      <selection activeCell="C1304" sqref="C1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55463,7 +55725,7 @@
       <c r="F1258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1258" s="41" t="s">
+      <c r="G1258" s="37" t="s">
         <v>4369</v>
       </c>
       <c r="H1258" s="1" t="s">
@@ -55490,7 +55752,7 @@
       <c r="D1259" s="11" t="s">
         <v>4371</v>
       </c>
-      <c r="E1259" s="36" t="s">
+      <c r="E1259" s="33" t="s">
         <v>1904</v>
       </c>
       <c r="F1259" s="6" t="s">
@@ -55526,10 +55788,10 @@
       <c r="E1260" s="29" t="s">
         <v>4245</v>
       </c>
-      <c r="F1260" s="38" t="s">
+      <c r="F1260" s="6" t="s">
         <v>4375</v>
       </c>
-      <c r="G1260" s="37" t="s">
+      <c r="G1260" s="34" t="s">
         <v>4373</v>
       </c>
       <c r="H1260" s="1" t="s">
@@ -55541,101 +55803,101 @@
       <c r="J1260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1260" s="12"/>
-    </row>
-    <row r="1261" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1261" t="s">
+      <c r="N1260" s="38"/>
+    </row>
+    <row r="1261" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1261" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1261" t="s">
+      <c r="B1261" s="1" t="s">
         <v>4379</v>
       </c>
-      <c r="C1261" t="s">
+      <c r="C1261" s="1" t="s">
         <v>4378</v>
       </c>
-      <c r="D1261" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1261" s="34" t="s">
+      <c r="D1261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1261" s="29" t="s">
         <v>4377</v>
       </c>
-      <c r="F1261" s="38" t="s">
+      <c r="F1261" s="6" t="s">
         <v>4375</v>
       </c>
-      <c r="G1261" s="42" t="s">
+      <c r="G1261" s="37" t="s">
         <v>4376</v>
       </c>
-      <c r="H1261" t="s">
+      <c r="H1261" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1261">
+      <c r="I1261" s="1">
         <v>14165193487</v>
       </c>
-      <c r="J1261" s="4" t="s">
+      <c r="J1261" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1262" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1262" t="s">
+    <row r="1262" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1262" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="B1262" t="s">
+      <c r="B1262" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="C1262" t="s">
+      <c r="C1262" s="1" t="s">
         <v>4381</v>
       </c>
-      <c r="D1262" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1262" s="34" t="s">
+      <c r="D1262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1262" s="29" t="s">
         <v>2320</v>
       </c>
-      <c r="F1262" s="38" t="s">
+      <c r="F1262" s="6" t="s">
         <v>4375</v>
       </c>
-      <c r="G1262" s="35" t="s">
+      <c r="G1262" s="31" t="s">
         <v>4380</v>
       </c>
-      <c r="H1262" t="s">
+      <c r="H1262" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1262">
+      <c r="I1262" s="1">
         <v>19055635255</v>
       </c>
-      <c r="J1262" t="s">
+      <c r="J1262" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1263" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1263" t="s">
+    <row r="1263" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1263" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B1263" t="s">
+      <c r="B1263" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="C1263" t="s">
+      <c r="C1263" s="1" t="s">
         <v>4383</v>
       </c>
-      <c r="D1263" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1263" s="34" t="s">
+      <c r="D1263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1263" s="29" t="s">
         <v>2320</v>
       </c>
-      <c r="F1263" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1263" s="42" t="s">
+      <c r="F1263" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1263" s="37" t="s">
         <v>4382</v>
       </c>
-      <c r="H1263" t="s">
+      <c r="H1263" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1263">
+      <c r="I1263" s="1">
         <v>17056288828</v>
       </c>
-      <c r="J1263" t="s">
+      <c r="J1263" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -55658,7 +55920,7 @@
       <c r="F1264" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1264" s="41" t="s">
+      <c r="G1264" s="37" t="s">
         <v>4376</v>
       </c>
       <c r="H1264" s="1" t="s">
@@ -55722,7 +55984,7 @@
       <c r="F1266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1266" s="41" t="s">
+      <c r="G1266" s="37" t="s">
         <v>4387</v>
       </c>
       <c r="H1266" s="1" t="s">
@@ -55755,7 +56017,7 @@
       <c r="F1267" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1267" s="41" t="s">
+      <c r="G1267" s="37" t="s">
         <v>4391</v>
       </c>
       <c r="H1267" s="1" t="s">
@@ -55788,7 +56050,7 @@
       <c r="F1268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1268" s="41" t="s">
+      <c r="G1268" s="37" t="s">
         <v>4395</v>
       </c>
       <c r="H1268" s="1" t="s">
@@ -55914,7 +56176,7 @@
       <c r="F1272" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1272" s="39" t="s">
+      <c r="G1272" s="35" t="s">
         <v>4408</v>
       </c>
       <c r="H1272" s="1" t="s">
@@ -56009,7 +56271,7 @@
       <c r="F1275" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1275" s="40" t="s">
+      <c r="G1275" s="36" t="s">
         <v>4418</v>
       </c>
       <c r="H1275" s="1" t="s">
@@ -56075,7 +56337,7 @@
       <c r="F1277" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1277" s="37" t="s">
+      <c r="G1277" s="34" t="s">
         <v>4426</v>
       </c>
       <c r="H1277" s="1" t="s">
@@ -56265,7 +56527,7 @@
       <c r="F1283" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1283" s="40" t="s">
+      <c r="G1283" s="36" t="s">
         <v>4440</v>
       </c>
       <c r="H1283" s="1" t="s">
@@ -56593,6 +56855,7 @@
       <c r="J1293" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1293" s="12"/>
     </row>
     <row r="1294" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1294" s="1" t="s">
@@ -56613,7 +56876,7 @@
       <c r="F1294" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1294" s="41" t="s">
+      <c r="G1294" s="37" t="s">
         <v>4477</v>
       </c>
       <c r="H1294" s="1" t="s">
@@ -56624,6 +56887,921 @@
       </c>
       <c r="J1294" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N1294" s="12"/>
+    </row>
+    <row r="1295" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1295" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C1295" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D1295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1295" s="29" t="s">
+        <v>4482</v>
+      </c>
+      <c r="F1295" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1295" s="37" t="s">
+        <v>4481</v>
+      </c>
+      <c r="H1295" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1295" s="1">
+        <v>16138429333</v>
+      </c>
+      <c r="J1295" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1295" s="12"/>
+    </row>
+    <row r="1296" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1296" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1296" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D1296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1296" s="29" t="s">
+        <v>4485</v>
+      </c>
+      <c r="F1296" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1296" s="31"/>
+      <c r="H1296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1296" s="1">
+        <v>15597156979</v>
+      </c>
+      <c r="J1296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1296" s="12"/>
+    </row>
+    <row r="1297" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1297" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C1297" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D1297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1297" s="29" t="s">
+        <v>4490</v>
+      </c>
+      <c r="F1297" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1297" s="31"/>
+      <c r="H1297" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1297" s="1">
+        <v>14163990995</v>
+      </c>
+      <c r="J1297" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="N1297" s="12"/>
+    </row>
+    <row r="1298" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1298" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C1298" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D1298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1298" s="29" t="s">
+        <v>4493</v>
+      </c>
+      <c r="F1298" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1298" s="31"/>
+      <c r="H1298" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1298" s="1">
+        <v>17053861264</v>
+      </c>
+      <c r="J1298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1298" s="12"/>
+    </row>
+    <row r="1299" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1299" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1299" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D1299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1299" s="29" t="s">
+        <v>4498</v>
+      </c>
+      <c r="F1299" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1299" s="39" t="s">
+        <v>4497</v>
+      </c>
+      <c r="H1299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1299" s="1">
+        <v>14165193555</v>
+      </c>
+      <c r="J1299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1299" s="12"/>
+    </row>
+    <row r="1300" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1300" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1300" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D1300" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1300" s="29" t="s">
+        <v>4498</v>
+      </c>
+      <c r="F1300" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1300" s="39" t="s">
+        <v>4500</v>
+      </c>
+      <c r="H1300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1300" s="1">
+        <v>14167672225</v>
+      </c>
+      <c r="J1300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1300" s="12"/>
+    </row>
+    <row r="1301" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1301" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1301" s="1" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D1301" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1301" s="29" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F1301" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1301" s="31"/>
+      <c r="H1301" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1301" s="1">
+        <v>14162557768</v>
+      </c>
+      <c r="J1301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1301" s="12"/>
+    </row>
+    <row r="1302" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1302" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C1302" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D1302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1302" s="29" t="s">
+        <v>4503</v>
+      </c>
+      <c r="F1302" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1302" s="31"/>
+      <c r="H1302" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1302" s="1">
+        <v>19055193589</v>
+      </c>
+      <c r="J1302" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1302" s="12"/>
+    </row>
+    <row r="1303" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C1303" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1303" s="29" t="s">
+        <v>3797</v>
+      </c>
+      <c r="F1303" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1303" s="39" t="s">
+        <v>4506</v>
+      </c>
+      <c r="H1303" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1303" s="1">
+        <v>14168678888</v>
+      </c>
+      <c r="J1303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1303" s="12"/>
+    </row>
+    <row r="1304" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1304" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1304" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1304" s="29" t="s">
+        <v>4509</v>
+      </c>
+      <c r="F1304" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1304" s="31"/>
+      <c r="H1304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1304" s="1">
+        <v>16133952223</v>
+      </c>
+      <c r="J1304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1304" s="12"/>
+    </row>
+    <row r="1305" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1305" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C1305" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="D1305" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1305" s="29" t="s">
+        <v>4512</v>
+      </c>
+      <c r="F1305" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1305" s="31"/>
+      <c r="H1305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1305" s="1">
+        <v>14162664420</v>
+      </c>
+      <c r="J1305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1305" s="12"/>
+    </row>
+    <row r="1306" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1306" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1306" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1306" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1306" s="29" t="s">
+        <v>4515</v>
+      </c>
+      <c r="F1306" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1306" s="31"/>
+      <c r="H1306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1306" s="1">
+        <v>17056513474</v>
+      </c>
+      <c r="J1306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1306" s="12"/>
+    </row>
+    <row r="1307" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1307" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C1307" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="D1307" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1307" s="30" t="s">
+        <v>4515</v>
+      </c>
+      <c r="F1307" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1307" s="31"/>
+      <c r="H1307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1307" s="1">
+        <v>17056513474</v>
+      </c>
+      <c r="J1307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1307" s="12"/>
+    </row>
+    <row r="1308" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1308" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1308" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="D1308" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1308" s="29" t="s">
+        <v>4523</v>
+      </c>
+      <c r="F1308" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1308" s="39" t="s">
+        <v>4522</v>
+      </c>
+      <c r="H1308" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1308" s="1">
+        <v>14167524242</v>
+      </c>
+      <c r="J1308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1308" s="12"/>
+    </row>
+    <row r="1309" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1309" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C1309" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D1309" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1309" s="29" t="s">
+        <v>4527</v>
+      </c>
+      <c r="F1309" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1309" s="39" t="s">
+        <v>4526</v>
+      </c>
+      <c r="H1309" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1309" s="1">
+        <v>19059854898</v>
+      </c>
+      <c r="J1309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1309" s="12"/>
+    </row>
+    <row r="1310" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1310" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1310" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="D1310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1310" s="29" t="s">
+        <v>4531</v>
+      </c>
+      <c r="F1310" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1310" s="39" t="s">
+        <v>4530</v>
+      </c>
+      <c r="H1310" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1310" s="1">
+        <v>16137661246</v>
+      </c>
+      <c r="J1310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1310" s="12"/>
+    </row>
+    <row r="1311" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1311" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C1311" s="1" t="s">
+        <v>4534</v>
+      </c>
+      <c r="D1311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1311" s="29" t="s">
+        <v>4048</v>
+      </c>
+      <c r="F1311" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1311" s="39" t="s">
+        <v>4533</v>
+      </c>
+      <c r="H1311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1311" s="1">
+        <v>16134784848</v>
+      </c>
+      <c r="J1311" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1312" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1312" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1312" s="29" t="s">
+        <v>4536</v>
+      </c>
+      <c r="F1312" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1312" s="31"/>
+      <c r="H1312" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1312" s="1">
+        <v>16132708800</v>
+      </c>
+      <c r="J1312" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1313" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1313" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1313" s="29" t="s">
+        <v>4536</v>
+      </c>
+      <c r="F1313" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1313" s="31"/>
+      <c r="H1313" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1313" s="1">
+        <v>16138341420</v>
+      </c>
+      <c r="J1313" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1314" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1314" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1314" s="29" t="s">
+        <v>4536</v>
+      </c>
+      <c r="F1314" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1314" s="31"/>
+      <c r="H1314" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1314" s="1">
+        <v>16137921414</v>
+      </c>
+      <c r="J1314" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1315" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1315" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1315" s="29" t="s">
+        <v>4542</v>
+      </c>
+      <c r="F1315" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1315" s="39" t="s">
+        <v>4541</v>
+      </c>
+      <c r="H1315" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1315" s="1">
+        <v>15193045040</v>
+      </c>
+      <c r="J1315" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1316" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1316" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1316" s="29" t="s">
+        <v>4546</v>
+      </c>
+      <c r="F1316" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1316" s="39" t="s">
+        <v>4545</v>
+      </c>
+      <c r="H1316" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1316" s="1">
+        <v>18072150047</v>
+      </c>
+      <c r="J1316" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1317" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C1317" s="1" t="s">
+        <v>4550</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1317" s="29" t="s">
+        <v>4549</v>
+      </c>
+      <c r="F1317" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1317" s="39"/>
+      <c r="H1317" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1317" s="1">
+        <v>16475378802</v>
+      </c>
+      <c r="J1317" s="1" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1318" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C1318" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1318" s="29" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F1318" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1318" s="39" t="s">
+        <v>4552</v>
+      </c>
+      <c r="H1318" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1318" s="1">
+        <v>19057996001</v>
+      </c>
+      <c r="J1318" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C1319" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1319" s="29" t="s">
+        <v>4557</v>
+      </c>
+      <c r="F1319" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1319" s="39" t="s">
+        <v>4556</v>
+      </c>
+      <c r="H1319" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1319" s="1">
+        <v>14165198265</v>
+      </c>
+      <c r="J1319" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1320" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C1320" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1320" s="29" t="s">
+        <v>4531</v>
+      </c>
+      <c r="F1320" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1320" s="39" t="s">
+        <v>4560</v>
+      </c>
+      <c r="H1320" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1320" s="1">
+        <v>16138294111</v>
+      </c>
+      <c r="J1320" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1321" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C1321" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1321" s="29" t="s">
+        <v>4562</v>
+      </c>
+      <c r="F1321" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1321" s="31"/>
+      <c r="H1321" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1321" s="1">
+        <v>19055711842</v>
+      </c>
+      <c r="J1321" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1322" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C1322" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1322" s="29" t="s">
+        <v>4565</v>
+      </c>
+      <c r="F1322" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1322" s="31"/>
+      <c r="H1322" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1322" s="1">
+        <v>17053859333</v>
+      </c>
+      <c r="J1322" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1323" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C1323" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D1323" s="11" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E1323" s="33" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F1323" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1323" s="31" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H1323" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1323" s="25">
+        <v>16136731313</v>
+      </c>
+      <c r="J1323" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -56682,9 +57860,10 @@
     <hyperlink ref="E1170" r:id="rId52"/>
     <hyperlink ref="E1181" r:id="rId53"/>
     <hyperlink ref="E1237" r:id="rId54"/>
+    <hyperlink ref="E1307" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId56"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11589" uniqueCount="4569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11775" uniqueCount="4640">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -13723,13 +13723,226 @@
   </si>
   <si>
     <t>PORT SYDNEY</t>
+  </si>
+  <si>
+    <t>602ed0a028ea7f00d392b66b</t>
+  </si>
+  <si>
+    <t>https://420love.store/main-street-east-hamilton/</t>
+  </si>
+  <si>
+    <t>976 MAIN ST E</t>
+  </si>
+  <si>
+    <t>420 Love Main and Gage</t>
+  </si>
+  <si>
+    <t>5ecd76595691aa011d4c36ae</t>
+  </si>
+  <si>
+    <t>https://420love.store/king-street-west-hamilton/</t>
+  </si>
+  <si>
+    <t>246-248 KING STREET WEST</t>
+  </si>
+  <si>
+    <t>420Love</t>
+  </si>
+  <si>
+    <t>500 PRESTON ST</t>
+  </si>
+  <si>
+    <t>500 Preston Tokyo Smoke</t>
+  </si>
+  <si>
+    <t>https://bigfootcannabis.ca/</t>
+  </si>
+  <si>
+    <t>2 QUEEN ST W UNIT 3</t>
+  </si>
+  <si>
+    <t>Bigfoot's Cannabis Inc.</t>
+  </si>
+  <si>
+    <t>https://bloomohio.com/ohio-dispensary-menu/columbus-dispensary-product-prices?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmblisting-columbus</t>
+  </si>
+  <si>
+    <t>1004 CARSON RD W UNIT 1A</t>
+  </si>
+  <si>
+    <t>BLOOM QUALITY CANNABIS</t>
+  </si>
+  <si>
+    <t>SPRINGWATER</t>
+  </si>
+  <si>
+    <t>http://www.whatisbodega.com/</t>
+  </si>
+  <si>
+    <t>198 OSSINGTON AVE</t>
+  </si>
+  <si>
+    <t>BODEGA</t>
+  </si>
+  <si>
+    <t>https://budxpressinc.com/</t>
+  </si>
+  <si>
+    <t>963 KING ST E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud Xpress </t>
+  </si>
+  <si>
+    <t>https://budler.ca/cantopia-cannabis-co./cantopia-cannabis-co</t>
+  </si>
+  <si>
+    <t>9445 MISSISSAUGA RD UNIT 3</t>
+  </si>
+  <si>
+    <t>https://budler.ca/culture-rising/culture-rising-3723</t>
+  </si>
+  <si>
+    <t>1248 MAIN ST E</t>
+  </si>
+  <si>
+    <t>Culture Rising</t>
+  </si>
+  <si>
+    <t>https://budluv.ca/pages/dutchie-menu?utm_source=google&amp;utm_medium=click&amp;utm_campaign=GMB</t>
+  </si>
+  <si>
+    <t>1294 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>House of Bud</t>
+  </si>
+  <si>
+    <t>https://710kingston.com/</t>
+  </si>
+  <si>
+    <t>1100 PRINCESS ST UNIT E101</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/pickering</t>
+  </si>
+  <si>
+    <t>705 KINGSTON RD SUITE 1</t>
+  </si>
+  <si>
+    <t>One Plant Pickering</t>
+  </si>
+  <si>
+    <t>https://bowmanville.rusticcannabis.ca/menu/rustic-cannabis-121-king-st</t>
+  </si>
+  <si>
+    <t>122 KING ST E</t>
+  </si>
+  <si>
+    <t>RUSTIC CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.worldscollide.ca/</t>
+  </si>
+  <si>
+    <t>20 SIMCOE ST S</t>
+  </si>
+  <si>
+    <t>That Happy Company</t>
+  </si>
+  <si>
+    <t>60ae76b23e158300a0998b20</t>
+  </si>
+  <si>
+    <t>http://www.thecannabisretailstore.com/</t>
+  </si>
+  <si>
+    <t>5841 MALDEN RD UNIT 122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cannabis Retail Store </t>
+  </si>
+  <si>
+    <t>http://www.valuebuds.com/</t>
+  </si>
+  <si>
+    <t>450 WHARNCLIFFE RD S</t>
+  </si>
+  <si>
+    <t>http://www.vapeclubcannabis.com/</t>
+  </si>
+  <si>
+    <t>6 BRUCEDALE AVE W</t>
+  </si>
+  <si>
+    <t>VAPE CLUB CANNABIS</t>
+  </si>
+  <si>
+    <t>http://www.vertiecannabis.com/</t>
+  </si>
+  <si>
+    <t>180 CARLTON ST</t>
+  </si>
+  <si>
+    <t>VERTIE</t>
+  </si>
+  <si>
+    <t>http://www.villagebuds.com/</t>
+  </si>
+  <si>
+    <t>30 CRAWFORD CRESCENT UNIT 1C</t>
+  </si>
+  <si>
+    <t>Village Buds</t>
+  </si>
+  <si>
+    <t>CAMPBELLVILLE</t>
+  </si>
+  <si>
+    <t>http://ybhgreen.ca/</t>
+  </si>
+  <si>
+    <t>333 KING ST W UNIT 3</t>
+  </si>
+  <si>
+    <t>YBH Green</t>
+  </si>
+  <si>
+    <t>http://www.yourlocalcannabis.com/</t>
+  </si>
+  <si>
+    <t>266 DUNDAS ST E UNIT 102</t>
+  </si>
+  <si>
+    <t>Your Local Cannabis</t>
+  </si>
+  <si>
+    <t>5892 MAIN ST UNIT 301</t>
+  </si>
+  <si>
+    <t>http://www.zephyrcannabis.ca/</t>
+  </si>
+  <si>
+    <t>415C HAZELDEAN RD</t>
+  </si>
+  <si>
+    <t>Zephyr Cannabis</t>
+  </si>
+  <si>
+    <t>629 ST LAWRENCE ST</t>
+  </si>
+  <si>
+    <t>ZEPHYR CANNABIS</t>
+  </si>
+  <si>
+    <t>MERRICKVILLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13810,14 +14023,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF002060"/>
@@ -13835,20 +14040,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -13911,7 +14115,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -13963,17 +14167,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -14277,10 +14475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1323"/>
+  <dimension ref="A1:N1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
-      <selection activeCell="C1304" sqref="C1304"/>
+    <sheetView tabSelected="1" topLeftCell="A1326" workbookViewId="0">
+      <selection activeCell="F1340" sqref="F1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55554,7 +55752,7 @@
       <c r="D1253" s="11" t="s">
         <v>4353</v>
       </c>
-      <c r="E1253" s="32" t="s">
+      <c r="E1253" s="31" t="s">
         <v>4352</v>
       </c>
       <c r="F1253" s="6" t="s">
@@ -55659,7 +55857,7 @@
       <c r="F1256" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1256" s="31" t="s">
+      <c r="G1256" s="17" t="s">
         <v>4362</v>
       </c>
       <c r="H1256" s="1" t="s">
@@ -55692,7 +55890,7 @@
       <c r="F1257" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1257" s="31" t="s">
+      <c r="G1257" s="17" t="s">
         <v>4366</v>
       </c>
       <c r="H1257" s="1" t="s">
@@ -55725,7 +55923,7 @@
       <c r="F1258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1258" s="37" t="s">
+      <c r="G1258" s="18" t="s">
         <v>4369</v>
       </c>
       <c r="H1258" s="1" t="s">
@@ -55752,13 +55950,13 @@
       <c r="D1259" s="11" t="s">
         <v>4371</v>
       </c>
-      <c r="E1259" s="33" t="s">
+      <c r="E1259" s="32" t="s">
         <v>1904</v>
       </c>
       <c r="F1259" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1259" s="31" t="s">
+      <c r="G1259" s="17" t="s">
         <v>2221</v>
       </c>
       <c r="H1259" s="1" t="s">
@@ -55791,7 +55989,7 @@
       <c r="F1260" s="6" t="s">
         <v>4375</v>
       </c>
-      <c r="G1260" s="34" t="s">
+      <c r="G1260" s="20" t="s">
         <v>4373</v>
       </c>
       <c r="H1260" s="1" t="s">
@@ -55803,7 +56001,7 @@
       <c r="J1260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1260" s="38"/>
+      <c r="N1260" s="33"/>
     </row>
     <row r="1261" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1261" s="1" t="s">
@@ -55824,7 +56022,7 @@
       <c r="F1261" s="6" t="s">
         <v>4375</v>
       </c>
-      <c r="G1261" s="37" t="s">
+      <c r="G1261" s="18" t="s">
         <v>4376</v>
       </c>
       <c r="H1261" s="1" t="s">
@@ -55856,7 +56054,7 @@
       <c r="F1262" s="6" t="s">
         <v>4375</v>
       </c>
-      <c r="G1262" s="31" t="s">
+      <c r="G1262" s="17" t="s">
         <v>4380</v>
       </c>
       <c r="H1262" s="1" t="s">
@@ -55888,7 +56086,7 @@
       <c r="F1263" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1263" s="37" t="s">
+      <c r="G1263" s="18" t="s">
         <v>4382</v>
       </c>
       <c r="H1263" s="1" t="s">
@@ -55920,7 +56118,7 @@
       <c r="F1264" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1264" s="37" t="s">
+      <c r="G1264" s="18" t="s">
         <v>4376</v>
       </c>
       <c r="H1264" s="1" t="s">
@@ -55953,7 +56151,7 @@
       <c r="F1265" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1265" s="31"/>
+      <c r="G1265" s="17"/>
       <c r="H1265" s="1" t="s">
         <v>1902</v>
       </c>
@@ -55984,7 +56182,7 @@
       <c r="F1266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1266" s="37" t="s">
+      <c r="G1266" s="18" t="s">
         <v>4387</v>
       </c>
       <c r="H1266" s="1" t="s">
@@ -56017,7 +56215,7 @@
       <c r="F1267" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1267" s="37" t="s">
+      <c r="G1267" s="18" t="s">
         <v>4391</v>
       </c>
       <c r="H1267" s="1" t="s">
@@ -56050,7 +56248,7 @@
       <c r="F1268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1268" s="37" t="s">
+      <c r="G1268" s="18" t="s">
         <v>4395</v>
       </c>
       <c r="H1268" s="1" t="s">
@@ -56083,7 +56281,7 @@
       <c r="F1269" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1269" s="31"/>
+      <c r="G1269" s="17"/>
       <c r="H1269" s="1" t="s">
         <v>66</v>
       </c>
@@ -56114,7 +56312,7 @@
       <c r="F1270" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1270" s="31"/>
+      <c r="G1270" s="17"/>
       <c r="H1270" s="1" t="s">
         <v>40</v>
       </c>
@@ -56145,7 +56343,7 @@
       <c r="F1271" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1271" s="31"/>
+      <c r="G1271" s="17"/>
       <c r="H1271" s="1" t="s">
         <v>26</v>
       </c>
@@ -56176,7 +56374,7 @@
       <c r="F1272" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1272" s="35" t="s">
+      <c r="G1272" s="18" t="s">
         <v>4408</v>
       </c>
       <c r="H1272" s="1" t="s">
@@ -56209,7 +56407,7 @@
       <c r="F1273" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1273" s="31"/>
+      <c r="G1273" s="17"/>
       <c r="H1273" s="1" t="s">
         <v>14</v>
       </c>
@@ -56240,7 +56438,7 @@
       <c r="F1274" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1274" s="31"/>
+      <c r="G1274" s="17"/>
       <c r="H1274" s="1" t="s">
         <v>14</v>
       </c>
@@ -56271,7 +56469,7 @@
       <c r="F1275" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1275" s="36" t="s">
+      <c r="G1275" s="21" t="s">
         <v>4418</v>
       </c>
       <c r="H1275" s="1" t="s">
@@ -56304,7 +56502,7 @@
       <c r="F1276" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1276" s="31" t="s">
+      <c r="G1276" s="17" t="s">
         <v>4422</v>
       </c>
       <c r="H1276" s="1" t="s">
@@ -56337,7 +56535,7 @@
       <c r="F1277" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1277" s="34" t="s">
+      <c r="G1277" s="20" t="s">
         <v>4426</v>
       </c>
       <c r="H1277" s="1" t="s">
@@ -56370,7 +56568,7 @@
       <c r="F1278" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1278" s="31" t="s">
+      <c r="G1278" s="17" t="s">
         <v>4428</v>
       </c>
       <c r="H1278" s="1" t="s">
@@ -56403,7 +56601,7 @@
       <c r="F1279" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1279" s="31"/>
+      <c r="G1279" s="17"/>
       <c r="H1279" s="1" t="s">
         <v>26</v>
       </c>
@@ -56434,7 +56632,7 @@
       <c r="F1280" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1280" s="31"/>
+      <c r="G1280" s="17"/>
       <c r="H1280" s="1" t="s">
         <v>100</v>
       </c>
@@ -56465,7 +56663,7 @@
       <c r="F1281" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1281" s="31"/>
+      <c r="G1281" s="17"/>
       <c r="H1281" s="1" t="s">
         <v>40</v>
       </c>
@@ -56496,7 +56694,7 @@
       <c r="F1282" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1282" s="31"/>
+      <c r="G1282" s="17"/>
       <c r="H1282" s="1" t="s">
         <v>26</v>
       </c>
@@ -56527,7 +56725,7 @@
       <c r="F1283" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1283" s="36" t="s">
+      <c r="G1283" s="21" t="s">
         <v>4440</v>
       </c>
       <c r="H1283" s="1" t="s">
@@ -56560,7 +56758,7 @@
       <c r="F1284" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1284" s="31" t="s">
+      <c r="G1284" s="17" t="s">
         <v>4445</v>
       </c>
       <c r="H1284" s="1" t="s">
@@ -56593,7 +56791,7 @@
       <c r="F1285" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1285" s="31"/>
+      <c r="G1285" s="17"/>
       <c r="H1285" s="1" t="s">
         <v>14</v>
       </c>
@@ -56624,9 +56822,9 @@
       <c r="F1286" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1286" s="31"/>
+      <c r="G1286" s="17"/>
       <c r="H1286" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1286" s="1">
         <v>17054622220</v>
@@ -56655,7 +56853,7 @@
       <c r="F1287" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1287" s="31"/>
+      <c r="G1287" s="17"/>
       <c r="H1287" s="1" t="s">
         <v>26</v>
       </c>
@@ -56686,7 +56884,7 @@
       <c r="F1288" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1288" s="31"/>
+      <c r="G1288" s="17"/>
       <c r="H1288" s="1" t="s">
         <v>26</v>
       </c>
@@ -56717,7 +56915,7 @@
       <c r="F1289" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1289" s="31"/>
+      <c r="G1289" s="17"/>
       <c r="H1289" s="1" t="s">
         <v>26</v>
       </c>
@@ -56748,7 +56946,7 @@
       <c r="F1290" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1290" s="31"/>
+      <c r="G1290" s="17"/>
       <c r="H1290" s="1" t="s">
         <v>7</v>
       </c>
@@ -56779,7 +56977,7 @@
       <c r="F1291" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1291" s="31"/>
+      <c r="G1291" s="17"/>
       <c r="H1291" s="1" t="s">
         <v>40</v>
       </c>
@@ -56810,7 +57008,7 @@
       <c r="F1292" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1292" s="31" t="s">
+      <c r="G1292" s="17" t="s">
         <v>4468</v>
       </c>
       <c r="H1292" s="1" t="s">
@@ -56843,7 +57041,7 @@
       <c r="F1293" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1293" s="31" t="s">
+      <c r="G1293" s="17" t="s">
         <v>4472</v>
       </c>
       <c r="H1293" s="1" t="s">
@@ -56876,7 +57074,7 @@
       <c r="F1294" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1294" s="37" t="s">
+      <c r="G1294" s="18" t="s">
         <v>4477</v>
       </c>
       <c r="H1294" s="1" t="s">
@@ -56909,11 +57107,11 @@
       <c r="F1295" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1295" s="37" t="s">
+      <c r="G1295" s="18" t="s">
         <v>4481</v>
       </c>
       <c r="H1295" s="1" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="I1295" s="1">
         <v>16138429333</v>
@@ -56942,7 +57140,7 @@
       <c r="F1296" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1296" s="31"/>
+      <c r="G1296" s="17"/>
       <c r="H1296" s="1" t="s">
         <v>7</v>
       </c>
@@ -56973,9 +57171,9 @@
       <c r="F1297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1297" s="31"/>
+      <c r="G1297" s="17"/>
       <c r="H1297" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1297" s="1">
         <v>14163990995</v>
@@ -57004,7 +57202,7 @@
       <c r="F1298" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1298" s="31"/>
+      <c r="G1298" s="17"/>
       <c r="H1298" s="1" t="s">
         <v>100</v>
       </c>
@@ -57035,7 +57233,7 @@
       <c r="F1299" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1299" s="39" t="s">
+      <c r="G1299" s="18" t="s">
         <v>4497</v>
       </c>
       <c r="H1299" s="1" t="s">
@@ -57068,7 +57266,7 @@
       <c r="F1300" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1300" s="39" t="s">
+      <c r="G1300" s="18" t="s">
         <v>4500</v>
       </c>
       <c r="H1300" s="1" t="s">
@@ -57101,9 +57299,9 @@
       <c r="F1301" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1301" s="31"/>
+      <c r="G1301" s="17"/>
       <c r="H1301" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1301" s="1">
         <v>14162557768</v>
@@ -57132,9 +57330,9 @@
       <c r="F1302" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1302" s="31"/>
+      <c r="G1302" s="17"/>
       <c r="H1302" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1302" s="1">
         <v>19055193589</v>
@@ -57163,7 +57361,7 @@
       <c r="F1303" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1303" s="39" t="s">
+      <c r="G1303" s="18" t="s">
         <v>4506</v>
       </c>
       <c r="H1303" s="1" t="s">
@@ -57196,7 +57394,7 @@
       <c r="F1304" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1304" s="31"/>
+      <c r="G1304" s="17"/>
       <c r="H1304" s="1" t="s">
         <v>7</v>
       </c>
@@ -57227,7 +57425,7 @@
       <c r="F1305" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1305" s="31"/>
+      <c r="G1305" s="17"/>
       <c r="H1305" s="1" t="s">
         <v>26</v>
       </c>
@@ -57258,7 +57456,7 @@
       <c r="F1306" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1306" s="31"/>
+      <c r="G1306" s="17"/>
       <c r="H1306" s="1" t="s">
         <v>14</v>
       </c>
@@ -57283,13 +57481,13 @@
       <c r="D1307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1307" s="30" t="s">
+      <c r="E1307" s="35" t="s">
         <v>4515</v>
       </c>
       <c r="F1307" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1307" s="31"/>
+      <c r="G1307" s="17"/>
       <c r="H1307" s="1" t="s">
         <v>14</v>
       </c>
@@ -57320,7 +57518,7 @@
       <c r="F1308" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1308" s="39" t="s">
+      <c r="G1308" s="18" t="s">
         <v>4522</v>
       </c>
       <c r="H1308" s="1" t="s">
@@ -57353,7 +57551,7 @@
       <c r="F1309" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1309" s="39" t="s">
+      <c r="G1309" s="18" t="s">
         <v>4526</v>
       </c>
       <c r="H1309" s="1" t="s">
@@ -57386,7 +57584,7 @@
       <c r="F1310" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1310" s="39" t="s">
+      <c r="G1310" s="18" t="s">
         <v>4530</v>
       </c>
       <c r="H1310" s="1" t="s">
@@ -57419,7 +57617,7 @@
       <c r="F1311" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1311" s="39" t="s">
+      <c r="G1311" s="18" t="s">
         <v>4533</v>
       </c>
       <c r="H1311" s="1" t="s">
@@ -57431,6 +57629,7 @@
       <c r="J1311" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1311" s="12"/>
     </row>
     <row r="1312" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1312" s="1" t="s">
@@ -57451,9 +57650,9 @@
       <c r="F1312" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1312" s="31"/>
+      <c r="G1312" s="17"/>
       <c r="H1312" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1312" s="1">
         <v>16132708800</v>
@@ -57461,8 +57660,9 @@
       <c r="J1312" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1313" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1312" s="12"/>
+    </row>
+    <row r="1313" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1313" s="1" t="s">
         <v>533</v>
       </c>
@@ -57481,9 +57681,9 @@
       <c r="F1313" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1313" s="31"/>
+      <c r="G1313" s="17"/>
       <c r="H1313" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1313" s="1">
         <v>16138341420</v>
@@ -57491,8 +57691,9 @@
       <c r="J1313" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1314" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1313" s="12"/>
+    </row>
+    <row r="1314" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1314" s="1" t="s">
         <v>186</v>
       </c>
@@ -57511,9 +57712,9 @@
       <c r="F1314" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1314" s="31"/>
+      <c r="G1314" s="17"/>
       <c r="H1314" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1314" s="1">
         <v>16137921414</v>
@@ -57521,8 +57722,9 @@
       <c r="J1314" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1315" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1314" s="12"/>
+    </row>
+    <row r="1315" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1315" s="1" t="s">
         <v>120</v>
       </c>
@@ -57541,7 +57743,7 @@
       <c r="F1315" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1315" s="39" t="s">
+      <c r="G1315" s="18" t="s">
         <v>4541</v>
       </c>
       <c r="H1315" s="1" t="s">
@@ -57553,8 +57755,9 @@
       <c r="J1315" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1316" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1315" s="12"/>
+    </row>
+    <row r="1316" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1316" s="1" t="s">
         <v>1215</v>
       </c>
@@ -57573,7 +57776,7 @@
       <c r="F1316" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1316" s="39" t="s">
+      <c r="G1316" s="18" t="s">
         <v>4545</v>
       </c>
       <c r="H1316" s="1" t="s">
@@ -57585,8 +57788,9 @@
       <c r="J1316" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1317" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1316" s="12"/>
+    </row>
+    <row r="1317" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1317" s="1" t="s">
         <v>41</v>
       </c>
@@ -57605,9 +57809,9 @@
       <c r="F1317" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1317" s="39"/>
+      <c r="G1317" s="18"/>
       <c r="H1317" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1317" s="1">
         <v>16475378802</v>
@@ -57615,8 +57819,9 @@
       <c r="J1317" s="1" t="s">
         <v>4548</v>
       </c>
-    </row>
-    <row r="1318" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1317" s="12"/>
+    </row>
+    <row r="1318" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1318" s="1" t="s">
         <v>473</v>
       </c>
@@ -57635,7 +57840,7 @@
       <c r="F1318" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1318" s="39" t="s">
+      <c r="G1318" s="18" t="s">
         <v>4552</v>
       </c>
       <c r="H1318" s="1" t="s">
@@ -57647,8 +57852,9 @@
       <c r="J1318" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1319" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1318" s="12"/>
+    </row>
+    <row r="1319" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1319" s="1" t="s">
         <v>27</v>
       </c>
@@ -57667,7 +57873,7 @@
       <c r="F1319" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1319" s="39" t="s">
+      <c r="G1319" s="18" t="s">
         <v>4556</v>
       </c>
       <c r="H1319" s="1" t="s">
@@ -57679,8 +57885,9 @@
       <c r="J1319" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1320" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1319" s="12"/>
+    </row>
+    <row r="1320" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1320" s="1" t="s">
         <v>186</v>
       </c>
@@ -57699,7 +57906,7 @@
       <c r="F1320" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1320" s="39" t="s">
+      <c r="G1320" s="18" t="s">
         <v>4560</v>
       </c>
       <c r="H1320" s="1" t="s">
@@ -57711,8 +57918,9 @@
       <c r="J1320" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1321" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1320" s="12"/>
+    </row>
+    <row r="1321" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1321" s="1" t="s">
         <v>1064</v>
       </c>
@@ -57731,7 +57939,7 @@
       <c r="F1321" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1321" s="31"/>
+      <c r="G1321" s="17"/>
       <c r="H1321" s="1" t="s">
         <v>40</v>
       </c>
@@ -57741,8 +57949,9 @@
       <c r="J1321" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1322" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1321" s="12"/>
+    </row>
+    <row r="1322" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1322" s="1" t="s">
         <v>4568</v>
       </c>
@@ -57761,7 +57970,7 @@
       <c r="F1322" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1322" s="31"/>
+      <c r="G1322" s="17"/>
       <c r="H1322" s="1" t="s">
         <v>14</v>
       </c>
@@ -57771,38 +57980,755 @@
       <c r="J1322" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1323" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1322" s="12"/>
+    </row>
+    <row r="1323" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1323" s="1" t="s">
-        <v>2223</v>
+        <v>46</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>4372</v>
+        <v>4572</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>2222</v>
-      </c>
-      <c r="D1323" s="11" t="s">
-        <v>4371</v>
-      </c>
-      <c r="E1323" s="33" t="s">
-        <v>1904</v>
+        <v>4571</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1323" s="29" t="s">
+        <v>4570</v>
       </c>
       <c r="F1323" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1323" s="31" t="s">
-        <v>2221</v>
+      <c r="G1323" s="18" t="s">
+        <v>4569</v>
       </c>
       <c r="H1323" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1323" s="1">
+        <v>19055439185</v>
+      </c>
+      <c r="J1323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1323" s="12"/>
+    </row>
+    <row r="1324" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1324" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C1324" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="D1324" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1324" s="29" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F1324" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1324" s="18" t="s">
+        <v>4573</v>
+      </c>
+      <c r="H1324" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1324" s="1">
+        <v>19055460729</v>
+      </c>
+      <c r="J1324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1324" s="12"/>
+    </row>
+    <row r="1325" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1325" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C1325" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1325" s="29" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F1325" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1325" s="17"/>
+      <c r="H1325" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1325" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1325" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="N1325" s="12"/>
+    </row>
+    <row r="1326" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1326" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C1326" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1326" s="29" t="s">
+        <v>4579</v>
+      </c>
+      <c r="F1326" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1326" s="17"/>
+      <c r="H1326" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1326" s="1">
+        <v>17053224210</v>
+      </c>
+      <c r="J1326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1326" s="12"/>
+    </row>
+    <row r="1327" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1327" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C1327" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1327" s="29" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F1327" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1327" s="17"/>
+      <c r="H1327" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I1327" s="1">
+        <v>16144071616</v>
+      </c>
+      <c r="J1327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1327" s="12"/>
+    </row>
+    <row r="1328" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1328" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C1328" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D1328" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1328" s="29" t="s">
+        <v>4586</v>
+      </c>
+      <c r="F1328" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1328" s="17"/>
+      <c r="H1328" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1323" s="25">
-        <v>16136731313</v>
-      </c>
-      <c r="J1323" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="I1328" s="1">
+        <v>14165462941</v>
+      </c>
+      <c r="J1328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1328" s="12"/>
+    </row>
+    <row r="1329" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1329" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C1329" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D1329" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1329" s="29" t="s">
+        <v>4589</v>
+      </c>
+      <c r="F1329" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1329" s="17"/>
+      <c r="H1329" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1329" s="1">
+        <v>19055458559</v>
+      </c>
+      <c r="J1329" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1329" s="12"/>
+    </row>
+    <row r="1330" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1330" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1330" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1330" s="29" t="s">
+        <v>4592</v>
+      </c>
+      <c r="F1330" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1330" s="17"/>
+      <c r="H1330" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1330" s="1">
+        <v>19054532899</v>
+      </c>
+      <c r="J1330" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1330" s="12"/>
+    </row>
+    <row r="1331" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1331" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C1331" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1331" s="29" t="s">
+        <v>4594</v>
+      </c>
+      <c r="F1331" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1331" s="17"/>
+      <c r="H1331" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1331" s="1">
+        <v>19058649988</v>
+      </c>
+      <c r="J1331" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1331" s="12"/>
+    </row>
+    <row r="1332" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C1332" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1332" s="29" t="s">
+        <v>4597</v>
+      </c>
+      <c r="F1332" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1332" s="17"/>
+      <c r="H1332" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1332" s="1">
+        <v>14165335773</v>
+      </c>
+      <c r="J1332" s="34" t="s">
+        <v>3478</v>
+      </c>
+      <c r="N1332" s="12"/>
+    </row>
+    <row r="1333" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1333" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C1333" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1333" s="29" t="s">
+        <v>4600</v>
+      </c>
+      <c r="F1333" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1333" s="17"/>
+      <c r="H1333" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1333" s="1">
+        <v>16139295269</v>
+      </c>
+      <c r="J1333" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="N1333" s="12"/>
+    </row>
+    <row r="1334" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1334" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C1334" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1334" s="29" t="s">
+        <v>4602</v>
+      </c>
+      <c r="F1334" s="6"/>
+      <c r="G1334" s="17"/>
+      <c r="H1334" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1334" s="1">
+        <v>19054929277</v>
+      </c>
+      <c r="J1334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1334" s="12"/>
+    </row>
+    <row r="1335" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1335" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C1335" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D1335" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1335" s="29" t="s">
+        <v>4605</v>
+      </c>
+      <c r="F1335" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1335" s="17"/>
+      <c r="H1335" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1335" s="1">
+        <v>19056230333</v>
+      </c>
+      <c r="J1335" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1335" s="12"/>
+    </row>
+    <row r="1336" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1336" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C1336" s="1" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1336" s="29" t="s">
+        <v>4608</v>
+      </c>
+      <c r="F1336" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1336" s="17"/>
+      <c r="H1336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1336" s="1">
+        <v>19054368999</v>
+      </c>
+      <c r="J1336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1336" s="12"/>
+    </row>
+    <row r="1337" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1337" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1337" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1337" s="29" t="s">
+        <v>4612</v>
+      </c>
+      <c r="F1337" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1337" s="18" t="s">
+        <v>4611</v>
+      </c>
+      <c r="H1337" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1337" s="1">
+        <v>12267836286</v>
+      </c>
+      <c r="J1337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1337" s="12"/>
+    </row>
+    <row r="1338" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1338" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1338" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1338" s="29" t="s">
+        <v>4615</v>
+      </c>
+      <c r="F1338" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1338" s="17"/>
+      <c r="H1338" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1338" s="1">
+        <v>15196019873</v>
+      </c>
+      <c r="J1338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1338" s="12"/>
+    </row>
+    <row r="1339" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1339" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C1339" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1339" s="29" t="s">
+        <v>4617</v>
+      </c>
+      <c r="F1339" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1339" s="17"/>
+      <c r="H1339" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1339" s="1">
+        <v>19052087508</v>
+      </c>
+      <c r="J1339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1339" s="12"/>
+    </row>
+    <row r="1340" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C1340" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1340" s="29" t="s">
+        <v>4620</v>
+      </c>
+      <c r="F1340" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1340" s="17"/>
+      <c r="H1340" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1340" s="1">
+        <v>14162424145</v>
+      </c>
+      <c r="J1340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1340" s="12"/>
+    </row>
+    <row r="1341" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1341" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C1341" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1341" s="29" t="s">
+        <v>4623</v>
+      </c>
+      <c r="F1341" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1341" s="17"/>
+      <c r="H1341" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1341" s="1">
+        <v>19058548209</v>
+      </c>
+      <c r="J1341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1341" s="12"/>
+    </row>
+    <row r="1342" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1342" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1342" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1342" s="29" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F1342" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1342" s="17"/>
+      <c r="H1342" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1342" s="1">
+        <v>19052400192</v>
+      </c>
+      <c r="J1342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1342" s="12"/>
+    </row>
+    <row r="1343" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1343" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C1343" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1343" s="29" t="s">
+        <v>4630</v>
+      </c>
+      <c r="F1343" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1343" s="17"/>
+      <c r="H1343" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1343" s="1">
+        <v>16133928655</v>
+      </c>
+      <c r="J1343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1343" s="12"/>
+    </row>
+    <row r="1344" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1344" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C1344" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1344" s="29" t="s">
+        <v>4630</v>
+      </c>
+      <c r="F1344" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1344" s="17"/>
+      <c r="H1344" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1344" s="1">
+        <v>19055912556</v>
+      </c>
+      <c r="J1344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1344" s="12"/>
+    </row>
+    <row r="1345" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C1345" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="D1345" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1345" s="29" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F1345" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1345" s="17"/>
+      <c r="H1345" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1345" s="1">
+        <v>16135999209</v>
+      </c>
+      <c r="J1345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1345" s="12"/>
+    </row>
+    <row r="1346" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1346" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1346" s="29" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F1346" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1346" s="17"/>
+      <c r="H1346" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1346" s="1">
+        <v>16132693020</v>
+      </c>
+      <c r="J1346" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="N1346" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11775" uniqueCount="4640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11784" uniqueCount="4643">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -13936,13 +13936,22 @@
   </si>
   <si>
     <t>MERRICKVILLE</t>
+  </si>
+  <si>
+    <t>6266bc39c7fa73008d2bf11c</t>
+  </si>
+  <si>
+    <t>http://www.levicann.com/shop-keswick/</t>
+  </si>
+  <si>
+    <t>488 THE QUEENSWAY S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14054,6 +14063,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -14115,7 +14132,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -14172,6 +14189,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -14475,10 +14493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1346"/>
+  <dimension ref="A1:N1347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1326" workbookViewId="0">
-      <selection activeCell="F1340" sqref="F1340"/>
+    <sheetView tabSelected="1" topLeftCell="A1327" workbookViewId="0">
+      <selection activeCell="G1343" sqref="G1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58729,6 +58747,38 @@
         <v>3534</v>
       </c>
       <c r="N1346" s="12"/>
+    </row>
+    <row r="1347" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1347" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1347" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1347" s="29" t="s">
+        <v>4641</v>
+      </c>
+      <c r="F1347" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1347" s="36" t="s">
+        <v>4640</v>
+      </c>
+      <c r="H1347" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1347" s="1">
+        <v>19056865558</v>
+      </c>
+      <c r="J1347" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -14495,8 +14495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1327" workbookViewId="0">
-      <selection activeCell="G1343" sqref="G1343"/>
+    <sheetView tabSelected="1" topLeftCell="A1241" workbookViewId="0">
+      <selection activeCell="E1265" sqref="E1265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11784" uniqueCount="4643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11928" uniqueCount="4686">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -13945,13 +13945,142 @@
   </si>
   <si>
     <t>488 THE QUEENSWAY S</t>
+  </si>
+  <si>
+    <t>61b255dfb9d7ad0093ec052b</t>
+  </si>
+  <si>
+    <t>1057 MIDLAND AVE</t>
+  </si>
+  <si>
+    <t>710 Kingston</t>
+  </si>
+  <si>
+    <t>5fefa138b2782100c5acd671</t>
+  </si>
+  <si>
+    <t>471 PRINCESS ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710 Kingston </t>
+  </si>
+  <si>
+    <t>62faac762c50bd00aa734b8c</t>
+  </si>
+  <si>
+    <t>http://www.valleybud.ca/</t>
+  </si>
+  <si>
+    <t>433 DONALD B MUNRO DR UNIT B</t>
+  </si>
+  <si>
+    <t>VALLEY BUD</t>
+  </si>
+  <si>
+    <t>CARP</t>
+  </si>
+  <si>
+    <t>6155c8d2f10ee500b8970ada</t>
+  </si>
+  <si>
+    <t>366 RIDEAU ST</t>
+  </si>
+  <si>
+    <t>['Delivery / time unknown']</t>
+  </si>
+  <si>
+    <t>5f72021e0465e100bee27545</t>
+  </si>
+  <si>
+    <t>http://www.vnd.life/</t>
+  </si>
+  <si>
+    <t>2851 DUFFERIN ST</t>
+  </si>
+  <si>
+    <t>V&amp;D Cannabis</t>
+  </si>
+  <si>
+    <t>5f74a7a7c9cad700ac5c2e0e</t>
+  </si>
+  <si>
+    <t>http://www.shopthegood.ca/</t>
+  </si>
+  <si>
+    <t>809 BANK ST</t>
+  </si>
+  <si>
+    <t>The Good Cannabis Company</t>
+  </si>
+  <si>
+    <t>5f300277bb58600131209f96</t>
+  </si>
+  <si>
+    <t>http://www.thermodynamix.ca/</t>
+  </si>
+  <si>
+    <t>178 DAVENPORT RD</t>
+  </si>
+  <si>
+    <t>Thermodynamix Cannabis Inc.</t>
+  </si>
+  <si>
+    <t>5e41cc73451ecb007bd05cae</t>
+  </si>
+  <si>
+    <t>http://www.theniagaraherbalist.com/?utm_source=gmb&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>33 LAKESHORE RD UNIT 15</t>
+  </si>
+  <si>
+    <t>THE NIAGARA HERBALIST</t>
+  </si>
+  <si>
+    <t>5f072e155584c1011bac2c53</t>
+  </si>
+  <si>
+    <t>340 CHARLOTTE ST</t>
+  </si>
+  <si>
+    <t>60355ee0d2e46700c21fe6d2</t>
+  </si>
+  <si>
+    <t>http://www.sparklecannabis.ca/</t>
+  </si>
+  <si>
+    <t>778 CONCESSION ST</t>
+  </si>
+  <si>
+    <t>Sparkle Cannabis Company</t>
+  </si>
+  <si>
+    <t>5f20315a5adf4e00d1622faa</t>
+  </si>
+  <si>
+    <t>http://www.speakeasycannabis.ca/</t>
+  </si>
+  <si>
+    <t>9225 93 HWY UNIT 16</t>
+  </si>
+  <si>
+    <t>Speakeasy Cannabis Midland</t>
+  </si>
+  <si>
+    <t>61bbc71f8f6d5d00a7828e71</t>
+  </si>
+  <si>
+    <t>2430 BANK ST UNIT 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Meadow Cannabis </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14071,6 +14200,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -14132,7 +14268,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -14190,6 +14326,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -14493,10 +14630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1347"/>
+  <dimension ref="A1:N1363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1241" workbookViewId="0">
-      <selection activeCell="E1265" sqref="E1265"/>
+    <sheetView tabSelected="1" topLeftCell="A1340" workbookViewId="0">
+      <selection activeCell="A1363" sqref="A1363:XFD1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58767,7 +58904,7 @@
       <c r="F1347" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1347" s="36" t="s">
+      <c r="G1347" s="17" t="s">
         <v>4640</v>
       </c>
       <c r="H1347" s="1" t="s">
@@ -58778,6 +58915,518 @@
       </c>
       <c r="J1347" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1348" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C1348" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1348" s="29" t="s">
+        <v>4600</v>
+      </c>
+      <c r="F1348" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1348" s="18" t="s">
+        <v>4643</v>
+      </c>
+      <c r="H1348" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1348" s="1">
+        <v>13433647450</v>
+      </c>
+      <c r="J1348" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1349" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C1349" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1349" s="29" t="s">
+        <v>4600</v>
+      </c>
+      <c r="F1349" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1349" s="18" t="s">
+        <v>4646</v>
+      </c>
+      <c r="H1349" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1349" s="1">
+        <v>16139295269</v>
+      </c>
+      <c r="J1349" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1350" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C1350" s="1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1350" s="29" t="s">
+        <v>4650</v>
+      </c>
+      <c r="F1350" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1350" s="18" t="s">
+        <v>4649</v>
+      </c>
+      <c r="H1350" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1350" s="1">
+        <v>16135263420</v>
+      </c>
+      <c r="J1350" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1351" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C1351" s="1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1351" s="29" t="s">
+        <v>4482</v>
+      </c>
+      <c r="F1351" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1351" s="17" t="s">
+        <v>4654</v>
+      </c>
+      <c r="H1351" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1351" s="1">
+        <v>16138609333</v>
+      </c>
+      <c r="J1351" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1352" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C1352" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1352" s="29" t="s">
+        <v>4658</v>
+      </c>
+      <c r="F1352" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1352" s="17" t="s">
+        <v>4657</v>
+      </c>
+      <c r="H1352" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1352" s="1">
+        <v>14167872450</v>
+      </c>
+      <c r="J1352" s="1" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1353" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C1353" s="1" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1353" s="29" t="s">
+        <v>4662</v>
+      </c>
+      <c r="F1353" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1353" s="18" t="s">
+        <v>4661</v>
+      </c>
+      <c r="H1353" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1353" s="1">
+        <v>16132334663</v>
+      </c>
+      <c r="J1353" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1354" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1354" s="1" t="s">
+        <v>4667</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1354" s="29" t="s">
+        <v>4666</v>
+      </c>
+      <c r="F1354" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1354" s="37" t="s">
+        <v>4665</v>
+      </c>
+      <c r="H1354" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1354" s="1">
+        <v>14169299669</v>
+      </c>
+      <c r="J1354" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C1355" s="1" t="s">
+        <v>4671</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1355" s="29" t="s">
+        <v>4670</v>
+      </c>
+      <c r="F1355" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1355" s="37" t="s">
+        <v>4669</v>
+      </c>
+      <c r="H1355" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1355" s="1">
+        <v>19059344372</v>
+      </c>
+      <c r="J1355" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1356" s="1" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1356" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1356" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1356" s="37" t="s">
+        <v>4369</v>
+      </c>
+      <c r="H1356" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1356" s="1">
+        <v>18072742222</v>
+      </c>
+      <c r="J1356" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1357" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="D1357" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1357" s="29" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F1357" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1357" s="37" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1357" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1357" s="1">
+        <v>17057491833</v>
+      </c>
+      <c r="J1357" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C1358" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1358" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1358" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1358" s="37" t="s">
+        <v>4359</v>
+      </c>
+      <c r="H1358" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1358" s="1">
+        <v>17054626626</v>
+      </c>
+      <c r="J1358" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C1359" s="1" t="s">
+        <v>4677</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1359" s="29" t="s">
+        <v>4676</v>
+      </c>
+      <c r="F1359" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1359" s="37" t="s">
+        <v>4675</v>
+      </c>
+      <c r="H1359" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1359" s="1">
+        <v>19053189333</v>
+      </c>
+      <c r="J1359" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C1360" s="1" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1360" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1360" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1360" s="36" t="s">
+        <v>4366</v>
+      </c>
+      <c r="H1360" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1360" s="1">
+        <v>18072742222</v>
+      </c>
+      <c r="J1360" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1361" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1361" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1361" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1361" s="36" t="s">
+        <v>4380</v>
+      </c>
+      <c r="H1361" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1361" s="1">
+        <v>19055635255</v>
+      </c>
+      <c r="J1361" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1362" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C1362" s="1" t="s">
+        <v>4681</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1362" s="29" t="s">
+        <v>4680</v>
+      </c>
+      <c r="F1362" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1362" s="37" t="s">
+        <v>4679</v>
+      </c>
+      <c r="H1362" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1362" s="1">
+        <v>17055266060</v>
+      </c>
+      <c r="J1362" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1363" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C1363" s="1" t="s">
+        <v>4684</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1363" s="29" t="s">
+        <v>4482</v>
+      </c>
+      <c r="F1363" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1363" s="36" t="s">
+        <v>4683</v>
+      </c>
+      <c r="H1363" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1363" s="1">
+        <v>16137367667</v>
+      </c>
+      <c r="J1363" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -14633,7 +14633,7 @@
   <dimension ref="A1:N1363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1340" workbookViewId="0">
-      <selection activeCell="A1363" sqref="A1363:XFD1363"/>
+      <selection activeCell="F1365" sqref="F1365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58916,6 +58916,7 @@
       <c r="J1347" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1347" s="12"/>
     </row>
     <row r="1348" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1348" s="1" t="s">
@@ -58948,6 +58949,7 @@
       <c r="J1348" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1348" s="12"/>
     </row>
     <row r="1349" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1349" s="1" t="s">
@@ -58980,6 +58982,7 @@
       <c r="J1349" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1349" s="12"/>
     </row>
     <row r="1350" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1350" s="1" t="s">
@@ -59012,6 +59015,7 @@
       <c r="J1350" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1350" s="12"/>
     </row>
     <row r="1351" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1351" s="1" t="s">
@@ -59044,6 +59048,7 @@
       <c r="J1351" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1351" s="12"/>
     </row>
     <row r="1352" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1352" s="1" t="s">
@@ -59076,6 +59081,7 @@
       <c r="J1352" s="1" t="s">
         <v>4656</v>
       </c>
+      <c r="N1352" s="12"/>
     </row>
     <row r="1353" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1353" s="1" t="s">
@@ -59108,6 +59114,7 @@
       <c r="J1353" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1353" s="12"/>
     </row>
     <row r="1354" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1354" s="1" t="s">
@@ -59140,6 +59147,7 @@
       <c r="J1354" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1354" s="12"/>
     </row>
     <row r="1355" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1355" s="1" t="s">
@@ -59172,6 +59180,7 @@
       <c r="J1355" s="1" t="s">
         <v>983</v>
       </c>
+      <c r="N1355" s="12"/>
     </row>
     <row r="1356" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1356" s="1" t="s">
@@ -59204,6 +59213,7 @@
       <c r="J1356" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1356" s="12"/>
     </row>
     <row r="1357" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1357" s="1" t="s">
@@ -59236,6 +59246,7 @@
       <c r="J1357" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1357" s="12"/>
     </row>
     <row r="1358" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1358" s="1" t="s">
@@ -59268,6 +59279,7 @@
       <c r="J1358" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1358" s="12"/>
     </row>
     <row r="1359" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1359" s="1" t="s">
@@ -59300,6 +59312,7 @@
       <c r="J1359" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="N1359" s="12"/>
     </row>
     <row r="1360" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1360" s="1" t="s">
@@ -59332,8 +59345,9 @@
       <c r="J1360" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1361" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1360" s="12"/>
+    </row>
+    <row r="1361" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1361" s="1" t="s">
         <v>2336</v>
       </c>
@@ -59364,8 +59378,9 @@
       <c r="J1361" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1362" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1361" s="12"/>
+    </row>
+    <row r="1362" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1362" s="1" t="s">
         <v>3067</v>
       </c>
@@ -59396,8 +59411,9 @@
       <c r="J1362" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1363" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1362" s="12"/>
+    </row>
+    <row r="1363" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1363" s="1" t="s">
         <v>186</v>
       </c>
@@ -59428,6 +59444,7 @@
       <c r="J1363" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1363" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11928" uniqueCount="4686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12228" uniqueCount="4777">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -14074,13 +14074,286 @@
   </si>
   <si>
     <t xml:space="preserve">Purple Meadow Cannabis </t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/guelph/woodlawn-guelph?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>3 WOODLAWN RD W</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/bracebridge/manitoba-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>77 MANITOBA ST</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/guelph/guelph-silvercreek?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>106 SILVERCREEK PKY N UNIT 1</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/bracebridge/muskoka?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>125 MUSKOKA RD 118 W UNIT 6</t>
+  </si>
+  <si>
+    <t>CANNA CABANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRACEBRIDGE </t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/brampton/410-7?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>148 WEST DR UNIT C108</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/ajax/ajax?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>170 KINGSTON RD E UNIT B4</t>
+  </si>
+  <si>
+    <t>201 CUNDLES RD E UNIT 105A</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/kanata/kanata?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>836 MARCH ROAD UNIT B1</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/hanover/hanover?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>880 10TH ST UNIT 105</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/hamilton/rymal-road?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>905 RYMAL RD E UNIT 110</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/cornwall/cornwall?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>960 BROOKDALE AVE UNIT 8</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/kitchener/weber-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1375 WEBER ST E UNIT 111</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/burlington/Uppermiddle?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>3505 UPPER MIDDLE RD UNIT D003</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/brampton/brampton-woodhills</t>
+  </si>
+  <si>
+    <t>9025 AIRPORT RD UNIT 2</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/ancaster/ancaster?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>14 MARTINDALE CRES UNIT 4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canna Cabana </t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/kitchener/kitchener-ira-needles?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>235 IRA NEEDLES BLVD SUITE C2</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/fort-erie/fort-erie?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>450 GARRISON RD UNIT 100</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/london/fanshawe-park?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>595 FANSHAWE PARK RD W UNIT C01102A</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/burlington/burlington?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>2400 GUELPH LINE UNIT 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canna Cabana Burlington </t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/east-york/leaside?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1723 BAYVIEW AVE UNIT A1</t>
+  </si>
+  <si>
+    <t>Canna Cabana East York</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/hamilton/barton-street-east?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1317 BARTON STREET EAST UNIT H09</t>
+  </si>
+  <si>
+    <t>CANNA CABANA HAMILTON</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/london/london?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>760 HYDE PARK RD UNIT 7B</t>
+  </si>
+  <si>
+    <t>CANNA CABANA LONDON</t>
+  </si>
+  <si>
+    <t>6047d0585841593623dfe1ab</t>
+  </si>
+  <si>
+    <t>28 RAGLAN ST N SUITE 228</t>
+  </si>
+  <si>
+    <t>Cannabis 228</t>
+  </si>
+  <si>
+    <t>RENFREW</t>
+  </si>
+  <si>
+    <t>iWuTC5A7S33baJjvR</t>
+  </si>
+  <si>
+    <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+  </si>
+  <si>
+    <t>202 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>NqnNjmJkkCXMrHWjw</t>
+  </si>
+  <si>
+    <t>179 GEORGE ST UNIT 101</t>
+  </si>
+  <si>
+    <t>xifehQAT5xMwJRjbb</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+  </si>
+  <si>
+    <t>333 YONGE ST</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke 333 Yonge</t>
+  </si>
+  <si>
+    <t>iiYZCAo5b7g7Ntd3R</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/stores/tweed-london</t>
+  </si>
+  <si>
+    <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+  </si>
+  <si>
+    <t>7k8k4j6WKL3edhgdE</t>
+  </si>
+  <si>
+    <t>https://sparklecannabis.ca/shop-burlington</t>
+  </si>
+  <si>
+    <t>730 GUELPH LINE UNIT 1</t>
+  </si>
+  <si>
+    <t>fjySu4BPYqScFCR2t</t>
+  </si>
+  <si>
+    <t>https://bluebirdcannabis.store/byward/</t>
+  </si>
+  <si>
+    <t>121 CLARENCE ST</t>
+  </si>
+  <si>
+    <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/kitchener/kitchener-fairway?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>569 FAIRWAY RD S UNIT H3</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/milton/milton?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1155 MAPLE AVE UNIT F014</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/niagara-falls/niagara-falls?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>5731 VICTORIA AVE</t>
+  </si>
+  <si>
+    <t>CANNA CABANA NIAGARA FALLS</t>
+  </si>
+  <si>
+    <t>https://creeksidegreens.ca/</t>
+  </si>
+  <si>
+    <t>19 REUBEN CRES</t>
+  </si>
+  <si>
+    <t>https://inspiredcannabis.ca/cannabis-dispensary-gloucester/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=gloucester_store</t>
+  </si>
+  <si>
+    <t>1980 OGILVIE RD UNIT 145</t>
+  </si>
+  <si>
+    <t>https://inspiredcannabis.ca/cannabis-dispensary-kingston/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=kingston_store</t>
+  </si>
+  <si>
+    <t>246 PRINCESS ST</t>
+  </si>
+  <si>
+    <t>https://inspiredcannabis.ca/cannabis-dispensary-cobourg/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=cobourg_store</t>
+  </si>
+  <si>
+    <t>1111 ELGIN ST W UNIT F</t>
+  </si>
+  <si>
+    <t>6489 JEANNE D'ARC BLVD N</t>
+  </si>
+  <si>
+    <t>https://inspiredcannabis.ca/cannabis-dispensary-orleans/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=orleans_store</t>
+  </si>
+  <si>
+    <t>INSPIRED CANNABIS CO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14207,6 +14480,15 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -14268,7 +14550,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -14327,6 +14609,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -14630,10 +14913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1363"/>
+  <dimension ref="A1:N1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1340" workbookViewId="0">
-      <selection activeCell="F1365" sqref="F1365"/>
+    <sheetView tabSelected="1" topLeftCell="A1386" workbookViewId="0">
+      <selection activeCell="G1399" sqref="G1399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59445,6 +59728,1161 @@
         <v>20</v>
       </c>
       <c r="N1363" s="12"/>
+    </row>
+    <row r="1364" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1364" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1364" s="1" t="s">
+        <v>4687</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1364" s="29" t="s">
+        <v>4686</v>
+      </c>
+      <c r="F1364" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1364" s="36"/>
+      <c r="H1364" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1364" s="1">
+        <v>15198272104</v>
+      </c>
+      <c r="J1364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1364" s="12"/>
+    </row>
+    <row r="1365" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1365" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1365" s="1" t="s">
+        <v>4689</v>
+      </c>
+      <c r="D1365" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1365" s="29" t="s">
+        <v>4688</v>
+      </c>
+      <c r="F1365" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1365" s="36"/>
+      <c r="H1365" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1365" s="1">
+        <v>17057039100</v>
+      </c>
+      <c r="J1365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1365" s="12"/>
+    </row>
+    <row r="1366" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1366" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1366" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="D1366" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1366" s="29" t="s">
+        <v>4690</v>
+      </c>
+      <c r="F1366" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1366" s="36"/>
+      <c r="H1366" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1366" s="1">
+        <v>15198247358</v>
+      </c>
+      <c r="J1366" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1366" s="12"/>
+    </row>
+    <row r="1367" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1367" s="1" t="s">
+        <v>4693</v>
+      </c>
+      <c r="D1367" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1367" s="29" t="s">
+        <v>4692</v>
+      </c>
+      <c r="F1367" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1367" s="36"/>
+      <c r="H1367" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1367" s="1">
+        <v>17057039100</v>
+      </c>
+      <c r="J1367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1367" s="12"/>
+    </row>
+    <row r="1368" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1368" s="1" t="s">
+        <v>4697</v>
+      </c>
+      <c r="D1368" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1368" s="29" t="s">
+        <v>4696</v>
+      </c>
+      <c r="F1368" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1368" s="36"/>
+      <c r="H1368" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1368" s="1">
+        <v>19057963781</v>
+      </c>
+      <c r="J1368" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1368" s="12"/>
+    </row>
+    <row r="1369" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1369" s="1" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D1369" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1369" s="29" t="s">
+        <v>4698</v>
+      </c>
+      <c r="F1369" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1369" s="36"/>
+      <c r="H1369" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1369" s="1">
+        <v>19056198849</v>
+      </c>
+      <c r="J1369" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1369" s="12"/>
+    </row>
+    <row r="1370" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1370" s="1" t="s">
+        <v>4700</v>
+      </c>
+      <c r="D1370" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1370" s="29" t="s">
+        <v>3606</v>
+      </c>
+      <c r="F1370" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1370" s="36"/>
+      <c r="H1370" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1370" s="1">
+        <v>17055039818</v>
+      </c>
+      <c r="J1370" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1370" s="12"/>
+    </row>
+    <row r="1371" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1371" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1371" s="1" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D1371" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1371" s="29" t="s">
+        <v>4701</v>
+      </c>
+      <c r="F1371" s="6"/>
+      <c r="G1371" s="36"/>
+      <c r="H1371" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1371" s="1">
+        <v>16135910985</v>
+      </c>
+      <c r="J1371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1371" s="12"/>
+    </row>
+    <row r="1372" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1372" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1372" s="1" t="s">
+        <v>4704</v>
+      </c>
+      <c r="D1372" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1372" s="29" t="s">
+        <v>4703</v>
+      </c>
+      <c r="F1372" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1372" s="36"/>
+      <c r="H1372" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1372" s="1">
+        <v>15195064420</v>
+      </c>
+      <c r="J1372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1372" s="12"/>
+    </row>
+    <row r="1373" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1373" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1373" s="1" t="s">
+        <v>4706</v>
+      </c>
+      <c r="D1373" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1373" s="29" t="s">
+        <v>4705</v>
+      </c>
+      <c r="F1373" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1373" s="36"/>
+      <c r="H1373" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1373" s="1">
+        <v>19053830998</v>
+      </c>
+      <c r="J1373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1373" s="12"/>
+    </row>
+    <row r="1374" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1374" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1374" s="1" t="s">
+        <v>4708</v>
+      </c>
+      <c r="D1374" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1374" s="29" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F1374" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1374" s="36"/>
+      <c r="H1374" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1374" s="1">
+        <v>16139383377</v>
+      </c>
+      <c r="J1374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1374" s="12"/>
+    </row>
+    <row r="1375" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1375" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1375" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D1375" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1375" s="29" t="s">
+        <v>4709</v>
+      </c>
+      <c r="F1375" s="6"/>
+      <c r="G1375" s="36"/>
+      <c r="H1375" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1375" s="1">
+        <v>15198960644</v>
+      </c>
+      <c r="J1375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1375" s="12"/>
+    </row>
+    <row r="1376" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1376" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1376" s="1" t="s">
+        <v>4712</v>
+      </c>
+      <c r="D1376" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1376" s="29" t="s">
+        <v>4711</v>
+      </c>
+      <c r="F1376" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1376" s="36"/>
+      <c r="H1376" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1376" s="1">
+        <v>12893371212</v>
+      </c>
+      <c r="J1376" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1376" s="12"/>
+    </row>
+    <row r="1377" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1377" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1377" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1377" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="D1377" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1377" s="29" t="s">
+        <v>4713</v>
+      </c>
+      <c r="F1377" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1377" s="36"/>
+      <c r="H1377" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1377" s="1">
+        <v>12899486326</v>
+      </c>
+      <c r="J1377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1377" s="12"/>
+    </row>
+    <row r="1378" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1378" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1378" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1378" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="D1378" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1378" s="29" t="s">
+        <v>4715</v>
+      </c>
+      <c r="F1378" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1378" s="36"/>
+      <c r="H1378" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1378" s="1">
+        <v>19053041276</v>
+      </c>
+      <c r="J1378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1378" s="12"/>
+    </row>
+    <row r="1379" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1379" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1379" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="D1379" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1379" s="29" t="s">
+        <v>4718</v>
+      </c>
+      <c r="F1379" s="6"/>
+      <c r="G1379" s="36"/>
+      <c r="H1379" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1379" s="1">
+        <v>15482884318</v>
+      </c>
+      <c r="J1379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1379" s="12"/>
+    </row>
+    <row r="1380" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1380" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1380" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D1380" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1380" s="29" t="s">
+        <v>4720</v>
+      </c>
+      <c r="F1380" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1380" s="36"/>
+      <c r="H1380" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1380" s="1">
+        <v>19059946885</v>
+      </c>
+      <c r="J1380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1380" s="12"/>
+    </row>
+    <row r="1381" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1381" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1381" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="D1381" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1381" s="29" t="s">
+        <v>4722</v>
+      </c>
+      <c r="F1381" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1381" s="36"/>
+      <c r="H1381" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1381" s="1">
+        <v>15193049999</v>
+      </c>
+      <c r="J1381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1381" s="12"/>
+    </row>
+    <row r="1382" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1382" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C1382" s="1" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D1382" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1382" s="29" t="s">
+        <v>4724</v>
+      </c>
+      <c r="F1382" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1382" s="36"/>
+      <c r="H1382" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1382" s="1">
+        <v>12893374422</v>
+      </c>
+      <c r="J1382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1382" s="12"/>
+    </row>
+    <row r="1383" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1383" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C1383" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="D1383" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1383" s="29" t="s">
+        <v>4727</v>
+      </c>
+      <c r="F1383" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1383" s="36"/>
+      <c r="H1383" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1383" s="1">
+        <v>14165465626</v>
+      </c>
+      <c r="J1383" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1383" s="12"/>
+    </row>
+    <row r="1384" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1384" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C1384" s="1" t="s">
+        <v>4731</v>
+      </c>
+      <c r="D1384" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1384" s="29" t="s">
+        <v>4730</v>
+      </c>
+      <c r="F1384" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1384" s="36"/>
+      <c r="H1384" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1384" s="1">
+        <v>19055451317</v>
+      </c>
+      <c r="J1384" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1384" s="12"/>
+    </row>
+    <row r="1385" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1385" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="C1385" s="1" t="s">
+        <v>4734</v>
+      </c>
+      <c r="D1385" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1385" s="29" t="s">
+        <v>4733</v>
+      </c>
+      <c r="F1385" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1385" s="36"/>
+      <c r="H1385" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1385" s="1">
+        <v>15194734416</v>
+      </c>
+      <c r="J1385" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1385" s="12"/>
+    </row>
+    <row r="1386" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1386" s="1" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C1386" s="1" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D1386" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1386" s="29" t="s">
+        <v>3544</v>
+      </c>
+      <c r="F1386" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1386" s="37" t="s">
+        <v>4736</v>
+      </c>
+      <c r="H1386" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1386" s="1">
+        <v>16134322288</v>
+      </c>
+      <c r="J1386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1386" s="12"/>
+    </row>
+    <row r="1387" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1387" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1387" s="1" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D1387" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1387" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="F1387" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1387" s="37" t="s">
+        <v>4740</v>
+      </c>
+      <c r="H1387" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1387" s="1">
+        <v>16475984044</v>
+      </c>
+      <c r="J1387" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1387" s="12"/>
+    </row>
+    <row r="1388" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1388" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C1388" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="D1388" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1388" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F1388" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1388" s="37" t="s">
+        <v>4743</v>
+      </c>
+      <c r="H1388" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1388" s="1">
+        <v>16136633253</v>
+      </c>
+      <c r="J1388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1388" s="12"/>
+    </row>
+    <row r="1389" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1389" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C1389" s="1" t="s">
+        <v>4747</v>
+      </c>
+      <c r="D1389" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1389" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F1389" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1389" s="38" t="s">
+        <v>4745</v>
+      </c>
+      <c r="H1389" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1389" s="1">
+        <v>14164773618</v>
+      </c>
+      <c r="J1389" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1389" s="12"/>
+    </row>
+    <row r="1390" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1390" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C1390" s="1" t="s">
+        <v>4751</v>
+      </c>
+      <c r="D1390" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1390" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="F1390" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1390" s="38" t="s">
+        <v>4749</v>
+      </c>
+      <c r="H1390" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1390" s="1">
+        <v>12266674999</v>
+      </c>
+      <c r="J1390" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1390" s="12"/>
+    </row>
+    <row r="1391" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1391" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1391" s="1" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C1391" s="1" t="s">
+        <v>4754</v>
+      </c>
+      <c r="D1391" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1391" s="1" t="s">
+        <v>4753</v>
+      </c>
+      <c r="F1391" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1391" s="37" t="s">
+        <v>4752</v>
+      </c>
+      <c r="H1391" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1391" s="1">
+        <v>19056343033</v>
+      </c>
+      <c r="J1391" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1391" s="12"/>
+    </row>
+    <row r="1392" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1392" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>4758</v>
+      </c>
+      <c r="C1392" s="1" t="s">
+        <v>4757</v>
+      </c>
+      <c r="D1392" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1392" s="1" t="s">
+        <v>4756</v>
+      </c>
+      <c r="F1392" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1392" s="38" t="s">
+        <v>4755</v>
+      </c>
+      <c r="H1392" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1392" s="1">
+        <v>16136950777</v>
+      </c>
+      <c r="J1392" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1392" s="12"/>
+    </row>
+    <row r="1393" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1393" s="1" t="s">
+        <v>4760</v>
+      </c>
+      <c r="D1393" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1393" s="29" t="s">
+        <v>4759</v>
+      </c>
+      <c r="F1393" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1393" s="36"/>
+      <c r="H1393" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1393" s="1">
+        <v>15482884262</v>
+      </c>
+      <c r="J1393" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1393" s="12"/>
+    </row>
+    <row r="1394" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1394" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1394" s="1" t="s">
+        <v>4762</v>
+      </c>
+      <c r="D1394" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1394" s="29" t="s">
+        <v>4761</v>
+      </c>
+      <c r="F1394" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1394" s="36"/>
+      <c r="H1394" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1394" s="1">
+        <v>19056931023</v>
+      </c>
+      <c r="J1394" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1394" s="12"/>
+    </row>
+    <row r="1395" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1395" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1395" s="1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C1395" s="1" t="s">
+        <v>4764</v>
+      </c>
+      <c r="D1395" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1395" s="29" t="s">
+        <v>4763</v>
+      </c>
+      <c r="F1395" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1395" s="36"/>
+      <c r="H1395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1395" s="1">
+        <v>12894771061</v>
+      </c>
+      <c r="J1395" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1395" s="12"/>
+    </row>
+    <row r="1396" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1396" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1396" s="1" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C1396" s="1" t="s">
+        <v>4767</v>
+      </c>
+      <c r="D1396" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1396" s="29" t="s">
+        <v>4766</v>
+      </c>
+      <c r="F1396" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1396" s="36"/>
+      <c r="H1396" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1396" s="1">
+        <v>16132586664</v>
+      </c>
+      <c r="J1396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1396" s="12"/>
+    </row>
+    <row r="1397" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1397" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C1397" s="1" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1397" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1397" s="29" t="s">
+        <v>4768</v>
+      </c>
+      <c r="F1397" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1397" s="36"/>
+      <c r="H1397" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1397" s="1">
+        <v>16134214200</v>
+      </c>
+      <c r="J1397" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1397" s="12"/>
+    </row>
+    <row r="1398" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1398" s="1" t="s">
+        <v>4771</v>
+      </c>
+      <c r="D1398" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1398" s="29" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F1398" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1398" s="36"/>
+      <c r="H1398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1398" s="1">
+        <v>16135410780</v>
+      </c>
+      <c r="J1398" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1398" s="12"/>
+    </row>
+    <row r="1399" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1399" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1399" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1399" s="1" t="s">
+        <v>4773</v>
+      </c>
+      <c r="D1399" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1399" s="29" t="s">
+        <v>4772</v>
+      </c>
+      <c r="F1399" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1399" s="36"/>
+      <c r="H1399" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1399" s="1">
+        <v>19053727700</v>
+      </c>
+      <c r="J1399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1399" s="12"/>
+    </row>
+    <row r="1400" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1400" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1400" s="1" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C1400" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="D1400" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1400" s="29" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F1400" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1400" s="36"/>
+      <c r="H1400" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1400" s="1">
+        <v>13438805588</v>
+      </c>
+      <c r="J1400" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1400" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -14916,7 +14916,7 @@
   <dimension ref="A1:N1400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1386" workbookViewId="0">
-      <selection activeCell="G1399" sqref="G1399"/>
+      <selection activeCell="D1403" sqref="D1403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12228" uniqueCount="4777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14184" uniqueCount="5369">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -14347,6 +14347,1782 @@
   </si>
   <si>
     <t>INSPIRED CANNABIS CO</t>
+  </si>
+  <si>
+    <t>https://www.blackgoldcannabis.com/</t>
+  </si>
+  <si>
+    <t>243 JAMES ST N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Gold Cannabis &amp; Co </t>
+  </si>
+  <si>
+    <t>64a2d5ccd203a500091fa554</t>
+  </si>
+  <si>
+    <t>https://www.buds4less.ca/alliston</t>
+  </si>
+  <si>
+    <t>23 YOUNG ST</t>
+  </si>
+  <si>
+    <t>Buds4Less</t>
+  </si>
+  <si>
+    <t>https://www.cshopcannabis.ca/ontario</t>
+  </si>
+  <si>
+    <t>753 NOTRE DAME ST</t>
+  </si>
+  <si>
+    <t>C-Shop</t>
+  </si>
+  <si>
+    <t>https://www.cambridgecannabisco.ca/</t>
+  </si>
+  <si>
+    <t>26 QUEEN ST W UNIT 6</t>
+  </si>
+  <si>
+    <t>CAMBRIDGE CANNABIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMBRIDGE </t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/waterloo/uptown?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>32 KING ST S</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/toronto/front-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>79 FRONT ST E</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/scarborough/ellesmere?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>85 ELLESMERE RD, UNIT A01003B</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/ottawa/byward?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>87 CLARENCE ST</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/ottawa/rideau?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>111 RIDEAU ST</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/north-york/bathurst-steeles?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>155 TORONTO ST N</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>170 NORTH QUEEN ST UNIT C1</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/toronto/yonge-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>435B YONGE ST</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/waterloo/Beechwood?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>440 ERB ST W UNIT B2</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/stratford/stratford?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>618 HURON ST</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/toronto/queen?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>698 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/toronto/720-king?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>720 KING ST W UNIT 155</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/st-thomas/st_thomas?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1010 TALBOT ST UNIT 32</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/ottawa/st-laurent?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1021 CYRVILLE RD UNIT A006</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/stittsville/stittsville?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1300 MAIN ST UNIT 111</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/oshawa/taunton-wilson?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1383 WILSON RD N UNIT 1</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/innisfil/innisfil?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1491 INNISFIL BEACH RD SUITE 6</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/ottawa/elmvale-acres</t>
+  </si>
+  <si>
+    <t>1910 ST. LAURENT BLVD UNIT C003</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/windsor/walker?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>4140-4150 WALKER ROAD, UNIT 200-102</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/windsor/east-park?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>6711 TECUMSEH RD E UNIT 8A</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/niagara-falls/niagara-montrose?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>7555 MONTROSE RD UNIT E3</t>
+  </si>
+  <si>
+    <t>6231 BATHURST ST</t>
+  </si>
+  <si>
+    <t>Canna Cabana (Bathurst Steeles)</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/woodstock/woodstock?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>385 SPRINGBANK AVE UNIT 143</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/thunder-bay/thunder-bay?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>949 FORT WILLIAM RD SUITE D10</t>
+  </si>
+  <si>
+    <t>CANNA CABANA FORT WILLIAM</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/north-york/york?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>2318 KEELE ST</t>
+  </si>
+  <si>
+    <t>Canna Cabana Keele</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/sudbury/long-lake-road?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>2019 LONG LAKE RD</t>
+  </si>
+  <si>
+    <t>CANNA CABANA SUDBURY</t>
+  </si>
+  <si>
+    <t>https://cannacabana.com/a/stores/ontario/toronto/parliament-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>433 PARLIAMENT ST</t>
+  </si>
+  <si>
+    <t>Canna Cabana Toronto</t>
+  </si>
+  <si>
+    <t>https://cannavibes.ca/</t>
+  </si>
+  <si>
+    <t>1195 BIRCHMOUNT RD UNIT 1193A</t>
+  </si>
+  <si>
+    <t>Canna Vibes</t>
+  </si>
+  <si>
+    <t>https://www.cannabis-central.ca/</t>
+  </si>
+  <si>
+    <t>235 MARKET ST UNIT B</t>
+  </si>
+  <si>
+    <t>Cannabis Central</t>
+  </si>
+  <si>
+    <t>https://urbndispensary.com/home</t>
+  </si>
+  <si>
+    <t>378 MAIN STREET SOUTH</t>
+  </si>
+  <si>
+    <t>Cannabis County</t>
+  </si>
+  <si>
+    <t>64aec0c943e37100098f0b7d</t>
+  </si>
+  <si>
+    <t>https://www.cannabishut.ca/</t>
+  </si>
+  <si>
+    <t>2436 KINGSTON RD</t>
+  </si>
+  <si>
+    <t>https://www.cannabismasters.store/</t>
+  </si>
+  <si>
+    <t>195 MILLWICK DR</t>
+  </si>
+  <si>
+    <t>Cannabis Masters</t>
+  </si>
+  <si>
+    <t>64dfc51c6cdc2900099abb39</t>
+  </si>
+  <si>
+    <t>https://www.rainbowcannabisplace.com/</t>
+  </si>
+  <si>
+    <t>2555 HURONTARIO ST</t>
+  </si>
+  <si>
+    <t>5ea9b3c15e81ce01097c45e5</t>
+  </si>
+  <si>
+    <t>https://www.cannabissupplyco.ca/</t>
+  </si>
+  <si>
+    <t>57 JOHN ST S</t>
+  </si>
+  <si>
+    <t>5ea9b2f328c37a05840c7ef4</t>
+  </si>
+  <si>
+    <t>https://www.niagaracannabiscompany.com/</t>
+  </si>
+  <si>
+    <t>111 NIAGARA BLVD UNIT 3</t>
+  </si>
+  <si>
+    <t>5faabe531c82dd00adce8ec1</t>
+  </si>
+  <si>
+    <t>https://www.cannabis-xpress.com/</t>
+  </si>
+  <si>
+    <t>405 VETERANS DR</t>
+  </si>
+  <si>
+    <t>https://www.cannasavvy.ca/</t>
+  </si>
+  <si>
+    <t>233 WYANDOTTE ST E</t>
+  </si>
+  <si>
+    <t>CannaSavvy Cannabis Co.</t>
+  </si>
+  <si>
+    <t>https://www.mycannaverse.ca/sudbury/all/</t>
+  </si>
+  <si>
+    <t>110 DONNA DR UNIT D003</t>
+  </si>
+  <si>
+    <t>https://www.mycannaverse.ca/</t>
+  </si>
+  <si>
+    <t>314 HARWOOD AVE S UNIT 16</t>
+  </si>
+  <si>
+    <t>442 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>570 HARBOUR EXPY UNIT 4</t>
+  </si>
+  <si>
+    <t>1465 MERIVALE RD UNIT B5</t>
+  </si>
+  <si>
+    <t>2555 EGLINTON AVE E UNIT 8</t>
+  </si>
+  <si>
+    <t>3090 CARLING AVE UNIT 5A</t>
+  </si>
+  <si>
+    <t>https://www.mycannaverse.ca/niagara/all/</t>
+  </si>
+  <si>
+    <t>8189 LUNDY'S LANE UNIT 3</t>
+  </si>
+  <si>
+    <t>14500 SIMCOE STREET UNITS 6 &amp; 7</t>
+  </si>
+  <si>
+    <t>https://www.capturingeden.com/</t>
+  </si>
+  <si>
+    <t>192 HIGHLAND STREET</t>
+  </si>
+  <si>
+    <t>973 2ND AVE W</t>
+  </si>
+  <si>
+    <t>8209 LUNDY'S LANE UNIT B</t>
+  </si>
+  <si>
+    <t>12818 HIGHWAY 35</t>
+  </si>
+  <si>
+    <t>MINDEN</t>
+  </si>
+  <si>
+    <t>['In-store pickup']</t>
+  </si>
+  <si>
+    <t>https://costcan.ca/</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/12/05</t>
+  </si>
+  <si>
+    <t>71 TALBOT ST E</t>
+  </si>
+  <si>
+    <t>https://cumberlandcannabis.ca/</t>
+  </si>
+  <si>
+    <t>20 CUMBERLAND ST</t>
+  </si>
+  <si>
+    <t>Cumberland Cannabis</t>
+  </si>
+  <si>
+    <t>https://dabcannabisstore.com/locations/dab-aurora/</t>
+  </si>
+  <si>
+    <t>444 HOLLANDVIEW TRAIL UNIT 1B</t>
+  </si>
+  <si>
+    <t>https://dabcannabisstore.com/locations/dab-brampton/</t>
+  </si>
+  <si>
+    <t>227 VODDEN ST E UNIT 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dab Cannabis </t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/oshawa-ritson-rd?utm_medium=yext&amp;utm_source=gmb</t>
+  </si>
+  <si>
+    <t>555 RITSON RD S</t>
+  </si>
+  <si>
+    <t>Daisy Cannabis</t>
+  </si>
+  <si>
+    <t>https://divineflower.ca/shop-online/</t>
+  </si>
+  <si>
+    <t>5 CHARLES ST W</t>
+  </si>
+  <si>
+    <t>Divine Flower</t>
+  </si>
+  <si>
+    <t>https://dmactoronto.com/shop-now/#/menu</t>
+  </si>
+  <si>
+    <t>2559 EGLINTON AVE W</t>
+  </si>
+  <si>
+    <t>DMAC TORONTO</t>
+  </si>
+  <si>
+    <t>https://dollyscannabis.com/</t>
+  </si>
+  <si>
+    <t>1105 BATHURST ST</t>
+  </si>
+  <si>
+    <t>Dolly's Cannabis</t>
+  </si>
+  <si>
+    <t>https://erbngreen.com/dundas-st-w-bathurst/?</t>
+  </si>
+  <si>
+    <t>842 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>Fire &amp; Flower</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/toronto-parkdale?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>4 BROCK AVE</t>
+  </si>
+  <si>
+    <t>Fire &amp; Flower Cannabis Co.</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/kingston-brock-street?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>75 BROCK ST</t>
+  </si>
+  <si>
+    <t>FIRE &amp; FLOWER CANNABIS CO.</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/north-york-pond-mills-centre?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>121 BROADWAY</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/ottawa-york-st?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>129 YORK ST</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/guelph-stone-square-centre?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>314 STONE RD W</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/georgetown-mountainview?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>333 MOUNTAINVIEW RD S UNIT 7 &amp; 8</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/etobicoke-the-queensway?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>764 THE QUEENSWAY</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/chatham-st-clair-st?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>877 ST CLAIR ST UNIT D8</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/toronto-jane-street?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1542 JANE ST UNIT 4</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/toronto-sheridan-mall?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1616 WILSON AVE UNIT 1</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/toronto-stockyards?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1970 ST CLAIR AVE W F108</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/north-bay-thibeault-terrace?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>2021 ALGONQUIN AVE SUITE 102</t>
+  </si>
+  <si>
+    <t>4205 KEELE ST UNIT 20</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/scarborough-morningside-crossing?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>4525 KINGSTON RD UNIT F01004E</t>
+  </si>
+  <si>
+    <t>https://flowerhaze.com/flowerhaze-shop/</t>
+  </si>
+  <si>
+    <t>1571 BANK ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flower Haze Cannabis Boutique </t>
+  </si>
+  <si>
+    <t>https://flowertowncannabis.ca/</t>
+  </si>
+  <si>
+    <t>874 WARD ST UNIT 4</t>
+  </si>
+  <si>
+    <t>FLOWERTOWN CANNABIS</t>
+  </si>
+  <si>
+    <t>BRIDGENORTH</t>
+  </si>
+  <si>
+    <t>https://www.flowertowncannabis.ca/</t>
+  </si>
+  <si>
+    <t>2425 TRUSCOTT DR SUITE 6</t>
+  </si>
+  <si>
+    <t>Flowertown Cannabis</t>
+  </si>
+  <si>
+    <t>https://www.forestcitymarijuana.com/</t>
+  </si>
+  <si>
+    <t>100 BELMONT DR UNIT 4B</t>
+  </si>
+  <si>
+    <t>https://www.fratelliandco.ca/</t>
+  </si>
+  <si>
+    <t>514 MAIN ST N</t>
+  </si>
+  <si>
+    <t>FRATELLI AND CO</t>
+  </si>
+  <si>
+    <t>5ec2d180fa1f590144b27568</t>
+  </si>
+  <si>
+    <t>https://www.fridayscannabis.com/</t>
+  </si>
+  <si>
+    <t>190 PICTON MAIN ST</t>
+  </si>
+  <si>
+    <t>FRIDAYS CANNABIS</t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/barrie-dunlop-st?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>79 DUNLOP ST W UNIT B</t>
+  </si>
+  <si>
+    <t>Friendly Stranger</t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/toronto-church-st?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>501 CHURCH ST UNIT 4B</t>
+  </si>
+  <si>
+    <t>FRIENDLY STRANGER</t>
+  </si>
+  <si>
+    <t>204 RITSON RD N SUITE C5.5</t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/midland-bay-st?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>542 BAY ST</t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/burlington-plains-road?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025 &amp; 1059 PLAINS RD E UNIT 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURLINGTON </t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/dundas-osler-dr?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>112-101 OSLER DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly Stranger </t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/cambridge-franklin-blvd?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>200 FRANKLIN BLVD UNIT F39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIENDLY STRANGER </t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/</t>
+  </si>
+  <si>
+    <t>283 DANFORTH AVE MAIN FLOOR</t>
+  </si>
+  <si>
+    <t>Friendly Stranger Danforth</t>
+  </si>
+  <si>
+    <t>https://getganja.ca/</t>
+  </si>
+  <si>
+    <t>18 MARKET ST UNIT A</t>
+  </si>
+  <si>
+    <t>https://gofe.ca/</t>
+  </si>
+  <si>
+    <t>1744 JANE STREET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garden of Eden cannabis </t>
+  </si>
+  <si>
+    <t>https://www.gramssmokeydreams.com/</t>
+  </si>
+  <si>
+    <t>2 FRONT STREET</t>
+  </si>
+  <si>
+    <t>Gram's Smokey Dreams</t>
+  </si>
+  <si>
+    <t>NIPIGON</t>
+  </si>
+  <si>
+    <t>616ef8771f58c900a352b56b</t>
+  </si>
+  <si>
+    <t>https://www.grasshoppercannabis.com/</t>
+  </si>
+  <si>
+    <t>52 WALTON ST</t>
+  </si>
+  <si>
+    <t>Grasshopper Cannabis</t>
+  </si>
+  <si>
+    <t>https://greenvalleycannabisco.com/</t>
+  </si>
+  <si>
+    <t>115 JOHN ST N</t>
+  </si>
+  <si>
+    <t>GREEN VALLEY CANNABIS COMPANY</t>
+  </si>
+  <si>
+    <t>https://greenvibecannabis.ca/</t>
+  </si>
+  <si>
+    <t>461 BLOOR ST W</t>
+  </si>
+  <si>
+    <t>GREEN VIBE CANNABIS</t>
+  </si>
+  <si>
+    <t>14 BRIDGE STREET</t>
+  </si>
+  <si>
+    <t>Groovy's Baysville</t>
+  </si>
+  <si>
+    <t>https://friendlystranger.com/stores/ON/orillia-mississauga-st-e?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>69 MISSISSAGA ST E</t>
+  </si>
+  <si>
+    <t>HAPPY DAYZ</t>
+  </si>
+  <si>
+    <t>https://www.happyhippycannabis.ca/</t>
+  </si>
+  <si>
+    <t>3464 CATTELL DR UNIT 4</t>
+  </si>
+  <si>
+    <t>Happy Hippy Cannabis Store</t>
+  </si>
+  <si>
+    <t>8194 CUMMINGTON SQ W</t>
+  </si>
+  <si>
+    <t>https://hemispherecannabis.com/hemisphere-weed-dispensary-st-lawrence/</t>
+  </si>
+  <si>
+    <t>65 FRONT ST E SUITE 100</t>
+  </si>
+  <si>
+    <t>https://www.hemispherecannabis.com/</t>
+  </si>
+  <si>
+    <t>171 RIDEAU ST</t>
+  </si>
+  <si>
+    <t>245 KING ST E</t>
+  </si>
+  <si>
+    <t>https://hemispherecannabis.com/hemisphere-weed-dispensary-south-ajax/</t>
+  </si>
+  <si>
+    <t>955 WESTNEY RD S, UNIT 4-II</t>
+  </si>
+  <si>
+    <t>https://herbnbud.xdineapp.com/consumer#menu/4551/Davenport%20Road/519387/Menu</t>
+  </si>
+  <si>
+    <t>1985 DAVENPORT RD</t>
+  </si>
+  <si>
+    <t>https://hiddenleafcannabisco.com/shop/</t>
+  </si>
+  <si>
+    <t>218 VAUGHAN RD</t>
+  </si>
+  <si>
+    <t>Hidden Leaf Cannabis Co.</t>
+  </si>
+  <si>
+    <t>https://hiddenleafcannabisco.com/shop</t>
+  </si>
+  <si>
+    <t>701 LAWRENCE AVE W</t>
+  </si>
+  <si>
+    <t>86 SIXTH AVE</t>
+  </si>
+  <si>
+    <t>High Society Cannabis Co</t>
+  </si>
+  <si>
+    <t>https://weedmaps.com/dispensaries/high-street-cannabis-retail</t>
+  </si>
+  <si>
+    <t>633 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>High Street Cannabis Retail</t>
+  </si>
+  <si>
+    <t>https://www.weedpanion.com/stores/highq-thamesford</t>
+  </si>
+  <si>
+    <t>116 DUNDAS ST E</t>
+  </si>
+  <si>
+    <t>HIGHQ</t>
+  </si>
+  <si>
+    <t>THAMESFORD</t>
+  </si>
+  <si>
+    <t>https://ilovecannabis.ca/</t>
+  </si>
+  <si>
+    <t>928 MONTREAL RD UNIT 3</t>
+  </si>
+  <si>
+    <t>I LOVE CANNABIS</t>
+  </si>
+  <si>
+    <t>https://www.inbloomshop.ca/</t>
+  </si>
+  <si>
+    <t>1831 MAIN ST W UNIT A</t>
+  </si>
+  <si>
+    <t>In Bloom Cannabis</t>
+  </si>
+  <si>
+    <t>https://www.ingramandsons.ca/</t>
+  </si>
+  <si>
+    <t>16 HIGH STREET</t>
+  </si>
+  <si>
+    <t>Ingram &amp; Sons Cannabis Co.</t>
+  </si>
+  <si>
+    <t>VANKLEEK HILL</t>
+  </si>
+  <si>
+    <t>https://inspiredcannabis.ca/cannabis-dispensary-st-catharines/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=st_catharines_store</t>
+  </si>
+  <si>
+    <t>295 FOURTH AVE SUITE 2</t>
+  </si>
+  <si>
+    <t>https://inspiredcannabis.ca/cannabis-dispensary-welland/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=welland_store</t>
+  </si>
+  <si>
+    <t>825 ONTARIO RD UNIT 125</t>
+  </si>
+  <si>
+    <t>https://www.jamesstreetcannabis.com/</t>
+  </si>
+  <si>
+    <t>574 JAMES ST N UNIT 7</t>
+  </si>
+  <si>
+    <t>James Street Cannabis Co.</t>
+  </si>
+  <si>
+    <t>https://kingstoncannabisinc.ca/</t>
+  </si>
+  <si>
+    <t>545 MONTREAL ST UNIT 1</t>
+  </si>
+  <si>
+    <t>KINGSTON CANNABIS INC.</t>
+  </si>
+  <si>
+    <t>https://kroniclez.com/</t>
+  </si>
+  <si>
+    <t>62 BALSAM ST UNIT B104</t>
+  </si>
+  <si>
+    <t>Kroniclez</t>
+  </si>
+  <si>
+    <t>https://www.kushklub.ca/</t>
+  </si>
+  <si>
+    <t>488 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>KUSH KLUB</t>
+  </si>
+  <si>
+    <t>https://lotwcannabis.ca/</t>
+  </si>
+  <si>
+    <t>109 1/2 MAIN ST S</t>
+  </si>
+  <si>
+    <t>Lake of the Woods Cannabis</t>
+  </si>
+  <si>
+    <t>624b78d6b969ba00871fa3b9</t>
+  </si>
+  <si>
+    <t>https://dutchie.com/dispensary/main-street-cannabis-co/products/flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2386 MAIN ST UNIT 1 </t>
+  </si>
+  <si>
+    <t>Main Street Cannabis Co.</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/guelph-college-ave?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>138 COLLEGE AVE W UNIT A</t>
+  </si>
+  <si>
+    <t>https://www.leaflitinc.com/</t>
+  </si>
+  <si>
+    <t>55 KENT ST W</t>
+  </si>
+  <si>
+    <t>Leaflit</t>
+  </si>
+  <si>
+    <t>1990 STEELES AVE W UNIT A</t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/oshawa-harmony-rd?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>1311 HARMONY RD N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC CANNABIS </t>
+  </si>
+  <si>
+    <t>https://fireandflower.com/stores/ON/brampton-mc-laughlin-rd?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>10010 MCLAUGHLIN RD UNIT A</t>
+  </si>
+  <si>
+    <t>https://www.420a3.com/data-security-integrity</t>
+  </si>
+  <si>
+    <t>3500 DUNDAS ST UNIT A1B</t>
+  </si>
+  <si>
+    <t>mihi</t>
+  </si>
+  <si>
+    <t>https://mindyobudnizz.ca/</t>
+  </si>
+  <si>
+    <t>1340 THE QUEENSWAY UNIT 1</t>
+  </si>
+  <si>
+    <t>Mind Yo Budnizz</t>
+  </si>
+  <si>
+    <t>https://budler.ca/miss-jones/elliot-lake-elliot-lake</t>
+  </si>
+  <si>
+    <t>40 HILLSIDE DR S UNIT 3</t>
+  </si>
+  <si>
+    <t>https://budler.ca/miss-jones/miss-jones-val-caron-2947</t>
+  </si>
+  <si>
+    <t>3140 OLD HWY 69 N UNIT 25A</t>
+  </si>
+  <si>
+    <t>MISS JONES</t>
+  </si>
+  <si>
+    <t>6075a0df98e56800d5f0a5ba</t>
+  </si>
+  <si>
+    <t>https://www.mokshacannabis.ca/</t>
+  </si>
+  <si>
+    <t>5 KENASTON GDNS UNIT 3</t>
+  </si>
+  <si>
+    <t>2870 ELLESMERE RD UNIT 2852</t>
+  </si>
+  <si>
+    <t>MOKSHA CANNABIS</t>
+  </si>
+  <si>
+    <t>https://moonwlkr-cannabis.grass.menu/menu/mississauga/</t>
+  </si>
+  <si>
+    <t>3515 ODYSSEY DR SUITE 57</t>
+  </si>
+  <si>
+    <t>MOONWLKR CANNABIS</t>
+  </si>
+  <si>
+    <t>https://moonwlkr-cannabis.grass.menu/menu/moonwlkr-cannabis-niagara/</t>
+  </si>
+  <si>
+    <t>5894 MAIN ST</t>
+  </si>
+  <si>
+    <t>https://www.muskokacannabisstore.ca/</t>
+  </si>
+  <si>
+    <t>351 TALISMAN DR UNIT E01B</t>
+  </si>
+  <si>
+    <t>MUSKOKA CANNABIS GRAVENHURST</t>
+  </si>
+  <si>
+    <t>92 KING WILLIAM ST</t>
+  </si>
+  <si>
+    <t>Muskoka Cannabis Store Huntsville</t>
+  </si>
+  <si>
+    <t>https://mysticscannabis.ca/kenilworth-ave-n-hamilton/</t>
+  </si>
+  <si>
+    <t>135 KENILWORTH AVE N</t>
+  </si>
+  <si>
+    <t>Mystic's Cannabis</t>
+  </si>
+  <si>
+    <t>https://mysticscannabis.ca/main-st-e-hamilton/</t>
+  </si>
+  <si>
+    <t>1466B MAIN ST E</t>
+  </si>
+  <si>
+    <t>https://mysticscannabis.ca/king-st-e-hamilton/</t>
+  </si>
+  <si>
+    <t>2141 KING ST E</t>
+  </si>
+  <si>
+    <t>603015eb914ff200be1f00e7</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/wearenorthbound</t>
+  </si>
+  <si>
+    <t>1984 REGENT ST UNIT 113</t>
+  </si>
+  <si>
+    <t>Northbound Cannabis Co.</t>
+  </si>
+  <si>
+    <t>https://nuclearlettuce.com/</t>
+  </si>
+  <si>
+    <t>441 MAIN ST S</t>
+  </si>
+  <si>
+    <t>Nuclear Lettuce</t>
+  </si>
+  <si>
+    <t>855A QUEEN ST</t>
+  </si>
+  <si>
+    <t>NUCLEAR LETTUCE</t>
+  </si>
+  <si>
+    <t>https://okicannabis.ca/</t>
+  </si>
+  <si>
+    <t>34 AVONDALE BLVD SUITE 2</t>
+  </si>
+  <si>
+    <t>Oki Cannabis</t>
+  </si>
+  <si>
+    <t>603d520e9b365200aa558d5d</t>
+  </si>
+  <si>
+    <t>https://www.oldwestcannabis.ca/</t>
+  </si>
+  <si>
+    <t>215 KING ST E</t>
+  </si>
+  <si>
+    <t>Old West Cannabis Company</t>
+  </si>
+  <si>
+    <t>64b8439f8d13a300093f86bb</t>
+  </si>
+  <si>
+    <t>https://vernon.olympiacannabis.ca/stores/olympia-cannabis-vernon</t>
+  </si>
+  <si>
+    <t>8717 BANK ST UNIT 1</t>
+  </si>
+  <si>
+    <t>Olympia Cannabis Vernon O/C Vernon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERNON </t>
+  </si>
+  <si>
+    <t>https://www.ontheridgeco.com/</t>
+  </si>
+  <si>
+    <t>6915 LUNDY'S LANE</t>
+  </si>
+  <si>
+    <t>On The Ridge Co. Cannabis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAIO </t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/ajax</t>
+  </si>
+  <si>
+    <t>20 KINGSTON RD W UNIT 3A</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/perth</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/london-masonville</t>
+  </si>
+  <si>
+    <t>94 FANSHAWE PARK RD E UNIT 6</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/elmira</t>
+  </si>
+  <si>
+    <t>315 ARTHUR ST S UNIT 105</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/hawkesbury#</t>
+  </si>
+  <si>
+    <t>454 COUNTY RD 17 SUITE 140</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/shelburne</t>
+  </si>
+  <si>
+    <t>804 OJIBWAY RD, BUILDING D UNIT 3</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/st-thomas</t>
+  </si>
+  <si>
+    <t>945 TALBOT ST</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/windsor-walkerville#</t>
+  </si>
+  <si>
+    <t>1320 WALKER RD UNIT 4</t>
+  </si>
+  <si>
+    <t>https://oneplant.ca/</t>
+  </si>
+  <si>
+    <t>1363 WOODROFFE AVE SUITE D</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/toronto-avenue-road</t>
+  </si>
+  <si>
+    <t>1703 AVENUE RD</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/hamilton</t>
+  </si>
+  <si>
+    <t>2172 RYMAL RD E UNIT E1</t>
+  </si>
+  <si>
+    <t>HANNON</t>
+  </si>
+  <si>
+    <t>3000 RICHELIEU ST UNIT 3</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/london-wonderland</t>
+  </si>
+  <si>
+    <t>3030 WONDERLAND RD S</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/windsor-tecumseh</t>
+  </si>
+  <si>
+    <t>7555 TECUMSEH RD E</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/ottawa-barrhaven</t>
+  </si>
+  <si>
+    <t>4335 STRANDHERD DR UNIT 3,4,5</t>
+  </si>
+  <si>
+    <t>One Plant Barrhaven</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/bradford</t>
+  </si>
+  <si>
+    <t>484 HOLLAND ST W UNIT B-1</t>
+  </si>
+  <si>
+    <t>One Plant Bradford</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/stcatharines</t>
+  </si>
+  <si>
+    <t>343 GLENDALE AVE SUITE 520</t>
+  </si>
+  <si>
+    <t>One Plant St. Catharines</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/thunder-bay</t>
+  </si>
+  <si>
+    <t>911 FORT WILLIAM RD SUITE 4</t>
+  </si>
+  <si>
+    <t>ONE PLANT THUNDER BAY</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/strathroy</t>
+  </si>
+  <si>
+    <t>70 CARROLL ST E UNIT A6 &amp; A7</t>
+  </si>
+  <si>
+    <t>One Plant Strathroy</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/stouffville</t>
+  </si>
+  <si>
+    <t>5779 MAIN ST UNIT 105</t>
+  </si>
+  <si>
+    <t>One Plant Stouffville</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/scarborough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 MILNER AVE UNIT C-1D </t>
+  </si>
+  <si>
+    <t>ONE PLANT SCARBOROUGH</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/peterborough</t>
+  </si>
+  <si>
+    <t>999 LANSDOWNE ST W UNIT 8</t>
+  </si>
+  <si>
+    <t>One Plant Peterborough Landsdowne</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/ottawa-orleans</t>
+  </si>
+  <si>
+    <t>4240 INNES RD UNIT J3</t>
+  </si>
+  <si>
+    <t>One Plant Orleans</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/ottawa-glebe</t>
+  </si>
+  <si>
+    <t>900 BANK ST UNIT 150</t>
+  </si>
+  <si>
+    <t>ONE PLANT GLEBE</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/north-york</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2181 STEELES AVE W UNIT B004 </t>
+  </si>
+  <si>
+    <t>One Plant North York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORTH YORK </t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/north-bay</t>
+  </si>
+  <si>
+    <t>1899 ALGONQUIN AVE UNIT 125</t>
+  </si>
+  <si>
+    <t>One Plant North Bay</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/kingston</t>
+  </si>
+  <si>
+    <t>770 GARDINERS RD UNIT A005</t>
+  </si>
+  <si>
+    <t>One Plant Kingston</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/keswick</t>
+  </si>
+  <si>
+    <t>76 ARLINGTON DR UNIT 8</t>
+  </si>
+  <si>
+    <t>One Plant Keswick</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/kensington</t>
+  </si>
+  <si>
+    <t>241 AUGUSTA AVE</t>
+  </si>
+  <si>
+    <t>ONE PLANT KENSINGTON MARKET</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/georgetown</t>
+  </si>
+  <si>
+    <t>235 GUELPH ST UNIT 5B</t>
+  </si>
+  <si>
+    <t>One Plant Georgetown</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/burlington</t>
+  </si>
+  <si>
+    <t>2025 GUELPH LINE UNIT 133</t>
+  </si>
+  <si>
+    <t>One Plant Burlington</t>
+  </si>
+  <si>
+    <t>https://www.oneplant.ca/locations/brockville</t>
+  </si>
+  <si>
+    <t>1958 PARKEDALE AVE UNIT D</t>
+  </si>
+  <si>
+    <t>One Plant Brockville</t>
+  </si>
+  <si>
+    <t>https://paradisecannabis.ca/shop-welland-store/?utm_source=google&amp;utm_medium=click&amp;utm_campaign=Welland+GMB</t>
+  </si>
+  <si>
+    <t>37 NIAGARA ST</t>
+  </si>
+  <si>
+    <t>Paradise Cannabis</t>
+  </si>
+  <si>
+    <t>https://www.paradisecannabis.ca/shop-brockville/</t>
+  </si>
+  <si>
+    <t>68 WILLIAM ST UNIT 101</t>
+  </si>
+  <si>
+    <t>PARADISE CANNABIS</t>
+  </si>
+  <si>
+    <t>https://paradisecannabis.ca/</t>
+  </si>
+  <si>
+    <t>230 MAIN ST W UNIT C</t>
+  </si>
+  <si>
+    <t>https://paradisecannabis.ca/shop-fort-erie-store/?utm_source=google&amp;utm_medium=click&amp;utm_campaign=Fort+Erie+GMB</t>
+  </si>
+  <si>
+    <t>427 GARRISON RD UNIT 101</t>
+  </si>
+  <si>
+    <t>https://paradisecannabis.ca/shop-niagara-store/?utm_source=google&amp;utm_medium=click&amp;utm_campaign=Niagara+Falls+GMB</t>
+  </si>
+  <si>
+    <t>4025 DORCHESTER RD UNIT A3</t>
+  </si>
+  <si>
+    <t>https://www.premiumcannabisinc.ca/</t>
+  </si>
+  <si>
+    <t>2934 DANFORTH AVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium Cannabis </t>
+  </si>
+  <si>
+    <t>60a434bb5b879900a64a7f2b</t>
+  </si>
+  <si>
+    <t>https://www.plateaushop.com/</t>
+  </si>
+  <si>
+    <t>440 PRESTON ST</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'In-store pickup', 'No delivery']</t>
+  </si>
+  <si>
+    <t>655b73443ca3eb00094bf065</t>
+  </si>
+  <si>
+    <t>https://www.purplemeadow.ca/</t>
+  </si>
+  <si>
+    <t>900 GREENBANK RD UNIT J</t>
+  </si>
+  <si>
+    <t>https://purplemoosecannabis.com/</t>
+  </si>
+  <si>
+    <t>575 LAVAL DR SUITE 400</t>
+  </si>
+  <si>
+    <t>5984 BATHURST ST</t>
+  </si>
+  <si>
+    <t>https://theredrockcannabis.ca/</t>
+  </si>
+  <si>
+    <t>6 CHURCH ST</t>
+  </si>
+  <si>
+    <t>Red Rock Cannabis Co.</t>
+  </si>
+  <si>
+    <t>65 KINGSTON RD E SUITE 2</t>
+  </si>
+  <si>
+    <t>['No delivery / Ship via Canada Post in 5-7 business days']</t>
+  </si>
+  <si>
+    <t>https://www.rosegoldcannabis.ca/</t>
+  </si>
+  <si>
+    <t>50 KING ST W SUITE 1</t>
+  </si>
+  <si>
+    <t>FOREST</t>
+  </si>
+  <si>
+    <t>https://www.rusticcannabis.ca/fenelonfalls</t>
+  </si>
+  <si>
+    <t>44 COLBORNE STREET, UNIT 5</t>
+  </si>
+  <si>
+    <t>Rustic Cannabis Corp.</t>
+  </si>
+  <si>
+    <t>651425a687ac19000963ed22</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/locations/thunder-bay</t>
+  </si>
+  <si>
+    <t>820 RED RIVER RD UNIT C</t>
+  </si>
+  <si>
+    <t>SESSIONS CANNABIS - THUNDER BAY</t>
+  </si>
+  <si>
+    <t>60358007f2088000ae72c235</t>
+  </si>
+  <si>
+    <t>2625 WESTON RD UNIT C26-27</t>
+  </si>
+  <si>
+    <t>1646 VICTORIA PARK AVE UNIT 8</t>
+  </si>
+  <si>
+    <t>https://www.sweetreleafsburlington.store/</t>
+  </si>
+  <si>
+    <t>728 BURLOAK DRIVE UNIT C4</t>
+  </si>
+  <si>
+    <t>Sweet Releafs Inc</t>
+  </si>
+  <si>
+    <t>https://www.sweetsevencannabis.ca/</t>
+  </si>
+  <si>
+    <t>SWEET SEVEN CANNABIS CO.</t>
+  </si>
+  <si>
+    <t>721 CENTRE ST UNIT 1</t>
+  </si>
+  <si>
+    <t>1650 REGENT ST</t>
+  </si>
+  <si>
+    <t>https://www.the6ixcannabis.ca/</t>
+  </si>
+  <si>
+    <t>6 SPICER SQ UNIT 106</t>
+  </si>
+  <si>
+    <t>the 6ix Cannabis</t>
+  </si>
+  <si>
+    <t>https://thebakerycannabis.ca/menu/junction/</t>
+  </si>
+  <si>
+    <t>3060 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>The Bakery Cannabis</t>
+  </si>
+  <si>
+    <t>https://www.thebendcannabis.ca/</t>
+  </si>
+  <si>
+    <t>19 MAIN ST W</t>
+  </si>
+  <si>
+    <t>THE BEND CANNABIS CO.</t>
+  </si>
+  <si>
+    <t>https://cannabisforest.shop/</t>
+  </si>
+  <si>
+    <t>2 OTTAWA STREET WEST UNIT B</t>
+  </si>
+  <si>
+    <t>THE CANNABIS FOREST</t>
+  </si>
+  <si>
+    <t>https://thegreencloudcannabis.com/</t>
+  </si>
+  <si>
+    <t>281 BROADWAY UNIT 3</t>
+  </si>
+  <si>
+    <t>THE GREEN CLOUD CANNABIS</t>
+  </si>
+  <si>
+    <t>['In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>102 MAIN ST E UNIT B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Green Cloud Cannabis </t>
+  </si>
+  <si>
+    <t>5fea271a61f32a29fd85a828</t>
+  </si>
+  <si>
+    <t>https://thehousecannabis.ca/</t>
+  </si>
+  <si>
+    <t>66 DUNLOP ST W</t>
+  </si>
+  <si>
+    <t>The House of Cannabis</t>
+  </si>
+  <si>
+    <t>https://theneighbourhoodjoint.ca/</t>
+  </si>
+  <si>
+    <t>1064 COXWELL AVE</t>
+  </si>
+  <si>
+    <t>The Neighbourhood Joint (East York)</t>
+  </si>
+  <si>
+    <t>https://www.thepotery.com/</t>
+  </si>
+  <si>
+    <t>239 QUEEN ST E UNIT 4</t>
+  </si>
+  <si>
+    <t>The POTery</t>
+  </si>
+  <si>
+    <t>115 STARWOOD DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Potery </t>
+  </si>
+  <si>
+    <t>5fce8cbb5bfb6b010515ec81</t>
+  </si>
+  <si>
+    <t>https://thereefstore.ca/live-menu/?utm_source=google&amp;utm_medium=social&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>201 MARINA ROAD</t>
+  </si>
+  <si>
+    <t>THE REEF STORE BY THE LAKE</t>
+  </si>
+  <si>
+    <t>WAUZHUSHK ONIGUM NATION</t>
+  </si>
+  <si>
+    <t>https://www.thesmokeandleaf.com/</t>
+  </si>
+  <si>
+    <t>8 DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>The Smoke and Leaf Ltd.</t>
+  </si>
+  <si>
+    <t>824 PALACE RD UNIT 5</t>
+  </si>
+  <si>
+    <t>https://thespotcannabis.com/shop/burlington/?utm_source=google&amp;utm_medium=search&amp;utm_id=Burlington_google</t>
+  </si>
+  <si>
+    <t>3247 APPLEBY LINE UNIT 3/4</t>
+  </si>
+  <si>
+    <t>The Spot Cannabis</t>
+  </si>
+  <si>
+    <t>https://velvetcannabis.com/martinez/?utm_source=terrayn_gbp&amp;utm_medium=organic&amp;utm_campaign=martinez%20</t>
+  </si>
+  <si>
+    <t>302 10TH ST</t>
+  </si>
+  <si>
+    <t>20 JOCELYN ST</t>
+  </si>
+  <si>
+    <t>To Be Determined</t>
+  </si>
+  <si>
+    <t>60be612ae0d0ea00d36c7b9b</t>
+  </si>
+  <si>
+    <t>https://www.villagecannabisco.ca/pages/shophamilton?</t>
+  </si>
+  <si>
+    <t>275 KING ST E</t>
+  </si>
+  <si>
+    <t>VILLAGE CANNABIS CO.</t>
+  </si>
+  <si>
+    <t>64090b3ccd7e10016ea2e11d</t>
+  </si>
+  <si>
+    <t>https://stores.tokyosmoke.com/on/toronto-open/450-yonge-st</t>
+  </si>
+  <si>
+    <t>450 YONGE ST</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke 450 Yonge</t>
+  </si>
+  <si>
+    <t>63939e3d10b69a00dc178d4c</t>
+  </si>
+  <si>
+    <t>https://stores.tokyosmoke.com/on/waterloo-open/200-the-boardwalk-unit-2</t>
+  </si>
+  <si>
+    <t>200 THE BOARDWALK SUITE 2</t>
+  </si>
+  <si>
+    <t>Tokyo Smoke Waterloo Boardwalk</t>
+  </si>
+  <si>
+    <t>https://www.tymecannabis.co/</t>
+  </si>
+  <si>
+    <t>1142 BARTON ST E</t>
+  </si>
+  <si>
+    <t>Tÿme Cannabis Co.</t>
+  </si>
+  <si>
+    <t>4 PINE RIVER RD UNIT 3</t>
+  </si>
+  <si>
+    <t>100 PEEL CENTRE DR UNIT 5</t>
+  </si>
+  <si>
+    <t>100 SYKES ST N</t>
+  </si>
+  <si>
+    <t>MEAFORD</t>
+  </si>
+  <si>
+    <t>251 KING ST E UNIT A1</t>
+  </si>
+  <si>
+    <t>6021dfc083103b00de2e649c</t>
+  </si>
+  <si>
+    <t>https://www.villagecannabisco.ca/pages/shopcrystalbeach?</t>
+  </si>
+  <si>
+    <t>264 RIDGEWAY ROAD, UNIT 2</t>
+  </si>
+  <si>
+    <t>CRYSTAL BEACH</t>
+  </si>
+  <si>
+    <t>60395a5a88cb221041d33faf</t>
+  </si>
+  <si>
+    <t>https://www.villagecannabisco.ca/pages/shopportdover?</t>
+  </si>
+  <si>
+    <t>237 MAIN ST</t>
+  </si>
+  <si>
+    <t>2485 APPLEBY LINE UNIT G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value Buds </t>
+  </si>
+  <si>
+    <t>233 QUEEN ST E</t>
+  </si>
+  <si>
+    <t>2575 DANFORTH AVE UNIT 15</t>
+  </si>
+  <si>
+    <t>500 BLOOR ST W UNIT 1</t>
+  </si>
+  <si>
+    <t>535 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>631 KING ST W</t>
+  </si>
+  <si>
+    <t>650 WELLINGTON ST E UNIT A12</t>
+  </si>
+  <si>
+    <t>1030 ADELAIDE ST N UNIT 9B</t>
+  </si>
+  <si>
+    <t>https://valuebuds.com/</t>
+  </si>
+  <si>
+    <t>1042 KING ST W</t>
+  </si>
+  <si>
+    <t>1235 FAIRVIEW ST UNIT A</t>
+  </si>
+  <si>
+    <t>1287 BLOOR ST W</t>
+  </si>
+  <si>
+    <t>1295 MOSLEY ST UNIT 5</t>
+  </si>
+  <si>
+    <t>1450 KINGSTON RD UNIT 14</t>
+  </si>
+  <si>
+    <t>2546 FINCH AVE W SUITE 12</t>
   </si>
 </sst>
 </file>
@@ -14913,10 +16689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1400"/>
+  <dimension ref="A1:N1641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1386" workbookViewId="0">
-      <selection activeCell="D1403" sqref="D1403"/>
+    <sheetView tabSelected="1" topLeftCell="A1606" workbookViewId="0">
+      <selection activeCell="I1620" sqref="I1620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60883,6 +62659,7280 @@
         <v>8</v>
       </c>
       <c r="N1400" s="12"/>
+    </row>
+    <row r="1401" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1401" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C1401" s="1" t="s">
+        <v>4778</v>
+      </c>
+      <c r="D1401" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1401" s="29" t="s">
+        <v>4777</v>
+      </c>
+      <c r="F1401" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1401" s="36"/>
+      <c r="H1401" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1401" s="1">
+        <v>19053089444</v>
+      </c>
+      <c r="J1401" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1402" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1402" s="1" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C1402" s="1" t="s">
+        <v>4782</v>
+      </c>
+      <c r="D1402" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1402" s="29" t="s">
+        <v>4781</v>
+      </c>
+      <c r="F1402" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1402" s="37" t="s">
+        <v>4780</v>
+      </c>
+      <c r="H1402" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1402" s="1">
+        <v>13238730533</v>
+      </c>
+      <c r="J1402" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1403" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1403" s="1" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C1403" s="1" t="s">
+        <v>4785</v>
+      </c>
+      <c r="D1403" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1403" s="29" t="s">
+        <v>4784</v>
+      </c>
+      <c r="F1403" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1403" s="36"/>
+      <c r="H1403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1403" s="1">
+        <v>16134433064</v>
+      </c>
+      <c r="J1403" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1404" s="1" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B1404" s="1" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C1404" s="1" t="s">
+        <v>4788</v>
+      </c>
+      <c r="D1404" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1404" s="29" t="s">
+        <v>4787</v>
+      </c>
+      <c r="F1404" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1404" s="36"/>
+      <c r="H1404" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1404" s="1">
+        <v>15192089962</v>
+      </c>
+      <c r="J1404" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1405" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1405" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1405" s="1" t="s">
+        <v>4792</v>
+      </c>
+      <c r="D1405" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1405" s="29" t="s">
+        <v>4791</v>
+      </c>
+      <c r="F1405" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1405" s="36"/>
+      <c r="H1405" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1405" s="1">
+        <v>15197831362</v>
+      </c>
+      <c r="J1405" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1406" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1406" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1406" s="1" t="s">
+        <v>4794</v>
+      </c>
+      <c r="D1406" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1406" s="29" t="s">
+        <v>4793</v>
+      </c>
+      <c r="F1406" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1406" s="36"/>
+      <c r="H1406" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1406" s="1">
+        <v>14166138047</v>
+      </c>
+      <c r="J1406" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1407" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1407" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1407" s="1" t="s">
+        <v>4796</v>
+      </c>
+      <c r="D1407" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1407" s="29" t="s">
+        <v>4795</v>
+      </c>
+      <c r="F1407" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1407" s="36"/>
+      <c r="H1407" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1407" s="1">
+        <v>14166138045</v>
+      </c>
+      <c r="J1407" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1408" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1408" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1408" s="1" t="s">
+        <v>4798</v>
+      </c>
+      <c r="D1408" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1408" s="29" t="s">
+        <v>4797</v>
+      </c>
+      <c r="F1408" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1408" s="36"/>
+      <c r="H1408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1408" s="1">
+        <v>16136956021</v>
+      </c>
+      <c r="J1408" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1409" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1409" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1409" s="1" t="s">
+        <v>4800</v>
+      </c>
+      <c r="D1409" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1409" s="29" t="s">
+        <v>4799</v>
+      </c>
+      <c r="F1409" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1409" s="36"/>
+      <c r="H1409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1409" s="1">
+        <v>16136956022</v>
+      </c>
+      <c r="J1409" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1410" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1410" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1410" s="1" t="s">
+        <v>4802</v>
+      </c>
+      <c r="D1410" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1410" s="29" t="s">
+        <v>4801</v>
+      </c>
+      <c r="F1410" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1410" s="36"/>
+      <c r="H1410" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1410" s="1">
+        <v>16473989100</v>
+      </c>
+      <c r="J1410" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1411" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1411" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1411" s="1" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D1411" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1411" s="29" t="s">
+        <v>4803</v>
+      </c>
+      <c r="F1411" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1411" s="36"/>
+      <c r="H1411" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1411" s="1">
+        <v>14165469500</v>
+      </c>
+      <c r="J1411" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1412" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1412" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1412" s="1" t="s">
+        <v>4806</v>
+      </c>
+      <c r="D1412" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1412" s="29" t="s">
+        <v>4805</v>
+      </c>
+      <c r="F1412" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1412" s="36"/>
+      <c r="H1412" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1412" s="1">
+        <v>16473419333</v>
+      </c>
+      <c r="J1412" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1413" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1413" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1413" s="1" t="s">
+        <v>4808</v>
+      </c>
+      <c r="D1413" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1413" s="29" t="s">
+        <v>4807</v>
+      </c>
+      <c r="F1413" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1413" s="36"/>
+      <c r="H1413" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1413" s="1">
+        <v>15198800899</v>
+      </c>
+      <c r="J1413" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1414" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1414" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1414" s="1" t="s">
+        <v>4810</v>
+      </c>
+      <c r="D1414" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1414" s="29" t="s">
+        <v>4809</v>
+      </c>
+      <c r="F1414" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1414" s="36"/>
+      <c r="H1414" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1414" s="1">
+        <v>15193935420</v>
+      </c>
+      <c r="J1414" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1415" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1415" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1415" s="1" t="s">
+        <v>4812</v>
+      </c>
+      <c r="D1415" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1415" s="29" t="s">
+        <v>4811</v>
+      </c>
+      <c r="F1415" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1415" s="36"/>
+      <c r="H1415" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1415" s="1">
+        <v>14166138042</v>
+      </c>
+      <c r="J1415" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1416" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1416" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1416" s="1" t="s">
+        <v>4814</v>
+      </c>
+      <c r="D1416" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1416" s="29" t="s">
+        <v>4813</v>
+      </c>
+      <c r="F1416" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1416" s="36"/>
+      <c r="H1416" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1416" s="1">
+        <v>16473529614</v>
+      </c>
+      <c r="J1416" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1417" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1417" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1417" s="1" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D1417" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1417" s="29" t="s">
+        <v>4815</v>
+      </c>
+      <c r="F1417" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1417" s="36"/>
+      <c r="H1417" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1417" s="1">
+        <v>15196377772</v>
+      </c>
+      <c r="J1417" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1418" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1418" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1418" s="1" t="s">
+        <v>4818</v>
+      </c>
+      <c r="D1418" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1418" s="29" t="s">
+        <v>4817</v>
+      </c>
+      <c r="F1418" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1418" s="36"/>
+      <c r="H1418" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1418" s="1">
+        <v>16137445321</v>
+      </c>
+      <c r="J1418" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1419" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1419" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1419" s="1" t="s">
+        <v>4820</v>
+      </c>
+      <c r="D1419" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1419" s="29" t="s">
+        <v>4819</v>
+      </c>
+      <c r="F1419" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1419" s="36"/>
+      <c r="H1419" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1419" s="1">
+        <v>16136959165</v>
+      </c>
+      <c r="J1419" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1420" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1420" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1420" s="1" t="s">
+        <v>4822</v>
+      </c>
+      <c r="D1420" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1420" s="29" t="s">
+        <v>4821</v>
+      </c>
+      <c r="F1420" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1420" s="36"/>
+      <c r="H1420" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1420" s="1">
+        <v>19055768558</v>
+      </c>
+      <c r="J1420" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1421" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1421" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1421" s="1" t="s">
+        <v>4824</v>
+      </c>
+      <c r="D1421" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1421" s="30" t="s">
+        <v>4823</v>
+      </c>
+      <c r="F1421" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1421" s="36"/>
+      <c r="H1421" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1421" s="1">
+        <v>17054318176</v>
+      </c>
+      <c r="J1421" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1422" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1422" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1422" s="1" t="s">
+        <v>4826</v>
+      </c>
+      <c r="D1422" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1422" s="29" t="s">
+        <v>4825</v>
+      </c>
+      <c r="F1422" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1422" s="36"/>
+      <c r="H1422" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1422" s="1">
+        <v>16135140575</v>
+      </c>
+      <c r="J1422" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1423" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1423" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1423" s="1" t="s">
+        <v>4828</v>
+      </c>
+      <c r="D1423" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1423" s="29" t="s">
+        <v>4827</v>
+      </c>
+      <c r="F1423" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1423" s="36"/>
+      <c r="H1423" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1423" s="1">
+        <v>15199726146</v>
+      </c>
+      <c r="J1423" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1424" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1424" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1424" s="1" t="s">
+        <v>4830</v>
+      </c>
+      <c r="D1424" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1424" s="29" t="s">
+        <v>4829</v>
+      </c>
+      <c r="F1424" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1424" s="36"/>
+      <c r="H1424" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1424" s="1">
+        <v>15199745901</v>
+      </c>
+      <c r="J1424" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1425" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1425" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1425" s="1" t="s">
+        <v>4832</v>
+      </c>
+      <c r="D1425" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1425" s="29" t="s">
+        <v>4831</v>
+      </c>
+      <c r="F1425" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1425" s="36"/>
+      <c r="H1425" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1425" s="1">
+        <v>19053573553</v>
+      </c>
+      <c r="J1425" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1426" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1426" s="1" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C1426" s="1" t="s">
+        <v>4833</v>
+      </c>
+      <c r="D1426" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1426" s="29" t="s">
+        <v>4801</v>
+      </c>
+      <c r="F1426" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1426" s="36"/>
+      <c r="H1426" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1426" s="1">
+        <v>16473989100</v>
+      </c>
+      <c r="J1426" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1427" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1427" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1427" s="1" t="s">
+        <v>4836</v>
+      </c>
+      <c r="D1427" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1427" s="29" t="s">
+        <v>4835</v>
+      </c>
+      <c r="F1427" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1427" s="36"/>
+      <c r="H1427" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1427" s="1">
+        <v>15196023219</v>
+      </c>
+      <c r="J1427" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1428" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1428" s="1" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C1428" s="1" t="s">
+        <v>4838</v>
+      </c>
+      <c r="D1428" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1428" s="29" t="s">
+        <v>4837</v>
+      </c>
+      <c r="F1428" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1428" s="36"/>
+      <c r="H1428" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1428" s="1">
+        <v>18072859526</v>
+      </c>
+      <c r="J1428" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1429" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1429" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C1429" s="1" t="s">
+        <v>4841</v>
+      </c>
+      <c r="D1429" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1429" s="29" t="s">
+        <v>4840</v>
+      </c>
+      <c r="F1429" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1429" s="36"/>
+      <c r="H1429" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1429" s="1">
+        <v>16473685992</v>
+      </c>
+      <c r="J1429" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1430" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1430" s="1" t="s">
+        <v>4845</v>
+      </c>
+      <c r="C1430" s="1" t="s">
+        <v>4844</v>
+      </c>
+      <c r="D1430" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1430" s="29" t="s">
+        <v>4843</v>
+      </c>
+      <c r="F1430" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1430" s="36"/>
+      <c r="H1430" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1430" s="1">
+        <v>17052229333</v>
+      </c>
+      <c r="J1430" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1431" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1431" s="1" t="s">
+        <v>4848</v>
+      </c>
+      <c r="C1431" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="D1431" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1431" s="29" t="s">
+        <v>4846</v>
+      </c>
+      <c r="F1431" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1431" s="36"/>
+      <c r="H1431" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1431" s="1">
+        <v>14165150009</v>
+      </c>
+      <c r="J1431" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1432" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1432" s="1" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C1432" s="1" t="s">
+        <v>4850</v>
+      </c>
+      <c r="D1432" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1432" s="29" t="s">
+        <v>4849</v>
+      </c>
+      <c r="F1432" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1432" s="36"/>
+      <c r="H1432" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1432" s="1">
+        <v>16479884237</v>
+      </c>
+      <c r="J1432" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1433" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1433" s="1" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C1433" s="1" t="s">
+        <v>4853</v>
+      </c>
+      <c r="D1433" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1433" s="29" t="s">
+        <v>4852</v>
+      </c>
+      <c r="F1433" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1433" s="36"/>
+      <c r="H1433" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1433" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1433" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1434" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C1434" s="1" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D1434" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1434" s="29" t="s">
+        <v>4855</v>
+      </c>
+      <c r="F1434" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1434" s="36"/>
+      <c r="H1434" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1434" s="1">
+        <v>14056875004</v>
+      </c>
+      <c r="J1434" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1435" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1435" s="1" t="s">
+        <v>4860</v>
+      </c>
+      <c r="D1435" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1435" s="29" t="s">
+        <v>4859</v>
+      </c>
+      <c r="F1435" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1435" s="37" t="s">
+        <v>4858</v>
+      </c>
+      <c r="H1435" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1435" s="1">
+        <v>16473479513</v>
+      </c>
+      <c r="J1435" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1436" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C1436" s="1" t="s">
+        <v>4862</v>
+      </c>
+      <c r="D1436" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1436" s="29" t="s">
+        <v>4861</v>
+      </c>
+      <c r="F1436" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1436" s="36"/>
+      <c r="H1436" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1436" s="1">
+        <v>14167413838</v>
+      </c>
+      <c r="J1436" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1437" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C1437" s="1" t="s">
+        <v>4866</v>
+      </c>
+      <c r="D1437" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1437" s="29" t="s">
+        <v>4865</v>
+      </c>
+      <c r="F1437" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1437" s="37" t="s">
+        <v>4864</v>
+      </c>
+      <c r="H1437" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1437" s="1">
+        <v>19052906604</v>
+      </c>
+      <c r="J1437" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1438" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1438" s="1" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1438" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1438" s="29" t="s">
+        <v>4868</v>
+      </c>
+      <c r="F1438" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1438" s="37" t="s">
+        <v>4867</v>
+      </c>
+      <c r="H1438" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1438" s="1">
+        <v>12893891131</v>
+      </c>
+      <c r="J1438" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1439" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1439" s="1" t="s">
+        <v>4872</v>
+      </c>
+      <c r="D1439" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1439" s="29" t="s">
+        <v>4871</v>
+      </c>
+      <c r="F1439" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1439" s="37" t="s">
+        <v>4870</v>
+      </c>
+      <c r="H1439" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1439" s="1">
+        <v>17164658787</v>
+      </c>
+      <c r="J1439" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1440" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1440" s="1" t="s">
+        <v>4875</v>
+      </c>
+      <c r="D1440" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1440" s="29" t="s">
+        <v>4874</v>
+      </c>
+      <c r="F1440" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1440" s="37" t="s">
+        <v>4873</v>
+      </c>
+      <c r="H1440" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1440" s="1">
+        <v>16479465098</v>
+      </c>
+      <c r="J1440" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1441" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C1441" s="1" t="s">
+        <v>4877</v>
+      </c>
+      <c r="D1441" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1441" s="29" t="s">
+        <v>4876</v>
+      </c>
+      <c r="F1441" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1441" s="36"/>
+      <c r="H1441" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1441" s="1">
+        <v>15192523933</v>
+      </c>
+      <c r="J1441" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1442" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1442" s="1" t="s">
+        <v>4880</v>
+      </c>
+      <c r="D1442" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1442" s="29" t="s">
+        <v>4879</v>
+      </c>
+      <c r="F1442" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1442" s="36"/>
+      <c r="H1442" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1442" s="1">
+        <v>15758884343</v>
+      </c>
+      <c r="J1442" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1443" s="1" t="s">
+        <v>4882</v>
+      </c>
+      <c r="D1443" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1443" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1443" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1443" s="36"/>
+      <c r="H1443" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1443" s="1">
+        <v>12894820461</v>
+      </c>
+      <c r="J1443" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1444" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1444" s="1" t="s">
+        <v>4883</v>
+      </c>
+      <c r="D1444" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1444" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1444" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1444" s="36"/>
+      <c r="H1444" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1444" s="1">
+        <v>16473669030</v>
+      </c>
+      <c r="J1444" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1445" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1445" s="1" t="s">
+        <v>4884</v>
+      </c>
+      <c r="D1445" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1445" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1445" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1445" s="36"/>
+      <c r="H1445" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1445" s="1">
+        <v>18076989753</v>
+      </c>
+      <c r="J1445" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1446" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1446" s="1" t="s">
+        <v>4885</v>
+      </c>
+      <c r="D1446" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1446" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1446" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1446" s="36"/>
+      <c r="H1446" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1446" s="1">
+        <v>16133199992</v>
+      </c>
+      <c r="J1446" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1447" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C1447" s="1" t="s">
+        <v>4886</v>
+      </c>
+      <c r="D1447" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1447" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1447" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1447" s="36"/>
+      <c r="H1447" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I1447" s="1">
+        <v>14162661000</v>
+      </c>
+      <c r="J1447" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1448" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1448" s="1" t="s">
+        <v>4887</v>
+      </c>
+      <c r="D1448" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1448" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1448" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1448" s="36"/>
+      <c r="H1448" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1448" s="1">
+        <v>16132300623</v>
+      </c>
+      <c r="J1448" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1449" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1449" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1449" s="1" t="s">
+        <v>4889</v>
+      </c>
+      <c r="D1449" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1449" s="29" t="s">
+        <v>4888</v>
+      </c>
+      <c r="F1449" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1449" s="36"/>
+      <c r="H1449" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1449" s="1">
+        <v>12899329413</v>
+      </c>
+      <c r="J1449" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1450" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1450" s="1" t="s">
+        <v>4890</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1450" s="29" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1450" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1450" s="36"/>
+      <c r="H1450" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1450" s="1">
+        <v>12892251000</v>
+      </c>
+      <c r="J1450" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1451" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1451" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1451" s="1" t="s">
+        <v>4892</v>
+      </c>
+      <c r="D1451" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1451" s="29" t="s">
+        <v>4891</v>
+      </c>
+      <c r="F1451" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1451" s="36"/>
+      <c r="H1451" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1451" s="1">
+        <v>17059350223</v>
+      </c>
+      <c r="J1451" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1452" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1452" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1452" s="1" t="s">
+        <v>4893</v>
+      </c>
+      <c r="D1452" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1452" s="29" t="s">
+        <v>4891</v>
+      </c>
+      <c r="F1452" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1452" s="36"/>
+      <c r="H1452" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1452" s="1">
+        <v>15194773336</v>
+      </c>
+      <c r="J1452" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1453" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1453" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1453" s="1" t="s">
+        <v>4894</v>
+      </c>
+      <c r="D1453" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1453" s="29" t="s">
+        <v>4891</v>
+      </c>
+      <c r="F1453" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1453" s="36"/>
+      <c r="H1453" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1453" s="1">
+        <v>12893410512</v>
+      </c>
+      <c r="J1453" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1454" s="1" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B1454" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1454" s="1" t="s">
+        <v>4895</v>
+      </c>
+      <c r="D1454" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1454" s="29" t="s">
+        <v>4891</v>
+      </c>
+      <c r="F1454" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1454" s="36"/>
+      <c r="H1454" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1454" s="1">
+        <v>17059350014</v>
+      </c>
+      <c r="J1454" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1455" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1455" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1455" s="1" t="s">
+        <v>4900</v>
+      </c>
+      <c r="D1455" s="1" t="s">
+        <v>4899</v>
+      </c>
+      <c r="E1455" s="29" t="s">
+        <v>4898</v>
+      </c>
+      <c r="F1455" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1455" s="36"/>
+      <c r="H1455" s="1" t="s">
+        <v>4897</v>
+      </c>
+      <c r="I1455" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1455" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1456" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1456" s="1" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C1456" s="1" t="s">
+        <v>4902</v>
+      </c>
+      <c r="D1456" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1456" s="29" t="s">
+        <v>4901</v>
+      </c>
+      <c r="F1456" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1456" s="36"/>
+      <c r="H1456" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1456" s="1">
+        <v>14165158868</v>
+      </c>
+      <c r="J1456" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1457" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1457" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1457" s="1" t="s">
+        <v>4905</v>
+      </c>
+      <c r="D1457" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1457" s="29" t="s">
+        <v>4904</v>
+      </c>
+      <c r="F1457" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1457" s="36"/>
+      <c r="H1457" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1457" s="1">
+        <v>19055033222</v>
+      </c>
+      <c r="J1457" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1458" s="1" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C1458" s="1" t="s">
+        <v>4907</v>
+      </c>
+      <c r="D1458" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1458" s="29" t="s">
+        <v>4906</v>
+      </c>
+      <c r="F1458" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1458" s="36"/>
+      <c r="H1458" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1458" s="1">
+        <v>19054532322</v>
+      </c>
+      <c r="J1458" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1459" s="1" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C1459" s="1" t="s">
+        <v>4910</v>
+      </c>
+      <c r="D1459" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1459" s="29" t="s">
+        <v>4909</v>
+      </c>
+      <c r="F1459" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1459" s="36"/>
+      <c r="H1459" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1459" s="1">
+        <v>12892742900</v>
+      </c>
+      <c r="J1459" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1460" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1460" s="1" t="s">
+        <v>4914</v>
+      </c>
+      <c r="C1460" s="1" t="s">
+        <v>4913</v>
+      </c>
+      <c r="D1460" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1460" s="29" t="s">
+        <v>4912</v>
+      </c>
+      <c r="F1460" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1460" s="36"/>
+      <c r="H1460" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1460" s="1">
+        <v>16473687288</v>
+      </c>
+      <c r="J1460" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1461" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1461" s="1" t="s">
+        <v>4917</v>
+      </c>
+      <c r="C1461" s="1" t="s">
+        <v>4916</v>
+      </c>
+      <c r="D1461" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1461" s="29" t="s">
+        <v>4915</v>
+      </c>
+      <c r="F1461" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1461" s="36"/>
+      <c r="H1461" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1461" s="1">
+        <v>14166585888</v>
+      </c>
+      <c r="J1461" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1462" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1462" s="1" t="s">
+        <v>4920</v>
+      </c>
+      <c r="C1462" s="1" t="s">
+        <v>4919</v>
+      </c>
+      <c r="D1462" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1462" s="29" t="s">
+        <v>4918</v>
+      </c>
+      <c r="F1462" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1462" s="36"/>
+      <c r="H1462" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1462" s="1">
+        <v>12897997928</v>
+      </c>
+      <c r="J1462" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1463" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1463" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1463" s="1" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D1463" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1463" s="29" t="s">
+        <v>4921</v>
+      </c>
+      <c r="F1463" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1463" s="36"/>
+      <c r="H1463" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1463" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J1463" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1464" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1464" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1464" s="1" t="s">
+        <v>4925</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1464" s="29" t="s">
+        <v>4924</v>
+      </c>
+      <c r="F1464" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1464" s="36"/>
+      <c r="H1464" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1464" s="1">
+        <v>14165387320</v>
+      </c>
+      <c r="J1464" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1465" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1465" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C1465" s="1" t="s">
+        <v>4928</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1465" s="29" t="s">
+        <v>4927</v>
+      </c>
+      <c r="F1465" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1465" s="36"/>
+      <c r="H1465" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1465" s="1">
+        <v>16136501557</v>
+      </c>
+      <c r="J1465" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1466" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1466" s="1" t="s">
+        <v>4931</v>
+      </c>
+      <c r="D1466" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1466" s="29" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F1466" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1466" s="36"/>
+      <c r="H1466" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1466" s="1">
+        <v>14166509828</v>
+      </c>
+      <c r="J1466" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1467" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C1467" s="1" t="s">
+        <v>4933</v>
+      </c>
+      <c r="D1467" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1467" s="29" t="s">
+        <v>4932</v>
+      </c>
+      <c r="F1467" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1467" s="36"/>
+      <c r="H1467" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1467" s="1">
+        <v>16135624647</v>
+      </c>
+      <c r="J1467" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1468" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1468" s="1" t="s">
+        <v>4935</v>
+      </c>
+      <c r="D1468" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1468" s="29" t="s">
+        <v>4934</v>
+      </c>
+      <c r="F1468" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1468" s="36"/>
+      <c r="H1468" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1468" s="1">
+        <v>15198260938</v>
+      </c>
+      <c r="J1468" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1469" s="1" t="s">
+        <v>4937</v>
+      </c>
+      <c r="D1469" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1469" s="29" t="s">
+        <v>4936</v>
+      </c>
+      <c r="F1469" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1469" s="36"/>
+      <c r="H1469" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1469" s="1">
+        <v>19057026725</v>
+      </c>
+      <c r="J1469" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1470" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1470" s="1" t="s">
+        <v>4939</v>
+      </c>
+      <c r="D1470" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1470" s="29" t="s">
+        <v>4938</v>
+      </c>
+      <c r="F1470" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1470" s="36"/>
+      <c r="H1470" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1470" s="1">
+        <v>14163542681</v>
+      </c>
+      <c r="J1470" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1471" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C1471" s="1" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D1471" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1471" s="29" t="s">
+        <v>4940</v>
+      </c>
+      <c r="F1471" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1471" s="36"/>
+      <c r="H1471" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1471" s="1">
+        <v>15193971167</v>
+      </c>
+      <c r="J1471" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1472" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C1472" s="1" t="s">
+        <v>4943</v>
+      </c>
+      <c r="D1472" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1472" s="29" t="s">
+        <v>4942</v>
+      </c>
+      <c r="F1472" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1472" s="36"/>
+      <c r="H1472" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1472" s="1">
+        <v>16473679458</v>
+      </c>
+      <c r="J1472" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C1473" s="1" t="s">
+        <v>4945</v>
+      </c>
+      <c r="D1473" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1473" s="29" t="s">
+        <v>4944</v>
+      </c>
+      <c r="F1473" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1473" s="36"/>
+      <c r="H1473" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1473" s="1">
+        <v>14165464383</v>
+      </c>
+      <c r="J1473" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1474" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C1474" s="1" t="s">
+        <v>4947</v>
+      </c>
+      <c r="D1474" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1474" s="29" t="s">
+        <v>4946</v>
+      </c>
+      <c r="F1474" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1474" s="36"/>
+      <c r="H1474" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1474" s="1">
+        <v>14167679413</v>
+      </c>
+      <c r="J1474" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1475" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1475" s="1" t="s">
+        <v>4949</v>
+      </c>
+      <c r="D1475" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1475" s="29" t="s">
+        <v>4948</v>
+      </c>
+      <c r="F1475" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1475" s="36"/>
+      <c r="H1475" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1475" s="1">
+        <v>17054785529</v>
+      </c>
+      <c r="J1475" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1476" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1476" s="1" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1476" s="29" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F1476" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1476" s="36"/>
+      <c r="H1476" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I1476" s="1">
+        <v>14166509828</v>
+      </c>
+      <c r="J1476" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1477" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1477" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C1477" s="1" t="s">
+        <v>4952</v>
+      </c>
+      <c r="D1477" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1477" s="29" t="s">
+        <v>4951</v>
+      </c>
+      <c r="F1477" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1477" s="36"/>
+      <c r="H1477" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1477" s="1">
+        <v>14167242076</v>
+      </c>
+      <c r="J1477" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>4955</v>
+      </c>
+      <c r="C1478" s="1" t="s">
+        <v>4954</v>
+      </c>
+      <c r="D1478" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1478" s="29" t="s">
+        <v>4953</v>
+      </c>
+      <c r="F1478" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1478" s="36"/>
+      <c r="H1478" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1478" s="1">
+        <v>16136804293</v>
+      </c>
+      <c r="J1478" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>4958</v>
+      </c>
+      <c r="C1479" s="1" t="s">
+        <v>4957</v>
+      </c>
+      <c r="D1479" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1479" s="29" t="s">
+        <v>4956</v>
+      </c>
+      <c r="F1479" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1479" s="36"/>
+      <c r="H1479" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1479" s="1">
+        <v>17052920101</v>
+      </c>
+      <c r="J1479" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>4962</v>
+      </c>
+      <c r="C1480" s="1" t="s">
+        <v>4961</v>
+      </c>
+      <c r="D1480" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1480" s="29" t="s">
+        <v>4960</v>
+      </c>
+      <c r="F1480" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1480" s="36"/>
+      <c r="H1480" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1480" s="1">
+        <v>16473519522</v>
+      </c>
+      <c r="J1480" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1481" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C1481" s="1" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D1481" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1481" s="29" t="s">
+        <v>4963</v>
+      </c>
+      <c r="F1481" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1481" s="36"/>
+      <c r="H1481" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1481" s="1">
+        <v>15192041422</v>
+      </c>
+      <c r="J1481" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1482" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1482" s="1" t="s">
+        <v>4967</v>
+      </c>
+      <c r="C1482" s="1" t="s">
+        <v>4966</v>
+      </c>
+      <c r="D1482" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1482" s="29" t="s">
+        <v>4965</v>
+      </c>
+      <c r="F1482" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1482" s="36"/>
+      <c r="H1482" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1482" s="1">
+        <v>15195091011</v>
+      </c>
+      <c r="J1482" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1483" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1483" s="1" t="s">
+        <v>4971</v>
+      </c>
+      <c r="C1483" s="1" t="s">
+        <v>4970</v>
+      </c>
+      <c r="D1483" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1483" s="29" t="s">
+        <v>4969</v>
+      </c>
+      <c r="F1483" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1483" s="37" t="s">
+        <v>4968</v>
+      </c>
+      <c r="H1483" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1483" s="1">
+        <v>16134768028</v>
+      </c>
+      <c r="J1483" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1484" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1484" s="1" t="s">
+        <v>4974</v>
+      </c>
+      <c r="C1484" s="1" t="s">
+        <v>4973</v>
+      </c>
+      <c r="D1484" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1484" s="29" t="s">
+        <v>4972</v>
+      </c>
+      <c r="F1484" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1484" s="36"/>
+      <c r="H1484" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1484" s="1">
+        <v>17057970346</v>
+      </c>
+      <c r="J1484" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1485" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1485" s="1" t="s">
+        <v>4977</v>
+      </c>
+      <c r="C1485" s="1" t="s">
+        <v>4978</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1485" s="29" t="s">
+        <v>4909</v>
+      </c>
+      <c r="F1485" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1485" s="36"/>
+      <c r="H1485" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1485" s="1">
+        <v>12892742900</v>
+      </c>
+      <c r="J1485" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1486" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1486" s="1" t="s">
+        <v>4977</v>
+      </c>
+      <c r="C1486" s="1" t="s">
+        <v>4976</v>
+      </c>
+      <c r="D1486" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1486" s="29" t="s">
+        <v>4975</v>
+      </c>
+      <c r="F1486" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1486" s="36"/>
+      <c r="H1486" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1486" s="1">
+        <v>16473744321</v>
+      </c>
+      <c r="J1486" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1487" s="1" t="s">
+        <v>4974</v>
+      </c>
+      <c r="C1487" s="1" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1487" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1487" s="29" t="s">
+        <v>4979</v>
+      </c>
+      <c r="F1487" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1487" s="36"/>
+      <c r="H1487" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1487" s="1">
+        <v>17055267688</v>
+      </c>
+      <c r="J1487" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1488" s="1" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B1488" s="1" t="s">
+        <v>4974</v>
+      </c>
+      <c r="C1488" s="1" t="s">
+        <v>4982</v>
+      </c>
+      <c r="D1488" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1488" s="29" t="s">
+        <v>4981</v>
+      </c>
+      <c r="F1488" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1488" s="36"/>
+      <c r="H1488" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1488" s="1">
+        <v>12898160990</v>
+      </c>
+      <c r="J1488" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1489" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1489" s="1" t="s">
+        <v>4986</v>
+      </c>
+      <c r="C1489" s="1" t="s">
+        <v>4985</v>
+      </c>
+      <c r="D1489" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1489" s="29" t="s">
+        <v>4984</v>
+      </c>
+      <c r="F1489" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1489" s="36"/>
+      <c r="H1489" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1489" s="1">
+        <v>19056280173</v>
+      </c>
+      <c r="J1489" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1490" s="1" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C1490" s="1" t="s">
+        <v>4988</v>
+      </c>
+      <c r="D1490" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1490" s="29" t="s">
+        <v>4987</v>
+      </c>
+      <c r="F1490" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1490" s="36"/>
+      <c r="H1490" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1490" s="1">
+        <v>15196207461</v>
+      </c>
+      <c r="J1490" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C1491" s="1" t="s">
+        <v>4991</v>
+      </c>
+      <c r="D1491" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1491" s="29" t="s">
+        <v>4990</v>
+      </c>
+      <c r="F1491" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1491" s="36"/>
+      <c r="H1491" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1491" s="1">
+        <v>16473745410</v>
+      </c>
+      <c r="J1491" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1492" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1492" s="1" t="s">
+        <v>4994</v>
+      </c>
+      <c r="D1492" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1492" s="29" t="s">
+        <v>4993</v>
+      </c>
+      <c r="F1492" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1492" s="36"/>
+      <c r="H1492" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1492" s="1">
+        <v>15193042266</v>
+      </c>
+      <c r="J1492" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1493" s="1" t="s">
+        <v>4997</v>
+      </c>
+      <c r="C1493" s="1" t="s">
+        <v>4996</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1493" s="29" t="s">
+        <v>4995</v>
+      </c>
+      <c r="F1493" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1493" s="36"/>
+      <c r="H1493" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1493" s="1">
+        <v>14168410639</v>
+      </c>
+      <c r="J1493" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="1" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B1494" s="1" t="s">
+        <v>5000</v>
+      </c>
+      <c r="C1494" s="1" t="s">
+        <v>4999</v>
+      </c>
+      <c r="D1494" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1494" s="29" t="s">
+        <v>4998</v>
+      </c>
+      <c r="F1494" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1494" s="36"/>
+      <c r="H1494" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1494" s="1">
+        <v>18072930010</v>
+      </c>
+      <c r="J1494" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1495" s="1" t="s">
+        <v>5005</v>
+      </c>
+      <c r="C1495" s="1" t="s">
+        <v>5004</v>
+      </c>
+      <c r="D1495" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1495" s="10" t="s">
+        <v>5003</v>
+      </c>
+      <c r="F1495" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1495" s="37" t="s">
+        <v>5002</v>
+      </c>
+      <c r="H1495" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1495" s="1">
+        <v>17736973191</v>
+      </c>
+      <c r="J1495" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1496" s="1" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C1496" s="1" t="s">
+        <v>5007</v>
+      </c>
+      <c r="D1496" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1496" s="29" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F1496" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1496" s="36"/>
+      <c r="H1496" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1496" s="1">
+        <v>16132864694</v>
+      </c>
+      <c r="J1496" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1497" s="1" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C1497" s="1" t="s">
+        <v>5010</v>
+      </c>
+      <c r="D1497" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1497" s="30" t="s">
+        <v>5009</v>
+      </c>
+      <c r="F1497" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1497" s="36"/>
+      <c r="H1497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1497" s="1">
+        <v>14169624000</v>
+      </c>
+      <c r="J1497" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1498" s="1" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C1498" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="D1498" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1498" s="29" t="s">
+        <v>3686</v>
+      </c>
+      <c r="F1498" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1498" s="37" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H1498" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1498" s="1">
+        <v>17056653747</v>
+      </c>
+      <c r="J1498" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1499" s="1" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C1499" s="1" t="s">
+        <v>5015</v>
+      </c>
+      <c r="D1499" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1499" s="29" t="s">
+        <v>5014</v>
+      </c>
+      <c r="F1499" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1499" s="36"/>
+      <c r="H1499" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1499" s="1">
+        <v>17053267937</v>
+      </c>
+      <c r="J1499" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1500" s="1" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C1500" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="D1500" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1500" s="29" t="s">
+        <v>5017</v>
+      </c>
+      <c r="F1500" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1500" s="36"/>
+      <c r="H1500" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1500" s="1">
+        <v>12892963780</v>
+      </c>
+      <c r="J1500" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1501" s="1" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C1501" s="1" t="s">
+        <v>5020</v>
+      </c>
+      <c r="D1501" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1501" s="29" t="s">
+        <v>5017</v>
+      </c>
+      <c r="F1501" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1501" s="36"/>
+      <c r="H1501" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1501" s="1">
+        <v>12892963780</v>
+      </c>
+      <c r="J1501" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1502" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1502" s="1" t="s">
+        <v>5022</v>
+      </c>
+      <c r="D1502" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1502" s="29" t="s">
+        <v>5021</v>
+      </c>
+      <c r="F1502" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1502" s="36"/>
+      <c r="H1502" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1502" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1503" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1503" s="1" t="s">
+        <v>5024</v>
+      </c>
+      <c r="D1503" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1503" s="29" t="s">
+        <v>5023</v>
+      </c>
+      <c r="F1503" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1503" s="36"/>
+      <c r="H1503" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1503" s="1">
+        <v>16134216788</v>
+      </c>
+      <c r="J1503" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1504" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1504" s="1" t="s">
+        <v>5025</v>
+      </c>
+      <c r="D1504" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1504" s="29" t="s">
+        <v>5023</v>
+      </c>
+      <c r="F1504" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1504" s="36"/>
+      <c r="H1504" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1504" s="1">
+        <v>16134216788</v>
+      </c>
+      <c r="J1504" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1505" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1505" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C1505" s="1" t="s">
+        <v>5027</v>
+      </c>
+      <c r="D1505" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1505" s="29" t="s">
+        <v>5026</v>
+      </c>
+      <c r="F1505" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1505" s="36"/>
+      <c r="H1505" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1505" s="1">
+        <v>12896608100</v>
+      </c>
+      <c r="J1505" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1506" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C1506" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="D1506" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1506" s="6" t="s">
+        <v>5028</v>
+      </c>
+      <c r="F1506" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1506" s="36"/>
+      <c r="H1506" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1506" s="1">
+        <v>14378808271</v>
+      </c>
+      <c r="J1506" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1507" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C1507" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="D1507" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1507" s="29" t="s">
+        <v>5030</v>
+      </c>
+      <c r="F1507" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1507" s="36"/>
+      <c r="H1507" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1507" s="1">
+        <v>14168408610</v>
+      </c>
+      <c r="J1507" s="1" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1508" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C1508" s="1" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1508" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1508" s="29" t="s">
+        <v>5033</v>
+      </c>
+      <c r="F1508" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1508" s="36"/>
+      <c r="H1508" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1508" s="1">
+        <v>14167369014</v>
+      </c>
+      <c r="J1508" s="1" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B1509" s="1" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C1509" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="D1509" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1509" s="29" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F1509" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1509" s="36"/>
+      <c r="H1509" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1509" s="1">
+        <v>18076989420</v>
+      </c>
+      <c r="J1509" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1510" s="1" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C1510" s="1" t="s">
+        <v>5038</v>
+      </c>
+      <c r="D1510" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1510" s="29" t="s">
+        <v>5037</v>
+      </c>
+      <c r="F1510" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G1510" s="36"/>
+      <c r="H1510" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1510" s="1">
+        <v>16475344448</v>
+      </c>
+      <c r="J1510" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="1" t="s">
+        <v>5043</v>
+      </c>
+      <c r="B1511" s="1" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C1511" s="1" t="s">
+        <v>5041</v>
+      </c>
+      <c r="D1511" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1511" s="29" t="s">
+        <v>5040</v>
+      </c>
+      <c r="F1511" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1511" s="36"/>
+      <c r="H1511" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1511" s="1">
+        <v>15192950105</v>
+      </c>
+      <c r="J1511" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1512" s="1" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C1512" s="1" t="s">
+        <v>5045</v>
+      </c>
+      <c r="D1512" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1512" s="29" t="s">
+        <v>5044</v>
+      </c>
+      <c r="F1512" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1512" s="36"/>
+      <c r="H1512" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I1512" s="1">
+        <v>16137469525</v>
+      </c>
+      <c r="J1512" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1513" s="1" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C1513" s="1" t="s">
+        <v>5048</v>
+      </c>
+      <c r="D1513" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1513" s="29" t="s">
+        <v>5047</v>
+      </c>
+      <c r="F1513" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1513" s="36"/>
+      <c r="H1513" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1513" s="1">
+        <v>16475590954</v>
+      </c>
+      <c r="J1513" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="1" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B1514" s="1" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C1514" s="1" t="s">
+        <v>5051</v>
+      </c>
+      <c r="D1514" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1514" s="29" t="s">
+        <v>5050</v>
+      </c>
+      <c r="F1514" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1514" s="36"/>
+      <c r="H1514" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1514" s="1">
+        <v>16137044141</v>
+      </c>
+      <c r="J1514" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1515" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1515" s="1" t="s">
+        <v>5055</v>
+      </c>
+      <c r="D1515" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1515" s="29" t="s">
+        <v>5054</v>
+      </c>
+      <c r="F1515" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1515" s="36"/>
+      <c r="H1515" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1515" s="1">
+        <v>19056857784</v>
+      </c>
+      <c r="J1515" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1516" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1516" s="1" t="s">
+        <v>5057</v>
+      </c>
+      <c r="D1516" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1516" s="29" t="s">
+        <v>5056</v>
+      </c>
+      <c r="F1516" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1516" s="36"/>
+      <c r="H1516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1516" s="1">
+        <v>12898205855</v>
+      </c>
+      <c r="J1516" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1517" s="1" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C1517" s="1" t="s">
+        <v>5059</v>
+      </c>
+      <c r="D1517" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1517" s="29" t="s">
+        <v>5058</v>
+      </c>
+      <c r="F1517" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1517" s="36"/>
+      <c r="H1517" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1517" s="1">
+        <v>19053089444</v>
+      </c>
+      <c r="J1517" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1518" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1518" s="1" t="s">
+        <v>5063</v>
+      </c>
+      <c r="C1518" s="1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1518" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1518" s="29" t="s">
+        <v>5061</v>
+      </c>
+      <c r="F1518" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1518" s="36"/>
+      <c r="H1518" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1518" s="1">
+        <v>13433331553</v>
+      </c>
+      <c r="J1518" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1519" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1519" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C1519" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="D1519" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1519" s="29" t="s">
+        <v>5064</v>
+      </c>
+      <c r="F1519" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1519" s="36"/>
+      <c r="H1519" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1519" s="1">
+        <v>15197470485</v>
+      </c>
+      <c r="J1519" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1520" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1520" s="1" t="s">
+        <v>5069</v>
+      </c>
+      <c r="C1520" s="1" t="s">
+        <v>5068</v>
+      </c>
+      <c r="D1520" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1520" s="29" t="s">
+        <v>5067</v>
+      </c>
+      <c r="F1520" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1520" s="36"/>
+      <c r="H1520" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1520" s="1">
+        <v>16478537689</v>
+      </c>
+      <c r="J1520" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1521" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1521" s="1" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C1521" s="1" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D1521" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1521" s="29" t="s">
+        <v>5070</v>
+      </c>
+      <c r="F1521" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1521" s="36"/>
+      <c r="H1521" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1521" s="1">
+        <v>18074641851</v>
+      </c>
+      <c r="J1521" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1522" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1522" s="1" t="s">
+        <v>5076</v>
+      </c>
+      <c r="C1522" s="1" t="s">
+        <v>5075</v>
+      </c>
+      <c r="D1522" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1522" s="29" t="s">
+        <v>5074</v>
+      </c>
+      <c r="F1522" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1522" s="37" t="s">
+        <v>5073</v>
+      </c>
+      <c r="H1522" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1522" s="1">
+        <v>15196529595</v>
+      </c>
+      <c r="J1522" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1523" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1523" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C1523" s="1" t="s">
+        <v>5078</v>
+      </c>
+      <c r="D1523" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1523" s="29" t="s">
+        <v>5077</v>
+      </c>
+      <c r="F1523" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1523" s="36"/>
+      <c r="H1523" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1523" s="1">
+        <v>12267715932</v>
+      </c>
+      <c r="J1523" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1524" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1524" s="1" t="s">
+        <v>5081</v>
+      </c>
+      <c r="C1524" s="1" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D1524" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1524" s="29" t="s">
+        <v>5079</v>
+      </c>
+      <c r="F1524" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1524" s="36"/>
+      <c r="H1524" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1524" s="1">
+        <v>17052426550</v>
+      </c>
+      <c r="J1524" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1525" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1525" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C1525" s="1" t="s">
+        <v>5082</v>
+      </c>
+      <c r="D1525" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1525" s="29" t="s">
+        <v>3744</v>
+      </c>
+      <c r="F1525" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1525" s="36"/>
+      <c r="H1525" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1525" s="1">
+        <v>13655445618</v>
+      </c>
+      <c r="J1525" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1526" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1526" s="1" t="s">
+        <v>5085</v>
+      </c>
+      <c r="C1526" s="1" t="s">
+        <v>5084</v>
+      </c>
+      <c r="D1526" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1526" s="29" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F1526" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1526" s="36"/>
+      <c r="H1526" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1526" s="1">
+        <v>13657997193</v>
+      </c>
+      <c r="J1526" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1527" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1527" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C1527" s="1" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D1527" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1527" s="29" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F1527" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1527" s="36"/>
+      <c r="H1527" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1527" s="1">
+        <v>13655445617</v>
+      </c>
+      <c r="J1527" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1528" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1528" s="1" t="s">
+        <v>5090</v>
+      </c>
+      <c r="C1528" s="1" t="s">
+        <v>5089</v>
+      </c>
+      <c r="D1528" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1528" s="29" t="s">
+        <v>5088</v>
+      </c>
+      <c r="F1528" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1528" s="36"/>
+      <c r="H1528" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1528" s="1">
+        <v>12893481577</v>
+      </c>
+      <c r="J1528" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1529" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1529" s="1" t="s">
+        <v>5093</v>
+      </c>
+      <c r="C1529" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="D1529" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1529" s="29" t="s">
+        <v>5091</v>
+      </c>
+      <c r="F1529" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1529" s="36"/>
+      <c r="H1529" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1529" s="1">
+        <v>14166720879</v>
+      </c>
+      <c r="J1529" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1530" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1530" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1530" s="1" t="s">
+        <v>5095</v>
+      </c>
+      <c r="D1530" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1530" s="29" t="s">
+        <v>5094</v>
+      </c>
+      <c r="F1530" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1530" s="36"/>
+      <c r="H1530" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1530" s="1">
+        <v>17058470087</v>
+      </c>
+      <c r="J1530" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1531" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1531" s="1" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C1531" s="1" t="s">
+        <v>5097</v>
+      </c>
+      <c r="D1531" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1531" s="29" t="s">
+        <v>5096</v>
+      </c>
+      <c r="F1531" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G1531" s="36"/>
+      <c r="H1531" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1531" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1532" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C1532" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="D1532" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1532" s="29" t="s">
+        <v>5100</v>
+      </c>
+      <c r="F1532" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1532" s="37" t="s">
+        <v>5099</v>
+      </c>
+      <c r="H1532" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1532" s="1">
+        <v>14162211661</v>
+      </c>
+      <c r="J1532" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1533" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1533" s="1" t="s">
+        <v>5103</v>
+      </c>
+      <c r="C1533" s="1" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D1533" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1533" s="29" t="s">
+        <v>5100</v>
+      </c>
+      <c r="F1533" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1533" s="36"/>
+      <c r="H1533" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1533" s="1">
+        <v>14162826555</v>
+      </c>
+      <c r="J1533" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1534" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1534" s="1" t="s">
+        <v>5106</v>
+      </c>
+      <c r="C1534" s="1" t="s">
+        <v>5105</v>
+      </c>
+      <c r="D1534" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1534" s="29" t="s">
+        <v>5104</v>
+      </c>
+      <c r="F1534" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1534" s="36"/>
+      <c r="H1534" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1534" s="1">
+        <v>19056079999</v>
+      </c>
+      <c r="J1534" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1535" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1535" s="1" t="s">
+        <v>5106</v>
+      </c>
+      <c r="C1535" s="1" t="s">
+        <v>5108</v>
+      </c>
+      <c r="D1535" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1535" s="29" t="s">
+        <v>5107</v>
+      </c>
+      <c r="F1535" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1535" s="36"/>
+      <c r="H1535" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1535" s="1">
+        <v>12892962919</v>
+      </c>
+      <c r="J1535" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1536" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1536" s="1" t="s">
+        <v>5111</v>
+      </c>
+      <c r="C1536" s="1" t="s">
+        <v>5110</v>
+      </c>
+      <c r="D1536" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1536" s="30" t="s">
+        <v>5109</v>
+      </c>
+      <c r="F1536" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1536" s="36"/>
+      <c r="H1536" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1536" s="1">
+        <v>17057109100</v>
+      </c>
+      <c r="J1536" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1537" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1537" s="1" t="s">
+        <v>5113</v>
+      </c>
+      <c r="C1537" s="1" t="s">
+        <v>5112</v>
+      </c>
+      <c r="D1537" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1537" s="29" t="s">
+        <v>5109</v>
+      </c>
+      <c r="F1537" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1537" s="36"/>
+      <c r="H1537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1537" s="1">
+        <v>17055350344</v>
+      </c>
+      <c r="J1537" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1538" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C1538" s="1" t="s">
+        <v>5115</v>
+      </c>
+      <c r="D1538" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1538" s="29" t="s">
+        <v>5114</v>
+      </c>
+      <c r="F1538" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1538" s="36"/>
+      <c r="H1538" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1538" s="1">
+        <v>19055754274</v>
+      </c>
+      <c r="J1538" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1539" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C1539" s="1" t="s">
+        <v>5118</v>
+      </c>
+      <c r="D1539" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1539" s="29" t="s">
+        <v>5117</v>
+      </c>
+      <c r="F1539" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1539" s="36"/>
+      <c r="H1539" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1539" s="1">
+        <v>19055754274</v>
+      </c>
+      <c r="J1539" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1540" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C1540" s="1" t="s">
+        <v>5120</v>
+      </c>
+      <c r="D1540" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1540" s="29" t="s">
+        <v>5119</v>
+      </c>
+      <c r="F1540" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1540" s="36"/>
+      <c r="H1540" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1540" s="1">
+        <v>19055754274</v>
+      </c>
+      <c r="J1540" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1541" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1541" s="1" t="s">
+        <v>5124</v>
+      </c>
+      <c r="C1541" s="1" t="s">
+        <v>5123</v>
+      </c>
+      <c r="D1541" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1541" s="29" t="s">
+        <v>5122</v>
+      </c>
+      <c r="F1541" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1541" s="37" t="s">
+        <v>5121</v>
+      </c>
+      <c r="H1541" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1541" s="1">
+        <v>17052222420</v>
+      </c>
+      <c r="J1541" s="1" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1542" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1542" s="1" t="s">
+        <v>5127</v>
+      </c>
+      <c r="C1542" s="1" t="s">
+        <v>5126</v>
+      </c>
+      <c r="D1542" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1542" s="10" t="s">
+        <v>5125</v>
+      </c>
+      <c r="F1542" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1542" s="36"/>
+      <c r="H1542" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1542" s="1">
+        <v>12267352666</v>
+      </c>
+      <c r="J1542" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1543" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1543" s="1" t="s">
+        <v>5129</v>
+      </c>
+      <c r="C1543" s="1" t="s">
+        <v>5128</v>
+      </c>
+      <c r="D1543" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1543" s="29" t="s">
+        <v>5125</v>
+      </c>
+      <c r="F1543" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1543" s="36"/>
+      <c r="H1543" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1543" s="1">
+        <v>12263962666</v>
+      </c>
+      <c r="J1543" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1544" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1544" s="1" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C1544" s="1" t="s">
+        <v>5131</v>
+      </c>
+      <c r="D1544" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1544" s="29" t="s">
+        <v>5130</v>
+      </c>
+      <c r="F1544" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1544" s="36"/>
+      <c r="H1544" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1544" s="1">
+        <v>16472822420</v>
+      </c>
+      <c r="J1544" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1545" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1545" s="1" t="s">
+        <v>5136</v>
+      </c>
+      <c r="C1545" s="1" t="s">
+        <v>5135</v>
+      </c>
+      <c r="D1545" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1545" s="29" t="s">
+        <v>5134</v>
+      </c>
+      <c r="F1545" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1545" s="37" t="s">
+        <v>5133</v>
+      </c>
+      <c r="H1545" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1545" s="1">
+        <v>19052409378</v>
+      </c>
+      <c r="J1545" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1546" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B1546" s="1" t="s">
+        <v>5140</v>
+      </c>
+      <c r="C1546" s="1" t="s">
+        <v>5139</v>
+      </c>
+      <c r="D1546" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1546" s="29" t="s">
+        <v>5138</v>
+      </c>
+      <c r="F1546" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1546" s="37" t="s">
+        <v>5137</v>
+      </c>
+      <c r="H1546" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1546" s="1">
+        <v>17784750576</v>
+      </c>
+      <c r="J1546" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1547" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1547" s="1" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C1547" s="1" t="s">
+        <v>5143</v>
+      </c>
+      <c r="D1547" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1547" s="29" t="s">
+        <v>5142</v>
+      </c>
+      <c r="F1547" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1547" s="36"/>
+      <c r="H1547" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1547" s="1">
+        <v>12892960915</v>
+      </c>
+      <c r="J1547" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1548" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1548" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1548" s="1" t="s">
+        <v>5147</v>
+      </c>
+      <c r="D1548" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1548" s="29" t="s">
+        <v>5146</v>
+      </c>
+      <c r="F1548" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1548" s="36"/>
+      <c r="H1548" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1548" s="1">
+        <v>19054274716</v>
+      </c>
+      <c r="J1548" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1549" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1549" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1549" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D1549" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1549" s="29" t="s">
+        <v>5148</v>
+      </c>
+      <c r="F1549" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1549" s="36"/>
+      <c r="H1549" s="1" t="s">
+        <v>4897</v>
+      </c>
+      <c r="I1549" s="1">
+        <v>6136223039</v>
+      </c>
+      <c r="J1549" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1550" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1550" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D1550" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1550" s="29" t="s">
+        <v>5149</v>
+      </c>
+      <c r="F1550" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1550" s="36"/>
+      <c r="H1550" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1550" s="1">
+        <v>14165918800</v>
+      </c>
+      <c r="J1550" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1551" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1551" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1551" s="1" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D1551" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1551" s="29" t="s">
+        <v>5150</v>
+      </c>
+      <c r="F1551" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1551" s="36"/>
+      <c r="H1551" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1551" s="1">
+        <v>15486909494</v>
+      </c>
+      <c r="J1551" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1552" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1552" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1552" s="1" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D1552" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1552" s="29" t="s">
+        <v>5152</v>
+      </c>
+      <c r="F1552" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1552" s="36"/>
+      <c r="H1552" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1552" s="1">
+        <v>15196693979</v>
+      </c>
+      <c r="J1552" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1553" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1553" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1553" s="1" t="s">
+        <v>5155</v>
+      </c>
+      <c r="D1553" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1553" s="29" t="s">
+        <v>5154</v>
+      </c>
+      <c r="F1553" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1553" s="36"/>
+      <c r="H1553" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1553" s="1">
+        <v>16136321112</v>
+      </c>
+      <c r="J1553" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1554" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1554" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1554" s="1" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D1554" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1554" s="29" t="s">
+        <v>5156</v>
+      </c>
+      <c r="F1554" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1554" s="36"/>
+      <c r="H1554" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1554" s="1">
+        <v>15199258787</v>
+      </c>
+      <c r="J1554" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1555" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1555" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1555" s="1" t="s">
+        <v>5159</v>
+      </c>
+      <c r="D1555" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1555" s="29" t="s">
+        <v>5158</v>
+      </c>
+      <c r="F1555" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1555" s="36"/>
+      <c r="H1555" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1555" s="1">
+        <v>15192073400</v>
+      </c>
+      <c r="J1555" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1556" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1556" s="1" t="s">
+        <v>5161</v>
+      </c>
+      <c r="D1556" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1556" s="29" t="s">
+        <v>5160</v>
+      </c>
+      <c r="F1556" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1556" s="36"/>
+      <c r="H1556" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1556" s="1">
+        <v>15199150552</v>
+      </c>
+      <c r="J1556" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1557" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1557" s="1" t="s">
+        <v>5163</v>
+      </c>
+      <c r="D1557" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1557" s="29" t="s">
+        <v>5162</v>
+      </c>
+      <c r="F1557" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1557" s="36"/>
+      <c r="H1557" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1557" s="1">
+        <v>16132281371</v>
+      </c>
+      <c r="J1557" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1558" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1558" s="1" t="s">
+        <v>5165</v>
+      </c>
+      <c r="D1558" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1558" s="29" t="s">
+        <v>5164</v>
+      </c>
+      <c r="F1558" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1558" s="36"/>
+      <c r="H1558" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1558" s="1">
+        <v>16473688519</v>
+      </c>
+      <c r="J1558" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1559" s="1" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B1559" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1559" s="1" t="s">
+        <v>5167</v>
+      </c>
+      <c r="D1559" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1559" s="29" t="s">
+        <v>5166</v>
+      </c>
+      <c r="F1559" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1559" s="36"/>
+      <c r="H1559" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1559" s="1">
+        <v>12896749666</v>
+      </c>
+      <c r="J1559" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1560" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1560" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1560" s="1" t="s">
+        <v>5169</v>
+      </c>
+      <c r="D1560" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1560" s="29" t="s">
+        <v>5162</v>
+      </c>
+      <c r="F1560" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1560" s="36"/>
+      <c r="H1560" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1560" s="1">
+        <v>16134464461</v>
+      </c>
+      <c r="J1560" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1561" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1561" s="1" t="s">
+        <v>5171</v>
+      </c>
+      <c r="D1561" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1561" s="29" t="s">
+        <v>5170</v>
+      </c>
+      <c r="F1561" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1561" s="36"/>
+      <c r="H1561" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1561" s="1">
+        <v>15196490444</v>
+      </c>
+      <c r="J1561" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1562" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1562" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1562" s="1" t="s">
+        <v>5173</v>
+      </c>
+      <c r="D1562" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1562" s="29" t="s">
+        <v>5172</v>
+      </c>
+      <c r="F1562" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1562" s="36"/>
+      <c r="H1562" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1562" s="1">
+        <v>15199740600</v>
+      </c>
+      <c r="J1562" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1563" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1563" s="1" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C1563" s="1" t="s">
+        <v>5175</v>
+      </c>
+      <c r="D1563" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1563" s="29" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F1563" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1563" s="36"/>
+      <c r="H1563" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1563" s="1">
+        <v>16134404200</v>
+      </c>
+      <c r="J1563" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1564" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1564" s="1" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C1564" s="1" t="s">
+        <v>5178</v>
+      </c>
+      <c r="D1564" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1564" s="29" t="s">
+        <v>5177</v>
+      </c>
+      <c r="F1564" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1564" s="36"/>
+      <c r="H1564" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1564" s="1">
+        <v>19057780668</v>
+      </c>
+      <c r="J1564" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1565" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1565" s="1" t="s">
+        <v>5228</v>
+      </c>
+      <c r="C1565" s="1" t="s">
+        <v>5227</v>
+      </c>
+      <c r="D1565" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1565" s="29" t="s">
+        <v>5226</v>
+      </c>
+      <c r="F1565" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1565" s="36"/>
+      <c r="H1565" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1565" s="1">
+        <v>16133420420</v>
+      </c>
+      <c r="J1565" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1566" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1566" s="1" t="s">
+        <v>5225</v>
+      </c>
+      <c r="C1566" s="1" t="s">
+        <v>5224</v>
+      </c>
+      <c r="D1566" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1566" s="29" t="s">
+        <v>5223</v>
+      </c>
+      <c r="F1566" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1566" s="36"/>
+      <c r="H1566" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1566" s="1">
+        <v>12892451787</v>
+      </c>
+      <c r="J1566" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1567" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1567" s="1" t="s">
+        <v>5222</v>
+      </c>
+      <c r="C1567" s="1" t="s">
+        <v>5221</v>
+      </c>
+      <c r="D1567" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1567" s="29" t="s">
+        <v>5220</v>
+      </c>
+      <c r="F1567" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1567" s="36"/>
+      <c r="H1567" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1567" s="1">
+        <v>19058730420</v>
+      </c>
+      <c r="J1567" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>5219</v>
+      </c>
+      <c r="C1568" s="1" t="s">
+        <v>5218</v>
+      </c>
+      <c r="D1568" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1568" s="29" t="s">
+        <v>5217</v>
+      </c>
+      <c r="F1568" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1568" s="36"/>
+      <c r="H1568" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1568" s="1">
+        <v>14165918800</v>
+      </c>
+      <c r="J1568" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1569" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>5216</v>
+      </c>
+      <c r="C1569" s="1" t="s">
+        <v>5215</v>
+      </c>
+      <c r="D1569" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1569" s="29" t="s">
+        <v>5214</v>
+      </c>
+      <c r="F1569" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1569" s="36"/>
+      <c r="H1569" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1569" s="1">
+        <v>19054764464</v>
+      </c>
+      <c r="J1569" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1570" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1570" s="1" t="s">
+        <v>5213</v>
+      </c>
+      <c r="C1570" s="1" t="s">
+        <v>5212</v>
+      </c>
+      <c r="D1570" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1570" s="29" t="s">
+        <v>5211</v>
+      </c>
+      <c r="F1570" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1570" s="36"/>
+      <c r="H1570" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1570" s="1">
+        <v>16133897420</v>
+      </c>
+      <c r="J1570" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1571" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1571" s="1" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C1571" s="1" t="s">
+        <v>5209</v>
+      </c>
+      <c r="D1571" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1571" s="29" t="s">
+        <v>5208</v>
+      </c>
+      <c r="F1571" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1571" s="36"/>
+      <c r="H1571" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1571" s="1">
+        <v>17054785778</v>
+      </c>
+      <c r="J1571" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1572" s="1" t="s">
+        <v>5207</v>
+      </c>
+      <c r="B1572" s="1" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C1572" s="1" t="s">
+        <v>5205</v>
+      </c>
+      <c r="D1572" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1572" s="29" t="s">
+        <v>5204</v>
+      </c>
+      <c r="F1572" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1572" s="36"/>
+      <c r="H1572" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1572" s="1">
+        <v>14167390420</v>
+      </c>
+      <c r="J1572" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1573" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C1573" s="1" t="s">
+        <v>5202</v>
+      </c>
+      <c r="D1573" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1573" s="29" t="s">
+        <v>5201</v>
+      </c>
+      <c r="F1573" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1573" s="36"/>
+      <c r="H1573" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1573" s="1">
+        <v>16135655959</v>
+      </c>
+      <c r="J1573" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1574" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C1574" s="1" t="s">
+        <v>5199</v>
+      </c>
+      <c r="D1574" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1574" s="29" t="s">
+        <v>5198</v>
+      </c>
+      <c r="F1574" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1574" s="36"/>
+      <c r="H1574" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1574" s="1">
+        <v>16138349200</v>
+      </c>
+      <c r="J1574" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1575" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C1575" s="1" t="s">
+        <v>5196</v>
+      </c>
+      <c r="D1575" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1575" s="29" t="s">
+        <v>5195</v>
+      </c>
+      <c r="F1575" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1575" s="36"/>
+      <c r="H1575" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1575" s="1">
+        <v>17057431884</v>
+      </c>
+      <c r="J1575" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1576" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C1576" s="1" t="s">
+        <v>5193</v>
+      </c>
+      <c r="D1576" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1576" s="29" t="s">
+        <v>5192</v>
+      </c>
+      <c r="F1576" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1576" s="36"/>
+      <c r="H1576" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1576" s="1">
+        <v>14166635683</v>
+      </c>
+      <c r="J1576" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1577" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1577" s="1" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C1577" s="1" t="s">
+        <v>5190</v>
+      </c>
+      <c r="D1577" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1577" s="29" t="s">
+        <v>5189</v>
+      </c>
+      <c r="F1577" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1577" s="36"/>
+      <c r="H1577" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1577" s="1">
+        <v>19056425111</v>
+      </c>
+      <c r="J1577" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1578" s="1" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C1578" s="1" t="s">
+        <v>5187</v>
+      </c>
+      <c r="D1578" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1578" s="29" t="s">
+        <v>5186</v>
+      </c>
+      <c r="F1578" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1578" s="36"/>
+      <c r="H1578" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1578" s="1">
+        <v>15192059510</v>
+      </c>
+      <c r="J1578" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1579" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C1579" s="1" t="s">
+        <v>5184</v>
+      </c>
+      <c r="D1579" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1579" s="29" t="s">
+        <v>5183</v>
+      </c>
+      <c r="F1579" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1579" s="36"/>
+      <c r="H1579" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1579" s="1">
+        <v>18074750553</v>
+      </c>
+      <c r="J1579" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1580" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C1580" s="1" t="s">
+        <v>5181</v>
+      </c>
+      <c r="D1580" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1580" s="29" t="s">
+        <v>5180</v>
+      </c>
+      <c r="F1580" s="6" t="s">
+        <v>5145</v>
+      </c>
+      <c r="G1580" s="36"/>
+      <c r="H1580" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1580" s="1">
+        <v>19056800420</v>
+      </c>
+      <c r="J1580" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1581" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1581" s="1" t="s">
+        <v>5231</v>
+      </c>
+      <c r="C1581" s="1" t="s">
+        <v>5230</v>
+      </c>
+      <c r="D1581" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1581" s="29" t="s">
+        <v>5229</v>
+      </c>
+      <c r="F1581" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1581" s="36"/>
+      <c r="H1581" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1581" s="1">
+        <v>12898205330</v>
+      </c>
+      <c r="J1581" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1582" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1582" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C1582" s="1" t="s">
+        <v>5233</v>
+      </c>
+      <c r="D1582" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1582" s="29" t="s">
+        <v>5232</v>
+      </c>
+      <c r="F1582" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1582" s="36"/>
+      <c r="H1582" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1582" s="1">
+        <v>16134997688</v>
+      </c>
+      <c r="J1582" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1583" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1583" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C1583" s="1" t="s">
+        <v>5236</v>
+      </c>
+      <c r="D1583" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1583" s="29" t="s">
+        <v>5235</v>
+      </c>
+      <c r="F1583" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1583" s="36"/>
+      <c r="H1583" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1583" s="1">
+        <v>12898368730</v>
+      </c>
+      <c r="J1583" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1584" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1584" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C1584" s="1" t="s">
+        <v>5238</v>
+      </c>
+      <c r="D1584" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1584" s="29" t="s">
+        <v>5237</v>
+      </c>
+      <c r="F1584" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1584" s="36"/>
+      <c r="H1584" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1584" s="1">
+        <v>12893209420</v>
+      </c>
+      <c r="J1584" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1585" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1585" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C1585" s="1" t="s">
+        <v>5240</v>
+      </c>
+      <c r="D1585" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1585" s="29" t="s">
+        <v>5239</v>
+      </c>
+      <c r="F1585" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1585" s="36"/>
+      <c r="H1585" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1585" s="1">
+        <v>12892967710</v>
+      </c>
+      <c r="J1585" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1586" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1586" s="1" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C1586" s="1" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D1586" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1586" s="29" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F1586" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1586" s="36"/>
+      <c r="H1586" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1586" s="1">
+        <v>14166932737</v>
+      </c>
+      <c r="J1586" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1587" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1587" s="1" t="s">
+        <v>5247</v>
+      </c>
+      <c r="C1587" s="1" t="s">
+        <v>5246</v>
+      </c>
+      <c r="D1587" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1587" s="29" t="s">
+        <v>5245</v>
+      </c>
+      <c r="F1587" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1587" s="37" t="s">
+        <v>5244</v>
+      </c>
+      <c r="H1587" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1587" s="1">
+        <v>16134222888</v>
+      </c>
+      <c r="J1587" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1588" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1588" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C1588" s="1" t="s">
+        <v>5251</v>
+      </c>
+      <c r="D1588" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1588" s="29" t="s">
+        <v>5250</v>
+      </c>
+      <c r="F1588" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1588" s="37" t="s">
+        <v>5249</v>
+      </c>
+      <c r="H1588" s="1" t="s">
+        <v>5248</v>
+      </c>
+      <c r="I1588" s="1">
+        <v>16138439191</v>
+      </c>
+      <c r="J1588" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1589" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1589" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C1589" s="1" t="s">
+        <v>5253</v>
+      </c>
+      <c r="D1589" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1589" s="29" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F1589" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1589" s="36"/>
+      <c r="H1589" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1589" s="1">
+        <v>12892408338</v>
+      </c>
+      <c r="J1589" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1590" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C1590" s="1" t="s">
+        <v>5254</v>
+      </c>
+      <c r="D1590" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1590" s="29" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F1590" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1590" s="36"/>
+      <c r="H1590" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1590" s="1">
+        <v>16472589957</v>
+      </c>
+      <c r="J1590" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1591" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1591" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C1591" s="1" t="s">
+        <v>5256</v>
+      </c>
+      <c r="D1591" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1591" s="29" t="s">
+        <v>5255</v>
+      </c>
+      <c r="F1591" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1591" s="36"/>
+      <c r="H1591" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1591" s="1">
+        <v>14166010420</v>
+      </c>
+      <c r="J1591" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1592" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1592" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C1592" s="1" t="s">
+        <v>5258</v>
+      </c>
+      <c r="D1592" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1592" s="29" t="s">
+        <v>5255</v>
+      </c>
+      <c r="F1592" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1592" s="36"/>
+      <c r="H1592" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1592" s="1">
+        <v>19052392188</v>
+      </c>
+      <c r="J1592" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1593" s="1" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B1593" s="1" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C1593" s="1" t="s">
+        <v>5261</v>
+      </c>
+      <c r="D1593" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1593" s="29" t="s">
+        <v>5260</v>
+      </c>
+      <c r="F1593" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1593" s="36"/>
+      <c r="H1593" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1593" s="1">
+        <v>18888862795</v>
+      </c>
+      <c r="J1593" s="1" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1594" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1594" s="1" t="s">
+        <v>5265</v>
+      </c>
+      <c r="C1594" s="1" t="s">
+        <v>5264</v>
+      </c>
+      <c r="D1594" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1594" s="29" t="s">
+        <v>5263</v>
+      </c>
+      <c r="F1594" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1594" s="36"/>
+      <c r="H1594" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1594" s="1">
+        <v>17058870222</v>
+      </c>
+      <c r="J1594" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1595" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1595" s="1" t="s">
+        <v>5269</v>
+      </c>
+      <c r="C1595" s="1" t="s">
+        <v>5268</v>
+      </c>
+      <c r="D1595" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1595" s="29" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1595" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1595" s="37" t="s">
+        <v>5266</v>
+      </c>
+      <c r="H1595" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1595" s="1">
+        <v>18076989753</v>
+      </c>
+      <c r="J1595" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1596" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1596" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1596" s="1" t="s">
+        <v>5271</v>
+      </c>
+      <c r="D1596" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1596" s="29" t="s">
+        <v>953</v>
+      </c>
+      <c r="F1596" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1596" s="37" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1596" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1596" s="1">
+        <v>14169017692</v>
+      </c>
+      <c r="J1596" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1597" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1597" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1597" s="1" t="s">
+        <v>5272</v>
+      </c>
+      <c r="D1597" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1597" s="29" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F1597" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1597" s="36"/>
+      <c r="H1597" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1597" s="1">
+        <v>14162857768</v>
+      </c>
+      <c r="J1597" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1598" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1598" s="1" t="s">
+        <v>5275</v>
+      </c>
+      <c r="C1598" s="1" t="s">
+        <v>5274</v>
+      </c>
+      <c r="D1598" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1598" s="29" t="s">
+        <v>5273</v>
+      </c>
+      <c r="F1598" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1598" s="36"/>
+      <c r="H1598" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1598" s="1">
+        <v>19053339992</v>
+      </c>
+      <c r="J1598" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1599" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1599" s="1" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C1599" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D1599" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1599" s="29" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F1599" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1599" s="36"/>
+      <c r="H1599" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1599" s="1">
+        <v>15198047733</v>
+      </c>
+      <c r="J1599" s="1" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1600" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C1600" s="1" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D1600" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1600" s="29" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F1600" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1600" s="36"/>
+      <c r="H1600" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1600" s="1">
+        <v>15198047733</v>
+      </c>
+      <c r="J1600" s="1" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1601" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1601" s="1" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C1601" s="1" t="s">
+        <v>5279</v>
+      </c>
+      <c r="D1601" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1601" s="29" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F1601" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1601" s="36"/>
+      <c r="H1601" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1601" s="1">
+        <v>17058065720</v>
+      </c>
+      <c r="J1601" s="1" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1602" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1602" s="1" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C1602" s="1" t="s">
+        <v>5281</v>
+      </c>
+      <c r="D1602" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1602" s="29" t="s">
+        <v>5280</v>
+      </c>
+      <c r="F1602" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1602" s="36"/>
+      <c r="H1602" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1602" s="1">
+        <v>12894821300</v>
+      </c>
+      <c r="J1602" s="1" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1603" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1603" s="1" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C1603" s="1" t="s">
+        <v>5284</v>
+      </c>
+      <c r="D1603" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1603" s="29" t="s">
+        <v>5283</v>
+      </c>
+      <c r="F1603" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1603" s="36"/>
+      <c r="H1603" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1603" s="1">
+        <v>16473499333</v>
+      </c>
+      <c r="J1603" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1604" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B1604" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C1604" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1604" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1604" s="29" t="s">
+        <v>5286</v>
+      </c>
+      <c r="F1604" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1604" s="36"/>
+      <c r="H1604" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1604" s="1">
+        <v>15192386450</v>
+      </c>
+      <c r="J1604" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1605" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B1605" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C1605" s="1" t="s">
+        <v>5290</v>
+      </c>
+      <c r="D1605" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1605" s="29" t="s">
+        <v>5289</v>
+      </c>
+      <c r="F1605" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1605" s="36"/>
+      <c r="H1605" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1605" s="1">
+        <v>17057783226</v>
+      </c>
+      <c r="J1605" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1606" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1606" s="1" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C1606" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="D1606" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1606" s="29" t="s">
+        <v>5292</v>
+      </c>
+      <c r="F1606" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1606" s="36"/>
+      <c r="H1606" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1606" s="1">
+        <v>15199419448</v>
+      </c>
+      <c r="J1606" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1607" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>5297</v>
+      </c>
+      <c r="C1607" s="1" t="s">
+        <v>5296</v>
+      </c>
+      <c r="D1607" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1607" s="29" t="s">
+        <v>5292</v>
+      </c>
+      <c r="F1607" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1607" s="36"/>
+      <c r="H1607" s="1" t="s">
+        <v>5295</v>
+      </c>
+      <c r="I1607" s="1">
+        <v>15192919980</v>
+      </c>
+      <c r="J1607" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1608" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1608" s="1" t="s">
+        <v>5301</v>
+      </c>
+      <c r="C1608" s="1" t="s">
+        <v>5300</v>
+      </c>
+      <c r="D1608" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1608" s="29" t="s">
+        <v>5299</v>
+      </c>
+      <c r="F1608" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1608" s="37" t="s">
+        <v>5298</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1608" s="1">
+        <v>17053002811</v>
+      </c>
+      <c r="J1608" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1609" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>5304</v>
+      </c>
+      <c r="C1609" s="1" t="s">
+        <v>5303</v>
+      </c>
+      <c r="D1609" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1609" s="29" t="s">
+        <v>5302</v>
+      </c>
+      <c r="F1609" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1609" s="36"/>
+      <c r="H1609" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1609" s="1">
+        <v>14167920466</v>
+      </c>
+      <c r="J1609" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1610" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1610" s="1" t="s">
+        <v>5307</v>
+      </c>
+      <c r="C1610" s="1" t="s">
+        <v>5306</v>
+      </c>
+      <c r="D1610" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1610" s="29" t="s">
+        <v>5305</v>
+      </c>
+      <c r="F1610" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1610" s="36"/>
+      <c r="H1610" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1610" s="1">
+        <v>19052303673</v>
+      </c>
+      <c r="J1610" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1611" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1611" s="1" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C1611" s="1" t="s">
+        <v>5308</v>
+      </c>
+      <c r="D1611" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1611" s="29" t="s">
+        <v>5305</v>
+      </c>
+      <c r="F1611" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1611" s="36"/>
+      <c r="H1611" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1611" s="1">
+        <v>15192658768</v>
+      </c>
+      <c r="J1611" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1612" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B1612" s="1" t="s">
+        <v>5313</v>
+      </c>
+      <c r="C1612" s="1" t="s">
+        <v>5312</v>
+      </c>
+      <c r="D1612" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1612" s="29" t="s">
+        <v>5311</v>
+      </c>
+      <c r="F1612" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1612" s="36" t="s">
+        <v>5310</v>
+      </c>
+      <c r="H1612" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1612" s="1">
+        <v>18075484207</v>
+      </c>
+      <c r="J1612" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1613" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1613" s="1" t="s">
+        <v>5317</v>
+      </c>
+      <c r="C1613" s="1" t="s">
+        <v>5316</v>
+      </c>
+      <c r="D1613" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1613" s="29" t="s">
+        <v>5315</v>
+      </c>
+      <c r="F1613" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1613" s="36"/>
+      <c r="H1613" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1613" s="1">
+        <v>16133089464</v>
+      </c>
+      <c r="J1613" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1614" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1614" s="1" t="s">
+        <v>5317</v>
+      </c>
+      <c r="C1614" s="1" t="s">
+        <v>5318</v>
+      </c>
+      <c r="D1614" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1614" s="29" t="s">
+        <v>5315</v>
+      </c>
+      <c r="F1614" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1614" s="36"/>
+      <c r="H1614" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1614" s="1">
+        <v>16133089464</v>
+      </c>
+      <c r="J1614" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1615" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1615" s="1" t="s">
+        <v>5321</v>
+      </c>
+      <c r="C1615" s="1" t="s">
+        <v>5320</v>
+      </c>
+      <c r="D1615" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1615" s="29" t="s">
+        <v>5319</v>
+      </c>
+      <c r="F1615" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1615" s="36"/>
+      <c r="H1615" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1615" s="1">
+        <v>19053369191</v>
+      </c>
+      <c r="J1615" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1616" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1616" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1616" s="1" t="s">
+        <v>5323</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1616" s="29" t="s">
+        <v>5322</v>
+      </c>
+      <c r="F1616" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1616" s="36"/>
+      <c r="H1616" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1616" s="1">
+        <v>19252225044</v>
+      </c>
+      <c r="J1616" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1617" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1617" s="1" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C1617" s="1" t="s">
+        <v>5324</v>
+      </c>
+      <c r="D1617" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1617" s="29" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1617" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1617" s="36"/>
+      <c r="H1617" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1617" s="1">
+        <v>19058859172</v>
+      </c>
+      <c r="J1617" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1618" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C1618" s="1" t="s">
+        <v>5328</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1618" s="29" t="s">
+        <v>5327</v>
+      </c>
+      <c r="F1618" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1618" s="37" t="s">
+        <v>5326</v>
+      </c>
+      <c r="H1618" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1618" s="1">
+        <v>12892469353</v>
+      </c>
+      <c r="J1618" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1619" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1619" s="1" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C1619" s="1" t="s">
+        <v>5332</v>
+      </c>
+      <c r="D1619" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1619" s="29" t="s">
+        <v>5331</v>
+      </c>
+      <c r="F1619" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1619" s="37" t="s">
+        <v>5330</v>
+      </c>
+      <c r="H1619" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1619" s="1">
+        <v>14378804565</v>
+      </c>
+      <c r="J1619" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1620" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1620" s="1" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C1620" s="1" t="s">
+        <v>5336</v>
+      </c>
+      <c r="D1620" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1620" s="29" t="s">
+        <v>5335</v>
+      </c>
+      <c r="F1620" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1620" s="37" t="s">
+        <v>5334</v>
+      </c>
+      <c r="H1620" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1620" s="1">
+        <v>12266090149</v>
+      </c>
+      <c r="J1620" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1621" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1621" s="1" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C1621" s="1" t="s">
+        <v>5339</v>
+      </c>
+      <c r="D1621" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1621" s="29" t="s">
+        <v>5338</v>
+      </c>
+      <c r="F1621" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1621" s="36"/>
+      <c r="H1621" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1621" s="1">
+        <v>19052966800</v>
+      </c>
+      <c r="J1621" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1622" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1622" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1622" s="1" t="s">
+        <v>5341</v>
+      </c>
+      <c r="D1622" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1622" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1622" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1622" s="36"/>
+      <c r="H1622" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1622" s="1">
+        <v>17055165566</v>
+      </c>
+      <c r="J1622" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1623" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1623" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1623" s="1" t="s">
+        <v>5342</v>
+      </c>
+      <c r="D1623" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1623" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1623" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1623" s="36"/>
+      <c r="H1623" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1623" s="1">
+        <v>19057907999</v>
+      </c>
+      <c r="J1623" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1624" s="1" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B1624" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1624" s="1" t="s">
+        <v>5343</v>
+      </c>
+      <c r="D1624" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1624" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1624" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1624" s="36"/>
+      <c r="H1624" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1624" s="1">
+        <v>12266622255</v>
+      </c>
+      <c r="J1624" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1625" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1625" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1625" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="D1625" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1625" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1625" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1625" s="36"/>
+      <c r="H1625" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1625" s="1">
+        <v>14166076767</v>
+      </c>
+      <c r="J1625" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1626" s="1" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B1626" s="1" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C1626" s="1" t="s">
+        <v>5348</v>
+      </c>
+      <c r="D1626" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1626" s="29" t="s">
+        <v>5347</v>
+      </c>
+      <c r="F1626" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1626" s="37" t="s">
+        <v>5346</v>
+      </c>
+      <c r="H1626" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1626" s="1">
+        <v>12898769333</v>
+      </c>
+      <c r="J1626" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1627" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1627" s="1" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C1627" s="1" t="s">
+        <v>5352</v>
+      </c>
+      <c r="D1627" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1627" s="29" t="s">
+        <v>5351</v>
+      </c>
+      <c r="F1627" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1627" s="37" t="s">
+        <v>5350</v>
+      </c>
+      <c r="H1627" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1627" s="1">
+        <v>15195838420</v>
+      </c>
+      <c r="J1627" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1628" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1628" s="1" t="s">
+        <v>5354</v>
+      </c>
+      <c r="C1628" s="1" t="s">
+        <v>5353</v>
+      </c>
+      <c r="D1628" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1628" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1628" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1628" s="36"/>
+      <c r="H1628" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1628" s="1">
+        <v>19053314441</v>
+      </c>
+      <c r="J1628" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1629" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1629" s="1" t="s">
+        <v>5354</v>
+      </c>
+      <c r="C1629" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="D1629" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1629" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1629" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1629" s="36"/>
+      <c r="H1629" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1629" s="1">
+        <v>19054535454</v>
+      </c>
+      <c r="J1629" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1630" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1630" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1630" s="1" t="s">
+        <v>5356</v>
+      </c>
+      <c r="D1630" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1630" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1630" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1630" s="36"/>
+      <c r="H1630" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1630" s="1">
+        <v>14166863912</v>
+      </c>
+      <c r="J1630" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1631" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1631" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1631" s="1" t="s">
+        <v>5357</v>
+      </c>
+      <c r="D1631" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1631" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1631" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1631" s="36"/>
+      <c r="H1631" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1631" s="1">
+        <v>14165161116</v>
+      </c>
+      <c r="J1631" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1632" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1632" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1632" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="D1632" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1632" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1632" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1632" s="36"/>
+      <c r="H1632" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1632" s="1">
+        <v>14163642321</v>
+      </c>
+      <c r="J1632" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1633" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1633" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1633" s="1" t="s">
+        <v>5359</v>
+      </c>
+      <c r="D1633" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1633" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1633" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1633" s="36"/>
+      <c r="H1633" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1633" s="1">
+        <v>19055268130</v>
+      </c>
+      <c r="J1633" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1634" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1634" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1634" s="1" t="s">
+        <v>5360</v>
+      </c>
+      <c r="D1634" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1634" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1634" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1634" s="36"/>
+      <c r="H1634" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1634" s="1">
+        <v>19057279825</v>
+      </c>
+      <c r="J1634" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1635" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1635" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1635" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="D1635" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1635" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1635" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1635" s="36"/>
+      <c r="H1635" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1635" s="1">
+        <v>15196729826</v>
+      </c>
+      <c r="J1635" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1636" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1636" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1636" s="1" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D1636" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1636" s="29" t="s">
+        <v>5362</v>
+      </c>
+      <c r="F1636" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1636" s="36"/>
+      <c r="H1636" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1636" s="1">
+        <v>14165931515</v>
+      </c>
+      <c r="J1636" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1637" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1637" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1637" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="D1637" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1637" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1637" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1637" s="36"/>
+      <c r="H1637" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1637" s="1">
+        <v>19056310001</v>
+      </c>
+      <c r="J1637" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1638" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1638" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D1638" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1638" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1638" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1638" s="36"/>
+      <c r="H1638" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1638" s="1">
+        <v>14165342304</v>
+      </c>
+      <c r="J1638" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1639" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1639" s="1" t="s">
+        <v>5366</v>
+      </c>
+      <c r="D1639" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1639" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1639" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1639" s="36"/>
+      <c r="H1639" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I1639" s="1">
+        <v>17053528977</v>
+      </c>
+      <c r="J1639" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1640" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1640" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1640" s="1" t="s">
+        <v>5367</v>
+      </c>
+      <c r="D1640" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1640" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1640" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1640" s="36"/>
+      <c r="H1640" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1640" s="1">
+        <v>14379179399</v>
+      </c>
+      <c r="J1640" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1641" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1641" s="1" t="s">
+        <v>5368</v>
+      </c>
+      <c r="D1641" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1641" s="29" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F1641" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1641" s="36"/>
+      <c r="H1641" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1641" s="1">
+        <v>14167425050</v>
+      </c>
+      <c r="J1641" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -60941,9 +69991,14 @@
     <hyperlink ref="E1181" r:id="rId53"/>
     <hyperlink ref="E1237" r:id="rId54"/>
     <hyperlink ref="E1307" r:id="rId55"/>
+    <hyperlink ref="E1421" r:id="rId56"/>
+    <hyperlink ref="E1495" r:id="rId57"/>
+    <hyperlink ref="E1497" r:id="rId58"/>
+    <hyperlink ref="E1536" r:id="rId59"/>
+    <hyperlink ref="E1542" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId61"/>
 </worksheet>
 </file>
 

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16691,8 +16691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1606" workbookViewId="0">
-      <selection activeCell="I1620" sqref="I1620"/>
+    <sheetView tabSelected="1" topLeftCell="A1605" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1634" sqref="L1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62689,6 +62689,7 @@
       <c r="J1401" s="1" t="s">
         <v>3478</v>
       </c>
+      <c r="N1401" s="12"/>
     </row>
     <row r="1402" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1402" s="1" t="s">
@@ -62721,6 +62722,7 @@
       <c r="J1402" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1402" s="12"/>
     </row>
     <row r="1403" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1403" s="1" t="s">
@@ -62751,6 +62753,7 @@
       <c r="J1403" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1403" s="12"/>
     </row>
     <row r="1404" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1404" s="1" t="s">
@@ -62781,6 +62784,7 @@
       <c r="J1404" s="1" t="s">
         <v>3478</v>
       </c>
+      <c r="N1404" s="12"/>
     </row>
     <row r="1405" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1405" s="1" t="s">
@@ -62811,6 +62815,7 @@
       <c r="J1405" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1405" s="12"/>
     </row>
     <row r="1406" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1406" s="1" t="s">
@@ -62841,6 +62846,7 @@
       <c r="J1406" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1406" s="12"/>
     </row>
     <row r="1407" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1407" s="1" t="s">
@@ -62871,6 +62877,7 @@
       <c r="J1407" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1407" s="12"/>
     </row>
     <row r="1408" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1408" s="1" t="s">
@@ -62901,8 +62908,9 @@
       <c r="J1408" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1409" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1408" s="12"/>
+    </row>
+    <row r="1409" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1409" s="1" t="s">
         <v>186</v>
       </c>
@@ -62931,8 +62939,9 @@
       <c r="J1409" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1410" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1409" s="12"/>
+    </row>
+    <row r="1410" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1410" s="1" t="s">
         <v>2921</v>
       </c>
@@ -62961,8 +62970,9 @@
       <c r="J1410" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1411" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1410" s="12"/>
+    </row>
+    <row r="1411" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1411" s="1" t="s">
         <v>27</v>
       </c>
@@ -62991,8 +63001,9 @@
       <c r="J1411" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1412" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1411" s="12"/>
+    </row>
+    <row r="1412" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1412" s="1" t="s">
         <v>27</v>
       </c>
@@ -63021,8 +63032,9 @@
       <c r="J1412" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1413" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1412" s="12"/>
+    </row>
+    <row r="1413" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1413" s="1" t="s">
         <v>775</v>
       </c>
@@ -63051,8 +63063,9 @@
       <c r="J1413" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1414" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1413" s="12"/>
+    </row>
+    <row r="1414" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1414" s="1" t="s">
         <v>130</v>
       </c>
@@ -63081,8 +63094,9 @@
       <c r="J1414" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1415" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1414" s="12"/>
+    </row>
+    <row r="1415" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1415" s="1" t="s">
         <v>27</v>
       </c>
@@ -63111,8 +63125,9 @@
       <c r="J1415" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1416" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1415" s="12"/>
+    </row>
+    <row r="1416" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1416" s="1" t="s">
         <v>27</v>
       </c>
@@ -63141,8 +63156,9 @@
       <c r="J1416" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1417" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1416" s="12"/>
+    </row>
+    <row r="1417" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1417" s="1" t="s">
         <v>552</v>
       </c>
@@ -63171,8 +63187,9 @@
       <c r="J1417" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1418" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1417" s="12"/>
+    </row>
+    <row r="1418" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1418" s="1" t="s">
         <v>356</v>
       </c>
@@ -63201,8 +63218,9 @@
       <c r="J1418" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1419" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1418" s="12"/>
+    </row>
+    <row r="1419" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1419" s="1" t="s">
         <v>945</v>
       </c>
@@ -63231,8 +63249,9 @@
       <c r="J1419" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1420" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1419" s="12"/>
+    </row>
+    <row r="1420" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1420" s="1" t="s">
         <v>81</v>
       </c>
@@ -63261,8 +63280,9 @@
       <c r="J1420" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1421" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1420" s="12"/>
+    </row>
+    <row r="1421" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1421" s="1" t="s">
         <v>1496</v>
       </c>
@@ -63291,8 +63311,9 @@
       <c r="J1421" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1422" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1421" s="12"/>
+    </row>
+    <row r="1422" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1422" s="1" t="s">
         <v>186</v>
       </c>
@@ -63321,8 +63342,9 @@
       <c r="J1422" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1423" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1422" s="12"/>
+    </row>
+    <row r="1423" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1423" s="1" t="s">
         <v>166</v>
       </c>
@@ -63351,8 +63373,9 @@
       <c r="J1423" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1424" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1423" s="12"/>
+    </row>
+    <row r="1424" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1424" s="1" t="s">
         <v>166</v>
       </c>
@@ -63381,8 +63404,9 @@
       <c r="J1424" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1425" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1424" s="12"/>
+    </row>
+    <row r="1425" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1425" s="1" t="s">
         <v>262</v>
       </c>
@@ -63411,8 +63435,9 @@
       <c r="J1425" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1426" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1425" s="12"/>
+    </row>
+    <row r="1426" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1426" s="1" t="s">
         <v>41</v>
       </c>
@@ -63441,8 +63466,9 @@
       <c r="J1426" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1427" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1426" s="12"/>
+    </row>
+    <row r="1427" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1427" s="1" t="s">
         <v>1858</v>
       </c>
@@ -63471,8 +63497,9 @@
       <c r="J1427" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1428" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1427" s="12"/>
+    </row>
+    <row r="1428" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1428" s="1" t="s">
         <v>401</v>
       </c>
@@ -63501,8 +63528,9 @@
       <c r="J1428" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1429" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1428" s="12"/>
+    </row>
+    <row r="1429" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1429" s="1" t="s">
         <v>41</v>
       </c>
@@ -63531,8 +63559,9 @@
       <c r="J1429" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1430" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1429" s="12"/>
+    </row>
+    <row r="1430" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1430" s="1" t="s">
         <v>878</v>
       </c>
@@ -63561,8 +63590,9 @@
       <c r="J1430" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1431" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1430" s="12"/>
+    </row>
+    <row r="1431" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1431" s="1" t="s">
         <v>27</v>
       </c>
@@ -63591,8 +63621,9 @@
       <c r="J1431" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1432" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1431" s="12"/>
+    </row>
+    <row r="1432" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1432" s="1" t="s">
         <v>2508</v>
       </c>
@@ -63621,8 +63652,9 @@
       <c r="J1432" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1433" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1432" s="12"/>
+    </row>
+    <row r="1433" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1433" s="1" t="s">
         <v>120</v>
       </c>
@@ -63651,8 +63683,9 @@
       <c r="J1433" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1434" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1433" s="12"/>
+    </row>
+    <row r="1434" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1434" s="1" t="s">
         <v>1198</v>
       </c>
@@ -63681,8 +63714,9 @@
       <c r="J1434" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1435" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1434" s="12"/>
+    </row>
+    <row r="1435" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1435" s="1" t="s">
         <v>252</v>
       </c>
@@ -63713,8 +63747,9 @@
       <c r="J1435" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1436" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1435" s="12"/>
+    </row>
+    <row r="1436" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1436" s="1" t="s">
         <v>41</v>
       </c>
@@ -63743,8 +63778,9 @@
       <c r="J1436" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1437" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1436" s="12"/>
+    </row>
+    <row r="1437" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1437" s="1" t="s">
         <v>465</v>
       </c>
@@ -63775,8 +63811,9 @@
       <c r="J1437" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1438" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1437" s="12"/>
+    </row>
+    <row r="1438" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1438" s="1" t="s">
         <v>46</v>
       </c>
@@ -63807,8 +63844,9 @@
       <c r="J1438" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1439" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1438" s="12"/>
+    </row>
+    <row r="1439" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1439" s="1" t="s">
         <v>1915</v>
       </c>
@@ -63839,8 +63877,9 @@
       <c r="J1439" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1440" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1439" s="12"/>
+    </row>
+    <row r="1440" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1440" s="1" t="s">
         <v>473</v>
       </c>
@@ -63871,8 +63910,9 @@
       <c r="J1440" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1441" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1440" s="12"/>
+    </row>
+    <row r="1441" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1441" s="1" t="s">
         <v>166</v>
       </c>
@@ -63901,8 +63941,9 @@
       <c r="J1441" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1442" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1441" s="12"/>
+    </row>
+    <row r="1442" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1442" s="1" t="s">
         <v>878</v>
       </c>
@@ -63931,8 +63972,9 @@
       <c r="J1442" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1443" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1442" s="12"/>
+    </row>
+    <row r="1443" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1443" s="1" t="s">
         <v>1125</v>
       </c>
@@ -63961,8 +64003,9 @@
       <c r="J1443" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1444" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1443" s="12"/>
+    </row>
+    <row r="1444" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1444" s="1" t="s">
         <v>27</v>
       </c>
@@ -63991,8 +64034,9 @@
       <c r="J1444" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1445" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1444" s="12"/>
+    </row>
+    <row r="1445" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1445" s="1" t="s">
         <v>401</v>
       </c>
@@ -64021,8 +64065,9 @@
       <c r="J1445" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1446" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1445" s="12"/>
+    </row>
+    <row r="1446" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1446" s="1" t="s">
         <v>538</v>
       </c>
@@ -64051,8 +64096,9 @@
       <c r="J1446" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1447" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1446" s="12"/>
+    </row>
+    <row r="1447" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1447" s="1" t="s">
         <v>252</v>
       </c>
@@ -64081,8 +64127,9 @@
       <c r="J1447" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1448" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1447" s="12"/>
+    </row>
+    <row r="1448" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1448" s="1" t="s">
         <v>538</v>
       </c>
@@ -64111,8 +64158,9 @@
       <c r="J1448" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1449" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1448" s="12"/>
+    </row>
+    <row r="1449" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1449" s="1" t="s">
         <v>262</v>
       </c>
@@ -64141,8 +64189,9 @@
       <c r="J1449" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1450" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1449" s="12"/>
+    </row>
+    <row r="1450" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1450" s="1" t="s">
         <v>434</v>
       </c>
@@ -64171,8 +64220,9 @@
       <c r="J1450" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1451" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1450" s="12"/>
+    </row>
+    <row r="1451" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1451" s="1" t="s">
         <v>3684</v>
       </c>
@@ -64201,8 +64251,9 @@
       <c r="J1451" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1452" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1451" s="12"/>
+    </row>
+    <row r="1452" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1452" s="1" t="s">
         <v>548</v>
       </c>
@@ -64231,8 +64282,9 @@
       <c r="J1452" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1453" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1452" s="12"/>
+    </row>
+    <row r="1453" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1453" s="1" t="s">
         <v>262</v>
       </c>
@@ -64261,8 +64313,9 @@
       <c r="J1453" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1454" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1453" s="12"/>
+    </row>
+    <row r="1454" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1454" s="1" t="s">
         <v>4896</v>
       </c>
@@ -64291,8 +64344,9 @@
       <c r="J1454" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1455" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1454" s="12"/>
+    </row>
+    <row r="1455" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1455" s="1" t="s">
         <v>2993</v>
       </c>
@@ -64321,8 +64375,9 @@
       <c r="J1455" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1456" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1455" s="12"/>
+    </row>
+    <row r="1456" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1456" s="1" t="s">
         <v>27</v>
       </c>
@@ -64351,8 +64406,9 @@
       <c r="J1456" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1457" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1456" s="12"/>
+    </row>
+    <row r="1457" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1457" s="1" t="s">
         <v>316</v>
       </c>
@@ -64381,8 +64437,9 @@
       <c r="J1457" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1458" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1457" s="12"/>
+    </row>
+    <row r="1458" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1458" s="1" t="s">
         <v>473</v>
       </c>
@@ -64411,8 +64468,9 @@
       <c r="J1458" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1459" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1458" s="12"/>
+    </row>
+    <row r="1459" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1459" s="1" t="s">
         <v>81</v>
       </c>
@@ -64441,8 +64499,9 @@
       <c r="J1459" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1460" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1459" s="12"/>
+    </row>
+    <row r="1460" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1460" s="1" t="s">
         <v>27</v>
       </c>
@@ -64471,8 +64530,9 @@
       <c r="J1460" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1461" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1460" s="12"/>
+    </row>
+    <row r="1461" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1461" s="1" t="s">
         <v>301</v>
       </c>
@@ -64501,8 +64561,9 @@
       <c r="J1461" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1462" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1461" s="12"/>
+    </row>
+    <row r="1462" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1462" s="1" t="s">
         <v>27</v>
       </c>
@@ -64531,8 +64592,9 @@
       <c r="J1462" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1463" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1462" s="12"/>
+    </row>
+    <row r="1463" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1463" s="1" t="s">
         <v>27</v>
       </c>
@@ -64561,8 +64623,9 @@
       <c r="J1463" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1464" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1463" s="12"/>
+    </row>
+    <row r="1464" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1464" s="1" t="s">
         <v>27</v>
       </c>
@@ -64591,8 +64654,9 @@
       <c r="J1464" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1465" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1464" s="12"/>
+    </row>
+    <row r="1465" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1465" s="1" t="s">
         <v>76</v>
       </c>
@@ -64621,8 +64685,9 @@
       <c r="J1465" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1466" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1465" s="12"/>
+    </row>
+    <row r="1466" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1466" s="1" t="s">
         <v>1276</v>
       </c>
@@ -64651,8 +64716,9 @@
       <c r="J1466" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1467" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1466" s="12"/>
+    </row>
+    <row r="1467" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1467" s="1" t="s">
         <v>186</v>
       </c>
@@ -64681,8 +64747,9 @@
       <c r="J1467" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1468" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1467" s="12"/>
+    </row>
+    <row r="1468" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1468" s="1" t="s">
         <v>125</v>
       </c>
@@ -64711,8 +64778,9 @@
       <c r="J1468" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1469" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1468" s="12"/>
+    </row>
+    <row r="1469" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1469" s="1" t="s">
         <v>366</v>
       </c>
@@ -64741,8 +64809,9 @@
       <c r="J1469" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1470" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1469" s="12"/>
+    </row>
+    <row r="1470" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1470" s="1" t="s">
         <v>67</v>
       </c>
@@ -64771,8 +64840,9 @@
       <c r="J1470" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1471" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1470" s="12"/>
+    </row>
+    <row r="1471" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1471" s="1" t="s">
         <v>1059</v>
       </c>
@@ -64801,8 +64871,9 @@
       <c r="J1471" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1472" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1471" s="12"/>
+    </row>
+    <row r="1472" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1472" s="1" t="s">
         <v>41</v>
       </c>
@@ -64831,8 +64902,9 @@
       <c r="J1472" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1473" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1472" s="12"/>
+    </row>
+    <row r="1473" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1473" s="1" t="s">
         <v>41</v>
       </c>
@@ -64861,8 +64933,9 @@
       <c r="J1473" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1474" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1473" s="12"/>
+    </row>
+    <row r="1474" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1474" s="1" t="s">
         <v>27</v>
       </c>
@@ -64891,8 +64964,9 @@
       <c r="J1474" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1475" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1474" s="12"/>
+    </row>
+    <row r="1475" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1475" s="1" t="s">
         <v>51</v>
       </c>
@@ -64921,8 +64995,9 @@
       <c r="J1475" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1476" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1475" s="12"/>
+    </row>
+    <row r="1476" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1476" s="1" t="s">
         <v>41</v>
       </c>
@@ -64951,8 +65026,9 @@
       <c r="J1476" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1477" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1476" s="12"/>
+    </row>
+    <row r="1477" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1477" s="1" t="s">
         <v>252</v>
       </c>
@@ -64981,8 +65057,9 @@
       <c r="J1477" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1478" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1477" s="12"/>
+    </row>
+    <row r="1478" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1478" s="1" t="s">
         <v>186</v>
       </c>
@@ -65011,8 +65088,9 @@
       <c r="J1478" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1479" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1478" s="12"/>
+    </row>
+    <row r="1479" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1479" s="1" t="s">
         <v>4959</v>
       </c>
@@ -65041,8 +65119,9 @@
       <c r="J1479" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1480" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1479" s="12"/>
+    </row>
+    <row r="1480" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1480" s="1" t="s">
         <v>465</v>
       </c>
@@ -65071,8 +65150,9 @@
       <c r="J1480" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1481" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1480" s="12"/>
+    </row>
+    <row r="1481" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1481" s="1" t="s">
         <v>171</v>
       </c>
@@ -65101,8 +65181,9 @@
       <c r="J1481" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1482" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1481" s="12"/>
+    </row>
+    <row r="1482" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1482" s="1" t="s">
         <v>2279</v>
       </c>
@@ -65131,8 +65212,9 @@
       <c r="J1482" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1483" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1482" s="12"/>
+    </row>
+    <row r="1483" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1483" s="1" t="s">
         <v>346</v>
       </c>
@@ -65163,8 +65245,9 @@
       <c r="J1483" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1484" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1483" s="12"/>
+    </row>
+    <row r="1484" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1484" s="1" t="s">
         <v>676</v>
       </c>
@@ -65193,8 +65276,9 @@
       <c r="J1484" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1485" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1484" s="12"/>
+    </row>
+    <row r="1485" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1485" s="1" t="s">
         <v>81</v>
       </c>
@@ -65223,8 +65307,9 @@
       <c r="J1485" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1486" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1485" s="12"/>
+    </row>
+    <row r="1486" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1486" s="1" t="s">
         <v>27</v>
       </c>
@@ -65253,8 +65338,9 @@
       <c r="J1486" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1487" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1486" s="12"/>
+    </row>
+    <row r="1487" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1487" s="1" t="s">
         <v>3067</v>
       </c>
@@ -65283,8 +65369,9 @@
       <c r="J1487" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1488" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1487" s="12"/>
+    </row>
+    <row r="1488" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1488" s="1" t="s">
         <v>4983</v>
       </c>
@@ -65313,8 +65400,9 @@
       <c r="J1488" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1489" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1488" s="12"/>
+    </row>
+    <row r="1489" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1489" s="1" t="s">
         <v>1338</v>
       </c>
@@ -65343,8 +65431,9 @@
       <c r="J1489" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1490" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1489" s="12"/>
+    </row>
+    <row r="1490" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1490" s="1" t="s">
         <v>681</v>
       </c>
@@ -65373,8 +65462,9 @@
       <c r="J1490" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1491" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1490" s="12"/>
+    </row>
+    <row r="1491" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1491" s="1" t="s">
         <v>27</v>
       </c>
@@ -65403,8 +65493,9 @@
       <c r="J1491" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1492" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1491" s="12"/>
+    </row>
+    <row r="1492" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1492" s="1" t="s">
         <v>120</v>
       </c>
@@ -65433,8 +65524,9 @@
       <c r="J1492" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1493" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1492" s="12"/>
+    </row>
+    <row r="1493" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1493" s="1" t="s">
         <v>27</v>
       </c>
@@ -65463,8 +65555,9 @@
       <c r="J1493" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1494" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1493" s="12"/>
+    </row>
+    <row r="1494" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1494" s="1" t="s">
         <v>5001</v>
       </c>
@@ -65493,8 +65586,9 @@
       <c r="J1494" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1495" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1494" s="12"/>
+    </row>
+    <row r="1495" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1495" s="1" t="s">
         <v>1744</v>
       </c>
@@ -65525,8 +65619,9 @@
       <c r="J1495" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1496" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1495" s="12"/>
+    </row>
+    <row r="1496" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1496" s="1" t="s">
         <v>1706</v>
       </c>
@@ -65555,8 +65650,9 @@
       <c r="J1496" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1497" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1496" s="12"/>
+    </row>
+    <row r="1497" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1497" s="1" t="s">
         <v>27</v>
       </c>
@@ -65585,8 +65681,9 @@
       <c r="J1497" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1498" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1497" s="12"/>
+    </row>
+    <row r="1498" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1498" s="1" t="s">
         <v>453</v>
       </c>
@@ -65617,8 +65714,9 @@
       <c r="J1498" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1499" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1498" s="12"/>
+    </row>
+    <row r="1499" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1499" s="1" t="s">
         <v>844</v>
       </c>
@@ -65647,8 +65745,9 @@
       <c r="J1499" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1500" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1499" s="12"/>
+    </row>
+    <row r="1500" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1500" s="1" t="s">
         <v>262</v>
       </c>
@@ -65677,8 +65776,9 @@
       <c r="J1500" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1501" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1500" s="12"/>
+    </row>
+    <row r="1501" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1501" s="1" t="s">
         <v>262</v>
       </c>
@@ -65707,8 +65807,9 @@
       <c r="J1501" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1502" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1501" s="12"/>
+    </row>
+    <row r="1502" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1502" s="1" t="s">
         <v>27</v>
       </c>
@@ -65734,8 +65835,9 @@
       <c r="J1502" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1503" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1502" s="12"/>
+    </row>
+    <row r="1503" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1503" s="1" t="s">
         <v>186</v>
       </c>
@@ -65764,8 +65866,9 @@
       <c r="J1503" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1504" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1503" s="12"/>
+    </row>
+    <row r="1504" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1504" s="1" t="s">
         <v>46</v>
       </c>
@@ -65794,8 +65897,9 @@
       <c r="J1504" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1505" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1504" s="12"/>
+    </row>
+    <row r="1505" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1505" s="1" t="s">
         <v>1125</v>
       </c>
@@ -65824,8 +65928,9 @@
       <c r="J1505" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1506" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1505" s="12"/>
+    </row>
+    <row r="1506" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1506" s="1" t="s">
         <v>27</v>
       </c>
@@ -65854,8 +65959,9 @@
       <c r="J1506" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1507" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1506" s="12"/>
+    </row>
+    <row r="1507" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1507" s="1" t="s">
         <v>301</v>
       </c>
@@ -65884,8 +65990,9 @@
       <c r="J1507" s="1" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1508" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1507" s="12"/>
+    </row>
+    <row r="1508" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1508" s="1" t="s">
         <v>41</v>
       </c>
@@ -65914,8 +66021,9 @@
       <c r="J1508" s="1" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1509" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1508" s="12"/>
+    </row>
+    <row r="1509" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1509" s="1" t="s">
         <v>4365</v>
       </c>
@@ -65944,8 +66052,9 @@
       <c r="J1509" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1510" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1509" s="12"/>
+    </row>
+    <row r="1510" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1510" s="1" t="s">
         <v>27</v>
       </c>
@@ -65974,8 +66083,9 @@
       <c r="J1510" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1511" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1510" s="12"/>
+    </row>
+    <row r="1511" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1511" s="1" t="s">
         <v>5043</v>
       </c>
@@ -66004,8 +66114,9 @@
       <c r="J1511" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1512" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1511" s="12"/>
+    </row>
+    <row r="1512" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1512" s="1" t="s">
         <v>186</v>
       </c>
@@ -66034,8 +66145,9 @@
       <c r="J1512" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1513" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1512" s="12"/>
+    </row>
+    <row r="1513" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1513" s="1" t="s">
         <v>46</v>
       </c>
@@ -66064,8 +66176,9 @@
       <c r="J1513" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1514" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1513" s="12"/>
+    </row>
+    <row r="1514" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1514" s="1" t="s">
         <v>5053</v>
       </c>
@@ -66094,8 +66207,9 @@
       <c r="J1514" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1515" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1514" s="12"/>
+    </row>
+    <row r="1515" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1515" s="1" t="s">
         <v>304</v>
       </c>
@@ -66124,8 +66238,9 @@
       <c r="J1515" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1516" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1515" s="12"/>
+    </row>
+    <row r="1516" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1516" s="1" t="s">
         <v>1184</v>
       </c>
@@ -66154,8 +66269,9 @@
       <c r="J1516" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1517" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1516" s="12"/>
+    </row>
+    <row r="1517" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1517" s="1" t="s">
         <v>46</v>
       </c>
@@ -66184,8 +66300,9 @@
       <c r="J1517" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1518" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1517" s="12"/>
+    </row>
+    <row r="1518" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1518" s="1" t="s">
         <v>76</v>
       </c>
@@ -66214,8 +66331,9 @@
       <c r="J1518" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1519" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1518" s="12"/>
+    </row>
+    <row r="1519" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1519" s="1" t="s">
         <v>775</v>
       </c>
@@ -66244,8 +66362,9 @@
       <c r="J1519" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1520" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1519" s="12"/>
+    </row>
+    <row r="1520" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1520" s="1" t="s">
         <v>27</v>
       </c>
@@ -66274,8 +66393,9 @@
       <c r="J1520" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1521" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1520" s="12"/>
+    </row>
+    <row r="1521" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1521" s="1" t="s">
         <v>4150</v>
       </c>
@@ -66304,8 +66424,9 @@
       <c r="J1521" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1522" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1521" s="12"/>
+    </row>
+    <row r="1522" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1522" s="1" t="s">
         <v>171</v>
       </c>
@@ -66336,8 +66457,9 @@
       <c r="J1522" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1523" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1522" s="12"/>
+    </row>
+    <row r="1523" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1523" s="1" t="s">
         <v>125</v>
       </c>
@@ -66366,8 +66488,9 @@
       <c r="J1523" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1524" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1523" s="12"/>
+    </row>
+    <row r="1524" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1524" s="1" t="s">
         <v>565</v>
       </c>
@@ -66396,8 +66519,9 @@
       <c r="J1524" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1525" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1524" s="12"/>
+    </row>
+    <row r="1525" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1525" s="1" t="s">
         <v>473</v>
       </c>
@@ -66426,8 +66550,9 @@
       <c r="J1525" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1526" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1525" s="12"/>
+    </row>
+    <row r="1526" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1526" s="1" t="s">
         <v>81</v>
       </c>
@@ -66456,8 +66581,9 @@
       <c r="J1526" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1527" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1526" s="12"/>
+    </row>
+    <row r="1527" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1527" s="1" t="s">
         <v>473</v>
       </c>
@@ -66486,8 +66612,9 @@
       <c r="J1527" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1528" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1527" s="12"/>
+    </row>
+    <row r="1528" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1528" s="1" t="s">
         <v>0</v>
       </c>
@@ -66516,8 +66643,9 @@
       <c r="J1528" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1529" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1528" s="12"/>
+    </row>
+    <row r="1529" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1529" s="1" t="s">
         <v>67</v>
       </c>
@@ -66546,8 +66674,9 @@
       <c r="J1529" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1530" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1529" s="12"/>
+    </row>
+    <row r="1530" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1530" s="1" t="s">
         <v>793</v>
       </c>
@@ -66576,8 +66705,9 @@
       <c r="J1530" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1531" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1530" s="12"/>
+    </row>
+    <row r="1531" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1531" s="1" t="s">
         <v>377</v>
       </c>
@@ -66603,8 +66733,9 @@
       <c r="J1531" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1532" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1531" s="12"/>
+    </row>
+    <row r="1532" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1532" s="1" t="s">
         <v>41</v>
       </c>
@@ -66635,8 +66766,9 @@
       <c r="J1532" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1533" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1532" s="12"/>
+    </row>
+    <row r="1533" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1533" s="1" t="s">
         <v>252</v>
       </c>
@@ -66665,8 +66797,9 @@
       <c r="J1533" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1534" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1533" s="12"/>
+    </row>
+    <row r="1534" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1534" s="1" t="s">
         <v>465</v>
       </c>
@@ -66695,8 +66828,9 @@
       <c r="J1534" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1535" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1534" s="12"/>
+    </row>
+    <row r="1535" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1535" s="1" t="s">
         <v>262</v>
       </c>
@@ -66725,8 +66859,9 @@
       <c r="J1535" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1536" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1535" s="12"/>
+    </row>
+    <row r="1536" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1536" s="1" t="s">
         <v>3032</v>
       </c>
@@ -66755,8 +66890,9 @@
       <c r="J1536" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1537" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1536" s="12"/>
+    </row>
+    <row r="1537" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1537" s="1" t="s">
         <v>416</v>
       </c>
@@ -66785,8 +66921,9 @@
       <c r="J1537" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1538" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1537" s="12"/>
+    </row>
+    <row r="1538" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1538" s="1" t="s">
         <v>46</v>
       </c>
@@ -66815,8 +66952,9 @@
       <c r="J1538" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1539" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1538" s="12"/>
+    </row>
+    <row r="1539" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1539" s="1" t="s">
         <v>46</v>
       </c>
@@ -66845,8 +66983,9 @@
       <c r="J1539" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1540" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1539" s="12"/>
+    </row>
+    <row r="1540" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1540" s="1" t="s">
         <v>46</v>
       </c>
@@ -66875,8 +67014,9 @@
       <c r="J1540" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1541" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1540" s="12"/>
+    </row>
+    <row r="1541" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1541" s="1" t="s">
         <v>878</v>
       </c>
@@ -66907,8 +67047,9 @@
       <c r="J1541" s="1" t="s">
         <v>3904</v>
       </c>
-    </row>
-    <row r="1542" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1541" s="12"/>
+    </row>
+    <row r="1542" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1542" s="1" t="s">
         <v>1198</v>
       </c>
@@ -66937,8 +67078,9 @@
       <c r="J1542" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1543" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1542" s="12"/>
+    </row>
+    <row r="1543" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1543" s="1" t="s">
         <v>815</v>
       </c>
@@ -66967,8 +67109,9 @@
       <c r="J1543" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1544" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1543" s="12"/>
+    </row>
+    <row r="1544" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1544" s="1" t="s">
         <v>473</v>
       </c>
@@ -66997,8 +67140,9 @@
       <c r="J1544" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1545" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1544" s="12"/>
+    </row>
+    <row r="1545" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1545" s="1" t="s">
         <v>81</v>
       </c>
@@ -67029,8 +67173,9 @@
       <c r="J1545" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1546" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1545" s="12"/>
+    </row>
+    <row r="1546" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1546" s="1" t="s">
         <v>5141</v>
       </c>
@@ -67061,8 +67206,9 @@
       <c r="J1546" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1547" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1546" s="12"/>
+    </row>
+    <row r="1547" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1547" s="1" t="s">
         <v>262</v>
       </c>
@@ -67091,8 +67237,9 @@
       <c r="J1547" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1548" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1547" s="12"/>
+    </row>
+    <row r="1548" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1548" s="1" t="s">
         <v>1125</v>
       </c>
@@ -67121,8 +67268,9 @@
       <c r="J1548" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1549" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1548" s="12"/>
+    </row>
+    <row r="1549" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1549" s="1" t="s">
         <v>1706</v>
       </c>
@@ -67151,8 +67299,9 @@
       <c r="J1549" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1550" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1549" s="12"/>
+    </row>
+    <row r="1550" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1550" s="1" t="s">
         <v>1597</v>
       </c>
@@ -67181,8 +67330,9 @@
       <c r="J1550" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1551" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1550" s="12"/>
+    </row>
+    <row r="1551" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1551" s="1" t="s">
         <v>171</v>
       </c>
@@ -67211,8 +67361,9 @@
       <c r="J1551" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1552" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1551" s="12"/>
+    </row>
+    <row r="1552" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1552" s="1" t="s">
         <v>3289</v>
       </c>
@@ -67241,8 +67392,9 @@
       <c r="J1552" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1553" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1552" s="12"/>
+    </row>
+    <row r="1553" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1553" s="1" t="s">
         <v>212</v>
       </c>
@@ -67271,8 +67423,9 @@
       <c r="J1553" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1554" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1553" s="12"/>
+    </row>
+    <row r="1554" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1554" s="1" t="s">
         <v>707</v>
       </c>
@@ -67301,8 +67454,9 @@
       <c r="J1554" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1555" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1554" s="12"/>
+    </row>
+    <row r="1555" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1555" s="1" t="s">
         <v>552</v>
       </c>
@@ -67331,8 +67485,9 @@
       <c r="J1555" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1556" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1555" s="12"/>
+    </row>
+    <row r="1556" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1556" s="1" t="s">
         <v>166</v>
       </c>
@@ -67361,8 +67516,9 @@
       <c r="J1556" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1557" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1556" s="12"/>
+    </row>
+    <row r="1557" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1557" s="1" t="s">
         <v>538</v>
       </c>
@@ -67391,8 +67547,9 @@
       <c r="J1557" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1558" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1557" s="12"/>
+    </row>
+    <row r="1558" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1558" s="1" t="s">
         <v>41</v>
       </c>
@@ -67421,8 +67578,9 @@
       <c r="J1558" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1559" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1558" s="12"/>
+    </row>
+    <row r="1559" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1559" s="1" t="s">
         <v>5168</v>
       </c>
@@ -67451,8 +67609,9 @@
       <c r="J1559" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1560" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1559" s="12"/>
+    </row>
+    <row r="1560" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1560" s="1" t="s">
         <v>1562</v>
       </c>
@@ -67481,8 +67640,9 @@
       <c r="J1560" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1561" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1560" s="12"/>
+    </row>
+    <row r="1561" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1561" s="1" t="s">
         <v>171</v>
       </c>
@@ -67511,8 +67671,9 @@
       <c r="J1561" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1562" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1561" s="12"/>
+    </row>
+    <row r="1562" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1562" s="1" t="s">
         <v>166</v>
       </c>
@@ -67541,8 +67702,9 @@
       <c r="J1562" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1563" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1562" s="12"/>
+    </row>
+    <row r="1563" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1563" s="1" t="s">
         <v>538</v>
       </c>
@@ -67571,8 +67733,9 @@
       <c r="J1563" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1564" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1563" s="12"/>
+    </row>
+    <row r="1564" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1564" s="1" t="s">
         <v>1607</v>
       </c>
@@ -67601,8 +67764,9 @@
       <c r="J1564" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1565" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1564" s="12"/>
+    </row>
+    <row r="1565" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1565" s="1" t="s">
         <v>908</v>
       </c>
@@ -67631,8 +67795,9 @@
       <c r="J1565" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1566" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1565" s="12"/>
+    </row>
+    <row r="1566" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1566" s="1" t="s">
         <v>0</v>
       </c>
@@ -67661,8 +67826,9 @@
       <c r="J1566" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1567" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1566" s="12"/>
+    </row>
+    <row r="1567" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1567" s="1" t="s">
         <v>366</v>
       </c>
@@ -67691,8 +67857,9 @@
       <c r="J1567" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1568" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1567" s="12"/>
+    </row>
+    <row r="1568" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1568" s="1" t="s">
         <v>27</v>
       </c>
@@ -67721,8 +67888,9 @@
       <c r="J1568" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1569" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1568" s="12"/>
+    </row>
+    <row r="1569" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1569" s="1" t="s">
         <v>810</v>
       </c>
@@ -67751,8 +67919,9 @@
       <c r="J1569" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1570" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1569" s="12"/>
+    </row>
+    <row r="1570" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1570" s="1" t="s">
         <v>76</v>
       </c>
@@ -67781,8 +67950,9 @@
       <c r="J1570" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1571" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1570" s="12"/>
+    </row>
+    <row r="1571" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1571" s="1" t="s">
         <v>51</v>
       </c>
@@ -67811,8 +67981,9 @@
       <c r="J1571" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1572" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1571" s="12"/>
+    </row>
+    <row r="1572" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1572" s="1" t="s">
         <v>5207</v>
       </c>
@@ -67841,8 +68012,9 @@
       <c r="J1572" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1573" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1572" s="12"/>
+    </row>
+    <row r="1573" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1573" s="1" t="s">
         <v>186</v>
       </c>
@@ -67871,8 +68043,9 @@
       <c r="J1573" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1574" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1573" s="12"/>
+    </row>
+    <row r="1574" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1574" s="1" t="s">
         <v>533</v>
       </c>
@@ -67901,8 +68074,9 @@
       <c r="J1574" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1575" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1574" s="12"/>
+    </row>
+    <row r="1575" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1575" s="1" t="s">
         <v>152</v>
       </c>
@@ -67931,8 +68105,9 @@
       <c r="J1575" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1576" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1575" s="12"/>
+    </row>
+    <row r="1576" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1576" s="1" t="s">
         <v>2508</v>
       </c>
@@ -67961,8 +68136,9 @@
       <c r="J1576" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1577" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1576" s="12"/>
+    </row>
+    <row r="1577" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1577" s="1" t="s">
         <v>2574</v>
       </c>
@@ -67991,8 +68167,9 @@
       <c r="J1577" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1578" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1577" s="12"/>
+    </row>
+    <row r="1578" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1578" s="1" t="s">
         <v>3105</v>
       </c>
@@ -68021,8 +68198,9 @@
       <c r="J1578" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1579" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1578" s="12"/>
+    </row>
+    <row r="1579" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1579" s="1" t="s">
         <v>401</v>
       </c>
@@ -68051,8 +68229,9 @@
       <c r="J1579" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1580" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1579" s="12"/>
+    </row>
+    <row r="1580" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1580" s="1" t="s">
         <v>304</v>
       </c>
@@ -68081,8 +68260,9 @@
       <c r="J1580" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1581" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1580" s="12"/>
+    </row>
+    <row r="1581" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1581" s="1" t="s">
         <v>1184</v>
       </c>
@@ -68111,8 +68291,9 @@
       <c r="J1581" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1582" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1581" s="12"/>
+    </row>
+    <row r="1582" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1582" s="1" t="s">
         <v>908</v>
       </c>
@@ -68141,8 +68322,9 @@
       <c r="J1582" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1583" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1582" s="12"/>
+    </row>
+    <row r="1583" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1583" s="1" t="s">
         <v>857</v>
       </c>
@@ -68171,8 +68353,9 @@
       <c r="J1583" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1584" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1583" s="12"/>
+    </row>
+    <row r="1584" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1584" s="1" t="s">
         <v>1915</v>
       </c>
@@ -68201,8 +68384,9 @@
       <c r="J1584" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1585" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1584" s="12"/>
+    </row>
+    <row r="1585" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1585" s="1" t="s">
         <v>262</v>
       </c>
@@ -68231,8 +68415,9 @@
       <c r="J1585" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1586" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1585" s="12"/>
+    </row>
+    <row r="1586" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1586" s="1" t="s">
         <v>27</v>
       </c>
@@ -68261,8 +68446,9 @@
       <c r="J1586" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1587" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1586" s="12"/>
+    </row>
+    <row r="1587" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1587" s="1" t="s">
         <v>186</v>
       </c>
@@ -68293,8 +68479,9 @@
       <c r="J1587" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1588" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1587" s="12"/>
+    </row>
+    <row r="1588" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1588" s="1" t="s">
         <v>538</v>
       </c>
@@ -68325,8 +68512,9 @@
       <c r="J1588" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1589" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1588" s="12"/>
+    </row>
+    <row r="1589" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1589" s="1" t="s">
         <v>81</v>
       </c>
@@ -68355,8 +68543,9 @@
       <c r="J1589" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1590" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1589" s="12"/>
+    </row>
+    <row r="1590" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1590" s="1" t="s">
         <v>41</v>
       </c>
@@ -68385,8 +68574,9 @@
       <c r="J1590" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1591" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1590" s="12"/>
+    </row>
+    <row r="1591" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1591" s="1" t="s">
         <v>27</v>
       </c>
@@ -68415,8 +68605,9 @@
       <c r="J1591" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1592" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1591" s="12"/>
+    </row>
+    <row r="1592" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1592" s="1" t="s">
         <v>1125</v>
       </c>
@@ -68445,8 +68636,9 @@
       <c r="J1592" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1593" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1592" s="12"/>
+    </row>
+    <row r="1593" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1593" s="1" t="s">
         <v>5262</v>
       </c>
@@ -68475,8 +68667,9 @@
       <c r="J1593" s="1" t="s">
         <v>5259</v>
       </c>
-    </row>
-    <row r="1594" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1593" s="12"/>
+    </row>
+    <row r="1594" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1594" s="1" t="s">
         <v>3981</v>
       </c>
@@ -68505,8 +68698,9 @@
       <c r="J1594" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1595" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1594" s="12"/>
+    </row>
+    <row r="1595" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1595" s="1" t="s">
         <v>401</v>
       </c>
@@ -68537,8 +68731,9 @@
       <c r="J1595" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1596" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1595" s="12"/>
+    </row>
+    <row r="1596" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1596" s="1" t="s">
         <v>27</v>
       </c>
@@ -68569,8 +68764,9 @@
       <c r="J1596" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1597" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1596" s="12"/>
+    </row>
+    <row r="1597" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1597" s="1" t="s">
         <v>41</v>
       </c>
@@ -68599,8 +68795,9 @@
       <c r="J1597" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1598" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1597" s="12"/>
+    </row>
+    <row r="1598" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1598" s="1" t="s">
         <v>0</v>
       </c>
@@ -68629,8 +68826,9 @@
       <c r="J1598" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1599" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1598" s="12"/>
+    </row>
+    <row r="1599" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1599" s="1" t="s">
         <v>775</v>
       </c>
@@ -68659,8 +68857,9 @@
       <c r="J1599" s="1" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="1600" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1599" s="12"/>
+    </row>
+    <row r="1600" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1600" s="1" t="s">
         <v>1985</v>
       </c>
@@ -68689,8 +68888,9 @@
       <c r="J1600" s="1" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="1601" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1600" s="12"/>
+    </row>
+    <row r="1601" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1601" s="1" t="s">
         <v>878</v>
       </c>
@@ -68719,8 +68919,9 @@
       <c r="J1601" s="1" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="1602" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1601" s="12"/>
+    </row>
+    <row r="1602" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1602" s="1" t="s">
         <v>197</v>
       </c>
@@ -68749,8 +68950,9 @@
       <c r="J1602" s="1" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="1603" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1602" s="12"/>
+    </row>
+    <row r="1603" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1603" s="1" t="s">
         <v>27</v>
       </c>
@@ -68779,8 +68981,9 @@
       <c r="J1603" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1604" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1603" s="12"/>
+    </row>
+    <row r="1604" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1604" s="1" t="s">
         <v>4444</v>
       </c>
@@ -68809,8 +69012,9 @@
       <c r="J1604" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1605" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1604" s="12"/>
+    </row>
+    <row r="1605" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1605" s="1" t="s">
         <v>4521</v>
       </c>
@@ -68839,8 +69043,9 @@
       <c r="J1605" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1606" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1605" s="12"/>
+    </row>
+    <row r="1606" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1606" s="1" t="s">
         <v>1276</v>
       </c>
@@ -68869,8 +69074,9 @@
       <c r="J1606" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1607" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1606" s="12"/>
+    </row>
+    <row r="1607" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1607" s="1" t="s">
         <v>3063</v>
       </c>
@@ -68899,8 +69105,9 @@
       <c r="J1607" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1608" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1607" s="12"/>
+    </row>
+    <row r="1608" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1608" s="1" t="s">
         <v>676</v>
       </c>
@@ -68931,8 +69138,9 @@
       <c r="J1608" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1609" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1608" s="12"/>
+    </row>
+    <row r="1609" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1609" s="1" t="s">
         <v>110</v>
       </c>
@@ -68961,8 +69169,9 @@
       <c r="J1609" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1610" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1609" s="12"/>
+    </row>
+    <row r="1610" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1610" s="1" t="s">
         <v>473</v>
       </c>
@@ -68991,8 +69200,9 @@
       <c r="J1610" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1611" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1610" s="12"/>
+    </row>
+    <row r="1611" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1611" s="1" t="s">
         <v>125</v>
       </c>
@@ -69021,8 +69231,9 @@
       <c r="J1611" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1612" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1611" s="12"/>
+    </row>
+    <row r="1612" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1612" s="1" t="s">
         <v>5314</v>
       </c>
@@ -69053,8 +69264,9 @@
       <c r="J1612" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1613" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1612" s="12"/>
+    </row>
+    <row r="1613" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1613" s="1" t="s">
         <v>994</v>
       </c>
@@ -69083,8 +69295,9 @@
       <c r="J1613" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1614" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1613" s="12"/>
+    </row>
+    <row r="1614" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1614" s="1" t="s">
         <v>994</v>
       </c>
@@ -69113,8 +69326,9 @@
       <c r="J1614" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1615" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1614" s="12"/>
+    </row>
+    <row r="1615" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1615" s="1" t="s">
         <v>0</v>
       </c>
@@ -69143,8 +69357,9 @@
       <c r="J1615" s="1" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="1616" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1615" s="12"/>
+    </row>
+    <row r="1616" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1616" s="1" t="s">
         <v>1330</v>
       </c>
@@ -69173,8 +69388,9 @@
       <c r="J1616" s="1" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="1617" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1616" s="12"/>
+    </row>
+    <row r="1617" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1617" s="1" t="s">
         <v>1744</v>
       </c>
@@ -69203,8 +69419,9 @@
       <c r="J1617" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1618" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1617" s="12"/>
+    </row>
+    <row r="1618" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1618" s="1" t="s">
         <v>46</v>
       </c>
@@ -69235,8 +69452,9 @@
       <c r="J1618" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1619" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1618" s="12"/>
+    </row>
+    <row r="1619" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1619" s="1" t="s">
         <v>27</v>
       </c>
@@ -69267,8 +69485,9 @@
       <c r="J1619" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1620" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1619" s="12"/>
+    </row>
+    <row r="1620" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1620" s="1" t="s">
         <v>21</v>
       </c>
@@ -69299,8 +69518,9 @@
       <c r="J1620" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1621" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1620" s="12"/>
+    </row>
+    <row r="1621" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1621" s="1" t="s">
         <v>46</v>
       </c>
@@ -69329,8 +69549,9 @@
       <c r="J1621" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1622" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1621" s="12"/>
+    </row>
+    <row r="1622" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1622" s="1" t="s">
         <v>649</v>
       </c>
@@ -69359,8 +69580,9 @@
       <c r="J1622" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1623" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1622" s="12"/>
+    </row>
+    <row r="1623" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1623" s="1" t="s">
         <v>473</v>
       </c>
@@ -69389,8 +69611,9 @@
       <c r="J1623" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1624" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1623" s="12"/>
+    </row>
+    <row r="1624" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1624" s="1" t="s">
         <v>5344</v>
       </c>
@@ -69419,8 +69642,9 @@
       <c r="J1624" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1625" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1624" s="12"/>
+    </row>
+    <row r="1625" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1625" s="1" t="s">
         <v>27</v>
       </c>
@@ -69449,8 +69673,9 @@
       <c r="J1625" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1626" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1625" s="12"/>
+    </row>
+    <row r="1626" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1626" s="1" t="s">
         <v>5349</v>
       </c>
@@ -69481,8 +69706,9 @@
       <c r="J1626" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1627" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1626" s="12"/>
+    </row>
+    <row r="1627" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1627" s="1" t="s">
         <v>247</v>
       </c>
@@ -69513,8 +69739,9 @@
       <c r="J1627" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1628" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1627" s="12"/>
+    </row>
+    <row r="1628" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1628" s="1" t="s">
         <v>0</v>
       </c>
@@ -69543,8 +69770,9 @@
       <c r="J1628" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1629" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1628" s="12"/>
+    </row>
+    <row r="1629" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1629" s="1" t="s">
         <v>473</v>
       </c>
@@ -69573,8 +69801,9 @@
       <c r="J1629" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1630" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1629" s="12"/>
+    </row>
+    <row r="1630" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1630" s="1" t="s">
         <v>27</v>
       </c>
@@ -69603,8 +69832,9 @@
       <c r="J1630" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1631" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1630" s="12"/>
+    </row>
+    <row r="1631" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1631" s="1" t="s">
         <v>27</v>
       </c>
@@ -69633,8 +69863,9 @@
       <c r="J1631" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1632" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1631" s="12"/>
+    </row>
+    <row r="1632" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1632" s="1" t="s">
         <v>27</v>
       </c>
@@ -69663,8 +69894,9 @@
       <c r="J1632" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1633" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1632" s="12"/>
+    </row>
+    <row r="1633" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1633" s="1" t="s">
         <v>46</v>
       </c>
@@ -69693,8 +69925,9 @@
       <c r="J1633" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1634" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1633" s="12"/>
+    </row>
+    <row r="1634" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1634" s="1" t="s">
         <v>316</v>
       </c>
@@ -69723,8 +69956,9 @@
       <c r="J1634" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1635" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1634" s="12"/>
+    </row>
+    <row r="1635" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1635" s="1" t="s">
         <v>171</v>
       </c>
@@ -69753,8 +69987,9 @@
       <c r="J1635" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1636" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1635" s="12"/>
+    </row>
+    <row r="1636" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1636" s="1" t="s">
         <v>27</v>
       </c>
@@ -69783,8 +70018,9 @@
       <c r="J1636" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1637" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1636" s="12"/>
+    </row>
+    <row r="1637" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1637" s="1" t="s">
         <v>0</v>
       </c>
@@ -69813,8 +70049,9 @@
       <c r="J1637" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1638" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1637" s="12"/>
+    </row>
+    <row r="1638" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1638" s="1" t="s">
         <v>27</v>
       </c>
@@ -69843,8 +70080,9 @@
       <c r="J1638" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1639" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1638" s="12"/>
+    </row>
+    <row r="1639" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1639" s="1" t="s">
         <v>887</v>
       </c>
@@ -69873,8 +70111,9 @@
       <c r="J1639" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1640" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1639" s="12"/>
+    </row>
+    <row r="1640" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1640" s="1" t="s">
         <v>1741</v>
       </c>
@@ -69903,8 +70142,9 @@
       <c r="J1640" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="1641" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1640" s="12"/>
+    </row>
+    <row r="1641" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1641" s="1" t="s">
         <v>41</v>
       </c>
@@ -69933,6 +70173,7 @@
       <c r="J1641" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1641" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14184" uniqueCount="5369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14184" uniqueCount="5368">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -15901,9 +15901,6 @@
   </si>
   <si>
     <t>THE GREEN CLOUD CANNABIS</t>
-  </si>
-  <si>
-    <t>['In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
   </si>
   <si>
     <t>102 MAIN ST E UNIT B</t>
@@ -16691,8 +16688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1605" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1634" sqref="L1634"/>
+    <sheetView tabSelected="1" topLeftCell="A1345" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1190" sqref="H1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55869,7 +55866,7 @@
         <v>4154</v>
       </c>
       <c r="H1186" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1186" s="1">
         <v>17056392727</v>
@@ -64553,7 +64550,7 @@
       </c>
       <c r="G1461" s="36"/>
       <c r="H1461" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1461" s="1">
         <v>14166585888</v>
@@ -64584,7 +64581,7 @@
       </c>
       <c r="G1462" s="36"/>
       <c r="H1462" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1462" s="1">
         <v>12897997928</v>
@@ -64615,7 +64612,7 @@
       </c>
       <c r="G1463" s="36"/>
       <c r="H1463" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1463" s="1" t="s">
         <v>3539</v>
@@ -65299,7 +65296,7 @@
       </c>
       <c r="G1485" s="36"/>
       <c r="H1485" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1485" s="1">
         <v>12892742900</v>
@@ -65330,7 +65327,7 @@
       </c>
       <c r="G1486" s="36"/>
       <c r="H1486" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1486" s="1">
         <v>16473744321</v>
@@ -65485,7 +65482,7 @@
       </c>
       <c r="G1491" s="36"/>
       <c r="H1491" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1491" s="1">
         <v>16473745410</v>
@@ -65768,7 +65765,7 @@
       </c>
       <c r="G1500" s="36"/>
       <c r="H1500" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1500" s="1">
         <v>12892963780</v>
@@ -65799,7 +65796,7 @@
       </c>
       <c r="G1501" s="36"/>
       <c r="H1501" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1501" s="1">
         <v>12892963780</v>
@@ -65858,7 +65855,7 @@
       </c>
       <c r="G1503" s="36"/>
       <c r="H1503" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1503" s="1">
         <v>16134216788</v>
@@ -65889,7 +65886,7 @@
       </c>
       <c r="G1504" s="36"/>
       <c r="H1504" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1504" s="1">
         <v>16134216788</v>
@@ -65920,7 +65917,7 @@
       </c>
       <c r="G1505" s="36"/>
       <c r="H1505" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1505" s="1">
         <v>12896608100</v>
@@ -66044,7 +66041,7 @@
       </c>
       <c r="G1509" s="36"/>
       <c r="H1509" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1509" s="1">
         <v>18076989420</v>
@@ -66758,7 +66755,7 @@
         <v>5099</v>
       </c>
       <c r="H1532" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1532" s="1">
         <v>14162211661</v>
@@ -66851,7 +66848,7 @@
       </c>
       <c r="G1535" s="36"/>
       <c r="H1535" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1535" s="1">
         <v>12892962919</v>
@@ -67039,7 +67036,7 @@
         <v>5121</v>
       </c>
       <c r="H1541" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1541" s="1">
         <v>17052222420</v>
@@ -67132,7 +67129,7 @@
       </c>
       <c r="G1544" s="36"/>
       <c r="H1544" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1544" s="1">
         <v>16472822420</v>
@@ -67198,7 +67195,7 @@
         <v>5137</v>
       </c>
       <c r="H1546" s="1" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="I1546" s="1">
         <v>17784750576</v>
@@ -67260,7 +67257,7 @@
       </c>
       <c r="G1548" s="36"/>
       <c r="H1548" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1548" s="1">
         <v>19054274716</v>
@@ -68128,7 +68125,7 @@
       </c>
       <c r="G1576" s="36"/>
       <c r="H1576" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I1576" s="1">
         <v>14166635683</v>
@@ -68221,7 +68218,7 @@
       </c>
       <c r="G1579" s="36"/>
       <c r="H1579" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I1579" s="1">
         <v>18074750553</v>
@@ -68690,7 +68687,7 @@
       </c>
       <c r="G1594" s="36"/>
       <c r="H1594" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1594" s="1">
         <v>17058870222</v>
@@ -68787,7 +68784,7 @@
       </c>
       <c r="G1597" s="36"/>
       <c r="H1597" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1597" s="1">
         <v>14162857768</v>
@@ -68942,7 +68939,7 @@
       </c>
       <c r="G1602" s="36"/>
       <c r="H1602" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I1602" s="1">
         <v>12894821300</v>
@@ -68973,7 +68970,7 @@
       </c>
       <c r="G1603" s="36"/>
       <c r="H1603" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1603" s="1">
         <v>16473499333</v>
@@ -69081,10 +69078,10 @@
         <v>3063</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="C1607" s="1" t="s">
-        <v>5296</v>
+        <v>5295</v>
       </c>
       <c r="D1607" s="1" t="s">
         <v>3</v>
@@ -69097,7 +69094,7 @@
       </c>
       <c r="G1607" s="36"/>
       <c r="H1607" s="1" t="s">
-        <v>5295</v>
+        <v>40</v>
       </c>
       <c r="I1607" s="1">
         <v>15192919980</v>
@@ -69112,22 +69109,22 @@
         <v>676</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C1608" s="1" t="s">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="D1608" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1608" s="29" t="s">
-        <v>5299</v>
+        <v>5298</v>
       </c>
       <c r="F1608" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1608" s="37" t="s">
-        <v>5298</v>
+        <v>5297</v>
       </c>
       <c r="H1608" s="1" t="s">
         <v>7</v>
@@ -69145,16 +69142,16 @@
         <v>110</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="C1609" s="1" t="s">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="D1609" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1609" s="29" t="s">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="F1609" s="6" t="s">
         <v>560</v>
@@ -69176,23 +69173,23 @@
         <v>473</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
       <c r="C1610" s="1" t="s">
-        <v>5306</v>
+        <v>5305</v>
       </c>
       <c r="D1610" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1610" s="29" t="s">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="F1610" s="6" t="s">
         <v>1650</v>
       </c>
       <c r="G1610" s="36"/>
       <c r="H1610" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1610" s="1">
         <v>19052303673</v>
@@ -69207,23 +69204,23 @@
         <v>125</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="C1611" s="1" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="D1611" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1611" s="29" t="s">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="F1611" s="6" t="s">
         <v>1650</v>
       </c>
       <c r="G1611" s="36"/>
       <c r="H1611" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1611" s="1">
         <v>15192658768</v>
@@ -69235,25 +69232,25 @@
     </row>
     <row r="1612" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1612" s="1" t="s">
-        <v>5314</v>
+        <v>5313</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="C1612" s="1" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="D1612" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1612" s="29" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="F1612" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1612" s="36" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="H1612" s="1" t="s">
         <v>40</v>
@@ -69271,23 +69268,23 @@
         <v>994</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>5317</v>
+        <v>5316</v>
       </c>
       <c r="C1613" s="1" t="s">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="D1613" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1613" s="29" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="F1613" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="G1613" s="36"/>
       <c r="H1613" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1613" s="1">
         <v>16133089464</v>
@@ -69302,23 +69299,23 @@
         <v>994</v>
       </c>
       <c r="B1614" s="1" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C1614" s="1" t="s">
         <v>5317</v>
       </c>
-      <c r="C1614" s="1" t="s">
-        <v>5318</v>
-      </c>
       <c r="D1614" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1614" s="29" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="F1614" s="6" t="s">
         <v>560</v>
       </c>
       <c r="G1614" s="36"/>
       <c r="H1614" s="1" t="s">
-        <v>334</v>
+        <v>26</v>
       </c>
       <c r="I1614" s="1">
         <v>16133089464</v>
@@ -69333,16 +69330,16 @@
         <v>0</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="C1615" s="1" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="D1615" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1615" s="29" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="F1615" s="6" t="s">
         <v>560</v>
@@ -69367,13 +69364,13 @@
         <v>655</v>
       </c>
       <c r="C1616" s="1" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="D1616" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1616" s="29" t="s">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="F1616" s="6" t="s">
         <v>560</v>
@@ -69395,10 +69392,10 @@
         <v>1744</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="C1617" s="1" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="D1617" s="1" t="s">
         <v>141</v>
@@ -69426,22 +69423,22 @@
         <v>46</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="C1618" s="1" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="D1618" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1618" s="29" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="F1618" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1618" s="37" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="H1618" s="1" t="s">
         <v>14</v>
@@ -69459,25 +69456,25 @@
         <v>27</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="C1619" s="1" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="D1619" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1619" s="29" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="F1619" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1619" s="37" t="s">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="H1619" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I1619" s="1">
         <v>14378804565</v>
@@ -69492,22 +69489,22 @@
         <v>21</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="C1620" s="1" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="D1620" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1620" s="29" t="s">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="F1620" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1620" s="37" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="H1620" s="1" t="s">
         <v>40</v>
@@ -69525,16 +69522,16 @@
         <v>46</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
       <c r="C1621" s="1" t="s">
-        <v>5339</v>
+        <v>5338</v>
       </c>
       <c r="D1621" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1621" s="29" t="s">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="F1621" s="6" t="s">
         <v>560</v>
@@ -69559,7 +69556,7 @@
         <v>1429</v>
       </c>
       <c r="C1622" s="1" t="s">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="D1622" s="1" t="s">
         <v>3</v>
@@ -69590,7 +69587,7 @@
         <v>1429</v>
       </c>
       <c r="C1623" s="1" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="D1623" s="1" t="s">
         <v>3</v>
@@ -69615,13 +69612,13 @@
     </row>
     <row r="1624" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1624" s="1" t="s">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="B1624" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="C1624" s="1" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="D1624" s="1" t="s">
         <v>3</v>
@@ -69652,7 +69649,7 @@
         <v>1429</v>
       </c>
       <c r="C1625" s="1" t="s">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="D1625" s="1" t="s">
         <v>3</v>
@@ -69677,25 +69674,25 @@
     </row>
     <row r="1626" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1626" s="1" t="s">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="C1626" s="1" t="s">
-        <v>5348</v>
+        <v>5347</v>
       </c>
       <c r="D1626" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1626" s="29" t="s">
-        <v>5347</v>
+        <v>5346</v>
       </c>
       <c r="F1626" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1626" s="37" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="H1626" s="1" t="s">
         <v>14</v>
@@ -69713,22 +69710,22 @@
         <v>247</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="C1627" s="1" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="D1627" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1627" s="29" t="s">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="F1627" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1627" s="37" t="s">
-        <v>5350</v>
+        <v>5349</v>
       </c>
       <c r="H1627" s="1" t="s">
         <v>40</v>
@@ -69746,10 +69743,10 @@
         <v>0</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>5354</v>
+        <v>5353</v>
       </c>
       <c r="C1628" s="1" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="D1628" s="1" t="s">
         <v>3</v>
@@ -69777,10 +69774,10 @@
         <v>473</v>
       </c>
       <c r="B1629" s="1" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C1629" s="1" t="s">
         <v>5354</v>
-      </c>
-      <c r="C1629" s="1" t="s">
-        <v>5355</v>
       </c>
       <c r="D1629" s="1" t="s">
         <v>3</v>
@@ -69811,7 +69808,7 @@
         <v>1429</v>
       </c>
       <c r="C1630" s="1" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="D1630" s="1" t="s">
         <v>3</v>
@@ -69842,7 +69839,7 @@
         <v>1429</v>
       </c>
       <c r="C1631" s="1" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="D1631" s="1" t="s">
         <v>3</v>
@@ -69873,7 +69870,7 @@
         <v>1429</v>
       </c>
       <c r="C1632" s="1" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="D1632" s="1" t="s">
         <v>3</v>
@@ -69886,7 +69883,7 @@
       </c>
       <c r="G1632" s="36"/>
       <c r="H1632" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I1632" s="1">
         <v>14163642321</v>
@@ -69904,7 +69901,7 @@
         <v>1429</v>
       </c>
       <c r="C1633" s="1" t="s">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="D1633" s="1" t="s">
         <v>3</v>
@@ -69935,7 +69932,7 @@
         <v>1429</v>
       </c>
       <c r="C1634" s="1" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="D1634" s="1" t="s">
         <v>3</v>
@@ -69966,7 +69963,7 @@
         <v>1429</v>
       </c>
       <c r="C1635" s="1" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="D1635" s="1" t="s">
         <v>3</v>
@@ -69997,13 +69994,13 @@
         <v>1429</v>
       </c>
       <c r="C1636" s="1" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="D1636" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1636" s="29" t="s">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="F1636" s="6" t="s">
         <v>4108</v>
@@ -70028,7 +70025,7 @@
         <v>1429</v>
       </c>
       <c r="C1637" s="1" t="s">
-        <v>5364</v>
+        <v>5363</v>
       </c>
       <c r="D1637" s="1" t="s">
         <v>3</v>
@@ -70059,7 +70056,7 @@
         <v>1429</v>
       </c>
       <c r="C1638" s="1" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="D1638" s="1" t="s">
         <v>3</v>
@@ -70090,7 +70087,7 @@
         <v>1429</v>
       </c>
       <c r="C1639" s="1" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="D1639" s="1" t="s">
         <v>3</v>
@@ -70121,7 +70118,7 @@
         <v>1429</v>
       </c>
       <c r="C1640" s="1" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="D1640" s="1" t="s">
         <v>3</v>
@@ -70152,7 +70149,7 @@
         <v>1429</v>
       </c>
       <c r="C1641" s="1" t="s">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="D1641" s="1" t="s">
         <v>3</v>

--- a/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
+++ b/platform_scrapper/CANNABIS_RESULTS/found_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14184" uniqueCount="5368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14481" uniqueCount="5480">
   <si>
     <t>BURLINGTON</t>
   </si>
@@ -16120,13 +16120,349 @@
   </si>
   <si>
     <t>2546 FINCH AVE W SUITE 12</t>
+  </si>
+  <si>
+    <t>60a68d90962cb500b4e79570</t>
+  </si>
+  <si>
+    <t>https://www.budget-bud.com/oshawa</t>
+  </si>
+  <si>
+    <t>650 KING ST E UNIT 7</t>
+  </si>
+  <si>
+    <t>BUDGET BUD OSHAWA</t>
+  </si>
+  <si>
+    <t>['Curbside pickup', 'In-store pickup', 'Delivery', 'In-store shopping']</t>
+  </si>
+  <si>
+    <t>64aebb45da7bd50009be944c</t>
+  </si>
+  <si>
+    <t>https://cannabishut.ca/missisauga-store/</t>
+  </si>
+  <si>
+    <t>6 HELENE ST N</t>
+  </si>
+  <si>
+    <t>61cc0dad0524d00085920bcb</t>
+  </si>
+  <si>
+    <t>https://cannabislinkinc.com/</t>
+  </si>
+  <si>
+    <t>1149 WESTERN RD UNIT 2</t>
+  </si>
+  <si>
+    <t>Cannabis Link Express</t>
+  </si>
+  <si>
+    <t>611d695a73a47700c4b6187f</t>
+  </si>
+  <si>
+    <t>https://cannabisplusstore.com/cannabis-plus-store-north/?</t>
+  </si>
+  <si>
+    <t>89 CUMBERLAND ST N</t>
+  </si>
+  <si>
+    <t>5f775c2dfd3fa200b1e438db</t>
+  </si>
+  <si>
+    <t>https://www.shopcannabuds.ca/?utm_source=GMB_listing&amp;utm_medium=gmb_organic&amp;utm_campaign=gmb</t>
+  </si>
+  <si>
+    <t>2776 KENNEDY RD</t>
+  </si>
+  <si>
+    <t>Cannabuds</t>
+  </si>
+  <si>
+    <t>jxiwEsC3XQjNzcxER</t>
+  </si>
+  <si>
+    <t>https://www.canvascannabis.ca/</t>
+  </si>
+  <si>
+    <t>730 DANFORTH AVE SUITE 1</t>
+  </si>
+  <si>
+    <t>5ee12eaaf0a44000a8b16230</t>
+  </si>
+  <si>
+    <t>https://www.chrontact.ca/online/</t>
+  </si>
+  <si>
+    <t>2280 CARLING AVE SUITE 1</t>
+  </si>
+  <si>
+    <t>CHRONTACT CANNABIS</t>
+  </si>
+  <si>
+    <t>5f7de6b5ab0123624b8491e8</t>
+  </si>
+  <si>
+    <t>https://www.cculture.ca/</t>
+  </si>
+  <si>
+    <t>30 MAIN ST E SUITE 88</t>
+  </si>
+  <si>
+    <t>CONNOISSEUR CULTURE</t>
+  </si>
+  <si>
+    <t>5fe0fd5e96c1ca010857fdb4</t>
+  </si>
+  <si>
+    <t>https://cosmiccharlies.ca/</t>
+  </si>
+  <si>
+    <t>821 QUEEN ST W</t>
+  </si>
+  <si>
+    <t>Cosmic Charlie's</t>
+  </si>
+  <si>
+    <t>65032c2ae694010009fb5c8e</t>
+  </si>
+  <si>
+    <t>https://www.fogtown.ca/</t>
+  </si>
+  <si>
+    <t>640 FINCH AVE E</t>
+  </si>
+  <si>
+    <t>5f7df2011a97d600d8873ace</t>
+  </si>
+  <si>
+    <t>https://www.foreverbuds.ca/shop?utm_source=googlebusiness&amp;utm_medium=googlebusiness&amp;utm_campaign=google_business</t>
+  </si>
+  <si>
+    <t>722 COLLEGE ST UNIT 1</t>
+  </si>
+  <si>
+    <t>FOREVER BUDS</t>
+  </si>
+  <si>
+    <t>5e701ed026ff3800748357eb</t>
+  </si>
+  <si>
+    <t>https://www.havoksmoke.com/</t>
+  </si>
+  <si>
+    <t>38 WELLINGTON ST E SUITE 1</t>
+  </si>
+  <si>
+    <t>HAVOK SMOKE CANNABIS &amp; ACCESSORIES</t>
+  </si>
+  <si>
+    <t>5fb803cbe901b800fa7a53fd</t>
+  </si>
+  <si>
+    <t>1 WEXFORD RD UNIT 4</t>
+  </si>
+  <si>
+    <t>5f0757211c81fe01464d8579</t>
+  </si>
+  <si>
+    <t>https://www.highlandonhighland.com/</t>
+  </si>
+  <si>
+    <t>370 HIGHLAND RD W UNIT 15B</t>
+  </si>
+  <si>
+    <t>HIGHLAND CANNABIS</t>
+  </si>
+  <si>
+    <t>654ba44df4b4990009c07623</t>
+  </si>
+  <si>
+    <t>25 OXFORD ST W UNIT 109</t>
+  </si>
+  <si>
+    <t>Holy Cannabis</t>
+  </si>
+  <si>
+    <t>614b4cd7e962db00a26ccdd5</t>
+  </si>
+  <si>
+    <t>1080 ADELAIDE ST N SUITE 9</t>
+  </si>
+  <si>
+    <t>61d388f64fbadf009e85380b</t>
+  </si>
+  <si>
+    <t>https://www.kanaleaf.ca/</t>
+  </si>
+  <si>
+    <t>418 RICHMOND RD</t>
+  </si>
+  <si>
+    <t>KANA LEAF CANNABIS</t>
+  </si>
+  <si>
+    <t>60d0bfa2232bdc140491f01c</t>
+  </si>
+  <si>
+    <t>https://www.kraftcannabisguelph.com/</t>
+  </si>
+  <si>
+    <t>666 WOOLWICH ST UNIT 30</t>
+  </si>
+  <si>
+    <t>Kraft Cannabis Company</t>
+  </si>
+  <si>
+    <t>5ed59548fde4e600ea0fddb8</t>
+  </si>
+  <si>
+    <t>809 RIVER DR</t>
+  </si>
+  <si>
+    <t>LAKE OF THE WOODS CANNABIS</t>
+  </si>
+  <si>
+    <t>615b286770901000c513d56f</t>
+  </si>
+  <si>
+    <t>https://www.munchiescannabis.ca/</t>
+  </si>
+  <si>
+    <t>131 BEECHWOOD AVE SUITE B</t>
+  </si>
+  <si>
+    <t>Munchies Cannabis</t>
+  </si>
+  <si>
+    <t>5ed66b84bc9dd401457d8c0e</t>
+  </si>
+  <si>
+    <t>https://www.janescannabis.ca/</t>
+  </si>
+  <si>
+    <t>160 WELLINGTON ST E UNIT 3</t>
+  </si>
+  <si>
+    <t>JANE'S CANNABIS SHOP</t>
+  </si>
+  <si>
+    <t>61eafd02a3b42b00a78d0d7f</t>
+  </si>
+  <si>
+    <t>101 BRIDGE ST</t>
+  </si>
+  <si>
+    <t>Olympia Cannabis</t>
+  </si>
+  <si>
+    <t>655b9911d3836a00094e0641</t>
+  </si>
+  <si>
+    <t>https://www.phoenixcannabis.ca/</t>
+  </si>
+  <si>
+    <t>170 UNIVERSITY AVE W SUITE 27</t>
+  </si>
+  <si>
+    <t>642b2d4592bde2000f7a4648</t>
+  </si>
+  <si>
+    <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+  </si>
+  <si>
+    <t>900 ALBION RD UNIT C24/C25</t>
+  </si>
+  <si>
+    <t>5fdd390c7eda0600cf7b8cbc</t>
+  </si>
+  <si>
+    <t>https://shopsupergas.com/</t>
+  </si>
+  <si>
+    <t>2255 BARTON ST E SUITE 7</t>
+  </si>
+  <si>
+    <t>SUPERGAS CANNABIS</t>
+  </si>
+  <si>
+    <t>5fe124633b1a4f00e6963c17</t>
+  </si>
+  <si>
+    <t>https://tcann.ca/</t>
+  </si>
+  <si>
+    <t>164 RAGLAN ST S</t>
+  </si>
+  <si>
+    <t>T CANNABIS - Renfrew</t>
+  </si>
+  <si>
+    <t>5eb9e3b7a8bcda00e0d61903</t>
+  </si>
+  <si>
+    <t>4 RUSSELL ST E</t>
+  </si>
+  <si>
+    <t>61b6808cc2a6e2009ae30fdc</t>
+  </si>
+  <si>
+    <t>450 TRUDEAU DR UNIT 7/8</t>
+  </si>
+  <si>
+    <t>so8e2iw4NLZDq3EjH</t>
+  </si>
+  <si>
+    <t>2 OSPREY MIIKAN RD</t>
+  </si>
+  <si>
+    <t>Kana Leaf</t>
+  </si>
+  <si>
+    <t>https://www.thewestore.com/</t>
+  </si>
+  <si>
+    <t>4118 WALKER RD</t>
+  </si>
+  <si>
+    <t>5ea6f8d10916f7011ba584bb</t>
+  </si>
+  <si>
+    <t>475 WESTNEY RD N UNIT 13</t>
+  </si>
+  <si>
+    <t>The 6ix Cannabis</t>
+  </si>
+  <si>
+    <t>6244db9060244774646549b6</t>
+  </si>
+  <si>
+    <t>https://www.vipcannabis.ca/</t>
+  </si>
+  <si>
+    <t>29 ELORA ST S</t>
+  </si>
+  <si>
+    <t>HARRISTON</t>
+  </si>
+  <si>
+    <t>651f35a506b7ff0009aaa496</t>
+  </si>
+  <si>
+    <t>https://www.woweeds.ca/lakeshore.html#shop</t>
+  </si>
+  <si>
+    <t>983 LAKESHORE RD E</t>
+  </si>
+  <si>
+    <t>WOW WORLD OF WEED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16238,30 +16574,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -16323,7 +16635,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -16377,12 +16689,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -16686,10 +16994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1641"/>
+  <dimension ref="A1:N1674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1345" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1190" sqref="H1190"/>
+    <sheetView tabSelected="1" topLeftCell="A1647" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1674" sqref="F1674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58212,7 +58520,7 @@
       <c r="J1260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1260" s="33"/>
+      <c r="N1260" s="12"/>
     </row>
     <row r="1261" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1261" s="1" t="s">
@@ -58245,6 +58553,7 @@
       <c r="J1261" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1261" s="12"/>
     </row>
     <row r="1262" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1262" s="1" t="s">
@@ -58277,6 +58586,7 @@
       <c r="J1262" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1262" s="12"/>
     </row>
     <row r="1263" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1263" s="1" t="s">
@@ -58309,6 +58619,7 @@
       <c r="J1263" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N1263" s="12"/>
     </row>
     <row r="1264" spans="1:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1264" s="1" t="s">
@@ -59692,7 +60003,7 @@
       <c r="D1307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1307" s="35" t="s">
+      <c r="E1307" s="34" t="s">
         <v>4515</v>
       </c>
       <c r="F1307" s="6" t="s">
@@ -60409,7 +60720,7 @@
       <c r="I1329" s="1">
         <v>19055458559</v>
       </c>
-      <c r="J1329" s="34" t="s">
+      <c r="J1329" s="33" t="s">
         <v>8</v>
       </c>
       <c r="N1329" s="12"/>
@@ -60440,7 +60751,7 @@
       <c r="I1330" s="1">
         <v>19054532899</v>
       </c>
-      <c r="J1330" s="34" t="s">
+      <c r="J1330" s="33" t="s">
         <v>8</v>
       </c>
       <c r="N1330" s="12"/>
@@ -60471,7 +60782,7 @@
       <c r="I1331" s="1">
         <v>19058649988</v>
       </c>
-      <c r="J1331" s="34" t="s">
+      <c r="J1331" s="33" t="s">
         <v>8</v>
       </c>
       <c r="N1331" s="12"/>
@@ -60502,7 +60813,7 @@
       <c r="I1332" s="1">
         <v>14165335773</v>
       </c>
-      <c r="J1332" s="34" t="s">
+      <c r="J1332" s="33" t="s">
         <v>3478</v>
       </c>
       <c r="N1332" s="12"/>
@@ -60593,7 +60904,7 @@
       <c r="I1335" s="1">
         <v>19056230333</v>
       </c>
-      <c r="J1335" s="34" t="s">
+      <c r="J1335" s="33" t="s">
         <v>8</v>
       </c>
       <c r="N1335" s="12"/>
@@ -61191,7 +61502,7 @@
       <c r="F1354" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1354" s="37" t="s">
+      <c r="G1354" s="18" t="s">
         <v>4665</v>
       </c>
       <c r="H1354" s="1" t="s">
@@ -61224,7 +61535,7 @@
       <c r="F1355" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1355" s="37" t="s">
+      <c r="G1355" s="18" t="s">
         <v>4669</v>
       </c>
       <c r="H1355" s="1" t="s">
@@ -61257,7 +61568,7 @@
       <c r="F1356" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1356" s="37" t="s">
+      <c r="G1356" s="18" t="s">
         <v>4369</v>
       </c>
       <c r="H1356" s="1" t="s">
@@ -61290,7 +61601,7 @@
       <c r="F1357" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1357" s="37" t="s">
+      <c r="G1357" s="18" t="s">
         <v>4673</v>
       </c>
       <c r="H1357" s="1" t="s">
@@ -61323,7 +61634,7 @@
       <c r="F1358" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1358" s="37" t="s">
+      <c r="G1358" s="18" t="s">
         <v>4359</v>
       </c>
       <c r="H1358" s="1" t="s">
@@ -61356,7 +61667,7 @@
       <c r="F1359" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1359" s="37" t="s">
+      <c r="G1359" s="18" t="s">
         <v>4675</v>
       </c>
       <c r="H1359" s="1" t="s">
@@ -61389,7 +61700,7 @@
       <c r="F1360" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1360" s="36" t="s">
+      <c r="G1360" s="17" t="s">
         <v>4366</v>
       </c>
       <c r="H1360" s="1" t="s">
@@ -61422,7 +61733,7 @@
       <c r="F1361" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1361" s="36" t="s">
+      <c r="G1361" s="17" t="s">
         <v>4380</v>
       </c>
       <c r="H1361" s="1" t="s">
@@ -61455,7 +61766,7 @@
       <c r="F1362" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1362" s="37" t="s">
+      <c r="G1362" s="18" t="s">
         <v>4679</v>
       </c>
       <c r="H1362" s="1" t="s">
@@ -61488,7 +61799,7 @@
       <c r="F1363" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1363" s="36" t="s">
+      <c r="G1363" s="17" t="s">
         <v>4683</v>
       </c>
       <c r="H1363" s="1" t="s">
@@ -61521,7 +61832,7 @@
       <c r="F1364" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1364" s="36"/>
+      <c r="G1364" s="17"/>
       <c r="H1364" s="1" t="s">
         <v>989</v>
       </c>
@@ -61552,7 +61863,7 @@
       <c r="F1365" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1365" s="36"/>
+      <c r="G1365" s="17"/>
       <c r="H1365" s="1" t="s">
         <v>7</v>
       </c>
@@ -61583,7 +61894,7 @@
       <c r="F1366" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1366" s="36"/>
+      <c r="G1366" s="17"/>
       <c r="H1366" s="1" t="s">
         <v>26</v>
       </c>
@@ -61614,7 +61925,7 @@
       <c r="F1367" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1367" s="36"/>
+      <c r="G1367" s="17"/>
       <c r="H1367" s="1" t="s">
         <v>989</v>
       </c>
@@ -61645,7 +61956,7 @@
       <c r="F1368" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1368" s="36"/>
+      <c r="G1368" s="17"/>
       <c r="H1368" s="1" t="s">
         <v>26</v>
       </c>
@@ -61676,7 +61987,7 @@
       <c r="F1369" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1369" s="36"/>
+      <c r="G1369" s="17"/>
       <c r="H1369" s="1" t="s">
         <v>119</v>
       </c>
@@ -61707,7 +62018,7 @@
       <c r="F1370" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1370" s="36"/>
+      <c r="G1370" s="17"/>
       <c r="H1370" s="1" t="s">
         <v>26</v>
       </c>
@@ -61736,7 +62047,7 @@
         <v>4701</v>
       </c>
       <c r="F1371" s="6"/>
-      <c r="G1371" s="36"/>
+      <c r="G1371" s="17"/>
       <c r="H1371" s="1" t="s">
         <v>26</v>
       </c>
@@ -61767,7 +62078,7 @@
       <c r="F1372" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1372" s="36"/>
+      <c r="G1372" s="17"/>
       <c r="H1372" s="1" t="s">
         <v>7</v>
       </c>
@@ -61798,7 +62109,7 @@
       <c r="F1373" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1373" s="36"/>
+      <c r="G1373" s="17"/>
       <c r="H1373" s="1" t="s">
         <v>119</v>
       </c>
@@ -61829,7 +62140,7 @@
       <c r="F1374" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1374" s="36"/>
+      <c r="G1374" s="17"/>
       <c r="H1374" s="1" t="s">
         <v>7</v>
       </c>
@@ -61858,7 +62169,7 @@
         <v>4709</v>
       </c>
       <c r="F1375" s="6"/>
-      <c r="G1375" s="36"/>
+      <c r="G1375" s="17"/>
       <c r="H1375" s="1" t="s">
         <v>26</v>
       </c>
@@ -61889,7 +62200,7 @@
       <c r="F1376" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1376" s="36"/>
+      <c r="G1376" s="17"/>
       <c r="H1376" s="1" t="s">
         <v>26</v>
       </c>
@@ -61920,7 +62231,7 @@
       <c r="F1377" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1377" s="36"/>
+      <c r="G1377" s="17"/>
       <c r="H1377" s="1" t="s">
         <v>100</v>
       </c>
@@ -61951,7 +62262,7 @@
       <c r="F1378" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1378" s="36"/>
+      <c r="G1378" s="17"/>
       <c r="H1378" s="1" t="s">
         <v>119</v>
       </c>
@@ -61980,7 +62291,7 @@
         <v>4718</v>
       </c>
       <c r="F1379" s="6"/>
-      <c r="G1379" s="36"/>
+      <c r="G1379" s="17"/>
       <c r="H1379" s="1" t="s">
         <v>26</v>
       </c>
@@ -62011,7 +62322,7 @@
       <c r="F1380" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1380" s="36"/>
+      <c r="G1380" s="17"/>
       <c r="H1380" s="1" t="s">
         <v>7</v>
       </c>
@@ -62042,7 +62353,7 @@
       <c r="F1381" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1381" s="36"/>
+      <c r="G1381" s="17"/>
       <c r="H1381" s="1" t="s">
         <v>26</v>
       </c>
@@ -62073,7 +62384,7 @@
       <c r="F1382" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1382" s="36"/>
+      <c r="G1382" s="17"/>
       <c r="H1382" s="1" t="s">
         <v>26</v>
       </c>
@@ -62104,7 +62415,7 @@
       <c r="F1383" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1383" s="36"/>
+      <c r="G1383" s="17"/>
       <c r="H1383" s="1" t="s">
         <v>26</v>
       </c>
@@ -62135,7 +62446,7 @@
       <c r="F1384" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1384" s="36"/>
+      <c r="G1384" s="17"/>
       <c r="H1384" s="1" t="s">
         <v>26</v>
       </c>
@@ -62166,7 +62477,7 @@
       <c r="F1385" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1385" s="36"/>
+      <c r="G1385" s="17"/>
       <c r="H1385" s="1" t="s">
         <v>26</v>
       </c>
@@ -62197,7 +62508,7 @@
       <c r="F1386" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1386" s="37" t="s">
+      <c r="G1386" s="18" t="s">
         <v>4736</v>
       </c>
       <c r="H1386" s="1" t="s">
@@ -62230,7 +62541,7 @@
       <c r="F1387" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1387" s="37" t="s">
+      <c r="G1387" s="18" t="s">
         <v>4740</v>
       </c>
       <c r="H1387" s="1" t="s">
@@ -62263,7 +62574,7 @@
       <c r="F1388" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1388" s="37" t="s">
+      <c r="G1388" s="18" t="s">
         <v>4743</v>
       </c>
       <c r="H1388" s="1" t="s">
@@ -62296,7 +62607,7 @@
       <c r="F1389" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1389" s="38" t="s">
+      <c r="G1389" s="18" t="s">
         <v>4745</v>
       </c>
       <c r="H1389" s="1" t="s">
@@ -62329,7 +62640,7 @@
       <c r="F1390" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1390" s="38" t="s">
+      <c r="G1390" s="18" t="s">
         <v>4749</v>
       </c>
       <c r="H1390" s="1" t="s">
@@ -62362,7 +62673,7 @@
       <c r="F1391" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1391" s="37" t="s">
+      <c r="G1391" s="18" t="s">
         <v>4752</v>
       </c>
       <c r="H1391" s="1" t="s">
@@ -62395,7 +62706,7 @@
       <c r="F1392" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1392" s="38" t="s">
+      <c r="G1392" s="18" t="s">
         <v>4755</v>
       </c>
       <c r="H1392" s="1" t="s">
@@ -62428,7 +62739,7 @@
       <c r="F1393" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1393" s="36"/>
+      <c r="G1393" s="17"/>
       <c r="H1393" s="1" t="s">
         <v>105</v>
       </c>
@@ -62459,7 +62770,7 @@
       <c r="F1394" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1394" s="36"/>
+      <c r="G1394" s="17"/>
       <c r="H1394" s="1" t="s">
         <v>26</v>
       </c>
@@ -62490,7 +62801,7 @@
       <c r="F1395" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1395" s="36"/>
+      <c r="G1395" s="17"/>
       <c r="H1395" s="1" t="s">
         <v>7</v>
       </c>
@@ -62521,7 +62832,7 @@
       <c r="F1396" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1396" s="36"/>
+      <c r="G1396" s="17"/>
       <c r="H1396" s="1" t="s">
         <v>14</v>
       </c>
@@ -62552,7 +62863,7 @@
       <c r="F1397" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1397" s="36"/>
+      <c r="G1397" s="17"/>
       <c r="H1397" s="1" t="s">
         <v>26</v>
       </c>
@@ -62583,7 +62894,7 @@
       <c r="F1398" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1398" s="36"/>
+      <c r="G1398" s="17"/>
       <c r="H1398" s="1" t="s">
         <v>7</v>
       </c>
@@ -62614,7 +62925,7 @@
       <c r="F1399" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1399" s="36"/>
+      <c r="G1399" s="17"/>
       <c r="H1399" s="1" t="s">
         <v>989</v>
       </c>
@@ -62645,7 +62956,7 @@
       <c r="F1400" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1400" s="36"/>
+      <c r="G1400" s="17"/>
       <c r="H1400" s="1" t="s">
         <v>26</v>
       </c>
@@ -62676,7 +62987,7 @@
       <c r="F1401" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1401" s="36"/>
+      <c r="G1401" s="17"/>
       <c r="H1401" s="1" t="s">
         <v>26</v>
       </c>
@@ -62707,7 +63018,7 @@
       <c r="F1402" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1402" s="37" t="s">
+      <c r="G1402" s="18" t="s">
         <v>4780</v>
       </c>
       <c r="H1402" s="1" t="s">
@@ -62740,7 +63051,7 @@
       <c r="F1403" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1403" s="36"/>
+      <c r="G1403" s="17"/>
       <c r="H1403" s="1" t="s">
         <v>7</v>
       </c>
@@ -62771,7 +63082,7 @@
       <c r="F1404" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1404" s="36"/>
+      <c r="G1404" s="17"/>
       <c r="H1404" s="1" t="s">
         <v>26</v>
       </c>
@@ -62802,7 +63113,7 @@
       <c r="F1405" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1405" s="36"/>
+      <c r="G1405" s="17"/>
       <c r="H1405" s="1" t="s">
         <v>40</v>
       </c>
@@ -62833,7 +63144,7 @@
       <c r="F1406" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1406" s="36"/>
+      <c r="G1406" s="17"/>
       <c r="H1406" s="1" t="s">
         <v>119</v>
       </c>
@@ -62864,7 +63175,7 @@
       <c r="F1407" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1407" s="36"/>
+      <c r="G1407" s="17"/>
       <c r="H1407" s="1" t="s">
         <v>7</v>
       </c>
@@ -62895,7 +63206,7 @@
       <c r="F1408" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1408" s="36"/>
+      <c r="G1408" s="17"/>
       <c r="H1408" s="1" t="s">
         <v>7</v>
       </c>
@@ -62926,7 +63237,7 @@
       <c r="F1409" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1409" s="36"/>
+      <c r="G1409" s="17"/>
       <c r="H1409" s="1" t="s">
         <v>7</v>
       </c>
@@ -62957,7 +63268,7 @@
       <c r="F1410" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1410" s="36"/>
+      <c r="G1410" s="17"/>
       <c r="H1410" s="1" t="s">
         <v>26</v>
       </c>
@@ -62988,7 +63299,7 @@
       <c r="F1411" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1411" s="36"/>
+      <c r="G1411" s="17"/>
       <c r="H1411" s="1" t="s">
         <v>66</v>
       </c>
@@ -63019,7 +63330,7 @@
       <c r="F1412" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1412" s="36"/>
+      <c r="G1412" s="17"/>
       <c r="H1412" s="1" t="s">
         <v>26</v>
       </c>
@@ -63050,7 +63361,7 @@
       <c r="F1413" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1413" s="36"/>
+      <c r="G1413" s="17"/>
       <c r="H1413" s="1" t="s">
         <v>26</v>
       </c>
@@ -63081,7 +63392,7 @@
       <c r="F1414" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1414" s="36"/>
+      <c r="G1414" s="17"/>
       <c r="H1414" s="1" t="s">
         <v>7</v>
       </c>
@@ -63112,7 +63423,7 @@
       <c r="F1415" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1415" s="36"/>
+      <c r="G1415" s="17"/>
       <c r="H1415" s="1" t="s">
         <v>119</v>
       </c>
@@ -63143,7 +63454,7 @@
       <c r="F1416" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1416" s="36"/>
+      <c r="G1416" s="17"/>
       <c r="H1416" s="1" t="s">
         <v>7</v>
       </c>
@@ -63174,7 +63485,7 @@
       <c r="F1417" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1417" s="36"/>
+      <c r="G1417" s="17"/>
       <c r="H1417" s="1" t="s">
         <v>26</v>
       </c>
@@ -63205,7 +63516,7 @@
       <c r="F1418" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1418" s="36"/>
+      <c r="G1418" s="17"/>
       <c r="H1418" s="1" t="s">
         <v>26</v>
       </c>
@@ -63236,7 +63547,7 @@
       <c r="F1419" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1419" s="36"/>
+      <c r="G1419" s="17"/>
       <c r="H1419" s="1" t="s">
         <v>26</v>
       </c>
@@ -63267,7 +63578,7 @@
       <c r="F1420" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1420" s="36"/>
+      <c r="G1420" s="17"/>
       <c r="H1420" s="1" t="s">
         <v>26</v>
       </c>
@@ -63298,7 +63609,7 @@
       <c r="F1421" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1421" s="36"/>
+      <c r="G1421" s="17"/>
       <c r="H1421" s="1" t="s">
         <v>119</v>
       </c>
@@ -63329,7 +63640,7 @@
       <c r="F1422" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1422" s="36"/>
+      <c r="G1422" s="17"/>
       <c r="H1422" s="1" t="s">
         <v>26</v>
       </c>
@@ -63360,7 +63671,7 @@
       <c r="F1423" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1423" s="36"/>
+      <c r="G1423" s="17"/>
       <c r="H1423" s="1" t="s">
         <v>26</v>
       </c>
@@ -63391,7 +63702,7 @@
       <c r="F1424" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1424" s="36"/>
+      <c r="G1424" s="17"/>
       <c r="H1424" s="1" t="s">
         <v>7</v>
       </c>
@@ -63422,7 +63733,7 @@
       <c r="F1425" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1425" s="36"/>
+      <c r="G1425" s="17"/>
       <c r="H1425" s="1" t="s">
         <v>105</v>
       </c>
@@ -63453,7 +63764,7 @@
       <c r="F1426" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1426" s="36"/>
+      <c r="G1426" s="17"/>
       <c r="H1426" s="1" t="s">
         <v>26</v>
       </c>
@@ -63484,7 +63795,7 @@
       <c r="F1427" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1427" s="36"/>
+      <c r="G1427" s="17"/>
       <c r="H1427" s="1" t="s">
         <v>989</v>
       </c>
@@ -63515,7 +63826,7 @@
       <c r="F1428" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1428" s="36"/>
+      <c r="G1428" s="17"/>
       <c r="H1428" s="1" t="s">
         <v>7</v>
       </c>
@@ -63546,7 +63857,7 @@
       <c r="F1429" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1429" s="36"/>
+      <c r="G1429" s="17"/>
       <c r="H1429" s="1" t="s">
         <v>26</v>
       </c>
@@ -63577,7 +63888,7 @@
       <c r="F1430" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1430" s="36"/>
+      <c r="G1430" s="17"/>
       <c r="H1430" s="1" t="s">
         <v>7</v>
       </c>
@@ -63608,7 +63919,7 @@
       <c r="F1431" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1431" s="36"/>
+      <c r="G1431" s="17"/>
       <c r="H1431" s="1" t="s">
         <v>26</v>
       </c>
@@ -63639,7 +63950,7 @@
       <c r="F1432" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1432" s="36"/>
+      <c r="G1432" s="17"/>
       <c r="H1432" s="1" t="s">
         <v>119</v>
       </c>
@@ -63670,7 +63981,7 @@
       <c r="F1433" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1433" s="36"/>
+      <c r="G1433" s="17"/>
       <c r="H1433" s="1" t="s">
         <v>26</v>
       </c>
@@ -63701,7 +64012,7 @@
       <c r="F1434" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1434" s="36"/>
+      <c r="G1434" s="17"/>
       <c r="H1434" s="1" t="s">
         <v>464</v>
       </c>
@@ -63732,7 +64043,7 @@
       <c r="F1435" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1435" s="37" t="s">
+      <c r="G1435" s="18" t="s">
         <v>4858</v>
       </c>
       <c r="H1435" s="1" t="s">
@@ -63765,7 +64076,7 @@
       <c r="F1436" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1436" s="36"/>
+      <c r="G1436" s="17"/>
       <c r="H1436" s="1" t="s">
         <v>19</v>
       </c>
@@ -63796,7 +64107,7 @@
       <c r="F1437" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1437" s="37" t="s">
+      <c r="G1437" s="18" t="s">
         <v>4864</v>
       </c>
       <c r="H1437" s="1" t="s">
@@ -63829,7 +64140,7 @@
       <c r="F1438" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1438" s="37" t="s">
+      <c r="G1438" s="18" t="s">
         <v>4867</v>
       </c>
       <c r="H1438" s="1" t="s">
@@ -63862,7 +64173,7 @@
       <c r="F1439" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1439" s="37" t="s">
+      <c r="G1439" s="18" t="s">
         <v>4870</v>
       </c>
       <c r="H1439" s="1" t="s">
@@ -63895,7 +64206,7 @@
       <c r="F1440" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1440" s="37" t="s">
+      <c r="G1440" s="18" t="s">
         <v>4873</v>
       </c>
       <c r="H1440" s="1" t="s">
@@ -63928,7 +64239,7 @@
       <c r="F1441" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1441" s="36"/>
+      <c r="G1441" s="17"/>
       <c r="H1441" s="1" t="s">
         <v>26</v>
       </c>
@@ -63959,7 +64270,7 @@
       <c r="F1442" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1442" s="36"/>
+      <c r="G1442" s="17"/>
       <c r="H1442" s="1" t="s">
         <v>40</v>
       </c>
@@ -63990,7 +64301,7 @@
       <c r="F1443" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1443" s="36"/>
+      <c r="G1443" s="17"/>
       <c r="H1443" s="1" t="s">
         <v>100</v>
       </c>
@@ -64021,7 +64332,7 @@
       <c r="F1444" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1444" s="36"/>
+      <c r="G1444" s="17"/>
       <c r="H1444" s="1" t="s">
         <v>226</v>
       </c>
@@ -64052,7 +64363,7 @@
       <c r="F1445" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1445" s="36"/>
+      <c r="G1445" s="17"/>
       <c r="H1445" s="1" t="s">
         <v>100</v>
       </c>
@@ -64083,7 +64394,7 @@
       <c r="F1446" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1446" s="36"/>
+      <c r="G1446" s="17"/>
       <c r="H1446" s="1" t="s">
         <v>26</v>
       </c>
@@ -64114,7 +64425,7 @@
       <c r="F1447" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1447" s="36"/>
+      <c r="G1447" s="17"/>
       <c r="H1447" s="1" t="s">
         <v>2111</v>
       </c>
@@ -64145,7 +64456,7 @@
       <c r="F1448" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1448" s="36"/>
+      <c r="G1448" s="17"/>
       <c r="H1448" s="1" t="s">
         <v>26</v>
       </c>
@@ -64176,7 +64487,7 @@
       <c r="F1449" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1449" s="36"/>
+      <c r="G1449" s="17"/>
       <c r="H1449" s="1" t="s">
         <v>226</v>
       </c>
@@ -64207,7 +64518,7 @@
       <c r="F1450" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1450" s="36"/>
+      <c r="G1450" s="17"/>
       <c r="H1450" s="1" t="s">
         <v>26</v>
       </c>
@@ -64238,7 +64549,7 @@
       <c r="F1451" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1451" s="36"/>
+      <c r="G1451" s="17"/>
       <c r="H1451" s="1" t="s">
         <v>14</v>
       </c>
@@ -64269,7 +64580,7 @@
       <c r="F1452" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1452" s="36"/>
+      <c r="G1452" s="17"/>
       <c r="H1452" s="1" t="s">
         <v>40</v>
       </c>
@@ -64300,7 +64611,7 @@
       <c r="F1453" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1453" s="36"/>
+      <c r="G1453" s="17"/>
       <c r="H1453" s="1" t="s">
         <v>100</v>
       </c>
@@ -64331,7 +64642,7 @@
       <c r="F1454" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1454" s="36"/>
+      <c r="G1454" s="17"/>
       <c r="H1454" s="1" t="s">
         <v>14</v>
       </c>
@@ -64362,7 +64673,7 @@
       <c r="F1455" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1455" s="36"/>
+      <c r="G1455" s="17"/>
       <c r="H1455" s="1" t="s">
         <v>4897</v>
       </c>
@@ -64393,7 +64704,7 @@
       <c r="F1456" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1456" s="36"/>
+      <c r="G1456" s="17"/>
       <c r="H1456" s="1" t="s">
         <v>100</v>
       </c>
@@ -64424,7 +64735,7 @@
       <c r="F1457" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1457" s="36"/>
+      <c r="G1457" s="17"/>
       <c r="H1457" s="1" t="s">
         <v>226</v>
       </c>
@@ -64455,7 +64766,7 @@
       <c r="F1458" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1458" s="36"/>
+      <c r="G1458" s="17"/>
       <c r="H1458" s="1" t="s">
         <v>40</v>
       </c>
@@ -64486,7 +64797,7 @@
       <c r="F1459" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1459" s="36"/>
+      <c r="G1459" s="17"/>
       <c r="H1459" s="1" t="s">
         <v>105</v>
       </c>
@@ -64517,7 +64828,7 @@
       <c r="F1460" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1460" s="36"/>
+      <c r="G1460" s="17"/>
       <c r="H1460" s="1" t="s">
         <v>26</v>
       </c>
@@ -64548,7 +64859,7 @@
       <c r="F1461" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1461" s="36"/>
+      <c r="G1461" s="17"/>
       <c r="H1461" s="1" t="s">
         <v>40</v>
       </c>
@@ -64579,7 +64890,7 @@
       <c r="F1462" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1462" s="36"/>
+      <c r="G1462" s="17"/>
       <c r="H1462" s="1" t="s">
         <v>40</v>
       </c>
@@ -64610,7 +64921,7 @@
       <c r="F1463" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1463" s="36"/>
+      <c r="G1463" s="17"/>
       <c r="H1463" s="1" t="s">
         <v>40</v>
       </c>
@@ -64641,7 +64952,7 @@
       <c r="F1464" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1464" s="36"/>
+      <c r="G1464" s="17"/>
       <c r="H1464" s="1" t="s">
         <v>14</v>
       </c>
@@ -64672,7 +64983,7 @@
       <c r="F1465" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1465" s="36"/>
+      <c r="G1465" s="17"/>
       <c r="H1465" s="1" t="s">
         <v>989</v>
       </c>
@@ -64703,7 +65014,7 @@
       <c r="F1466" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1466" s="36"/>
+      <c r="G1466" s="17"/>
       <c r="H1466" s="1" t="s">
         <v>14</v>
       </c>
@@ -64734,7 +65045,7 @@
       <c r="F1467" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1467" s="36"/>
+      <c r="G1467" s="17"/>
       <c r="H1467" s="1" t="s">
         <v>14</v>
       </c>
@@ -64765,7 +65076,7 @@
       <c r="F1468" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1468" s="36"/>
+      <c r="G1468" s="17"/>
       <c r="H1468" s="1" t="s">
         <v>989</v>
       </c>
@@ -64796,7 +65107,7 @@
       <c r="F1469" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1469" s="36"/>
+      <c r="G1469" s="17"/>
       <c r="H1469" s="1" t="s">
         <v>14</v>
       </c>
@@ -64827,7 +65138,7 @@
       <c r="F1470" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1470" s="36"/>
+      <c r="G1470" s="17"/>
       <c r="H1470" s="1" t="s">
         <v>14</v>
       </c>
@@ -64858,7 +65169,7 @@
       <c r="F1471" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1471" s="36"/>
+      <c r="G1471" s="17"/>
       <c r="H1471" s="1" t="s">
         <v>14</v>
       </c>
@@ -64889,7 +65200,7 @@
       <c r="F1472" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1472" s="36"/>
+      <c r="G1472" s="17"/>
       <c r="H1472" s="1" t="s">
         <v>14</v>
       </c>
@@ -64920,7 +65231,7 @@
       <c r="F1473" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1473" s="36"/>
+      <c r="G1473" s="17"/>
       <c r="H1473" s="1" t="s">
         <v>14</v>
       </c>
@@ -64951,7 +65262,7 @@
       <c r="F1474" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1474" s="36"/>
+      <c r="G1474" s="17"/>
       <c r="H1474" s="1" t="s">
         <v>105</v>
       </c>
@@ -64982,7 +65293,7 @@
       <c r="F1475" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1475" s="36"/>
+      <c r="G1475" s="17"/>
       <c r="H1475" s="1" t="s">
         <v>989</v>
       </c>
@@ -65013,7 +65324,7 @@
       <c r="F1476" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1476" s="36"/>
+      <c r="G1476" s="17"/>
       <c r="H1476" s="1" t="s">
         <v>1729</v>
       </c>
@@ -65044,7 +65355,7 @@
       <c r="F1477" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1477" s="36"/>
+      <c r="G1477" s="17"/>
       <c r="H1477" s="1" t="s">
         <v>14</v>
       </c>
@@ -65075,7 +65386,7 @@
       <c r="F1478" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1478" s="36"/>
+      <c r="G1478" s="17"/>
       <c r="H1478" s="1" t="s">
         <v>14</v>
       </c>
@@ -65106,7 +65417,7 @@
       <c r="F1479" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1479" s="36"/>
+      <c r="G1479" s="17"/>
       <c r="H1479" s="1" t="s">
         <v>14</v>
       </c>
@@ -65137,7 +65448,7 @@
       <c r="F1480" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1480" s="36"/>
+      <c r="G1480" s="17"/>
       <c r="H1480" s="1" t="s">
         <v>14</v>
       </c>
@@ -65168,7 +65479,7 @@
       <c r="F1481" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1481" s="36"/>
+      <c r="G1481" s="17"/>
       <c r="H1481" s="1" t="s">
         <v>26</v>
       </c>
@@ -65199,7 +65510,7 @@
       <c r="F1482" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1482" s="36"/>
+      <c r="G1482" s="17"/>
       <c r="H1482" s="1" t="s">
         <v>40</v>
       </c>
@@ -65230,7 +65541,7 @@
       <c r="F1483" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1483" s="37" t="s">
+      <c r="G1483" s="18" t="s">
         <v>4968</v>
       </c>
       <c r="H1483" s="1" t="s">
@@ -65263,7 +65574,7 @@
       <c r="F1484" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1484" s="36"/>
+      <c r="G1484" s="17"/>
       <c r="H1484" s="1" t="s">
         <v>14</v>
       </c>
@@ -65294,7 +65605,7 @@
       <c r="F1485" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1485" s="36"/>
+      <c r="G1485" s="17"/>
       <c r="H1485" s="1" t="s">
         <v>40</v>
       </c>
@@ -65325,7 +65636,7 @@
       <c r="F1486" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1486" s="36"/>
+      <c r="G1486" s="17"/>
       <c r="H1486" s="1" t="s">
         <v>40</v>
       </c>
@@ -65356,7 +65667,7 @@
       <c r="F1487" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1487" s="36"/>
+      <c r="G1487" s="17"/>
       <c r="H1487" s="1" t="s">
         <v>14</v>
       </c>
@@ -65387,7 +65698,7 @@
       <c r="F1488" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1488" s="36"/>
+      <c r="G1488" s="17"/>
       <c r="H1488" s="1" t="s">
         <v>105</v>
       </c>
@@ -65418,7 +65729,7 @@
       <c r="F1489" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1489" s="36"/>
+      <c r="G1489" s="17"/>
       <c r="H1489" s="1" t="s">
         <v>105</v>
       </c>
@@ -65449,7 +65760,7 @@
       <c r="F1490" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1490" s="36"/>
+      <c r="G1490" s="17"/>
       <c r="H1490" s="1" t="s">
         <v>105</v>
       </c>
@@ -65480,7 +65791,7 @@
       <c r="F1491" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1491" s="36"/>
+      <c r="G1491" s="17"/>
       <c r="H1491" s="1" t="s">
         <v>40</v>
       </c>
@@ -65511,7 +65822,7 @@
       <c r="F1492" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1492" s="36"/>
+      <c r="G1492" s="17"/>
       <c r="H1492" s="1" t="s">
         <v>40</v>
       </c>
@@ -65542,7 +65853,7 @@
       <c r="F1493" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1493" s="36"/>
+      <c r="G1493" s="17"/>
       <c r="H1493" s="1" t="s">
         <v>40</v>
       </c>
@@ -65573,7 +65884,7 @@
       <c r="F1494" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1494" s="36"/>
+      <c r="G1494" s="17"/>
       <c r="H1494" s="1" t="s">
         <v>26</v>
       </c>
@@ -65604,7 +65915,7 @@
       <c r="F1495" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1495" s="37" t="s">
+      <c r="G1495" s="18" t="s">
         <v>5002</v>
       </c>
       <c r="H1495" s="1" t="s">
@@ -65637,7 +65948,7 @@
       <c r="F1496" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1496" s="36"/>
+      <c r="G1496" s="17"/>
       <c r="H1496" s="1" t="s">
         <v>100</v>
       </c>
@@ -65668,7 +65979,7 @@
       <c r="F1497" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1497" s="36"/>
+      <c r="G1497" s="17"/>
       <c r="H1497" s="1" t="s">
         <v>7</v>
       </c>
@@ -65699,7 +66010,7 @@
       <c r="F1498" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1498" s="37" t="s">
+      <c r="G1498" s="18" t="s">
         <v>1976</v>
       </c>
       <c r="H1498" s="1" t="s">
@@ -65732,7 +66043,7 @@
       <c r="F1499" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1499" s="36"/>
+      <c r="G1499" s="17"/>
       <c r="H1499" s="1" t="s">
         <v>14</v>
       </c>
@@ -65763,7 +66074,7 @@
       <c r="F1500" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1500" s="36"/>
+      <c r="G1500" s="17"/>
       <c r="H1500" s="1" t="s">
         <v>40</v>
       </c>
@@ -65794,7 +66105,7 @@
       <c r="F1501" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1501" s="36"/>
+      <c r="G1501" s="17"/>
       <c r="H1501" s="1" t="s">
         <v>40</v>
       </c>
@@ -65825,7 +66136,7 @@
       <c r="F1502" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1502" s="36"/>
+      <c r="G1502" s="17"/>
       <c r="H1502" s="1" t="s">
         <v>26</v>
       </c>
@@ -65853,7 +66164,7 @@
       <c r="F1503" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1503" s="36"/>
+      <c r="G1503" s="17"/>
       <c r="H1503" s="1" t="s">
         <v>40</v>
       </c>
@@ -65884,7 +66195,7 @@
       <c r="F1504" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1504" s="36"/>
+      <c r="G1504" s="17"/>
       <c r="H1504" s="1" t="s">
         <v>40</v>
       </c>
@@ -65915,7 +66226,7 @@
       <c r="F1505" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1505" s="36"/>
+      <c r="G1505" s="17"/>
       <c r="H1505" s="1" t="s">
         <v>40</v>
       </c>
@@ -65946,7 +66257,7 @@
       <c r="F1506" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1506" s="36"/>
+      <c r="G1506" s="17"/>
       <c r="H1506" s="1" t="s">
         <v>100</v>
       </c>
@@ -65977,7 +66288,7 @@
       <c r="F1507" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1507" s="36"/>
+      <c r="G1507" s="17"/>
       <c r="H1507" s="1" t="s">
         <v>100</v>
       </c>
@@ -66008,7 +66319,7 @@
       <c r="F1508" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1508" s="36"/>
+      <c r="G1508" s="17"/>
       <c r="H1508" s="1" t="s">
         <v>100</v>
       </c>
@@ -66039,7 +66350,7 @@
       <c r="F1509" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1509" s="36"/>
+      <c r="G1509" s="17"/>
       <c r="H1509" s="1" t="s">
         <v>40</v>
       </c>
@@ -66070,7 +66381,7 @@
       <c r="F1510" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="G1510" s="36"/>
+      <c r="G1510" s="17"/>
       <c r="H1510" s="1" t="s">
         <v>40</v>
       </c>
@@ -66101,7 +66412,7 @@
       <c r="F1511" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1511" s="36"/>
+      <c r="G1511" s="17"/>
       <c r="H1511" s="1" t="s">
         <v>26</v>
       </c>
@@ -66132,7 +66443,7 @@
       <c r="F1512" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1512" s="36"/>
+      <c r="G1512" s="17"/>
       <c r="H1512" s="1" t="s">
         <v>1171</v>
       </c>
@@ -66163,7 +66474,7 @@
       <c r="F1513" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1513" s="36"/>
+      <c r="G1513" s="17"/>
       <c r="H1513" s="1" t="s">
         <v>14</v>
       </c>
@@ -66194,7 +66505,7 @@
       <c r="F1514" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1514" s="36"/>
+      <c r="G1514" s="17"/>
       <c r="H1514" s="1" t="s">
         <v>14</v>
       </c>
@@ -66225,7 +66536,7 @@
       <c r="F1515" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1515" s="36"/>
+      <c r="G1515" s="17"/>
       <c r="H1515" s="1" t="s">
         <v>26</v>
       </c>
@@ -66256,7 +66567,7 @@
       <c r="F1516" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1516" s="36"/>
+      <c r="G1516" s="17"/>
       <c r="H1516" s="1" t="s">
         <v>7</v>
       </c>
@@ -66287,7 +66598,7 @@
       <c r="F1517" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G1517" s="36"/>
+      <c r="G1517" s="17"/>
       <c r="H1517" s="1" t="s">
         <v>26</v>
       </c>
@@ -66318,7 +66629,7 @@
       <c r="F1518" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1518" s="36"/>
+      <c r="G1518" s="17"/>
       <c r="H1518" s="1" t="s">
         <v>26</v>
       </c>
@@ -66349,7 +66660,7 @@
       <c r="F1519" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1519" s="36"/>
+      <c r="G1519" s="17"/>
       <c r="H1519" s="1" t="s">
         <v>40</v>
       </c>
@@ -66380,7 +66691,7 @@
       <c r="F1520" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1520" s="36"/>
+      <c r="G1520" s="17"/>
       <c r="H1520" s="1" t="s">
         <v>26</v>
       </c>
@@ -66411,7 +66722,7 @@
       <c r="F1521" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1521" s="36"/>
+      <c r="G1521" s="17"/>
       <c r="H1521" s="1" t="s">
         <v>40</v>
       </c>
@@ -66442,7 +66753,7 @@
       <c r="F1522" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1522" s="37" t="s">
+      <c r="G1522" s="18" t="s">
         <v>5073</v>
       </c>
       <c r="H1522" s="1" t="s">
@@ -66475,7 +66786,7 @@
       <c r="F1523" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1523" s="36"/>
+      <c r="G1523" s="17"/>
       <c r="H1523" s="1" t="s">
         <v>989</v>
       </c>
@@ -66506,7 +66817,7 @@
       <c r="F1524" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1524" s="36"/>
+      <c r="G1524" s="17"/>
       <c r="H1524" s="1" t="s">
         <v>100</v>
       </c>
@@ -66537,7 +66848,7 @@
       <c r="F1525" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1525" s="36"/>
+      <c r="G1525" s="17"/>
       <c r="H1525" s="1" t="s">
         <v>7</v>
       </c>
@@ -66568,7 +66879,7 @@
       <c r="F1526" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1526" s="36"/>
+      <c r="G1526" s="17"/>
       <c r="H1526" s="1" t="s">
         <v>7</v>
       </c>
@@ -66599,7 +66910,7 @@
       <c r="F1527" s="6" t="s">
         <v>4923</v>
       </c>
-      <c r="G1527" s="36"/>
+      <c r="G1527" s="17"/>
       <c r="H1527" s="1" t="s">
         <v>7</v>
       </c>
@@ -66630,7 +66941,7 @@
       <c r="F1528" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1528" s="36"/>
+      <c r="G1528" s="17"/>
       <c r="H1528" s="1" t="s">
         <v>26</v>
       </c>
@@ -66661,7 +66972,7 @@
       <c r="F1529" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1529" s="36"/>
+      <c r="G1529" s="17"/>
       <c r="H1529" s="1" t="s">
         <v>100</v>
       </c>
@@ -66692,7 +67003,7 @@
       <c r="F1530" s="6" t="s">
         <v>4339</v>
       </c>
-      <c r="G1530" s="36"/>
+      <c r="G1530" s="17"/>
       <c r="H1530" s="1" t="s">
         <v>7</v>
       </c>
@@ -66723,7 +67034,7 @@
       <c r="F1531" s="6" t="s">
         <v>4339</v>
       </c>
-      <c r="G1531" s="36"/>
+      <c r="G1531" s="17"/>
       <c r="H1531" s="1" t="s">
         <v>7</v>
       </c>
@@ -66751,7 +67062,7 @@
       <c r="F1532" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1532" s="37" t="s">
+      <c r="G1532" s="18" t="s">
         <v>5099</v>
       </c>
       <c r="H1532" s="1" t="s">
@@ -66784,7 +67095,7 @@
       <c r="F1533" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1533" s="36"/>
+      <c r="G1533" s="17"/>
       <c r="H1533" s="1" t="s">
         <v>100</v>
       </c>
@@ -66815,7 +67126,7 @@
       <c r="F1534" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1534" s="36"/>
+      <c r="G1534" s="17"/>
       <c r="H1534" s="1" t="s">
         <v>40</v>
       </c>
@@ -66846,7 +67157,7 @@
       <c r="F1535" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G1535" s="36"/>
+      <c r="G1535" s="17"/>
       <c r="H1535" s="1" t="s">
         <v>40</v>
       </c>
@@ -66877,7 +67188,7 @@
       <c r="F1536" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1536" s="36"/>
+      <c r="G1536" s="17"/>
       <c r="H1536" s="1" t="s">
         <v>14</v>
       </c>
@@ -66908,7 +67219,7 @@
       <c r="F1537" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G1537" s="36"/>
+      <c r="G1537" s="17"/>
       <c r="H1537" s="1" t="s">
         <v>14</v>
       </c>
@@ -66939,7 +67250,7 @@
       <c r="F1538" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1538" s="36"/>
+      <c r="G1538" s="17"/>
       <c r="H1538" s="1" t="s">
         <v>26</v>
       </c>
@@ -66970,7 +67281,7 @@
       <c r="F1539" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1539" s="36"/>
+      <c r="G1539" s="17"/>
       <c r="H1539" s="1" t="s">
         <v>40</v>
       </c>
@@ -67001,7 +67312,7 @@
       <c r="F1540" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1540" s="36"/>
+      <c r="G1540" s="17"/>
       <c r="H1540" s="1" t="s">
         <v>26</v>
       </c>
@@ -67032,7 +67343,7 @@
       <c r="F1541" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1541" s="37" t="s">
+      <c r="G1541" s="18" t="s">
         <v>5121</v>
       </c>
       <c r="H1541" s="1" t="s">
@@ -67065,7 +67376,7 @@
       <c r="F1542" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1542" s="36"/>
+      <c r="G1542" s="17"/>
       <c r="H1542" s="1" t="s">
         <v>100</v>
       </c>
@@ -67096,7 +67407,7 @@
       <c r="F1543" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1543" s="36"/>
+      <c r="G1543" s="17"/>
       <c r="H1543" s="1" t="s">
         <v>26</v>
       </c>
@@ -67127,7 +67438,7 @@
       <c r="F1544" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="G1544" s="36"/>
+      <c r="G1544" s="17"/>
       <c r="H1544" s="1" t="s">
         <v>40</v>
       </c>
@@ -67158,7 +67469,7 @@
       <c r="F1545" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1545" s="37" t="s">
+      <c r="G1545" s="18" t="s">
         <v>5133</v>
       </c>
       <c r="H1545" s="1" t="s">
@@ -67191,7 +67502,7 @@
       <c r="F1546" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1546" s="37" t="s">
+      <c r="G1546" s="18" t="s">
         <v>5137</v>
       </c>
       <c r="H1546" s="1" t="s">
@@ -67224,7 +67535,7 @@
       <c r="F1547" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G1547" s="36"/>
+      <c r="G1547" s="17"/>
       <c r="H1547" s="1" t="s">
         <v>100</v>
       </c>
@@ -67255,7 +67566,7 @@
       <c r="F1548" s="6" t="s">
         <v>5145</v>
       </c>
-      <c r="G1548" s="36"/>
+      <c r="G1548" s="17"/>
       <c r="H1548" s="1" t="s">
         <v>40</v>
       </c>
@@ -67286,7 +67597,7 @@
       <c r="F1549" s="6" t="s">
         <v>5145</v>
       </c>
-      <c r="G1549" s="36"/>
+      <c r="G1549" s="17"/>
       <c r="H1549" s="1" t="s">
         <v>4897</v>
       </c>
@@ -67317,7 +67628,7 @@
       <c r="F1550" s="6" t="s">
         <v>5145</v>
       </c>
-      <c r="G1550" s="36"/>
+      <c r="G1550" s="17"/>
       <c r="H1550" s="1" t="s">
         <v>40</v>
       </c>
@@ -67348,7 +67659,7 @@
       <c r="F1551" s="6" t="s">
         <v>5145</v>
       </c>
-      <c r="G1551" s="36"/>
+      <c r="G1551" s="17"/>
       <c r="H1551" s="1" t="s">
         <v>119</v>
       </c>
@@ -67379,7 +67690,7 @@
       <c r="F1552